--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-1995-testime-834-te-sheruar-51-raste-te-reja-dhe-3-humbje-jete-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2818-testime-894-te-sheruar-91-raste-te-reja-dhe-3-humbje-jete-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3848</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3863</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-6-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-10-may-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4136902856371299/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4146620015399583/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5519-covid-19-1-588-casos-positivos-8-746-pruebas-negativas-y-909-863-dosis-de-la-vacuna-contra-el-virus-fueron-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5539-epidemiologia-1-394-casos-positivos-de-covid-19-4-933-pruebas-negativas-y-997-296-dosis-de-la-vacuna-contra-el-virus-fueron-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-05-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-09-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1894861117346240</t>
+    <t xml:space="preserve">https://developers.facebook.com/docs/plugins/embedded-posts/?prefill_href=https%3A%2F%2Fwww.facebook.com%2Fmshpcmu%2Fposts%2F1897980657034286&amp;__cft__[0]=AZUpyDFMb30b1Tw5JreujH8WspouChomvJew65my0bl36gyR07_koAOWM6gFW9OLBUWxvxq4SLjCuQkDzRmq6LTHbg5myXtfzqD4j2lWSBrLSsg0kVD4UrNmbpkMVTPqKaQ8DnTfWby4ovD7CxPytqSy&amp;__tn__=p%2CP-R#code-generator</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=a7c41df5ed</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=f67902acd1</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-05052021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-09052021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210505.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210508.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1004,7 +1004,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Icelandic Office of Public Health publishes a complete time series of tests performed, broken down into testing scheme. No other information is provided. It is not clear whether these figures include samples that are pending test results. The daily time-series data extends back to 27 February 2020.
-Testing figures include "Diagnostic tests", "Quarantine and random screening" tests, and "deCODE Genetics screening" tests, and exclude "Border screening 1 and 2" tests. The number of confirmed cases do not match the number of domestic infections from the types of tests included in the testing figures. We therefore calculate our own estimate of the Positive Rate, by dividing the 7-day sum of domestic infections confirmed through "Diagnostic tests", "Quarantine screening and random screening" tests, and "Screening by deCODE Genetics" tests by the 7-day sum of tests of corresponding types performed.
+Testing figures include "Diagnostic tests", "Quarantine and random screening" tests, and "deCODE Genetics screening" tests, and exclude "Border screening 1 and 2" tests. The number of confirmed cases does not match the number of domestic infections from the types of tests included in the testing figures. We therefore remove our estimate of the Positive Rate.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/363462</t>
+    <t xml:space="preserve">http://irangov.ir/detail/363611</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1081,7 +1081,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1389931902677696512</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1391488753143848963</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1221,7 +1221,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/4774</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/4778</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1275,7 +1275,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1390018521812410375</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1391494452636790785</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1350,7 +1350,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210507-y3bfhdjm/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210510-cfeld8mz/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1402,7 +1402,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4115516478512905/4115509541846932/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4124691407595412/4124685854262634/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1444,7 +1444,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-06052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-09052021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1389995357438812162</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1391448620805738498</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/333380841713799/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/335441514841065/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-05-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1178/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-08-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1184/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/06.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/09.5.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1587,7 +1587,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=960:boletim-diario-covid-19-n-413</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=975:boletim-diario-covid-19-n-418</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.741557276517278/741557079850631</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.743154389690900/743154316357574/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1647,7 +1647,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1ksQZWC9o_mGxqjr_iy2rXGlyCbWoNtr3</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1vW9KtivksnQKxDMXP_rFZn2Htob50tC6</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1797,7 +1797,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3781403978652119</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3790534774405706</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1819,7 +1819,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1390085813728317442</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1391548446826549248</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1390122422783856642</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1391544134377385985</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1872,7 +1872,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1b1epatlHVJ7K7jYi58eJg5EHpmy0a_xg?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1BSaUVSvahcxnwLm15dsWaeq6I8JTiRFp?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1893,7 +1893,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1390226075880407040</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1391313239150153736</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA%CC%86_7_MAI.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/9-05_BULETIN_DE_PRESA-ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17671</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17688</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2163,7 +2163,7 @@
     <t xml:space="preserve">South Sudan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%206th%20Daily%20Update.pdf</t>
+    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%2010th%20Update.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">https://moh.gov.ss/daily_updates.php</t>
@@ -2308,7 +2308,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/please-receive-the-attached-trinidad-and-tobago-covid-19-novel-coronavirus-update-715/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-719/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2371,7 +2371,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1390232215230033923</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1391343458867109890</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2481,7 +2481,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-181</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-184</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2541,7 +2541,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1390047776310968323</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1391465550237347840</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2889,7 +2889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2958,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2968,31 +2968,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H2" t="n">
-        <v>624006</v>
+        <v>629675</v>
       </c>
       <c r="I2" t="n">
-        <v>216.834</v>
+        <v>218.804</v>
       </c>
       <c r="J2" t="n">
-        <v>1995</v>
+        <v>2818</v>
       </c>
       <c r="K2" t="n">
-        <v>0.693</v>
+        <v>0.979</v>
       </c>
       <c r="L2" t="n">
-        <v>2200</v>
+        <v>2390</v>
       </c>
       <c r="M2" t="n">
-        <v>0.764</v>
+        <v>0.83</v>
       </c>
       <c r="N2" t="n">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="O2" t="n">
-        <v>26.1</v>
+        <v>31.4</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3068,7 +3068,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44317</v>
+        <v>44321</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3078,31 +3078,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H4" t="n">
-        <v>8812719</v>
+        <v>8951195</v>
       </c>
       <c r="I4" t="n">
-        <v>194.99</v>
+        <v>198.054</v>
       </c>
       <c r="J4" t="n">
-        <v>24365</v>
+        <v>37654</v>
       </c>
       <c r="K4" t="n">
-        <v>0.539</v>
+        <v>0.833</v>
       </c>
       <c r="L4" t="n">
-        <v>32613</v>
+        <v>31989</v>
       </c>
       <c r="M4" t="n">
-        <v>0.722</v>
+        <v>0.708</v>
       </c>
       <c r="N4" t="n">
-        <v>0.293</v>
+        <v>0.288</v>
       </c>
       <c r="O4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3125,7 +3125,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3135,31 +3135,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" t="n">
-        <v>1004873</v>
+        <v>1014891</v>
       </c>
       <c r="I5" t="n">
-        <v>339.114</v>
+        <v>342.494</v>
       </c>
       <c r="J5" t="n">
-        <v>3964</v>
+        <v>2353</v>
       </c>
       <c r="K5" t="n">
-        <v>1.338</v>
+        <v>0.794</v>
       </c>
       <c r="L5" t="n">
-        <v>3688</v>
+        <v>3409</v>
       </c>
       <c r="M5" t="n">
-        <v>1.245</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>0.108</v>
+        <v>0.101</v>
       </c>
       <c r="O5" t="n">
-        <v>9.2</v>
+        <v>9.9</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3182,7 +3182,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3192,31 +3192,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H6" t="n">
-        <v>17080821</v>
+        <v>17259848</v>
       </c>
       <c r="I6" t="n">
-        <v>669.839</v>
+        <v>676.86</v>
       </c>
       <c r="J6" t="n">
-        <v>50635</v>
+        <v>38739</v>
       </c>
       <c r="K6" t="n">
-        <v>1.986</v>
+        <v>1.519</v>
       </c>
       <c r="L6" t="n">
-        <v>40615</v>
+        <v>44805</v>
       </c>
       <c r="M6" t="n">
-        <v>1.593</v>
+        <v>1.757</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2992.8</v>
+        <v>3564.2</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3239,7 +3239,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3249,25 +3249,25 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H7" t="n">
-        <v>33702259</v>
+        <v>34504177</v>
       </c>
       <c r="I7" t="n">
-        <v>3742.034</v>
+        <v>3831.073</v>
       </c>
       <c r="J7" t="n">
-        <v>459327</v>
+        <v>204215</v>
       </c>
       <c r="K7" t="n">
-        <v>51</v>
+        <v>22.674</v>
       </c>
       <c r="L7" t="n">
-        <v>301791</v>
+        <v>302886</v>
       </c>
       <c r="M7" t="n">
-        <v>33.509</v>
+        <v>33.63</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -3292,7 +3292,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3302,28 +3302,32 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>3311267</v>
+        <v>3337931</v>
       </c>
       <c r="I8" t="n">
-        <v>326.582</v>
+        <v>329.211</v>
       </c>
       <c r="J8" t="n">
-        <v>10686</v>
+        <v>6946</v>
       </c>
       <c r="K8" t="n">
-        <v>1.054</v>
+        <v>0.685</v>
       </c>
       <c r="L8" t="n">
-        <v>11629</v>
+        <v>10754</v>
       </c>
       <c r="M8" t="n">
-        <v>1.147</v>
-      </c>
-      <c r="N8"/>
-      <c r="O8"/>
+        <v>1.061</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14.2</v>
+      </c>
       <c r="P8" t="s">
         <v>59</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3355,25 +3359,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H9" t="n">
-        <v>4189757</v>
+        <v>4256020</v>
       </c>
       <c r="I9" t="n">
-        <v>2462.27</v>
+        <v>2501.212</v>
       </c>
       <c r="J9" t="n">
-        <v>17701</v>
+        <v>17554</v>
       </c>
       <c r="K9" t="n">
-        <v>10.403</v>
+        <v>10.316</v>
       </c>
       <c r="L9" t="n">
-        <v>15813</v>
+        <v>16646</v>
       </c>
       <c r="M9" t="n">
-        <v>9.293</v>
+        <v>9.783</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3398,7 +3402,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3408,31 +3412,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H10" t="n">
-        <v>5571860</v>
+        <v>5637339</v>
       </c>
       <c r="I10" t="n">
-        <v>33.833</v>
+        <v>34.23</v>
       </c>
       <c r="J10" t="n">
-        <v>21585</v>
+        <v>16848</v>
       </c>
       <c r="K10" t="n">
-        <v>0.131</v>
+        <v>0.102</v>
       </c>
       <c r="L10" t="n">
-        <v>18229</v>
+        <v>18476</v>
       </c>
       <c r="M10" t="n">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="N10" t="n">
-        <v>0.096</v>
+        <v>0.088</v>
       </c>
       <c r="O10" t="n">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3481,8 +3485,12 @@
       <c r="M11" t="n">
         <v>1.662</v>
       </c>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="N11" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14.5</v>
+      </c>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3504,7 +3512,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3514,31 +3522,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H12" t="n">
-        <v>12819930</v>
+        <v>13010836</v>
       </c>
       <c r="I12" t="n">
-        <v>1106.157</v>
+        <v>1122.629</v>
       </c>
       <c r="J12" t="n">
-        <v>58282</v>
+        <v>21799</v>
       </c>
       <c r="K12" t="n">
-        <v>5.029</v>
+        <v>1.881</v>
       </c>
       <c r="L12" t="n">
-        <v>48958</v>
+        <v>51995</v>
       </c>
       <c r="M12" t="n">
-        <v>4.224</v>
+        <v>4.486</v>
       </c>
       <c r="N12" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="O12" t="n">
-        <v>14.9</v>
+        <v>15.6</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3561,7 +3569,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3571,31 +3579,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H13" t="n">
-        <v>720018</v>
+        <v>727281</v>
       </c>
       <c r="I13" t="n">
-        <v>933.135</v>
+        <v>942.548</v>
       </c>
       <c r="J13" t="n">
-        <v>1745</v>
+        <v>2344</v>
       </c>
       <c r="K13" t="n">
-        <v>2.261</v>
+        <v>3.038</v>
       </c>
       <c r="L13" t="n">
-        <v>2942</v>
+        <v>2222</v>
       </c>
       <c r="M13" t="n">
-        <v>3.813</v>
+        <v>2.88</v>
       </c>
       <c r="N13" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="O13" t="n">
-        <v>216.8</v>
+        <v>141.4</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -3618,7 +3626,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44320</v>
+        <v>44324</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3628,31 +3636,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H14" t="n">
-        <v>1203401</v>
+        <v>1240688</v>
       </c>
       <c r="I14" t="n">
-        <v>103.092</v>
+        <v>106.287</v>
       </c>
       <c r="J14" t="n">
-        <v>894417</v>
+        <v>6327</v>
       </c>
       <c r="K14" t="n">
-        <v>76.623</v>
+        <v>0.542</v>
       </c>
       <c r="L14" t="n">
-        <v>10352</v>
+        <v>9020</v>
       </c>
       <c r="M14" t="n">
-        <v>0.887</v>
+        <v>0.773</v>
       </c>
       <c r="N14" t="n">
-        <v>0.12</v>
+        <v>0.175</v>
       </c>
       <c r="O14" t="n">
-        <v>8.3</v>
+        <v>5.7</v>
       </c>
       <c r="P14" t="s">
         <v>42</v>
@@ -3675,7 +3683,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3685,28 +3693,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H15" t="n">
-        <v>922568</v>
+        <v>929119</v>
       </c>
       <c r="I15" t="n">
-        <v>281.201</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2561</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.781</v>
-      </c>
+        <v>283.198</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
       <c r="L15" t="n">
-        <v>2216</v>
+        <v>2469</v>
       </c>
       <c r="M15" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
+        <v>0.753</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.3</v>
+      </c>
       <c r="P15" t="s">
         <v>101</v>
       </c>
@@ -3777,7 +3785,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3787,32 +3795,28 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H17" t="n">
-        <v>2556505</v>
+        <v>2606975</v>
       </c>
       <c r="I17" t="n">
-        <v>367.925</v>
+        <v>375.188</v>
       </c>
       <c r="J17" t="n">
-        <v>14933</v>
+        <v>16390</v>
       </c>
       <c r="K17" t="n">
-        <v>2.149</v>
+        <v>2.359</v>
       </c>
       <c r="L17" t="n">
-        <v>9038</v>
+        <v>10230</v>
       </c>
       <c r="M17" t="n">
-        <v>1.301</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="O17" t="n">
-        <v>13.6</v>
-      </c>
+        <v>1.472</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
       <c r="P17" t="s">
         <v>114</v>
       </c>
@@ -3891,7 +3895,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -3901,31 +3905,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H19" t="n">
-        <v>32266260</v>
+        <v>32746783</v>
       </c>
       <c r="I19" t="n">
-        <v>854.913</v>
+        <v>867.645</v>
       </c>
       <c r="J19" t="n">
-        <v>138592</v>
+        <v>90029</v>
       </c>
       <c r="K19" t="n">
-        <v>3.672</v>
+        <v>2.385</v>
       </c>
       <c r="L19" t="n">
-        <v>134441</v>
+        <v>121271</v>
       </c>
       <c r="M19" t="n">
-        <v>3.562</v>
+        <v>3.213</v>
       </c>
       <c r="N19" t="n">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="O19" t="n">
-        <v>17.4</v>
+        <v>16.8</v>
       </c>
       <c r="P19" t="s">
         <v>119</v>
@@ -3948,7 +3952,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44320</v>
+        <v>44324</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -3958,15 +3962,15 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>1707</v>
+        <v>1447</v>
       </c>
       <c r="K20" t="n">
-        <v>3.07</v>
+        <v>2.603</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -3993,7 +3997,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -4003,25 +4007,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H21" t="n">
-        <v>13366644</v>
+        <v>13623503</v>
       </c>
       <c r="I21" t="n">
-        <v>699.231</v>
+        <v>712.668</v>
       </c>
       <c r="J21" t="n">
-        <v>62816</v>
+        <v>66350</v>
       </c>
       <c r="K21" t="n">
-        <v>3.286</v>
+        <v>3.471</v>
       </c>
       <c r="L21" t="n">
-        <v>55261</v>
+        <v>54294</v>
       </c>
       <c r="M21" t="n">
-        <v>2.891</v>
+        <v>2.84</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4091,7 +4095,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -4101,31 +4105,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H23" t="n">
-        <v>15160357</v>
+        <v>15436288</v>
       </c>
       <c r="I23" t="n">
-        <v>297.946</v>
+        <v>303.369</v>
       </c>
       <c r="J23" t="n">
-        <v>74550</v>
+        <v>41635</v>
       </c>
       <c r="K23" t="n">
-        <v>1.465</v>
+        <v>0.818</v>
       </c>
       <c r="L23" t="n">
-        <v>69323</v>
+        <v>68177</v>
       </c>
       <c r="M23" t="n">
-        <v>1.362</v>
+        <v>1.34</v>
       </c>
       <c r="N23" t="n">
-        <v>0.247</v>
+        <v>0.254</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="P23" t="s">
         <v>146</v>
@@ -4148,7 +4152,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44320</v>
+        <v>44324</v>
       </c>
       <c r="D24" t="s">
         <v>151</v>
@@ -4158,31 +4162,31 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H24" t="n">
-        <v>844983</v>
+        <v>873698</v>
       </c>
       <c r="I24" t="n">
-        <v>165.874</v>
+        <v>171.511</v>
       </c>
       <c r="J24" t="n">
-        <v>4714</v>
+        <v>7934</v>
       </c>
       <c r="K24" t="n">
-        <v>0.925</v>
+        <v>1.557</v>
       </c>
       <c r="L24" t="n">
-        <v>6645</v>
+        <v>6134</v>
       </c>
       <c r="M24" t="n">
-        <v>1.304</v>
+        <v>1.204</v>
       </c>
       <c r="N24" t="n">
-        <v>0.27</v>
+        <v>0.281</v>
       </c>
       <c r="O24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="P24" t="s">
         <v>152</v>
@@ -4205,7 +4209,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -4215,31 +4219,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H25" t="n">
-        <v>603021</v>
+        <v>611119</v>
       </c>
       <c r="I25" t="n">
-        <v>22.861</v>
+        <v>23.168</v>
       </c>
       <c r="J25" t="n">
-        <v>2360</v>
+        <v>2159</v>
       </c>
       <c r="K25" t="n">
-        <v>0.089</v>
+        <v>0.082</v>
       </c>
       <c r="L25" t="n">
-        <v>1831</v>
+        <v>1773</v>
       </c>
       <c r="M25" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
       <c r="N25" t="n">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
       <c r="O25" t="n">
-        <v>44.5</v>
+        <v>37.8</v>
       </c>
       <c r="P25" t="s">
         <v>157</v>
@@ -4262,7 +4266,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4272,25 +4276,25 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H26" t="n">
-        <v>1863305</v>
+        <v>1890133</v>
       </c>
       <c r="I26" t="n">
-        <v>453.881</v>
+        <v>460.416</v>
       </c>
       <c r="J26" t="n">
-        <v>7682</v>
+        <v>8839</v>
       </c>
       <c r="K26" t="n">
-        <v>1.871</v>
+        <v>2.153</v>
       </c>
       <c r="L26" t="n">
-        <v>8445</v>
+        <v>7718</v>
       </c>
       <c r="M26" t="n">
-        <v>2.057</v>
+        <v>1.88</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -4315,7 +4319,7 @@
         <v>167</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D27" t="s">
         <v>168</v>
@@ -4327,31 +4331,31 @@
         <v>170</v>
       </c>
       <c r="G27" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H27" t="n">
-        <v>3764614</v>
+        <v>3861456</v>
       </c>
       <c r="I27" t="n">
-        <v>332.369</v>
+        <v>340.919</v>
       </c>
       <c r="J27" t="n">
-        <v>22818</v>
+        <v>24111</v>
       </c>
       <c r="K27" t="n">
-        <v>2.015</v>
+        <v>2.129</v>
       </c>
       <c r="L27" t="n">
-        <v>22228</v>
+        <v>23061</v>
       </c>
       <c r="M27" t="n">
-        <v>1.962</v>
+        <v>2.036</v>
       </c>
       <c r="N27" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="O27" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="P27" t="s">
         <v>169</v>
@@ -4374,7 +4378,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
@@ -4384,31 +4388,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H28" t="n">
-        <v>5459910</v>
+        <v>5780845</v>
       </c>
       <c r="I28" t="n">
-        <v>6233.493</v>
+        <v>6599.899</v>
       </c>
       <c r="J28" t="n">
-        <v>42232</v>
+        <v>83418</v>
       </c>
       <c r="K28" t="n">
-        <v>48.216</v>
+        <v>95.237</v>
       </c>
       <c r="L28" t="n">
-        <v>39980</v>
+        <v>68991</v>
       </c>
       <c r="M28" t="n">
-        <v>45.645</v>
+        <v>78.766</v>
       </c>
       <c r="N28" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="O28" t="n">
-        <v>87.2</v>
+        <v>172.7</v>
       </c>
       <c r="P28" t="s">
         <v>42</v>
@@ -4431,7 +4435,7 @@
         <v>178</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D29" t="s">
         <v>179</v>
@@ -4441,27 +4445,27 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>175236</v>
+        <v>246111</v>
       </c>
       <c r="K29" t="n">
-        <v>16.363</v>
+        <v>22.982</v>
       </c>
       <c r="L29" t="n">
-        <v>169254</v>
+        <v>175299</v>
       </c>
       <c r="M29" t="n">
-        <v>15.805</v>
+        <v>16.369</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="O29" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
         <v>42</v>
@@ -4484,7 +4488,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4494,27 +4498,27 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>493</v>
+        <v>328</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="L30" t="n">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="M30" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="N30" t="n">
-        <v>0.128</v>
+        <v>0.143</v>
       </c>
       <c r="O30" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4647,7 +4651,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4659,31 +4663,31 @@
         <v>203</v>
       </c>
       <c r="G33" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H33" t="n">
-        <v>1360184</v>
+        <v>1283883</v>
       </c>
       <c r="I33" t="n">
-        <v>77.095</v>
+        <v>72.77</v>
       </c>
       <c r="J33" t="n">
-        <v>106543</v>
+        <v>4287</v>
       </c>
       <c r="K33" t="n">
-        <v>6.039</v>
+        <v>0.243</v>
       </c>
       <c r="L33" t="n">
-        <v>20416</v>
+        <v>6211</v>
       </c>
       <c r="M33" t="n">
-        <v>1.157</v>
+        <v>0.352</v>
       </c>
       <c r="N33" t="n">
-        <v>0.108</v>
+        <v>0.299</v>
       </c>
       <c r="O33" t="n">
-        <v>9.3</v>
+        <v>3.3</v>
       </c>
       <c r="P33" t="s">
         <v>204</v>
@@ -4763,7 +4767,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D35" t="s">
         <v>215</v>
@@ -4773,31 +4777,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H35" t="n">
-        <v>1323793</v>
+        <v>1337696</v>
       </c>
       <c r="I35" t="n">
-        <v>997.93</v>
+        <v>1008.411</v>
       </c>
       <c r="J35" t="n">
-        <v>4955</v>
+        <v>2934</v>
       </c>
       <c r="K35" t="n">
-        <v>3.735</v>
+        <v>2.212</v>
       </c>
       <c r="L35" t="n">
-        <v>4368</v>
+        <v>4391</v>
       </c>
       <c r="M35" t="n">
-        <v>3.293</v>
+        <v>3.31</v>
       </c>
       <c r="N35" t="n">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
       <c r="O35" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="P35" t="s">
         <v>216</v>
@@ -4820,7 +4824,7 @@
         <v>219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D36" t="s">
         <v>220</v>
@@ -4830,31 +4834,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H36" t="n">
-        <v>2604376</v>
+        <v>2624176</v>
       </c>
       <c r="I36" t="n">
-        <v>22.654</v>
+        <v>22.826</v>
       </c>
       <c r="J36" t="n">
-        <v>4914</v>
+        <v>3583</v>
       </c>
       <c r="K36" t="n">
-        <v>0.043</v>
+        <v>0.031</v>
       </c>
       <c r="L36" t="n">
-        <v>4262</v>
+        <v>4869</v>
       </c>
       <c r="M36" t="n">
-        <v>0.037</v>
+        <v>0.042</v>
       </c>
       <c r="N36" t="n">
-        <v>0.147</v>
+        <v>0.126</v>
       </c>
       <c r="O36" t="n">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="P36" t="s">
         <v>221</v>
@@ -4930,7 +4934,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -4940,31 +4944,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H38" t="n">
-        <v>4615122</v>
+        <v>4677618</v>
       </c>
       <c r="I38" t="n">
-        <v>832.947</v>
+        <v>844.226</v>
       </c>
       <c r="J38" t="n">
-        <v>21225</v>
+        <v>8843</v>
       </c>
       <c r="K38" t="n">
-        <v>3.831</v>
+        <v>1.596</v>
       </c>
       <c r="L38" t="n">
-        <v>17127</v>
+        <v>17804</v>
       </c>
       <c r="M38" t="n">
-        <v>3.091</v>
+        <v>3.213</v>
       </c>
       <c r="N38" t="n">
         <v>0.012</v>
       </c>
       <c r="O38" t="n">
-        <v>86.1</v>
+        <v>83.4</v>
       </c>
       <c r="P38" t="s">
         <v>232</v>
@@ -4987,7 +4991,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44319</v>
+        <v>44323</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -4997,27 +5001,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>479036</v>
+        <v>500448</v>
       </c>
       <c r="K39" t="n">
-        <v>7.029</v>
+        <v>7.344</v>
       </c>
       <c r="L39" t="n">
-        <v>310009</v>
+        <v>332449</v>
       </c>
       <c r="M39" t="n">
-        <v>4.549</v>
+        <v>4.878</v>
       </c>
       <c r="N39" t="n">
-        <v>0.069</v>
+        <v>0.054</v>
       </c>
       <c r="O39" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5207,7 +5211,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44318</v>
+        <v>44321</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5217,27 +5221,27 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H43" t="n">
-        <v>1095041</v>
+        <v>1102233</v>
       </c>
       <c r="I43" t="n">
-        <v>35.241</v>
+        <v>35.472</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>2777</v>
+        <v>1267</v>
       </c>
       <c r="M43" t="n">
-        <v>0.089</v>
+        <v>0.041</v>
       </c>
       <c r="N43" t="n">
-        <v>0.022</v>
+        <v>0.036</v>
       </c>
       <c r="O43" t="n">
-        <v>44.7</v>
+        <v>28.2</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5260,7 +5264,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5270,31 +5274,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H44" t="n">
-        <v>8244918</v>
+        <v>8445689</v>
       </c>
       <c r="I44" t="n">
-        <v>791.027</v>
+        <v>810.289</v>
       </c>
       <c r="J44" t="n">
-        <v>33958</v>
+        <v>58949</v>
       </c>
       <c r="K44" t="n">
-        <v>3.258</v>
+        <v>5.656</v>
       </c>
       <c r="L44" t="n">
-        <v>33761</v>
+        <v>40011</v>
       </c>
       <c r="M44" t="n">
-        <v>3.239</v>
+        <v>3.839</v>
       </c>
       <c r="N44" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="O44" t="n">
-        <v>20.5</v>
+        <v>19.8</v>
       </c>
       <c r="P44" t="s">
         <v>266</v>
@@ -5317,7 +5321,7 @@
         <v>270</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D45" t="s">
         <v>271</v>
@@ -5327,31 +5331,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H45" t="n">
-        <v>1291245</v>
+        <v>1308883</v>
       </c>
       <c r="I45" t="n">
-        <v>72.074</v>
+        <v>73.058</v>
       </c>
       <c r="J45" t="n">
-        <v>7985</v>
+        <v>1107</v>
       </c>
       <c r="K45" t="n">
-        <v>0.446</v>
+        <v>0.062</v>
       </c>
       <c r="L45" t="n">
-        <v>5781</v>
+        <v>6070</v>
       </c>
       <c r="M45" t="n">
-        <v>0.323</v>
+        <v>0.339</v>
       </c>
       <c r="N45" t="n">
-        <v>0.165</v>
+        <v>0.151</v>
       </c>
       <c r="O45" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="P45" t="s">
         <v>273</v>
@@ -5374,7 +5378,7 @@
         <v>277</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="D46" t="s">
         <v>278</v>
@@ -5384,22 +5388,18 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H46" t="n">
-        <v>12935888</v>
+        <v>14841321</v>
       </c>
       <c r="I46" t="n">
-        <v>1725.478</v>
+        <v>1979.638</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46" t="n">
-        <v>53303</v>
-      </c>
-      <c r="M46" t="n">
-        <v>7.11</v>
-      </c>
+      <c r="L46"/>
+      <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46" t="s">
@@ -5423,7 +5423,7 @@
         <v>284</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D47" t="s">
         <v>285</v>
@@ -5435,25 +5435,25 @@
         <v>287</v>
       </c>
       <c r="G47" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H47" t="n">
-        <v>5043362</v>
+        <v>5094469</v>
       </c>
       <c r="I47" t="n">
-        <v>522.068</v>
+        <v>527.359</v>
       </c>
       <c r="J47" t="n">
-        <v>18647</v>
+        <v>6513</v>
       </c>
       <c r="K47" t="n">
-        <v>1.93</v>
+        <v>0.674</v>
       </c>
       <c r="L47" t="n">
-        <v>17237</v>
+        <v>15309</v>
       </c>
       <c r="M47" t="n">
-        <v>1.784</v>
+        <v>1.585</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5478,7 +5478,7 @@
         <v>291</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D48" t="s">
         <v>292</v>
@@ -5488,32 +5488,28 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H48" t="n">
-        <v>357132</v>
+        <v>359962</v>
       </c>
       <c r="I48" t="n">
-        <v>1046.541</v>
+        <v>1054.834</v>
       </c>
       <c r="J48" t="n">
-        <v>1043</v>
+        <v>932</v>
       </c>
       <c r="K48" t="n">
-        <v>3.056</v>
+        <v>2.731</v>
       </c>
       <c r="L48" t="n">
-        <v>1188</v>
+        <v>1160</v>
       </c>
       <c r="M48" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O48" t="n">
-        <v>244.6</v>
-      </c>
+        <v>3.399</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
       <c r="P48" t="s">
         <v>293</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D49" t="s">
         <v>297</v>
@@ -5547,25 +5543,25 @@
         <v>299</v>
       </c>
       <c r="G49" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H49" t="n">
-        <v>298601699</v>
+        <v>305600187</v>
       </c>
       <c r="I49" t="n">
-        <v>216.377</v>
+        <v>221.449</v>
       </c>
       <c r="J49" t="n">
-        <v>1826490</v>
+        <v>1850110</v>
       </c>
       <c r="K49" t="n">
-        <v>1.324</v>
+        <v>1.341</v>
       </c>
       <c r="L49" t="n">
-        <v>1744230</v>
+        <v>1755630</v>
       </c>
       <c r="M49" t="n">
-        <v>1.264</v>
+        <v>1.272</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -5590,7 +5586,7 @@
         <v>302</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D50" t="s">
         <v>303</v>
@@ -5600,28 +5596,32 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H50" t="n">
-        <v>10130714</v>
+        <v>10237631</v>
       </c>
       <c r="I50" t="n">
-        <v>37.038</v>
+        <v>37.429</v>
       </c>
       <c r="J50" t="n">
-        <v>46635</v>
+        <v>31963</v>
       </c>
       <c r="K50" t="n">
-        <v>0.17</v>
+        <v>0.117</v>
       </c>
       <c r="L50" t="n">
-        <v>44185</v>
+        <v>43769</v>
       </c>
       <c r="M50" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>0.16</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8.4</v>
+      </c>
       <c r="P50" t="s">
         <v>304</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>308</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D51" t="s">
         <v>309</v>
@@ -5653,24 +5653,28 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H51" t="n">
-        <v>16789338</v>
+        <v>17206735</v>
       </c>
       <c r="I51" t="n">
-        <v>199.89</v>
+        <v>204.859</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>136910</v>
+        <v>137782</v>
       </c>
       <c r="M51" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N51"/>
-      <c r="O51"/>
+        <v>1.64</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8.2</v>
+      </c>
       <c r="P51" t="s">
         <v>310</v>
       </c>
@@ -5692,7 +5696,7 @@
         <v>314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D52" t="s">
         <v>315</v>
@@ -5702,25 +5706,25 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H52" t="n">
-        <v>9524638</v>
+        <v>9673212</v>
       </c>
       <c r="I52" t="n">
-        <v>236.799</v>
+        <v>240.493</v>
       </c>
       <c r="J52" t="n">
-        <v>40115</v>
+        <v>33875</v>
       </c>
       <c r="K52" t="n">
-        <v>0.997</v>
+        <v>0.842</v>
       </c>
       <c r="L52" t="n">
-        <v>39985</v>
+        <v>37868</v>
       </c>
       <c r="M52" t="n">
-        <v>0.994</v>
+        <v>0.941</v>
       </c>
       <c r="N52" t="n">
         <v>0.143</v>
@@ -5749,7 +5753,7 @@
         <v>321</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D53" t="s">
         <v>322</v>
@@ -5759,28 +5763,32 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H53" t="n">
-        <v>4618713</v>
+        <v>4673378</v>
       </c>
       <c r="I53" t="n">
-        <v>935.379</v>
+        <v>946.45</v>
       </c>
       <c r="J53" t="n">
-        <v>18847</v>
+        <v>13575</v>
       </c>
       <c r="K53" t="n">
-        <v>3.817</v>
+        <v>2.749</v>
       </c>
       <c r="L53" t="n">
-        <v>17693</v>
+        <v>18306</v>
       </c>
       <c r="M53" t="n">
-        <v>3.583</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>3.707</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O53" t="n">
+        <v>44.2</v>
+      </c>
       <c r="P53" t="s">
         <v>323</v>
       </c>
@@ -5802,7 +5810,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -5812,31 +5820,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H54" t="n">
-        <v>16325578</v>
+        <v>16438910</v>
       </c>
       <c r="I54" t="n">
-        <v>1886.142</v>
+        <v>1899.235</v>
       </c>
       <c r="J54" t="n">
-        <v>31547</v>
+        <v>40657</v>
       </c>
       <c r="K54" t="n">
-        <v>3.645</v>
+        <v>4.697</v>
       </c>
       <c r="L54" t="n">
-        <v>32000</v>
+        <v>32137</v>
       </c>
       <c r="M54" t="n">
-        <v>3.697</v>
+        <v>3.713</v>
       </c>
       <c r="N54" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O54" t="n">
-        <v>532.1</v>
+        <v>669.5</v>
       </c>
       <c r="P54" t="s">
         <v>42</v>
@@ -5859,7 +5867,7 @@
         <v>333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D55" t="s">
         <v>334</v>
@@ -5871,31 +5879,31 @@
         <v>336</v>
       </c>
       <c r="G55" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H55" t="n">
-        <v>26238166</v>
+        <v>26584979</v>
       </c>
       <c r="I55" t="n">
-        <v>433.962</v>
+        <v>439.699</v>
       </c>
       <c r="J55" t="n">
-        <v>113249</v>
+        <v>45942</v>
       </c>
       <c r="K55" t="n">
-        <v>1.873</v>
+        <v>0.76</v>
       </c>
       <c r="L55" t="n">
-        <v>93527</v>
+        <v>95542</v>
       </c>
       <c r="M55" t="n">
-        <v>1.547</v>
+        <v>1.58</v>
       </c>
       <c r="N55" t="n">
-        <v>0.111</v>
+        <v>0.098</v>
       </c>
       <c r="O55" t="n">
-        <v>9</v>
+        <v>10.2</v>
       </c>
       <c r="P55" t="s">
         <v>337</v>
@@ -5918,7 +5926,7 @@
         <v>340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D56" t="s">
         <v>334</v>
@@ -5930,31 +5938,31 @@
         <v>336</v>
       </c>
       <c r="G56" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H56" t="n">
-        <v>60203970</v>
+        <v>61227024</v>
       </c>
       <c r="I56" t="n">
-        <v>995.735</v>
+        <v>1012.656</v>
       </c>
       <c r="J56" t="n">
-        <v>324640</v>
+        <v>130000</v>
       </c>
       <c r="K56" t="n">
-        <v>5.369</v>
+        <v>2.15</v>
       </c>
       <c r="L56" t="n">
-        <v>280427</v>
+        <v>284338</v>
       </c>
       <c r="M56" t="n">
-        <v>4.638</v>
+        <v>4.703</v>
       </c>
       <c r="N56" t="n">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
       <c r="O56" t="n">
-        <v>26.9</v>
+        <v>30.4</v>
       </c>
       <c r="P56" t="s">
         <v>337</v>
@@ -6030,7 +6038,7 @@
         <v>349</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D58" t="s">
         <v>350</v>
@@ -6040,31 +6048,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H58" t="n">
-        <v>11552571</v>
+        <v>11905345</v>
       </c>
       <c r="I58" t="n">
-        <v>91.342</v>
+        <v>94.131</v>
       </c>
       <c r="J58" t="n">
-        <v>89586</v>
+        <v>130677</v>
       </c>
       <c r="K58" t="n">
-        <v>0.708</v>
+        <v>1.033</v>
       </c>
       <c r="L58" t="n">
-        <v>56805</v>
+        <v>76742</v>
       </c>
       <c r="M58" t="n">
-        <v>0.449</v>
+        <v>0.607</v>
       </c>
       <c r="N58" t="n">
-        <v>0.085</v>
+        <v>0.07</v>
       </c>
       <c r="O58" t="n">
-        <v>11.8</v>
+        <v>14.4</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6087,7 +6095,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6097,31 +6105,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H59" t="n">
-        <v>6781275</v>
+        <v>6839470</v>
       </c>
       <c r="I59" t="n">
-        <v>664.626</v>
+        <v>670.33</v>
       </c>
       <c r="J59" t="n">
-        <v>17877</v>
+        <v>14968</v>
       </c>
       <c r="K59" t="n">
-        <v>1.752</v>
+        <v>1.467</v>
       </c>
       <c r="L59" t="n">
-        <v>16126</v>
+        <v>15981</v>
       </c>
       <c r="M59" t="n">
-        <v>1.58</v>
+        <v>1.566</v>
       </c>
       <c r="N59" t="n">
-        <v>0.077</v>
+        <v>0.057</v>
       </c>
       <c r="O59" t="n">
-        <v>13</v>
+        <v>17.7</v>
       </c>
       <c r="P59" t="s">
         <v>357</v>
@@ -6144,7 +6152,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6154,31 +6162,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H60" t="n">
-        <v>10455458</v>
+        <v>10631263</v>
       </c>
       <c r="I60" t="n">
-        <v>556.831</v>
+        <v>566.194</v>
       </c>
       <c r="J60" t="n">
-        <v>50371</v>
+        <v>31984</v>
       </c>
       <c r="K60" t="n">
-        <v>2.683</v>
+        <v>1.703</v>
       </c>
       <c r="L60" t="n">
-        <v>46726</v>
+        <v>41215</v>
       </c>
       <c r="M60" t="n">
-        <v>2.489</v>
+        <v>2.195</v>
       </c>
       <c r="N60" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="O60" t="n">
-        <v>17.8</v>
+        <v>19.1</v>
       </c>
       <c r="P60" t="s">
         <v>363</v>
@@ -6254,7 +6262,7 @@
         <v>371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D62" t="s">
         <v>372</v>
@@ -6264,31 +6272,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H62" t="n">
-        <v>2370265</v>
+        <v>2403736</v>
       </c>
       <c r="I62" t="n">
-        <v>555.024</v>
+        <v>562.862</v>
       </c>
       <c r="J62" t="n">
-        <v>9428</v>
+        <v>7204</v>
       </c>
       <c r="K62" t="n">
-        <v>2.208</v>
+        <v>1.687</v>
       </c>
       <c r="L62" t="n">
-        <v>8979</v>
+        <v>8667</v>
       </c>
       <c r="M62" t="n">
-        <v>2.103</v>
+        <v>2.029</v>
       </c>
       <c r="N62" t="n">
-        <v>0.149</v>
+        <v>0.14</v>
       </c>
       <c r="O62" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6311,7 +6319,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6323,25 +6331,25 @@
         <v>380</v>
       </c>
       <c r="G63" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H63" t="n">
-        <v>2316448</v>
+        <v>2377635</v>
       </c>
       <c r="I63" t="n">
-        <v>1228.102</v>
+        <v>1260.541</v>
       </c>
       <c r="J63" t="n">
-        <v>18511</v>
+        <v>17957</v>
       </c>
       <c r="K63" t="n">
-        <v>9.814</v>
+        <v>9.52</v>
       </c>
       <c r="L63" t="n">
-        <v>10078</v>
+        <v>15348</v>
       </c>
       <c r="M63" t="n">
-        <v>5.343</v>
+        <v>8.137</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6366,7 +6374,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6376,13 +6384,13 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>4069394</v>
+        <v>4119202</v>
       </c>
       <c r="I64" t="n">
-        <v>596.21</v>
+        <v>603.507</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -6411,7 +6419,7 @@
         <v>388</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -6421,15 +6429,15 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>2952</v>
+        <v>1996</v>
       </c>
       <c r="K65" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -6456,7 +6464,7 @@
         <v>394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D66" t="s">
         <v>395</v>
@@ -6466,31 +6474,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H66" t="n">
-        <v>41599</v>
+        <v>42225</v>
       </c>
       <c r="I66" t="n">
-        <v>1090.778</v>
+        <v>1107.192</v>
       </c>
       <c r="J66" t="n">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="K66" t="n">
-        <v>6.083</v>
+        <v>2.648</v>
       </c>
       <c r="L66" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M66" t="n">
-        <v>5.454</v>
+        <v>5.323</v>
       </c>
       <c r="N66" t="n">
-        <v>0.035</v>
+        <v>0.023</v>
       </c>
       <c r="O66" t="n">
-        <v>28.6</v>
+        <v>43.5</v>
       </c>
       <c r="P66" t="s">
         <v>396</v>
@@ -6513,7 +6521,7 @@
         <v>400</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44319</v>
+        <v>44322</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6523,31 +6531,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H67" t="n">
-        <v>2936467</v>
+        <v>3019015</v>
       </c>
       <c r="I67" t="n">
-        <v>1078.675</v>
+        <v>1108.998</v>
       </c>
       <c r="J67" t="n">
-        <v>18885</v>
+        <v>26729</v>
       </c>
       <c r="K67" t="n">
-        <v>6.937</v>
+        <v>9.819</v>
       </c>
       <c r="L67" t="n">
-        <v>19679</v>
+        <v>21588</v>
       </c>
       <c r="M67" t="n">
-        <v>7.229</v>
+        <v>7.93</v>
       </c>
       <c r="N67" t="n">
-        <v>0.063</v>
+        <v>0.054</v>
       </c>
       <c r="O67" t="n">
-        <v>15.9</v>
+        <v>18.5</v>
       </c>
       <c r="P67" t="s">
         <v>402</v>
@@ -6570,7 +6578,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D68" t="s">
         <v>406</v>
@@ -6580,31 +6588,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H68" t="n">
-        <v>2702729</v>
+        <v>2728671</v>
       </c>
       <c r="I68" t="n">
-        <v>4317.624</v>
+        <v>4359.066</v>
       </c>
       <c r="J68" t="n">
-        <v>8667</v>
+        <v>6355</v>
       </c>
       <c r="K68" t="n">
-        <v>13.846</v>
+        <v>10.152</v>
       </c>
       <c r="L68" t="n">
-        <v>7146</v>
+        <v>7625</v>
       </c>
       <c r="M68" t="n">
-        <v>11.416</v>
+        <v>12.181</v>
       </c>
       <c r="N68" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="O68" t="n">
-        <v>48.8</v>
+        <v>56.3</v>
       </c>
       <c r="P68" t="s">
         <v>407</v>
@@ -6627,7 +6635,7 @@
         <v>410</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D69" t="s">
         <v>411</v>
@@ -6637,31 +6645,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H69" t="n">
-        <v>188510</v>
+        <v>191570</v>
       </c>
       <c r="I69" t="n">
-        <v>6.808</v>
+        <v>6.918</v>
       </c>
       <c r="J69" t="n">
-        <v>761</v>
+        <v>574</v>
       </c>
       <c r="K69" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="L69" t="n">
-        <v>982</v>
+        <v>823</v>
       </c>
       <c r="M69" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="N69" t="n">
-        <v>0.234</v>
+        <v>0.274</v>
       </c>
       <c r="O69" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="P69" t="s">
         <v>412</v>
@@ -6737,7 +6745,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6749,31 +6757,31 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H71" t="n">
-        <v>9821638</v>
+        <v>10055506</v>
       </c>
       <c r="I71" t="n">
-        <v>303.455</v>
+        <v>310.681</v>
       </c>
       <c r="J71" t="n">
-        <v>82834</v>
+        <v>75093</v>
       </c>
       <c r="K71" t="n">
-        <v>2.559</v>
+        <v>2.32</v>
       </c>
       <c r="L71" t="n">
-        <v>69693</v>
+        <v>73529</v>
       </c>
       <c r="M71" t="n">
-        <v>2.153</v>
+        <v>2.272</v>
       </c>
       <c r="N71" t="n">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="O71" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="P71" t="s">
         <v>42</v>
@@ -6796,7 +6804,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -6806,31 +6814,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H72" t="n">
-        <v>758314</v>
+        <v>773562</v>
       </c>
       <c r="I72" t="n">
-        <v>1402.877</v>
+        <v>1431.086</v>
       </c>
       <c r="J72" t="n">
-        <v>4787</v>
+        <v>4507</v>
       </c>
       <c r="K72" t="n">
-        <v>8.856</v>
+        <v>8.338</v>
       </c>
       <c r="L72" t="n">
-        <v>3833</v>
+        <v>4120</v>
       </c>
       <c r="M72" t="n">
-        <v>7.091</v>
+        <v>7.622</v>
       </c>
       <c r="N72" t="n">
-        <v>0.135</v>
+        <v>0.176</v>
       </c>
       <c r="O72" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -6853,7 +6861,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -6863,31 +6871,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H73" t="n">
-        <v>878041</v>
+        <v>883785</v>
       </c>
       <c r="I73" t="n">
-        <v>1988.592</v>
+        <v>2001.601</v>
       </c>
       <c r="J73" t="n">
-        <v>1971</v>
+        <v>1766</v>
       </c>
       <c r="K73" t="n">
-        <v>4.464</v>
+        <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="M73" t="n">
-        <v>4.052</v>
+        <v>4.104</v>
       </c>
       <c r="N73" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O73" t="n">
-        <v>87</v>
+        <v>99.1</v>
       </c>
       <c r="P73" t="s">
         <v>438</v>
@@ -6959,7 +6967,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -6969,31 +6977,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H75" t="n">
-        <v>6279703</v>
+        <v>6326672</v>
       </c>
       <c r="I75" t="n">
-        <v>48.705</v>
+        <v>49.07</v>
       </c>
       <c r="J75" t="n">
-        <v>6289</v>
+        <v>1224</v>
       </c>
       <c r="K75" t="n">
-        <v>0.049</v>
+        <v>0.009</v>
       </c>
       <c r="L75" t="n">
-        <v>9880</v>
+        <v>10477</v>
       </c>
       <c r="M75" t="n">
-        <v>0.077</v>
+        <v>0.081</v>
       </c>
       <c r="N75" t="n">
-        <v>0.181</v>
+        <v>0.17</v>
       </c>
       <c r="O75" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="P75" t="s">
         <v>451</v>
@@ -7016,7 +7024,7 @@
         <v>454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D76" t="s">
         <v>455</v>
@@ -7026,31 +7034,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H76" t="n">
-        <v>2745094</v>
+        <v>2772740</v>
       </c>
       <c r="I76" t="n">
-        <v>837.355</v>
+        <v>845.788</v>
       </c>
       <c r="J76" t="n">
-        <v>9477</v>
+        <v>9908</v>
       </c>
       <c r="K76" t="n">
-        <v>2.891</v>
+        <v>3.022</v>
       </c>
       <c r="L76" t="n">
-        <v>9929</v>
+        <v>8846</v>
       </c>
       <c r="M76" t="n">
-        <v>3.029</v>
+        <v>2.698</v>
       </c>
       <c r="N76" t="n">
-        <v>0.114</v>
+        <v>0.122</v>
       </c>
       <c r="O76" t="n">
-        <v>8.8</v>
+        <v>8.2</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
@@ -7073,7 +7081,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7083,31 +7091,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H77" t="n">
-        <v>5798007</v>
+        <v>5823250</v>
       </c>
       <c r="I77" t="n">
-        <v>157.083</v>
+        <v>157.767</v>
       </c>
       <c r="J77" t="n">
-        <v>8983</v>
+        <v>6535</v>
       </c>
       <c r="K77" t="n">
-        <v>0.243</v>
+        <v>0.177</v>
       </c>
       <c r="L77" t="n">
-        <v>7971</v>
+        <v>8136</v>
       </c>
       <c r="M77" t="n">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="N77" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="O77" t="n">
-        <v>26.2</v>
+        <v>28.4</v>
       </c>
       <c r="P77" t="s">
         <v>461</v>
@@ -7130,7 +7138,7 @@
         <v>465</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44320</v>
+        <v>44325</v>
       </c>
       <c r="D78" t="s">
         <v>466</v>
@@ -7140,31 +7148,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H78" t="n">
-        <v>522290</v>
+        <v>528305</v>
       </c>
       <c r="I78" t="n">
-        <v>16.71</v>
+        <v>16.903</v>
       </c>
       <c r="J78" t="n">
-        <v>943</v>
+        <v>1495</v>
       </c>
       <c r="K78" t="n">
-        <v>0.03</v>
+        <v>0.048</v>
       </c>
       <c r="L78" t="n">
-        <v>1204</v>
+        <v>1042</v>
       </c>
       <c r="M78" t="n">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="N78" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="O78" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="P78" t="s">
         <v>467</v>
@@ -7242,7 +7250,7 @@
         <v>476</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D80" t="s">
         <v>477</v>
@@ -7252,27 +7260,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H80" t="n">
-        <v>394758</v>
+        <v>399564</v>
       </c>
       <c r="I80" t="n">
-        <v>155.361</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80"/>
+        <v>157.252</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2292</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.902</v>
+      </c>
       <c r="L80" t="n">
-        <v>1427</v>
+        <v>1393</v>
       </c>
       <c r="M80" t="n">
-        <v>0.562</v>
+        <v>0.548</v>
       </c>
       <c r="N80" t="n">
-        <v>0.115</v>
+        <v>0.127</v>
       </c>
       <c r="O80" t="n">
-        <v>8.7</v>
+        <v>7.9</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7295,7 +7307,7 @@
         <v>483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D81" t="s">
         <v>484</v>
@@ -7305,31 +7317,27 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H81" t="n">
-        <v>2558051</v>
+        <v>2634504</v>
       </c>
       <c r="I81" t="n">
-        <v>87.794</v>
-      </c>
-      <c r="J81" t="n">
-        <v>20756</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.712</v>
-      </c>
+        <v>90.418</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81"/>
       <c r="L81" t="n">
-        <v>16012</v>
+        <v>18575</v>
       </c>
       <c r="M81" t="n">
-        <v>0.55</v>
+        <v>0.638</v>
       </c>
       <c r="N81" t="n">
-        <v>0.419</v>
+        <v>0.451</v>
       </c>
       <c r="O81" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="P81" t="s">
         <v>485</v>
@@ -7405,7 +7413,7 @@
         <v>496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D83" t="s">
         <v>497</v>
@@ -7415,21 +7423,25 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H83" t="n">
-        <v>2046919</v>
+        <v>2059727</v>
       </c>
       <c r="I83" t="n">
-        <v>424.475</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83"/>
+        <v>427.131</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2740</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.568</v>
+      </c>
       <c r="L83" t="n">
-        <v>4011</v>
+        <v>3972</v>
       </c>
       <c r="M83" t="n">
-        <v>0.832</v>
+        <v>0.824</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
@@ -7454,7 +7466,7 @@
         <v>502</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="D84" t="s">
         <v>503</v>
@@ -7464,27 +7476,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H84" t="n">
-        <v>1939165</v>
+        <v>1977479</v>
       </c>
       <c r="I84" t="n">
-        <v>9.407</v>
+        <v>9.593</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>3791</v>
+        <v>5473</v>
       </c>
       <c r="M84" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="N84" t="n">
-        <v>0.017</v>
+        <v>0.007</v>
       </c>
       <c r="O84" t="n">
-        <v>59.9</v>
+        <v>142.4</v>
       </c>
       <c r="P84" t="s">
         <v>504</v>
@@ -7564,7 +7576,7 @@
         <v>511</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D86" t="s">
         <v>512</v>
@@ -7574,31 +7586,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H86" t="n">
-        <v>5228065</v>
+        <v>5277065</v>
       </c>
       <c r="I86" t="n">
-        <v>964.367</v>
+        <v>973.405</v>
       </c>
       <c r="J86" t="n">
-        <v>21850</v>
+        <v>8597</v>
       </c>
       <c r="K86" t="n">
-        <v>4.03</v>
+        <v>1.586</v>
       </c>
       <c r="L86" t="n">
-        <v>17901</v>
+        <v>18153</v>
       </c>
       <c r="M86" t="n">
-        <v>3.302</v>
+        <v>3.348</v>
       </c>
       <c r="N86" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="O86" t="n">
-        <v>45.6</v>
+        <v>44.2</v>
       </c>
       <c r="P86" t="s">
         <v>513</v>
@@ -7666,7 +7678,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7676,25 +7688,25 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H88" t="n">
-        <v>12101832</v>
+        <v>12267310</v>
       </c>
       <c r="I88" t="n">
-        <v>54.786</v>
+        <v>55.535</v>
       </c>
       <c r="J88" t="n">
-        <v>44846</v>
+        <v>38883</v>
       </c>
       <c r="K88" t="n">
-        <v>0.203</v>
+        <v>0.176</v>
       </c>
       <c r="L88" t="n">
-        <v>44815</v>
+        <v>43090</v>
       </c>
       <c r="M88" t="n">
-        <v>0.203</v>
+        <v>0.195</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
@@ -7719,7 +7731,7 @@
         <v>527</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D89" t="s">
         <v>528</v>
@@ -7727,27 +7739,27 @@
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>3637</v>
+        <v>2611</v>
       </c>
       <c r="K89" t="n">
-        <v>0.713</v>
+        <v>0.512</v>
       </c>
       <c r="L89" t="n">
-        <v>3634</v>
+        <v>3332</v>
       </c>
       <c r="M89" t="n">
-        <v>0.712</v>
+        <v>0.653</v>
       </c>
       <c r="N89" t="n">
-        <v>0.188</v>
+        <v>0.176</v>
       </c>
       <c r="O89" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="P89" t="s">
         <v>529</v>
@@ -7770,7 +7782,7 @@
         <v>533</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D90" t="s">
         <v>534</v>
@@ -7780,31 +7792,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H90" t="n">
-        <v>2427078</v>
+        <v>2460508</v>
       </c>
       <c r="I90" t="n">
-        <v>562.505</v>
+        <v>570.253</v>
       </c>
       <c r="J90" t="n">
-        <v>8724</v>
+        <v>5924</v>
       </c>
       <c r="K90" t="n">
-        <v>2.022</v>
+        <v>1.373</v>
       </c>
       <c r="L90" t="n">
-        <v>7793</v>
+        <v>7946</v>
       </c>
       <c r="M90" t="n">
-        <v>1.806</v>
+        <v>1.842</v>
       </c>
       <c r="N90" t="n">
-        <v>0.038</v>
+        <v>0.046</v>
       </c>
       <c r="O90" t="n">
-        <v>26.2</v>
+        <v>21.8</v>
       </c>
       <c r="P90" t="s">
         <v>535</v>
@@ -7827,7 +7839,7 @@
         <v>539</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D91" t="s">
         <v>540</v>
@@ -7837,31 +7849,31 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H91" t="n">
-        <v>1120800</v>
+        <v>1145218</v>
       </c>
       <c r="I91" t="n">
-        <v>157.139</v>
+        <v>160.563</v>
       </c>
       <c r="J91" t="n">
-        <v>6030</v>
+        <v>6137</v>
       </c>
       <c r="K91" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
       <c r="L91" t="n">
-        <v>6099</v>
+        <v>6081</v>
       </c>
       <c r="M91" t="n">
-        <v>0.855</v>
+        <v>0.853</v>
       </c>
       <c r="N91" t="n">
-        <v>0.347</v>
+        <v>0.358</v>
       </c>
       <c r="O91" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P91" t="s">
         <v>541</v>
@@ -7941,7 +7953,7 @@
         <v>549</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D93" t="s">
         <v>550</v>
@@ -7951,31 +7963,31 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H93" t="n">
-        <v>11436816</v>
+        <v>11583985</v>
       </c>
       <c r="I93" t="n">
-        <v>104.369</v>
+        <v>105.712</v>
       </c>
       <c r="J93" t="n">
-        <v>45822</v>
+        <v>31919</v>
       </c>
       <c r="K93" t="n">
-        <v>0.418</v>
+        <v>0.291</v>
       </c>
       <c r="L93" t="n">
-        <v>44525</v>
+        <v>45202</v>
       </c>
       <c r="M93" t="n">
-        <v>0.406</v>
+        <v>0.412</v>
       </c>
       <c r="N93" t="n">
-        <v>0.165</v>
+        <v>0.149</v>
       </c>
       <c r="O93" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="P93" t="s">
         <v>279</v>
@@ -7998,7 +8010,7 @@
         <v>555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D94" t="s">
         <v>556</v>
@@ -8008,31 +8020,31 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H94" t="n">
-        <v>14266710</v>
+        <v>14445652</v>
       </c>
       <c r="I94" t="n">
-        <v>376.961</v>
+        <v>381.69</v>
       </c>
       <c r="J94" t="n">
-        <v>65888</v>
+        <v>51283</v>
       </c>
       <c r="K94" t="n">
-        <v>1.741</v>
+        <v>1.355</v>
       </c>
       <c r="L94" t="n">
-        <v>49747</v>
+        <v>51658</v>
       </c>
       <c r="M94" t="n">
-        <v>1.314</v>
+        <v>1.365</v>
       </c>
       <c r="N94" t="n">
-        <v>0.095</v>
+        <v>0.082</v>
       </c>
       <c r="O94" t="n">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
       <c r="P94" t="s">
         <v>557</v>
@@ -8055,7 +8067,7 @@
         <v>560</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D95" t="s">
         <v>556</v>
@@ -8065,31 +8077,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H95" t="n">
-        <v>14613070</v>
+        <v>14794397</v>
       </c>
       <c r="I95" t="n">
-        <v>386.113</v>
+        <v>390.904</v>
       </c>
       <c r="J95" t="n">
-        <v>66627</v>
+        <v>52161</v>
       </c>
       <c r="K95" t="n">
-        <v>1.76</v>
+        <v>1.378</v>
       </c>
       <c r="L95" t="n">
-        <v>50442</v>
+        <v>52342</v>
       </c>
       <c r="M95" t="n">
-        <v>1.333</v>
+        <v>1.383</v>
       </c>
       <c r="N95" t="n">
-        <v>0.094</v>
+        <v>0.081</v>
       </c>
       <c r="O95" t="n">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="P95" t="s">
         <v>557</v>
@@ -8112,7 +8124,7 @@
         <v>562</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D96" t="s">
         <v>563</v>
@@ -8122,31 +8134,31 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H96" t="n">
-        <v>10781631</v>
+        <v>10916847</v>
       </c>
       <c r="I96" t="n">
-        <v>1057.364</v>
+        <v>1070.625</v>
       </c>
       <c r="J96" t="n">
-        <v>41902</v>
+        <v>31421</v>
       </c>
       <c r="K96" t="n">
-        <v>4.109</v>
+        <v>3.081</v>
       </c>
       <c r="L96" t="n">
-        <v>44560</v>
+        <v>42488</v>
       </c>
       <c r="M96" t="n">
-        <v>4.37</v>
+        <v>4.167</v>
       </c>
       <c r="N96" t="n">
         <v>0.008</v>
       </c>
       <c r="O96" t="n">
-        <v>122.9</v>
+        <v>128.7</v>
       </c>
       <c r="P96" t="s">
         <v>564</v>
@@ -8169,7 +8181,7 @@
         <v>567</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44321</v>
+        <v>44323</v>
       </c>
       <c r="D97" t="s">
         <v>568</v>
@@ -8179,28 +8191,28 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H97" t="n">
-        <v>1927819</v>
+        <v>1937204</v>
       </c>
       <c r="I97" t="n">
-        <v>669.135</v>
+        <v>672.393</v>
       </c>
       <c r="J97" t="n">
-        <v>4427</v>
+        <v>4584</v>
       </c>
       <c r="K97" t="n">
-        <v>1.537</v>
+        <v>1.591</v>
       </c>
       <c r="L97" t="n">
-        <v>4888</v>
+        <v>4756</v>
       </c>
       <c r="M97" t="n">
-        <v>1.697</v>
+        <v>1.651</v>
       </c>
       <c r="N97" t="n">
-        <v>0.134</v>
+        <v>0.133</v>
       </c>
       <c r="O97" t="n">
         <v>7.5</v>
@@ -8226,7 +8238,7 @@
         <v>573</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44323</v>
+        <v>44325</v>
       </c>
       <c r="D98" t="s">
         <v>574</v>
@@ -8236,28 +8248,32 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H98" t="n">
-        <v>7472840</v>
+        <v>7512130</v>
       </c>
       <c r="I98" t="n">
-        <v>388.448</v>
+        <v>390.49</v>
       </c>
       <c r="J98" t="n">
-        <v>26443</v>
+        <v>14654</v>
       </c>
       <c r="K98" t="n">
-        <v>1.375</v>
+        <v>0.762</v>
       </c>
       <c r="L98" t="n">
-        <v>15387</v>
+        <v>18286</v>
       </c>
       <c r="M98" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N98"/>
-      <c r="O98"/>
+        <v>0.951</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="O98" t="n">
+        <v>15.1</v>
+      </c>
       <c r="P98" t="s">
         <v>576</v>
       </c>
@@ -8279,7 +8295,7 @@
         <v>580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D99" t="s">
         <v>581</v>
@@ -8289,31 +8305,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H99" t="n">
-        <v>130898630</v>
+        <v>131924338</v>
       </c>
       <c r="I99" t="n">
-        <v>896.969</v>
+        <v>903.997</v>
       </c>
       <c r="J99" t="n">
-        <v>264152</v>
+        <v>193338</v>
       </c>
       <c r="K99" t="n">
-        <v>1.81</v>
+        <v>1.325</v>
       </c>
       <c r="L99" t="n">
-        <v>245118</v>
+        <v>240801</v>
       </c>
       <c r="M99" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N99" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="O99" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="P99" t="s">
         <v>582</v>
@@ -8336,7 +8352,7 @@
         <v>586</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D100" t="s">
         <v>587</v>
@@ -8346,21 +8362,25 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H100" t="n">
-        <v>1333441</v>
+        <v>1347380</v>
       </c>
       <c r="I100" t="n">
-        <v>102.951</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100"/>
+        <v>104.027</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2730</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.211</v>
+      </c>
       <c r="L100" t="n">
-        <v>3681</v>
+        <v>3569</v>
       </c>
       <c r="M100" t="n">
-        <v>0.284</v>
+        <v>0.276</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
@@ -8385,7 +8405,7 @@
         <v>592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D101" t="s">
         <v>593</v>
@@ -8395,31 +8415,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H101" t="n">
-        <v>17389803</v>
+        <v>17598087</v>
       </c>
       <c r="I101" t="n">
-        <v>499.508</v>
+        <v>505.491</v>
       </c>
       <c r="J101" t="n">
-        <v>74940</v>
+        <v>70822</v>
       </c>
       <c r="K101" t="n">
-        <v>2.153</v>
+        <v>2.034</v>
       </c>
       <c r="L101" t="n">
-        <v>69427</v>
+        <v>71579</v>
       </c>
       <c r="M101" t="n">
-        <v>1.994</v>
+        <v>2.056</v>
       </c>
       <c r="N101" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O101" t="n">
-        <v>68.5</v>
+        <v>71.2</v>
       </c>
       <c r="P101" t="s">
         <v>42</v>
@@ -8442,7 +8462,7 @@
         <v>596</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D102" t="s">
         <v>597</v>
@@ -8452,31 +8472,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H102" t="n">
-        <v>498678</v>
+        <v>503255</v>
       </c>
       <c r="I102" t="n">
-        <v>29.783</v>
+        <v>30.056</v>
       </c>
       <c r="J102" t="n">
-        <v>1029</v>
+        <v>839</v>
       </c>
       <c r="K102" t="n">
-        <v>0.061</v>
+        <v>0.05</v>
       </c>
       <c r="L102" t="n">
-        <v>1251</v>
+        <v>1108</v>
       </c>
       <c r="M102" t="n">
-        <v>0.075</v>
+        <v>0.066</v>
       </c>
       <c r="N102" t="n">
         <v>0.032</v>
       </c>
       <c r="O102" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="P102" t="s">
         <v>598</v>
@@ -8499,7 +8519,7 @@
         <v>601</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D103" t="s">
         <v>602</v>
@@ -8511,28 +8531,32 @@
         <v>603</v>
       </c>
       <c r="G103" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H103" t="n">
-        <v>3907936</v>
+        <v>3939470</v>
       </c>
       <c r="I103" t="n">
-        <v>574.308</v>
+        <v>578.943</v>
       </c>
       <c r="J103" t="n">
-        <v>13206</v>
+        <v>10225</v>
       </c>
       <c r="K103" t="n">
-        <v>1.941</v>
+        <v>1.503</v>
       </c>
       <c r="L103" t="n">
-        <v>9794</v>
+        <v>11333</v>
       </c>
       <c r="M103" t="n">
-        <v>1.439</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103"/>
+        <v>1.665</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="O103" t="n">
+        <v>9.7</v>
+      </c>
       <c r="P103" t="s">
         <v>42</v>
       </c>
@@ -8607,7 +8631,7 @@
         <v>611</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D105" t="s">
         <v>612</v>
@@ -8617,31 +8641,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H105" t="n">
-        <v>35603020</v>
+        <v>36224389</v>
       </c>
       <c r="I105" t="n">
-        <v>6521.126</v>
+        <v>6634.937</v>
       </c>
       <c r="J105" t="n">
-        <v>94621</v>
+        <v>167642</v>
       </c>
       <c r="K105" t="n">
-        <v>17.331</v>
+        <v>30.706</v>
       </c>
       <c r="L105" t="n">
-        <v>220622</v>
+        <v>139365</v>
       </c>
       <c r="M105" t="n">
-        <v>40.41</v>
+        <v>25.526</v>
       </c>
       <c r="N105" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O105" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="P105" t="s">
         <v>42</v>
@@ -8664,7 +8688,7 @@
         <v>615</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D106" t="s">
         <v>616</v>
@@ -8674,31 +8698,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H106" t="n">
-        <v>1199033</v>
+        <v>1210718</v>
       </c>
       <c r="I106" t="n">
-        <v>576.754</v>
+        <v>582.375</v>
       </c>
       <c r="J106" t="n">
-        <v>4029</v>
+        <v>3642</v>
       </c>
       <c r="K106" t="n">
-        <v>1.938</v>
+        <v>1.752</v>
       </c>
       <c r="L106" t="n">
-        <v>3491</v>
+        <v>3527</v>
       </c>
       <c r="M106" t="n">
-        <v>1.679</v>
+        <v>1.697</v>
       </c>
       <c r="N106" t="n">
-        <v>0.196</v>
+        <v>0.157</v>
       </c>
       <c r="O106" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="P106" t="s">
         <v>617</v>
@@ -8721,7 +8745,7 @@
         <v>620</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D107" t="s">
         <v>621</v>
@@ -8733,31 +8757,31 @@
         <v>623</v>
       </c>
       <c r="G107" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H107" t="n">
-        <v>10805804</v>
+        <v>10906020</v>
       </c>
       <c r="I107" t="n">
-        <v>182.196</v>
+        <v>183.886</v>
       </c>
       <c r="J107" t="n">
-        <v>32577</v>
+        <v>18311</v>
       </c>
       <c r="K107" t="n">
-        <v>0.549</v>
+        <v>0.309</v>
       </c>
       <c r="L107" t="n">
-        <v>25825</v>
+        <v>27178</v>
       </c>
       <c r="M107" t="n">
-        <v>0.435</v>
+        <v>0.458</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06</v>
+        <v>0.067</v>
       </c>
       <c r="O107" t="n">
-        <v>16.7</v>
+        <v>14.9</v>
       </c>
       <c r="P107" t="s">
         <v>622</v>
@@ -8780,7 +8804,7 @@
         <v>627</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D108" t="s">
         <v>628</v>
@@ -8790,25 +8814,25 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H108" t="n">
-        <v>8972458</v>
+        <v>9079656</v>
       </c>
       <c r="I108" t="n">
-        <v>175.007</v>
+        <v>177.098</v>
       </c>
       <c r="J108" t="n">
-        <v>38521</v>
+        <v>40995</v>
       </c>
       <c r="K108" t="n">
-        <v>0.751</v>
+        <v>0.8</v>
       </c>
       <c r="L108" t="n">
-        <v>29525</v>
+        <v>28657</v>
       </c>
       <c r="M108" t="n">
-        <v>0.576</v>
+        <v>0.559</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -8833,7 +8857,7 @@
         <v>632</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D109" t="s">
         <v>633</v>
@@ -8843,31 +8867,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H109" t="n">
-        <v>154716</v>
+        <v>156944</v>
       </c>
       <c r="I109" t="n">
-        <v>13.822</v>
+        <v>14.021</v>
       </c>
       <c r="J109" t="n">
-        <v>724</v>
+        <v>402</v>
       </c>
       <c r="K109" t="n">
-        <v>0.065</v>
+        <v>0.036</v>
       </c>
       <c r="L109" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M109" t="n">
         <v>0.05</v>
       </c>
       <c r="N109" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="O109" t="n">
-        <v>74.4</v>
+        <v>101.2</v>
       </c>
       <c r="P109" t="s">
         <v>42</v>
@@ -8943,7 +8967,7 @@
         <v>644</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44321</v>
+        <v>44326</v>
       </c>
       <c r="D111" t="s">
         <v>645</v>
@@ -8953,31 +8977,31 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H111" t="n">
-        <v>2887141</v>
+        <v>3010167</v>
       </c>
       <c r="I111" t="n">
-        <v>134.83</v>
+        <v>140.575</v>
       </c>
       <c r="J111" t="n">
-        <v>26360</v>
+        <v>23808</v>
       </c>
       <c r="K111" t="n">
-        <v>1.231</v>
+        <v>1.112</v>
       </c>
       <c r="L111" t="n">
-        <v>23860</v>
+        <v>24538</v>
       </c>
       <c r="M111" t="n">
-        <v>1.114</v>
+        <v>1.146</v>
       </c>
       <c r="N111" t="n">
-        <v>0.075</v>
+        <v>0.086</v>
       </c>
       <c r="O111" t="n">
-        <v>13.3</v>
+        <v>11.6</v>
       </c>
       <c r="P111" t="s">
         <v>646</v>
@@ -9053,7 +9077,7 @@
         <v>656</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D113" t="s">
         <v>395</v>
@@ -9063,31 +9087,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H113" t="n">
-        <v>6678469</v>
+        <v>6744053</v>
       </c>
       <c r="I113" t="n">
-        <v>771.665</v>
+        <v>779.243</v>
       </c>
       <c r="J113" t="n">
-        <v>25405</v>
+        <v>8879</v>
       </c>
       <c r="K113" t="n">
-        <v>2.935</v>
+        <v>1.026</v>
       </c>
       <c r="L113" t="n">
-        <v>24116</v>
+        <v>24746</v>
       </c>
       <c r="M113" t="n">
-        <v>2.786</v>
+        <v>2.859</v>
       </c>
       <c r="N113" t="n">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
       <c r="O113" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="P113" t="s">
         <v>396</v>
@@ -9110,7 +9134,7 @@
         <v>659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D114" t="s">
         <v>660</v>
@@ -9120,31 +9144,31 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H114" t="n">
-        <v>213640</v>
+        <v>217045</v>
       </c>
       <c r="I114" t="n">
-        <v>8.97</v>
+        <v>9.113</v>
       </c>
       <c r="J114" t="n">
-        <v>1009</v>
+        <v>1241</v>
       </c>
       <c r="K114" t="n">
-        <v>0.042</v>
+        <v>0.052</v>
       </c>
       <c r="L114" t="n">
-        <v>880</v>
+        <v>929</v>
       </c>
       <c r="M114" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="N114" t="n">
         <v>0.008</v>
       </c>
       <c r="O114" t="n">
-        <v>118.5</v>
+        <v>120.4</v>
       </c>
       <c r="P114" t="s">
         <v>661</v>
@@ -9224,7 +9248,7 @@
         <v>669</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D116"/>
       <c r="E116" t="s">
@@ -9234,31 +9258,31 @@
         <v>671</v>
       </c>
       <c r="G116" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H116" t="n">
-        <v>313749</v>
+        <v>317624</v>
       </c>
       <c r="I116" t="n">
-        <v>37.898</v>
+        <v>38.366</v>
       </c>
       <c r="J116" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="K116" t="n">
-        <v>0.097</v>
+        <v>0.09</v>
       </c>
       <c r="L116" t="n">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="M116" t="n">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="O116" t="n">
-        <v>32.9</v>
+        <v>40.3</v>
       </c>
       <c r="P116" t="s">
         <v>670</v>
@@ -9281,7 +9305,7 @@
         <v>676</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D117" t="s">
         <v>677</v>
@@ -9291,31 +9315,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H117" t="n">
-        <v>138090</v>
+        <v>145268</v>
       </c>
       <c r="I117" t="n">
-        <v>98.672</v>
+        <v>103.801</v>
       </c>
       <c r="J117" t="n">
-        <v>1009</v>
+        <v>4550</v>
       </c>
       <c r="K117" t="n">
-        <v>0.721</v>
+        <v>3.251</v>
       </c>
       <c r="L117" t="n">
-        <v>1187</v>
+        <v>1785</v>
       </c>
       <c r="M117" t="n">
-        <v>0.848</v>
+        <v>1.275</v>
       </c>
       <c r="N117" t="n">
-        <v>0.233</v>
+        <v>0.163</v>
       </c>
       <c r="O117" t="n">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="P117" t="s">
         <v>42</v>
@@ -9338,7 +9362,7 @@
         <v>681</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D118" t="s">
         <v>682</v>
@@ -9348,25 +9372,25 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H118" t="n">
-        <v>1344853</v>
+        <v>1367473</v>
       </c>
       <c r="I118" t="n">
-        <v>113.791</v>
+        <v>115.705</v>
       </c>
       <c r="J118" t="n">
-        <v>5556</v>
+        <v>5803</v>
       </c>
       <c r="K118" t="n">
-        <v>0.47</v>
+        <v>0.491</v>
       </c>
       <c r="L118" t="n">
-        <v>5640</v>
+        <v>5599</v>
       </c>
       <c r="M118" t="n">
-        <v>0.477</v>
+        <v>0.474</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -9448,7 +9472,7 @@
         <v>694</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="D120" t="s">
         <v>695</v>
@@ -9458,31 +9482,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H120" t="n">
-        <v>1029255</v>
+        <v>1039271</v>
       </c>
       <c r="I120" t="n">
-        <v>22.502</v>
+        <v>22.721</v>
       </c>
       <c r="J120" t="n">
-        <v>2589</v>
+        <v>3449</v>
       </c>
       <c r="K120" t="n">
-        <v>0.057</v>
+        <v>0.075</v>
       </c>
       <c r="L120" t="n">
-        <v>2385</v>
+        <v>2732</v>
       </c>
       <c r="M120" t="n">
-        <v>0.052</v>
+        <v>0.06</v>
       </c>
       <c r="N120" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="O120" t="n">
-        <v>56.6</v>
+        <v>53.4</v>
       </c>
       <c r="P120" t="s">
         <v>696</v>
@@ -9505,7 +9529,7 @@
         <v>700</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D121" t="s">
         <v>701</v>
@@ -9515,25 +9539,25 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H121" t="n">
-        <v>9594857</v>
+        <v>9682286</v>
       </c>
       <c r="I121" t="n">
-        <v>219.392</v>
+        <v>221.392</v>
       </c>
       <c r="J121" t="n">
-        <v>39748</v>
+        <v>13349</v>
       </c>
       <c r="K121" t="n">
-        <v>0.909</v>
+        <v>0.305</v>
       </c>
       <c r="L121" t="n">
-        <v>25154</v>
+        <v>26190</v>
       </c>
       <c r="M121" t="n">
-        <v>0.575</v>
+        <v>0.599</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
@@ -9558,7 +9582,7 @@
         <v>706</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D122" t="s">
         <v>707</v>
@@ -9568,25 +9592,25 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H122" t="n">
-        <v>45412777</v>
+        <v>45959175</v>
       </c>
       <c r="I122" t="n">
-        <v>4591.602</v>
+        <v>4646.847</v>
       </c>
       <c r="J122" t="n">
-        <v>211462</v>
+        <v>142603</v>
       </c>
       <c r="K122" t="n">
-        <v>21.381</v>
+        <v>14.418</v>
       </c>
       <c r="L122" t="n">
-        <v>193980</v>
+        <v>191259</v>
       </c>
       <c r="M122" t="n">
-        <v>19.613</v>
+        <v>19.338</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -9611,7 +9635,7 @@
         <v>711</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D123" t="s">
         <v>712</v>
@@ -9623,31 +9647,31 @@
         <v>714</v>
       </c>
       <c r="G123" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H123" t="n">
-        <v>158363333</v>
+        <v>162226572</v>
       </c>
       <c r="I123" t="n">
-        <v>2332.783</v>
+        <v>2389.691</v>
       </c>
       <c r="J123" t="n">
-        <v>1214689</v>
+        <v>1322338</v>
       </c>
       <c r="K123" t="n">
-        <v>17.893</v>
+        <v>19.479</v>
       </c>
       <c r="L123" t="n">
-        <v>978101</v>
+        <v>1049492</v>
       </c>
       <c r="M123" t="n">
-        <v>14.408</v>
+        <v>15.46</v>
       </c>
       <c r="N123" t="n">
         <v>0.002</v>
       </c>
       <c r="O123" t="n">
-        <v>480.3</v>
+        <v>498.2</v>
       </c>
       <c r="P123" t="s">
         <v>713</v>
@@ -9670,7 +9694,7 @@
         <v>718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44320</v>
+        <v>44323</v>
       </c>
       <c r="D124" t="s">
         <v>719</v>
@@ -9680,31 +9704,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H124" t="n">
-        <v>421912895</v>
+        <v>426539890</v>
       </c>
       <c r="I124" t="n">
-        <v>1274.651</v>
+        <v>1288.63</v>
       </c>
       <c r="J124" t="n">
-        <v>433402</v>
+        <v>723019</v>
       </c>
       <c r="K124" t="n">
-        <v>1.309</v>
+        <v>2.184</v>
       </c>
       <c r="L124" t="n">
-        <v>881319</v>
+        <v>864103</v>
       </c>
       <c r="M124" t="n">
-        <v>2.663</v>
+        <v>2.611</v>
       </c>
       <c r="N124" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="O124" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="P124" t="s">
         <v>720</v>
@@ -9727,7 +9751,7 @@
         <v>725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44322</v>
+        <v>44325</v>
       </c>
       <c r="D125" t="s">
         <v>726</v>
@@ -9737,31 +9761,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H125" t="n">
-        <v>1873060</v>
+        <v>1909479</v>
       </c>
       <c r="I125" t="n">
-        <v>539.208</v>
+        <v>549.692</v>
       </c>
       <c r="J125" t="n">
-        <v>15979</v>
+        <v>12110</v>
       </c>
       <c r="K125" t="n">
-        <v>4.6</v>
+        <v>3.486</v>
       </c>
       <c r="L125" t="n">
-        <v>11962</v>
+        <v>12663</v>
       </c>
       <c r="M125" t="n">
-        <v>3.444</v>
+        <v>3.645</v>
       </c>
       <c r="N125" t="n">
-        <v>0.212</v>
+        <v>0.205</v>
       </c>
       <c r="O125" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="P125" t="s">
         <v>169</v>
@@ -9886,7 +9910,7 @@
         <v>742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="D128" t="s">
         <v>743</v>
@@ -9896,31 +9920,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H128" t="n">
-        <v>502216</v>
+        <v>510047</v>
       </c>
       <c r="I128" t="n">
-        <v>33.79</v>
+        <v>34.317</v>
       </c>
       <c r="J128" t="n">
-        <v>2822</v>
+        <v>1300</v>
       </c>
       <c r="K128" t="n">
-        <v>0.19</v>
+        <v>0.087</v>
       </c>
       <c r="L128" t="n">
-        <v>1913</v>
+        <v>2009</v>
       </c>
       <c r="M128" t="n">
-        <v>0.129</v>
+        <v>0.135</v>
       </c>
       <c r="N128" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="O128" t="n">
-        <v>80.7</v>
+        <v>101.9</v>
       </c>
       <c r="P128" t="s">
         <v>744</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="748">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2818-testime-894-te-sheruar-91-raste-te-reja-dhe-3-humbje-jete-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2956-testime-1020-te-sheruar-50-raste-te-reja-dhe-4-humbje-jete-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3863</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3887</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-10-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-13-may-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -192,9 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Federal Ministry for Social Affairs, Health, Care and Consumer Protection publishes a complete time series of occupancy in hospitals and test results on the "Open Data Austria" website, which includes data on the cumulative number of tests performed to date.
-On 12 January 2021, the Austrian government added a very large backlog of tests to its time series, related to mass testing programs conducted in the country.Because of this, the cumulative number of tests went from 3,919,571 on 11 January to 6,865,442 on 12 January. More similar additions were made later in January.
-Starting in January 2021, the Austrian government is reporting testing data with a counting methodology that is no longer comparable to the case definition that it uses to report confirmed cases. This leads the positive rate to be substantially underestimated (&lt;1%), regardless of the epidemic situation in the country.
-For these reasons, we are not showing any positive rate for Austria in 2021.</t>
+On 12 January 2021, the Austrian government added a very large backlog of tests to its time series, related to mass testing programs conducted in the country. Because of this, the cumulative number of tests went from 3,919,571 on 11 January to 6,865,442 on 12 January. More similar additions were made later in January.
+The definition of the tests in this dataset was changed on 13 January 2021 to include both antigen and PCR tests. Because historical testing data was added on that date, the timeline cannot be used for continuous calculations. Like most Austrian media outlets and scientific institutions, we have therefore changed our test positive rate calculations to only include data from February 2021 onwards.
+Austria has been testing at a high rate: both PCR and antigen tests are available for free, regardless of COVID symptoms, and testing is compulsory for school children and for accessing many services. Due to this very high number of tests in the denominator, this results in a positive rate that is very low.</t>
   </si>
   <si>
     <t xml:space="preserve">AZE</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-1354-new-covid-19-cases-1311-recoveries-in-past-24-hours_i_0000129416.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-837-new-covid-19-cases-694-recoveries-in-past-24-hours_i_0000129540.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4146620015399583/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4159342174127367/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5539-epidemiologia-1-394-casos-positivos-de-covid-19-4-933-pruebas-negativas-y-997-296-dosis-de-la-vacuna-contra-el-virus-fueron-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5541-reporte-epidemiologico-1-063-casos-positivos-de-covid-19-3-657-pruebas-negativas-y-998-818-dosis-de-la-vacuna-contra-el-virus-fueron-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-09-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-12-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://developers.facebook.com/docs/plugins/embedded-posts/?prefill_href=https%3A%2F%2Fwww.facebook.com%2Fmshpcmu%2Fposts%2F1897980657034286&amp;__cft__[0]=AZUpyDFMb30b1Tw5JreujH8WspouChomvJew65my0bl36gyR07_koAOWM6gFW9OLBUWxvxq4SLjCuQkDzRmq6LTHbg5myXtfzqD4j2lWSBrLSsg0kVD4UrNmbpkMVTPqKaQ8DnTfWby4ovD7CxPytqSy&amp;__tn__=p%2CP-R#code-generator</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1900322076800144</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=f67902acd1</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=04af84019f</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -667,7 +667,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.413.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.419.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-09052021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-13052021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -843,7 +843,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1197</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1263</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210508.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210513.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -962,9 +962,8 @@
     <t xml:space="preserve">https://data.gov.hk/en-data/dataset/hk-dh-chpsebcddr-novel-infectious-agent</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hong Kong Centre for Health Protection, Department of Health provides monthly numbers of the COVID-19 viral tests performed. We calculate the cumulative number of tests performed each month in our series. The last update with provisional data is up until 14 April 2020, this information is updated once a week by the Centre for Health Protection. 
-Tests performed are conducted by the Public Health Laboratory Services Branch of the Department of Health and Hospital Authority.
-The cumulative total begins from 1 January 2020.
+    <t xml:space="preserve">The Hong Kong Centre for Health Protection, Department of Health provides monthly numbers of the COVID-19 viral tests performed. We calculate the cumulative number of tests performed each month in our series. The cumulative total begins from 1 January 2020.
+To calculate a positive rate for Hong Kong, we use the ["Latest situation of reported cases of COVID-19 in Hong Kong" file published by the Department of Health](https://data.gov.hk/en-data/dataset/hk-dh-chpsebcddr-novel-infectious-agent/resource/cc01597e-8a77-4c83-bb51-c76b7d93d854). The positive rate is computed as the number of cases divided by the number of tests, for each reporting period shown in the original testing data. 
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1061,7 +1060,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/363611</t>
+    <t xml:space="preserve">http://irangov.ir/detail/363800</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1081,7 +1080,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1391488753143848963</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1392104591995641861</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1221,7 +1220,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/4778</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/4791</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1275,7 +1274,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1391494452636790785</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1392887436808687622</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1350,7 +1349,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210510-cfeld8mz/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210512-dafqq7yl/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1402,7 +1401,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4124691407595412/4124685854262634/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4137145263016693/4137133319684554/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1444,7 +1443,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-09052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-13052021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1469,7 +1468,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1391448620805738498</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1392898787056570369</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1490,7 +1489,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/335441514841065/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/337933817925168/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1550,7 +1549,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-08-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1184/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-12-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1188/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1565,7 +1564,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/09.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/13.5.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1587,7 +1586,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=975:boletim-diario-covid-19-n-418</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=978:boletim-diario-covid-19-n-421</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1608,6 +1607,9 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(13-5-2021).pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
   </si>
   <si>
@@ -1625,7 +1627,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.743154389690900/743154316357574/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.745797149426624/745797046093301</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1647,7 +1649,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1vW9KtivksnQKxDMXP_rFZn2Htob50tC6</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1C-Ra9npENspHDfz3jJTt5AL7RPx08R48</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1668,7 +1670,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-05/COVID-19_WebSite_rapport_wekelijks_20210504_1159.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-05/COVID-19_WebSite_rapport_wekelijks_20210511_1153_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1797,7 +1799,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3790534774405706</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3799508976841619</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1819,7 +1821,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1391548446826549248</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1392621233011896328</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1838,7 +1840,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1391544134377385985</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1392616394035023872</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1872,7 +1874,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1BSaUVSvahcxnwLm15dsWaeq6I8JTiRFp?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/14-x2TqJTHNBsVZueIRir1BKzpt58YD5-?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1893,7 +1895,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1391313239150153736</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1392762790746542080</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1956,7 +1958,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/9-05_BULETIN_DE_PRESA-ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_13_mai_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1979,7 +1981,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17688</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17722</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2163,7 +2165,7 @@
     <t xml:space="preserve">South Sudan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%2010th%20Update.pdf</t>
+    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%2013th%20Update.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">https://moh.gov.ss/daily_updates.php</t>
@@ -2178,7 +2180,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_29_04_21.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_06_05_21.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2308,7 +2310,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-719/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-721/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2371,7 +2373,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1391343458867109890</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1392821072832208901</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2481,7 +2483,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-184</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-186</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2541,7 +2543,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1391465550237347840</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1392575941071839235</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2958,7 +2960,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44322</v>
+        <v>44327</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2968,31 +2970,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H2" t="n">
-        <v>629675</v>
+        <v>643271</v>
       </c>
       <c r="I2" t="n">
-        <v>218.804</v>
+        <v>223.529</v>
       </c>
       <c r="J2" t="n">
-        <v>2818</v>
+        <v>2956</v>
       </c>
       <c r="K2" t="n">
-        <v>0.979</v>
+        <v>1.027</v>
       </c>
       <c r="L2" t="n">
-        <v>2390</v>
+        <v>2752</v>
       </c>
       <c r="M2" t="n">
-        <v>0.83</v>
+        <v>0.956</v>
       </c>
       <c r="N2" t="n">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="O2" t="n">
-        <v>31.4</v>
+        <v>40.5</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3015,7 +3017,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3025,27 +3027,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>183476</v>
+        <v>186191</v>
       </c>
       <c r="I3" t="n">
-        <v>2374.633</v>
+        <v>2409.772</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="M3" t="n">
-        <v>5.255</v>
+        <v>5.022</v>
       </c>
       <c r="N3" t="n">
-        <v>0.075</v>
+        <v>0.049</v>
       </c>
       <c r="O3" t="n">
-        <v>13.4</v>
+        <v>20.3</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3068,7 +3070,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44321</v>
+        <v>44324</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3078,31 +3080,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H4" t="n">
-        <v>8951195</v>
+        <v>9061310</v>
       </c>
       <c r="I4" t="n">
-        <v>198.054</v>
+        <v>200.49</v>
       </c>
       <c r="J4" t="n">
-        <v>37654</v>
+        <v>26666</v>
       </c>
       <c r="K4" t="n">
-        <v>0.833</v>
+        <v>0.59</v>
       </c>
       <c r="L4" t="n">
-        <v>31989</v>
+        <v>31378</v>
       </c>
       <c r="M4" t="n">
-        <v>0.708</v>
+        <v>0.694</v>
       </c>
       <c r="N4" t="n">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
       <c r="O4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3125,7 +3127,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3135,31 +3137,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H5" t="n">
-        <v>1014891</v>
+        <v>1026974</v>
       </c>
       <c r="I5" t="n">
-        <v>342.494</v>
+        <v>346.572</v>
       </c>
       <c r="J5" t="n">
-        <v>2353</v>
+        <v>3723</v>
       </c>
       <c r="K5" t="n">
-        <v>0.794</v>
+        <v>1.256</v>
       </c>
       <c r="L5" t="n">
-        <v>3409</v>
+        <v>3157</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.065</v>
       </c>
       <c r="N5" t="n">
-        <v>0.101</v>
+        <v>0.086</v>
       </c>
       <c r="O5" t="n">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3182,7 +3184,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3192,31 +3194,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H6" t="n">
-        <v>17259848</v>
+        <v>17411746</v>
       </c>
       <c r="I6" t="n">
-        <v>676.86</v>
+        <v>682.817</v>
       </c>
       <c r="J6" t="n">
-        <v>38739</v>
+        <v>55232</v>
       </c>
       <c r="K6" t="n">
-        <v>1.519</v>
+        <v>2.166</v>
       </c>
       <c r="L6" t="n">
-        <v>44805</v>
+        <v>47275</v>
       </c>
       <c r="M6" t="n">
-        <v>1.757</v>
+        <v>1.854</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3564.2</v>
+        <v>5170.6</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3239,7 +3241,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3249,28 +3251,32 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H7" t="n">
-        <v>34504177</v>
+        <v>35383018</v>
       </c>
       <c r="I7" t="n">
-        <v>3831.073</v>
+        <v>3928.653</v>
       </c>
       <c r="J7" t="n">
-        <v>204215</v>
+        <v>379788</v>
       </c>
       <c r="K7" t="n">
-        <v>22.674</v>
+        <v>42.169</v>
       </c>
       <c r="L7" t="n">
-        <v>302886</v>
+        <v>305727</v>
       </c>
       <c r="M7" t="n">
-        <v>33.63</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7"/>
+        <v>33.946</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O7" t="n">
+        <v>277.2</v>
+      </c>
       <c r="P7" t="s">
         <v>54</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3302,31 +3308,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>3337931</v>
+        <v>3360900</v>
       </c>
       <c r="I8" t="n">
-        <v>329.211</v>
+        <v>331.477</v>
       </c>
       <c r="J8" t="n">
-        <v>6946</v>
+        <v>7733</v>
       </c>
       <c r="K8" t="n">
-        <v>0.685</v>
+        <v>0.763</v>
       </c>
       <c r="L8" t="n">
-        <v>10754</v>
+        <v>8617</v>
       </c>
       <c r="M8" t="n">
-        <v>1.061</v>
+        <v>0.85</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07</v>
+        <v>0.066</v>
       </c>
       <c r="O8" t="n">
-        <v>14.2</v>
+        <v>15.1</v>
       </c>
       <c r="P8" t="s">
         <v>59</v>
@@ -3349,7 +3355,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3359,25 +3365,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H9" t="n">
-        <v>4256020</v>
+        <v>4307946</v>
       </c>
       <c r="I9" t="n">
-        <v>2501.212</v>
+        <v>2531.728</v>
       </c>
       <c r="J9" t="n">
-        <v>17554</v>
+        <v>15745</v>
       </c>
       <c r="K9" t="n">
-        <v>10.316</v>
+        <v>9.253</v>
       </c>
       <c r="L9" t="n">
-        <v>16646</v>
+        <v>16884</v>
       </c>
       <c r="M9" t="n">
-        <v>9.783</v>
+        <v>9.923</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3402,7 +3408,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3412,25 +3418,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H10" t="n">
-        <v>5637339</v>
+        <v>5680290</v>
       </c>
       <c r="I10" t="n">
-        <v>34.23</v>
+        <v>34.491</v>
       </c>
       <c r="J10" t="n">
-        <v>16848</v>
+        <v>13471</v>
       </c>
       <c r="K10" t="n">
-        <v>0.102</v>
+        <v>0.082</v>
       </c>
       <c r="L10" t="n">
-        <v>18476</v>
+        <v>15490</v>
       </c>
       <c r="M10" t="n">
-        <v>0.112</v>
+        <v>0.094</v>
       </c>
       <c r="N10" t="n">
         <v>0.088</v>
@@ -3459,7 +3465,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3469,27 +3475,27 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H11" t="n">
-        <v>5958089</v>
+        <v>6036143</v>
       </c>
       <c r="I11" t="n">
-        <v>630.531</v>
+        <v>638.791</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>15709</v>
+        <v>13394</v>
       </c>
       <c r="M11" t="n">
-        <v>1.662</v>
+        <v>1.417</v>
       </c>
       <c r="N11" t="n">
-        <v>0.069</v>
+        <v>0.078</v>
       </c>
       <c r="O11" t="n">
-        <v>14.5</v>
+        <v>12.9</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3512,7 +3518,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3522,31 +3528,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H12" t="n">
-        <v>13010836</v>
+        <v>13181004</v>
       </c>
       <c r="I12" t="n">
-        <v>1122.629</v>
+        <v>1137.312</v>
       </c>
       <c r="J12" t="n">
-        <v>21799</v>
+        <v>55306</v>
       </c>
       <c r="K12" t="n">
-        <v>1.881</v>
+        <v>4.772</v>
       </c>
       <c r="L12" t="n">
-        <v>51995</v>
+        <v>51152</v>
       </c>
       <c r="M12" t="n">
-        <v>4.486</v>
+        <v>4.414</v>
       </c>
       <c r="N12" t="n">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="O12" t="n">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3569,7 +3575,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3579,31 +3585,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H13" t="n">
-        <v>727281</v>
+        <v>736272</v>
       </c>
       <c r="I13" t="n">
-        <v>942.548</v>
+        <v>954.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2344</v>
+        <v>2207</v>
       </c>
       <c r="K13" t="n">
-        <v>3.038</v>
+        <v>2.86</v>
       </c>
       <c r="L13" t="n">
-        <v>2222</v>
+        <v>2322</v>
       </c>
       <c r="M13" t="n">
-        <v>2.88</v>
+        <v>3.009</v>
       </c>
       <c r="N13" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O13" t="n">
-        <v>141.4</v>
+        <v>159.4</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -3626,7 +3632,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3636,31 +3642,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H14" t="n">
-        <v>1240688</v>
+        <v>1245408</v>
       </c>
       <c r="I14" t="n">
-        <v>106.287</v>
+        <v>106.691</v>
       </c>
       <c r="J14" t="n">
-        <v>6327</v>
+        <v>4720</v>
       </c>
       <c r="K14" t="n">
-        <v>0.542</v>
+        <v>0.404</v>
       </c>
       <c r="L14" t="n">
-        <v>9020</v>
+        <v>8804</v>
       </c>
       <c r="M14" t="n">
-        <v>0.773</v>
+        <v>0.754</v>
       </c>
       <c r="N14" t="n">
-        <v>0.175</v>
+        <v>0.179</v>
       </c>
       <c r="O14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="P14" t="s">
         <v>42</v>
@@ -3683,7 +3689,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3693,27 +3699,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H15" t="n">
-        <v>929119</v>
+        <v>936259</v>
       </c>
       <c r="I15" t="n">
-        <v>283.198</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15"/>
+        <v>285.374</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1799</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.548</v>
+      </c>
       <c r="L15" t="n">
-        <v>2469</v>
+        <v>2322</v>
       </c>
       <c r="M15" t="n">
-        <v>0.753</v>
+        <v>0.708</v>
       </c>
       <c r="N15" t="n">
-        <v>0.159</v>
+        <v>0.102</v>
       </c>
       <c r="O15" t="n">
-        <v>6.3</v>
+        <v>9.9</v>
       </c>
       <c r="P15" t="s">
         <v>101</v>
@@ -3785,7 +3795,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3795,25 +3805,25 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H17" t="n">
-        <v>2606975</v>
+        <v>2642503</v>
       </c>
       <c r="I17" t="n">
-        <v>375.188</v>
+        <v>380.301</v>
       </c>
       <c r="J17" t="n">
-        <v>16390</v>
+        <v>11248</v>
       </c>
       <c r="K17" t="n">
-        <v>2.359</v>
+        <v>1.619</v>
       </c>
       <c r="L17" t="n">
-        <v>10230</v>
+        <v>11467</v>
       </c>
       <c r="M17" t="n">
-        <v>1.472</v>
+        <v>1.65</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -3895,7 +3905,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -3905,31 +3915,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H19" t="n">
-        <v>32746783</v>
+        <v>33130218</v>
       </c>
       <c r="I19" t="n">
-        <v>867.645</v>
+        <v>877.804</v>
       </c>
       <c r="J19" t="n">
-        <v>90029</v>
+        <v>129090</v>
       </c>
       <c r="K19" t="n">
-        <v>2.385</v>
+        <v>3.42</v>
       </c>
       <c r="L19" t="n">
-        <v>121271</v>
+        <v>123423</v>
       </c>
       <c r="M19" t="n">
-        <v>3.213</v>
+        <v>3.27</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06</v>
+        <v>0.053</v>
       </c>
       <c r="O19" t="n">
-        <v>16.8</v>
+        <v>18.8</v>
       </c>
       <c r="P19" t="s">
         <v>119</v>
@@ -3952,7 +3962,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44324</v>
+        <v>44327</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -3962,15 +3972,15 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>1447</v>
+        <v>1876</v>
       </c>
       <c r="K20" t="n">
-        <v>2.603</v>
+        <v>3.374</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -3997,7 +4007,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -4007,25 +4017,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H21" t="n">
-        <v>13623503</v>
+        <v>13750280</v>
       </c>
       <c r="I21" t="n">
-        <v>712.668</v>
+        <v>719.3</v>
       </c>
       <c r="J21" t="n">
-        <v>66350</v>
+        <v>60976</v>
       </c>
       <c r="K21" t="n">
-        <v>3.471</v>
+        <v>3.19</v>
       </c>
       <c r="L21" t="n">
-        <v>54294</v>
+        <v>54805</v>
       </c>
       <c r="M21" t="n">
-        <v>2.84</v>
+        <v>2.867</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4095,7 +4105,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -4105,31 +4115,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H23" t="n">
-        <v>15436288</v>
+        <v>15670000</v>
       </c>
       <c r="I23" t="n">
-        <v>303.369</v>
+        <v>307.962</v>
       </c>
       <c r="J23" t="n">
-        <v>41635</v>
+        <v>72705</v>
       </c>
       <c r="K23" t="n">
-        <v>0.818</v>
+        <v>1.429</v>
       </c>
       <c r="L23" t="n">
-        <v>68177</v>
+        <v>72806</v>
       </c>
       <c r="M23" t="n">
-        <v>1.34</v>
+        <v>1.431</v>
       </c>
       <c r="N23" t="n">
-        <v>0.254</v>
+        <v>0.26</v>
       </c>
       <c r="O23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="P23" t="s">
         <v>146</v>
@@ -4152,7 +4162,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44324</v>
+        <v>44327</v>
       </c>
       <c r="D24" t="s">
         <v>151</v>
@@ -4162,31 +4172,31 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H24" t="n">
-        <v>873698</v>
+        <v>892861</v>
       </c>
       <c r="I24" t="n">
-        <v>171.511</v>
+        <v>175.273</v>
       </c>
       <c r="J24" t="n">
-        <v>7934</v>
+        <v>5708</v>
       </c>
       <c r="K24" t="n">
-        <v>1.557</v>
+        <v>1.121</v>
       </c>
       <c r="L24" t="n">
-        <v>6134</v>
+        <v>6840</v>
       </c>
       <c r="M24" t="n">
-        <v>1.204</v>
+        <v>1.343</v>
       </c>
       <c r="N24" t="n">
-        <v>0.281</v>
+        <v>0.269</v>
       </c>
       <c r="O24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="P24" t="s">
         <v>152</v>
@@ -4209,7 +4219,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -4219,31 +4229,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H25" t="n">
-        <v>611119</v>
+        <v>614959</v>
       </c>
       <c r="I25" t="n">
-        <v>23.168</v>
+        <v>23.313</v>
       </c>
       <c r="J25" t="n">
-        <v>2159</v>
+        <v>1805</v>
       </c>
       <c r="K25" t="n">
-        <v>0.082</v>
+        <v>0.068</v>
       </c>
       <c r="L25" t="n">
-        <v>1773</v>
+        <v>1705</v>
       </c>
       <c r="M25" t="n">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
       <c r="N25" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="O25" t="n">
-        <v>37.8</v>
+        <v>41.9</v>
       </c>
       <c r="P25" t="s">
         <v>157</v>
@@ -4266,7 +4276,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4276,28 +4286,32 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H26" t="n">
-        <v>1890133</v>
+        <v>1906407</v>
       </c>
       <c r="I26" t="n">
-        <v>460.416</v>
+        <v>464.381</v>
       </c>
       <c r="J26" t="n">
-        <v>8839</v>
+        <v>7501</v>
       </c>
       <c r="K26" t="n">
-        <v>2.153</v>
+        <v>1.827</v>
       </c>
       <c r="L26" t="n">
-        <v>7718</v>
+        <v>7255</v>
       </c>
       <c r="M26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="N26"/>
-      <c r="O26"/>
+        <v>1.767</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.1</v>
+      </c>
       <c r="P26" t="s">
         <v>163</v>
       </c>
@@ -4319,7 +4333,7 @@
         <v>167</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D27" t="s">
         <v>168</v>
@@ -4331,31 +4345,31 @@
         <v>170</v>
       </c>
       <c r="G27" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H27" t="n">
-        <v>3861456</v>
+        <v>3923413</v>
       </c>
       <c r="I27" t="n">
-        <v>340.919</v>
+        <v>346.389</v>
       </c>
       <c r="J27" t="n">
-        <v>24111</v>
+        <v>22934</v>
       </c>
       <c r="K27" t="n">
-        <v>2.129</v>
+        <v>2.025</v>
       </c>
       <c r="L27" t="n">
-        <v>23061</v>
+        <v>22686</v>
       </c>
       <c r="M27" t="n">
-        <v>2.036</v>
+        <v>2.003</v>
       </c>
       <c r="N27" t="n">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="O27" t="n">
-        <v>22.1</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="s">
         <v>169</v>
@@ -4378,7 +4392,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
@@ -4388,31 +4402,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H28" t="n">
-        <v>5780845</v>
+        <v>5976135</v>
       </c>
       <c r="I28" t="n">
-        <v>6599.899</v>
+        <v>6822.859</v>
       </c>
       <c r="J28" t="n">
-        <v>83418</v>
+        <v>74926</v>
       </c>
       <c r="K28" t="n">
-        <v>95.237</v>
+        <v>85.542</v>
       </c>
       <c r="L28" t="n">
-        <v>68991</v>
+        <v>73746</v>
       </c>
       <c r="M28" t="n">
-        <v>78.766</v>
+        <v>84.195</v>
       </c>
       <c r="N28" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O28" t="n">
-        <v>172.7</v>
+        <v>242.5</v>
       </c>
       <c r="P28" t="s">
         <v>42</v>
@@ -4435,7 +4449,7 @@
         <v>178</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D29" t="s">
         <v>179</v>
@@ -4445,27 +4459,27 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>246111</v>
+        <v>179207</v>
       </c>
       <c r="K29" t="n">
-        <v>22.982</v>
+        <v>16.734</v>
       </c>
       <c r="L29" t="n">
-        <v>175299</v>
+        <v>170425</v>
       </c>
       <c r="M29" t="n">
-        <v>16.369</v>
+        <v>15.914</v>
       </c>
       <c r="N29" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O29" t="n">
-        <v>125</v>
+        <v>142.9</v>
       </c>
       <c r="P29" t="s">
         <v>42</v>
@@ -4488,7 +4502,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44324</v>
+        <v>44328</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4498,27 +4512,27 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="L30" t="n">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="M30" t="n">
         <v>0.004</v>
       </c>
       <c r="N30" t="n">
-        <v>0.143</v>
+        <v>0.131</v>
       </c>
       <c r="O30" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4598,7 +4612,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4608,27 +4622,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H32" t="n">
-        <v>1423534</v>
+        <v>1456859</v>
       </c>
       <c r="I32" t="n">
-        <v>131.227</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32"/>
+        <v>134.299</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4194</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.387</v>
+      </c>
       <c r="L32" t="n">
-        <v>3020</v>
+        <v>5460</v>
       </c>
       <c r="M32" t="n">
-        <v>0.278</v>
+        <v>0.503</v>
       </c>
       <c r="N32" t="n">
-        <v>0.13</v>
+        <v>0.124</v>
       </c>
       <c r="O32" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="P32" t="s">
         <v>196</v>
@@ -4651,7 +4669,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4663,31 +4681,31 @@
         <v>203</v>
       </c>
       <c r="G33" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H33" t="n">
-        <v>1283883</v>
+        <v>1300258</v>
       </c>
       <c r="I33" t="n">
-        <v>72.77</v>
+        <v>73.698</v>
       </c>
       <c r="J33" t="n">
-        <v>4287</v>
+        <v>3901</v>
       </c>
       <c r="K33" t="n">
-        <v>0.243</v>
+        <v>0.221</v>
       </c>
       <c r="L33" t="n">
-        <v>6211</v>
+        <v>4641</v>
       </c>
       <c r="M33" t="n">
-        <v>0.352</v>
+        <v>0.263</v>
       </c>
       <c r="N33" t="n">
-        <v>0.299</v>
+        <v>0.322</v>
       </c>
       <c r="O33" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P33" t="s">
         <v>204</v>
@@ -4767,7 +4785,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D35" t="s">
         <v>215</v>
@@ -4777,31 +4795,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H35" t="n">
-        <v>1337696</v>
+        <v>1357257</v>
       </c>
       <c r="I35" t="n">
-        <v>1008.411</v>
+        <v>1023.156</v>
       </c>
       <c r="J35" t="n">
-        <v>2934</v>
+        <v>5110</v>
       </c>
       <c r="K35" t="n">
-        <v>2.212</v>
+        <v>3.852</v>
       </c>
       <c r="L35" t="n">
-        <v>4391</v>
+        <v>4371</v>
       </c>
       <c r="M35" t="n">
-        <v>3.31</v>
+        <v>3.295</v>
       </c>
       <c r="N35" t="n">
-        <v>0.079</v>
+        <v>0.072</v>
       </c>
       <c r="O35" t="n">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="P35" t="s">
         <v>216</v>
@@ -4824,7 +4842,7 @@
         <v>219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D36" t="s">
         <v>220</v>
@@ -4834,31 +4852,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H36" t="n">
-        <v>2624176</v>
+        <v>2640295</v>
       </c>
       <c r="I36" t="n">
-        <v>22.826</v>
+        <v>22.966</v>
       </c>
       <c r="J36" t="n">
-        <v>3583</v>
+        <v>5621</v>
       </c>
       <c r="K36" t="n">
-        <v>0.031</v>
+        <v>0.049</v>
       </c>
       <c r="L36" t="n">
-        <v>4869</v>
+        <v>5131</v>
       </c>
       <c r="M36" t="n">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="N36" t="n">
-        <v>0.126</v>
+        <v>0.116</v>
       </c>
       <c r="O36" t="n">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="P36" t="s">
         <v>221</v>
@@ -4881,7 +4899,7 @@
         <v>224</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44322</v>
+        <v>44324</v>
       </c>
       <c r="D37" t="s">
         <v>225</v>
@@ -4891,27 +4909,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H37" t="n">
-        <v>60054</v>
+        <v>65225</v>
       </c>
       <c r="I37" t="n">
-        <v>66.991</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37"/>
+        <v>72.76</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1616</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.803</v>
+      </c>
       <c r="L37" t="n">
-        <v>1291</v>
+        <v>1710</v>
       </c>
       <c r="M37" t="n">
-        <v>1.44</v>
+        <v>1.908</v>
       </c>
       <c r="N37" t="n">
         <v>0.001</v>
       </c>
       <c r="O37" t="n">
-        <v>695.2</v>
+        <v>704</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -4934,7 +4956,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -4944,31 +4966,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H38" t="n">
-        <v>4677618</v>
+        <v>4716365</v>
       </c>
       <c r="I38" t="n">
-        <v>844.226</v>
+        <v>851.219</v>
       </c>
       <c r="J38" t="n">
-        <v>8843</v>
+        <v>19934</v>
       </c>
       <c r="K38" t="n">
-        <v>1.596</v>
+        <v>3.598</v>
       </c>
       <c r="L38" t="n">
-        <v>17804</v>
+        <v>17236</v>
       </c>
       <c r="M38" t="n">
-        <v>3.213</v>
+        <v>3.111</v>
       </c>
       <c r="N38" t="n">
         <v>0.012</v>
       </c>
       <c r="O38" t="n">
-        <v>83.4</v>
+        <v>82.6</v>
       </c>
       <c r="P38" t="s">
         <v>232</v>
@@ -4991,7 +5013,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5001,27 +5023,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>500448</v>
+        <v>526157</v>
       </c>
       <c r="K39" t="n">
-        <v>7.344</v>
+        <v>7.788</v>
       </c>
       <c r="L39" t="n">
-        <v>332449</v>
+        <v>344115</v>
       </c>
       <c r="M39" t="n">
-        <v>4.878</v>
+        <v>5.093</v>
       </c>
       <c r="N39" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="O39" t="n">
-        <v>18.5</v>
+        <v>19.6</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5044,7 +5066,7 @@
         <v>240</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="D40" t="s">
         <v>241</v>
@@ -5054,31 +5076,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H40" t="n">
-        <v>65353</v>
+        <v>66537</v>
       </c>
       <c r="I40" t="n">
-        <v>27.043</v>
+        <v>27.533</v>
       </c>
       <c r="J40" t="n">
-        <v>727</v>
+        <v>567</v>
       </c>
       <c r="K40" t="n">
-        <v>0.301</v>
+        <v>0.235</v>
       </c>
       <c r="L40" t="n">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="M40" t="n">
-        <v>0.082</v>
+        <v>0.07</v>
       </c>
       <c r="N40" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="O40" t="n">
-        <v>31.3</v>
+        <v>42.2</v>
       </c>
       <c r="P40" t="s">
         <v>242</v>
@@ -5101,7 +5123,7 @@
         <v>245</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44322</v>
+        <v>44329</v>
       </c>
       <c r="D41" t="s">
         <v>246</v>
@@ -5111,31 +5133,27 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H41" t="n">
-        <v>4291000</v>
+        <v>4476000</v>
       </c>
       <c r="I41" t="n">
-        <v>1075.661</v>
-      </c>
-      <c r="J41" t="n">
-        <v>28000</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7.019</v>
-      </c>
+        <v>1122.037</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
       <c r="L41" t="n">
-        <v>19286</v>
+        <v>26429</v>
       </c>
       <c r="M41" t="n">
-        <v>4.835</v>
+        <v>6.625</v>
       </c>
       <c r="N41" t="n">
-        <v>0.066</v>
+        <v>0.047</v>
       </c>
       <c r="O41" t="n">
-        <v>15.2</v>
+        <v>21.2</v>
       </c>
       <c r="P41" t="s">
         <v>247</v>
@@ -5158,7 +5176,7 @@
         <v>251</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="D42" t="s">
         <v>252</v>
@@ -5168,27 +5186,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H42" t="n">
-        <v>56767785</v>
+        <v>58024575</v>
       </c>
       <c r="I42" t="n">
-        <v>677.55</v>
+        <v>692.55</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>191072</v>
+        <v>175455</v>
       </c>
       <c r="M42" t="n">
-        <v>2.281</v>
+        <v>2.094</v>
       </c>
       <c r="N42" t="n">
-        <v>0.112</v>
+        <v>0.103</v>
       </c>
       <c r="O42" t="n">
-        <v>8.9</v>
+        <v>9.7</v>
       </c>
       <c r="P42" t="s">
         <v>253</v>
@@ -5211,7 +5229,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44321</v>
+        <v>44326</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5221,27 +5239,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H43" t="n">
-        <v>1102233</v>
+        <v>1116513</v>
       </c>
       <c r="I43" t="n">
-        <v>35.472</v>
-      </c>
-      <c r="J43"/>
-      <c r="K43"/>
+        <v>35.932</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2960</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.095</v>
+      </c>
       <c r="L43" t="n">
-        <v>1267</v>
+        <v>2776</v>
       </c>
       <c r="M43" t="n">
-        <v>0.041</v>
+        <v>0.089</v>
       </c>
       <c r="N43" t="n">
-        <v>0.036</v>
+        <v>0.017</v>
       </c>
       <c r="O43" t="n">
-        <v>28.2</v>
+        <v>59.2</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5264,7 +5286,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44324</v>
+        <v>44329</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5274,31 +5296,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H44" t="n">
-        <v>8445689</v>
+        <v>8707677</v>
       </c>
       <c r="I44" t="n">
-        <v>810.289</v>
+        <v>835.425</v>
       </c>
       <c r="J44" t="n">
-        <v>58949</v>
+        <v>62315</v>
       </c>
       <c r="K44" t="n">
-        <v>5.656</v>
+        <v>5.979</v>
       </c>
       <c r="L44" t="n">
-        <v>40011</v>
+        <v>54677</v>
       </c>
       <c r="M44" t="n">
-        <v>3.839</v>
+        <v>5.246</v>
       </c>
       <c r="N44" t="n">
-        <v>0.051</v>
+        <v>0.043</v>
       </c>
       <c r="O44" t="n">
-        <v>19.8</v>
+        <v>23.5</v>
       </c>
       <c r="P44" t="s">
         <v>266</v>
@@ -5321,7 +5343,7 @@
         <v>270</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D45" t="s">
         <v>271</v>
@@ -5331,31 +5353,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H45" t="n">
-        <v>1308883</v>
+        <v>1328843</v>
       </c>
       <c r="I45" t="n">
-        <v>73.058</v>
+        <v>74.173</v>
       </c>
       <c r="J45" t="n">
-        <v>1107</v>
+        <v>7029</v>
       </c>
       <c r="K45" t="n">
-        <v>0.062</v>
+        <v>0.392</v>
       </c>
       <c r="L45" t="n">
-        <v>6070</v>
+        <v>5468</v>
       </c>
       <c r="M45" t="n">
-        <v>0.339</v>
+        <v>0.305</v>
       </c>
       <c r="N45" t="n">
-        <v>0.151</v>
+        <v>0.167</v>
       </c>
       <c r="O45" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="P45" t="s">
         <v>273</v>
@@ -5398,10 +5420,18 @@
       </c>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
+      <c r="L46" t="n">
+        <v>111292</v>
+      </c>
+      <c r="M46" t="n">
+        <v>14.845</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>33333.3</v>
+      </c>
       <c r="P46" t="s">
         <v>280</v>
       </c>
@@ -5423,7 +5453,7 @@
         <v>284</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D47" t="s">
         <v>285</v>
@@ -5435,25 +5465,25 @@
         <v>287</v>
       </c>
       <c r="G47" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H47" t="n">
-        <v>5094469</v>
+        <v>5156500</v>
       </c>
       <c r="I47" t="n">
-        <v>527.359</v>
+        <v>533.78</v>
       </c>
       <c r="J47" t="n">
-        <v>6513</v>
+        <v>18901</v>
       </c>
       <c r="K47" t="n">
-        <v>0.674</v>
+        <v>1.957</v>
       </c>
       <c r="L47" t="n">
-        <v>15309</v>
+        <v>16163</v>
       </c>
       <c r="M47" t="n">
-        <v>1.585</v>
+        <v>1.673</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5478,7 +5508,7 @@
         <v>291</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D48" t="s">
         <v>292</v>
@@ -5488,25 +5518,25 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H48" t="n">
-        <v>359962</v>
+        <v>363043</v>
       </c>
       <c r="I48" t="n">
-        <v>1054.834</v>
+        <v>1063.862</v>
       </c>
       <c r="J48" t="n">
-        <v>932</v>
+        <v>1435</v>
       </c>
       <c r="K48" t="n">
-        <v>2.731</v>
+        <v>4.205</v>
       </c>
       <c r="L48" t="n">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="M48" t="n">
-        <v>3.399</v>
+        <v>3.432</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5531,7 +5561,7 @@
         <v>296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="D49" t="s">
         <v>297</v>
@@ -5543,28 +5573,32 @@
         <v>299</v>
       </c>
       <c r="G49" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H49" t="n">
-        <v>305600187</v>
+        <v>309448585</v>
       </c>
       <c r="I49" t="n">
-        <v>221.449</v>
+        <v>224.237</v>
       </c>
       <c r="J49" t="n">
-        <v>1850110</v>
+        <v>1864594</v>
       </c>
       <c r="K49" t="n">
-        <v>1.341</v>
+        <v>1.351</v>
       </c>
       <c r="L49" t="n">
-        <v>1755630</v>
+        <v>1810482</v>
       </c>
       <c r="M49" t="n">
-        <v>1.272</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
+        <v>1.312</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5</v>
+      </c>
       <c r="P49" t="s">
         <v>298</v>
       </c>
@@ -5586,7 +5620,7 @@
         <v>302</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D50" t="s">
         <v>303</v>
@@ -5596,31 +5630,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H50" t="n">
-        <v>10237631</v>
+        <v>10343074</v>
       </c>
       <c r="I50" t="n">
-        <v>37.429</v>
+        <v>37.814</v>
       </c>
       <c r="J50" t="n">
-        <v>31963</v>
+        <v>21713</v>
       </c>
       <c r="K50" t="n">
-        <v>0.117</v>
+        <v>0.079</v>
       </c>
       <c r="L50" t="n">
-        <v>43769</v>
+        <v>36999</v>
       </c>
       <c r="M50" t="n">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="N50" t="n">
-        <v>0.119</v>
+        <v>0.133</v>
       </c>
       <c r="O50" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="P50" t="s">
         <v>304</v>
@@ -5643,7 +5677,7 @@
         <v>308</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D51" t="s">
         <v>309</v>
@@ -5653,27 +5687,27 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H51" t="n">
-        <v>17206735</v>
+        <v>17616446</v>
       </c>
       <c r="I51" t="n">
-        <v>204.859</v>
+        <v>209.737</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>137782</v>
+        <v>137681</v>
       </c>
       <c r="M51" t="n">
-        <v>1.64</v>
+        <v>1.639</v>
       </c>
       <c r="N51" t="n">
-        <v>0.122</v>
+        <v>0.116</v>
       </c>
       <c r="O51" t="n">
-        <v>8.2</v>
+        <v>8.6</v>
       </c>
       <c r="P51" t="s">
         <v>310</v>
@@ -5696,7 +5730,7 @@
         <v>314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D52" t="s">
         <v>315</v>
@@ -5706,31 +5740,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H52" t="n">
-        <v>9673212</v>
+        <v>9745496</v>
       </c>
       <c r="I52" t="n">
-        <v>240.493</v>
+        <v>242.29</v>
       </c>
       <c r="J52" t="n">
-        <v>33875</v>
+        <v>37969</v>
       </c>
       <c r="K52" t="n">
-        <v>0.842</v>
+        <v>0.944</v>
       </c>
       <c r="L52" t="n">
-        <v>37868</v>
+        <v>37282</v>
       </c>
       <c r="M52" t="n">
-        <v>0.941</v>
+        <v>0.927</v>
       </c>
       <c r="N52" t="n">
-        <v>0.143</v>
+        <v>0.141</v>
       </c>
       <c r="O52" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="P52" t="s">
         <v>317</v>
@@ -5753,7 +5787,7 @@
         <v>321</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D53" t="s">
         <v>322</v>
@@ -5763,31 +5797,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H53" t="n">
-        <v>4673378</v>
+        <v>4729538</v>
       </c>
       <c r="I53" t="n">
-        <v>946.45</v>
+        <v>957.824</v>
       </c>
       <c r="J53" t="n">
-        <v>13575</v>
+        <v>19728</v>
       </c>
       <c r="K53" t="n">
-        <v>2.749</v>
+        <v>3.995</v>
       </c>
       <c r="L53" t="n">
-        <v>18306</v>
+        <v>18505</v>
       </c>
       <c r="M53" t="n">
-        <v>3.707</v>
+        <v>3.748</v>
       </c>
       <c r="N53" t="n">
         <v>0.023</v>
       </c>
       <c r="O53" t="n">
-        <v>44.2</v>
+        <v>43.5</v>
       </c>
       <c r="P53" t="s">
         <v>323</v>
@@ -5810,7 +5844,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -5820,31 +5854,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H54" t="n">
-        <v>16438910</v>
+        <v>16527582</v>
       </c>
       <c r="I54" t="n">
-        <v>1899.235</v>
+        <v>1909.48</v>
       </c>
       <c r="J54" t="n">
-        <v>40657</v>
+        <v>21078</v>
       </c>
       <c r="K54" t="n">
-        <v>4.697</v>
+        <v>2.435</v>
       </c>
       <c r="L54" t="n">
-        <v>32137</v>
+        <v>28818</v>
       </c>
       <c r="M54" t="n">
-        <v>3.713</v>
+        <v>3.329</v>
       </c>
       <c r="N54" t="n">
         <v>0.001</v>
       </c>
       <c r="O54" t="n">
-        <v>669.5</v>
+        <v>873.3</v>
       </c>
       <c r="P54" t="s">
         <v>42</v>
@@ -5867,7 +5901,7 @@
         <v>333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D55" t="s">
         <v>334</v>
@@ -5879,31 +5913,31 @@
         <v>336</v>
       </c>
       <c r="G55" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H55" t="n">
-        <v>26584979</v>
+        <v>26862873</v>
       </c>
       <c r="I55" t="n">
-        <v>439.699</v>
+        <v>444.295</v>
       </c>
       <c r="J55" t="n">
-        <v>45942</v>
+        <v>95978</v>
       </c>
       <c r="K55" t="n">
-        <v>0.76</v>
+        <v>1.587</v>
       </c>
       <c r="L55" t="n">
-        <v>95542</v>
+        <v>89244</v>
       </c>
       <c r="M55" t="n">
-        <v>1.58</v>
+        <v>1.476</v>
       </c>
       <c r="N55" t="n">
-        <v>0.098</v>
+        <v>0.091</v>
       </c>
       <c r="O55" t="n">
-        <v>10.2</v>
+        <v>11</v>
       </c>
       <c r="P55" t="s">
         <v>337</v>
@@ -5926,7 +5960,7 @@
         <v>340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D56" t="s">
         <v>334</v>
@@ -5938,31 +5972,31 @@
         <v>336</v>
       </c>
       <c r="G56" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H56" t="n">
-        <v>61227024</v>
+        <v>62107222</v>
       </c>
       <c r="I56" t="n">
-        <v>1012.656</v>
+        <v>1027.214</v>
       </c>
       <c r="J56" t="n">
-        <v>130000</v>
+        <v>287026</v>
       </c>
       <c r="K56" t="n">
-        <v>2.15</v>
+        <v>4.747</v>
       </c>
       <c r="L56" t="n">
-        <v>284338</v>
+        <v>271893</v>
       </c>
       <c r="M56" t="n">
-        <v>4.703</v>
+        <v>4.497</v>
       </c>
       <c r="N56" t="n">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="O56" t="n">
-        <v>30.4</v>
+        <v>33.4</v>
       </c>
       <c r="P56" t="s">
         <v>337</v>
@@ -6038,7 +6072,7 @@
         <v>349</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="D58" t="s">
         <v>350</v>
@@ -6048,31 +6082,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H58" t="n">
-        <v>11905345</v>
+        <v>12089456</v>
       </c>
       <c r="I58" t="n">
-        <v>94.131</v>
+        <v>95.587</v>
       </c>
       <c r="J58" t="n">
-        <v>130677</v>
+        <v>87073</v>
       </c>
       <c r="K58" t="n">
-        <v>1.033</v>
+        <v>0.688</v>
       </c>
       <c r="L58" t="n">
-        <v>76742</v>
+        <v>89496</v>
       </c>
       <c r="M58" t="n">
-        <v>0.607</v>
+        <v>0.708</v>
       </c>
       <c r="N58" t="n">
-        <v>0.07</v>
+        <v>0.069</v>
       </c>
       <c r="O58" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6095,7 +6129,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6105,31 +6139,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H59" t="n">
-        <v>6839470</v>
+        <v>6903678</v>
       </c>
       <c r="I59" t="n">
-        <v>670.33</v>
+        <v>676.623</v>
       </c>
       <c r="J59" t="n">
-        <v>14968</v>
+        <v>10417</v>
       </c>
       <c r="K59" t="n">
-        <v>1.467</v>
+        <v>1.021</v>
       </c>
       <c r="L59" t="n">
-        <v>15981</v>
+        <v>15080</v>
       </c>
       <c r="M59" t="n">
-        <v>1.566</v>
+        <v>1.478</v>
       </c>
       <c r="N59" t="n">
-        <v>0.057</v>
+        <v>0.046</v>
       </c>
       <c r="O59" t="n">
-        <v>17.7</v>
+        <v>21.9</v>
       </c>
       <c r="P59" t="s">
         <v>357</v>
@@ -6262,7 +6296,7 @@
         <v>371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D62" t="s">
         <v>372</v>
@@ -6272,31 +6306,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H62" t="n">
-        <v>2403736</v>
+        <v>2438929</v>
       </c>
       <c r="I62" t="n">
-        <v>562.862</v>
+        <v>571.102</v>
       </c>
       <c r="J62" t="n">
-        <v>7204</v>
+        <v>9040</v>
       </c>
       <c r="K62" t="n">
-        <v>1.687</v>
+        <v>2.117</v>
       </c>
       <c r="L62" t="n">
-        <v>8667</v>
+        <v>8535</v>
       </c>
       <c r="M62" t="n">
-        <v>2.029</v>
+        <v>1.999</v>
       </c>
       <c r="N62" t="n">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
       <c r="O62" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6319,7 +6353,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6331,28 +6365,32 @@
         <v>380</v>
       </c>
       <c r="G63" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H63" t="n">
-        <v>2377635</v>
+        <v>2408655</v>
       </c>
       <c r="I63" t="n">
-        <v>1260.541</v>
+        <v>1276.987</v>
       </c>
       <c r="J63" t="n">
-        <v>17957</v>
+        <v>16417</v>
       </c>
       <c r="K63" t="n">
-        <v>9.52</v>
+        <v>8.704</v>
       </c>
       <c r="L63" t="n">
-        <v>15348</v>
+        <v>15817</v>
       </c>
       <c r="M63" t="n">
-        <v>8.137</v>
-      </c>
-      <c r="N63"/>
-      <c r="O63"/>
+        <v>8.386</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="O63" t="n">
+        <v>22.7</v>
+      </c>
       <c r="P63" t="s">
         <v>379</v>
       </c>
@@ -6374,7 +6412,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6384,16 +6422,20 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>4119202</v>
+        <v>4163257</v>
       </c>
       <c r="I64" t="n">
-        <v>603.507</v>
-      </c>
-      <c r="J64"/>
-      <c r="K64"/>
+        <v>609.962</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11872</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.739</v>
+      </c>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
@@ -6419,7 +6461,7 @@
         <v>388</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -6429,15 +6471,15 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>1996</v>
+        <v>1188</v>
       </c>
       <c r="K65" t="n">
-        <v>0.29</v>
+        <v>0.173</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -6464,7 +6506,7 @@
         <v>394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44324</v>
+        <v>44326</v>
       </c>
       <c r="D66" t="s">
         <v>395</v>
@@ -6474,31 +6516,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H66" t="n">
-        <v>42225</v>
+        <v>42576</v>
       </c>
       <c r="I66" t="n">
-        <v>1107.192</v>
+        <v>1116.396</v>
       </c>
       <c r="J66" t="n">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="K66" t="n">
-        <v>2.648</v>
+        <v>6.975</v>
       </c>
       <c r="L66" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M66" t="n">
-        <v>5.323</v>
+        <v>5.244</v>
       </c>
       <c r="N66" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="O66" t="n">
-        <v>43.5</v>
+        <v>41.7</v>
       </c>
       <c r="P66" t="s">
         <v>396</v>
@@ -6521,7 +6563,7 @@
         <v>400</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44322</v>
+        <v>44326</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6531,31 +6573,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H67" t="n">
-        <v>3019015</v>
+        <v>3089220</v>
       </c>
       <c r="I67" t="n">
-        <v>1108.998</v>
+        <v>1134.787</v>
       </c>
       <c r="J67" t="n">
-        <v>26729</v>
+        <v>22054</v>
       </c>
       <c r="K67" t="n">
-        <v>9.819</v>
+        <v>8.101</v>
       </c>
       <c r="L67" t="n">
-        <v>21588</v>
+        <v>21352</v>
       </c>
       <c r="M67" t="n">
-        <v>7.93</v>
+        <v>7.843</v>
       </c>
       <c r="N67" t="n">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="O67" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="P67" t="s">
         <v>402</v>
@@ -6578,7 +6620,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44324</v>
+        <v>44327</v>
       </c>
       <c r="D68" t="s">
         <v>406</v>
@@ -6588,31 +6630,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H68" t="n">
-        <v>2728671</v>
+        <v>2748184</v>
       </c>
       <c r="I68" t="n">
-        <v>4359.066</v>
+        <v>4390.239</v>
       </c>
       <c r="J68" t="n">
-        <v>6355</v>
+        <v>9045</v>
       </c>
       <c r="K68" t="n">
-        <v>10.152</v>
+        <v>14.449</v>
       </c>
       <c r="L68" t="n">
-        <v>7625</v>
+        <v>7731</v>
       </c>
       <c r="M68" t="n">
-        <v>12.181</v>
+        <v>12.35</v>
       </c>
       <c r="N68" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="O68" t="n">
-        <v>56.3</v>
+        <v>59.5</v>
       </c>
       <c r="P68" t="s">
         <v>407</v>
@@ -6635,7 +6677,7 @@
         <v>410</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44324</v>
+        <v>44328</v>
       </c>
       <c r="D69" t="s">
         <v>411</v>
@@ -6645,31 +6687,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H69" t="n">
-        <v>191570</v>
+        <v>194234</v>
       </c>
       <c r="I69" t="n">
-        <v>6.918</v>
+        <v>7.014</v>
       </c>
       <c r="J69" t="n">
-        <v>574</v>
+        <v>803</v>
       </c>
       <c r="K69" t="n">
-        <v>0.021</v>
+        <v>0.029</v>
       </c>
       <c r="L69" t="n">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M69" t="n">
         <v>0.03</v>
       </c>
       <c r="N69" t="n">
-        <v>0.274</v>
+        <v>0.243</v>
       </c>
       <c r="O69" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="P69" t="s">
         <v>412</v>
@@ -6745,7 +6787,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6757,31 +6799,31 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H71" t="n">
-        <v>10055506</v>
+        <v>10341089</v>
       </c>
       <c r="I71" t="n">
-        <v>310.681</v>
+        <v>319.505</v>
       </c>
       <c r="J71" t="n">
-        <v>75093</v>
+        <v>83974</v>
       </c>
       <c r="K71" t="n">
-        <v>2.32</v>
+        <v>2.595</v>
       </c>
       <c r="L71" t="n">
-        <v>73529</v>
+        <v>74207</v>
       </c>
       <c r="M71" t="n">
-        <v>2.272</v>
+        <v>2.293</v>
       </c>
       <c r="N71" t="n">
-        <v>0.05</v>
+        <v>0.058</v>
       </c>
       <c r="O71" t="n">
-        <v>20.1</v>
+        <v>17.2</v>
       </c>
       <c r="P71" t="s">
         <v>42</v>
@@ -6804,7 +6846,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -6814,31 +6856,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H72" t="n">
-        <v>773562</v>
+        <v>795204</v>
       </c>
       <c r="I72" t="n">
-        <v>1431.086</v>
+        <v>1471.123</v>
       </c>
       <c r="J72" t="n">
-        <v>4507</v>
+        <v>4500</v>
       </c>
       <c r="K72" t="n">
-        <v>8.338</v>
+        <v>8.325</v>
       </c>
       <c r="L72" t="n">
-        <v>4120</v>
+        <v>4759</v>
       </c>
       <c r="M72" t="n">
-        <v>7.622</v>
+        <v>8.804</v>
       </c>
       <c r="N72" t="n">
-        <v>0.176</v>
+        <v>0.238</v>
       </c>
       <c r="O72" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -6861,7 +6903,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -6871,31 +6913,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H73" t="n">
-        <v>883785</v>
+        <v>891075</v>
       </c>
       <c r="I73" t="n">
-        <v>2001.601</v>
+        <v>2018.112</v>
       </c>
       <c r="J73" t="n">
-        <v>1766</v>
+        <v>1996</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>4.521</v>
       </c>
       <c r="L73" t="n">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="M73" t="n">
-        <v>4.104</v>
+        <v>4.217</v>
       </c>
       <c r="N73" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="O73" t="n">
-        <v>99.1</v>
+        <v>245.9</v>
       </c>
       <c r="P73" t="s">
         <v>438</v>
@@ -6967,7 +7009,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -6977,31 +7019,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H75" t="n">
-        <v>6326672</v>
+        <v>6374398</v>
       </c>
       <c r="I75" t="n">
-        <v>49.07</v>
+        <v>49.44</v>
       </c>
       <c r="J75" t="n">
-        <v>1224</v>
+        <v>6938</v>
       </c>
       <c r="K75" t="n">
-        <v>0.009</v>
+        <v>0.054</v>
       </c>
       <c r="L75" t="n">
-        <v>10477</v>
+        <v>9377</v>
       </c>
       <c r="M75" t="n">
-        <v>0.081</v>
+        <v>0.073</v>
       </c>
       <c r="N75" t="n">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="O75" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="P75" t="s">
         <v>451</v>
@@ -7024,7 +7066,7 @@
         <v>454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44324</v>
+        <v>44328</v>
       </c>
       <c r="D76" t="s">
         <v>455</v>
@@ -7034,31 +7076,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H76" t="n">
-        <v>2772740</v>
+        <v>2800505</v>
       </c>
       <c r="I76" t="n">
-        <v>845.788</v>
+        <v>854.257</v>
       </c>
       <c r="J76" t="n">
-        <v>9908</v>
+        <v>7500</v>
       </c>
       <c r="K76" t="n">
-        <v>3.022</v>
+        <v>2.288</v>
       </c>
       <c r="L76" t="n">
-        <v>8846</v>
+        <v>7916</v>
       </c>
       <c r="M76" t="n">
-        <v>2.698</v>
+        <v>2.415</v>
       </c>
       <c r="N76" t="n">
-        <v>0.122</v>
+        <v>0.099</v>
       </c>
       <c r="O76" t="n">
-        <v>8.2</v>
+        <v>10.1</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
@@ -7081,7 +7123,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7091,31 +7133,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H77" t="n">
-        <v>5823250</v>
+        <v>5852501</v>
       </c>
       <c r="I77" t="n">
-        <v>157.767</v>
+        <v>158.559</v>
       </c>
       <c r="J77" t="n">
-        <v>6535</v>
+        <v>9139</v>
       </c>
       <c r="K77" t="n">
-        <v>0.177</v>
+        <v>0.248</v>
       </c>
       <c r="L77" t="n">
-        <v>8136</v>
+        <v>7785</v>
       </c>
       <c r="M77" t="n">
-        <v>0.22</v>
+        <v>0.211</v>
       </c>
       <c r="N77" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="O77" t="n">
-        <v>28.4</v>
+        <v>32.9</v>
       </c>
       <c r="P77" t="s">
         <v>461</v>
@@ -7138,7 +7180,7 @@
         <v>465</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D78" t="s">
         <v>466</v>
@@ -7148,31 +7190,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H78" t="n">
-        <v>528305</v>
+        <v>530868</v>
       </c>
       <c r="I78" t="n">
-        <v>16.903</v>
+        <v>16.985</v>
       </c>
       <c r="J78" t="n">
-        <v>1495</v>
+        <v>1322</v>
       </c>
       <c r="K78" t="n">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="L78" t="n">
-        <v>1042</v>
+        <v>1126</v>
       </c>
       <c r="M78" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="N78" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="O78" t="n">
-        <v>32</v>
+        <v>33.5</v>
       </c>
       <c r="P78" t="s">
         <v>467</v>
@@ -7195,284 +7237,282 @@
         <v>471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44247</v>
-      </c>
-      <c r="D79"/>
+        <v>44329</v>
+      </c>
+      <c r="D79" t="s">
+        <v>472</v>
+      </c>
       <c r="E79" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H79" t="n">
-        <v>2482290</v>
+        <v>2597378</v>
       </c>
       <c r="I79" t="n">
-        <v>45.622</v>
+        <v>47.737</v>
       </c>
       <c r="J79" t="n">
-        <v>879</v>
+        <v>2019</v>
       </c>
       <c r="K79" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1012</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="O79" t="n">
-        <v>47.2</v>
-      </c>
+        <v>0.037</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
       <c r="P79" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q79" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R79" t="s">
         <v>91</v>
       </c>
       <c r="S79" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44324</v>
+        <v>44329</v>
       </c>
       <c r="D80" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E80" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H80" t="n">
-        <v>399564</v>
+        <v>406093</v>
       </c>
       <c r="I80" t="n">
-        <v>157.252</v>
+        <v>159.821</v>
       </c>
       <c r="J80" t="n">
-        <v>2292</v>
+        <v>1561</v>
       </c>
       <c r="K80" t="n">
-        <v>0.902</v>
+        <v>0.614</v>
       </c>
       <c r="L80" t="n">
-        <v>1393</v>
+        <v>1441</v>
       </c>
       <c r="M80" t="n">
-        <v>0.548</v>
+        <v>0.567</v>
       </c>
       <c r="N80" t="n">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="O80" t="n">
         <v>7.9</v>
       </c>
       <c r="P80" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q80" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="R80" t="s">
         <v>91</v>
       </c>
       <c r="S80" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D81" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E81" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H81" t="n">
-        <v>2634504</v>
+        <v>2712562</v>
       </c>
       <c r="I81" t="n">
-        <v>90.418</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81"/>
+        <v>93.097</v>
+      </c>
+      <c r="J81" t="n">
+        <v>19474</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.668</v>
+      </c>
       <c r="L81" t="n">
-        <v>18575</v>
+        <v>19163</v>
       </c>
       <c r="M81" t="n">
-        <v>0.638</v>
+        <v>0.658</v>
       </c>
       <c r="N81" t="n">
-        <v>0.451</v>
+        <v>0.467</v>
       </c>
       <c r="O81" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P81" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="R81" t="s">
         <v>37</v>
       </c>
       <c r="S81" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="D82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H82" t="n">
-        <v>9072388</v>
+        <v>9274494</v>
       </c>
       <c r="I82" t="n">
-        <v>529.469</v>
+        <v>541.264</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="n">
-        <v>27038</v>
+        <v>24969</v>
       </c>
       <c r="M82" t="n">
-        <v>1.578</v>
+        <v>1.457</v>
       </c>
       <c r="N82" t="n">
-        <v>0.109</v>
+        <v>0.118</v>
       </c>
       <c r="O82" t="n">
-        <v>9.2</v>
+        <v>8.5</v>
       </c>
       <c r="P82" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q82" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="R82" t="s">
         <v>31</v>
       </c>
       <c r="S82" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E83" t="s">
         <v>42</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H83" t="n">
-        <v>2059727</v>
+        <v>2073522</v>
       </c>
       <c r="I83" t="n">
-        <v>427.131</v>
+        <v>429.992</v>
       </c>
       <c r="J83" t="n">
-        <v>2740</v>
+        <v>3710</v>
       </c>
       <c r="K83" t="n">
-        <v>0.568</v>
+        <v>0.769</v>
       </c>
       <c r="L83" t="n">
-        <v>3972</v>
+        <v>3800</v>
       </c>
       <c r="M83" t="n">
-        <v>0.824</v>
+        <v>0.788</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q83" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="R83" t="s">
         <v>37</v>
       </c>
       <c r="S83" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>44326</v>
       </c>
       <c r="D84" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
@@ -7499,30 +7539,30 @@
         <v>142.4</v>
       </c>
       <c r="P84" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q84" t="s">
         <v>504</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>503</v>
       </c>
       <c r="R84" t="s">
         <v>91</v>
       </c>
       <c r="S84" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="D85" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E85" t="s">
         <v>42</v>
@@ -7559,87 +7599,87 @@
         <v>42</v>
       </c>
       <c r="Q85" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R85" t="s">
         <v>37</v>
       </c>
       <c r="S85" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44324</v>
+        <v>44327</v>
       </c>
       <c r="D86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H86" t="n">
-        <v>5277065</v>
+        <v>5336002</v>
       </c>
       <c r="I86" t="n">
-        <v>973.405</v>
+        <v>984.277</v>
       </c>
       <c r="J86" t="n">
-        <v>8597</v>
+        <v>20739</v>
       </c>
       <c r="K86" t="n">
-        <v>1.586</v>
+        <v>3.826</v>
       </c>
       <c r="L86" t="n">
-        <v>18153</v>
+        <v>18483</v>
       </c>
       <c r="M86" t="n">
-        <v>3.348</v>
+        <v>3.409</v>
       </c>
       <c r="N86" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="O86" t="n">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="P86" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q86" t="s">
         <v>513</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>512</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7658,248 +7698,248 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q87" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="R87" t="s">
         <v>66</v>
       </c>
       <c r="S87" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H88" t="n">
-        <v>12267310</v>
+        <v>12380676</v>
       </c>
       <c r="I88" t="n">
-        <v>55.535</v>
+        <v>56.048</v>
       </c>
       <c r="J88" t="n">
-        <v>38883</v>
+        <v>30700</v>
       </c>
       <c r="K88" t="n">
-        <v>0.176</v>
+        <v>0.139</v>
       </c>
       <c r="L88" t="n">
-        <v>43090</v>
+        <v>39835</v>
       </c>
       <c r="M88" t="n">
-        <v>0.195</v>
+        <v>0.18</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q88" t="s">
         <v>524</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>523</v>
       </c>
       <c r="R88" t="s">
         <v>37</v>
       </c>
       <c r="S88" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>2611</v>
+        <v>2806</v>
       </c>
       <c r="K89" t="n">
-        <v>0.512</v>
+        <v>0.55</v>
       </c>
       <c r="L89" t="n">
-        <v>3332</v>
+        <v>3035</v>
       </c>
       <c r="M89" t="n">
-        <v>0.653</v>
+        <v>0.595</v>
       </c>
       <c r="N89" t="n">
-        <v>0.176</v>
+        <v>0.166</v>
       </c>
       <c r="O89" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="P89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q89" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="R89" t="s">
         <v>37</v>
       </c>
       <c r="S89" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H90" t="n">
-        <v>2460508</v>
+        <v>2483460</v>
       </c>
       <c r="I90" t="n">
-        <v>570.253</v>
+        <v>575.572</v>
       </c>
       <c r="J90" t="n">
-        <v>5924</v>
+        <v>9659</v>
       </c>
       <c r="K90" t="n">
-        <v>1.373</v>
+        <v>2.239</v>
       </c>
       <c r="L90" t="n">
-        <v>7946</v>
+        <v>8055</v>
       </c>
       <c r="M90" t="n">
-        <v>1.842</v>
+        <v>1.867</v>
       </c>
       <c r="N90" t="n">
-        <v>0.046</v>
+        <v>0.052</v>
       </c>
       <c r="O90" t="n">
-        <v>21.8</v>
+        <v>19.1</v>
       </c>
       <c r="P90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="R90" t="s">
         <v>37</v>
       </c>
       <c r="S90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H91" t="n">
-        <v>1145218</v>
+        <v>1163633</v>
       </c>
       <c r="I91" t="n">
-        <v>160.563</v>
+        <v>163.144</v>
       </c>
       <c r="J91" t="n">
-        <v>6137</v>
+        <v>6283</v>
       </c>
       <c r="K91" t="n">
-        <v>0.86</v>
+        <v>0.881</v>
       </c>
       <c r="L91" t="n">
-        <v>6081</v>
+        <v>6119</v>
       </c>
       <c r="M91" t="n">
-        <v>0.853</v>
+        <v>0.858</v>
       </c>
       <c r="N91" t="n">
-        <v>0.358</v>
+        <v>0.372</v>
       </c>
       <c r="O91" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="R91" t="s">
         <v>37</v>
       </c>
       <c r="S91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>44312</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E92" t="s">
         <v>146</v>
@@ -7936,258 +7976,258 @@
         <v>146</v>
       </c>
       <c r="Q92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="R92" t="s">
         <v>37</v>
       </c>
       <c r="S92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E93" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H93" t="n">
-        <v>11583985</v>
+        <v>11710535</v>
       </c>
       <c r="I93" t="n">
-        <v>105.712</v>
+        <v>106.866</v>
       </c>
       <c r="J93" t="n">
-        <v>31919</v>
+        <v>43726</v>
       </c>
       <c r="K93" t="n">
-        <v>0.291</v>
+        <v>0.399</v>
       </c>
       <c r="L93" t="n">
-        <v>45202</v>
+        <v>43508</v>
       </c>
       <c r="M93" t="n">
-        <v>0.412</v>
+        <v>0.397</v>
       </c>
       <c r="N93" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="O93" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="P93" t="s">
         <v>279</v>
       </c>
       <c r="Q93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R93" t="s">
         <v>31</v>
       </c>
       <c r="S93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D94" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H94" t="n">
-        <v>14445652</v>
+        <v>14666237</v>
       </c>
       <c r="I94" t="n">
-        <v>381.69</v>
+        <v>387.518</v>
       </c>
       <c r="J94" t="n">
-        <v>51283</v>
+        <v>56708</v>
       </c>
       <c r="K94" t="n">
-        <v>1.355</v>
+        <v>1.498</v>
       </c>
       <c r="L94" t="n">
-        <v>51658</v>
+        <v>57075</v>
       </c>
       <c r="M94" t="n">
-        <v>1.365</v>
+        <v>1.508</v>
       </c>
       <c r="N94" t="n">
-        <v>0.082</v>
+        <v>0.069</v>
       </c>
       <c r="O94" t="n">
-        <v>12.1</v>
+        <v>14.6</v>
       </c>
       <c r="P94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R94" t="s">
         <v>31</v>
       </c>
       <c r="S94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B95" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D95" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E95" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H95" t="n">
-        <v>14794397</v>
+        <v>15017415</v>
       </c>
       <c r="I95" t="n">
-        <v>390.904</v>
+        <v>396.797</v>
       </c>
       <c r="J95" t="n">
-        <v>52161</v>
+        <v>57175</v>
       </c>
       <c r="K95" t="n">
-        <v>1.378</v>
+        <v>1.511</v>
       </c>
       <c r="L95" t="n">
-        <v>52342</v>
+        <v>57764</v>
       </c>
       <c r="M95" t="n">
-        <v>1.383</v>
+        <v>1.526</v>
       </c>
       <c r="N95" t="n">
-        <v>0.081</v>
+        <v>0.068</v>
       </c>
       <c r="O95" t="n">
-        <v>12.3</v>
+        <v>14.8</v>
       </c>
       <c r="P95" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q95" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R95" t="s">
         <v>91</v>
       </c>
       <c r="S95" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B96" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44324</v>
+        <v>44328</v>
       </c>
       <c r="D96" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E96" t="s">
         <v>42</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H96" t="n">
-        <v>10916847</v>
+        <v>11052822</v>
       </c>
       <c r="I96" t="n">
-        <v>1070.625</v>
+        <v>1083.96</v>
       </c>
       <c r="J96" t="n">
-        <v>31421</v>
+        <v>38302</v>
       </c>
       <c r="K96" t="n">
-        <v>3.081</v>
+        <v>3.756</v>
       </c>
       <c r="L96" t="n">
-        <v>42488</v>
+        <v>37506</v>
       </c>
       <c r="M96" t="n">
-        <v>4.167</v>
+        <v>3.678</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="O96" t="n">
-        <v>128.7</v>
+        <v>109.8</v>
       </c>
       <c r="P96" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q96" t="s">
         <v>564</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>563</v>
       </c>
       <c r="R96" t="s">
         <v>37</v>
       </c>
       <c r="S96" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B97" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>44323</v>
       </c>
       <c r="D97" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E97" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
@@ -8218,448 +8258,448 @@
         <v>7.5</v>
       </c>
       <c r="P97" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q97" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="R97" t="s">
         <v>31</v>
       </c>
       <c r="S97" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D98" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E98" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H98" t="n">
-        <v>7512130</v>
+        <v>7587984</v>
       </c>
       <c r="I98" t="n">
-        <v>390.49</v>
+        <v>394.433</v>
       </c>
       <c r="J98" t="n">
-        <v>14654</v>
+        <v>22532</v>
       </c>
       <c r="K98" t="n">
-        <v>0.762</v>
+        <v>1.171</v>
       </c>
       <c r="L98" t="n">
-        <v>18286</v>
+        <v>20227</v>
       </c>
       <c r="M98" t="n">
-        <v>0.951</v>
+        <v>1.051</v>
       </c>
       <c r="N98" t="n">
-        <v>0.066</v>
+        <v>0.051</v>
       </c>
       <c r="O98" t="n">
-        <v>15.1</v>
+        <v>19.5</v>
       </c>
       <c r="P98" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q98" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R98" t="s">
         <v>37</v>
       </c>
       <c r="S98" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B99" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D99" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E99" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H99" t="n">
-        <v>131924338</v>
+        <v>132774924</v>
       </c>
       <c r="I99" t="n">
-        <v>903.997</v>
+        <v>909.826</v>
       </c>
       <c r="J99" t="n">
-        <v>193338</v>
+        <v>369841</v>
       </c>
       <c r="K99" t="n">
-        <v>1.325</v>
+        <v>2.534</v>
       </c>
       <c r="L99" t="n">
-        <v>240801</v>
+        <v>268042</v>
       </c>
       <c r="M99" t="n">
-        <v>1.65</v>
+        <v>1.837</v>
       </c>
       <c r="N99" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="O99" t="n">
-        <v>30</v>
+        <v>32.7</v>
       </c>
       <c r="P99" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q99" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R99" t="s">
         <v>37</v>
       </c>
       <c r="S99" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="D100" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E100" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H100" t="n">
-        <v>1347380</v>
+        <v>1354868</v>
       </c>
       <c r="I100" t="n">
-        <v>104.027</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2730</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.211</v>
-      </c>
+        <v>104.605</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
       <c r="L100" t="n">
-        <v>3569</v>
+        <v>3587</v>
       </c>
       <c r="M100" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100"/>
+        <v>0.277</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O100" t="n">
+        <v>56</v>
+      </c>
       <c r="P100" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q100" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R100" t="s">
         <v>91</v>
       </c>
       <c r="S100" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D101" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E101" t="s">
         <v>42</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H101" t="n">
-        <v>17598087</v>
+        <v>17812376</v>
       </c>
       <c r="I101" t="n">
-        <v>505.491</v>
+        <v>511.646</v>
       </c>
       <c r="J101" t="n">
-        <v>70822</v>
+        <v>71457</v>
       </c>
       <c r="K101" t="n">
-        <v>2.034</v>
+        <v>2.053</v>
       </c>
       <c r="L101" t="n">
-        <v>71579</v>
+        <v>71073</v>
       </c>
       <c r="M101" t="n">
-        <v>2.056</v>
+        <v>2.042</v>
       </c>
       <c r="N101" t="n">
         <v>0.014</v>
       </c>
       <c r="O101" t="n">
-        <v>71.2</v>
+        <v>70.3</v>
       </c>
       <c r="P101" t="s">
         <v>42</v>
       </c>
       <c r="Q101" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R101" t="s">
         <v>37</v>
       </c>
       <c r="S101" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B102" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D102" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E102" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H102" t="n">
-        <v>503255</v>
+        <v>506181</v>
       </c>
       <c r="I102" t="n">
-        <v>30.056</v>
+        <v>30.231</v>
       </c>
       <c r="J102" t="n">
-        <v>839</v>
+        <v>990</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05</v>
+        <v>0.059</v>
       </c>
       <c r="L102" t="n">
-        <v>1108</v>
+        <v>1072</v>
       </c>
       <c r="M102" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="N102" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="O102" t="n">
-        <v>31</v>
+        <v>35.4</v>
       </c>
       <c r="P102" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q102" t="s">
         <v>598</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>597</v>
       </c>
       <c r="R102" t="s">
         <v>37</v>
       </c>
       <c r="S102" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D103" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E103" t="s">
         <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G103" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H103" t="n">
-        <v>3939470</v>
+        <v>3977053</v>
       </c>
       <c r="I103" t="n">
-        <v>578.943</v>
+        <v>584.466</v>
       </c>
       <c r="J103" t="n">
-        <v>10225</v>
+        <v>12089</v>
       </c>
       <c r="K103" t="n">
-        <v>1.503</v>
+        <v>1.777</v>
       </c>
       <c r="L103" t="n">
-        <v>11333</v>
+        <v>11760</v>
       </c>
       <c r="M103" t="n">
-        <v>1.665</v>
+        <v>1.728</v>
       </c>
       <c r="N103" t="n">
-        <v>0.103</v>
+        <v>0.076</v>
       </c>
       <c r="O103" t="n">
-        <v>9.7</v>
+        <v>13.2</v>
       </c>
       <c r="P103" t="s">
         <v>42</v>
       </c>
       <c r="Q103" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B104" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="D104" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H104" t="n">
-        <v>9906797</v>
+        <v>10441802</v>
       </c>
       <c r="I104" t="n">
-        <v>1693.37</v>
+        <v>1784.819</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104" t="n">
-        <v>52880</v>
+        <v>76429</v>
       </c>
       <c r="M104" t="n">
-        <v>9.039</v>
+        <v>13.064</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>2011.7</v>
+        <v>3741.2</v>
       </c>
       <c r="P104" t="s">
         <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="R104" t="s">
         <v>91</v>
       </c>
       <c r="S104" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B105" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D105" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E105" t="s">
         <v>42</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H105" t="n">
-        <v>36224389</v>
+        <v>36654003</v>
       </c>
       <c r="I105" t="n">
-        <v>6634.937</v>
+        <v>6713.626</v>
       </c>
       <c r="J105" t="n">
-        <v>167642</v>
+        <v>70531</v>
       </c>
       <c r="K105" t="n">
-        <v>30.706</v>
+        <v>12.919</v>
       </c>
       <c r="L105" t="n">
-        <v>139365</v>
+        <v>129446</v>
       </c>
       <c r="M105" t="n">
-        <v>25.526</v>
+        <v>23.71</v>
       </c>
       <c r="N105" t="n">
         <v>0.005</v>
@@ -8671,413 +8711,413 @@
         <v>42</v>
       </c>
       <c r="Q105" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="R105" t="s">
         <v>37</v>
       </c>
       <c r="S105" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B106" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D106" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E106" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H106" t="n">
-        <v>1210718</v>
+        <v>1224095</v>
       </c>
       <c r="I106" t="n">
-        <v>582.375</v>
+        <v>588.81</v>
       </c>
       <c r="J106" t="n">
-        <v>3642</v>
+        <v>3961</v>
       </c>
       <c r="K106" t="n">
-        <v>1.752</v>
+        <v>1.905</v>
       </c>
       <c r="L106" t="n">
-        <v>3527</v>
+        <v>3580</v>
       </c>
       <c r="M106" t="n">
-        <v>1.697</v>
+        <v>1.722</v>
       </c>
       <c r="N106" t="n">
-        <v>0.157</v>
+        <v>0.134</v>
       </c>
       <c r="O106" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="P106" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q106" t="s">
         <v>617</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>616</v>
       </c>
       <c r="R106" t="s">
         <v>37</v>
       </c>
       <c r="S106" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B107" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D107" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E107" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F107" t="s">
+        <v>624</v>
+      </c>
+      <c r="G107" t="n">
+        <v>433</v>
+      </c>
+      <c r="H107" t="n">
+        <v>11010999</v>
+      </c>
+      <c r="I107" t="n">
+        <v>185.656</v>
+      </c>
+      <c r="J107" t="n">
+        <v>42073</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="L107" t="n">
+        <v>29314</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="O107" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="P107" t="s">
         <v>623</v>
       </c>
-      <c r="G107" t="n">
-        <v>430</v>
-      </c>
-      <c r="H107" t="n">
-        <v>10906020</v>
-      </c>
-      <c r="I107" t="n">
-        <v>183.886</v>
-      </c>
-      <c r="J107" t="n">
-        <v>18311</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="L107" t="n">
-        <v>27178</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="O107" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="P107" t="s">
-        <v>622</v>
-      </c>
       <c r="Q107" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="R107" t="s">
         <v>31</v>
       </c>
       <c r="S107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B108" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D108" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E108" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H108" t="n">
-        <v>9079656</v>
+        <v>9186083</v>
       </c>
       <c r="I108" t="n">
-        <v>177.098</v>
+        <v>179.174</v>
       </c>
       <c r="J108" t="n">
-        <v>40995</v>
+        <v>32447</v>
       </c>
       <c r="K108" t="n">
-        <v>0.8</v>
+        <v>0.633</v>
       </c>
       <c r="L108" t="n">
-        <v>28657</v>
+        <v>30518</v>
       </c>
       <c r="M108" t="n">
-        <v>0.559</v>
+        <v>0.595</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q108" t="s">
         <v>629</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>628</v>
       </c>
       <c r="R108" t="s">
         <v>31</v>
       </c>
       <c r="S108" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B109" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D109" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E109" t="s">
         <v>42</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H109" t="n">
-        <v>156944</v>
+        <v>158678</v>
       </c>
       <c r="I109" t="n">
-        <v>14.021</v>
+        <v>14.176</v>
       </c>
       <c r="J109" t="n">
-        <v>402</v>
+        <v>508</v>
       </c>
       <c r="K109" t="n">
-        <v>0.036</v>
+        <v>0.045</v>
       </c>
       <c r="L109" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M109" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="O109" t="n">
-        <v>101.2</v>
+        <v>188.7</v>
       </c>
       <c r="P109" t="s">
         <v>42</v>
       </c>
       <c r="Q109" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="R109" t="s">
         <v>37</v>
       </c>
       <c r="S109" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B110" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="D110" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E110" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H110" t="n">
-        <v>40462407</v>
+        <v>41297269</v>
       </c>
       <c r="I110" t="n">
-        <v>865.417</v>
+        <v>883.274</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>124440</v>
+        <v>116486</v>
       </c>
       <c r="M110" t="n">
-        <v>2.662</v>
+        <v>2.491</v>
       </c>
       <c r="N110" t="n">
-        <v>0.067</v>
+        <v>0.054</v>
       </c>
       <c r="O110" t="n">
-        <v>15</v>
+        <v>18.4</v>
       </c>
       <c r="P110" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Q110" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="R110" t="s">
         <v>37</v>
       </c>
       <c r="S110" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B111" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D111" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E111" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H111" t="n">
-        <v>3010167</v>
+        <v>3089491</v>
       </c>
       <c r="I111" t="n">
-        <v>140.575</v>
+        <v>144.279</v>
       </c>
       <c r="J111" t="n">
-        <v>23808</v>
+        <v>26648</v>
       </c>
       <c r="K111" t="n">
-        <v>1.112</v>
+        <v>1.244</v>
       </c>
       <c r="L111" t="n">
-        <v>24538</v>
+        <v>24923</v>
       </c>
       <c r="M111" t="n">
-        <v>1.146</v>
+        <v>1.164</v>
       </c>
       <c r="N111" t="n">
-        <v>0.086</v>
+        <v>0.094</v>
       </c>
       <c r="O111" t="n">
-        <v>11.6</v>
+        <v>10.7</v>
       </c>
       <c r="P111" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q111" t="s">
         <v>646</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>645</v>
       </c>
       <c r="R111" t="s">
         <v>37</v>
       </c>
       <c r="S111" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B112" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44318</v>
+        <v>44325</v>
       </c>
       <c r="D112" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E112" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="n">
-        <v>49375</v>
+        <v>51085</v>
       </c>
       <c r="K112" t="n">
-        <v>4.889</v>
+        <v>5.058</v>
       </c>
       <c r="L112" t="n">
-        <v>49375</v>
+        <v>51085</v>
       </c>
       <c r="M112" t="n">
-        <v>4.889</v>
+        <v>5.058</v>
       </c>
       <c r="N112" t="n">
-        <v>0.102</v>
+        <v>0.096</v>
       </c>
       <c r="O112" t="n">
-        <v>9.8</v>
+        <v>10.5</v>
       </c>
       <c r="P112" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q112" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="R112" t="s">
         <v>37</v>
       </c>
       <c r="S112" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B113" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D113" t="s">
         <v>395</v>
@@ -9087,31 +9127,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H113" t="n">
-        <v>6744053</v>
+        <v>6805551</v>
       </c>
       <c r="I113" t="n">
-        <v>779.243</v>
+        <v>786.349</v>
       </c>
       <c r="J113" t="n">
-        <v>8879</v>
+        <v>29513</v>
       </c>
       <c r="K113" t="n">
-        <v>1.026</v>
+        <v>3.41</v>
       </c>
       <c r="L113" t="n">
-        <v>24746</v>
+        <v>26006</v>
       </c>
       <c r="M113" t="n">
-        <v>2.859</v>
+        <v>3.005</v>
       </c>
       <c r="N113" t="n">
-        <v>0.065</v>
+        <v>0.057</v>
       </c>
       <c r="O113" t="n">
-        <v>15.4</v>
+        <v>17.5</v>
       </c>
       <c r="P113" t="s">
         <v>396</v>
@@ -9123,78 +9163,78 @@
         <v>37</v>
       </c>
       <c r="S113" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B114" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D114" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E114" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H114" t="n">
-        <v>217045</v>
+        <v>224617</v>
       </c>
       <c r="I114" t="n">
-        <v>9.113</v>
+        <v>9.431</v>
       </c>
       <c r="J114" t="n">
-        <v>1241</v>
+        <v>3915</v>
       </c>
       <c r="K114" t="n">
-        <v>0.052</v>
+        <v>0.164</v>
       </c>
       <c r="L114" t="n">
-        <v>929</v>
+        <v>1569</v>
       </c>
       <c r="M114" t="n">
-        <v>0.039</v>
+        <v>0.066</v>
       </c>
       <c r="N114" t="n">
         <v>0.008</v>
       </c>
       <c r="O114" t="n">
-        <v>120.4</v>
+        <v>132.3</v>
       </c>
       <c r="P114" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q114" t="s">
         <v>661</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>660</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B115" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44310</v>
       </c>
       <c r="D115" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E115" t="s">
         <v>169</v>
@@ -9228,558 +9268,558 @@
         <v>28.6</v>
       </c>
       <c r="P115" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q115" t="s">
         <v>666</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>665</v>
       </c>
       <c r="R115" t="s">
         <v>37</v>
       </c>
       <c r="S115" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B116" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44325</v>
+        <v>44329</v>
       </c>
       <c r="D116"/>
       <c r="E116" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F116" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G116" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H116" t="n">
-        <v>317624</v>
+        <v>320455</v>
       </c>
       <c r="I116" t="n">
-        <v>38.366</v>
+        <v>38.708</v>
       </c>
       <c r="J116" t="n">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="K116" t="n">
-        <v>0.09</v>
+        <v>0.096</v>
       </c>
       <c r="L116" t="n">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M116" t="n">
         <v>0.1</v>
       </c>
       <c r="N116" t="n">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="O116" t="n">
-        <v>40.3</v>
+        <v>34.1</v>
       </c>
       <c r="P116" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q116" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R116" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="S116" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B117" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D117" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E117" t="s">
         <v>42</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H117" t="n">
-        <v>145268</v>
+        <v>147470</v>
       </c>
       <c r="I117" t="n">
-        <v>103.801</v>
+        <v>105.374</v>
       </c>
       <c r="J117" t="n">
-        <v>4550</v>
+        <v>5920</v>
       </c>
       <c r="K117" t="n">
-        <v>3.251</v>
+        <v>4.23</v>
       </c>
       <c r="L117" t="n">
-        <v>1785</v>
+        <v>1484</v>
       </c>
       <c r="M117" t="n">
-        <v>1.275</v>
+        <v>1.06</v>
       </c>
       <c r="N117" t="n">
-        <v>0.163</v>
+        <v>0.202</v>
       </c>
       <c r="O117" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="P117" t="s">
         <v>42</v>
       </c>
       <c r="Q117" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="R117" t="s">
         <v>31</v>
       </c>
       <c r="S117" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B118" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44327</v>
+        <v>44329</v>
       </c>
       <c r="D118" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E118" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118" t="n">
-        <v>1367473</v>
+        <v>1376013</v>
       </c>
       <c r="I118" t="n">
-        <v>115.705</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5803</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.491</v>
-      </c>
+        <v>116.428</v>
+      </c>
+      <c r="J118"/>
+      <c r="K118"/>
       <c r="L118" t="n">
-        <v>5599</v>
+        <v>5245</v>
       </c>
       <c r="M118" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="N118"/>
-      <c r="O118"/>
+        <v>0.444</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="O118" t="n">
+        <v>4.7</v>
+      </c>
       <c r="P118" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q118" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B119" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44322</v>
+        <v>44329</v>
       </c>
       <c r="D119" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E119" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H119" t="n">
-        <v>48712606</v>
+        <v>50259943</v>
       </c>
       <c r="I119" t="n">
-        <v>577.581</v>
+        <v>595.927</v>
       </c>
       <c r="J119" t="n">
-        <v>253382</v>
+        <v>201295</v>
       </c>
       <c r="K119" t="n">
-        <v>3.004</v>
+        <v>2.387</v>
       </c>
       <c r="L119" t="n">
-        <v>245128</v>
+        <v>221048</v>
       </c>
       <c r="M119" t="n">
-        <v>2.906</v>
+        <v>2.621</v>
       </c>
       <c r="N119" t="n">
-        <v>0.11</v>
+        <v>0.069</v>
       </c>
       <c r="O119" t="n">
-        <v>9.1</v>
+        <v>14.6</v>
       </c>
       <c r="P119" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Q119" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="R119" t="s">
         <v>37</v>
       </c>
       <c r="S119" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B120" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D120" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E120" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H120" t="n">
-        <v>1039271</v>
+        <v>1052657</v>
       </c>
       <c r="I120" t="n">
-        <v>22.721</v>
+        <v>23.013</v>
       </c>
       <c r="J120" t="n">
-        <v>3449</v>
+        <v>5431</v>
       </c>
       <c r="K120" t="n">
-        <v>0.075</v>
+        <v>0.119</v>
       </c>
       <c r="L120" t="n">
-        <v>2732</v>
+        <v>3343</v>
       </c>
       <c r="M120" t="n">
-        <v>0.06</v>
+        <v>0.073</v>
       </c>
       <c r="N120" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="O120" t="n">
-        <v>53.4</v>
+        <v>59.2</v>
       </c>
       <c r="P120" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Q120" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="R120" t="s">
         <v>91</v>
       </c>
       <c r="S120" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B121" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D121" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E121" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H121" t="n">
-        <v>9682286</v>
+        <v>9790291</v>
       </c>
       <c r="I121" t="n">
-        <v>221.392</v>
+        <v>223.861</v>
       </c>
       <c r="J121" t="n">
-        <v>13349</v>
+        <v>33889</v>
       </c>
       <c r="K121" t="n">
-        <v>0.305</v>
+        <v>0.775</v>
       </c>
       <c r="L121" t="n">
-        <v>26190</v>
+        <v>27919</v>
       </c>
       <c r="M121" t="n">
-        <v>0.599</v>
+        <v>0.638</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q121" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="R121" t="s">
         <v>37</v>
       </c>
       <c r="S121" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B122" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D122" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E122" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H122" t="n">
-        <v>45959175</v>
+        <v>46559437</v>
       </c>
       <c r="I122" t="n">
-        <v>4646.847</v>
+        <v>4707.538</v>
       </c>
       <c r="J122" t="n">
-        <v>142603</v>
+        <v>212212</v>
       </c>
       <c r="K122" t="n">
-        <v>14.418</v>
+        <v>21.456</v>
       </c>
       <c r="L122" t="n">
-        <v>191259</v>
+        <v>194017</v>
       </c>
       <c r="M122" t="n">
-        <v>19.338</v>
+        <v>19.617</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q122" t="s">
         <v>708</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>707</v>
       </c>
       <c r="R122" t="s">
         <v>37</v>
       </c>
       <c r="S122" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B123" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D123" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E123" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F123" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G123" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H123" t="n">
-        <v>162226572</v>
+        <v>165362038</v>
       </c>
       <c r="I123" t="n">
-        <v>2389.691</v>
+        <v>2435.878</v>
       </c>
       <c r="J123" t="n">
-        <v>1322338</v>
+        <v>1184941</v>
       </c>
       <c r="K123" t="n">
-        <v>19.479</v>
+        <v>17.455</v>
       </c>
       <c r="L123" t="n">
-        <v>1049492</v>
+        <v>999815</v>
       </c>
       <c r="M123" t="n">
-        <v>15.46</v>
+        <v>14.728</v>
       </c>
       <c r="N123" t="n">
         <v>0.002</v>
       </c>
       <c r="O123" t="n">
-        <v>498.2</v>
+        <v>434.8</v>
       </c>
       <c r="P123" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Q123" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="R123" t="s">
         <v>37</v>
       </c>
       <c r="S123" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B124" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44323</v>
+        <v>44327</v>
       </c>
       <c r="D124" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E124" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H124" t="n">
-        <v>426539890</v>
+        <v>429959899</v>
       </c>
       <c r="I124" t="n">
-        <v>1288.63</v>
+        <v>1298.962</v>
       </c>
       <c r="J124" t="n">
-        <v>723019</v>
+        <v>405957</v>
       </c>
       <c r="K124" t="n">
-        <v>2.184</v>
+        <v>1.226</v>
       </c>
       <c r="L124" t="n">
-        <v>864103</v>
+        <v>821408</v>
       </c>
       <c r="M124" t="n">
-        <v>2.611</v>
+        <v>2.482</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="O124" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="P124" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q124" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="R124" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="S124" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B125" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44325</v>
+        <v>44327</v>
       </c>
       <c r="D125" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E125" t="s">
         <v>169</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H125" t="n">
-        <v>1909479</v>
+        <v>1934871</v>
       </c>
       <c r="I125" t="n">
-        <v>549.692</v>
+        <v>557.001</v>
       </c>
       <c r="J125" t="n">
-        <v>12110</v>
+        <v>15160</v>
       </c>
       <c r="K125" t="n">
-        <v>3.486</v>
+        <v>4.364</v>
       </c>
       <c r="L125" t="n">
-        <v>12663</v>
+        <v>13146</v>
       </c>
       <c r="M125" t="n">
-        <v>3.645</v>
+        <v>3.784</v>
       </c>
       <c r="N125" t="n">
         <v>0.205</v>
@@ -9791,30 +9831,30 @@
         <v>169</v>
       </c>
       <c r="Q125" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="R125" t="s">
         <v>37</v>
       </c>
       <c r="S125" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B126" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44270</v>
       </c>
       <c r="D126" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E126" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
@@ -9833,130 +9873,130 @@
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Q126" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="R126" t="s">
         <v>91</v>
       </c>
       <c r="S126" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B127" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44322</v>
+        <v>44328</v>
       </c>
       <c r="D127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E127" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H127" t="n">
-        <v>1426687</v>
+        <v>1453013</v>
       </c>
       <c r="I127" t="n">
-        <v>77.605</v>
+        <v>79.037</v>
       </c>
       <c r="J127" t="n">
-        <v>4765</v>
+        <v>4800</v>
       </c>
       <c r="K127" t="n">
-        <v>0.259</v>
+        <v>0.261</v>
       </c>
       <c r="L127" t="n">
-        <v>4541</v>
+        <v>4442</v>
       </c>
       <c r="M127" t="n">
-        <v>0.247</v>
+        <v>0.242</v>
       </c>
       <c r="N127" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="O127" t="n">
-        <v>77</v>
+        <v>85.9</v>
       </c>
       <c r="P127" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Q127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="R127" t="s">
         <v>37</v>
       </c>
       <c r="S127" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B128" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="D128" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E128" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H128" t="n">
-        <v>510047</v>
+        <v>516100</v>
       </c>
       <c r="I128" t="n">
-        <v>34.317</v>
+        <v>34.724</v>
       </c>
       <c r="J128" t="n">
-        <v>1300</v>
+        <v>1839</v>
       </c>
       <c r="K128" t="n">
-        <v>0.087</v>
+        <v>0.124</v>
       </c>
       <c r="L128" t="n">
-        <v>2009</v>
+        <v>1983</v>
       </c>
       <c r="M128" t="n">
-        <v>0.135</v>
+        <v>0.133</v>
       </c>
       <c r="N128" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="O128" t="n">
-        <v>101.9</v>
+        <v>127.4</v>
       </c>
       <c r="P128" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Q128" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="R128" t="s">
         <v>37</v>
       </c>
       <c r="S128" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2956-testime-1020-te-sheruar-50-raste-te-reja-dhe-4-humbje-jete-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2964-testime-983-te-sheruar-49-raste-te-reja-dhe-1-humbje-jete-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3887</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3902</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-13-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-16-may-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4159342174127367/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4168817966513121/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5541-reporte-epidemiologico-1-063-casos-positivos-de-covid-19-3-657-pruebas-negativas-y-998-818-dosis-de-la-vacuna-contra-el-virus-fueron-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5566-covid-19-1-178-pacientes-recuperados-5-169-pruebas-negativas-y-1-103-071-dosis-de-la-vacuna-contra-el-virus-fueron-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-12-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-13-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1900322076800144</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1903472843151734</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-13052021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-15052021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -1080,7 +1080,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1392104591995641861</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1393641364454354946</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1392887436808687622</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1393993420063092739</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1443,7 +1443,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-13052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-16052021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/337933817925168/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.104589584592927/339919294393287/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1564,7 +1564,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/13.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/16.5.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1627,7 +1627,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.745797149426624/745797046093301</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.747303019276037/747302915942714</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1C-Ra9npENspHDfz3jJTt5AL7RPx08R48</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1W94_drQGsIRKTlEYxOYRcwEym-1wDGfu</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3799508976841619</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3811524705640046</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1840,7 +1840,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1392616394035023872</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1394092651050328074</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1392762790746542080</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1393849954305671175</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_13_mai_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA%CC%86_16_MAI.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1981,7 +1981,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17722</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17739</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">South Sudan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%2013th%20Update.pdf</t>
+    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%2014th%20Update.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">https://moh.gov.ss/daily_updates.php</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-186</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-16-mayo</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1392575941071839235</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1393639702247378948</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2960,7 +2960,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2970,31 +2970,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H2" t="n">
-        <v>643271</v>
+        <v>651538</v>
       </c>
       <c r="I2" t="n">
-        <v>223.529</v>
+        <v>226.401</v>
       </c>
       <c r="J2" t="n">
-        <v>2956</v>
+        <v>2964</v>
       </c>
       <c r="K2" t="n">
-        <v>1.027</v>
+        <v>1.03</v>
       </c>
       <c r="L2" t="n">
-        <v>2752</v>
+        <v>2734</v>
       </c>
       <c r="M2" t="n">
-        <v>0.956</v>
+        <v>0.95</v>
       </c>
       <c r="N2" t="n">
-        <v>0.025</v>
+        <v>0.019</v>
       </c>
       <c r="O2" t="n">
-        <v>40.5</v>
+        <v>52.9</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3070,7 +3070,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44324</v>
+        <v>44327</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3080,28 +3080,28 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H4" t="n">
-        <v>9061310</v>
+        <v>9140831</v>
       </c>
       <c r="I4" t="n">
-        <v>200.49</v>
+        <v>202.25</v>
       </c>
       <c r="J4" t="n">
-        <v>26666</v>
+        <v>33479</v>
       </c>
       <c r="K4" t="n">
-        <v>0.59</v>
+        <v>0.741</v>
       </c>
       <c r="L4" t="n">
-        <v>31378</v>
+        <v>30410</v>
       </c>
       <c r="M4" t="n">
-        <v>0.694</v>
+        <v>0.673</v>
       </c>
       <c r="N4" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="O4" t="n">
         <v>3.4</v>
@@ -3127,7 +3127,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3137,31 +3137,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H5" t="n">
-        <v>1026974</v>
+        <v>1036673</v>
       </c>
       <c r="I5" t="n">
-        <v>346.572</v>
+        <v>349.845</v>
       </c>
       <c r="J5" t="n">
-        <v>3723</v>
+        <v>3160</v>
       </c>
       <c r="K5" t="n">
-        <v>1.256</v>
+        <v>1.066</v>
       </c>
       <c r="L5" t="n">
-        <v>3157</v>
+        <v>3112</v>
       </c>
       <c r="M5" t="n">
-        <v>1.065</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.086</v>
+        <v>0.073</v>
       </c>
       <c r="O5" t="n">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3184,7 +3184,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3194,31 +3194,27 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H6" t="n">
-        <v>17411746</v>
+        <v>17542376</v>
       </c>
       <c r="I6" t="n">
-        <v>682.817</v>
-      </c>
-      <c r="J6" t="n">
-        <v>55232</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.166</v>
-      </c>
+        <v>687.94</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6" t="n">
-        <v>47275</v>
+        <v>45895</v>
       </c>
       <c r="M6" t="n">
-        <v>1.854</v>
+        <v>1.8</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5170.6</v>
+        <v>6835.7</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3298,7 +3294,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3308,31 +3304,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
-        <v>3360900</v>
+        <v>3384053</v>
       </c>
       <c r="I8" t="n">
-        <v>331.477</v>
+        <v>333.76</v>
       </c>
       <c r="J8" t="n">
-        <v>7733</v>
+        <v>8374</v>
       </c>
       <c r="K8" t="n">
-        <v>0.763</v>
+        <v>0.826</v>
       </c>
       <c r="L8" t="n">
-        <v>8617</v>
+        <v>7581</v>
       </c>
       <c r="M8" t="n">
-        <v>0.85</v>
+        <v>0.748</v>
       </c>
       <c r="N8" t="n">
-        <v>0.066</v>
+        <v>0.059</v>
       </c>
       <c r="O8" t="n">
-        <v>15.1</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s">
         <v>59</v>
@@ -3355,7 +3351,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3365,25 +3361,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H9" t="n">
-        <v>4307946</v>
+        <v>4353926</v>
       </c>
       <c r="I9" t="n">
-        <v>2531.728</v>
+        <v>2558.75</v>
       </c>
       <c r="J9" t="n">
-        <v>15745</v>
+        <v>17767</v>
       </c>
       <c r="K9" t="n">
-        <v>9.253</v>
+        <v>10.441</v>
       </c>
       <c r="L9" t="n">
-        <v>16884</v>
+        <v>16494</v>
       </c>
       <c r="M9" t="n">
-        <v>9.923</v>
+        <v>9.693</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3575,7 +3571,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3585,31 +3581,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H13" t="n">
-        <v>736272</v>
+        <v>745825</v>
       </c>
       <c r="I13" t="n">
-        <v>954.2</v>
+        <v>966.58</v>
       </c>
       <c r="J13" t="n">
-        <v>2207</v>
+        <v>3604</v>
       </c>
       <c r="K13" t="n">
-        <v>2.86</v>
+        <v>4.671</v>
       </c>
       <c r="L13" t="n">
-        <v>2322</v>
+        <v>2649</v>
       </c>
       <c r="M13" t="n">
-        <v>3.009</v>
+        <v>3.433</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O13" t="n">
-        <v>159.4</v>
+        <v>285.3</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -3632,7 +3628,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44325</v>
+        <v>44331</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3642,31 +3638,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H14" t="n">
-        <v>1245408</v>
+        <v>1305414</v>
       </c>
       <c r="I14" t="n">
-        <v>106.691</v>
+        <v>111.832</v>
       </c>
       <c r="J14" t="n">
-        <v>4720</v>
+        <v>6952</v>
       </c>
       <c r="K14" t="n">
-        <v>0.404</v>
+        <v>0.596</v>
       </c>
       <c r="L14" t="n">
-        <v>8804</v>
+        <v>9247</v>
       </c>
       <c r="M14" t="n">
-        <v>0.754</v>
+        <v>0.792</v>
       </c>
       <c r="N14" t="n">
-        <v>0.179</v>
+        <v>0.188</v>
       </c>
       <c r="O14" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="P14" t="s">
         <v>42</v>
@@ -3795,7 +3791,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3805,25 +3801,25 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H17" t="n">
-        <v>2642503</v>
+        <v>2668212</v>
       </c>
       <c r="I17" t="n">
-        <v>380.301</v>
+        <v>384.001</v>
       </c>
       <c r="J17" t="n">
-        <v>11248</v>
+        <v>4309</v>
       </c>
       <c r="K17" t="n">
-        <v>1.619</v>
+        <v>0.62</v>
       </c>
       <c r="L17" t="n">
-        <v>11467</v>
+        <v>11090</v>
       </c>
       <c r="M17" t="n">
-        <v>1.65</v>
+        <v>1.596</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -3962,7 +3958,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -3972,15 +3968,15 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>1876</v>
+        <v>2220</v>
       </c>
       <c r="K20" t="n">
-        <v>3.374</v>
+        <v>3.993</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -4219,7 +4215,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -4229,31 +4225,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H25" t="n">
-        <v>614959</v>
+        <v>621411</v>
       </c>
       <c r="I25" t="n">
-        <v>23.313</v>
+        <v>23.558</v>
       </c>
       <c r="J25" t="n">
-        <v>1805</v>
+        <v>1670</v>
       </c>
       <c r="K25" t="n">
-        <v>0.068</v>
+        <v>0.063</v>
       </c>
       <c r="L25" t="n">
-        <v>1705</v>
+        <v>1470</v>
       </c>
       <c r="M25" t="n">
-        <v>0.065</v>
+        <v>0.056</v>
       </c>
       <c r="N25" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="O25" t="n">
-        <v>41.9</v>
+        <v>48.1</v>
       </c>
       <c r="P25" t="s">
         <v>157</v>
@@ -4276,7 +4272,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4286,31 +4282,31 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H26" t="n">
-        <v>1906407</v>
+        <v>1927262</v>
       </c>
       <c r="I26" t="n">
-        <v>464.381</v>
+        <v>469.461</v>
       </c>
       <c r="J26" t="n">
-        <v>7501</v>
+        <v>6946</v>
       </c>
       <c r="K26" t="n">
-        <v>1.827</v>
+        <v>1.692</v>
       </c>
       <c r="L26" t="n">
-        <v>7255</v>
+        <v>6987</v>
       </c>
       <c r="M26" t="n">
-        <v>1.767</v>
+        <v>1.702</v>
       </c>
       <c r="N26" t="n">
-        <v>0.14</v>
+        <v>0.121</v>
       </c>
       <c r="O26" t="n">
-        <v>7.1</v>
+        <v>8.3</v>
       </c>
       <c r="P26" t="s">
         <v>163</v>
@@ -4669,7 +4665,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4681,28 +4677,28 @@
         <v>203</v>
       </c>
       <c r="G33" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H33" t="n">
-        <v>1300258</v>
+        <v>1312352</v>
       </c>
       <c r="I33" t="n">
-        <v>73.698</v>
+        <v>74.383</v>
       </c>
       <c r="J33" t="n">
-        <v>3901</v>
+        <v>8233</v>
       </c>
       <c r="K33" t="n">
-        <v>0.221</v>
+        <v>0.467</v>
       </c>
       <c r="L33" t="n">
-        <v>4641</v>
+        <v>4679</v>
       </c>
       <c r="M33" t="n">
-        <v>0.263</v>
+        <v>0.265</v>
       </c>
       <c r="N33" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O33" t="n">
         <v>3.1</v>
@@ -5229,7 +5225,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5239,31 +5235,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H43" t="n">
-        <v>1116513</v>
+        <v>1118523</v>
       </c>
       <c r="I43" t="n">
-        <v>35.932</v>
+        <v>35.997</v>
       </c>
       <c r="J43" t="n">
-        <v>2960</v>
+        <v>2010</v>
       </c>
       <c r="K43" t="n">
-        <v>0.095</v>
+        <v>0.065</v>
       </c>
       <c r="L43" t="n">
-        <v>2776</v>
+        <v>2695</v>
       </c>
       <c r="M43" t="n">
-        <v>0.089</v>
+        <v>0.087</v>
       </c>
       <c r="N43" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="O43" t="n">
-        <v>59.2</v>
+        <v>69.6</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5485,8 +5481,12 @@
       <c r="M47" t="n">
         <v>1.673</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
+      <c r="N47" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="O47" t="n">
+        <v>15.7</v>
+      </c>
       <c r="P47" t="s">
         <v>286</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>302</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D50" t="s">
         <v>303</v>
@@ -5630,31 +5630,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H50" t="n">
-        <v>10343074</v>
+        <v>10409178</v>
       </c>
       <c r="I50" t="n">
-        <v>37.814</v>
+        <v>38.056</v>
       </c>
       <c r="J50" t="n">
-        <v>21713</v>
+        <v>27640</v>
       </c>
       <c r="K50" t="n">
-        <v>0.079</v>
+        <v>0.101</v>
       </c>
       <c r="L50" t="n">
-        <v>36999</v>
+        <v>29073</v>
       </c>
       <c r="M50" t="n">
-        <v>0.135</v>
+        <v>0.106</v>
       </c>
       <c r="N50" t="n">
-        <v>0.133</v>
+        <v>0.128</v>
       </c>
       <c r="O50" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="P50" t="s">
         <v>304</v>
@@ -5730,7 +5730,7 @@
         <v>314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="D52" t="s">
         <v>315</v>
@@ -5740,31 +5740,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H52" t="n">
-        <v>9745496</v>
+        <v>9855685</v>
       </c>
       <c r="I52" t="n">
-        <v>242.29</v>
+        <v>245.029</v>
       </c>
       <c r="J52" t="n">
-        <v>37969</v>
+        <v>15036</v>
       </c>
       <c r="K52" t="n">
-        <v>0.944</v>
+        <v>0.374</v>
       </c>
       <c r="L52" t="n">
-        <v>37282</v>
+        <v>30907</v>
       </c>
       <c r="M52" t="n">
-        <v>0.927</v>
+        <v>0.768</v>
       </c>
       <c r="N52" t="n">
-        <v>0.141</v>
+        <v>0.131</v>
       </c>
       <c r="O52" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="P52" t="s">
         <v>317</v>
@@ -6296,7 +6296,7 @@
         <v>371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D62" t="s">
         <v>372</v>
@@ -6306,31 +6306,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H62" t="n">
-        <v>2438929</v>
+        <v>2460103</v>
       </c>
       <c r="I62" t="n">
-        <v>571.102</v>
+        <v>576.061</v>
       </c>
       <c r="J62" t="n">
-        <v>9040</v>
+        <v>6996</v>
       </c>
       <c r="K62" t="n">
-        <v>2.117</v>
+        <v>1.638</v>
       </c>
       <c r="L62" t="n">
-        <v>8535</v>
+        <v>8052</v>
       </c>
       <c r="M62" t="n">
-        <v>1.999</v>
+        <v>1.885</v>
       </c>
       <c r="N62" t="n">
-        <v>0.125</v>
+        <v>0.116</v>
       </c>
       <c r="O62" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6412,7 +6412,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6422,22 +6422,22 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H64" t="n">
-        <v>4163257</v>
+        <v>4183866</v>
       </c>
       <c r="I64" t="n">
-        <v>609.962</v>
-      </c>
-      <c r="J64" t="n">
-        <v>11872</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="L64"/>
-      <c r="M64"/>
+        <v>612.981</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64" t="n">
+        <v>10779</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.579</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64" t="s">
@@ -6461,7 +6461,7 @@
         <v>388</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -6471,15 +6471,15 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>1188</v>
+        <v>1863</v>
       </c>
       <c r="K65" t="n">
-        <v>0.173</v>
+        <v>0.271</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -6787,7 +6787,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6799,31 +6799,31 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H71" t="n">
-        <v>10341089</v>
+        <v>10503288</v>
       </c>
       <c r="I71" t="n">
-        <v>319.505</v>
+        <v>324.516</v>
       </c>
       <c r="J71" t="n">
-        <v>83974</v>
+        <v>58279</v>
       </c>
       <c r="K71" t="n">
-        <v>2.595</v>
+        <v>1.801</v>
       </c>
       <c r="L71" t="n">
-        <v>74207</v>
+        <v>63969</v>
       </c>
       <c r="M71" t="n">
-        <v>2.293</v>
+        <v>1.976</v>
       </c>
       <c r="N71" t="n">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="O71" t="n">
-        <v>17.2</v>
+        <v>15.2</v>
       </c>
       <c r="P71" t="s">
         <v>42</v>
@@ -6903,7 +6903,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -6913,31 +6913,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H73" t="n">
-        <v>891075</v>
+        <v>897257</v>
       </c>
       <c r="I73" t="n">
-        <v>2018.112</v>
+        <v>2032.113</v>
       </c>
       <c r="J73" t="n">
-        <v>1996</v>
+        <v>2454</v>
       </c>
       <c r="K73" t="n">
-        <v>4.521</v>
+        <v>5.558</v>
       </c>
       <c r="L73" t="n">
-        <v>1862</v>
+        <v>1925</v>
       </c>
       <c r="M73" t="n">
-        <v>4.217</v>
+        <v>4.36</v>
       </c>
       <c r="N73" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="O73" t="n">
-        <v>245.9</v>
+        <v>408.4</v>
       </c>
       <c r="P73" t="s">
         <v>438</v>
@@ -7123,7 +7123,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7133,31 +7133,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H77" t="n">
-        <v>5852501</v>
+        <v>5865945</v>
       </c>
       <c r="I77" t="n">
-        <v>158.559</v>
+        <v>158.923</v>
       </c>
       <c r="J77" t="n">
-        <v>9139</v>
+        <v>6343</v>
       </c>
       <c r="K77" t="n">
-        <v>0.248</v>
+        <v>0.172</v>
       </c>
       <c r="L77" t="n">
-        <v>7785</v>
+        <v>6099</v>
       </c>
       <c r="M77" t="n">
-        <v>0.211</v>
+        <v>0.165</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="O77" t="n">
-        <v>32.9</v>
+        <v>39.5</v>
       </c>
       <c r="P77" t="s">
         <v>461</v>
@@ -7286,7 +7286,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7296,31 +7296,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H80" t="n">
-        <v>406093</v>
+        <v>409887</v>
       </c>
       <c r="I80" t="n">
-        <v>159.821</v>
+        <v>161.315</v>
       </c>
       <c r="J80" t="n">
-        <v>1561</v>
+        <v>845</v>
       </c>
       <c r="K80" t="n">
-        <v>0.614</v>
+        <v>0.333</v>
       </c>
       <c r="L80" t="n">
-        <v>1441</v>
+        <v>1313</v>
       </c>
       <c r="M80" t="n">
-        <v>0.567</v>
+        <v>0.517</v>
       </c>
       <c r="N80" t="n">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="O80" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="P80" t="s">
         <v>480</v>
@@ -7343,7 +7343,7 @@
         <v>484</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D81" t="s">
         <v>485</v>
@@ -7353,31 +7353,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H81" t="n">
-        <v>2712562</v>
+        <v>2770980</v>
       </c>
       <c r="I81" t="n">
-        <v>93.097</v>
+        <v>95.102</v>
       </c>
       <c r="J81" t="n">
-        <v>19474</v>
+        <v>19499</v>
       </c>
       <c r="K81" t="n">
-        <v>0.668</v>
+        <v>0.669</v>
       </c>
       <c r="L81" t="n">
-        <v>19163</v>
+        <v>19497</v>
       </c>
       <c r="M81" t="n">
-        <v>0.658</v>
+        <v>0.669</v>
       </c>
       <c r="N81" t="n">
-        <v>0.467</v>
+        <v>0.442</v>
       </c>
       <c r="O81" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P81" t="s">
         <v>486</v>
@@ -7453,7 +7453,7 @@
         <v>497</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="D83" t="s">
         <v>498</v>
@@ -7463,25 +7463,25 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H83" t="n">
-        <v>2073522</v>
+        <v>2082570</v>
       </c>
       <c r="I83" t="n">
-        <v>429.992</v>
+        <v>431.868</v>
       </c>
       <c r="J83" t="n">
-        <v>3710</v>
+        <v>2217</v>
       </c>
       <c r="K83" t="n">
-        <v>0.769</v>
+        <v>0.46</v>
       </c>
       <c r="L83" t="n">
-        <v>3800</v>
+        <v>3655</v>
       </c>
       <c r="M83" t="n">
-        <v>0.788</v>
+        <v>0.758</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
@@ -7718,7 +7718,7 @@
         <v>523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="D88" t="s">
         <v>524</v>
@@ -7728,25 +7728,25 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H88" t="n">
-        <v>12380676</v>
+        <v>12480767</v>
       </c>
       <c r="I88" t="n">
-        <v>56.048</v>
+        <v>56.502</v>
       </c>
       <c r="J88" t="n">
-        <v>30700</v>
+        <v>36725</v>
       </c>
       <c r="K88" t="n">
-        <v>0.139</v>
+        <v>0.166</v>
       </c>
       <c r="L88" t="n">
-        <v>39835</v>
+        <v>36049</v>
       </c>
       <c r="M88" t="n">
-        <v>0.18</v>
+        <v>0.163</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
@@ -7771,7 +7771,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -7779,28 +7779,20 @@
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="n">
-        <v>2806</v>
+        <v>2999</v>
       </c>
       <c r="K89" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3035</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="O89" t="n">
-        <v>6</v>
-      </c>
+        <v>0.588</v>
+      </c>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
       <c r="P89" t="s">
         <v>530</v>
       </c>
@@ -7879,7 +7871,7 @@
         <v>540</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D91" t="s">
         <v>541</v>
@@ -7889,28 +7881,28 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H91" t="n">
-        <v>1163633</v>
+        <v>1187842</v>
       </c>
       <c r="I91" t="n">
-        <v>163.144</v>
+        <v>166.539</v>
       </c>
       <c r="J91" t="n">
-        <v>6283</v>
+        <v>6091</v>
       </c>
       <c r="K91" t="n">
-        <v>0.881</v>
+        <v>0.854</v>
       </c>
       <c r="L91" t="n">
-        <v>6119</v>
+        <v>6089</v>
       </c>
       <c r="M91" t="n">
-        <v>0.858</v>
+        <v>0.854</v>
       </c>
       <c r="N91" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O91" t="n">
         <v>2.7</v>
@@ -8050,7 +8042,7 @@
         <v>556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D94" t="s">
         <v>557</v>
@@ -8060,31 +8052,31 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H94" t="n">
-        <v>14666237</v>
+        <v>14830984</v>
       </c>
       <c r="I94" t="n">
-        <v>387.518</v>
+        <v>391.871</v>
       </c>
       <c r="J94" t="n">
-        <v>56708</v>
+        <v>48203</v>
       </c>
       <c r="K94" t="n">
-        <v>1.498</v>
+        <v>1.274</v>
       </c>
       <c r="L94" t="n">
-        <v>57075</v>
+        <v>55047</v>
       </c>
       <c r="M94" t="n">
-        <v>1.508</v>
+        <v>1.454</v>
       </c>
       <c r="N94" t="n">
-        <v>0.069</v>
+        <v>0.055</v>
       </c>
       <c r="O94" t="n">
-        <v>14.6</v>
+        <v>18.3</v>
       </c>
       <c r="P94" t="s">
         <v>558</v>
@@ -8107,7 +8099,7 @@
         <v>561</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D95" t="s">
         <v>557</v>
@@ -8117,31 +8109,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H95" t="n">
-        <v>15017415</v>
+        <v>15184082</v>
       </c>
       <c r="I95" t="n">
-        <v>396.797</v>
+        <v>401.201</v>
       </c>
       <c r="J95" t="n">
-        <v>57175</v>
+        <v>48958</v>
       </c>
       <c r="K95" t="n">
-        <v>1.511</v>
+        <v>1.294</v>
       </c>
       <c r="L95" t="n">
-        <v>57764</v>
+        <v>55669</v>
       </c>
       <c r="M95" t="n">
-        <v>1.526</v>
+        <v>1.471</v>
       </c>
       <c r="N95" t="n">
-        <v>0.068</v>
+        <v>0.054</v>
       </c>
       <c r="O95" t="n">
-        <v>14.8</v>
+        <v>18.5</v>
       </c>
       <c r="P95" t="s">
         <v>558</v>
@@ -8278,7 +8270,7 @@
         <v>574</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D98" t="s">
         <v>575</v>
@@ -8288,31 +8280,31 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H98" t="n">
-        <v>7587984</v>
+        <v>7644702</v>
       </c>
       <c r="I98" t="n">
-        <v>394.433</v>
+        <v>397.382</v>
       </c>
       <c r="J98" t="n">
-        <v>22532</v>
+        <v>12957</v>
       </c>
       <c r="K98" t="n">
-        <v>1.171</v>
+        <v>0.674</v>
       </c>
       <c r="L98" t="n">
-        <v>20227</v>
+        <v>18939</v>
       </c>
       <c r="M98" t="n">
-        <v>1.051</v>
+        <v>0.984</v>
       </c>
       <c r="N98" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
       <c r="O98" t="n">
-        <v>19.5</v>
+        <v>22.9</v>
       </c>
       <c r="P98" t="s">
         <v>577</v>
@@ -8335,7 +8327,7 @@
         <v>581</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="D99" t="s">
         <v>582</v>
@@ -8345,31 +8337,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H99" t="n">
-        <v>132774924</v>
+        <v>133510681</v>
       </c>
       <c r="I99" t="n">
-        <v>909.826</v>
+        <v>914.867</v>
       </c>
       <c r="J99" t="n">
-        <v>369841</v>
+        <v>374100</v>
       </c>
       <c r="K99" t="n">
-        <v>2.534</v>
+        <v>2.563</v>
       </c>
       <c r="L99" t="n">
-        <v>268042</v>
+        <v>291138</v>
       </c>
       <c r="M99" t="n">
-        <v>1.837</v>
+        <v>1.995</v>
       </c>
       <c r="N99" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="O99" t="n">
-        <v>32.7</v>
+        <v>34.6</v>
       </c>
       <c r="P99" t="s">
         <v>583</v>
@@ -8392,7 +8384,7 @@
         <v>587</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="D100" t="s">
         <v>588</v>
@@ -8402,27 +8394,31 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H100" t="n">
-        <v>1354868</v>
+        <v>1367795</v>
       </c>
       <c r="I100" t="n">
-        <v>104.605</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100"/>
+        <v>105.603</v>
+      </c>
+      <c r="J100" t="n">
+        <v>9229</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.713</v>
+      </c>
       <c r="L100" t="n">
-        <v>3587</v>
+        <v>4385</v>
       </c>
       <c r="M100" t="n">
-        <v>0.277</v>
+        <v>0.339</v>
       </c>
       <c r="N100" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="O100" t="n">
-        <v>56</v>
+        <v>59.8</v>
       </c>
       <c r="P100" t="s">
         <v>589</v>
@@ -8844,7 +8840,7 @@
         <v>628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="D108" t="s">
         <v>629</v>
@@ -8854,25 +8850,25 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H108" t="n">
-        <v>9186083</v>
+        <v>9251496</v>
       </c>
       <c r="I108" t="n">
-        <v>179.174</v>
+        <v>180.449</v>
       </c>
       <c r="J108" t="n">
-        <v>32447</v>
+        <v>16545</v>
       </c>
       <c r="K108" t="n">
-        <v>0.633</v>
+        <v>0.323</v>
       </c>
       <c r="L108" t="n">
-        <v>30518</v>
+        <v>30405</v>
       </c>
       <c r="M108" t="n">
-        <v>0.595</v>
+        <v>0.593</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -8897,7 +8893,7 @@
         <v>633</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="D109" t="s">
         <v>634</v>
@@ -8907,31 +8903,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H109" t="n">
-        <v>158678</v>
+        <v>159088</v>
       </c>
       <c r="I109" t="n">
-        <v>14.176</v>
+        <v>14.212</v>
       </c>
       <c r="J109" t="n">
-        <v>508</v>
+        <v>410</v>
       </c>
       <c r="K109" t="n">
-        <v>0.045</v>
+        <v>0.037</v>
       </c>
       <c r="L109" t="n">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="M109" t="n">
-        <v>0.051</v>
+        <v>0.046</v>
       </c>
       <c r="N109" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O109" t="n">
-        <v>188.7</v>
+        <v>258.5</v>
       </c>
       <c r="P109" t="s">
         <v>42</v>
@@ -9288,7 +9284,7 @@
         <v>670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D116"/>
       <c r="E116" t="s">
@@ -9298,31 +9294,31 @@
         <v>672</v>
       </c>
       <c r="G116" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H116" t="n">
-        <v>320455</v>
+        <v>322824</v>
       </c>
       <c r="I116" t="n">
-        <v>38.708</v>
+        <v>38.994</v>
       </c>
       <c r="J116" t="n">
-        <v>794</v>
+        <v>739</v>
       </c>
       <c r="K116" t="n">
-        <v>0.096</v>
+        <v>0.089</v>
       </c>
       <c r="L116" t="n">
-        <v>828</v>
+        <v>743</v>
       </c>
       <c r="M116" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N116" t="n">
-        <v>0.029</v>
+        <v>0.023</v>
       </c>
       <c r="O116" t="n">
-        <v>34.1</v>
+        <v>43</v>
       </c>
       <c r="P116" t="s">
         <v>671</v>
@@ -9402,7 +9398,7 @@
         <v>682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D118" t="s">
         <v>683</v>
@@ -9412,28 +9408,28 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H118" t="n">
-        <v>1376013</v>
+        <v>1387361</v>
       </c>
       <c r="I118" t="n">
-        <v>116.428</v>
-      </c>
-      <c r="J118"/>
-      <c r="K118"/>
+        <v>117.388</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3816</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.323</v>
+      </c>
       <c r="L118" t="n">
-        <v>5245</v>
+        <v>3670</v>
       </c>
       <c r="M118" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="O118" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0.311</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
       <c r="P118" t="s">
         <v>685</v>
       </c>
@@ -9569,7 +9565,7 @@
         <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="D121" t="s">
         <v>702</v>
@@ -9579,25 +9575,25 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H121" t="n">
-        <v>9790291</v>
+        <v>9851754</v>
       </c>
       <c r="I121" t="n">
-        <v>223.861</v>
+        <v>225.267</v>
       </c>
       <c r="J121" t="n">
-        <v>33889</v>
+        <v>9966</v>
       </c>
       <c r="K121" t="n">
-        <v>0.775</v>
+        <v>0.228</v>
       </c>
       <c r="L121" t="n">
-        <v>27919</v>
+        <v>26117</v>
       </c>
       <c r="M121" t="n">
-        <v>0.638</v>
+        <v>0.597</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
@@ -9791,7 +9787,7 @@
         <v>726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44327</v>
+        <v>44332</v>
       </c>
       <c r="D125" t="s">
         <v>727</v>
@@ -9801,31 +9797,27 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H125" t="n">
-        <v>1934871</v>
+        <v>2005217</v>
       </c>
       <c r="I125" t="n">
-        <v>557.001</v>
-      </c>
-      <c r="J125" t="n">
-        <v>15160</v>
-      </c>
-      <c r="K125" t="n">
-        <v>4.364</v>
-      </c>
+        <v>577.252</v>
+      </c>
+      <c r="J125"/>
+      <c r="K125"/>
       <c r="L125" t="n">
-        <v>13146</v>
+        <v>13677</v>
       </c>
       <c r="M125" t="n">
-        <v>3.784</v>
+        <v>3.937</v>
       </c>
       <c r="N125" t="n">
-        <v>0.205</v>
+        <v>0.207</v>
       </c>
       <c r="O125" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="P125" t="s">
         <v>169</v>
@@ -9950,7 +9942,7 @@
         <v>743</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="D128" t="s">
         <v>744</v>
@@ -9960,31 +9952,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H128" t="n">
-        <v>516100</v>
+        <v>522314</v>
       </c>
       <c r="I128" t="n">
-        <v>34.724</v>
+        <v>35.142</v>
       </c>
       <c r="J128" t="n">
-        <v>1839</v>
+        <v>2022</v>
       </c>
       <c r="K128" t="n">
-        <v>0.124</v>
+        <v>0.136</v>
       </c>
       <c r="L128" t="n">
-        <v>1983</v>
+        <v>1938</v>
       </c>
       <c r="M128" t="n">
-        <v>0.133</v>
+        <v>0.13</v>
       </c>
       <c r="N128" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="O128" t="n">
-        <v>127.4</v>
+        <v>96.9</v>
       </c>
       <c r="P128" t="s">
         <v>745</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -2500,7 +2500,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ncov.moh.gov.vn/web/guest/-/6847912-112</t>
+    <t xml:space="preserve">https://ncov.moh.gov.vn/vi/web/guest/-/6847426-3507</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam General Department of Preventive Medicine</t>
@@ -9840,7 +9840,7 @@
         <v>731</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44270</v>
+        <v>44331</v>
       </c>
       <c r="D126" t="s">
         <v>732</v>
@@ -9850,20 +9850,28 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H126" t="n">
-        <v>2482302</v>
+        <v>3000000</v>
       </c>
       <c r="I126" t="n">
-        <v>25.502</v>
+        <v>30.82</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
+      <c r="L126" t="n">
+        <v>23529</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O126" t="n">
+        <v>190</v>
+      </c>
       <c r="P126" t="s">
         <v>733</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-837-new-covid-19-cases-694-recoveries-in-past-24-hours_i_0000129540.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1191-new-cases-743-recoveries_i_0000129680.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -667,7 +667,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.419.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.423.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/363800</t>
+    <t xml:space="preserve">http://irangov.ir/detail/363991</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210512-dafqq7yl/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210517-l2pmmzm9/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/14-x2TqJTHNBsVZueIRir1BKzpt58YD5-?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1HJwtFk2kgtA2c8jADxiOIkRuGycJZ9HJ?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1981,7 +1981,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17739</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17744</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3083,25 +3083,25 @@
         <v>462</v>
       </c>
       <c r="H4" t="n">
-        <v>9140831</v>
+        <v>9165230</v>
       </c>
       <c r="I4" t="n">
-        <v>202.25</v>
+        <v>202.79</v>
       </c>
       <c r="J4" t="n">
-        <v>33479</v>
+        <v>35687</v>
       </c>
       <c r="K4" t="n">
-        <v>0.741</v>
+        <v>0.79</v>
       </c>
       <c r="L4" t="n">
-        <v>30410</v>
+        <v>31608</v>
       </c>
       <c r="M4" t="n">
-        <v>0.673</v>
+        <v>0.699</v>
       </c>
       <c r="N4" t="n">
-        <v>0.294</v>
+        <v>0.291</v>
       </c>
       <c r="O4" t="n">
         <v>3.4</v>
@@ -3237,7 +3237,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3247,31 +3247,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H7" t="n">
-        <v>35383018</v>
+        <v>36393075</v>
       </c>
       <c r="I7" t="n">
-        <v>3928.653</v>
+        <v>4040.802</v>
       </c>
       <c r="J7" t="n">
-        <v>379788</v>
+        <v>175480</v>
       </c>
       <c r="K7" t="n">
-        <v>42.169</v>
+        <v>19.484</v>
       </c>
       <c r="L7" t="n">
-        <v>305727</v>
+        <v>269843</v>
       </c>
       <c r="M7" t="n">
-        <v>33.946</v>
+        <v>29.961</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O7" t="n">
-        <v>277.2</v>
+        <v>313.7</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3404,7 +3404,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3414,31 +3414,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H10" t="n">
-        <v>5680290</v>
+        <v>5697313</v>
       </c>
       <c r="I10" t="n">
-        <v>34.491</v>
+        <v>34.594</v>
       </c>
       <c r="J10" t="n">
-        <v>13471</v>
+        <v>5430</v>
       </c>
       <c r="K10" t="n">
-        <v>0.082</v>
+        <v>0.033</v>
       </c>
       <c r="L10" t="n">
-        <v>15490</v>
+        <v>10975</v>
       </c>
       <c r="M10" t="n">
-        <v>0.094</v>
+        <v>0.067</v>
       </c>
       <c r="N10" t="n">
-        <v>0.088</v>
+        <v>0.087</v>
       </c>
       <c r="O10" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3461,7 +3461,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3471,28 +3471,24 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" t="n">
-        <v>6036143</v>
+        <v>6105215</v>
       </c>
       <c r="I11" t="n">
-        <v>638.791</v>
+        <v>646.101</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>13394</v>
+        <v>15443</v>
       </c>
       <c r="M11" t="n">
-        <v>1.417</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="O11" t="n">
-        <v>12.9</v>
-      </c>
+        <v>1.634</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3514,7 +3510,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3524,31 +3520,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H12" t="n">
-        <v>13181004</v>
+        <v>13286680</v>
       </c>
       <c r="I12" t="n">
-        <v>1137.312</v>
+        <v>1146.43</v>
       </c>
       <c r="J12" t="n">
-        <v>55306</v>
+        <v>35187</v>
       </c>
       <c r="K12" t="n">
-        <v>4.772</v>
+        <v>3.036</v>
       </c>
       <c r="L12" t="n">
-        <v>51152</v>
+        <v>41963</v>
       </c>
       <c r="M12" t="n">
-        <v>4.414</v>
+        <v>3.621</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="O12" t="n">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3685,7 +3681,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3695,32 +3691,24 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H15" t="n">
-        <v>936259</v>
+        <v>945559</v>
       </c>
       <c r="I15" t="n">
-        <v>285.374</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1799</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.548</v>
-      </c>
+        <v>288.209</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
       <c r="L15" t="n">
-        <v>2322</v>
+        <v>2349</v>
       </c>
       <c r="M15" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="O15" t="n">
-        <v>9.9</v>
-      </c>
+        <v>0.716</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
       <c r="P15" t="s">
         <v>101</v>
       </c>
@@ -3901,7 +3889,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -3911,31 +3899,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H19" t="n">
-        <v>33130218</v>
+        <v>33482165</v>
       </c>
       <c r="I19" t="n">
-        <v>877.804</v>
+        <v>887.129</v>
       </c>
       <c r="J19" t="n">
-        <v>129090</v>
+        <v>98467</v>
       </c>
       <c r="K19" t="n">
-        <v>3.42</v>
+        <v>2.609</v>
       </c>
       <c r="L19" t="n">
-        <v>123423</v>
+        <v>117916</v>
       </c>
       <c r="M19" t="n">
-        <v>3.27</v>
+        <v>3.124</v>
       </c>
       <c r="N19" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
       <c r="P19" t="s">
         <v>119</v>
@@ -4003,7 +3991,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -4013,25 +4001,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H21" t="n">
-        <v>13750280</v>
+        <v>13947396</v>
       </c>
       <c r="I21" t="n">
-        <v>719.3</v>
+        <v>729.611</v>
       </c>
       <c r="J21" t="n">
-        <v>60976</v>
+        <v>65886</v>
       </c>
       <c r="K21" t="n">
-        <v>3.19</v>
+        <v>3.447</v>
       </c>
       <c r="L21" t="n">
-        <v>54805</v>
+        <v>55749</v>
       </c>
       <c r="M21" t="n">
-        <v>2.867</v>
+        <v>2.916</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4101,7 +4089,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -4111,28 +4099,28 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H23" t="n">
-        <v>15670000</v>
+        <v>15882789</v>
       </c>
       <c r="I23" t="n">
-        <v>307.962</v>
+        <v>312.144</v>
       </c>
       <c r="J23" t="n">
-        <v>72705</v>
+        <v>61453</v>
       </c>
       <c r="K23" t="n">
-        <v>1.429</v>
+        <v>1.208</v>
       </c>
       <c r="L23" t="n">
-        <v>72806</v>
+        <v>69734</v>
       </c>
       <c r="M23" t="n">
-        <v>1.431</v>
+        <v>1.37</v>
       </c>
       <c r="N23" t="n">
-        <v>0.26</v>
+        <v>0.263</v>
       </c>
       <c r="O23" t="n">
         <v>3.8</v>
@@ -4158,7 +4146,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D24" t="s">
         <v>151</v>
@@ -4168,28 +4156,28 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H24" t="n">
-        <v>892861</v>
+        <v>917453</v>
       </c>
       <c r="I24" t="n">
-        <v>175.273</v>
+        <v>180.101</v>
       </c>
       <c r="J24" t="n">
-        <v>5708</v>
+        <v>8913</v>
       </c>
       <c r="K24" t="n">
-        <v>1.121</v>
+        <v>1.75</v>
       </c>
       <c r="L24" t="n">
-        <v>6840</v>
+        <v>7384</v>
       </c>
       <c r="M24" t="n">
-        <v>1.343</v>
+        <v>1.45</v>
       </c>
       <c r="N24" t="n">
-        <v>0.269</v>
+        <v>0.271</v>
       </c>
       <c r="O24" t="n">
         <v>3.7</v>
@@ -4329,7 +4317,7 @@
         <v>167</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="D27" t="s">
         <v>168</v>
@@ -4341,31 +4329,31 @@
         <v>170</v>
       </c>
       <c r="G27" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H27" t="n">
-        <v>3923413</v>
+        <v>3993104</v>
       </c>
       <c r="I27" t="n">
-        <v>346.389</v>
+        <v>352.542</v>
       </c>
       <c r="J27" t="n">
-        <v>22934</v>
+        <v>23021</v>
       </c>
       <c r="K27" t="n">
-        <v>2.025</v>
+        <v>2.032</v>
       </c>
       <c r="L27" t="n">
-        <v>22686</v>
+        <v>22251</v>
       </c>
       <c r="M27" t="n">
-        <v>2.003</v>
+        <v>1.964</v>
       </c>
       <c r="N27" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>18.7</v>
       </c>
       <c r="P27" t="s">
         <v>169</v>
@@ -4388,7 +4376,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
@@ -4398,31 +4386,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H28" t="n">
-        <v>5976135</v>
+        <v>6216094</v>
       </c>
       <c r="I28" t="n">
-        <v>6822.859</v>
+        <v>7096.816</v>
       </c>
       <c r="J28" t="n">
-        <v>74926</v>
+        <v>63798</v>
       </c>
       <c r="K28" t="n">
-        <v>85.542</v>
+        <v>72.837</v>
       </c>
       <c r="L28" t="n">
-        <v>73746</v>
+        <v>74095</v>
       </c>
       <c r="M28" t="n">
-        <v>84.195</v>
+        <v>84.593</v>
       </c>
       <c r="N28" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O28" t="n">
-        <v>242.5</v>
+        <v>317.8</v>
       </c>
       <c r="P28" t="s">
         <v>42</v>
@@ -4445,7 +4433,7 @@
         <v>178</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D29" t="s">
         <v>179</v>
@@ -4455,27 +4443,27 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>179207</v>
+        <v>61006</v>
       </c>
       <c r="K29" t="n">
-        <v>16.734</v>
+        <v>5.697</v>
       </c>
       <c r="L29" t="n">
-        <v>170425</v>
+        <v>180401</v>
       </c>
       <c r="M29" t="n">
-        <v>15.914</v>
+        <v>16.846</v>
       </c>
       <c r="N29" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O29" t="n">
-        <v>142.9</v>
+        <v>166.7</v>
       </c>
       <c r="P29" t="s">
         <v>42</v>
@@ -4608,7 +4596,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4618,31 +4606,27 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H32" t="n">
-        <v>1456859</v>
+        <v>1478358</v>
       </c>
       <c r="I32" t="n">
-        <v>134.299</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4194</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.387</v>
-      </c>
+        <v>136.281</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32" t="n">
-        <v>5460</v>
+        <v>5303</v>
       </c>
       <c r="M32" t="n">
-        <v>0.503</v>
+        <v>0.489</v>
       </c>
       <c r="N32" t="n">
-        <v>0.124</v>
+        <v>0.153</v>
       </c>
       <c r="O32" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="P32" t="s">
         <v>196</v>
@@ -4781,7 +4765,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D35" t="s">
         <v>215</v>
@@ -4791,31 +4775,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H35" t="n">
-        <v>1357257</v>
+        <v>1368621</v>
       </c>
       <c r="I35" t="n">
-        <v>1023.156</v>
+        <v>1031.723</v>
       </c>
       <c r="J35" t="n">
-        <v>5110</v>
+        <v>2885</v>
       </c>
       <c r="K35" t="n">
-        <v>3.852</v>
+        <v>2.175</v>
       </c>
       <c r="L35" t="n">
-        <v>4371</v>
+        <v>4419</v>
       </c>
       <c r="M35" t="n">
-        <v>3.295</v>
+        <v>3.331</v>
       </c>
       <c r="N35" t="n">
-        <v>0.072</v>
+        <v>0.062</v>
       </c>
       <c r="O35" t="n">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
       <c r="P35" t="s">
         <v>216</v>
@@ -4838,7 +4822,7 @@
         <v>219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D36" t="s">
         <v>220</v>
@@ -4848,31 +4832,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H36" t="n">
-        <v>2640295</v>
+        <v>2652558</v>
       </c>
       <c r="I36" t="n">
-        <v>22.966</v>
+        <v>23.073</v>
       </c>
       <c r="J36" t="n">
-        <v>5621</v>
+        <v>4071</v>
       </c>
       <c r="K36" t="n">
-        <v>0.049</v>
+        <v>0.035</v>
       </c>
       <c r="L36" t="n">
-        <v>5131</v>
+        <v>4566</v>
       </c>
       <c r="M36" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="N36" t="n">
-        <v>0.116</v>
+        <v>0.111</v>
       </c>
       <c r="O36" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="P36" t="s">
         <v>221</v>
@@ -4952,7 +4936,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -4962,31 +4946,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H38" t="n">
-        <v>4716365</v>
+        <v>4766115</v>
       </c>
       <c r="I38" t="n">
-        <v>851.219</v>
+        <v>860.198</v>
       </c>
       <c r="J38" t="n">
-        <v>19934</v>
+        <v>2224</v>
       </c>
       <c r="K38" t="n">
-        <v>3.598</v>
+        <v>0.401</v>
       </c>
       <c r="L38" t="n">
-        <v>17236</v>
+        <v>12668</v>
       </c>
       <c r="M38" t="n">
-        <v>3.111</v>
+        <v>2.286</v>
       </c>
       <c r="N38" t="n">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="O38" t="n">
-        <v>82.6</v>
+        <v>67.3</v>
       </c>
       <c r="P38" t="s">
         <v>232</v>
@@ -5009,7 +4993,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5019,27 +5003,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>526157</v>
+        <v>451838</v>
       </c>
       <c r="K39" t="n">
-        <v>7.788</v>
+        <v>6.688</v>
       </c>
       <c r="L39" t="n">
-        <v>344115</v>
+        <v>368384</v>
       </c>
       <c r="M39" t="n">
-        <v>5.093</v>
+        <v>5.452</v>
       </c>
       <c r="N39" t="n">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
       <c r="O39" t="n">
-        <v>19.6</v>
+        <v>22.2</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5449,7 +5433,7 @@
         <v>284</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44330</v>
+        <v>44333</v>
       </c>
       <c r="D47" t="s">
         <v>285</v>
@@ -5461,32 +5445,28 @@
         <v>287</v>
       </c>
       <c r="G47" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H47" t="n">
-        <v>5156500</v>
+        <v>5198191</v>
       </c>
       <c r="I47" t="n">
-        <v>533.78</v>
+        <v>538.096</v>
       </c>
       <c r="J47" t="n">
-        <v>18901</v>
+        <v>10365</v>
       </c>
       <c r="K47" t="n">
-        <v>1.957</v>
+        <v>1.073</v>
       </c>
       <c r="L47" t="n">
-        <v>16163</v>
+        <v>15748</v>
       </c>
       <c r="M47" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="O47" t="n">
-        <v>15.7</v>
-      </c>
+        <v>1.63</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47" t="s">
         <v>286</v>
       </c>
@@ -5508,7 +5488,7 @@
         <v>291</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44327</v>
+        <v>44332</v>
       </c>
       <c r="D48" t="s">
         <v>292</v>
@@ -5518,25 +5498,25 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H48" t="n">
-        <v>363043</v>
+        <v>368203</v>
       </c>
       <c r="I48" t="n">
-        <v>1063.862</v>
+        <v>1078.983</v>
       </c>
       <c r="J48" t="n">
-        <v>1435</v>
+        <v>828</v>
       </c>
       <c r="K48" t="n">
-        <v>4.205</v>
+        <v>2.426</v>
       </c>
       <c r="L48" t="n">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="M48" t="n">
-        <v>3.432</v>
+        <v>3.449</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5561,7 +5541,7 @@
         <v>296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="D49" t="s">
         <v>297</v>
@@ -5573,31 +5553,31 @@
         <v>299</v>
       </c>
       <c r="G49" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H49" t="n">
-        <v>309448585</v>
+        <v>313017193</v>
       </c>
       <c r="I49" t="n">
-        <v>224.237</v>
+        <v>226.823</v>
       </c>
       <c r="J49" t="n">
-        <v>1864594</v>
+        <v>1693093</v>
       </c>
       <c r="K49" t="n">
-        <v>1.351</v>
+        <v>1.227</v>
       </c>
       <c r="L49" t="n">
-        <v>1810482</v>
+        <v>1801021</v>
       </c>
       <c r="M49" t="n">
-        <v>1.312</v>
+        <v>1.305</v>
       </c>
       <c r="N49" t="n">
-        <v>0.202</v>
+        <v>0.189</v>
       </c>
       <c r="O49" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="P49" t="s">
         <v>298</v>
@@ -5677,7 +5657,7 @@
         <v>308</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D51" t="s">
         <v>309</v>
@@ -5687,28 +5667,24 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H51" t="n">
-        <v>17616446</v>
+        <v>18151487</v>
       </c>
       <c r="I51" t="n">
-        <v>209.737</v>
+        <v>216.107</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>137681</v>
+        <v>134965</v>
       </c>
       <c r="M51" t="n">
-        <v>1.639</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="O51" t="n">
-        <v>8.6</v>
-      </c>
+        <v>1.607</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
       <c r="P51" t="s">
         <v>310</v>
       </c>
@@ -5844,7 +5820,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -5854,31 +5830,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H54" t="n">
-        <v>16527582</v>
+        <v>16561281</v>
       </c>
       <c r="I54" t="n">
-        <v>1909.48</v>
+        <v>1913.373</v>
       </c>
       <c r="J54" t="n">
-        <v>21078</v>
+        <v>6069</v>
       </c>
       <c r="K54" t="n">
-        <v>2.435</v>
+        <v>0.701</v>
       </c>
       <c r="L54" t="n">
-        <v>28818</v>
+        <v>23271</v>
       </c>
       <c r="M54" t="n">
-        <v>3.329</v>
+        <v>2.689</v>
       </c>
       <c r="N54" t="n">
         <v>0.001</v>
       </c>
       <c r="O54" t="n">
-        <v>873.3</v>
+        <v>724</v>
       </c>
       <c r="P54" t="s">
         <v>42</v>
@@ -5901,7 +5877,7 @@
         <v>333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D55" t="s">
         <v>334</v>
@@ -5913,31 +5889,31 @@
         <v>336</v>
       </c>
       <c r="G55" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H55" t="n">
-        <v>26862873</v>
+        <v>27119978</v>
       </c>
       <c r="I55" t="n">
-        <v>444.295</v>
+        <v>448.547</v>
       </c>
       <c r="J55" t="n">
-        <v>95978</v>
+        <v>69463</v>
       </c>
       <c r="K55" t="n">
-        <v>1.587</v>
+        <v>1.149</v>
       </c>
       <c r="L55" t="n">
-        <v>89244</v>
+        <v>82992</v>
       </c>
       <c r="M55" t="n">
-        <v>1.476</v>
+        <v>1.373</v>
       </c>
       <c r="N55" t="n">
-        <v>0.091</v>
+        <v>0.082</v>
       </c>
       <c r="O55" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="P55" t="s">
         <v>337</v>
@@ -5960,7 +5936,7 @@
         <v>340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D56" t="s">
         <v>334</v>
@@ -5972,31 +5948,31 @@
         <v>336</v>
       </c>
       <c r="G56" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H56" t="n">
-        <v>62107222</v>
+        <v>62902667</v>
       </c>
       <c r="I56" t="n">
-        <v>1027.214</v>
+        <v>1040.37</v>
       </c>
       <c r="J56" t="n">
-        <v>287026</v>
+        <v>202573</v>
       </c>
       <c r="K56" t="n">
-        <v>4.747</v>
+        <v>3.35</v>
       </c>
       <c r="L56" t="n">
-        <v>271893</v>
+        <v>257949</v>
       </c>
       <c r="M56" t="n">
-        <v>4.497</v>
+        <v>4.266</v>
       </c>
       <c r="N56" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="O56" t="n">
-        <v>33.4</v>
+        <v>37.7</v>
       </c>
       <c r="P56" t="s">
         <v>337</v>
@@ -6072,7 +6048,7 @@
         <v>349</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D58" t="s">
         <v>350</v>
@@ -6082,31 +6058,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H58" t="n">
-        <v>12089456</v>
+        <v>12414450</v>
       </c>
       <c r="I58" t="n">
-        <v>95.587</v>
+        <v>98.156</v>
       </c>
       <c r="J58" t="n">
-        <v>87073</v>
+        <v>35948</v>
       </c>
       <c r="K58" t="n">
-        <v>0.688</v>
+        <v>0.284</v>
       </c>
       <c r="L58" t="n">
-        <v>89496</v>
+        <v>91397</v>
       </c>
       <c r="M58" t="n">
-        <v>0.708</v>
+        <v>0.723</v>
       </c>
       <c r="N58" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
       <c r="O58" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6186,7 +6162,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6196,32 +6172,28 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H60" t="n">
-        <v>10631263</v>
+        <v>10989671</v>
       </c>
       <c r="I60" t="n">
-        <v>566.194</v>
+        <v>585.282</v>
       </c>
       <c r="J60" t="n">
-        <v>31984</v>
+        <v>62293</v>
       </c>
       <c r="K60" t="n">
-        <v>1.703</v>
+        <v>3.318</v>
       </c>
       <c r="L60" t="n">
-        <v>41215</v>
+        <v>51201</v>
       </c>
       <c r="M60" t="n">
-        <v>2.195</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="O60" t="n">
-        <v>19.1</v>
-      </c>
+        <v>2.727</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
         <v>363</v>
       </c>
@@ -6353,7 +6325,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6365,32 +6337,28 @@
         <v>380</v>
       </c>
       <c r="G63" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H63" t="n">
-        <v>2408655</v>
+        <v>2448070</v>
       </c>
       <c r="I63" t="n">
-        <v>1276.987</v>
+        <v>1297.883</v>
       </c>
       <c r="J63" t="n">
-        <v>16417</v>
+        <v>4112</v>
       </c>
       <c r="K63" t="n">
-        <v>8.704</v>
+        <v>2.18</v>
       </c>
       <c r="L63" t="n">
-        <v>15817</v>
+        <v>12627</v>
       </c>
       <c r="M63" t="n">
-        <v>8.386</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="O63" t="n">
-        <v>22.7</v>
-      </c>
+        <v>6.694</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
       <c r="P63" t="s">
         <v>379</v>
       </c>
@@ -6506,7 +6474,7 @@
         <v>394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44326</v>
+        <v>44331</v>
       </c>
       <c r="D66" t="s">
         <v>395</v>
@@ -6516,31 +6484,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H66" t="n">
-        <v>42576</v>
+        <v>43586</v>
       </c>
       <c r="I66" t="n">
-        <v>1116.396</v>
+        <v>1142.88</v>
       </c>
       <c r="J66" t="n">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="K66" t="n">
-        <v>6.975</v>
+        <v>2.832</v>
       </c>
       <c r="L66" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M66" t="n">
-        <v>5.244</v>
+        <v>5.087</v>
       </c>
       <c r="N66" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="O66" t="n">
-        <v>41.7</v>
+        <v>50</v>
       </c>
       <c r="P66" t="s">
         <v>396</v>
@@ -6563,7 +6531,7 @@
         <v>400</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44326</v>
+        <v>44329</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6573,31 +6541,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H67" t="n">
-        <v>3089220</v>
+        <v>3165520</v>
       </c>
       <c r="I67" t="n">
-        <v>1134.787</v>
+        <v>1162.815</v>
       </c>
       <c r="J67" t="n">
-        <v>22054</v>
+        <v>25180</v>
       </c>
       <c r="K67" t="n">
-        <v>8.101</v>
+        <v>9.25</v>
       </c>
       <c r="L67" t="n">
-        <v>21352</v>
+        <v>20588</v>
       </c>
       <c r="M67" t="n">
-        <v>7.843</v>
+        <v>7.563</v>
       </c>
       <c r="N67" t="n">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="O67" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="P67" t="s">
         <v>402</v>
@@ -6620,7 +6588,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="D68" t="s">
         <v>406</v>
@@ -6630,31 +6598,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H68" t="n">
-        <v>2748184</v>
+        <v>2778309</v>
       </c>
       <c r="I68" t="n">
-        <v>4390.239</v>
+        <v>4438.363</v>
       </c>
       <c r="J68" t="n">
-        <v>9045</v>
+        <v>7347</v>
       </c>
       <c r="K68" t="n">
-        <v>14.449</v>
+        <v>11.737</v>
       </c>
       <c r="L68" t="n">
-        <v>7731</v>
+        <v>7091</v>
       </c>
       <c r="M68" t="n">
-        <v>12.35</v>
+        <v>11.328</v>
       </c>
       <c r="N68" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="O68" t="n">
-        <v>59.5</v>
+        <v>64.5</v>
       </c>
       <c r="P68" t="s">
         <v>407</v>
@@ -7009,7 +6977,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7019,31 +6987,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H75" t="n">
-        <v>6374398</v>
+        <v>6417232</v>
       </c>
       <c r="I75" t="n">
-        <v>49.44</v>
+        <v>49.772</v>
       </c>
       <c r="J75" t="n">
-        <v>6938</v>
+        <v>2226</v>
       </c>
       <c r="K75" t="n">
-        <v>0.054</v>
+        <v>0.017</v>
       </c>
       <c r="L75" t="n">
-        <v>9377</v>
+        <v>9032</v>
       </c>
       <c r="M75" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
       <c r="N75" t="n">
-        <v>0.172</v>
+        <v>0.178</v>
       </c>
       <c r="O75" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="P75" t="s">
         <v>451</v>
@@ -7506,7 +7474,7 @@
         <v>503</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="D84" t="s">
         <v>504</v>
@@ -7516,28 +7484,24 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H84" t="n">
-        <v>1977479</v>
+        <v>2002653</v>
       </c>
       <c r="I84" t="n">
-        <v>9.593</v>
+        <v>9.715</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>5473</v>
+        <v>3596</v>
       </c>
       <c r="M84" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O84" t="n">
-        <v>142.4</v>
-      </c>
+        <v>0.017</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
       <c r="P84" t="s">
         <v>505</v>
       </c>
@@ -7616,7 +7580,7 @@
         <v>512</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="D86" t="s">
         <v>513</v>
@@ -7626,31 +7590,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H86" t="n">
-        <v>5336002</v>
+        <v>5394845</v>
       </c>
       <c r="I86" t="n">
-        <v>984.277</v>
+        <v>995.131</v>
       </c>
       <c r="J86" t="n">
-        <v>20739</v>
+        <v>8997</v>
       </c>
       <c r="K86" t="n">
-        <v>3.826</v>
+        <v>1.66</v>
       </c>
       <c r="L86" t="n">
-        <v>18483</v>
+        <v>16601</v>
       </c>
       <c r="M86" t="n">
-        <v>3.409</v>
+        <v>3.062</v>
       </c>
       <c r="N86" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="O86" t="n">
-        <v>42.3</v>
+        <v>39.8</v>
       </c>
       <c r="P86" t="s">
         <v>514</v>
@@ -7985,7 +7949,7 @@
         <v>550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="D93" t="s">
         <v>551</v>
@@ -7995,28 +7959,28 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H93" t="n">
-        <v>11710535</v>
+        <v>11847122</v>
       </c>
       <c r="I93" t="n">
-        <v>106.866</v>
+        <v>108.113</v>
       </c>
       <c r="J93" t="n">
-        <v>43726</v>
+        <v>37723</v>
       </c>
       <c r="K93" t="n">
-        <v>0.399</v>
+        <v>0.344</v>
       </c>
       <c r="L93" t="n">
-        <v>43508</v>
+        <v>41895</v>
       </c>
       <c r="M93" t="n">
-        <v>0.397</v>
+        <v>0.382</v>
       </c>
       <c r="N93" t="n">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="O93" t="n">
         <v>6.8</v>
@@ -8156,7 +8120,7 @@
         <v>563</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44328</v>
+        <v>44331</v>
       </c>
       <c r="D96" t="s">
         <v>564</v>
@@ -8166,31 +8130,31 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H96" t="n">
-        <v>11052822</v>
+        <v>11165909</v>
       </c>
       <c r="I96" t="n">
-        <v>1083.96</v>
+        <v>1095.05</v>
       </c>
       <c r="J96" t="n">
-        <v>38302</v>
+        <v>24160</v>
       </c>
       <c r="K96" t="n">
-        <v>3.756</v>
+        <v>2.369</v>
       </c>
       <c r="L96" t="n">
-        <v>37506</v>
+        <v>35398</v>
       </c>
       <c r="M96" t="n">
-        <v>3.678</v>
+        <v>3.472</v>
       </c>
       <c r="N96" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="O96" t="n">
-        <v>109.8</v>
+        <v>95.7</v>
       </c>
       <c r="P96" t="s">
         <v>565</v>
@@ -8213,7 +8177,7 @@
         <v>568</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44323</v>
+        <v>44332</v>
       </c>
       <c r="D97" t="s">
         <v>569</v>
@@ -8223,31 +8187,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H97" t="n">
-        <v>1937204</v>
+        <v>1970800</v>
       </c>
       <c r="I97" t="n">
-        <v>672.393</v>
+        <v>684.054</v>
       </c>
       <c r="J97" t="n">
-        <v>4584</v>
+        <v>3446</v>
       </c>
       <c r="K97" t="n">
-        <v>1.591</v>
+        <v>1.196</v>
       </c>
       <c r="L97" t="n">
-        <v>4756</v>
+        <v>3670</v>
       </c>
       <c r="M97" t="n">
-        <v>1.651</v>
+        <v>1.274</v>
       </c>
       <c r="N97" t="n">
-        <v>0.133</v>
+        <v>0.085</v>
       </c>
       <c r="O97" t="n">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="P97" t="s">
         <v>571</v>
@@ -8327,7 +8291,7 @@
         <v>581</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="D99" t="s">
         <v>582</v>
@@ -8337,31 +8301,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H99" t="n">
-        <v>133510681</v>
+        <v>133819142</v>
       </c>
       <c r="I99" t="n">
-        <v>914.867</v>
+        <v>916.981</v>
       </c>
       <c r="J99" t="n">
-        <v>374100</v>
+        <v>308461</v>
       </c>
       <c r="K99" t="n">
-        <v>2.563</v>
+        <v>2.114</v>
       </c>
       <c r="L99" t="n">
-        <v>291138</v>
+        <v>298306</v>
       </c>
       <c r="M99" t="n">
-        <v>1.995</v>
+        <v>2.044</v>
       </c>
       <c r="N99" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="O99" t="n">
-        <v>34.6</v>
+        <v>35.3</v>
       </c>
       <c r="P99" t="s">
         <v>583</v>
@@ -8384,7 +8348,7 @@
         <v>587</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44331</v>
+        <v>44333</v>
       </c>
       <c r="D100" t="s">
         <v>588</v>
@@ -8394,32 +8358,24 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H100" t="n">
-        <v>1367795</v>
+        <v>1371636</v>
       </c>
       <c r="I100" t="n">
-        <v>105.603</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9229</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.713</v>
-      </c>
+        <v>105.9</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
       <c r="L100" t="n">
-        <v>4385</v>
+        <v>3855</v>
       </c>
       <c r="M100" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="O100" t="n">
-        <v>59.8</v>
-      </c>
+        <v>0.298</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100" t="s">
         <v>589</v>
       </c>
@@ -8441,7 +8397,7 @@
         <v>593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D101" t="s">
         <v>594</v>
@@ -8451,31 +8407,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H101" t="n">
-        <v>17812376</v>
+        <v>18032171</v>
       </c>
       <c r="I101" t="n">
-        <v>511.646</v>
+        <v>517.959</v>
       </c>
       <c r="J101" t="n">
-        <v>71457</v>
+        <v>61665</v>
       </c>
       <c r="K101" t="n">
-        <v>2.053</v>
+        <v>1.771</v>
       </c>
       <c r="L101" t="n">
-        <v>71073</v>
+        <v>62012</v>
       </c>
       <c r="M101" t="n">
-        <v>2.042</v>
+        <v>1.781</v>
       </c>
       <c r="N101" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="O101" t="n">
-        <v>70.3</v>
+        <v>64.7</v>
       </c>
       <c r="P101" t="s">
         <v>42</v>
@@ -8498,7 +8454,7 @@
         <v>597</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D102" t="s">
         <v>598</v>
@@ -8508,32 +8464,28 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H102" t="n">
-        <v>506181</v>
+        <v>510809</v>
       </c>
       <c r="I102" t="n">
-        <v>30.231</v>
+        <v>30.507</v>
       </c>
       <c r="J102" t="n">
-        <v>990</v>
+        <v>1104</v>
       </c>
       <c r="K102" t="n">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="L102" t="n">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="M102" t="n">
         <v>0.064</v>
       </c>
-      <c r="N102" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="O102" t="n">
-        <v>35.4</v>
-      </c>
+      <c r="N102"/>
+      <c r="O102"/>
       <c r="P102" t="s">
         <v>599</v>
       </c>
@@ -8555,7 +8507,7 @@
         <v>602</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D103" t="s">
         <v>603</v>
@@ -8567,32 +8519,28 @@
         <v>604</v>
       </c>
       <c r="G103" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H103" t="n">
-        <v>3977053</v>
+        <v>4018840</v>
       </c>
       <c r="I103" t="n">
-        <v>584.466</v>
+        <v>590.607</v>
       </c>
       <c r="J103" t="n">
-        <v>12089</v>
+        <v>9329</v>
       </c>
       <c r="K103" t="n">
-        <v>1.777</v>
+        <v>1.371</v>
       </c>
       <c r="L103" t="n">
-        <v>11760</v>
+        <v>11339</v>
       </c>
       <c r="M103" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="O103" t="n">
-        <v>13.2</v>
-      </c>
+        <v>1.666</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103"/>
       <c r="P103" t="s">
         <v>42</v>
       </c>
@@ -8667,7 +8615,7 @@
         <v>612</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D105" t="s">
         <v>613</v>
@@ -8677,31 +8625,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H105" t="n">
-        <v>36654003</v>
+        <v>37082889</v>
       </c>
       <c r="I105" t="n">
-        <v>6713.626</v>
+        <v>6792.182</v>
       </c>
       <c r="J105" t="n">
-        <v>70531</v>
+        <v>104093</v>
       </c>
       <c r="K105" t="n">
-        <v>12.919</v>
+        <v>19.066</v>
       </c>
       <c r="L105" t="n">
-        <v>129446</v>
+        <v>113499</v>
       </c>
       <c r="M105" t="n">
-        <v>23.71</v>
+        <v>20.789</v>
       </c>
       <c r="N105" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="O105" t="n">
-        <v>200</v>
+        <v>142.9</v>
       </c>
       <c r="P105" t="s">
         <v>42</v>
@@ -8724,7 +8672,7 @@
         <v>616</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D106" t="s">
         <v>617</v>
@@ -8734,31 +8682,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H106" t="n">
-        <v>1224095</v>
+        <v>1232247</v>
       </c>
       <c r="I106" t="n">
-        <v>588.81</v>
+        <v>592.731</v>
       </c>
       <c r="J106" t="n">
-        <v>3961</v>
+        <v>1504</v>
       </c>
       <c r="K106" t="n">
-        <v>1.905</v>
+        <v>0.723</v>
       </c>
       <c r="L106" t="n">
-        <v>3580</v>
+        <v>3596</v>
       </c>
       <c r="M106" t="n">
-        <v>1.722</v>
+        <v>1.73</v>
       </c>
       <c r="N106" t="n">
-        <v>0.134</v>
+        <v>0.127</v>
       </c>
       <c r="O106" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="P106" t="s">
         <v>618</v>
@@ -8781,7 +8729,7 @@
         <v>621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D107" t="s">
         <v>622</v>
@@ -8793,31 +8741,31 @@
         <v>624</v>
       </c>
       <c r="G107" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H107" t="n">
-        <v>11010999</v>
+        <v>11115048</v>
       </c>
       <c r="I107" t="n">
-        <v>185.656</v>
+        <v>187.41</v>
       </c>
       <c r="J107" t="n">
-        <v>42073</v>
+        <v>27543</v>
       </c>
       <c r="K107" t="n">
-        <v>0.709</v>
+        <v>0.464</v>
       </c>
       <c r="L107" t="n">
-        <v>29314</v>
+        <v>32477</v>
       </c>
       <c r="M107" t="n">
-        <v>0.494</v>
+        <v>0.548</v>
       </c>
       <c r="N107" t="n">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
       <c r="O107" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="P107" t="s">
         <v>623</v>
@@ -9003,7 +8951,7 @@
         <v>645</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D111" t="s">
         <v>646</v>
@@ -9013,32 +8961,28 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H111" t="n">
-        <v>3089491</v>
+        <v>3190313</v>
       </c>
       <c r="I111" t="n">
-        <v>144.279</v>
+        <v>148.988</v>
       </c>
       <c r="J111" t="n">
-        <v>26648</v>
+        <v>26941</v>
       </c>
       <c r="K111" t="n">
-        <v>1.244</v>
+        <v>1.258</v>
       </c>
       <c r="L111" t="n">
-        <v>24923</v>
+        <v>25735</v>
       </c>
       <c r="M111" t="n">
-        <v>1.164</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="O111" t="n">
-        <v>10.7</v>
-      </c>
+        <v>1.202</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>647</v>
       </c>
@@ -9113,7 +9057,7 @@
         <v>657</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44327</v>
+        <v>44332</v>
       </c>
       <c r="D113" t="s">
         <v>395</v>
@@ -9123,31 +9067,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H113" t="n">
-        <v>6805551</v>
+        <v>6926543</v>
       </c>
       <c r="I113" t="n">
-        <v>786.349</v>
+        <v>800.329</v>
       </c>
       <c r="J113" t="n">
-        <v>29513</v>
+        <v>9570</v>
       </c>
       <c r="K113" t="n">
-        <v>3.41</v>
+        <v>1.106</v>
       </c>
       <c r="L113" t="n">
-        <v>26006</v>
+        <v>25763</v>
       </c>
       <c r="M113" t="n">
-        <v>3.005</v>
+        <v>2.977</v>
       </c>
       <c r="N113" t="n">
-        <v>0.057</v>
+        <v>0.047</v>
       </c>
       <c r="O113" t="n">
-        <v>17.5</v>
+        <v>21.3</v>
       </c>
       <c r="P113" t="s">
         <v>396</v>
@@ -9170,7 +9114,7 @@
         <v>660</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D114" t="s">
         <v>661</v>
@@ -9180,31 +9124,31 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H114" t="n">
-        <v>224617</v>
+        <v>245801</v>
       </c>
       <c r="I114" t="n">
-        <v>9.431</v>
+        <v>10.32</v>
       </c>
       <c r="J114" t="n">
-        <v>3915</v>
+        <v>8451</v>
       </c>
       <c r="K114" t="n">
-        <v>0.164</v>
+        <v>0.355</v>
       </c>
       <c r="L114" t="n">
-        <v>1569</v>
+        <v>4287</v>
       </c>
       <c r="M114" t="n">
-        <v>0.066</v>
+        <v>0.18</v>
       </c>
       <c r="N114" t="n">
-        <v>0.008</v>
+        <v>0.017</v>
       </c>
       <c r="O114" t="n">
-        <v>132.3</v>
+        <v>60.3</v>
       </c>
       <c r="P114" t="s">
         <v>662</v>
@@ -9451,7 +9395,7 @@
         <v>689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44329</v>
+        <v>44332</v>
       </c>
       <c r="D119" t="s">
         <v>690</v>
@@ -9461,31 +9405,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H119" t="n">
-        <v>50259943</v>
+        <v>50869896</v>
       </c>
       <c r="I119" t="n">
-        <v>595.927</v>
+        <v>603.159</v>
       </c>
       <c r="J119" t="n">
-        <v>201295</v>
+        <v>202243</v>
       </c>
       <c r="K119" t="n">
-        <v>2.387</v>
+        <v>2.398</v>
       </c>
       <c r="L119" t="n">
-        <v>221048</v>
+        <v>211394</v>
       </c>
       <c r="M119" t="n">
-        <v>2.621</v>
+        <v>2.506</v>
       </c>
       <c r="N119" t="n">
-        <v>0.069</v>
+        <v>0.058</v>
       </c>
       <c r="O119" t="n">
-        <v>14.6</v>
+        <v>17.2</v>
       </c>
       <c r="P119" t="s">
         <v>691</v>
@@ -9618,7 +9562,7 @@
         <v>707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44329</v>
+        <v>44333</v>
       </c>
       <c r="D122" t="s">
         <v>708</v>
@@ -9628,25 +9572,25 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H122" t="n">
-        <v>46559437</v>
+        <v>47007854</v>
       </c>
       <c r="I122" t="n">
-        <v>4707.538</v>
+        <v>4752.877</v>
       </c>
       <c r="J122" t="n">
-        <v>212212</v>
+        <v>141947</v>
       </c>
       <c r="K122" t="n">
-        <v>21.456</v>
+        <v>14.352</v>
       </c>
       <c r="L122" t="n">
-        <v>194017</v>
+        <v>149811</v>
       </c>
       <c r="M122" t="n">
-        <v>19.617</v>
+        <v>15.147</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -9671,7 +9615,7 @@
         <v>712</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44328</v>
+        <v>44332</v>
       </c>
       <c r="D123" t="s">
         <v>713</v>
@@ -9683,31 +9627,31 @@
         <v>715</v>
       </c>
       <c r="G123" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H123" t="n">
-        <v>165362038</v>
+        <v>166384182</v>
       </c>
       <c r="I123" t="n">
-        <v>2435.878</v>
+        <v>2450.935</v>
       </c>
       <c r="J123" t="n">
-        <v>1184941</v>
+        <v>1086443</v>
       </c>
       <c r="K123" t="n">
-        <v>17.455</v>
+        <v>16.004</v>
       </c>
       <c r="L123" t="n">
-        <v>999815</v>
+        <v>593944</v>
       </c>
       <c r="M123" t="n">
-        <v>14.728</v>
+        <v>8.749</v>
       </c>
       <c r="N123" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="O123" t="n">
-        <v>434.8</v>
+        <v>259.7</v>
       </c>
       <c r="P123" t="s">
         <v>714</v>
@@ -9730,7 +9674,7 @@
         <v>719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44327</v>
+        <v>44330</v>
       </c>
       <c r="D124" t="s">
         <v>720</v>
@@ -9740,31 +9684,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H124" t="n">
-        <v>429959899</v>
+        <v>433570412</v>
       </c>
       <c r="I124" t="n">
-        <v>1298.962</v>
+        <v>1309.87</v>
       </c>
       <c r="J124" t="n">
-        <v>405957</v>
+        <v>350618</v>
       </c>
       <c r="K124" t="n">
-        <v>1.226</v>
+        <v>1.059</v>
       </c>
       <c r="L124" t="n">
-        <v>821408</v>
+        <v>717437</v>
       </c>
       <c r="M124" t="n">
-        <v>2.482</v>
+        <v>2.167</v>
       </c>
       <c r="N124" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="O124" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="P124" t="s">
         <v>721</v>
@@ -9893,7 +9837,7 @@
         <v>737</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44328</v>
+        <v>44333</v>
       </c>
       <c r="D127" t="s">
         <v>738</v>
@@ -9903,32 +9847,28 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H127" t="n">
-        <v>1453013</v>
+        <v>1474620</v>
       </c>
       <c r="I127" t="n">
-        <v>79.037</v>
+        <v>80.212</v>
       </c>
       <c r="J127" t="n">
-        <v>4800</v>
+        <v>2988</v>
       </c>
       <c r="K127" t="n">
-        <v>0.261</v>
+        <v>0.163</v>
       </c>
       <c r="L127" t="n">
-        <v>4442</v>
+        <v>4586</v>
       </c>
       <c r="M127" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="O127" t="n">
-        <v>85.9</v>
-      </c>
+        <v>0.249</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
       <c r="P127" t="s">
         <v>740</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="753">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-2964-testime-983-te-sheruar-49-raste-te-reja-dhe-1-humbje-jete-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3051-testime-835-te-sheruar-24-raste-te-reja-dhe-2-humbje-jete-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3902</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3920</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-16-may-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-20-may-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1191-new-cases-743-recoveries_i_0000129680.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-1457-new-covid-19-cases-1531-recoveries-in-past-24-hours_i_0000129869.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4168817966513121/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4181421538586097/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5566-covid-19-1-178-pacientes-recuperados-5-169-pruebas-negativas-y-1-103-071-dosis-de-la-vacuna-contra-el-virus-fueron-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5577-reporte-430-de-covid-19-1-480-pacientes-recuperados-9-600-pruebas-negativas-y-1-246-112-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-13-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1903472843151734</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1907336076098744</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=04af84019f</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=1f048e6a2c</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-15052021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-20052021-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -843,7 +843,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1263</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1340</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/363991</t>
+    <t xml:space="preserve">http://irangov.ir/detail/364252</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1080,7 +1080,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1393641364454354946</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1395004268545986569</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/4791</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5806</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1393993420063092739</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1395454336705118219</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210517-l2pmmzm9/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210520-vqrutiuu/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1443,7 +1443,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-16052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-20052021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1468,7 +1468,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1392898787056570369</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1395428596773126144</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1543,6 +1543,22 @@
 Data starts on 1 January 2020; we do not know if this is because tests started on that date or because earlier data is not available.</t>
   </si>
   <si>
+    <t xml:space="preserve">MDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://noi.md/md/societate/coronavirus-in-moldova-statistica-infectarilor-pe-teritoriul-tarii-428097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova Ministry of Health, Labour and Social Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Moldovan Ministry of Health, Labour and Social protection maintains a [website](https://noi.md/md/societate/coronavirus-in-moldova-statistica-infectarilor-pe-teritoriul-tarii-428097) reporting the total number of tests performed.
+According to a government [order](https://msmps.gov.md/wp-content/uploads/2021/03/Ordinul-169-din-03.03.2021-Utilizarea-testelor-rapide-AG-SARS-CoV-2-1.pdf), posted on 3 March 2021, antigen tests can be used to confirm cases of COVID-19 under certain circumstances, and these tests must be reported to the Ministry.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MNG</t>
   </si>
   <si>
@@ -1564,7 +1580,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/16.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/20.5.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1670,7 +1686,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-05/COVID-19_WebSite_rapport_wekelijks_20210511_1153_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-05/COVID-19_WebSite_rapport_wekelijks_20210518_1137_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1799,7 +1815,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3811524705640046</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3822954301163753</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1874,7 +1890,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1HJwtFk2kgtA2c8jADxiOIkRuGycJZ9HJ?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1ACat5a8YCtJDnAi6hU_nJGUQekq95yXw?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1895,7 +1911,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1393849954305671175</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1395299505726050305</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1958,7 +1974,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA%CC%86_16_MAI.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA%CC%86_21_MAI.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1981,7 +1997,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17744</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17832</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2180,7 +2196,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_06_05_21.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_13_05_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2373,7 +2389,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1392821072832208901</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1394944449067761665</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2483,7 +2499,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-16-mayo</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-19-mayo</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2500,7 +2516,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ncov.moh.gov.vn/vi/web/guest/-/6847426-3507</t>
+    <t xml:space="preserve">https://ncov.moh.gov.vn/en/web/guest/-/6847426-3678</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam General Department of Preventive Medicine</t>
@@ -2543,7 +2559,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1393639702247378948</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1395462936039202819</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2960,7 +2976,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44330</v>
+        <v>44335</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2970,31 +2986,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H2" t="n">
-        <v>651538</v>
+        <v>665659</v>
       </c>
       <c r="I2" t="n">
-        <v>226.401</v>
+        <v>231.308</v>
       </c>
       <c r="J2" t="n">
-        <v>2964</v>
+        <v>3051</v>
       </c>
       <c r="K2" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="L2" t="n">
-        <v>2734</v>
+        <v>2812</v>
       </c>
       <c r="M2" t="n">
-        <v>0.95</v>
+        <v>0.977</v>
       </c>
       <c r="N2" t="n">
-        <v>0.019</v>
+        <v>0.013</v>
       </c>
       <c r="O2" t="n">
-        <v>52.9</v>
+        <v>78.7</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3017,7 +3033,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3027,27 +3043,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>186191</v>
+        <v>188280</v>
       </c>
       <c r="I3" t="n">
-        <v>2409.772</v>
+        <v>2436.808</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="M3" t="n">
-        <v>5.022</v>
+        <v>3.857</v>
       </c>
       <c r="N3" t="n">
-        <v>0.049</v>
+        <v>0.06</v>
       </c>
       <c r="O3" t="n">
-        <v>20.3</v>
+        <v>16.6</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3070,7 +3086,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3080,31 +3096,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H4" t="n">
-        <v>9165230</v>
+        <v>9352692</v>
       </c>
       <c r="I4" t="n">
-        <v>202.79</v>
+        <v>206.937</v>
       </c>
       <c r="J4" t="n">
-        <v>35687</v>
+        <v>30449</v>
       </c>
       <c r="K4" t="n">
-        <v>0.79</v>
+        <v>0.674</v>
       </c>
       <c r="L4" t="n">
-        <v>31608</v>
+        <v>33995</v>
       </c>
       <c r="M4" t="n">
-        <v>0.699</v>
+        <v>0.752</v>
       </c>
       <c r="N4" t="n">
-        <v>0.291</v>
+        <v>0.306</v>
       </c>
       <c r="O4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3127,7 +3143,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3137,31 +3153,27 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H5" t="n">
-        <v>1036673</v>
+        <v>1050075</v>
       </c>
       <c r="I5" t="n">
-        <v>349.845</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3160</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.066</v>
-      </c>
+        <v>354.368</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5" t="n">
-        <v>3112</v>
+        <v>3300</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.114</v>
       </c>
       <c r="N5" t="n">
-        <v>0.073</v>
+        <v>0.058</v>
       </c>
       <c r="O5" t="n">
-        <v>13.7</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3184,7 +3196,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3194,27 +3206,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H6" t="n">
-        <v>17542376</v>
+        <v>17734254</v>
       </c>
       <c r="I6" t="n">
-        <v>687.94</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
+        <v>695.464</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55245</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.166</v>
+      </c>
       <c r="L6" t="n">
-        <v>45895</v>
+        <v>46073</v>
       </c>
       <c r="M6" t="n">
-        <v>1.8</v>
+        <v>1.807</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6835.7</v>
+        <v>7678.8</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3237,7 +3253,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3247,31 +3263,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H7" t="n">
-        <v>36393075</v>
+        <v>37237382</v>
       </c>
       <c r="I7" t="n">
-        <v>4040.802</v>
+        <v>4134.547</v>
       </c>
       <c r="J7" t="n">
-        <v>175480</v>
+        <v>396564</v>
       </c>
       <c r="K7" t="n">
-        <v>19.484</v>
+        <v>44.031</v>
       </c>
       <c r="L7" t="n">
-        <v>269843</v>
+        <v>264909</v>
       </c>
       <c r="M7" t="n">
-        <v>29.961</v>
+        <v>29.413</v>
       </c>
       <c r="N7" t="n">
         <v>0.003</v>
       </c>
       <c r="O7" t="n">
-        <v>313.7</v>
+        <v>364</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3294,7 +3310,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44332</v>
+        <v>44337</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3304,32 +3320,28 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>3384053</v>
+        <v>3425183</v>
       </c>
       <c r="I8" t="n">
-        <v>333.76</v>
+        <v>337.817</v>
       </c>
       <c r="J8" t="n">
-        <v>8374</v>
+        <v>10569</v>
       </c>
       <c r="K8" t="n">
-        <v>0.826</v>
+        <v>1.042</v>
       </c>
       <c r="L8" t="n">
-        <v>7581</v>
+        <v>8113</v>
       </c>
       <c r="M8" t="n">
-        <v>0.748</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="O8" t="n">
-        <v>17</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
       <c r="P8" t="s">
         <v>59</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44333</v>
+        <v>44337</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3361,25 +3373,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H9" t="n">
-        <v>4353926</v>
+        <v>4432836</v>
       </c>
       <c r="I9" t="n">
-        <v>2558.75</v>
+        <v>2605.125</v>
       </c>
       <c r="J9" t="n">
-        <v>17767</v>
+        <v>19847</v>
       </c>
       <c r="K9" t="n">
-        <v>10.441</v>
+        <v>11.664</v>
       </c>
       <c r="L9" t="n">
-        <v>16494</v>
+        <v>17841</v>
       </c>
       <c r="M9" t="n">
-        <v>9.693</v>
+        <v>10.485</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3404,7 +3416,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3414,31 +3426,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H10" t="n">
-        <v>5697313</v>
+        <v>5764480</v>
       </c>
       <c r="I10" t="n">
-        <v>34.594</v>
+        <v>35.002</v>
       </c>
       <c r="J10" t="n">
-        <v>5430</v>
+        <v>19437</v>
       </c>
       <c r="K10" t="n">
-        <v>0.033</v>
+        <v>0.118</v>
       </c>
       <c r="L10" t="n">
-        <v>10975</v>
+        <v>12027</v>
       </c>
       <c r="M10" t="n">
-        <v>0.067</v>
+        <v>0.073</v>
       </c>
       <c r="N10" t="n">
-        <v>0.087</v>
+        <v>0.077</v>
       </c>
       <c r="O10" t="n">
-        <v>11.6</v>
+        <v>12.9</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3461,7 +3473,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44333</v>
+        <v>44336</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3471,24 +3483,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H11" t="n">
-        <v>6105215</v>
+        <v>6154084</v>
       </c>
       <c r="I11" t="n">
-        <v>646.101</v>
+        <v>651.273</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>15443</v>
+        <v>16849</v>
       </c>
       <c r="M11" t="n">
-        <v>1.634</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>1.783</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12.7</v>
+      </c>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3510,7 +3526,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3520,31 +3536,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H12" t="n">
-        <v>13286680</v>
+        <v>13483491</v>
       </c>
       <c r="I12" t="n">
-        <v>1146.43</v>
+        <v>1163.411</v>
       </c>
       <c r="J12" t="n">
-        <v>35187</v>
+        <v>62461</v>
       </c>
       <c r="K12" t="n">
-        <v>3.036</v>
+        <v>5.389</v>
       </c>
       <c r="L12" t="n">
-        <v>41963</v>
+        <v>43008</v>
       </c>
       <c r="M12" t="n">
-        <v>3.621</v>
+        <v>3.711</v>
       </c>
       <c r="N12" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="O12" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3567,7 +3583,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3577,31 +3593,27 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H13" t="n">
-        <v>745825</v>
+        <v>758137</v>
       </c>
       <c r="I13" t="n">
-        <v>966.58</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3604</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.671</v>
-      </c>
+        <v>982.537</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="n">
-        <v>2649</v>
+        <v>3124</v>
       </c>
       <c r="M13" t="n">
-        <v>3.433</v>
+        <v>4.049</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O13" t="n">
-        <v>285.3</v>
+        <v>291.6</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -3624,7 +3636,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3634,31 +3646,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H14" t="n">
-        <v>1305414</v>
+        <v>1342772</v>
       </c>
       <c r="I14" t="n">
-        <v>111.832</v>
+        <v>115.032</v>
       </c>
       <c r="J14" t="n">
-        <v>6952</v>
+        <v>12366</v>
       </c>
       <c r="K14" t="n">
-        <v>0.596</v>
+        <v>1.059</v>
       </c>
       <c r="L14" t="n">
-        <v>9247</v>
+        <v>9552</v>
       </c>
       <c r="M14" t="n">
-        <v>0.792</v>
+        <v>0.818</v>
       </c>
       <c r="N14" t="n">
-        <v>0.188</v>
+        <v>0.222</v>
       </c>
       <c r="O14" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="P14" t="s">
         <v>42</v>
@@ -3681,7 +3693,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44333</v>
+        <v>44336</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3691,24 +3703,32 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H15" t="n">
-        <v>945559</v>
+        <v>954240</v>
       </c>
       <c r="I15" t="n">
-        <v>288.209</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15"/>
+        <v>290.855</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2121</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.646</v>
+      </c>
       <c r="L15" t="n">
-        <v>2349</v>
+        <v>2569</v>
       </c>
       <c r="M15" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
+        <v>0.783</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O15" t="n">
+        <v>17.7</v>
+      </c>
       <c r="P15" t="s">
         <v>101</v>
       </c>
@@ -3779,7 +3799,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44333</v>
+        <v>44337</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3789,25 +3809,25 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H17" t="n">
-        <v>2668212</v>
+        <v>2722728</v>
       </c>
       <c r="I17" t="n">
-        <v>384.001</v>
+        <v>391.847</v>
       </c>
       <c r="J17" t="n">
-        <v>4309</v>
+        <v>13163</v>
       </c>
       <c r="K17" t="n">
-        <v>0.62</v>
+        <v>1.894</v>
       </c>
       <c r="L17" t="n">
-        <v>11090</v>
+        <v>11461</v>
       </c>
       <c r="M17" t="n">
-        <v>1.596</v>
+        <v>1.649</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -3889,7 +3909,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -3899,31 +3919,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H19" t="n">
-        <v>33482165</v>
+        <v>33863629</v>
       </c>
       <c r="I19" t="n">
-        <v>887.129</v>
+        <v>897.236</v>
       </c>
       <c r="J19" t="n">
-        <v>98467</v>
+        <v>109518</v>
       </c>
       <c r="K19" t="n">
-        <v>2.609</v>
+        <v>2.902</v>
       </c>
       <c r="L19" t="n">
-        <v>117916</v>
+        <v>104773</v>
       </c>
       <c r="M19" t="n">
-        <v>3.124</v>
+        <v>2.776</v>
       </c>
       <c r="N19" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>20.6</v>
       </c>
       <c r="P19" t="s">
         <v>119</v>
@@ -3946,7 +3966,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -3956,15 +3976,15 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>2220</v>
+        <v>1470</v>
       </c>
       <c r="K20" t="n">
-        <v>3.993</v>
+        <v>2.644</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -3991,7 +4011,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -4001,25 +4021,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H21" t="n">
-        <v>13947396</v>
+        <v>14145067</v>
       </c>
       <c r="I21" t="n">
-        <v>729.611</v>
+        <v>739.951</v>
       </c>
       <c r="J21" t="n">
-        <v>65886</v>
+        <v>68721</v>
       </c>
       <c r="K21" t="n">
-        <v>3.447</v>
+        <v>3.595</v>
       </c>
       <c r="L21" t="n">
-        <v>55749</v>
+        <v>56398</v>
       </c>
       <c r="M21" t="n">
-        <v>2.916</v>
+        <v>2.95</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4089,7 +4109,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -4099,28 +4119,28 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H23" t="n">
-        <v>15882789</v>
+        <v>16103661</v>
       </c>
       <c r="I23" t="n">
-        <v>312.144</v>
+        <v>316.485</v>
       </c>
       <c r="J23" t="n">
-        <v>61453</v>
+        <v>71291</v>
       </c>
       <c r="K23" t="n">
-        <v>1.208</v>
+        <v>1.401</v>
       </c>
       <c r="L23" t="n">
-        <v>69734</v>
+        <v>61952</v>
       </c>
       <c r="M23" t="n">
-        <v>1.37</v>
+        <v>1.218</v>
       </c>
       <c r="N23" t="n">
-        <v>0.263</v>
+        <v>0.266</v>
       </c>
       <c r="O23" t="n">
         <v>3.8</v>
@@ -4146,7 +4166,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="D24" t="s">
         <v>151</v>
@@ -4156,31 +4176,31 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H24" t="n">
-        <v>917453</v>
+        <v>941538</v>
       </c>
       <c r="I24" t="n">
-        <v>180.101</v>
+        <v>184.829</v>
       </c>
       <c r="J24" t="n">
-        <v>8913</v>
+        <v>4800</v>
       </c>
       <c r="K24" t="n">
-        <v>1.75</v>
+        <v>0.942</v>
       </c>
       <c r="L24" t="n">
-        <v>7384</v>
+        <v>6954</v>
       </c>
       <c r="M24" t="n">
-        <v>1.45</v>
+        <v>1.365</v>
       </c>
       <c r="N24" t="n">
-        <v>0.271</v>
+        <v>0.289</v>
       </c>
       <c r="O24" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="P24" t="s">
         <v>152</v>
@@ -4203,7 +4223,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -4213,31 +4233,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H25" t="n">
-        <v>621411</v>
+        <v>627781</v>
       </c>
       <c r="I25" t="n">
-        <v>23.558</v>
+        <v>23.799</v>
       </c>
       <c r="J25" t="n">
-        <v>1670</v>
+        <v>2158</v>
       </c>
       <c r="K25" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1672</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.063</v>
       </c>
-      <c r="L25" t="n">
-        <v>1470</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.056</v>
-      </c>
       <c r="N25" t="n">
-        <v>0.021</v>
+        <v>0.027</v>
       </c>
       <c r="O25" t="n">
-        <v>48.1</v>
+        <v>37.3</v>
       </c>
       <c r="P25" t="s">
         <v>157</v>
@@ -4260,7 +4280,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44332</v>
+        <v>44337</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4270,32 +4290,28 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H26" t="n">
-        <v>1927262</v>
+        <v>1958888</v>
       </c>
       <c r="I26" t="n">
-        <v>469.461</v>
+        <v>477.164</v>
       </c>
       <c r="J26" t="n">
-        <v>6946</v>
+        <v>5829</v>
       </c>
       <c r="K26" t="n">
-        <v>1.692</v>
+        <v>1.42</v>
       </c>
       <c r="L26" t="n">
-        <v>6987</v>
+        <v>6556</v>
       </c>
       <c r="M26" t="n">
-        <v>1.702</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="O26" t="n">
-        <v>8.3</v>
-      </c>
+        <v>1.597</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
       <c r="P26" t="s">
         <v>163</v>
       </c>
@@ -4317,7 +4333,7 @@
         <v>167</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D27" t="s">
         <v>168</v>
@@ -4329,31 +4345,31 @@
         <v>170</v>
       </c>
       <c r="G27" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H27" t="n">
-        <v>3993104</v>
+        <v>4082100</v>
       </c>
       <c r="I27" t="n">
-        <v>352.542</v>
+        <v>360.399</v>
       </c>
       <c r="J27" t="n">
-        <v>23021</v>
+        <v>21574</v>
       </c>
       <c r="K27" t="n">
-        <v>2.032</v>
+        <v>1.905</v>
       </c>
       <c r="L27" t="n">
-        <v>22251</v>
+        <v>22670</v>
       </c>
       <c r="M27" t="n">
-        <v>1.964</v>
+        <v>2.001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="O27" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="P27" t="s">
         <v>169</v>
@@ -4376,7 +4392,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
@@ -4386,31 +4402,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H28" t="n">
-        <v>6216094</v>
+        <v>6417654</v>
       </c>
       <c r="I28" t="n">
-        <v>7096.816</v>
+        <v>7326.934</v>
       </c>
       <c r="J28" t="n">
-        <v>63798</v>
+        <v>49364</v>
       </c>
       <c r="K28" t="n">
-        <v>72.837</v>
+        <v>56.358</v>
       </c>
       <c r="L28" t="n">
-        <v>74095</v>
+        <v>63074</v>
       </c>
       <c r="M28" t="n">
-        <v>84.593</v>
+        <v>72.011</v>
       </c>
       <c r="N28" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O28" t="n">
-        <v>317.8</v>
+        <v>424.9</v>
       </c>
       <c r="P28" t="s">
         <v>42</v>
@@ -4433,7 +4449,7 @@
         <v>178</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D29" t="s">
         <v>179</v>
@@ -4443,27 +4459,27 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>61006</v>
+        <v>201632</v>
       </c>
       <c r="K29" t="n">
-        <v>5.697</v>
+        <v>18.828</v>
       </c>
       <c r="L29" t="n">
-        <v>180401</v>
+        <v>188861</v>
       </c>
       <c r="M29" t="n">
-        <v>16.846</v>
+        <v>17.636</v>
       </c>
       <c r="N29" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O29" t="n">
-        <v>166.7</v>
+        <v>250</v>
       </c>
       <c r="P29" t="s">
         <v>42</v>
@@ -4486,7 +4502,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4496,27 +4512,27 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>255</v>
+        <v>438</v>
       </c>
       <c r="K30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L30" t="n">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
         <v>0.003</v>
       </c>
-      <c r="L30" t="n">
-        <v>326</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.004</v>
-      </c>
       <c r="N30" t="n">
-        <v>0.131</v>
+        <v>0.176</v>
       </c>
       <c r="O30" t="n">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4649,7 +4665,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44331</v>
+        <v>44336</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4661,31 +4677,31 @@
         <v>203</v>
       </c>
       <c r="G33" t="n">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H33" t="n">
-        <v>1312352</v>
+        <v>1331176</v>
       </c>
       <c r="I33" t="n">
-        <v>74.383</v>
+        <v>75.45</v>
       </c>
       <c r="J33" t="n">
-        <v>8233</v>
+        <v>6060</v>
       </c>
       <c r="K33" t="n">
-        <v>0.467</v>
+        <v>0.343</v>
       </c>
       <c r="L33" t="n">
-        <v>4679</v>
+        <v>4417</v>
       </c>
       <c r="M33" t="n">
-        <v>0.265</v>
+        <v>0.25</v>
       </c>
       <c r="N33" t="n">
-        <v>0.324</v>
+        <v>0.306</v>
       </c>
       <c r="O33" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P33" t="s">
         <v>204</v>
@@ -4765,7 +4781,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D35" t="s">
         <v>215</v>
@@ -4775,31 +4791,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H35" t="n">
-        <v>1368621</v>
+        <v>1390533</v>
       </c>
       <c r="I35" t="n">
-        <v>1031.723</v>
+        <v>1048.241</v>
       </c>
       <c r="J35" t="n">
-        <v>2885</v>
+        <v>4731</v>
       </c>
       <c r="K35" t="n">
-        <v>2.175</v>
+        <v>3.566</v>
       </c>
       <c r="L35" t="n">
-        <v>4419</v>
+        <v>4754</v>
       </c>
       <c r="M35" t="n">
-        <v>3.331</v>
+        <v>3.584</v>
       </c>
       <c r="N35" t="n">
-        <v>0.062</v>
+        <v>0.052</v>
       </c>
       <c r="O35" t="n">
-        <v>16.1</v>
+        <v>19.3</v>
       </c>
       <c r="P35" t="s">
         <v>216</v>
@@ -4822,7 +4838,7 @@
         <v>219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D36" t="s">
         <v>220</v>
@@ -4832,31 +4848,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H36" t="n">
-        <v>2652558</v>
+        <v>2672100</v>
       </c>
       <c r="I36" t="n">
-        <v>23.073</v>
+        <v>23.243</v>
       </c>
       <c r="J36" t="n">
-        <v>4071</v>
+        <v>5684</v>
       </c>
       <c r="K36" t="n">
-        <v>0.035</v>
+        <v>0.049</v>
       </c>
       <c r="L36" t="n">
-        <v>4566</v>
+        <v>4544</v>
       </c>
       <c r="M36" t="n">
         <v>0.04</v>
       </c>
       <c r="N36" t="n">
-        <v>0.111</v>
+        <v>0.097</v>
       </c>
       <c r="O36" t="n">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="P36" t="s">
         <v>221</v>
@@ -4936,7 +4952,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -4946,31 +4962,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H38" t="n">
-        <v>4766115</v>
+        <v>4851638</v>
       </c>
       <c r="I38" t="n">
-        <v>860.198</v>
+        <v>875.633</v>
       </c>
       <c r="J38" t="n">
-        <v>2224</v>
+        <v>14901</v>
       </c>
       <c r="K38" t="n">
-        <v>0.401</v>
+        <v>2.689</v>
       </c>
       <c r="L38" t="n">
-        <v>12668</v>
+        <v>14547</v>
       </c>
       <c r="M38" t="n">
-        <v>2.286</v>
+        <v>2.625</v>
       </c>
       <c r="N38" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O38" t="n">
-        <v>67.3</v>
+        <v>71.9</v>
       </c>
       <c r="P38" t="s">
         <v>232</v>
@@ -4993,7 +5009,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44328</v>
+        <v>44333</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5003,27 +5019,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>451838</v>
+        <v>468622</v>
       </c>
       <c r="K39" t="n">
-        <v>6.688</v>
+        <v>6.936</v>
       </c>
       <c r="L39" t="n">
-        <v>368384</v>
+        <v>314704</v>
       </c>
       <c r="M39" t="n">
-        <v>5.452</v>
+        <v>4.658</v>
       </c>
       <c r="N39" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="O39" t="n">
-        <v>22.2</v>
+        <v>25</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5103,7 +5119,7 @@
         <v>245</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="D41" t="s">
         <v>246</v>
@@ -5113,27 +5129,27 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H41" t="n">
-        <v>4476000</v>
+        <v>4679000</v>
       </c>
       <c r="I41" t="n">
-        <v>1122.037</v>
+        <v>1172.924</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>26429</v>
+        <v>29000</v>
       </c>
       <c r="M41" t="n">
-        <v>6.625</v>
+        <v>7.27</v>
       </c>
       <c r="N41" t="n">
-        <v>0.047</v>
+        <v>0.041</v>
       </c>
       <c r="O41" t="n">
-        <v>21.2</v>
+        <v>24.6</v>
       </c>
       <c r="P41" t="s">
         <v>247</v>
@@ -5156,7 +5172,7 @@
         <v>251</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44325</v>
+        <v>44332</v>
       </c>
       <c r="D42" t="s">
         <v>252</v>
@@ -5166,27 +5182,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H42" t="n">
-        <v>58024575</v>
+        <v>59128146</v>
       </c>
       <c r="I42" t="n">
-        <v>692.55</v>
+        <v>705.722</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>175455</v>
+        <v>154697</v>
       </c>
       <c r="M42" t="n">
-        <v>2.094</v>
+        <v>1.846</v>
       </c>
       <c r="N42" t="n">
-        <v>0.103</v>
+        <v>0.083</v>
       </c>
       <c r="O42" t="n">
-        <v>9.7</v>
+        <v>12</v>
       </c>
       <c r="P42" t="s">
         <v>253</v>
@@ -5209,7 +5225,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44327</v>
+        <v>44331</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5219,31 +5235,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H43" t="n">
-        <v>1118523</v>
+        <v>1130406</v>
       </c>
       <c r="I43" t="n">
-        <v>35.997</v>
+        <v>36.379</v>
       </c>
       <c r="J43" t="n">
-        <v>2010</v>
+        <v>3270</v>
       </c>
       <c r="K43" t="n">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
       <c r="L43" t="n">
-        <v>2695</v>
+        <v>2752</v>
       </c>
       <c r="M43" t="n">
-        <v>0.087</v>
+        <v>0.089</v>
       </c>
       <c r="N43" t="n">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="O43" t="n">
-        <v>69.6</v>
+        <v>49.8</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5323,7 +5339,7 @@
         <v>270</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44328</v>
+        <v>44335</v>
       </c>
       <c r="D45" t="s">
         <v>271</v>
@@ -5333,31 +5349,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H45" t="n">
-        <v>1328843</v>
+        <v>1368017</v>
       </c>
       <c r="I45" t="n">
-        <v>74.173</v>
+        <v>76.359</v>
       </c>
       <c r="J45" t="n">
-        <v>7029</v>
+        <v>7615</v>
       </c>
       <c r="K45" t="n">
-        <v>0.392</v>
+        <v>0.425</v>
       </c>
       <c r="L45" t="n">
-        <v>5468</v>
+        <v>5669</v>
       </c>
       <c r="M45" t="n">
-        <v>0.305</v>
+        <v>0.316</v>
       </c>
       <c r="N45" t="n">
-        <v>0.167</v>
+        <v>0.155</v>
       </c>
       <c r="O45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P45" t="s">
         <v>273</v>
@@ -5433,7 +5449,7 @@
         <v>284</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44333</v>
+        <v>44337</v>
       </c>
       <c r="D47" t="s">
         <v>285</v>
@@ -5445,25 +5461,25 @@
         <v>287</v>
       </c>
       <c r="G47" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H47" t="n">
-        <v>5198191</v>
+        <v>5246912</v>
       </c>
       <c r="I47" t="n">
-        <v>538.096</v>
+        <v>543.139</v>
       </c>
       <c r="J47" t="n">
-        <v>10365</v>
+        <v>10631</v>
       </c>
       <c r="K47" t="n">
-        <v>1.073</v>
+        <v>1.1</v>
       </c>
       <c r="L47" t="n">
-        <v>15748</v>
+        <v>12916</v>
       </c>
       <c r="M47" t="n">
-        <v>1.63</v>
+        <v>1.337</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5488,7 +5504,7 @@
         <v>291</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="D48" t="s">
         <v>292</v>
@@ -5498,25 +5514,25 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H48" t="n">
-        <v>368203</v>
+        <v>372006</v>
       </c>
       <c r="I48" t="n">
-        <v>1078.983</v>
+        <v>1090.127</v>
       </c>
       <c r="J48" t="n">
-        <v>828</v>
+        <v>1248</v>
       </c>
       <c r="K48" t="n">
-        <v>2.426</v>
+        <v>3.657</v>
       </c>
       <c r="L48" t="n">
-        <v>1177</v>
+        <v>1095</v>
       </c>
       <c r="M48" t="n">
-        <v>3.449</v>
+        <v>3.209</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -5541,7 +5557,7 @@
         <v>296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44331</v>
+        <v>44337</v>
       </c>
       <c r="D49" t="s">
         <v>297</v>
@@ -5553,32 +5569,28 @@
         <v>299</v>
       </c>
       <c r="G49" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H49" t="n">
-        <v>313017193</v>
+        <v>324417870</v>
       </c>
       <c r="I49" t="n">
-        <v>226.823</v>
+        <v>235.085</v>
       </c>
       <c r="J49" t="n">
-        <v>1693093</v>
+        <v>2061683</v>
       </c>
       <c r="K49" t="n">
-        <v>1.227</v>
+        <v>1.494</v>
       </c>
       <c r="L49" t="n">
-        <v>1801021</v>
+        <v>1870539</v>
       </c>
       <c r="M49" t="n">
-        <v>1.305</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="O49" t="n">
-        <v>5.3</v>
-      </c>
+        <v>1.355</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
       <c r="P49" t="s">
         <v>298</v>
       </c>
@@ -5600,7 +5612,7 @@
         <v>302</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D50" t="s">
         <v>303</v>
@@ -5610,31 +5622,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H50" t="n">
-        <v>10409178</v>
+        <v>10598569</v>
       </c>
       <c r="I50" t="n">
-        <v>38.056</v>
+        <v>38.748</v>
       </c>
       <c r="J50" t="n">
-        <v>27640</v>
+        <v>55741</v>
       </c>
       <c r="K50" t="n">
-        <v>0.101</v>
+        <v>0.204</v>
       </c>
       <c r="L50" t="n">
-        <v>29073</v>
+        <v>36499</v>
       </c>
       <c r="M50" t="n">
-        <v>0.106</v>
+        <v>0.133</v>
       </c>
       <c r="N50" t="n">
-        <v>0.128</v>
+        <v>0.107</v>
       </c>
       <c r="O50" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="P50" t="s">
         <v>304</v>
@@ -5657,7 +5669,7 @@
         <v>308</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44333</v>
+        <v>44337</v>
       </c>
       <c r="D51" t="s">
         <v>309</v>
@@ -5667,21 +5679,21 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H51" t="n">
-        <v>18151487</v>
+        <v>18683814</v>
       </c>
       <c r="I51" t="n">
-        <v>216.107</v>
+        <v>222.445</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>134965</v>
+        <v>133373</v>
       </c>
       <c r="M51" t="n">
-        <v>1.607</v>
+        <v>1.588</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -5706,7 +5718,7 @@
         <v>314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D52" t="s">
         <v>315</v>
@@ -5716,31 +5728,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H52" t="n">
-        <v>9855685</v>
+        <v>9970564</v>
       </c>
       <c r="I52" t="n">
-        <v>245.029</v>
+        <v>247.885</v>
       </c>
       <c r="J52" t="n">
-        <v>15036</v>
+        <v>40706</v>
       </c>
       <c r="K52" t="n">
-        <v>0.374</v>
+        <v>1.012</v>
       </c>
       <c r="L52" t="n">
-        <v>30907</v>
+        <v>27621</v>
       </c>
       <c r="M52" t="n">
-        <v>0.768</v>
+        <v>0.687</v>
       </c>
       <c r="N52" t="n">
-        <v>0.131</v>
+        <v>0.124</v>
       </c>
       <c r="O52" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="P52" t="s">
         <v>317</v>
@@ -5820,7 +5832,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -5830,31 +5842,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H54" t="n">
-        <v>16561281</v>
+        <v>16669168</v>
       </c>
       <c r="I54" t="n">
-        <v>1913.373</v>
+        <v>1925.838</v>
       </c>
       <c r="J54" t="n">
-        <v>6069</v>
+        <v>24971</v>
       </c>
       <c r="K54" t="n">
-        <v>0.701</v>
+        <v>2.885</v>
       </c>
       <c r="L54" t="n">
-        <v>23271</v>
+        <v>20124</v>
       </c>
       <c r="M54" t="n">
-        <v>2.689</v>
+        <v>2.325</v>
       </c>
       <c r="N54" t="n">
         <v>0.001</v>
       </c>
       <c r="O54" t="n">
-        <v>724</v>
+        <v>690.5</v>
       </c>
       <c r="P54" t="s">
         <v>42</v>
@@ -5877,7 +5889,7 @@
         <v>333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D55" t="s">
         <v>334</v>
@@ -5889,31 +5901,31 @@
         <v>336</v>
       </c>
       <c r="G55" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H55" t="n">
-        <v>27119978</v>
+        <v>27404562</v>
       </c>
       <c r="I55" t="n">
-        <v>448.547</v>
+        <v>453.254</v>
       </c>
       <c r="J55" t="n">
-        <v>69463</v>
+        <v>78957</v>
       </c>
       <c r="K55" t="n">
-        <v>1.149</v>
+        <v>1.306</v>
       </c>
       <c r="L55" t="n">
-        <v>82992</v>
+        <v>77384</v>
       </c>
       <c r="M55" t="n">
-        <v>1.373</v>
+        <v>1.28</v>
       </c>
       <c r="N55" t="n">
-        <v>0.082</v>
+        <v>0.072</v>
       </c>
       <c r="O55" t="n">
-        <v>12.1</v>
+        <v>13.9</v>
       </c>
       <c r="P55" t="s">
         <v>337</v>
@@ -5936,7 +5948,7 @@
         <v>340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D56" t="s">
         <v>334</v>
@@ -5948,31 +5960,31 @@
         <v>336</v>
       </c>
       <c r="G56" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H56" t="n">
-        <v>62902667</v>
+        <v>63822748</v>
       </c>
       <c r="I56" t="n">
-        <v>1040.37</v>
+        <v>1055.587</v>
       </c>
       <c r="J56" t="n">
-        <v>202573</v>
+        <v>251037</v>
       </c>
       <c r="K56" t="n">
-        <v>3.35</v>
+        <v>4.152</v>
       </c>
       <c r="L56" t="n">
-        <v>257949</v>
+        <v>245075</v>
       </c>
       <c r="M56" t="n">
-        <v>4.266</v>
+        <v>4.053</v>
       </c>
       <c r="N56" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="O56" t="n">
-        <v>37.7</v>
+        <v>43.9</v>
       </c>
       <c r="P56" t="s">
         <v>337</v>
@@ -6048,7 +6060,7 @@
         <v>349</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D58" t="s">
         <v>350</v>
@@ -6058,31 +6070,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H58" t="n">
-        <v>12414450</v>
+        <v>12842748</v>
       </c>
       <c r="I58" t="n">
-        <v>98.156</v>
+        <v>101.543</v>
       </c>
       <c r="J58" t="n">
-        <v>35948</v>
+        <v>97287</v>
       </c>
       <c r="K58" t="n">
-        <v>0.284</v>
+        <v>0.769</v>
       </c>
       <c r="L58" t="n">
-        <v>91397</v>
+        <v>90113</v>
       </c>
       <c r="M58" t="n">
-        <v>0.723</v>
+        <v>0.712</v>
       </c>
       <c r="N58" t="n">
-        <v>0.067</v>
+        <v>0.061</v>
       </c>
       <c r="O58" t="n">
-        <v>14.9</v>
+        <v>16.4</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6105,7 +6117,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6115,31 +6127,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H59" t="n">
-        <v>6903678</v>
+        <v>7060976</v>
       </c>
       <c r="I59" t="n">
-        <v>676.623</v>
+        <v>692.04</v>
       </c>
       <c r="J59" t="n">
-        <v>10417</v>
+        <v>26307</v>
       </c>
       <c r="K59" t="n">
-        <v>1.021</v>
+        <v>2.578</v>
       </c>
       <c r="L59" t="n">
-        <v>15080</v>
+        <v>22471</v>
       </c>
       <c r="M59" t="n">
-        <v>1.478</v>
+        <v>2.202</v>
       </c>
       <c r="N59" t="n">
-        <v>0.046</v>
+        <v>0.023</v>
       </c>
       <c r="O59" t="n">
-        <v>21.9</v>
+        <v>42.8</v>
       </c>
       <c r="P59" t="s">
         <v>357</v>
@@ -6162,7 +6174,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44333</v>
+        <v>44336</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6172,28 +6184,32 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H60" t="n">
-        <v>10989671</v>
+        <v>11121017</v>
       </c>
       <c r="I60" t="n">
-        <v>585.282</v>
+        <v>592.277</v>
       </c>
       <c r="J60" t="n">
-        <v>62293</v>
+        <v>55827</v>
       </c>
       <c r="K60" t="n">
-        <v>3.318</v>
+        <v>2.973</v>
       </c>
       <c r="L60" t="n">
-        <v>51201</v>
+        <v>53028</v>
       </c>
       <c r="M60" t="n">
-        <v>2.727</v>
-      </c>
-      <c r="N60"/>
-      <c r="O60"/>
+        <v>2.824</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O60" t="n">
+        <v>23</v>
+      </c>
       <c r="P60" t="s">
         <v>363</v>
       </c>
@@ -6268,7 +6284,7 @@
         <v>371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D62" t="s">
         <v>372</v>
@@ -6278,31 +6294,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H62" t="n">
-        <v>2460103</v>
+        <v>2497684</v>
       </c>
       <c r="I62" t="n">
-        <v>576.061</v>
+        <v>584.861</v>
       </c>
       <c r="J62" t="n">
-        <v>6996</v>
+        <v>10660</v>
       </c>
       <c r="K62" t="n">
-        <v>1.638</v>
+        <v>2.496</v>
       </c>
       <c r="L62" t="n">
-        <v>8052</v>
+        <v>8394</v>
       </c>
       <c r="M62" t="n">
-        <v>1.885</v>
+        <v>1.966</v>
       </c>
       <c r="N62" t="n">
-        <v>0.116</v>
+        <v>0.113</v>
       </c>
       <c r="O62" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6325,7 +6341,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44333</v>
+        <v>44337</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6337,25 +6353,25 @@
         <v>380</v>
       </c>
       <c r="G63" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H63" t="n">
-        <v>2448070</v>
+        <v>2513295</v>
       </c>
       <c r="I63" t="n">
-        <v>1297.883</v>
+        <v>1332.463</v>
       </c>
       <c r="J63" t="n">
-        <v>4112</v>
+        <v>15458</v>
       </c>
       <c r="K63" t="n">
-        <v>2.18</v>
+        <v>8.195</v>
       </c>
       <c r="L63" t="n">
-        <v>12627</v>
+        <v>12784</v>
       </c>
       <c r="M63" t="n">
-        <v>6.694</v>
+        <v>6.778</v>
       </c>
       <c r="N63"/>
       <c r="O63"/>
@@ -6380,7 +6396,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6390,21 +6406,25 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>4183866</v>
+        <v>4241656</v>
       </c>
       <c r="I64" t="n">
-        <v>612.981</v>
-      </c>
-      <c r="J64"/>
-      <c r="K64"/>
+        <v>621.448</v>
+      </c>
+      <c r="J64" t="n">
+        <v>17274</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.531</v>
+      </c>
       <c r="L64" t="n">
-        <v>10779</v>
+        <v>12896</v>
       </c>
       <c r="M64" t="n">
-        <v>1.579</v>
+        <v>1.889</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6429,7 +6449,7 @@
         <v>388</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44331</v>
+        <v>44336</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -6439,15 +6459,15 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>1863</v>
+        <v>2670</v>
       </c>
       <c r="K65" t="n">
-        <v>0.271</v>
+        <v>0.389</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -6474,7 +6494,7 @@
         <v>394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44331</v>
+        <v>44334</v>
       </c>
       <c r="D66" t="s">
         <v>395</v>
@@ -6484,31 +6504,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H66" t="n">
-        <v>43586</v>
+        <v>44123</v>
       </c>
       <c r="I66" t="n">
-        <v>1142.88</v>
+        <v>1156.96</v>
       </c>
       <c r="J66" t="n">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="K66" t="n">
-        <v>2.832</v>
+        <v>6.267</v>
       </c>
       <c r="L66" t="n">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M66" t="n">
-        <v>5.087</v>
+        <v>4.641</v>
       </c>
       <c r="N66" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="O66" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="P66" t="s">
         <v>396</v>
@@ -6531,7 +6551,7 @@
         <v>400</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6541,25 +6561,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H67" t="n">
-        <v>3165520</v>
+        <v>3200375</v>
       </c>
       <c r="I67" t="n">
-        <v>1162.815</v>
+        <v>1175.618</v>
       </c>
       <c r="J67" t="n">
-        <v>25180</v>
+        <v>12055</v>
       </c>
       <c r="K67" t="n">
-        <v>9.25</v>
+        <v>4.428</v>
       </c>
       <c r="L67" t="n">
-        <v>20588</v>
+        <v>19887</v>
       </c>
       <c r="M67" t="n">
-        <v>7.563</v>
+        <v>7.305</v>
       </c>
       <c r="N67" t="n">
         <v>0.058</v>
@@ -6588,7 +6608,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D68" t="s">
         <v>406</v>
@@ -6598,31 +6618,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H68" t="n">
-        <v>2778309</v>
+        <v>2807974</v>
       </c>
       <c r="I68" t="n">
-        <v>4438.363</v>
+        <v>4485.753</v>
       </c>
       <c r="J68" t="n">
-        <v>7347</v>
+        <v>10397</v>
       </c>
       <c r="K68" t="n">
-        <v>11.737</v>
+        <v>16.609</v>
       </c>
       <c r="L68" t="n">
-        <v>7091</v>
+        <v>6917</v>
       </c>
       <c r="M68" t="n">
-        <v>11.328</v>
+        <v>11.05</v>
       </c>
       <c r="N68" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="O68" t="n">
-        <v>64.5</v>
+        <v>74.5</v>
       </c>
       <c r="P68" t="s">
         <v>407</v>
@@ -6755,7 +6775,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6767,31 +6787,31 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H71" t="n">
-        <v>10503288</v>
+        <v>10876983</v>
       </c>
       <c r="I71" t="n">
-        <v>324.516</v>
+        <v>336.062</v>
       </c>
       <c r="J71" t="n">
-        <v>58279</v>
+        <v>111381</v>
       </c>
       <c r="K71" t="n">
-        <v>1.801</v>
+        <v>3.441</v>
       </c>
       <c r="L71" t="n">
-        <v>63969</v>
+        <v>76556</v>
       </c>
       <c r="M71" t="n">
-        <v>1.976</v>
+        <v>2.365</v>
       </c>
       <c r="N71" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="O71" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="P71" t="s">
         <v>42</v>
@@ -6814,7 +6834,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -6824,31 +6844,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H72" t="n">
-        <v>795204</v>
+        <v>825494</v>
       </c>
       <c r="I72" t="n">
-        <v>1471.123</v>
+        <v>1527.16</v>
       </c>
       <c r="J72" t="n">
-        <v>4500</v>
+        <v>7259</v>
       </c>
       <c r="K72" t="n">
-        <v>8.325</v>
+        <v>13.429</v>
       </c>
       <c r="L72" t="n">
-        <v>4759</v>
+        <v>4327</v>
       </c>
       <c r="M72" t="n">
-        <v>8.804</v>
+        <v>8.005</v>
       </c>
       <c r="N72" t="n">
-        <v>0.238</v>
+        <v>0.313</v>
       </c>
       <c r="O72" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -6977,7 +6997,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -6987,31 +7007,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H75" t="n">
-        <v>6417232</v>
+        <v>6467187</v>
       </c>
       <c r="I75" t="n">
-        <v>49.772</v>
+        <v>50.159</v>
       </c>
       <c r="J75" t="n">
-        <v>2226</v>
+        <v>6597</v>
       </c>
       <c r="K75" t="n">
-        <v>0.017</v>
+        <v>0.051</v>
       </c>
       <c r="L75" t="n">
-        <v>9032</v>
+        <v>9039</v>
       </c>
       <c r="M75" t="n">
         <v>0.07</v>
       </c>
       <c r="N75" t="n">
-        <v>0.178</v>
+        <v>0.174</v>
       </c>
       <c r="O75" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="P75" t="s">
         <v>451</v>
@@ -7034,50 +7054,38 @@
         <v>454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44328</v>
+        <v>44336</v>
       </c>
       <c r="D76" t="s">
         <v>455</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>456</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>2800505</v>
+        <v>1070467</v>
       </c>
       <c r="I76" t="n">
-        <v>854.257</v>
-      </c>
-      <c r="J76" t="n">
-        <v>7500</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.288</v>
-      </c>
-      <c r="L76" t="n">
-        <v>7916</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2.415</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="O76" t="n">
-        <v>10.1</v>
-      </c>
+        <v>265.364</v>
+      </c>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
       <c r="P76" t="s">
-        <v>42</v>
+        <v>456</v>
       </c>
       <c r="Q76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R76" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="S76" t="s">
         <v>457</v>
@@ -7091,425 +7099,437 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44332</v>
+        <v>44328</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
       </c>
       <c r="E77" t="s">
-        <v>461</v>
+        <v>42</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>442</v>
+        <v>176</v>
       </c>
       <c r="H77" t="n">
-        <v>5865945</v>
+        <v>2800505</v>
       </c>
       <c r="I77" t="n">
-        <v>158.923</v>
+        <v>854.257</v>
       </c>
       <c r="J77" t="n">
-        <v>6343</v>
+        <v>7500</v>
       </c>
       <c r="K77" t="n">
-        <v>0.172</v>
+        <v>2.288</v>
       </c>
       <c r="L77" t="n">
-        <v>6099</v>
+        <v>7916</v>
       </c>
       <c r="M77" t="n">
-        <v>0.165</v>
+        <v>2.415</v>
       </c>
       <c r="N77" t="n">
-        <v>0.025</v>
+        <v>0.099</v>
       </c>
       <c r="O77" t="n">
-        <v>39.5</v>
+        <v>10.1</v>
       </c>
       <c r="P77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q77" t="s">
         <v>461</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
+        <v>91</v>
+      </c>
+      <c r="S77" t="s">
         <v>462</v>
-      </c>
-      <c r="R77" t="s">
-        <v>31</v>
-      </c>
-      <c r="S77" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>463</v>
+      </c>
+      <c r="B78" t="s">
         <v>464</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D78" t="s">
         <v>465</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <v>44328</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>466</v>
-      </c>
-      <c r="E78" t="s">
-        <v>467</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="H78" t="n">
-        <v>530868</v>
+        <v>5900808</v>
       </c>
       <c r="I78" t="n">
-        <v>16.985</v>
+        <v>159.868</v>
       </c>
       <c r="J78" t="n">
-        <v>1322</v>
+        <v>10405</v>
       </c>
       <c r="K78" t="n">
-        <v>0.042</v>
+        <v>0.282</v>
       </c>
       <c r="L78" t="n">
-        <v>1126</v>
+        <v>6901</v>
       </c>
       <c r="M78" t="n">
-        <v>0.036</v>
+        <v>0.187</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="O78" t="n">
-        <v>33.5</v>
+        <v>34</v>
       </c>
       <c r="P78" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q78" t="s">
         <v>467</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
+        <v>31</v>
+      </c>
+      <c r="S78" t="s">
         <v>468</v>
-      </c>
-      <c r="R78" t="s">
-        <v>66</v>
-      </c>
-      <c r="S78" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>469</v>
+      </c>
+      <c r="B79" t="s">
         <v>470</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>44328</v>
+      </c>
+      <c r="D79" t="s">
         <v>471</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>44329</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>472</v>
-      </c>
-      <c r="E79" t="s">
-        <v>473</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="H79" t="n">
-        <v>2597378</v>
+        <v>530868</v>
       </c>
       <c r="I79" t="n">
-        <v>47.737</v>
+        <v>16.985</v>
       </c>
       <c r="J79" t="n">
-        <v>2019</v>
+        <v>1322</v>
       </c>
       <c r="K79" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
+        <v>0.042</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1126</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O79" t="n">
+        <v>33.5</v>
+      </c>
       <c r="P79" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q79" t="s">
         <v>473</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
+        <v>66</v>
+      </c>
+      <c r="S79" t="s">
         <v>474</v>
-      </c>
-      <c r="R79" t="s">
-        <v>91</v>
-      </c>
-      <c r="S79" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>475</v>
+      </c>
+      <c r="B80" t="s">
         <v>476</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="n">
+        <v>44329</v>
+      </c>
+      <c r="D80" t="s">
         <v>477</v>
       </c>
-      <c r="C80" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>478</v>
-      </c>
-      <c r="E80" t="s">
-        <v>479</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="H80" t="n">
-        <v>409887</v>
+        <v>2597378</v>
       </c>
       <c r="I80" t="n">
-        <v>161.315</v>
+        <v>47.737</v>
       </c>
       <c r="J80" t="n">
-        <v>845</v>
+        <v>2019</v>
       </c>
       <c r="K80" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1313</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="O80" t="n">
-        <v>8</v>
-      </c>
+        <v>0.037</v>
+      </c>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
       <c r="P80" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Q80" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="R80" t="s">
         <v>91</v>
       </c>
       <c r="S80" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="D81" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E81" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="H81" t="n">
-        <v>2770980</v>
+        <v>409887</v>
       </c>
       <c r="I81" t="n">
-        <v>95.102</v>
+        <v>161.315</v>
       </c>
       <c r="J81" t="n">
-        <v>19499</v>
+        <v>845</v>
       </c>
       <c r="K81" t="n">
-        <v>0.669</v>
+        <v>0.333</v>
       </c>
       <c r="L81" t="n">
-        <v>19497</v>
+        <v>1313</v>
       </c>
       <c r="M81" t="n">
-        <v>0.669</v>
+        <v>0.517</v>
       </c>
       <c r="N81" t="n">
-        <v>0.442</v>
+        <v>0.125</v>
       </c>
       <c r="O81" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="P81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q81" t="s">
         <v>486</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
+        <v>91</v>
+      </c>
+      <c r="S81" t="s">
         <v>487</v>
-      </c>
-      <c r="R81" t="s">
-        <v>37</v>
-      </c>
-      <c r="S81" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" t="s">
         <v>489</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="n">
+        <v>44332</v>
+      </c>
+      <c r="D82" t="s">
         <v>490</v>
       </c>
-      <c r="C82" s="1" t="n">
-        <v>44325</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>491</v>
-      </c>
-      <c r="E82" t="s">
-        <v>492</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>61</v>
+        <v>446</v>
       </c>
       <c r="H82" t="n">
-        <v>9274494</v>
+        <v>2770980</v>
       </c>
       <c r="I82" t="n">
-        <v>541.264</v>
-      </c>
-      <c r="J82"/>
-      <c r="K82"/>
+        <v>95.102</v>
+      </c>
+      <c r="J82" t="n">
+        <v>19499</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.669</v>
+      </c>
       <c r="L82" t="n">
-        <v>24969</v>
+        <v>19497</v>
       </c>
       <c r="M82" t="n">
-        <v>1.457</v>
+        <v>0.669</v>
       </c>
       <c r="N82" t="n">
-        <v>0.118</v>
+        <v>0.442</v>
       </c>
       <c r="O82" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="P82" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>492</v>
+      </c>
+      <c r="R82" t="s">
+        <v>37</v>
+      </c>
+      <c r="S82" t="s">
         <v>493</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>494</v>
-      </c>
-      <c r="R82" t="s">
-        <v>31</v>
-      </c>
-      <c r="S82" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>494</v>
+      </c>
+      <c r="B83" t="s">
+        <v>495</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>44326</v>
+      </c>
+      <c r="D83" t="s">
         <v>496</v>
       </c>
-      <c r="B83" t="s">
+      <c r="E83" t="s">
         <v>497</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D83" t="s">
-        <v>498</v>
-      </c>
-      <c r="E83" t="s">
-        <v>42</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>390</v>
+        <v>62</v>
       </c>
       <c r="H83" t="n">
-        <v>2082570</v>
+        <v>9510753</v>
       </c>
       <c r="I83" t="n">
-        <v>431.868</v>
+        <v>555.052</v>
       </c>
       <c r="J83" t="n">
-        <v>2217</v>
+        <v>163716</v>
       </c>
       <c r="K83" t="n">
-        <v>0.46</v>
+        <v>9.555</v>
       </c>
       <c r="L83" t="n">
-        <v>3655</v>
+        <v>52832</v>
       </c>
       <c r="M83" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="N83"/>
-      <c r="O83"/>
+        <v>3.083</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="O83" t="n">
+        <v>9.4</v>
+      </c>
       <c r="P83" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q83" t="s">
         <v>499</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
+        <v>31</v>
+      </c>
+      <c r="S83" t="s">
         <v>500</v>
-      </c>
-      <c r="R83" t="s">
-        <v>37</v>
-      </c>
-      <c r="S83" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>501</v>
+      </c>
+      <c r="B84" t="s">
         <v>502</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="D84" t="s">
         <v>503</v>
       </c>
-      <c r="C84" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D84" t="s">
-        <v>504</v>
-      </c>
       <c r="E84" t="s">
-        <v>505</v>
+        <v>42</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>231</v>
+        <v>394</v>
       </c>
       <c r="H84" t="n">
-        <v>2002653</v>
+        <v>2100168</v>
       </c>
       <c r="I84" t="n">
-        <v>9.715</v>
-      </c>
-      <c r="J84"/>
-      <c r="K84"/>
+        <v>435.518</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4747</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.984</v>
+      </c>
       <c r="L84" t="n">
-        <v>3596</v>
+        <v>3807</v>
       </c>
       <c r="M84" t="n">
-        <v>0.017</v>
+        <v>0.789</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q84" t="s">
         <v>505</v>
       </c>
-      <c r="Q84" t="s">
-        <v>504</v>
-      </c>
       <c r="R84" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="S84" t="s">
         <v>506</v>
@@ -7523,107 +7543,103 @@
         <v>508</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44320</v>
+        <v>44333</v>
       </c>
       <c r="D85" t="s">
         <v>509</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="H85" t="n">
-        <v>728726</v>
+        <v>2002653</v>
       </c>
       <c r="I85" t="n">
-        <v>349.781</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2928</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1.405</v>
-      </c>
+        <v>9.715</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>1881</v>
+        <v>3596</v>
       </c>
       <c r="M85" t="n">
-        <v>0.903</v>
+        <v>0.017</v>
       </c>
       <c r="N85" t="n">
-        <v>0.129</v>
+        <v>0.012</v>
       </c>
       <c r="O85" t="n">
-        <v>7.8</v>
+        <v>81.2</v>
       </c>
       <c r="P85" t="s">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="Q85" t="s">
         <v>509</v>
       </c>
       <c r="R85" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="S85" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44331</v>
+        <v>44320</v>
       </c>
       <c r="D86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E86" t="s">
-        <v>514</v>
+        <v>42</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H86" t="n">
-        <v>5394845</v>
+        <v>728726</v>
       </c>
       <c r="I86" t="n">
-        <v>995.131</v>
+        <v>349.781</v>
       </c>
       <c r="J86" t="n">
-        <v>8997</v>
+        <v>2928</v>
       </c>
       <c r="K86" t="n">
-        <v>1.66</v>
+        <v>1.405</v>
       </c>
       <c r="L86" t="n">
-        <v>16601</v>
+        <v>1881</v>
       </c>
       <c r="M86" t="n">
-        <v>3.062</v>
+        <v>0.903</v>
       </c>
       <c r="N86" t="n">
-        <v>0.025</v>
+        <v>0.129</v>
       </c>
       <c r="O86" t="n">
-        <v>39.8</v>
+        <v>7.8</v>
       </c>
       <c r="P86" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q86" t="s">
         <v>514</v>
       </c>
-      <c r="Q86" t="s">
-        <v>513</v>
-      </c>
       <c r="R86" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S86" t="s">
         <v>515</v>
@@ -7637,7 +7653,7 @@
         <v>517</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44048</v>
+        <v>44334</v>
       </c>
       <c r="D87" t="s">
         <v>518</v>
@@ -7647,81 +7663,85 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>58</v>
-      </c>
-      <c r="H87"/>
-      <c r="I87"/>
+        <v>413</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5437013</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1002.909</v>
+      </c>
       <c r="J87" t="n">
-        <v>2682</v>
+        <v>25760</v>
       </c>
       <c r="K87" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
+        <v>4.752</v>
+      </c>
+      <c r="L87" t="n">
+        <v>14268</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O87" t="n">
+        <v>43.1</v>
+      </c>
       <c r="P87" t="s">
         <v>519</v>
       </c>
       <c r="Q87" t="s">
+        <v>518</v>
+      </c>
+      <c r="R87" t="s">
+        <v>31</v>
+      </c>
+      <c r="S87" t="s">
         <v>520</v>
-      </c>
-      <c r="R87" t="s">
-        <v>66</v>
-      </c>
-      <c r="S87" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>521</v>
+      </c>
+      <c r="B88" t="s">
         <v>522</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="n">
+        <v>44048</v>
+      </c>
+      <c r="D88" t="s">
         <v>523</v>
       </c>
-      <c r="C88" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>524</v>
-      </c>
-      <c r="E88" t="s">
-        <v>525</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>411</v>
-      </c>
-      <c r="H88" t="n">
-        <v>12480767</v>
-      </c>
-      <c r="I88" t="n">
-        <v>56.502</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
       <c r="J88" t="n">
-        <v>36725</v>
+        <v>2682</v>
       </c>
       <c r="K88" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="L88" t="n">
-        <v>36049</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.163</v>
-      </c>
+        <v>0.525</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88"/>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q88" t="s">
         <v>525</v>
       </c>
-      <c r="Q88" t="s">
-        <v>524</v>
-      </c>
       <c r="R88" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="S88" t="s">
         <v>526</v>
@@ -7735,438 +7755,442 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44332</v>
+        <v>44337</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
       </c>
-      <c r="E89"/>
+      <c r="E89" t="s">
+        <v>530</v>
+      </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>257</v>
-      </c>
-      <c r="H89"/>
-      <c r="I89"/>
+        <v>415</v>
+      </c>
+      <c r="H89" t="n">
+        <v>12654997</v>
+      </c>
+      <c r="I89" t="n">
+        <v>57.29</v>
+      </c>
       <c r="J89" t="n">
-        <v>2999</v>
+        <v>51528</v>
       </c>
       <c r="K89" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="L89"/>
-      <c r="M89"/>
+        <v>0.233</v>
+      </c>
+      <c r="L89" t="n">
+        <v>39189</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.177</v>
+      </c>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="s">
         <v>530</v>
       </c>
       <c r="Q89" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="R89" t="s">
         <v>37</v>
       </c>
       <c r="S89" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" t="s">
         <v>533</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D90" t="s">
         <v>534</v>
       </c>
-      <c r="C90" s="1" t="n">
-        <v>44328</v>
-      </c>
-      <c r="D90" t="s">
-        <v>535</v>
-      </c>
-      <c r="E90" t="s">
-        <v>536</v>
-      </c>
+      <c r="E90"/>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>429</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2483460</v>
-      </c>
-      <c r="I90" t="n">
-        <v>575.572</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90"/>
       <c r="J90" t="n">
-        <v>9659</v>
+        <v>1591</v>
       </c>
       <c r="K90" t="n">
-        <v>2.239</v>
+        <v>0.312</v>
       </c>
       <c r="L90" t="n">
-        <v>8055</v>
+        <v>2008</v>
       </c>
       <c r="M90" t="n">
-        <v>1.867</v>
+        <v>0.394</v>
       </c>
       <c r="N90" t="n">
-        <v>0.052</v>
+        <v>0.09</v>
       </c>
       <c r="O90" t="n">
-        <v>19.1</v>
+        <v>11.1</v>
       </c>
       <c r="P90" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q90" t="s">
         <v>536</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>537</v>
       </c>
       <c r="R90" t="s">
         <v>37</v>
       </c>
       <c r="S90" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>538</v>
+      </c>
+      <c r="B91" t="s">
         <v>539</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>44328</v>
+      </c>
+      <c r="D91" t="s">
         <v>540</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>541</v>
-      </c>
-      <c r="E91" t="s">
-        <v>542</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H91" t="n">
-        <v>1187842</v>
+        <v>2483460</v>
       </c>
       <c r="I91" t="n">
-        <v>166.539</v>
+        <v>575.572</v>
       </c>
       <c r="J91" t="n">
-        <v>6091</v>
+        <v>9659</v>
       </c>
       <c r="K91" t="n">
-        <v>0.854</v>
+        <v>2.239</v>
       </c>
       <c r="L91" t="n">
-        <v>6089</v>
+        <v>8055</v>
       </c>
       <c r="M91" t="n">
-        <v>0.854</v>
+        <v>1.867</v>
       </c>
       <c r="N91" t="n">
-        <v>0.369</v>
+        <v>0.052</v>
       </c>
       <c r="O91" t="n">
-        <v>2.7</v>
+        <v>19.1</v>
       </c>
       <c r="P91" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q91" t="s">
         <v>542</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>543</v>
       </c>
       <c r="R91" t="s">
         <v>37</v>
       </c>
       <c r="S91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" t="s">
         <v>545</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="n">
+        <v>44332</v>
+      </c>
+      <c r="D92" t="s">
         <v>546</v>
       </c>
-      <c r="C92" s="1" t="n">
-        <v>44312</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>547</v>
-      </c>
-      <c r="E92" t="s">
-        <v>146</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="H92" t="n">
-        <v>3459353</v>
+        <v>1187842</v>
       </c>
       <c r="I92" t="n">
-        <v>104.918</v>
+        <v>166.539</v>
       </c>
       <c r="J92" t="n">
-        <v>2211</v>
+        <v>6091</v>
       </c>
       <c r="K92" t="n">
-        <v>0.067</v>
+        <v>0.854</v>
       </c>
       <c r="L92" t="n">
-        <v>6695</v>
+        <v>6089</v>
       </c>
       <c r="M92" t="n">
-        <v>0.203</v>
+        <v>0.854</v>
       </c>
       <c r="N92" t="n">
-        <v>0.154</v>
+        <v>0.369</v>
       </c>
       <c r="O92" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="P92" t="s">
-        <v>146</v>
+        <v>547</v>
       </c>
       <c r="Q92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R92" t="s">
         <v>37</v>
       </c>
       <c r="S92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44331</v>
+        <v>44312</v>
       </c>
       <c r="D93" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E93" t="s">
-        <v>552</v>
+        <v>146</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="H93" t="n">
-        <v>11847122</v>
+        <v>3459353</v>
       </c>
       <c r="I93" t="n">
-        <v>108.113</v>
+        <v>104.918</v>
       </c>
       <c r="J93" t="n">
-        <v>37723</v>
+        <v>2211</v>
       </c>
       <c r="K93" t="n">
-        <v>0.344</v>
+        <v>0.067</v>
       </c>
       <c r="L93" t="n">
-        <v>41895</v>
+        <v>6695</v>
       </c>
       <c r="M93" t="n">
-        <v>0.382</v>
+        <v>0.203</v>
       </c>
       <c r="N93" t="n">
-        <v>0.148</v>
+        <v>0.154</v>
       </c>
       <c r="O93" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="P93" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="Q93" t="s">
+        <v>552</v>
+      </c>
+      <c r="R93" t="s">
+        <v>37</v>
+      </c>
+      <c r="S93" t="s">
         <v>553</v>
-      </c>
-      <c r="R93" t="s">
-        <v>31</v>
-      </c>
-      <c r="S93" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>554</v>
+      </c>
+      <c r="B94" t="s">
         <v>555</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="n">
+        <v>44335</v>
+      </c>
+      <c r="D94" t="s">
         <v>556</v>
       </c>
-      <c r="C94" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>557</v>
-      </c>
-      <c r="E94" t="s">
-        <v>558</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="H94" t="n">
-        <v>14830984</v>
+        <v>12064007</v>
       </c>
       <c r="I94" t="n">
-        <v>391.871</v>
+        <v>110.092</v>
       </c>
       <c r="J94" t="n">
-        <v>48203</v>
+        <v>43165</v>
       </c>
       <c r="K94" t="n">
-        <v>1.274</v>
+        <v>0.394</v>
       </c>
       <c r="L94" t="n">
-        <v>55047</v>
+        <v>43925</v>
       </c>
       <c r="M94" t="n">
-        <v>1.454</v>
+        <v>0.401</v>
       </c>
       <c r="N94" t="n">
-        <v>0.055</v>
+        <v>0.132</v>
       </c>
       <c r="O94" t="n">
-        <v>18.3</v>
+        <v>7.6</v>
       </c>
       <c r="P94" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q94" t="s">
         <v>558</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>559</v>
       </c>
       <c r="R94" t="s">
         <v>31</v>
       </c>
       <c r="S94" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B95" t="s">
         <v>561</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D95" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="E95" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="H95" t="n">
-        <v>15184082</v>
+        <v>15033623</v>
       </c>
       <c r="I95" t="n">
-        <v>401.201</v>
+        <v>397.225</v>
       </c>
       <c r="J95" t="n">
-        <v>48958</v>
+        <v>54911</v>
       </c>
       <c r="K95" t="n">
-        <v>1.294</v>
+        <v>1.451</v>
       </c>
       <c r="L95" t="n">
-        <v>55669</v>
+        <v>52484</v>
       </c>
       <c r="M95" t="n">
-        <v>1.471</v>
+        <v>1.387</v>
       </c>
       <c r="N95" t="n">
-        <v>0.054</v>
+        <v>0.042</v>
       </c>
       <c r="O95" t="n">
-        <v>18.5</v>
+        <v>23.6</v>
       </c>
       <c r="P95" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="Q95" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="R95" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>560</v>
+      </c>
+      <c r="B96" t="s">
+        <v>566</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D96" t="s">
         <v>562</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>563</v>
-      </c>
-      <c r="C96" s="1" t="n">
-        <v>44331</v>
-      </c>
-      <c r="D96" t="s">
-        <v>564</v>
-      </c>
-      <c r="E96" t="s">
-        <v>42</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H96" t="n">
-        <v>11165909</v>
+        <v>15390803</v>
       </c>
       <c r="I96" t="n">
-        <v>1095.05</v>
+        <v>406.663</v>
       </c>
       <c r="J96" t="n">
-        <v>24160</v>
+        <v>55395</v>
       </c>
       <c r="K96" t="n">
-        <v>2.369</v>
+        <v>1.464</v>
       </c>
       <c r="L96" t="n">
-        <v>35398</v>
+        <v>53341</v>
       </c>
       <c r="M96" t="n">
-        <v>3.472</v>
+        <v>1.409</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01</v>
+        <v>0.042</v>
       </c>
       <c r="O96" t="n">
-        <v>95.7</v>
+        <v>24</v>
       </c>
       <c r="P96" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q96" t="s">
         <v>564</v>
       </c>
       <c r="R96" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="S96" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
@@ -8177,320 +8201,324 @@
         <v>568</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="D97" t="s">
         <v>569</v>
       </c>
       <c r="E97" t="s">
-        <v>570</v>
+        <v>42</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H97" t="n">
-        <v>1970800</v>
+        <v>11316046</v>
       </c>
       <c r="I97" t="n">
-        <v>684.054</v>
+        <v>1109.775</v>
       </c>
       <c r="J97" t="n">
-        <v>3446</v>
+        <v>41136</v>
       </c>
       <c r="K97" t="n">
-        <v>1.196</v>
+        <v>4.034</v>
       </c>
       <c r="L97" t="n">
-        <v>3670</v>
+        <v>36717</v>
       </c>
       <c r="M97" t="n">
-        <v>1.274</v>
+        <v>3.601</v>
       </c>
       <c r="N97" t="n">
-        <v>0.085</v>
+        <v>0.011</v>
       </c>
       <c r="O97" t="n">
-        <v>11.7</v>
+        <v>92.3</v>
       </c>
       <c r="P97" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q97" t="s">
         <v>569</v>
       </c>
       <c r="R97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S97" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>572</v>
+      </c>
+      <c r="B98" t="s">
         <v>573</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="n">
+        <v>44333</v>
+      </c>
+      <c r="D98" t="s">
         <v>574</v>
       </c>
-      <c r="C98" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>575</v>
-      </c>
-      <c r="E98" t="s">
-        <v>576</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="H98" t="n">
-        <v>7644702</v>
+        <v>1973886</v>
       </c>
       <c r="I98" t="n">
-        <v>397.382</v>
+        <v>685.125</v>
       </c>
       <c r="J98" t="n">
-        <v>12957</v>
+        <v>3086</v>
       </c>
       <c r="K98" t="n">
-        <v>0.674</v>
+        <v>1.071</v>
       </c>
       <c r="L98" t="n">
-        <v>18939</v>
+        <v>3505</v>
       </c>
       <c r="M98" t="n">
-        <v>0.984</v>
+        <v>1.217</v>
       </c>
       <c r="N98" t="n">
-        <v>0.044</v>
+        <v>0.085</v>
       </c>
       <c r="O98" t="n">
-        <v>22.9</v>
+        <v>11.7</v>
       </c>
       <c r="P98" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>574</v>
+      </c>
+      <c r="R98" t="s">
+        <v>31</v>
+      </c>
+      <c r="S98" t="s">
         <v>577</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>578</v>
-      </c>
-      <c r="R98" t="s">
-        <v>37</v>
-      </c>
-      <c r="S98" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" t="s">
+        <v>579</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="D99" t="s">
         <v>580</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
         <v>581</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D99" t="s">
-        <v>582</v>
-      </c>
-      <c r="E99" t="s">
-        <v>583</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="H99" t="n">
-        <v>133819142</v>
+        <v>7735577</v>
       </c>
       <c r="I99" t="n">
-        <v>916.981</v>
+        <v>402.105</v>
       </c>
       <c r="J99" t="n">
-        <v>308461</v>
+        <v>22035</v>
       </c>
       <c r="K99" t="n">
-        <v>2.114</v>
+        <v>1.145</v>
       </c>
       <c r="L99" t="n">
-        <v>298306</v>
+        <v>17841</v>
       </c>
       <c r="M99" t="n">
-        <v>2.044</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="O99" t="n">
-        <v>35.3</v>
-      </c>
+        <v>0.927</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
       <c r="P99" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q99" t="s">
         <v>583</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>584</v>
       </c>
       <c r="R99" t="s">
         <v>37</v>
       </c>
       <c r="S99" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>585</v>
+      </c>
+      <c r="B100" t="s">
         <v>586</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D100" t="s">
         <v>587</v>
       </c>
-      <c r="C100" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>588</v>
-      </c>
-      <c r="E100" t="s">
-        <v>589</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="H100" t="n">
-        <v>1371636</v>
+        <v>135005007</v>
       </c>
       <c r="I100" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100"/>
+        <v>925.107</v>
+      </c>
+      <c r="J100" t="n">
+        <v>358989</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.46</v>
+      </c>
       <c r="L100" t="n">
-        <v>3855</v>
+        <v>318583</v>
       </c>
       <c r="M100" t="n">
-        <v>0.298</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100"/>
+        <v>2.183</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O100" t="n">
+        <v>36.8</v>
+      </c>
       <c r="P100" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q100" t="s">
         <v>589</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
+        <v>37</v>
+      </c>
+      <c r="S100" t="s">
         <v>590</v>
-      </c>
-      <c r="R100" t="s">
-        <v>91</v>
-      </c>
-      <c r="S100" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>591</v>
+      </c>
+      <c r="B101" t="s">
         <v>592</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D101" t="s">
         <v>593</v>
       </c>
-      <c r="C101" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>594</v>
-      </c>
-      <c r="E101" t="s">
-        <v>42</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>441</v>
+        <v>342</v>
       </c>
       <c r="H101" t="n">
-        <v>18032171</v>
+        <v>1385943</v>
       </c>
       <c r="I101" t="n">
-        <v>517.959</v>
-      </c>
-      <c r="J101" t="n">
-        <v>61665</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1.771</v>
-      </c>
+        <v>107.004</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101" t="n">
-        <v>62012</v>
+        <v>4439</v>
       </c>
       <c r="M101" t="n">
-        <v>1.781</v>
+        <v>0.343</v>
       </c>
       <c r="N101" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="O101" t="n">
-        <v>64.7</v>
+        <v>52.2</v>
       </c>
       <c r="P101" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
       <c r="Q101" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R101" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="S101" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B102" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44333</v>
+        <v>44335</v>
       </c>
       <c r="D102" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E102" t="s">
-        <v>599</v>
+        <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H102" t="n">
-        <v>510809</v>
+        <v>18288859</v>
       </c>
       <c r="I102" t="n">
-        <v>30.507</v>
+        <v>525.333</v>
       </c>
       <c r="J102" t="n">
-        <v>1104</v>
+        <v>93896</v>
       </c>
       <c r="K102" t="n">
-        <v>0.066</v>
+        <v>2.697</v>
       </c>
       <c r="L102" t="n">
-        <v>1079</v>
+        <v>68069</v>
       </c>
       <c r="M102" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="N102"/>
-      <c r="O102"/>
+        <v>1.955</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O102" t="n">
+        <v>69.6</v>
+      </c>
       <c r="P102" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q102" t="s">
         <v>599</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>598</v>
       </c>
       <c r="R102" t="s">
         <v>37</v>
@@ -8507,212 +8535,216 @@
         <v>602</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44333</v>
+        <v>44336</v>
       </c>
       <c r="D103" t="s">
         <v>603</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s">
         <v>604</v>
       </c>
+      <c r="F103"/>
       <c r="G103" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H103" t="n">
-        <v>4018840</v>
+        <v>514271</v>
       </c>
       <c r="I103" t="n">
-        <v>590.607</v>
+        <v>30.714</v>
       </c>
       <c r="J103" t="n">
-        <v>9329</v>
+        <v>1235</v>
       </c>
       <c r="K103" t="n">
-        <v>1.371</v>
+        <v>0.074</v>
       </c>
       <c r="L103" t="n">
-        <v>11339</v>
+        <v>1156</v>
       </c>
       <c r="M103" t="n">
-        <v>1.666</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103"/>
+        <v>0.069</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O103" t="n">
+        <v>47.3</v>
+      </c>
       <c r="P103" t="s">
-        <v>42</v>
+        <v>604</v>
       </c>
       <c r="Q103" t="s">
+        <v>603</v>
+      </c>
+      <c r="R103" t="s">
+        <v>37</v>
+      </c>
+      <c r="S103" t="s">
         <v>605</v>
-      </c>
-      <c r="R103" t="s">
-        <v>31</v>
-      </c>
-      <c r="S103" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>606</v>
+      </c>
+      <c r="B104" t="s">
         <v>607</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D104" t="s">
         <v>608</v>
-      </c>
-      <c r="C104" s="1" t="n">
-        <v>44326</v>
-      </c>
-      <c r="D104" t="s">
-        <v>609</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
       </c>
-      <c r="F104"/>
+      <c r="F104" t="s">
+        <v>609</v>
+      </c>
       <c r="G104" t="n">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="H104" t="n">
-        <v>10441802</v>
+        <v>4051533</v>
       </c>
       <c r="I104" t="n">
-        <v>1784.819</v>
-      </c>
-      <c r="J104"/>
-      <c r="K104"/>
+        <v>595.411</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10062</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.479</v>
+      </c>
       <c r="L104" t="n">
-        <v>76429</v>
+        <v>10640</v>
       </c>
       <c r="M104" t="n">
-        <v>13.064</v>
+        <v>1.564</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>0.072</v>
       </c>
       <c r="O104" t="n">
-        <v>3741.2</v>
+        <v>13.8</v>
       </c>
       <c r="P104" t="s">
         <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="R104" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B105" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="D105" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E105" t="s">
         <v>42</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>437</v>
+        <v>57</v>
       </c>
       <c r="H105" t="n">
-        <v>37082889</v>
+        <v>11064019</v>
       </c>
       <c r="I105" t="n">
-        <v>6792.182</v>
-      </c>
-      <c r="J105" t="n">
-        <v>104093</v>
-      </c>
-      <c r="K105" t="n">
-        <v>19.066</v>
-      </c>
+        <v>1891.174</v>
+      </c>
+      <c r="J105"/>
+      <c r="K105"/>
       <c r="L105" t="n">
-        <v>113499</v>
+        <v>88888</v>
       </c>
       <c r="M105" t="n">
-        <v>20.789</v>
+        <v>15.194</v>
       </c>
       <c r="N105" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>142.9</v>
+        <v>2647.8</v>
       </c>
       <c r="P105" t="s">
         <v>42</v>
       </c>
       <c r="Q105" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="R105" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="S105" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B106" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="D106" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E106" t="s">
-        <v>618</v>
+        <v>42</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H106" t="n">
-        <v>1232247</v>
+        <v>37430864</v>
       </c>
       <c r="I106" t="n">
-        <v>592.731</v>
+        <v>6855.918</v>
       </c>
       <c r="J106" t="n">
-        <v>1504</v>
+        <v>58047</v>
       </c>
       <c r="K106" t="n">
-        <v>0.723</v>
+        <v>10.632</v>
       </c>
       <c r="L106" t="n">
-        <v>3596</v>
+        <v>108785</v>
       </c>
       <c r="M106" t="n">
-        <v>1.73</v>
+        <v>19.925</v>
       </c>
       <c r="N106" t="n">
-        <v>0.127</v>
+        <v>0.004</v>
       </c>
       <c r="O106" t="n">
-        <v>7.9</v>
+        <v>250</v>
       </c>
       <c r="P106" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q106" t="s">
         <v>618</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>617</v>
       </c>
       <c r="R106" t="s">
         <v>37</v>
@@ -8729,7 +8761,7 @@
         <v>621</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44332</v>
+        <v>44336</v>
       </c>
       <c r="D107" t="s">
         <v>622</v>
@@ -8737,94 +8769,98 @@
       <c r="E107" t="s">
         <v>623</v>
       </c>
-      <c r="F107" t="s">
-        <v>624</v>
-      </c>
+      <c r="F107"/>
       <c r="G107" t="n">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="H107" t="n">
-        <v>11115048</v>
+        <v>1248936</v>
       </c>
       <c r="I107" t="n">
-        <v>187.41</v>
+        <v>600.758</v>
       </c>
       <c r="J107" t="n">
-        <v>27543</v>
+        <v>4136</v>
       </c>
       <c r="K107" t="n">
-        <v>0.464</v>
+        <v>1.989</v>
       </c>
       <c r="L107" t="n">
-        <v>32477</v>
+        <v>3549</v>
       </c>
       <c r="M107" t="n">
-        <v>0.548</v>
+        <v>1.707</v>
       </c>
       <c r="N107" t="n">
-        <v>0.075</v>
+        <v>0.106</v>
       </c>
       <c r="O107" t="n">
-        <v>13.3</v>
+        <v>9.4</v>
       </c>
       <c r="P107" t="s">
         <v>623</v>
       </c>
       <c r="Q107" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="R107" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S107" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>625</v>
+      </c>
+      <c r="B108" t="s">
+        <v>626</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D108" t="s">
         <v>627</v>
       </c>
-      <c r="B108" t="s">
+      <c r="E108" t="s">
         <v>628</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>629</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="n">
+        <v>440</v>
+      </c>
+      <c r="H108" t="n">
+        <v>11246917</v>
+      </c>
+      <c r="I108" t="n">
+        <v>189.634</v>
+      </c>
+      <c r="J108" t="n">
+        <v>39612</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="L108" t="n">
+        <v>33703</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.568</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="O108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="P108" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q108" t="s">
         <v>630</v>
-      </c>
-      <c r="F108"/>
-      <c r="G108" t="n">
-        <v>442</v>
-      </c>
-      <c r="H108" t="n">
-        <v>9251496</v>
-      </c>
-      <c r="I108" t="n">
-        <v>180.449</v>
-      </c>
-      <c r="J108" t="n">
-        <v>16545</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="L108" t="n">
-        <v>30405</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>629</v>
       </c>
       <c r="R108" t="s">
         <v>31</v>
@@ -8841,50 +8877,46 @@
         <v>633</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44330</v>
+        <v>44337</v>
       </c>
       <c r="D109" t="s">
         <v>634</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>635</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>139</v>
+        <v>446</v>
       </c>
       <c r="H109" t="n">
-        <v>159088</v>
+        <v>9372964</v>
       </c>
       <c r="I109" t="n">
-        <v>14.212</v>
+        <v>182.819</v>
       </c>
       <c r="J109" t="n">
-        <v>410</v>
+        <v>34479</v>
       </c>
       <c r="K109" t="n">
-        <v>0.037</v>
+        <v>0.673</v>
       </c>
       <c r="L109" t="n">
-        <v>517</v>
+        <v>26697</v>
       </c>
       <c r="M109" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O109" t="n">
-        <v>258.5</v>
-      </c>
+        <v>0.521</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
       <c r="P109" t="s">
-        <v>42</v>
+        <v>635</v>
       </c>
       <c r="Q109" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R109" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S109" t="s">
         <v>636</v>
@@ -8898,96 +8930,100 @@
         <v>638</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44322</v>
+        <v>44330</v>
       </c>
       <c r="D110" t="s">
         <v>639</v>
       </c>
       <c r="E110" t="s">
-        <v>640</v>
+        <v>42</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="H110" t="n">
-        <v>41297269</v>
+        <v>159088</v>
       </c>
       <c r="I110" t="n">
-        <v>883.274</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
+        <v>14.212</v>
+      </c>
+      <c r="J110" t="n">
+        <v>410</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.037</v>
+      </c>
       <c r="L110" t="n">
-        <v>116486</v>
+        <v>517</v>
       </c>
       <c r="M110" t="n">
-        <v>2.491</v>
+        <v>0.046</v>
       </c>
       <c r="N110" t="n">
-        <v>0.054</v>
+        <v>0.004</v>
       </c>
       <c r="O110" t="n">
-        <v>18.4</v>
+        <v>258.5</v>
       </c>
       <c r="P110" t="s">
-        <v>641</v>
+        <v>42</v>
       </c>
       <c r="Q110" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="R110" t="s">
         <v>37</v>
       </c>
       <c r="S110" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>642</v>
+      </c>
+      <c r="B111" t="s">
+        <v>643</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>44329</v>
+      </c>
+      <c r="D111" t="s">
         <v>644</v>
       </c>
-      <c r="B111" t="s">
+      <c r="E111" t="s">
         <v>645</v>
-      </c>
-      <c r="C111" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D111" t="s">
-        <v>646</v>
-      </c>
-      <c r="E111" t="s">
-        <v>647</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>449</v>
+        <v>57</v>
       </c>
       <c r="H111" t="n">
-        <v>3190313</v>
+        <v>42089670</v>
       </c>
       <c r="I111" t="n">
-        <v>148.988</v>
-      </c>
-      <c r="J111" t="n">
-        <v>26941</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.258</v>
-      </c>
+        <v>900.222</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111" t="n">
-        <v>25735</v>
+        <v>5422670</v>
       </c>
       <c r="M111" t="n">
-        <v>1.202</v>
-      </c>
-      <c r="N111"/>
-      <c r="O111"/>
+        <v>115.981</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O111" t="n">
+        <v>967.6</v>
+      </c>
       <c r="P111" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q111" t="s">
         <v>647</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>646</v>
       </c>
       <c r="R111" t="s">
         <v>37</v>
@@ -9004,7 +9040,7 @@
         <v>650</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44325</v>
+        <v>44337</v>
       </c>
       <c r="D112" t="s">
         <v>651</v>
@@ -9014,150 +9050,146 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>301</v>
-      </c>
-      <c r="H112"/>
-      <c r="I112"/>
+        <v>453</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3292693</v>
+      </c>
+      <c r="I112" t="n">
+        <v>153.769</v>
+      </c>
       <c r="J112" t="n">
-        <v>51085</v>
+        <v>25680</v>
       </c>
       <c r="K112" t="n">
-        <v>5.058</v>
+        <v>1.199</v>
       </c>
       <c r="L112" t="n">
-        <v>51085</v>
+        <v>25536</v>
       </c>
       <c r="M112" t="n">
-        <v>5.058</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="O112" t="n">
-        <v>10.5</v>
-      </c>
+        <v>1.193</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112"/>
       <c r="P112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q112" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="R112" t="s">
         <v>37</v>
       </c>
       <c r="S112" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B113" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="D113" t="s">
-        <v>395</v>
+        <v>656</v>
       </c>
       <c r="E113" t="s">
-        <v>396</v>
+        <v>657</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>359</v>
-      </c>
-      <c r="H113" t="n">
-        <v>6926543</v>
-      </c>
-      <c r="I113" t="n">
-        <v>800.329</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H113"/>
+      <c r="I113"/>
       <c r="J113" t="n">
-        <v>9570</v>
+        <v>41424</v>
       </c>
       <c r="K113" t="n">
-        <v>1.106</v>
+        <v>4.102</v>
       </c>
       <c r="L113" t="n">
-        <v>25763</v>
+        <v>41424</v>
       </c>
       <c r="M113" t="n">
-        <v>2.977</v>
+        <v>4.102</v>
       </c>
       <c r="N113" t="n">
-        <v>0.047</v>
+        <v>0.101</v>
       </c>
       <c r="O113" t="n">
-        <v>21.3</v>
+        <v>9.9</v>
       </c>
       <c r="P113" t="s">
-        <v>396</v>
+        <v>658</v>
       </c>
       <c r="Q113" t="s">
-        <v>397</v>
+        <v>659</v>
       </c>
       <c r="R113" t="s">
         <v>37</v>
       </c>
       <c r="S113" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B114" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44332</v>
+        <v>44335</v>
       </c>
       <c r="D114" t="s">
-        <v>661</v>
+        <v>395</v>
       </c>
       <c r="E114" t="s">
-        <v>662</v>
+        <v>396</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>486</v>
+        <v>362</v>
       </c>
       <c r="H114" t="n">
-        <v>245801</v>
+        <v>7009089</v>
       </c>
       <c r="I114" t="n">
-        <v>10.32</v>
+        <v>809.867</v>
       </c>
       <c r="J114" t="n">
-        <v>8451</v>
+        <v>26043</v>
       </c>
       <c r="K114" t="n">
-        <v>0.355</v>
+        <v>3.009</v>
       </c>
       <c r="L114" t="n">
-        <v>4287</v>
+        <v>22089</v>
       </c>
       <c r="M114" t="n">
-        <v>0.18</v>
+        <v>2.552</v>
       </c>
       <c r="N114" t="n">
-        <v>0.017</v>
+        <v>0.052</v>
       </c>
       <c r="O114" t="n">
-        <v>60.3</v>
+        <v>19.2</v>
       </c>
       <c r="P114" t="s">
-        <v>662</v>
+        <v>396</v>
       </c>
       <c r="Q114" t="s">
-        <v>661</v>
+        <v>397</v>
       </c>
       <c r="R114" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S114" t="s">
         <v>663</v>
@@ -9171,41 +9203,41 @@
         <v>665</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44310</v>
+        <v>44336</v>
       </c>
       <c r="D115" t="s">
         <v>666</v>
       </c>
       <c r="E115" t="s">
-        <v>169</v>
+        <v>667</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="H115" t="n">
-        <v>4351770</v>
+        <v>315592</v>
       </c>
       <c r="I115" t="n">
-        <v>62.346</v>
+        <v>13.251</v>
       </c>
       <c r="J115" t="n">
-        <v>60262</v>
+        <v>18083</v>
       </c>
       <c r="K115" t="n">
-        <v>0.863</v>
+        <v>0.759</v>
       </c>
       <c r="L115" t="n">
-        <v>66681</v>
+        <v>12997</v>
       </c>
       <c r="M115" t="n">
-        <v>0.955</v>
+        <v>0.546</v>
       </c>
       <c r="N115" t="n">
-        <v>0.035</v>
+        <v>0.017</v>
       </c>
       <c r="O115" t="n">
-        <v>28.6</v>
+        <v>58</v>
       </c>
       <c r="P115" t="s">
         <v>667</v>
@@ -9214,7 +9246,7 @@
         <v>666</v>
       </c>
       <c r="R115" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S115" t="s">
         <v>668</v>
@@ -9228,107 +9260,107 @@
         <v>670</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D116"/>
+        <v>44310</v>
+      </c>
+      <c r="D116" t="s">
+        <v>671</v>
+      </c>
       <c r="E116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116"/>
+      <c r="G116" t="n">
+        <v>476</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4351770</v>
+      </c>
+      <c r="I116" t="n">
+        <v>62.346</v>
+      </c>
+      <c r="J116" t="n">
+        <v>60262</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="L116" t="n">
+        <v>66681</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O116" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="P116" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q116" t="s">
         <v>671</v>
       </c>
-      <c r="F116" t="s">
-        <v>672</v>
-      </c>
-      <c r="G116" t="n">
-        <v>433</v>
-      </c>
-      <c r="H116" t="n">
-        <v>322824</v>
-      </c>
-      <c r="I116" t="n">
-        <v>38.994</v>
-      </c>
-      <c r="J116" t="n">
-        <v>739</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="L116" t="n">
-        <v>743</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="O116" t="n">
-        <v>43</v>
-      </c>
-      <c r="P116" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q116" t="s">
+      <c r="R116" t="s">
+        <v>37</v>
+      </c>
+      <c r="S116" t="s">
         <v>673</v>
-      </c>
-      <c r="R116" t="s">
-        <v>674</v>
-      </c>
-      <c r="S116" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s">
+        <v>675</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="s">
         <v>676</v>
       </c>
-      <c r="B117" t="s">
+      <c r="F117" t="s">
         <v>677</v>
       </c>
-      <c r="C117" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="G117" t="n">
+        <v>437</v>
+      </c>
+      <c r="H117" t="n">
+        <v>325794</v>
+      </c>
+      <c r="I117" t="n">
+        <v>39.353</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1033</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L117" t="n">
+        <v>763</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O117" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="P117" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q117" t="s">
         <v>678</v>
       </c>
-      <c r="E117" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117"/>
-      <c r="G117" t="n">
-        <v>363</v>
-      </c>
-      <c r="H117" t="n">
-        <v>147470</v>
-      </c>
-      <c r="I117" t="n">
-        <v>105.374</v>
-      </c>
-      <c r="J117" t="n">
-        <v>5920</v>
-      </c>
-      <c r="K117" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1484</v>
-      </c>
-      <c r="M117" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="O117" t="n">
-        <v>5</v>
-      </c>
-      <c r="P117" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q117" t="s">
+      <c r="R117" t="s">
         <v>679</v>
-      </c>
-      <c r="R117" t="s">
-        <v>31</v>
       </c>
       <c r="S117" t="s">
         <v>680</v>
@@ -9342,263 +9374,267 @@
         <v>682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44333</v>
+        <v>44327</v>
       </c>
       <c r="D118" t="s">
         <v>683</v>
       </c>
       <c r="E118" t="s">
-        <v>684</v>
+        <v>42</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="H118" t="n">
-        <v>1387361</v>
+        <v>147470</v>
       </c>
       <c r="I118" t="n">
-        <v>117.388</v>
+        <v>105.374</v>
       </c>
       <c r="J118" t="n">
-        <v>3816</v>
+        <v>5920</v>
       </c>
       <c r="K118" t="n">
-        <v>0.323</v>
+        <v>4.23</v>
       </c>
       <c r="L118" t="n">
-        <v>3670</v>
+        <v>1484</v>
       </c>
       <c r="M118" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="N118"/>
-      <c r="O118"/>
+        <v>1.06</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="O118" t="n">
+        <v>5</v>
+      </c>
       <c r="P118" t="s">
-        <v>685</v>
+        <v>42</v>
       </c>
       <c r="Q118" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>686</v>
+      </c>
+      <c r="B119" t="s">
+        <v>687</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="D119" t="s">
         <v>688</v>
       </c>
-      <c r="B119" t="s">
+      <c r="E119" t="s">
         <v>689</v>
-      </c>
-      <c r="C119" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D119" t="s">
-        <v>690</v>
-      </c>
-      <c r="E119" t="s">
-        <v>691</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="H119" t="n">
-        <v>50869896</v>
+        <v>1410901</v>
       </c>
       <c r="I119" t="n">
-        <v>603.159</v>
+        <v>119.38</v>
       </c>
       <c r="J119" t="n">
-        <v>202243</v>
+        <v>7748</v>
       </c>
       <c r="K119" t="n">
-        <v>2.398</v>
+        <v>0.656</v>
       </c>
       <c r="L119" t="n">
-        <v>211394</v>
+        <v>4690</v>
       </c>
       <c r="M119" t="n">
-        <v>2.506</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="O119" t="n">
-        <v>17.2</v>
-      </c>
+        <v>0.397</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q119" t="s">
         <v>691</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="R119" t="s">
+        <v>31</v>
+      </c>
+      <c r="S119" t="s">
         <v>692</v>
-      </c>
-      <c r="R119" t="s">
-        <v>37</v>
-      </c>
-      <c r="S119" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" t="s">
         <v>694</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D120" t="s">
         <v>695</v>
       </c>
-      <c r="C120" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>696</v>
-      </c>
-      <c r="E120" t="s">
-        <v>697</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="H120" t="n">
-        <v>1052657</v>
+        <v>51731883</v>
       </c>
       <c r="I120" t="n">
-        <v>23.013</v>
+        <v>613.38</v>
       </c>
       <c r="J120" t="n">
-        <v>5431</v>
+        <v>219192</v>
       </c>
       <c r="K120" t="n">
-        <v>0.119</v>
+        <v>2.599</v>
       </c>
       <c r="L120" t="n">
-        <v>3343</v>
+        <v>210277</v>
       </c>
       <c r="M120" t="n">
-        <v>0.073</v>
+        <v>2.493</v>
       </c>
       <c r="N120" t="n">
-        <v>0.017</v>
+        <v>0.052</v>
       </c>
       <c r="O120" t="n">
-        <v>59.2</v>
+        <v>19.3</v>
       </c>
       <c r="P120" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q120" t="s">
         <v>697</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="R120" t="s">
+        <v>37</v>
+      </c>
+      <c r="S120" t="s">
         <v>698</v>
-      </c>
-      <c r="R120" t="s">
-        <v>91</v>
-      </c>
-      <c r="S120" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>699</v>
+      </c>
+      <c r="B121" t="s">
         <v>700</v>
-      </c>
-      <c r="B121" t="s">
-        <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="D121" t="s">
+        <v>701</v>
+      </c>
+      <c r="E121" t="s">
         <v>702</v>
-      </c>
-      <c r="E121" t="s">
-        <v>703</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="H121" t="n">
-        <v>9851754</v>
+        <v>1066651</v>
       </c>
       <c r="I121" t="n">
-        <v>225.267</v>
+        <v>23.319</v>
       </c>
       <c r="J121" t="n">
-        <v>9966</v>
+        <v>2450</v>
       </c>
       <c r="K121" t="n">
-        <v>0.228</v>
+        <v>0.054</v>
       </c>
       <c r="L121" t="n">
-        <v>26117</v>
+        <v>2605</v>
       </c>
       <c r="M121" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121"/>
+        <v>0.057</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="O121" t="n">
+        <v>38.4</v>
+      </c>
       <c r="P121" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q121" t="s">
         <v>703</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="R121" t="s">
+        <v>91</v>
+      </c>
+      <c r="S121" t="s">
         <v>704</v>
-      </c>
-      <c r="R121" t="s">
-        <v>37</v>
-      </c>
-      <c r="S121" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>705</v>
+      </c>
+      <c r="B122" t="s">
         <v>706</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="D122" t="s">
         <v>707</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>708</v>
-      </c>
-      <c r="E122" t="s">
-        <v>709</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="H122" t="n">
-        <v>47007854</v>
+        <v>9970045</v>
       </c>
       <c r="I122" t="n">
-        <v>4752.877</v>
+        <v>227.971</v>
       </c>
       <c r="J122" t="n">
-        <v>141947</v>
+        <v>26154</v>
       </c>
       <c r="K122" t="n">
-        <v>14.352</v>
+        <v>0.598</v>
       </c>
       <c r="L122" t="n">
-        <v>149811</v>
+        <v>25679</v>
       </c>
       <c r="M122" t="n">
-        <v>15.147</v>
+        <v>0.587</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q122" t="s">
         <v>709</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>708</v>
       </c>
       <c r="R122" t="s">
         <v>37</v>
@@ -9615,7 +9651,7 @@
         <v>712</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44332</v>
+        <v>44337</v>
       </c>
       <c r="D123" t="s">
         <v>713</v>
@@ -9623,154 +9659,154 @@
       <c r="E123" t="s">
         <v>714</v>
       </c>
-      <c r="F123" t="s">
-        <v>715</v>
-      </c>
+      <c r="F123"/>
       <c r="G123" t="n">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="H123" t="n">
-        <v>166384182</v>
+        <v>48000395</v>
       </c>
       <c r="I123" t="n">
-        <v>2450.935</v>
+        <v>4853.231</v>
       </c>
       <c r="J123" t="n">
-        <v>1086443</v>
+        <v>241630</v>
       </c>
       <c r="K123" t="n">
-        <v>16.004</v>
+        <v>24.431</v>
       </c>
       <c r="L123" t="n">
-        <v>593944</v>
+        <v>171513</v>
       </c>
       <c r="M123" t="n">
-        <v>8.749</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O123" t="n">
-        <v>259.7</v>
-      </c>
+        <v>17.341</v>
+      </c>
+      <c r="N123"/>
+      <c r="O123"/>
       <c r="P123" t="s">
         <v>714</v>
       </c>
       <c r="Q123" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="R123" t="s">
         <v>37</v>
       </c>
       <c r="S123" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>716</v>
+      </c>
+      <c r="B124" t="s">
+        <v>717</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>44335</v>
+      </c>
+      <c r="D124" t="s">
         <v>718</v>
       </c>
-      <c r="B124" t="s">
+      <c r="E124" t="s">
         <v>719</v>
       </c>
-      <c r="C124" s="1" t="n">
-        <v>44330</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>720</v>
       </c>
-      <c r="E124" t="s">
+      <c r="G124" t="n">
+        <v>415</v>
+      </c>
+      <c r="H124" t="n">
+        <v>169635175</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2498.824</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1180660</v>
+      </c>
+      <c r="K124" t="n">
+        <v>17.392</v>
+      </c>
+      <c r="L124" t="n">
+        <v>610448</v>
+      </c>
+      <c r="M124" t="n">
+        <v>8.992</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O124" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="P124" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q124" t="s">
         <v>721</v>
       </c>
-      <c r="F124"/>
-      <c r="G124" t="n">
-        <v>440</v>
-      </c>
-      <c r="H124" t="n">
-        <v>433570412</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1309.87</v>
-      </c>
-      <c r="J124" t="n">
-        <v>350618</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.059</v>
-      </c>
-      <c r="L124" t="n">
-        <v>717437</v>
-      </c>
-      <c r="M124" t="n">
-        <v>2.167</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="O124" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="P124" t="s">
-        <v>721</v>
-      </c>
-      <c r="Q124" t="s">
+      <c r="R124" t="s">
+        <v>37</v>
+      </c>
+      <c r="S124" t="s">
         <v>722</v>
-      </c>
-      <c r="R124" t="s">
-        <v>723</v>
-      </c>
-      <c r="S124" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>723</v>
+      </c>
+      <c r="B125" t="s">
+        <v>724</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>44334</v>
+      </c>
+      <c r="D125" t="s">
         <v>725</v>
       </c>
-      <c r="B125" t="s">
+      <c r="E125" t="s">
         <v>726</v>
-      </c>
-      <c r="C125" s="1" t="n">
-        <v>44332</v>
-      </c>
-      <c r="D125" t="s">
-        <v>727</v>
-      </c>
-      <c r="E125" t="s">
-        <v>169</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="H125" t="n">
-        <v>2005217</v>
+        <v>437600853</v>
       </c>
       <c r="I125" t="n">
-        <v>577.252</v>
-      </c>
-      <c r="J125"/>
-      <c r="K125"/>
+        <v>1322.046</v>
+      </c>
+      <c r="J125" t="n">
+        <v>385860</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1.166</v>
+      </c>
       <c r="L125" t="n">
-        <v>13677</v>
+        <v>752803</v>
       </c>
       <c r="M125" t="n">
-        <v>3.937</v>
+        <v>2.274</v>
       </c>
       <c r="N125" t="n">
-        <v>0.207</v>
+        <v>0.038</v>
       </c>
       <c r="O125" t="n">
-        <v>4.8</v>
+        <v>26.3</v>
       </c>
       <c r="P125" t="s">
-        <v>169</v>
+        <v>726</v>
       </c>
       <c r="Q125" t="s">
+        <v>727</v>
+      </c>
+      <c r="R125" t="s">
         <v>728</v>
-      </c>
-      <c r="R125" t="s">
-        <v>37</v>
       </c>
       <c r="S125" t="s">
         <v>729</v>
@@ -9784,159 +9820,220 @@
         <v>731</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D126" t="s">
         <v>732</v>
       </c>
       <c r="E126" t="s">
-        <v>733</v>
+        <v>169</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>87</v>
+        <v>358</v>
       </c>
       <c r="H126" t="n">
-        <v>3000000</v>
+        <v>2044626</v>
       </c>
       <c r="I126" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="J126"/>
-      <c r="K126"/>
+        <v>588.597</v>
+      </c>
+      <c r="J126" t="n">
+        <v>14060</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4.048</v>
+      </c>
       <c r="L126" t="n">
-        <v>23529</v>
+        <v>13469</v>
       </c>
       <c r="M126" t="n">
-        <v>0.242</v>
+        <v>3.877</v>
       </c>
       <c r="N126" t="n">
-        <v>0.005</v>
+        <v>0.226</v>
       </c>
       <c r="O126" t="n">
-        <v>190</v>
+        <v>4.4</v>
       </c>
       <c r="P126" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q126" t="s">
         <v>733</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="R126" t="s">
+        <v>37</v>
+      </c>
+      <c r="S126" t="s">
         <v>734</v>
-      </c>
-      <c r="R126" t="s">
-        <v>91</v>
-      </c>
-      <c r="S126" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>735</v>
+      </c>
+      <c r="B127" t="s">
         <v>736</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" s="1" t="n">
+        <v>44334</v>
+      </c>
+      <c r="D127" t="s">
         <v>737</v>
       </c>
-      <c r="C127" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>738</v>
-      </c>
-      <c r="E127" t="s">
-        <v>739</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="H127" t="n">
-        <v>1474620</v>
+        <v>3324043</v>
       </c>
       <c r="I127" t="n">
-        <v>80.212</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2988</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.163</v>
-      </c>
+        <v>34.149</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
       <c r="L127" t="n">
-        <v>4586</v>
+        <v>27427</v>
       </c>
       <c r="M127" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="N127"/>
-      <c r="O127"/>
+        <v>0.282</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O127" t="n">
+        <v>204</v>
+      </c>
       <c r="P127" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>739</v>
+      </c>
+      <c r="R127" t="s">
+        <v>91</v>
+      </c>
+      <c r="S127" t="s">
         <v>740</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>738</v>
-      </c>
-      <c r="R127" t="s">
-        <v>37</v>
-      </c>
-      <c r="S127" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>741</v>
+      </c>
+      <c r="B128" t="s">
         <v>742</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D128" t="s">
         <v>743</v>
       </c>
-      <c r="C128" s="1" t="n">
-        <v>44331</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>744</v>
-      </c>
-      <c r="E128" t="s">
-        <v>745</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="H128" t="n">
-        <v>522314</v>
+        <v>1493858</v>
       </c>
       <c r="I128" t="n">
-        <v>35.142</v>
+        <v>81.259</v>
       </c>
       <c r="J128" t="n">
-        <v>2022</v>
+        <v>8446</v>
       </c>
       <c r="K128" t="n">
-        <v>0.136</v>
+        <v>0.459</v>
       </c>
       <c r="L128" t="n">
-        <v>1938</v>
+        <v>5226</v>
       </c>
       <c r="M128" t="n">
-        <v>0.13</v>
+        <v>0.284</v>
       </c>
       <c r="N128" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="O128" t="n">
-        <v>96.9</v>
+        <v>74.4</v>
       </c>
       <c r="P128" t="s">
         <v>745</v>
       </c>
       <c r="Q128" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="R128" t="s">
         <v>37</v>
       </c>
       <c r="S128" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
         <v>747</v>
+      </c>
+      <c r="B129" t="s">
+        <v>748</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="D129" t="s">
+        <v>749</v>
+      </c>
+      <c r="E129" t="s">
+        <v>750</v>
+      </c>
+      <c r="F129"/>
+      <c r="G129" t="n">
+        <v>377</v>
+      </c>
+      <c r="H129" t="n">
+        <v>532459</v>
+      </c>
+      <c r="I129" t="n">
+        <v>35.825</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2134</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1985</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O129" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="P129" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>751</v>
+      </c>
+      <c r="R129" t="s">
+        <v>37</v>
+      </c>
+      <c r="S129" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-1457-new-covid-19-cases-1531-recoveries-in-past-24-hours_i_0000129869.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1756-new-cases-1725-recoveries_i_0000129938.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210520-vqrutiuu/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210521-abejzev6/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -2499,7 +2499,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-19-mayo</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-20-mayo</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2907,7 +2907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3253,7 +3253,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3263,31 +3263,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H7" t="n">
-        <v>37237382</v>
+        <v>37626034</v>
       </c>
       <c r="I7" t="n">
-        <v>4134.547</v>
+        <v>4177.7</v>
       </c>
       <c r="J7" t="n">
-        <v>396564</v>
+        <v>388652</v>
       </c>
       <c r="K7" t="n">
-        <v>44.031</v>
+        <v>43.153</v>
       </c>
       <c r="L7" t="n">
-        <v>264909</v>
+        <v>261046</v>
       </c>
       <c r="M7" t="n">
-        <v>29.413</v>
+        <v>28.984</v>
       </c>
       <c r="N7" t="n">
         <v>0.003</v>
       </c>
       <c r="O7" t="n">
-        <v>364</v>
+        <v>386.9</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3473,7 +3473,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3483,28 +3483,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H11" t="n">
-        <v>6154084</v>
+        <v>6174150</v>
       </c>
       <c r="I11" t="n">
-        <v>651.273</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
+        <v>653.396</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20066</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.124</v>
+      </c>
       <c r="L11" t="n">
-        <v>16849</v>
+        <v>17248</v>
       </c>
       <c r="M11" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="O11" t="n">
-        <v>12.7</v>
-      </c>
+        <v>1.825</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3703,32 +3703,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H15" t="n">
-        <v>954240</v>
+        <v>956536</v>
       </c>
       <c r="I15" t="n">
-        <v>290.855</v>
+        <v>291.554</v>
       </c>
       <c r="J15" t="n">
-        <v>2121</v>
+        <v>2296</v>
       </c>
       <c r="K15" t="n">
-        <v>0.646</v>
+        <v>0.7</v>
       </c>
       <c r="L15" t="n">
-        <v>2569</v>
+        <v>2653</v>
       </c>
       <c r="M15" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="O15" t="n">
-        <v>17.7</v>
-      </c>
+        <v>0.809</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
       <c r="P15" t="s">
         <v>101</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>302</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="D50" t="s">
         <v>303</v>
@@ -5622,32 +5618,28 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H50" t="n">
-        <v>10598569</v>
+        <v>10670344</v>
       </c>
       <c r="I50" t="n">
-        <v>38.748</v>
+        <v>39.011</v>
       </c>
       <c r="J50" t="n">
-        <v>55741</v>
+        <v>71775</v>
       </c>
       <c r="K50" t="n">
-        <v>0.204</v>
+        <v>0.262</v>
       </c>
       <c r="L50" t="n">
-        <v>36499</v>
+        <v>44475</v>
       </c>
       <c r="M50" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="O50" t="n">
-        <v>9.4</v>
-      </c>
+        <v>0.163</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50" t="s">
         <v>304</v>
       </c>
@@ -6494,7 +6486,7 @@
         <v>394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="D66" t="s">
         <v>395</v>
@@ -6504,31 +6496,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H66" t="n">
-        <v>44123</v>
+        <v>44398</v>
       </c>
       <c r="I66" t="n">
-        <v>1156.96</v>
+        <v>1164.171</v>
       </c>
       <c r="J66" t="n">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="K66" t="n">
-        <v>6.267</v>
+        <v>7.158</v>
       </c>
       <c r="L66" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M66" t="n">
-        <v>4.641</v>
+        <v>4.589</v>
       </c>
       <c r="N66" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="O66" t="n">
-        <v>66.7</v>
+        <v>76.9</v>
       </c>
       <c r="P66" t="s">
         <v>396</v>
@@ -6551,7 +6543,7 @@
         <v>400</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44331</v>
+        <v>44336</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -6561,31 +6553,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H67" t="n">
-        <v>3200375</v>
+        <v>3299273</v>
       </c>
       <c r="I67" t="n">
-        <v>1175.618</v>
+        <v>1211.947</v>
       </c>
       <c r="J67" t="n">
-        <v>12055</v>
+        <v>19730</v>
       </c>
       <c r="K67" t="n">
-        <v>4.428</v>
+        <v>7.248</v>
       </c>
       <c r="L67" t="n">
-        <v>19887</v>
+        <v>18719</v>
       </c>
       <c r="M67" t="n">
-        <v>7.305</v>
+        <v>6.876</v>
       </c>
       <c r="N67" t="n">
-        <v>0.058</v>
+        <v>0.047</v>
       </c>
       <c r="O67" t="n">
-        <v>17.2</v>
+        <v>21.3</v>
       </c>
       <c r="P67" t="s">
         <v>402</v>
@@ -7653,7 +7645,7 @@
         <v>517</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="D87" t="s">
         <v>518</v>
@@ -7663,31 +7655,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H87" t="n">
-        <v>5437013</v>
+        <v>5463210</v>
       </c>
       <c r="I87" t="n">
-        <v>1002.909</v>
+        <v>1007.741</v>
       </c>
       <c r="J87" t="n">
-        <v>25760</v>
+        <v>25107</v>
       </c>
       <c r="K87" t="n">
-        <v>4.752</v>
+        <v>4.631</v>
       </c>
       <c r="L87" t="n">
-        <v>14268</v>
+        <v>15266</v>
       </c>
       <c r="M87" t="n">
-        <v>2.632</v>
+        <v>2.816</v>
       </c>
       <c r="N87" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="O87" t="n">
-        <v>43.1</v>
+        <v>46.5</v>
       </c>
       <c r="P87" t="s">
         <v>519</v>
@@ -8478,7 +8470,7 @@
         <v>598</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="D102" t="s">
         <v>599</v>
@@ -8488,31 +8480,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H102" t="n">
-        <v>18288859</v>
+        <v>18370537</v>
       </c>
       <c r="I102" t="n">
-        <v>525.333</v>
+        <v>527.679</v>
       </c>
       <c r="J102" t="n">
-        <v>93896</v>
+        <v>81678</v>
       </c>
       <c r="K102" t="n">
-        <v>2.697</v>
+        <v>2.346</v>
       </c>
       <c r="L102" t="n">
-        <v>68069</v>
+        <v>71667</v>
       </c>
       <c r="M102" t="n">
-        <v>1.955</v>
+        <v>2.059</v>
       </c>
       <c r="N102" t="n">
         <v>0.014</v>
       </c>
       <c r="O102" t="n">
-        <v>69.6</v>
+        <v>71</v>
       </c>
       <c r="P102" t="s">
         <v>42</v>
@@ -8535,7 +8527,7 @@
         <v>602</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="D103" t="s">
         <v>603</v>
@@ -8545,32 +8537,28 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H103" t="n">
-        <v>514271</v>
+        <v>515709</v>
       </c>
       <c r="I103" t="n">
-        <v>30.714</v>
+        <v>30.8</v>
       </c>
       <c r="J103" t="n">
-        <v>1235</v>
+        <v>1438</v>
       </c>
       <c r="K103" t="n">
-        <v>0.074</v>
+        <v>0.086</v>
       </c>
       <c r="L103" t="n">
-        <v>1156</v>
+        <v>1210</v>
       </c>
       <c r="M103" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="O103" t="n">
-        <v>47.3</v>
-      </c>
+        <v>0.072</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103"/>
       <c r="P103" t="s">
         <v>604</v>
       </c>
@@ -9146,7 +9134,7 @@
         <v>662</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="D114" t="s">
         <v>395</v>
@@ -9156,31 +9144,31 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H114" t="n">
-        <v>7009089</v>
+        <v>7048062</v>
       </c>
       <c r="I114" t="n">
-        <v>809.867</v>
+        <v>814.37</v>
       </c>
       <c r="J114" t="n">
-        <v>26043</v>
+        <v>31451</v>
       </c>
       <c r="K114" t="n">
-        <v>3.009</v>
+        <v>3.634</v>
       </c>
       <c r="L114" t="n">
-        <v>22089</v>
+        <v>25273</v>
       </c>
       <c r="M114" t="n">
-        <v>2.552</v>
+        <v>2.92</v>
       </c>
       <c r="N114" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="O114" t="n">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="P114" t="s">
         <v>396</v>
@@ -9820,7 +9808,7 @@
         <v>731</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="D126" t="s">
         <v>732</v>
@@ -9830,31 +9818,31 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H126" t="n">
-        <v>2044626</v>
+        <v>2065863</v>
       </c>
       <c r="I126" t="n">
-        <v>588.597</v>
+        <v>594.711</v>
       </c>
       <c r="J126" t="n">
-        <v>14060</v>
+        <v>21237</v>
       </c>
       <c r="K126" t="n">
-        <v>4.048</v>
+        <v>6.114</v>
       </c>
       <c r="L126" t="n">
-        <v>13469</v>
+        <v>14292</v>
       </c>
       <c r="M126" t="n">
-        <v>3.877</v>
+        <v>4.114</v>
       </c>
       <c r="N126" t="n">
-        <v>0.226</v>
+        <v>0.22</v>
       </c>
       <c r="O126" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="P126" t="s">
         <v>169</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="754">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3920</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3932</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-20-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-24-may-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1756-new-cases-1725-recoveries_i_0000129938.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-953-new-cases-652-recoveries_i_0000130024.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4181421538586097/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4190765370985047/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5577-reporte-430-de-covid-19-1-480-pacientes-recuperados-9-600-pruebas-negativas-y-1-246-112-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5585-reporte-432-de-covid-19-1-634-pacientes-recuperados-9-498-pruebas-negativas-y-1-357-045-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-23-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1907336076098744</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1909804992518519</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=1f048e6a2c</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=46976ec752</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -667,7 +667,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.423.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-especial-430-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-20052021-1.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-23052021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210513.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210522.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/364252</t>
+    <t xml:space="preserve">http://irangov.ir/detail/364452</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1080,7 +1080,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1395004268545986569</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1395752641892847619</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1183,7 +1183,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-may-4-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-may-22-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5806</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5808</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1395454336705118219</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1396511283533467648</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1401,7 +1401,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4137145263016693/4137133319684554/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4168164826581403/4168161566581729/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1443,7 +1443,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-20052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-23052021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1468,7 +1468,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1395428596773126144</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1396511086950551555</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.104589584592927/339919294393287/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/344503613934855/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-12-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1188/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-22-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1203/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/20.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/23.5.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1602,7 +1602,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=978:boletim-diario-covid-19-n-421</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=988:boletim-diario-covid-19-n-431</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1623,7 +1623,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(13-5-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(22-5-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.747303019276037/747302915942714</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.751022265570779/751022168904122</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1665,7 +1665,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1W94_drQGsIRKTlEYxOYRcwEym-1wDGfu</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1EMe5R7_xsJLEZfMvgDHA_O7iz8q-m6za</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1749,6 +1749,9 @@
     <t xml:space="preserve">North Macedonia - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://koronavirus.gov.mk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
   </si>
   <si>
@@ -1837,7 +1840,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1392621233011896328</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1396245637570629637</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1890,7 +1893,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1ACat5a8YCtJDnAi6hU_nJGUQekq95yXw?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1X4MjT-Wui02Yp23WBlpFheKCotxVdbxQ?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1974,7 +1977,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESA%CC%86_21_MAI.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_23_mai_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1997,7 +2000,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17832</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17874</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2326,7 +2329,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-721/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-733/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2499,7 +2502,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-20-mayo</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-23-mayo</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2907,7 +2910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3086,7 +3089,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3096,31 +3099,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H4" t="n">
-        <v>9352692</v>
+        <v>9533958</v>
       </c>
       <c r="I4" t="n">
-        <v>206.937</v>
+        <v>210.948</v>
       </c>
       <c r="J4" t="n">
-        <v>30449</v>
+        <v>38713</v>
       </c>
       <c r="K4" t="n">
-        <v>0.674</v>
+        <v>0.857</v>
       </c>
       <c r="L4" t="n">
-        <v>33995</v>
+        <v>37971</v>
       </c>
       <c r="M4" t="n">
-        <v>0.752</v>
+        <v>0.84</v>
       </c>
       <c r="N4" t="n">
-        <v>0.306</v>
+        <v>0.318</v>
       </c>
       <c r="O4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3143,7 +3146,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3153,27 +3156,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H5" t="n">
-        <v>1050075</v>
+        <v>1060108</v>
       </c>
       <c r="I5" t="n">
-        <v>354.368</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
+        <v>357.754</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2963</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" t="n">
-        <v>3300</v>
+        <v>3348</v>
       </c>
       <c r="M5" t="n">
-        <v>1.114</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>0.058</v>
+        <v>0.046</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>21.5</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3196,7 +3203,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3206,31 +3213,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H6" t="n">
-        <v>17734254</v>
+        <v>17891090</v>
       </c>
       <c r="I6" t="n">
-        <v>695.464</v>
+        <v>701.615</v>
       </c>
       <c r="J6" t="n">
-        <v>55245</v>
+        <v>33970</v>
       </c>
       <c r="K6" t="n">
-        <v>2.166</v>
+        <v>1.332</v>
       </c>
       <c r="L6" t="n">
-        <v>46073</v>
+        <v>44293</v>
       </c>
       <c r="M6" t="n">
-        <v>1.807</v>
+        <v>1.737</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7678.8</v>
+        <v>6740.7</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3253,7 +3260,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3263,31 +3270,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H7" t="n">
-        <v>37626034</v>
+        <v>38877709</v>
       </c>
       <c r="I7" t="n">
-        <v>4177.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>388652</v>
-      </c>
-      <c r="K7" t="n">
-        <v>43.153</v>
-      </c>
+        <v>4316.676</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>261046</v>
+        <v>354948</v>
       </c>
       <c r="M7" t="n">
-        <v>28.984</v>
+        <v>39.411</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O7" t="n">
-        <v>386.9</v>
+        <v>580.1</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3310,7 +3313,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3320,25 +3323,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H8" t="n">
-        <v>3425183</v>
+        <v>3458790</v>
       </c>
       <c r="I8" t="n">
-        <v>337.817</v>
+        <v>341.131</v>
       </c>
       <c r="J8" t="n">
-        <v>10569</v>
+        <v>5546</v>
       </c>
       <c r="K8" t="n">
-        <v>1.042</v>
+        <v>0.547</v>
       </c>
       <c r="L8" t="n">
-        <v>8113</v>
+        <v>8773</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8</v>
+        <v>0.865</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3363,7 +3366,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3373,25 +3376,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H9" t="n">
-        <v>4432836</v>
+        <v>4509481</v>
       </c>
       <c r="I9" t="n">
-        <v>2605.125</v>
+        <v>2650.168</v>
       </c>
       <c r="J9" t="n">
-        <v>19847</v>
+        <v>19951</v>
       </c>
       <c r="K9" t="n">
-        <v>11.664</v>
+        <v>11.725</v>
       </c>
       <c r="L9" t="n">
-        <v>17841</v>
+        <v>19352</v>
       </c>
       <c r="M9" t="n">
-        <v>10.485</v>
+        <v>11.373</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3416,7 +3419,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3426,31 +3429,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H10" t="n">
-        <v>5764480</v>
+        <v>5827892</v>
       </c>
       <c r="I10" t="n">
-        <v>35.002</v>
+        <v>35.387</v>
       </c>
       <c r="J10" t="n">
-        <v>19437</v>
+        <v>17683</v>
       </c>
       <c r="K10" t="n">
-        <v>0.118</v>
+        <v>0.107</v>
       </c>
       <c r="L10" t="n">
-        <v>12027</v>
+        <v>17176</v>
       </c>
       <c r="M10" t="n">
-        <v>0.073</v>
+        <v>0.104</v>
       </c>
       <c r="N10" t="n">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="O10" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3473,7 +3476,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3483,28 +3486,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H11" t="n">
-        <v>6174150</v>
+        <v>6221882</v>
       </c>
       <c r="I11" t="n">
-        <v>653.396</v>
-      </c>
-      <c r="J11" t="n">
-        <v>20066</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.124</v>
-      </c>
+        <v>658.448</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>17248</v>
+        <v>16667</v>
       </c>
       <c r="M11" t="n">
-        <v>1.825</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>1.764</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12.4</v>
+      </c>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3536,31 +3539,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H12" t="n">
-        <v>13483491</v>
+        <v>13656648</v>
       </c>
       <c r="I12" t="n">
-        <v>1163.411</v>
+        <v>1178.352</v>
       </c>
       <c r="J12" t="n">
-        <v>62461</v>
+        <v>21535</v>
       </c>
       <c r="K12" t="n">
-        <v>5.389</v>
+        <v>1.858</v>
       </c>
       <c r="L12" t="n">
-        <v>43008</v>
+        <v>49807</v>
       </c>
       <c r="M12" t="n">
-        <v>3.711</v>
+        <v>4.298</v>
       </c>
       <c r="N12" t="n">
-        <v>0.057</v>
+        <v>0.054</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3583,7 +3586,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3593,27 +3596,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H13" t="n">
-        <v>758137</v>
+        <v>768998</v>
       </c>
       <c r="I13" t="n">
-        <v>982.537</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
+        <v>996.612</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4230</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.482</v>
+      </c>
       <c r="L13" t="n">
-        <v>3124</v>
+        <v>3310</v>
       </c>
       <c r="M13" t="n">
-        <v>4.049</v>
+        <v>4.29</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6</v>
+        <v>214.5</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -3636,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3646,31 +3653,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H14" t="n">
-        <v>1342772</v>
+        <v>1368290</v>
       </c>
       <c r="I14" t="n">
-        <v>115.032</v>
+        <v>117.218</v>
       </c>
       <c r="J14" t="n">
-        <v>12366</v>
+        <v>12503</v>
       </c>
       <c r="K14" t="n">
-        <v>1.059</v>
+        <v>1.071</v>
       </c>
       <c r="L14" t="n">
-        <v>9552</v>
+        <v>9975</v>
       </c>
       <c r="M14" t="n">
-        <v>0.818</v>
+        <v>0.855</v>
       </c>
       <c r="N14" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="O14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="P14" t="s">
         <v>42</v>
@@ -3693,7 +3700,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3703,28 +3710,28 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H15" t="n">
-        <v>956536</v>
+        <v>962537</v>
       </c>
       <c r="I15" t="n">
-        <v>291.554</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2296</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.7</v>
-      </c>
+        <v>293.384</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
       <c r="L15" t="n">
-        <v>2653</v>
+        <v>2425</v>
       </c>
       <c r="M15" t="n">
-        <v>0.809</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
+        <v>0.739</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O15" t="n">
+        <v>18.8</v>
+      </c>
       <c r="P15" t="s">
         <v>101</v>
       </c>
@@ -3795,7 +3802,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3805,25 +3812,25 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H17" t="n">
-        <v>2722728</v>
+        <v>2754463</v>
       </c>
       <c r="I17" t="n">
-        <v>391.847</v>
+        <v>396.414</v>
       </c>
       <c r="J17" t="n">
-        <v>13163</v>
+        <v>4579</v>
       </c>
       <c r="K17" t="n">
-        <v>1.894</v>
+        <v>0.659</v>
       </c>
       <c r="L17" t="n">
-        <v>11461</v>
+        <v>9964</v>
       </c>
       <c r="M17" t="n">
-        <v>1.649</v>
+        <v>1.434</v>
       </c>
       <c r="N17"/>
       <c r="O17"/>
@@ -3905,7 +3912,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -3915,31 +3922,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H19" t="n">
-        <v>33863629</v>
+        <v>34218813</v>
       </c>
       <c r="I19" t="n">
-        <v>897.236</v>
+        <v>906.647</v>
       </c>
       <c r="J19" t="n">
-        <v>109518</v>
+        <v>61928</v>
       </c>
       <c r="K19" t="n">
-        <v>2.902</v>
+        <v>1.641</v>
       </c>
       <c r="L19" t="n">
-        <v>104773</v>
+        <v>89506</v>
       </c>
       <c r="M19" t="n">
-        <v>2.776</v>
+        <v>2.372</v>
       </c>
       <c r="N19" t="n">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="O19" t="n">
-        <v>20.6</v>
+        <v>24.1</v>
       </c>
       <c r="P19" t="s">
         <v>119</v>
@@ -3962,7 +3969,7 @@
         <v>125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44335</v>
+        <v>44338</v>
       </c>
       <c r="D20" t="s">
         <v>126</v>
@@ -3972,15 +3979,15 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>1470</v>
+        <v>889</v>
       </c>
       <c r="K20" t="n">
-        <v>2.644</v>
+        <v>1.599</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -4007,7 +4014,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -4017,25 +4024,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H21" t="n">
-        <v>14145067</v>
+        <v>14392767</v>
       </c>
       <c r="I21" t="n">
-        <v>739.951</v>
+        <v>752.909</v>
       </c>
       <c r="J21" t="n">
-        <v>68721</v>
+        <v>43802</v>
       </c>
       <c r="K21" t="n">
-        <v>3.595</v>
+        <v>2.291</v>
       </c>
       <c r="L21" t="n">
-        <v>56398</v>
+        <v>54160</v>
       </c>
       <c r="M21" t="n">
-        <v>2.95</v>
+        <v>2.833</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4105,7 +4112,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -4115,31 +4122,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H23" t="n">
-        <v>16103661</v>
+        <v>16376107</v>
       </c>
       <c r="I23" t="n">
-        <v>316.485</v>
+        <v>321.839</v>
       </c>
       <c r="J23" t="n">
-        <v>71291</v>
+        <v>40771</v>
       </c>
       <c r="K23" t="n">
-        <v>1.401</v>
+        <v>0.801</v>
       </c>
       <c r="L23" t="n">
-        <v>61952</v>
+        <v>65821</v>
       </c>
       <c r="M23" t="n">
-        <v>1.218</v>
+        <v>1.294</v>
       </c>
       <c r="N23" t="n">
-        <v>0.266</v>
+        <v>0.288</v>
       </c>
       <c r="O23" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P23" t="s">
         <v>146</v>
@@ -4162,7 +4169,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44334</v>
+        <v>44338</v>
       </c>
       <c r="D24" t="s">
         <v>151</v>
@@ -4172,28 +4179,28 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H24" t="n">
-        <v>941538</v>
+        <v>971644</v>
       </c>
       <c r="I24" t="n">
-        <v>184.829</v>
+        <v>190.739</v>
       </c>
       <c r="J24" t="n">
-        <v>4800</v>
+        <v>8861</v>
       </c>
       <c r="K24" t="n">
-        <v>0.942</v>
+        <v>1.739</v>
       </c>
       <c r="L24" t="n">
-        <v>6954</v>
+        <v>6571</v>
       </c>
       <c r="M24" t="n">
-        <v>1.365</v>
+        <v>1.29</v>
       </c>
       <c r="N24" t="n">
-        <v>0.289</v>
+        <v>0.284</v>
       </c>
       <c r="O24" t="n">
         <v>3.5</v>
@@ -4219,7 +4226,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -4229,31 +4236,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H25" t="n">
-        <v>627781</v>
+        <v>635046</v>
       </c>
       <c r="I25" t="n">
-        <v>23.799</v>
+        <v>24.075</v>
       </c>
       <c r="J25" t="n">
-        <v>2158</v>
+        <v>2856</v>
       </c>
       <c r="K25" t="n">
-        <v>0.082</v>
+        <v>0.108</v>
       </c>
       <c r="L25" t="n">
-        <v>1672</v>
+        <v>1948</v>
       </c>
       <c r="M25" t="n">
-        <v>0.063</v>
+        <v>0.074</v>
       </c>
       <c r="N25" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="O25" t="n">
-        <v>37.3</v>
+        <v>47.7</v>
       </c>
       <c r="P25" t="s">
         <v>157</v>
@@ -4276,7 +4283,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -4286,28 +4293,32 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H26" t="n">
-        <v>1958888</v>
+        <v>1970997</v>
       </c>
       <c r="I26" t="n">
-        <v>477.164</v>
+        <v>480.114</v>
       </c>
       <c r="J26" t="n">
-        <v>5829</v>
+        <v>5612</v>
       </c>
       <c r="K26" t="n">
-        <v>1.42</v>
+        <v>1.367</v>
       </c>
       <c r="L26" t="n">
-        <v>6556</v>
+        <v>6248</v>
       </c>
       <c r="M26" t="n">
-        <v>1.597</v>
-      </c>
-      <c r="N26"/>
-      <c r="O26"/>
+        <v>1.522</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="O26" t="n">
+        <v>12.2</v>
+      </c>
       <c r="P26" t="s">
         <v>163</v>
       </c>
@@ -4329,7 +4340,7 @@
         <v>167</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="D27" t="s">
         <v>168</v>
@@ -4341,31 +4352,31 @@
         <v>170</v>
       </c>
       <c r="G27" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H27" t="n">
-        <v>4082100</v>
+        <v>4171500</v>
       </c>
       <c r="I27" t="n">
-        <v>360.399</v>
+        <v>368.292</v>
       </c>
       <c r="J27" t="n">
-        <v>21574</v>
+        <v>21259</v>
       </c>
       <c r="K27" t="n">
-        <v>1.905</v>
+        <v>1.877</v>
       </c>
       <c r="L27" t="n">
-        <v>22670</v>
+        <v>22231</v>
       </c>
       <c r="M27" t="n">
-        <v>2.001</v>
+        <v>1.963</v>
       </c>
       <c r="N27" t="n">
         <v>0.055</v>
       </c>
       <c r="O27" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P27" t="s">
         <v>169</v>
@@ -4388,7 +4399,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D28" t="s">
         <v>175</v>
@@ -4398,31 +4409,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H28" t="n">
-        <v>6417654</v>
+        <v>6672131</v>
       </c>
       <c r="I28" t="n">
-        <v>7326.934</v>
+        <v>7617.466</v>
       </c>
       <c r="J28" t="n">
-        <v>49364</v>
+        <v>52815</v>
       </c>
       <c r="K28" t="n">
-        <v>56.358</v>
+        <v>60.298</v>
       </c>
       <c r="L28" t="n">
-        <v>63074</v>
+        <v>56248</v>
       </c>
       <c r="M28" t="n">
-        <v>72.011</v>
+        <v>64.217</v>
       </c>
       <c r="N28" t="n">
         <v>0.002</v>
       </c>
       <c r="O28" t="n">
-        <v>424.9</v>
+        <v>579</v>
       </c>
       <c r="P28" t="s">
         <v>42</v>
@@ -4445,7 +4456,7 @@
         <v>178</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D29" t="s">
         <v>179</v>
@@ -4455,27 +4466,27 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>201632</v>
+        <v>253854</v>
       </c>
       <c r="K29" t="n">
-        <v>18.828</v>
+        <v>23.705</v>
       </c>
       <c r="L29" t="n">
-        <v>188861</v>
+        <v>190299</v>
       </c>
       <c r="M29" t="n">
-        <v>17.636</v>
+        <v>17.77</v>
       </c>
       <c r="N29" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O29" t="n">
-        <v>250</v>
+        <v>333.3</v>
       </c>
       <c r="P29" t="s">
         <v>42</v>
@@ -4498,7 +4509,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4508,27 +4519,27 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="K30" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="L30" t="n">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="M30" t="n">
         <v>0.003</v>
       </c>
       <c r="N30" t="n">
-        <v>0.176</v>
+        <v>0.15</v>
       </c>
       <c r="O30" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4608,7 +4619,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44331</v>
+        <v>44338</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4618,27 +4629,27 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H32" t="n">
-        <v>1478358</v>
+        <v>1512067</v>
       </c>
       <c r="I32" t="n">
-        <v>136.281</v>
+        <v>139.388</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>5303</v>
+        <v>4816</v>
       </c>
       <c r="M32" t="n">
-        <v>0.489</v>
+        <v>0.444</v>
       </c>
       <c r="N32" t="n">
-        <v>0.153</v>
+        <v>0.19</v>
       </c>
       <c r="O32" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="P32" t="s">
         <v>196</v>
@@ -4661,7 +4672,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4673,31 +4684,31 @@
         <v>203</v>
       </c>
       <c r="G33" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H33" t="n">
-        <v>1331176</v>
+        <v>1344453</v>
       </c>
       <c r="I33" t="n">
-        <v>75.45</v>
+        <v>76.203</v>
       </c>
       <c r="J33" t="n">
-        <v>6060</v>
+        <v>3961</v>
       </c>
       <c r="K33" t="n">
-        <v>0.343</v>
+        <v>0.225</v>
       </c>
       <c r="L33" t="n">
-        <v>4417</v>
+        <v>4265</v>
       </c>
       <c r="M33" t="n">
-        <v>0.25</v>
+        <v>0.242</v>
       </c>
       <c r="N33" t="n">
-        <v>0.306</v>
+        <v>0.292</v>
       </c>
       <c r="O33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P33" t="s">
         <v>204</v>
@@ -4777,7 +4788,7 @@
         <v>214</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D35" t="s">
         <v>215</v>
@@ -4787,31 +4798,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H35" t="n">
-        <v>1390533</v>
+        <v>1406283</v>
       </c>
       <c r="I35" t="n">
-        <v>1048.241</v>
+        <v>1060.114</v>
       </c>
       <c r="J35" t="n">
-        <v>4731</v>
+        <v>4921</v>
       </c>
       <c r="K35" t="n">
-        <v>3.566</v>
+        <v>3.71</v>
       </c>
       <c r="L35" t="n">
-        <v>4754</v>
+        <v>4533</v>
       </c>
       <c r="M35" t="n">
-        <v>3.584</v>
+        <v>3.417</v>
       </c>
       <c r="N35" t="n">
-        <v>0.052</v>
+        <v>0.046</v>
       </c>
       <c r="O35" t="n">
-        <v>19.3</v>
+        <v>21.7</v>
       </c>
       <c r="P35" t="s">
         <v>216</v>
@@ -4834,7 +4845,7 @@
         <v>219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D36" t="s">
         <v>220</v>
@@ -4844,31 +4855,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H36" t="n">
-        <v>2672100</v>
+        <v>2691240</v>
       </c>
       <c r="I36" t="n">
-        <v>23.243</v>
+        <v>23.41</v>
       </c>
       <c r="J36" t="n">
-        <v>5684</v>
+        <v>4106</v>
       </c>
       <c r="K36" t="n">
-        <v>0.049</v>
+        <v>0.036</v>
       </c>
       <c r="L36" t="n">
-        <v>4544</v>
+        <v>4980</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="N36" t="n">
-        <v>0.097</v>
+        <v>0.082</v>
       </c>
       <c r="O36" t="n">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="P36" t="s">
         <v>221</v>
@@ -4948,7 +4959,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44335</v>
+        <v>44338</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -4958,31 +4969,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H38" t="n">
-        <v>4851638</v>
+        <v>4882686</v>
       </c>
       <c r="I38" t="n">
-        <v>875.633</v>
+        <v>881.237</v>
       </c>
       <c r="J38" t="n">
-        <v>14901</v>
+        <v>2448</v>
       </c>
       <c r="K38" t="n">
-        <v>2.689</v>
+        <v>0.442</v>
       </c>
       <c r="L38" t="n">
-        <v>14547</v>
+        <v>12857</v>
       </c>
       <c r="M38" t="n">
-        <v>2.625</v>
+        <v>2.32</v>
       </c>
       <c r="N38" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="O38" t="n">
-        <v>71.9</v>
+        <v>58.9</v>
       </c>
       <c r="P38" t="s">
         <v>232</v>
@@ -5005,7 +5016,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44333</v>
+        <v>44337</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5015,27 +5026,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>468622</v>
+        <v>444490</v>
       </c>
       <c r="K39" t="n">
-        <v>6.936</v>
+        <v>6.579</v>
       </c>
       <c r="L39" t="n">
-        <v>314704</v>
+        <v>348730</v>
       </c>
       <c r="M39" t="n">
-        <v>4.658</v>
+        <v>5.161</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="O39" t="n">
-        <v>25</v>
+        <v>27.8</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5125,7 +5136,7 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H41" t="n">
         <v>4679000</v>
@@ -5221,7 +5232,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44331</v>
+        <v>44335</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5231,31 +5242,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H43" t="n">
-        <v>1130406</v>
+        <v>1143933</v>
       </c>
       <c r="I43" t="n">
-        <v>36.379</v>
+        <v>36.814</v>
       </c>
       <c r="J43" t="n">
-        <v>3270</v>
+        <v>3706</v>
       </c>
       <c r="K43" t="n">
-        <v>0.105</v>
+        <v>0.119</v>
       </c>
       <c r="L43" t="n">
-        <v>2752</v>
+        <v>3240</v>
       </c>
       <c r="M43" t="n">
-        <v>0.089</v>
+        <v>0.104</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="O43" t="n">
-        <v>49.8</v>
+        <v>68.5</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5278,7 +5289,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44329</v>
+        <v>44338</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5288,31 +5299,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H44" t="n">
-        <v>8707677</v>
+        <v>9167566</v>
       </c>
       <c r="I44" t="n">
-        <v>835.425</v>
+        <v>879.547</v>
       </c>
       <c r="J44" t="n">
-        <v>62315</v>
+        <v>55145</v>
       </c>
       <c r="K44" t="n">
-        <v>5.979</v>
+        <v>5.291</v>
       </c>
       <c r="L44" t="n">
-        <v>54677</v>
+        <v>47833</v>
       </c>
       <c r="M44" t="n">
-        <v>5.246</v>
+        <v>4.589</v>
       </c>
       <c r="N44" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="O44" t="n">
-        <v>23.5</v>
+        <v>25.6</v>
       </c>
       <c r="P44" t="s">
         <v>266</v>
@@ -5335,7 +5346,7 @@
         <v>270</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="D45" t="s">
         <v>271</v>
@@ -5345,31 +5356,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H45" t="n">
-        <v>1368017</v>
+        <v>1383617</v>
       </c>
       <c r="I45" t="n">
-        <v>76.359</v>
+        <v>77.23</v>
       </c>
       <c r="J45" t="n">
-        <v>7615</v>
+        <v>1170</v>
       </c>
       <c r="K45" t="n">
-        <v>0.425</v>
+        <v>0.065</v>
       </c>
       <c r="L45" t="n">
-        <v>5669</v>
+        <v>5431</v>
       </c>
       <c r="M45" t="n">
-        <v>0.316</v>
+        <v>0.303</v>
       </c>
       <c r="N45" t="n">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="O45" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="P45" t="s">
         <v>273</v>
@@ -5445,7 +5456,7 @@
         <v>284</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D47" t="s">
         <v>285</v>
@@ -5457,25 +5468,25 @@
         <v>287</v>
       </c>
       <c r="G47" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H47" t="n">
-        <v>5246912</v>
+        <v>5299523</v>
       </c>
       <c r="I47" t="n">
-        <v>543.139</v>
+        <v>548.585</v>
       </c>
       <c r="J47" t="n">
-        <v>10631</v>
+        <v>6368</v>
       </c>
       <c r="K47" t="n">
-        <v>1.1</v>
+        <v>0.659</v>
       </c>
       <c r="L47" t="n">
-        <v>12916</v>
+        <v>13461</v>
       </c>
       <c r="M47" t="n">
-        <v>1.337</v>
+        <v>1.393</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -5553,7 +5564,7 @@
         <v>296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D49" t="s">
         <v>297</v>
@@ -5565,28 +5576,32 @@
         <v>299</v>
       </c>
       <c r="G49" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H49" t="n">
-        <v>324417870</v>
+        <v>330536064</v>
       </c>
       <c r="I49" t="n">
-        <v>235.085</v>
+        <v>239.518</v>
       </c>
       <c r="J49" t="n">
-        <v>2061683</v>
+        <v>1928127</v>
       </c>
       <c r="K49" t="n">
-        <v>1.494</v>
+        <v>1.397</v>
       </c>
       <c r="L49" t="n">
-        <v>1870539</v>
+        <v>2016058</v>
       </c>
       <c r="M49" t="n">
-        <v>1.355</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
+        <v>1.461</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8.2</v>
+      </c>
       <c r="P49" t="s">
         <v>298</v>
       </c>
@@ -5608,7 +5623,7 @@
         <v>302</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D50" t="s">
         <v>303</v>
@@ -5618,28 +5633,32 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H50" t="n">
-        <v>10670344</v>
+        <v>10820194</v>
       </c>
       <c r="I50" t="n">
-        <v>39.011</v>
+        <v>39.559</v>
       </c>
       <c r="J50" t="n">
-        <v>71775</v>
+        <v>54406</v>
       </c>
       <c r="K50" t="n">
-        <v>0.262</v>
+        <v>0.199</v>
       </c>
       <c r="L50" t="n">
-        <v>44475</v>
+        <v>53433</v>
       </c>
       <c r="M50" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>0.195</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="O50" t="n">
+        <v>10.1</v>
+      </c>
       <c r="P50" t="s">
         <v>304</v>
       </c>
@@ -5661,7 +5680,7 @@
         <v>308</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D51" t="s">
         <v>309</v>
@@ -5671,24 +5690,28 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H51" t="n">
-        <v>18683814</v>
+        <v>19054521</v>
       </c>
       <c r="I51" t="n">
-        <v>222.445</v>
+        <v>226.859</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>133373</v>
+        <v>129005</v>
       </c>
       <c r="M51" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="N51"/>
-      <c r="O51"/>
+        <v>1.536</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="O51" t="n">
+        <v>11.6</v>
+      </c>
       <c r="P51" t="s">
         <v>310</v>
       </c>
@@ -5710,7 +5733,7 @@
         <v>314</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="D52" t="s">
         <v>315</v>
@@ -5720,31 +5743,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H52" t="n">
-        <v>9970564</v>
+        <v>10056011</v>
       </c>
       <c r="I52" t="n">
-        <v>247.885</v>
+        <v>250.01</v>
       </c>
       <c r="J52" t="n">
-        <v>40706</v>
+        <v>41954</v>
       </c>
       <c r="K52" t="n">
-        <v>1.012</v>
+        <v>1.043</v>
       </c>
       <c r="L52" t="n">
-        <v>27621</v>
+        <v>30766</v>
       </c>
       <c r="M52" t="n">
-        <v>0.687</v>
+        <v>0.765</v>
       </c>
       <c r="N52" t="n">
-        <v>0.124</v>
+        <v>0.119</v>
       </c>
       <c r="O52" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="P52" t="s">
         <v>317</v>
@@ -5824,7 +5847,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -5834,31 +5857,31 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H54" t="n">
-        <v>16669168</v>
+        <v>16762604</v>
       </c>
       <c r="I54" t="n">
-        <v>1925.838</v>
+        <v>1936.633</v>
       </c>
       <c r="J54" t="n">
-        <v>24971</v>
+        <v>37839</v>
       </c>
       <c r="K54" t="n">
-        <v>2.885</v>
+        <v>4.372</v>
       </c>
       <c r="L54" t="n">
-        <v>20124</v>
+        <v>25907</v>
       </c>
       <c r="M54" t="n">
-        <v>2.325</v>
+        <v>2.993</v>
       </c>
       <c r="N54" t="n">
         <v>0.001</v>
       </c>
       <c r="O54" t="n">
-        <v>690.5</v>
+        <v>871.9</v>
       </c>
       <c r="P54" t="s">
         <v>42</v>
@@ -5881,7 +5904,7 @@
         <v>333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D55" t="s">
         <v>334</v>
@@ -5893,31 +5916,31 @@
         <v>336</v>
       </c>
       <c r="G55" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H55" t="n">
-        <v>27404562</v>
+        <v>27667011</v>
       </c>
       <c r="I55" t="n">
-        <v>453.254</v>
+        <v>457.595</v>
       </c>
       <c r="J55" t="n">
-        <v>78957</v>
+        <v>33517</v>
       </c>
       <c r="K55" t="n">
-        <v>1.306</v>
+        <v>0.554</v>
       </c>
       <c r="L55" t="n">
-        <v>77384</v>
+        <v>72258</v>
       </c>
       <c r="M55" t="n">
-        <v>1.28</v>
+        <v>1.195</v>
       </c>
       <c r="N55" t="n">
-        <v>0.072</v>
+        <v>0.063</v>
       </c>
       <c r="O55" t="n">
-        <v>13.9</v>
+        <v>15.8</v>
       </c>
       <c r="P55" t="s">
         <v>337</v>
@@ -5940,7 +5963,7 @@
         <v>340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D56" t="s">
         <v>334</v>
@@ -5952,31 +5975,31 @@
         <v>336</v>
       </c>
       <c r="G56" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H56" t="n">
-        <v>63822748</v>
+        <v>64665967</v>
       </c>
       <c r="I56" t="n">
-        <v>1055.587</v>
+        <v>1069.534</v>
       </c>
       <c r="J56" t="n">
-        <v>251037</v>
+        <v>107481</v>
       </c>
       <c r="K56" t="n">
-        <v>4.152</v>
+        <v>1.778</v>
       </c>
       <c r="L56" t="n">
-        <v>245075</v>
+        <v>234911</v>
       </c>
       <c r="M56" t="n">
-        <v>4.053</v>
+        <v>3.885</v>
       </c>
       <c r="N56" t="n">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="O56" t="n">
-        <v>43.9</v>
+        <v>51.2</v>
       </c>
       <c r="P56" t="s">
         <v>337</v>
@@ -5999,7 +6022,7 @@
         <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44320</v>
+        <v>44338</v>
       </c>
       <c r="D57" t="s">
         <v>344</v>
@@ -6009,27 +6032,27 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H57" t="n">
-        <v>337769</v>
+        <v>365701</v>
       </c>
       <c r="I57" t="n">
-        <v>114.066</v>
+        <v>123.499</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>1331</v>
+        <v>1575</v>
       </c>
       <c r="M57" t="n">
-        <v>0.449</v>
+        <v>0.532</v>
       </c>
       <c r="N57" t="n">
-        <v>0.094</v>
+        <v>0.06</v>
       </c>
       <c r="O57" t="n">
-        <v>10.6</v>
+        <v>16.6</v>
       </c>
       <c r="P57" t="s">
         <v>345</v>
@@ -6052,7 +6075,7 @@
         <v>349</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D58" t="s">
         <v>350</v>
@@ -6062,31 +6085,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H58" t="n">
-        <v>12842748</v>
+        <v>13153355</v>
       </c>
       <c r="I58" t="n">
-        <v>101.543</v>
+        <v>103.998</v>
       </c>
       <c r="J58" t="n">
-        <v>97287</v>
+        <v>91616</v>
       </c>
       <c r="K58" t="n">
-        <v>0.769</v>
+        <v>0.724</v>
       </c>
       <c r="L58" t="n">
-        <v>90113</v>
+        <v>91926</v>
       </c>
       <c r="M58" t="n">
-        <v>0.712</v>
+        <v>0.727</v>
       </c>
       <c r="N58" t="n">
-        <v>0.061</v>
+        <v>0.053</v>
       </c>
       <c r="O58" t="n">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6109,7 +6132,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44336</v>
+        <v>44338</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6119,31 +6142,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H59" t="n">
-        <v>7060976</v>
+        <v>7096837</v>
       </c>
       <c r="I59" t="n">
-        <v>692.04</v>
+        <v>695.554</v>
       </c>
       <c r="J59" t="n">
-        <v>26307</v>
+        <v>15735</v>
       </c>
       <c r="K59" t="n">
-        <v>2.578</v>
+        <v>1.542</v>
       </c>
       <c r="L59" t="n">
-        <v>22471</v>
+        <v>25003</v>
       </c>
       <c r="M59" t="n">
-        <v>2.202</v>
+        <v>2.451</v>
       </c>
       <c r="N59" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="O59" t="n">
-        <v>42.8</v>
+        <v>47.6</v>
       </c>
       <c r="P59" t="s">
         <v>357</v>
@@ -6166,7 +6189,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6176,31 +6199,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H60" t="n">
-        <v>11121017</v>
+        <v>11270949</v>
       </c>
       <c r="I60" t="n">
-        <v>592.277</v>
+        <v>600.262</v>
       </c>
       <c r="J60" t="n">
-        <v>55827</v>
+        <v>50380</v>
       </c>
       <c r="K60" t="n">
-        <v>2.973</v>
+        <v>2.683</v>
       </c>
       <c r="L60" t="n">
-        <v>53028</v>
+        <v>49082</v>
       </c>
       <c r="M60" t="n">
-        <v>2.824</v>
+        <v>2.614</v>
       </c>
       <c r="N60" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="O60" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="P60" t="s">
         <v>363</v>
@@ -6276,7 +6299,7 @@
         <v>371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D62" t="s">
         <v>372</v>
@@ -6286,31 +6309,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H62" t="n">
-        <v>2497684</v>
+        <v>2525643</v>
       </c>
       <c r="I62" t="n">
-        <v>584.861</v>
+        <v>591.408</v>
       </c>
       <c r="J62" t="n">
-        <v>10660</v>
+        <v>8396</v>
       </c>
       <c r="K62" t="n">
-        <v>2.496</v>
+        <v>1.966</v>
       </c>
       <c r="L62" t="n">
-        <v>8394</v>
+        <v>9363</v>
       </c>
       <c r="M62" t="n">
-        <v>1.966</v>
+        <v>2.192</v>
       </c>
       <c r="N62" t="n">
-        <v>0.113</v>
+        <v>0.116</v>
       </c>
       <c r="O62" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6333,7 +6356,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6345,28 +6368,32 @@
         <v>380</v>
       </c>
       <c r="G63" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H63" t="n">
-        <v>2513295</v>
+        <v>2536035</v>
       </c>
       <c r="I63" t="n">
-        <v>1332.463</v>
+        <v>1344.519</v>
       </c>
       <c r="J63" t="n">
-        <v>15458</v>
+        <v>3898</v>
       </c>
       <c r="K63" t="n">
-        <v>8.195</v>
+        <v>2.067</v>
       </c>
       <c r="L63" t="n">
-        <v>12784</v>
+        <v>12566</v>
       </c>
       <c r="M63" t="n">
-        <v>6.778</v>
-      </c>
-      <c r="N63"/>
-      <c r="O63"/>
+        <v>6.662</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="O63" t="n">
+        <v>29.8</v>
+      </c>
       <c r="P63" t="s">
         <v>379</v>
       </c>
@@ -6388,7 +6415,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44335</v>
+        <v>44340</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6398,25 +6425,21 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H64" t="n">
-        <v>4241656</v>
+        <v>4312975</v>
       </c>
       <c r="I64" t="n">
-        <v>621.448</v>
-      </c>
-      <c r="J64" t="n">
-        <v>17274</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2.531</v>
-      </c>
+        <v>631.897</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
       <c r="L64" t="n">
-        <v>12896</v>
+        <v>15237</v>
       </c>
       <c r="M64" t="n">
-        <v>1.889</v>
+        <v>2.232</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -6441,7 +6464,7 @@
         <v>388</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -6451,15 +6474,15 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>2670</v>
+        <v>3460</v>
       </c>
       <c r="K65" t="n">
-        <v>0.389</v>
+        <v>0.504</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -6600,7 +6623,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="D68" t="s">
         <v>406</v>
@@ -6610,31 +6633,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H68" t="n">
-        <v>2807974</v>
+        <v>2822476</v>
       </c>
       <c r="I68" t="n">
-        <v>4485.753</v>
+        <v>4508.92</v>
       </c>
       <c r="J68" t="n">
-        <v>10397</v>
+        <v>14467</v>
       </c>
       <c r="K68" t="n">
-        <v>16.609</v>
+        <v>23.111</v>
       </c>
       <c r="L68" t="n">
-        <v>6917</v>
+        <v>8837</v>
       </c>
       <c r="M68" t="n">
-        <v>11.05</v>
+        <v>14.117</v>
       </c>
       <c r="N68" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="O68" t="n">
-        <v>74.5</v>
+        <v>86.3</v>
       </c>
       <c r="P68" t="s">
         <v>407</v>
@@ -6657,7 +6680,7 @@
         <v>410</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44328</v>
+        <v>44338</v>
       </c>
       <c r="D69" t="s">
         <v>411</v>
@@ -6667,31 +6690,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H69" t="n">
-        <v>194234</v>
+        <v>200306</v>
       </c>
       <c r="I69" t="n">
-        <v>7.014</v>
+        <v>7.234</v>
       </c>
       <c r="J69" t="n">
-        <v>803</v>
+        <v>868</v>
       </c>
       <c r="K69" t="n">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="L69" t="n">
-        <v>818</v>
+        <v>561</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="N69" t="n">
-        <v>0.243</v>
+        <v>0.197</v>
       </c>
       <c r="O69" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="P69" t="s">
         <v>412</v>
@@ -6767,7 +6790,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6779,31 +6802,31 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H71" t="n">
-        <v>10876983</v>
+        <v>11206334</v>
       </c>
       <c r="I71" t="n">
-        <v>336.062</v>
+        <v>346.238</v>
       </c>
       <c r="J71" t="n">
-        <v>111381</v>
+        <v>106208</v>
       </c>
       <c r="K71" t="n">
-        <v>3.441</v>
+        <v>3.281</v>
       </c>
       <c r="L71" t="n">
-        <v>76556</v>
+        <v>100435</v>
       </c>
       <c r="M71" t="n">
-        <v>2.365</v>
+        <v>3.103</v>
       </c>
       <c r="N71" t="n">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="O71" t="n">
-        <v>15.7</v>
+        <v>16.7</v>
       </c>
       <c r="P71" t="s">
         <v>42</v>
@@ -6826,7 +6849,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -6836,31 +6859,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H72" t="n">
-        <v>825494</v>
+        <v>843981</v>
       </c>
       <c r="I72" t="n">
-        <v>1527.16</v>
+        <v>1561.361</v>
       </c>
       <c r="J72" t="n">
-        <v>7259</v>
+        <v>5834</v>
       </c>
       <c r="K72" t="n">
-        <v>13.429</v>
+        <v>10.793</v>
       </c>
       <c r="L72" t="n">
-        <v>4327</v>
+        <v>5386</v>
       </c>
       <c r="M72" t="n">
-        <v>8.005</v>
+        <v>9.964</v>
       </c>
       <c r="N72" t="n">
-        <v>0.313</v>
+        <v>0.302</v>
       </c>
       <c r="O72" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -6883,7 +6906,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -6893,31 +6916,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H73" t="n">
-        <v>897257</v>
+        <v>910953</v>
       </c>
       <c r="I73" t="n">
-        <v>2032.113</v>
+        <v>2063.131</v>
       </c>
       <c r="J73" t="n">
-        <v>2454</v>
+        <v>2409</v>
       </c>
       <c r="K73" t="n">
-        <v>5.558</v>
+        <v>5.456</v>
       </c>
       <c r="L73" t="n">
-        <v>1925</v>
+        <v>1957</v>
       </c>
       <c r="M73" t="n">
-        <v>4.36</v>
+        <v>4.432</v>
       </c>
       <c r="N73" t="n">
         <v>0.002</v>
       </c>
       <c r="O73" t="n">
-        <v>408.4</v>
+        <v>570.7</v>
       </c>
       <c r="P73" t="s">
         <v>438</v>
@@ -6989,7 +7012,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -6999,31 +7022,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H75" t="n">
-        <v>6467187</v>
+        <v>6512633</v>
       </c>
       <c r="I75" t="n">
-        <v>50.159</v>
+        <v>50.512</v>
       </c>
       <c r="J75" t="n">
-        <v>6597</v>
+        <v>1230</v>
       </c>
       <c r="K75" t="n">
-        <v>0.051</v>
+        <v>0.01</v>
       </c>
       <c r="L75" t="n">
-        <v>9039</v>
+        <v>9454</v>
       </c>
       <c r="M75" t="n">
-        <v>0.07</v>
+        <v>0.073</v>
       </c>
       <c r="N75" t="n">
-        <v>0.174</v>
+        <v>0.169</v>
       </c>
       <c r="O75" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="P75" t="s">
         <v>451</v>
@@ -7046,7 +7069,7 @@
         <v>454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D76" t="s">
         <v>455</v>
@@ -7056,20 +7079,32 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>1070467</v>
+        <v>1085352</v>
       </c>
       <c r="I76" t="n">
-        <v>265.364</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
+        <v>269.054</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4687</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4017</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O76" t="n">
+        <v>35.7</v>
+      </c>
       <c r="P76" t="s">
         <v>456</v>
       </c>
@@ -7091,7 +7126,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44328</v>
+        <v>44338</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7101,31 +7136,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H77" t="n">
-        <v>2800505</v>
+        <v>2873985</v>
       </c>
       <c r="I77" t="n">
-        <v>854.257</v>
+        <v>876.671</v>
       </c>
       <c r="J77" t="n">
-        <v>7500</v>
+        <v>9015</v>
       </c>
       <c r="K77" t="n">
-        <v>2.288</v>
+        <v>2.75</v>
       </c>
       <c r="L77" t="n">
-        <v>7916</v>
+        <v>7361</v>
       </c>
       <c r="M77" t="n">
-        <v>2.415</v>
+        <v>2.245</v>
       </c>
       <c r="N77" t="n">
-        <v>0.099</v>
+        <v>0.074</v>
       </c>
       <c r="O77" t="n">
-        <v>10.1</v>
+        <v>13.5</v>
       </c>
       <c r="P77" t="s">
         <v>42</v>
@@ -7148,7 +7183,7 @@
         <v>464</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D78" t="s">
         <v>465</v>
@@ -7158,31 +7193,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H78" t="n">
-        <v>5900808</v>
+        <v>5930826</v>
       </c>
       <c r="I78" t="n">
-        <v>159.868</v>
+        <v>160.681</v>
       </c>
       <c r="J78" t="n">
-        <v>10405</v>
+        <v>8290</v>
       </c>
       <c r="K78" t="n">
-        <v>0.282</v>
+        <v>0.225</v>
       </c>
       <c r="L78" t="n">
-        <v>6901</v>
+        <v>9269</v>
       </c>
       <c r="M78" t="n">
-        <v>0.187</v>
+        <v>0.251</v>
       </c>
       <c r="N78" t="n">
-        <v>0.029</v>
+        <v>0.032</v>
       </c>
       <c r="O78" t="n">
-        <v>34</v>
+        <v>31.2</v>
       </c>
       <c r="P78" t="s">
         <v>466</v>
@@ -7205,7 +7240,7 @@
         <v>470</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44328</v>
+        <v>44338</v>
       </c>
       <c r="D79" t="s">
         <v>471</v>
@@ -7215,31 +7250,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="H79" t="n">
-        <v>530868</v>
+        <v>544605</v>
       </c>
       <c r="I79" t="n">
-        <v>16.985</v>
+        <v>17.424</v>
       </c>
       <c r="J79" t="n">
-        <v>1322</v>
+        <v>1710</v>
       </c>
       <c r="K79" t="n">
-        <v>0.042</v>
+        <v>0.055</v>
       </c>
       <c r="L79" t="n">
-        <v>1126</v>
+        <v>1179</v>
       </c>
       <c r="M79" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="O79" t="n">
-        <v>33.5</v>
+        <v>52.2</v>
       </c>
       <c r="P79" t="s">
         <v>472</v>
@@ -7262,7 +7297,7 @@
         <v>476</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44329</v>
+        <v>44338</v>
       </c>
       <c r="D80" t="s">
         <v>477</v>
@@ -7272,24 +7307,32 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H80" t="n">
-        <v>2597378</v>
+        <v>2610069</v>
       </c>
       <c r="I80" t="n">
-        <v>47.737</v>
+        <v>47.971</v>
       </c>
       <c r="J80" t="n">
-        <v>2019</v>
+        <v>1234</v>
       </c>
       <c r="K80" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>0.023</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1316</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O80" t="n">
+        <v>54.5</v>
+      </c>
       <c r="P80" t="s">
         <v>478</v>
       </c>
@@ -7311,7 +7354,7 @@
         <v>482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="D81" t="s">
         <v>483</v>
@@ -7321,31 +7364,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H81" t="n">
-        <v>409887</v>
+        <v>421684</v>
       </c>
       <c r="I81" t="n">
-        <v>161.315</v>
+        <v>165.957</v>
       </c>
       <c r="J81" t="n">
-        <v>845</v>
+        <v>1323</v>
       </c>
       <c r="K81" t="n">
-        <v>0.333</v>
+        <v>0.521</v>
       </c>
       <c r="L81" t="n">
-        <v>1313</v>
+        <v>1685</v>
       </c>
       <c r="M81" t="n">
-        <v>0.517</v>
+        <v>0.663</v>
       </c>
       <c r="N81" t="n">
-        <v>0.125</v>
+        <v>0.147</v>
       </c>
       <c r="O81" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="P81" t="s">
         <v>485</v>
@@ -7368,7 +7411,7 @@
         <v>489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44332</v>
+        <v>44339</v>
       </c>
       <c r="D82" t="s">
         <v>490</v>
@@ -7378,31 +7421,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H82" t="n">
-        <v>2770980</v>
+        <v>2916468</v>
       </c>
       <c r="I82" t="n">
-        <v>95.102</v>
+        <v>100.096</v>
       </c>
       <c r="J82" t="n">
-        <v>19499</v>
+        <v>18965</v>
       </c>
       <c r="K82" t="n">
-        <v>0.669</v>
+        <v>0.651</v>
       </c>
       <c r="L82" t="n">
-        <v>19497</v>
+        <v>20784</v>
       </c>
       <c r="M82" t="n">
-        <v>0.669</v>
+        <v>0.713</v>
       </c>
       <c r="N82" t="n">
-        <v>0.442</v>
+        <v>0.4</v>
       </c>
       <c r="O82" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P82" t="s">
         <v>491</v>
@@ -7482,7 +7525,7 @@
         <v>502</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D84" t="s">
         <v>503</v>
@@ -7492,25 +7535,25 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H84" t="n">
-        <v>2100168</v>
+        <v>2111902</v>
       </c>
       <c r="I84" t="n">
-        <v>435.518</v>
+        <v>437.951</v>
       </c>
       <c r="J84" t="n">
-        <v>4747</v>
+        <v>2950</v>
       </c>
       <c r="K84" t="n">
-        <v>0.984</v>
+        <v>0.612</v>
       </c>
       <c r="L84" t="n">
-        <v>3807</v>
+        <v>3801</v>
       </c>
       <c r="M84" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -7535,7 +7578,7 @@
         <v>508</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="D85" t="s">
         <v>509</v>
@@ -7545,27 +7588,27 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H85" t="n">
-        <v>2002653</v>
+        <v>2093243</v>
       </c>
       <c r="I85" t="n">
-        <v>9.715</v>
+        <v>10.154</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>3596</v>
+        <v>12941</v>
       </c>
       <c r="M85" t="n">
-        <v>0.017</v>
+        <v>0.063</v>
       </c>
       <c r="N85" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="O85" t="n">
-        <v>81.2</v>
+        <v>320.1</v>
       </c>
       <c r="P85" t="s">
         <v>510</v>
@@ -7588,7 +7631,7 @@
         <v>513</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44320</v>
+        <v>44341</v>
       </c>
       <c r="D86" t="s">
         <v>514</v>
@@ -7598,117 +7641,109 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H86" t="n">
-        <v>728726</v>
+        <v>765373</v>
       </c>
       <c r="I86" t="n">
-        <v>349.781</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2928</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1.405</v>
-      </c>
+        <v>367.371</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
       <c r="L86" t="n">
-        <v>1881</v>
+        <v>1745</v>
       </c>
       <c r="M86" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="O86" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0.838</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
       <c r="P86" t="s">
         <v>42</v>
       </c>
       <c r="Q86" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="R86" t="s">
         <v>37</v>
       </c>
       <c r="S86" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44335</v>
+        <v>44338</v>
       </c>
       <c r="D87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E87" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H87" t="n">
-        <v>5463210</v>
+        <v>5529815</v>
       </c>
       <c r="I87" t="n">
-        <v>1007.741</v>
+        <v>1020.027</v>
       </c>
       <c r="J87" t="n">
-        <v>25107</v>
+        <v>12593</v>
       </c>
       <c r="K87" t="n">
-        <v>4.631</v>
+        <v>2.323</v>
       </c>
       <c r="L87" t="n">
-        <v>15266</v>
+        <v>19078</v>
       </c>
       <c r="M87" t="n">
-        <v>2.816</v>
+        <v>3.519</v>
       </c>
       <c r="N87" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="O87" t="n">
-        <v>46.5</v>
+        <v>45.9</v>
       </c>
       <c r="P87" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q87" t="s">
         <v>519</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>518</v>
       </c>
       <c r="R87" t="s">
         <v>31</v>
       </c>
       <c r="S87" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
@@ -7727,83 +7762,83 @@
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q88" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R88" t="s">
         <v>66</v>
       </c>
       <c r="S88" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E89" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H89" t="n">
-        <v>12654997</v>
+        <v>12884544</v>
       </c>
       <c r="I89" t="n">
-        <v>57.29</v>
+        <v>58.33</v>
       </c>
       <c r="J89" t="n">
-        <v>51528</v>
+        <v>46726</v>
       </c>
       <c r="K89" t="n">
-        <v>0.233</v>
+        <v>0.212</v>
       </c>
       <c r="L89" t="n">
-        <v>39189</v>
+        <v>53425</v>
       </c>
       <c r="M89" t="n">
-        <v>0.177</v>
+        <v>0.242</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q89" t="s">
         <v>530</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>529</v>
       </c>
       <c r="R89" t="s">
         <v>37</v>
       </c>
       <c r="S89" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
@@ -7831,55 +7866,55 @@
         <v>11.1</v>
       </c>
       <c r="P90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="R90" t="s">
         <v>37</v>
       </c>
       <c r="S90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44328</v>
+        <v>44338</v>
       </c>
       <c r="D91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H91" t="n">
-        <v>2483460</v>
+        <v>2574238</v>
       </c>
       <c r="I91" t="n">
-        <v>575.572</v>
+        <v>596.611</v>
       </c>
       <c r="J91" t="n">
-        <v>9659</v>
+        <v>9976</v>
       </c>
       <c r="K91" t="n">
-        <v>2.239</v>
+        <v>2.312</v>
       </c>
       <c r="L91" t="n">
-        <v>8055</v>
+        <v>8824</v>
       </c>
       <c r="M91" t="n">
-        <v>1.867</v>
+        <v>2.045</v>
       </c>
       <c r="N91" t="n">
         <v>0.052</v>
@@ -7888,33 +7923,33 @@
         <v>19.1</v>
       </c>
       <c r="P91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="R91" t="s">
         <v>37</v>
       </c>
       <c r="S91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
@@ -7945,30 +7980,30 @@
         <v>2.7</v>
       </c>
       <c r="P92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R92" t="s">
         <v>37</v>
       </c>
       <c r="S92" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44312</v>
       </c>
       <c r="D93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E93" t="s">
         <v>146</v>
@@ -8005,87 +8040,87 @@
         <v>146</v>
       </c>
       <c r="Q93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R93" t="s">
         <v>37</v>
       </c>
       <c r="S93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="D94" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H94" t="n">
-        <v>12064007</v>
+        <v>12247868</v>
       </c>
       <c r="I94" t="n">
-        <v>110.092</v>
+        <v>111.77</v>
       </c>
       <c r="J94" t="n">
-        <v>43165</v>
+        <v>31385</v>
       </c>
       <c r="K94" t="n">
-        <v>0.394</v>
+        <v>0.286</v>
       </c>
       <c r="L94" t="n">
-        <v>43925</v>
+        <v>44224</v>
       </c>
       <c r="M94" t="n">
-        <v>0.401</v>
+        <v>0.404</v>
       </c>
       <c r="N94" t="n">
-        <v>0.132</v>
+        <v>0.116</v>
       </c>
       <c r="O94" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="P94" t="s">
         <v>279</v>
       </c>
       <c r="Q94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R94" t="s">
         <v>31</v>
       </c>
       <c r="S94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B95" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D95" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
@@ -8116,33 +8151,33 @@
         <v>23.6</v>
       </c>
       <c r="P95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q95" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B96" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D96" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E96" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8173,476 +8208,484 @@
         <v>24</v>
       </c>
       <c r="P96" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q96" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="R96" t="s">
         <v>91</v>
       </c>
       <c r="S96" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B97" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44335</v>
+        <v>44338</v>
       </c>
       <c r="D97" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E97" t="s">
         <v>42</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H97" t="n">
-        <v>11316046</v>
+        <v>11437582</v>
       </c>
       <c r="I97" t="n">
-        <v>1109.775</v>
+        <v>1121.694</v>
       </c>
       <c r="J97" t="n">
-        <v>41136</v>
+        <v>31968</v>
       </c>
       <c r="K97" t="n">
-        <v>4.034</v>
+        <v>3.135</v>
       </c>
       <c r="L97" t="n">
-        <v>36717</v>
+        <v>37236</v>
       </c>
       <c r="M97" t="n">
-        <v>3.601</v>
+        <v>3.652</v>
       </c>
       <c r="N97" t="n">
         <v>0.011</v>
       </c>
       <c r="O97" t="n">
-        <v>92.3</v>
+        <v>88</v>
       </c>
       <c r="P97" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q97" t="s">
         <v>570</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>569</v>
       </c>
       <c r="R97" t="s">
         <v>37</v>
       </c>
       <c r="S97" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="D98" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E98" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H98" t="n">
-        <v>1973886</v>
+        <v>1998695</v>
       </c>
       <c r="I98" t="n">
-        <v>685.125</v>
+        <v>693.736</v>
       </c>
       <c r="J98" t="n">
-        <v>3086</v>
+        <v>3453</v>
       </c>
       <c r="K98" t="n">
-        <v>1.071</v>
+        <v>1.199</v>
       </c>
       <c r="L98" t="n">
-        <v>3505</v>
+        <v>3544</v>
       </c>
       <c r="M98" t="n">
-        <v>1.217</v>
+        <v>1.23</v>
       </c>
       <c r="N98" t="n">
-        <v>0.085</v>
+        <v>0.091</v>
       </c>
       <c r="O98" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="P98" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q98" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="R98" t="s">
         <v>31</v>
       </c>
       <c r="S98" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B99" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44337</v>
+        <v>44339</v>
       </c>
       <c r="D99" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E99" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H99" t="n">
-        <v>7735577</v>
+        <v>7768459</v>
       </c>
       <c r="I99" t="n">
-        <v>402.105</v>
+        <v>403.815</v>
       </c>
       <c r="J99" t="n">
-        <v>22035</v>
+        <v>13088</v>
       </c>
       <c r="K99" t="n">
-        <v>1.145</v>
+        <v>0.68</v>
       </c>
       <c r="L99" t="n">
-        <v>17841</v>
+        <v>17680</v>
       </c>
       <c r="M99" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99"/>
+        <v>0.919</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="O99" t="n">
+        <v>34</v>
+      </c>
       <c r="P99" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q99" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R99" t="s">
         <v>37</v>
       </c>
       <c r="S99" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D100" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E100" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H100" t="n">
-        <v>135005007</v>
+        <v>136195853</v>
       </c>
       <c r="I100" t="n">
-        <v>925.107</v>
+        <v>933.267</v>
       </c>
       <c r="J100" t="n">
-        <v>358989</v>
+        <v>206525</v>
       </c>
       <c r="K100" t="n">
-        <v>2.46</v>
+        <v>1.415</v>
       </c>
       <c r="L100" t="n">
-        <v>318583</v>
+        <v>309082</v>
       </c>
       <c r="M100" t="n">
-        <v>2.183</v>
+        <v>2.118</v>
       </c>
       <c r="N100" t="n">
         <v>0.027</v>
       </c>
       <c r="O100" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="P100" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q100" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R100" t="s">
         <v>37</v>
       </c>
       <c r="S100" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44336</v>
+        <v>44341</v>
       </c>
       <c r="D101" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E101" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H101" t="n">
-        <v>1385943</v>
+        <v>1410046</v>
       </c>
       <c r="I101" t="n">
-        <v>107.004</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101"/>
+        <v>108.865</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4029</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.311</v>
+      </c>
       <c r="L101" t="n">
-        <v>4439</v>
+        <v>4854</v>
       </c>
       <c r="M101" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="O101" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0.375</v>
+      </c>
+      <c r="N101"/>
+      <c r="O101"/>
       <c r="P101" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q101" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="R101" t="s">
         <v>91</v>
       </c>
       <c r="S101" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B102" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D102" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H102" t="n">
-        <v>18370537</v>
+        <v>18607508</v>
       </c>
       <c r="I102" t="n">
-        <v>527.679</v>
+        <v>534.486</v>
       </c>
       <c r="J102" t="n">
-        <v>81678</v>
+        <v>81094</v>
       </c>
       <c r="K102" t="n">
-        <v>2.346</v>
+        <v>2.329</v>
       </c>
       <c r="L102" t="n">
-        <v>71667</v>
+        <v>82191</v>
       </c>
       <c r="M102" t="n">
-        <v>2.059</v>
+        <v>2.361</v>
       </c>
       <c r="N102" t="n">
         <v>0.014</v>
       </c>
       <c r="O102" t="n">
-        <v>71</v>
+        <v>73.6</v>
       </c>
       <c r="P102" t="s">
         <v>42</v>
       </c>
       <c r="Q102" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R102" t="s">
         <v>37</v>
       </c>
       <c r="S102" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B103" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D103" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E103" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H103" t="n">
-        <v>515709</v>
+        <v>520473</v>
       </c>
       <c r="I103" t="n">
-        <v>30.8</v>
+        <v>31.084</v>
       </c>
       <c r="J103" t="n">
-        <v>1438</v>
+        <v>1356</v>
       </c>
       <c r="K103" t="n">
-        <v>0.086</v>
+        <v>0.081</v>
       </c>
       <c r="L103" t="n">
-        <v>1210</v>
+        <v>1381</v>
       </c>
       <c r="M103" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103"/>
+        <v>0.082</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O103" t="n">
+        <v>35.8</v>
+      </c>
       <c r="P103" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q103" t="s">
         <v>604</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>603</v>
       </c>
       <c r="R103" t="s">
         <v>37</v>
       </c>
       <c r="S103" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B104" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D104" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G104" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H104" t="n">
-        <v>4051533</v>
+        <v>4086694</v>
       </c>
       <c r="I104" t="n">
-        <v>595.411</v>
+        <v>600.578</v>
       </c>
       <c r="J104" t="n">
-        <v>10062</v>
+        <v>9298</v>
       </c>
       <c r="K104" t="n">
-        <v>1.479</v>
+        <v>1.366</v>
       </c>
       <c r="L104" t="n">
-        <v>10640</v>
+        <v>9693</v>
       </c>
       <c r="M104" t="n">
-        <v>1.564</v>
+        <v>1.424</v>
       </c>
       <c r="N104" t="n">
-        <v>0.072</v>
+        <v>0.048</v>
       </c>
       <c r="O104" t="n">
-        <v>13.8</v>
+        <v>20.7</v>
       </c>
       <c r="P104" t="s">
         <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R104" t="s">
         <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B105" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="D105" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E105" t="s">
         <v>42</v>
@@ -8675,52 +8718,52 @@
         <v>42</v>
       </c>
       <c r="Q105" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="R105" t="s">
         <v>91</v>
       </c>
       <c r="S105" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B106" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44335</v>
+        <v>44340</v>
       </c>
       <c r="D106" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E106" t="s">
         <v>42</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H106" t="n">
-        <v>37430864</v>
+        <v>37922708</v>
       </c>
       <c r="I106" t="n">
-        <v>6855.918</v>
+        <v>6946.005</v>
       </c>
       <c r="J106" t="n">
-        <v>58047</v>
+        <v>74004</v>
       </c>
       <c r="K106" t="n">
-        <v>10.632</v>
+        <v>13.555</v>
       </c>
       <c r="L106" t="n">
-        <v>108785</v>
+        <v>85812</v>
       </c>
       <c r="M106" t="n">
-        <v>19.925</v>
+        <v>15.718</v>
       </c>
       <c r="N106" t="n">
         <v>0.004</v>
@@ -8732,196 +8775,196 @@
         <v>42</v>
       </c>
       <c r="Q106" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="R106" t="s">
         <v>37</v>
       </c>
       <c r="S106" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B107" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D107" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E107" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H107" t="n">
-        <v>1248936</v>
+        <v>1260059</v>
       </c>
       <c r="I107" t="n">
-        <v>600.758</v>
+        <v>606.109</v>
       </c>
       <c r="J107" t="n">
-        <v>4136</v>
+        <v>3558</v>
       </c>
       <c r="K107" t="n">
-        <v>1.989</v>
+        <v>1.711</v>
       </c>
       <c r="L107" t="n">
-        <v>3549</v>
+        <v>3369</v>
       </c>
       <c r="M107" t="n">
-        <v>1.707</v>
+        <v>1.621</v>
       </c>
       <c r="N107" t="n">
-        <v>0.106</v>
+        <v>0.092</v>
       </c>
       <c r="O107" t="n">
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="P107" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q107" t="s">
         <v>623</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>622</v>
       </c>
       <c r="R107" t="s">
         <v>37</v>
       </c>
       <c r="S107" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B108" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D108" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E108" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F108" t="s">
+        <v>630</v>
+      </c>
+      <c r="G108" t="n">
+        <v>444</v>
+      </c>
+      <c r="H108" t="n">
+        <v>11378282</v>
+      </c>
+      <c r="I108" t="n">
+        <v>191.848</v>
+      </c>
+      <c r="J108" t="n">
+        <v>23352</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="L108" t="n">
+        <v>34818</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="O108" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P108" t="s">
         <v>629</v>
       </c>
-      <c r="G108" t="n">
-        <v>440</v>
-      </c>
-      <c r="H108" t="n">
-        <v>11246917</v>
-      </c>
-      <c r="I108" t="n">
-        <v>189.634</v>
-      </c>
-      <c r="J108" t="n">
-        <v>39612</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.668</v>
-      </c>
-      <c r="L108" t="n">
-        <v>33703</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="O108" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="P108" t="s">
-        <v>628</v>
-      </c>
       <c r="Q108" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="R108" t="s">
         <v>31</v>
       </c>
       <c r="S108" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B109" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D109" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E109" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H109" t="n">
-        <v>9372964</v>
+        <v>9475629</v>
       </c>
       <c r="I109" t="n">
-        <v>182.819</v>
+        <v>184.821</v>
       </c>
       <c r="J109" t="n">
-        <v>34479</v>
+        <v>42720</v>
       </c>
       <c r="K109" t="n">
-        <v>0.673</v>
+        <v>0.833</v>
       </c>
       <c r="L109" t="n">
-        <v>26697</v>
+        <v>26291</v>
       </c>
       <c r="M109" t="n">
-        <v>0.521</v>
+        <v>0.513</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
       <c r="P109" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q109" t="s">
         <v>635</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>634</v>
       </c>
       <c r="R109" t="s">
         <v>31</v>
       </c>
       <c r="S109" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B110" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>44330</v>
       </c>
       <c r="D110" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E110" t="s">
         <v>42</v>
@@ -8958,30 +9001,30 @@
         <v>42</v>
       </c>
       <c r="Q110" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R110" t="s">
         <v>37</v>
       </c>
       <c r="S110" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B111" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>44329</v>
       </c>
       <c r="D111" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E111" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
@@ -8996,98 +9039,102 @@
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>5422670</v>
+        <v>111399</v>
       </c>
       <c r="M111" t="n">
-        <v>115.981</v>
+        <v>2.383</v>
       </c>
       <c r="N111" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="O111" t="n">
-        <v>967.6</v>
+        <v>19.9</v>
       </c>
       <c r="P111" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Q111" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="R111" t="s">
         <v>37</v>
       </c>
       <c r="S111" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B112" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D112" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E112" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H112" t="n">
-        <v>3292693</v>
+        <v>3355500</v>
       </c>
       <c r="I112" t="n">
-        <v>153.769</v>
+        <v>156.702</v>
       </c>
       <c r="J112" t="n">
-        <v>25680</v>
+        <v>17159</v>
       </c>
       <c r="K112" t="n">
-        <v>1.199</v>
+        <v>0.801</v>
       </c>
       <c r="L112" t="n">
-        <v>25536</v>
+        <v>23598</v>
       </c>
       <c r="M112" t="n">
-        <v>1.193</v>
-      </c>
-      <c r="N112"/>
-      <c r="O112"/>
+        <v>1.102</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="O112" t="n">
+        <v>7.5</v>
+      </c>
       <c r="P112" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q112" t="s">
         <v>652</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>651</v>
       </c>
       <c r="R112" t="s">
         <v>37</v>
       </c>
       <c r="S112" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B113" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="D113" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E113" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -9114,24 +9161,24 @@
         <v>9.9</v>
       </c>
       <c r="P113" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q113" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R113" t="s">
         <v>37</v>
       </c>
       <c r="S113" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B114" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>44336</v>
@@ -9180,78 +9227,78 @@
         <v>37</v>
       </c>
       <c r="S114" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B115" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D115" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E115" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H115" t="n">
-        <v>315592</v>
+        <v>388453</v>
       </c>
       <c r="I115" t="n">
-        <v>13.251</v>
+        <v>16.31</v>
       </c>
       <c r="J115" t="n">
-        <v>18083</v>
+        <v>23557</v>
       </c>
       <c r="K115" t="n">
-        <v>0.759</v>
+        <v>0.989</v>
       </c>
       <c r="L115" t="n">
-        <v>12997</v>
+        <v>18149</v>
       </c>
       <c r="M115" t="n">
-        <v>0.546</v>
+        <v>0.762</v>
       </c>
       <c r="N115" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="O115" t="n">
-        <v>58</v>
+        <v>43.8</v>
       </c>
       <c r="P115" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q115" t="s">
         <v>667</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>666</v>
       </c>
       <c r="R115" t="s">
         <v>31</v>
       </c>
       <c r="S115" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B116" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44310</v>
       </c>
       <c r="D116" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E116" t="s">
         <v>169</v>
@@ -9285,34 +9332,34 @@
         <v>28.6</v>
       </c>
       <c r="P116" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q116" t="s">
         <v>672</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>671</v>
       </c>
       <c r="R116" t="s">
         <v>37</v>
       </c>
       <c r="S116" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B117" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D117"/>
       <c r="E117" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F117" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G117" t="n">
         <v>437</v>
@@ -9342,200 +9389,200 @@
         <v>52.4</v>
       </c>
       <c r="P117" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q117" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="R117" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="S117" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B118" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44327</v>
+        <v>44339</v>
       </c>
       <c r="D118" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E118" t="s">
         <v>42</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H118" t="n">
-        <v>147470</v>
+        <v>165776</v>
       </c>
       <c r="I118" t="n">
-        <v>105.374</v>
+        <v>118.454</v>
       </c>
       <c r="J118" t="n">
-        <v>5920</v>
+        <v>1128</v>
       </c>
       <c r="K118" t="n">
-        <v>4.23</v>
+        <v>0.806</v>
       </c>
       <c r="L118" t="n">
-        <v>1484</v>
+        <v>1818</v>
       </c>
       <c r="M118" t="n">
-        <v>1.06</v>
+        <v>1.299</v>
       </c>
       <c r="N118" t="n">
-        <v>0.202</v>
+        <v>0.296</v>
       </c>
       <c r="O118" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P118" t="s">
         <v>42</v>
       </c>
       <c r="Q118" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B119" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D119" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E119" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H119" t="n">
-        <v>1410901</v>
+        <v>1430192</v>
       </c>
       <c r="I119" t="n">
-        <v>119.38</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7748</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.656</v>
-      </c>
+        <v>121.012</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" t="n">
-        <v>4690</v>
+        <v>6119</v>
       </c>
       <c r="M119" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="N119"/>
-      <c r="O119"/>
+        <v>0.518</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="O119" t="n">
+        <v>4.8</v>
+      </c>
       <c r="P119" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Q119" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B120" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D120" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E120" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H120" t="n">
-        <v>51731883</v>
+        <v>52594333</v>
       </c>
       <c r="I120" t="n">
-        <v>613.38</v>
+        <v>623.606</v>
       </c>
       <c r="J120" t="n">
-        <v>219192</v>
+        <v>216655</v>
       </c>
       <c r="K120" t="n">
-        <v>2.599</v>
+        <v>2.569</v>
       </c>
       <c r="L120" t="n">
-        <v>210277</v>
+        <v>216800</v>
       </c>
       <c r="M120" t="n">
-        <v>2.493</v>
+        <v>2.571</v>
       </c>
       <c r="N120" t="n">
-        <v>0.052</v>
+        <v>0.044</v>
       </c>
       <c r="O120" t="n">
-        <v>19.3</v>
+        <v>22.8</v>
       </c>
       <c r="P120" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Q120" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="R120" t="s">
         <v>37</v>
       </c>
       <c r="S120" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B121" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="D121" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E121" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
@@ -9566,312 +9613,308 @@
         <v>38.4</v>
       </c>
       <c r="P121" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q121" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="R121" t="s">
         <v>91</v>
       </c>
       <c r="S121" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B122" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="D122" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E122" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H122" t="n">
-        <v>9970045</v>
+        <v>10045897</v>
       </c>
       <c r="I122" t="n">
-        <v>227.971</v>
+        <v>229.706</v>
       </c>
       <c r="J122" t="n">
-        <v>26154</v>
+        <v>23440</v>
       </c>
       <c r="K122" t="n">
-        <v>0.598</v>
+        <v>0.536</v>
       </c>
       <c r="L122" t="n">
-        <v>25679</v>
+        <v>23350</v>
       </c>
       <c r="M122" t="n">
-        <v>0.587</v>
+        <v>0.534</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q122" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="R122" t="s">
         <v>37</v>
       </c>
       <c r="S122" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B123" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44337</v>
+        <v>44340</v>
       </c>
       <c r="D123" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E123" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H123" t="n">
-        <v>48000395</v>
+        <v>48640803</v>
       </c>
       <c r="I123" t="n">
-        <v>4853.231</v>
+        <v>4917.981</v>
       </c>
       <c r="J123" t="n">
-        <v>241630</v>
+        <v>178528</v>
       </c>
       <c r="K123" t="n">
-        <v>24.431</v>
+        <v>18.051</v>
       </c>
       <c r="L123" t="n">
-        <v>171513</v>
+        <v>225564</v>
       </c>
       <c r="M123" t="n">
-        <v>17.341</v>
+        <v>22.806</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q123" t="s">
         <v>714</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>713</v>
       </c>
       <c r="R123" t="s">
         <v>37</v>
       </c>
       <c r="S123" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B124" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="D124" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E124" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F124" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G124" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H124" t="n">
-        <v>169635175</v>
+        <v>173297678</v>
       </c>
       <c r="I124" t="n">
-        <v>2498.824</v>
+        <v>2552.775</v>
       </c>
       <c r="J124" t="n">
-        <v>1180660</v>
+        <v>1165801</v>
       </c>
       <c r="K124" t="n">
-        <v>17.392</v>
+        <v>17.173</v>
       </c>
       <c r="L124" t="n">
-        <v>610448</v>
+        <v>987642</v>
       </c>
       <c r="M124" t="n">
-        <v>8.992</v>
+        <v>14.549</v>
       </c>
       <c r="N124" t="n">
         <v>0.002</v>
       </c>
       <c r="O124" t="n">
-        <v>402.2</v>
+        <v>585.8</v>
       </c>
       <c r="P124" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Q124" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="R124" t="s">
         <v>37</v>
       </c>
       <c r="S124" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B125" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44334</v>
+        <v>44337</v>
       </c>
       <c r="D125" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E125" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H125" t="n">
-        <v>437600853</v>
+        <v>441017808</v>
       </c>
       <c r="I125" t="n">
-        <v>1322.046</v>
+        <v>1332.369</v>
       </c>
       <c r="J125" t="n">
-        <v>385860</v>
+        <v>567041</v>
       </c>
       <c r="K125" t="n">
-        <v>1.166</v>
+        <v>1.713</v>
       </c>
       <c r="L125" t="n">
-        <v>752803</v>
+        <v>714610</v>
       </c>
       <c r="M125" t="n">
-        <v>2.274</v>
+        <v>2.159</v>
       </c>
       <c r="N125" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="O125" t="n">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="P125" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="Q125" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="R125" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="S125" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B126" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44336</v>
+        <v>44339</v>
       </c>
       <c r="D126" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E126" t="s">
         <v>169</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H126" t="n">
-        <v>2065863</v>
+        <v>2113069</v>
       </c>
       <c r="I126" t="n">
-        <v>594.711</v>
-      </c>
-      <c r="J126" t="n">
-        <v>21237</v>
-      </c>
-      <c r="K126" t="n">
-        <v>6.114</v>
-      </c>
+        <v>608.3</v>
+      </c>
+      <c r="J126"/>
+      <c r="K126"/>
       <c r="L126" t="n">
-        <v>14292</v>
+        <v>15407</v>
       </c>
       <c r="M126" t="n">
-        <v>4.114</v>
+        <v>4.435</v>
       </c>
       <c r="N126" t="n">
-        <v>0.22</v>
+        <v>0.228</v>
       </c>
       <c r="O126" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="P126" t="s">
         <v>169</v>
       </c>
       <c r="Q126" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="R126" t="s">
         <v>37</v>
       </c>
       <c r="S126" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B127" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44334</v>
       </c>
       <c r="D127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E127" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
@@ -9898,90 +9941,90 @@
         <v>204</v>
       </c>
       <c r="P127" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q127" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="R127" t="s">
         <v>91</v>
       </c>
       <c r="S127" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B128" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="D128" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E128" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H128" t="n">
-        <v>1493858</v>
+        <v>1515012</v>
       </c>
       <c r="I128" t="n">
-        <v>81.259</v>
+        <v>82.409</v>
       </c>
       <c r="J128" t="n">
-        <v>8446</v>
+        <v>3471</v>
       </c>
       <c r="K128" t="n">
-        <v>0.459</v>
+        <v>0.189</v>
       </c>
       <c r="L128" t="n">
-        <v>5226</v>
+        <v>5770</v>
       </c>
       <c r="M128" t="n">
-        <v>0.284</v>
+        <v>0.314</v>
       </c>
       <c r="N128" t="n">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="O128" t="n">
-        <v>74.4</v>
+        <v>49.3</v>
       </c>
       <c r="P128" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Q128" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="R128" t="s">
         <v>37</v>
       </c>
       <c r="S128" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B129" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D129" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E129" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
@@ -10012,16 +10055,16 @@
         <v>96.5</v>
       </c>
       <c r="P129" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Q129" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="R129" t="s">
         <v>37</v>
       </c>
       <c r="S129" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="753">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-24-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-25-may-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -366,17 +366,13 @@
     <t xml:space="preserve">Brazil - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.conasems.org.br/wp-content/uploads/2020/09/3.-a-CIT_Epidemiologia.pdf</t>
+    <t xml:space="preserve">https://qsprod.saude.gov.br/extensions/DEMAS_C19Insumos_TESTES_MX/DEMAS_C19Insumos_TESTES_MX.html</t>
   </si>
   <si>
     <t xml:space="preserve">Brazil Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of PCR tests carried out for COVID-19.
-The most recent figures explicitly relate to the number of PCR tests carried out in public laboratories. Two earlier press releases – for [20 April 2020](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) and [7 April 2020](https://www.saude.gov.br/noticias/agencia-saude/46707-saude-ja-distribuiu-quase-1-milhao-de-testes-para-coronavirus) are not explicit as to whether the figures they provide include or excluded private laboratories. The two April releases imply that the figure provided relates to the cumulative since 16 February 2020, stating that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
+    <t xml:space="preserve">The Ministry of Health maintains a dashboard on COVID-19 testing, with information on the availability of tests distributed to the different Brazilian municipalities.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
 Brazil includes positive antibody tests in their figures for confirmed cases. Our testing figures—which exclude antibody tests—are not an appropriate comparison in these instances: on this basis there could be more cases than tests, which is not possible. For this reason, we do not calculate the positive rate or number of tests per confirmed case for Brazil.</t>
   </si>
@@ -436,7 +432,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-23-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-24-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -667,7 +663,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-especial-430-COVID-19.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.431.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1977,7 +1973,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_23_mai_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_25_mai_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2000,7 +1996,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17874</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17886</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2184,7 +2180,7 @@
     <t xml:space="preserve">South Sudan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%2014th%20Update.pdf</t>
+    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=May%2024%20Update.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">https://moh.gov.ss/daily_updates.php</t>
@@ -2502,7 +2498,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-23-mayo</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-24-mayo</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -3036,7 +3032,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3046,27 +3042,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>188280</v>
+        <v>190469</v>
       </c>
       <c r="I3" t="n">
-        <v>2436.808</v>
+        <v>2465.139</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="M3" t="n">
-        <v>3.857</v>
+        <v>4.051</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06</v>
+        <v>0.006</v>
       </c>
       <c r="O3" t="n">
-        <v>16.6</v>
+        <v>156.5</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3089,7 +3085,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3099,28 +3095,28 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H4" t="n">
-        <v>9533958</v>
+        <v>9576656</v>
       </c>
       <c r="I4" t="n">
-        <v>210.948</v>
+        <v>211.893</v>
       </c>
       <c r="J4" t="n">
-        <v>38713</v>
+        <v>42698</v>
       </c>
       <c r="K4" t="n">
-        <v>0.857</v>
+        <v>0.945</v>
       </c>
       <c r="L4" t="n">
-        <v>37971</v>
+        <v>38280</v>
       </c>
       <c r="M4" t="n">
-        <v>0.84</v>
+        <v>0.847</v>
       </c>
       <c r="N4" t="n">
-        <v>0.318</v>
+        <v>0.322</v>
       </c>
       <c r="O4" t="n">
         <v>3.1</v>
@@ -3203,7 +3199,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3213,31 +3209,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H6" t="n">
-        <v>17891090</v>
+        <v>17926654</v>
       </c>
       <c r="I6" t="n">
-        <v>701.615</v>
+        <v>703.009</v>
       </c>
       <c r="J6" t="n">
-        <v>33970</v>
+        <v>35564</v>
       </c>
       <c r="K6" t="n">
-        <v>1.332</v>
+        <v>1.395</v>
       </c>
       <c r="L6" t="n">
-        <v>44293</v>
+        <v>42376</v>
       </c>
       <c r="M6" t="n">
-        <v>1.737</v>
+        <v>1.662</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6740.7</v>
+        <v>5493.4</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3313,7 +3309,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3323,25 +3319,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>3458790</v>
+        <v>3468615</v>
       </c>
       <c r="I8" t="n">
-        <v>341.131</v>
+        <v>342.1</v>
       </c>
       <c r="J8" t="n">
-        <v>5546</v>
+        <v>9825</v>
       </c>
       <c r="K8" t="n">
-        <v>0.547</v>
+        <v>0.969</v>
       </c>
       <c r="L8" t="n">
-        <v>8773</v>
+        <v>9224</v>
       </c>
       <c r="M8" t="n">
-        <v>0.865</v>
+        <v>0.91</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3366,7 +3362,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3376,25 +3372,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H9" t="n">
-        <v>4509481</v>
+        <v>4529080</v>
       </c>
       <c r="I9" t="n">
-        <v>2650.168</v>
+        <v>2661.686</v>
       </c>
       <c r="J9" t="n">
-        <v>19951</v>
+        <v>19599</v>
       </c>
       <c r="K9" t="n">
-        <v>11.725</v>
+        <v>11.518</v>
       </c>
       <c r="L9" t="n">
-        <v>19352</v>
+        <v>19343</v>
       </c>
       <c r="M9" t="n">
-        <v>11.373</v>
+        <v>11.368</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3753,7 +3749,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44093</v>
+        <v>44340</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3763,71 +3759,67 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>6421441</v>
+        <v>31716527</v>
       </c>
       <c r="I16" t="n">
-        <v>30.21</v>
+        <v>149.213</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" t="n">
-        <v>74492</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.35</v>
-      </c>
+      <c r="L16"/>
+      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16" t="s">
         <v>107</v>
       </c>
       <c r="Q16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R16" t="s">
         <v>37</v>
       </c>
       <c r="S16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H17" t="n">
-        <v>2754463</v>
+        <v>2768262</v>
       </c>
       <c r="I17" t="n">
-        <v>396.414</v>
+        <v>398.4</v>
       </c>
       <c r="J17" t="n">
-        <v>4579</v>
+        <v>13799</v>
       </c>
       <c r="K17" t="n">
-        <v>0.659</v>
+        <v>1.986</v>
       </c>
       <c r="L17" t="n">
-        <v>9964</v>
+        <v>9965</v>
       </c>
       <c r="M17" t="n">
         <v>1.434</v>
@@ -3835,33 +3827,33 @@
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R17" t="s">
         <v>37</v>
       </c>
       <c r="S17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
         <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
         <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>119</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
@@ -3892,33 +3884,33 @@
         <v>13.7</v>
       </c>
       <c r="P18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>120</v>
       </c>
       <c r="R18" t="s">
         <v>31</v>
       </c>
       <c r="S18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
         <v>118</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
@@ -3949,78 +3941,78 @@
         <v>24.1</v>
       </c>
       <c r="P19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" t="s">
         <v>119</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>120</v>
       </c>
       <c r="R19" t="s">
         <v>37</v>
       </c>
       <c r="S19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
         <v>124</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="D20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>44338</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>126</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>889</v>
+        <v>664</v>
       </c>
       <c r="K20" t="n">
-        <v>1.599</v>
+        <v>1.194</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>128</v>
       </c>
       <c r="R20" t="s">
         <v>37</v>
       </c>
       <c r="S20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
         <v>130</v>
-      </c>
-      <c r="B21" t="s">
-        <v>131</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
         <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
@@ -4047,33 +4039,33 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" t="s">
         <v>133</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>134</v>
       </c>
       <c r="R21" t="s">
         <v>37</v>
       </c>
       <c r="S21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
         <v>136</v>
-      </c>
-      <c r="B22" t="s">
-        <v>137</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
         <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>139</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
@@ -4092,33 +4084,33 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" t="s">
         <v>140</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>141</v>
       </c>
       <c r="R22" t="s">
         <v>37</v>
       </c>
       <c r="S22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
         <v>143</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
         <v>145</v>
-      </c>
-      <c r="E23" t="s">
-        <v>146</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
@@ -4149,30 +4141,30 @@
         <v>3.5</v>
       </c>
       <c r="P23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" t="s">
         <v>146</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>147</v>
       </c>
       <c r="R23" t="s">
         <v>37</v>
       </c>
       <c r="S23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
         <v>149</v>
-      </c>
-      <c r="B24" t="s">
-        <v>150</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
         <v>42</v>
@@ -4206,33 +4198,33 @@
         <v>3.5</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R24" t="s">
         <v>31</v>
       </c>
       <c r="S24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
         <v>154</v>
-      </c>
-      <c r="B25" t="s">
-        <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" t="s">
         <v>156</v>
-      </c>
-      <c r="E25" t="s">
-        <v>157</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
@@ -4263,93 +4255,93 @@
         <v>47.7</v>
       </c>
       <c r="P25" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" t="s">
         <v>157</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>158</v>
       </c>
       <c r="R25" t="s">
         <v>91</v>
       </c>
       <c r="S25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D26" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>44339</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>162</v>
-      </c>
-      <c r="E26" t="s">
-        <v>163</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H26" t="n">
-        <v>1970997</v>
+        <v>1981396</v>
       </c>
       <c r="I26" t="n">
-        <v>480.114</v>
+        <v>482.647</v>
       </c>
       <c r="J26" t="n">
-        <v>5612</v>
+        <v>7695</v>
       </c>
       <c r="K26" t="n">
-        <v>1.367</v>
+        <v>1.874</v>
       </c>
       <c r="L26" t="n">
-        <v>6248</v>
+        <v>6257</v>
       </c>
       <c r="M26" t="n">
-        <v>1.522</v>
+        <v>1.524</v>
       </c>
       <c r="N26" t="n">
-        <v>0.082</v>
+        <v>0.077</v>
       </c>
       <c r="O26" t="n">
-        <v>12.2</v>
+        <v>12.9</v>
       </c>
       <c r="P26" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" t="s">
         <v>163</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>164</v>
       </c>
       <c r="R26" t="s">
         <v>31</v>
       </c>
       <c r="S26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s">
         <v>166</v>
-      </c>
-      <c r="B27" t="s">
-        <v>167</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
         <v>168</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>169</v>
-      </c>
-      <c r="F27" t="s">
-        <v>170</v>
       </c>
       <c r="G27" t="n">
         <v>428</v>
@@ -4379,30 +4371,30 @@
         <v>18.1</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R27" t="s">
         <v>37</v>
       </c>
       <c r="S27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
         <v>173</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
         <v>42</v>
@@ -4433,33 +4425,33 @@
         <v>0.002</v>
       </c>
       <c r="O28" t="n">
-        <v>579</v>
+        <v>504.8</v>
       </c>
       <c r="P28" t="s">
         <v>42</v>
       </c>
       <c r="Q28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R28" t="s">
         <v>37</v>
       </c>
       <c r="S28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
         <v>177</v>
-      </c>
-      <c r="B29" t="s">
-        <v>178</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
@@ -4492,30 +4484,30 @@
         <v>42</v>
       </c>
       <c r="Q29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R29" t="s">
         <v>37</v>
       </c>
       <c r="S29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
         <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="D30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" t="s">
         <v>183</v>
-      </c>
-      <c r="E30" t="s">
-        <v>184</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
@@ -4542,33 +4534,33 @@
         <v>6.7</v>
       </c>
       <c r="P30" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q30" t="s">
         <v>184</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>185</v>
       </c>
       <c r="R30" t="s">
         <v>91</v>
       </c>
       <c r="S30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
         <v>187</v>
-      </c>
-      <c r="B31" t="s">
-        <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>44319</v>
       </c>
       <c r="D31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
         <v>189</v>
-      </c>
-      <c r="E31" t="s">
-        <v>190</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
@@ -4599,89 +4591,93 @@
         <v>224.1</v>
       </c>
       <c r="P31" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q31" t="s">
         <v>190</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>191</v>
       </c>
       <c r="R31" t="s">
         <v>37</v>
       </c>
       <c r="S31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
         <v>193</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="D32" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>44338</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>195</v>
-      </c>
-      <c r="E32" t="s">
-        <v>196</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H32" t="n">
-        <v>1512067</v>
+        <v>1517163</v>
       </c>
       <c r="I32" t="n">
-        <v>139.388</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32"/>
+        <v>139.858</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5096</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.47</v>
+      </c>
       <c r="L32" t="n">
-        <v>4816</v>
+        <v>4856</v>
       </c>
       <c r="M32" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="N32" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="O32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="P32" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" t="s">
         <v>196</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>197</v>
       </c>
       <c r="R32" t="s">
         <v>91</v>
       </c>
       <c r="S32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
         <v>199</v>
-      </c>
-      <c r="B33" t="s">
-        <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
         <v>201</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>202</v>
-      </c>
-      <c r="F33" t="s">
-        <v>203</v>
       </c>
       <c r="G33" t="n">
         <v>426</v>
@@ -4711,33 +4707,33 @@
         <v>3.4</v>
       </c>
       <c r="P33" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q33" t="s">
         <v>204</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>205</v>
       </c>
       <c r="R33" t="s">
         <v>31</v>
       </c>
       <c r="S33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
         <v>207</v>
-      </c>
-      <c r="B34" t="s">
-        <v>208</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="D34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" t="s">
         <v>209</v>
-      </c>
-      <c r="E34" t="s">
-        <v>210</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
@@ -4768,33 +4764,33 @@
         <v>15.2</v>
       </c>
       <c r="P34" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q34" t="s">
         <v>210</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>211</v>
       </c>
       <c r="R34" t="s">
         <v>37</v>
       </c>
       <c r="S34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s">
         <v>213</v>
-      </c>
-      <c r="B35" t="s">
-        <v>214</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" t="s">
         <v>215</v>
-      </c>
-      <c r="E35" t="s">
-        <v>216</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
@@ -4825,33 +4821,33 @@
         <v>21.7</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R35" t="s">
         <v>37</v>
       </c>
       <c r="S35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
         <v>218</v>
-      </c>
-      <c r="B36" t="s">
-        <v>219</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" t="s">
         <v>220</v>
-      </c>
-      <c r="E36" t="s">
-        <v>221</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
@@ -4882,33 +4878,33 @@
         <v>12.2</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R36" t="s">
         <v>37</v>
       </c>
       <c r="S36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" t="s">
         <v>223</v>
-      </c>
-      <c r="B37" t="s">
-        <v>224</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>44324</v>
       </c>
       <c r="D37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" t="s">
         <v>225</v>
-      </c>
-      <c r="E37" t="s">
-        <v>226</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
@@ -4939,33 +4935,33 @@
         <v>704</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R37" t="s">
         <v>37</v>
       </c>
       <c r="S37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" t="s">
         <v>228</v>
-      </c>
-      <c r="B38" t="s">
-        <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" t="s">
         <v>230</v>
-      </c>
-      <c r="E38" t="s">
-        <v>231</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
@@ -4996,33 +4992,33 @@
         <v>58.9</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R38" t="s">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" t="s">
         <v>234</v>
-      </c>
-      <c r="B39" t="s">
-        <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="D39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" t="s">
         <v>236</v>
-      </c>
-      <c r="E39" t="s">
-        <v>237</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
@@ -5049,30 +5045,30 @@
         <v>27.8</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R39" t="s">
         <v>31</v>
       </c>
       <c r="S39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
         <v>239</v>
-      </c>
-      <c r="B40" t="s">
-        <v>240</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>44325</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
@@ -5106,33 +5102,33 @@
         <v>42.2</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R40" t="s">
         <v>91</v>
       </c>
       <c r="S40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
         <v>244</v>
-      </c>
-      <c r="B41" t="s">
-        <v>245</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" t="s">
         <v>246</v>
-      </c>
-      <c r="E41" t="s">
-        <v>247</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
@@ -5159,33 +5155,33 @@
         <v>24.6</v>
       </c>
       <c r="P41" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q41" t="s">
         <v>247</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>248</v>
       </c>
       <c r="R41" t="s">
         <v>24</v>
       </c>
       <c r="S41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" t="s">
         <v>250</v>
-      </c>
-      <c r="B42" t="s">
-        <v>251</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="D42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" t="s">
         <v>252</v>
-      </c>
-      <c r="E42" t="s">
-        <v>253</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
@@ -5212,33 +5208,33 @@
         <v>12</v>
       </c>
       <c r="P42" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q42" t="s">
         <v>253</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>254</v>
       </c>
       <c r="R42" t="s">
         <v>37</v>
       </c>
       <c r="S42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="s">
         <v>256</v>
-      </c>
-      <c r="B43" t="s">
-        <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>44335</v>
       </c>
       <c r="D43" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" t="s">
         <v>258</v>
-      </c>
-      <c r="E43" t="s">
-        <v>259</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
@@ -5269,33 +5265,33 @@
         <v>68.5</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R43" t="s">
         <v>91</v>
       </c>
       <c r="S43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" t="s">
         <v>262</v>
-      </c>
-      <c r="B44" t="s">
-        <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D44" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
         <v>264</v>
-      </c>
-      <c r="E44" t="s">
-        <v>265</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
@@ -5326,33 +5322,33 @@
         <v>25.6</v>
       </c>
       <c r="P44" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q44" t="s">
         <v>266</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>267</v>
       </c>
       <c r="R44" t="s">
         <v>91</v>
       </c>
       <c r="S44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" t="s">
         <v>269</v>
-      </c>
-      <c r="B45" t="s">
-        <v>270</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D45" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" t="s">
         <v>271</v>
-      </c>
-      <c r="E45" t="s">
-        <v>272</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
@@ -5383,33 +5379,33 @@
         <v>6.2</v>
       </c>
       <c r="P45" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q45" t="s">
         <v>273</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>274</v>
       </c>
       <c r="R45" t="s">
         <v>31</v>
       </c>
       <c r="S45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" t="s">
         <v>276</v>
-      </c>
-      <c r="B46" t="s">
-        <v>277</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="D46" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" t="s">
         <v>278</v>
-      </c>
-      <c r="E46" t="s">
-        <v>279</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
@@ -5436,36 +5432,36 @@
         <v>33333.3</v>
       </c>
       <c r="P46" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q46" t="s">
         <v>280</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>281</v>
       </c>
       <c r="R46" t="s">
         <v>37</v>
       </c>
       <c r="S46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B47" t="s">
         <v>283</v>
-      </c>
-      <c r="B47" t="s">
-        <v>284</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="D47" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" t="s">
         <v>285</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>286</v>
-      </c>
-      <c r="F47" t="s">
-        <v>287</v>
       </c>
       <c r="G47" t="n">
         <v>445</v>
@@ -5488,36 +5484,40 @@
       <c r="M47" t="n">
         <v>1.393</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
+      <c r="N47" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O47" t="n">
+        <v>26.5</v>
+      </c>
       <c r="P47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R47" t="s">
         <v>91</v>
       </c>
       <c r="S47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" t="s">
         <v>290</v>
-      </c>
-      <c r="B48" t="s">
-        <v>291</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>44335</v>
       </c>
       <c r="D48" t="s">
+        <v>291</v>
+      </c>
+      <c r="E48" t="s">
         <v>292</v>
-      </c>
-      <c r="E48" t="s">
-        <v>293</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
@@ -5544,36 +5544,36 @@
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R48" t="s">
         <v>37</v>
       </c>
       <c r="S48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" t="s">
         <v>295</v>
-      </c>
-      <c r="B49" t="s">
-        <v>296</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D49" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" t="s">
         <v>297</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>298</v>
-      </c>
-      <c r="F49" t="s">
-        <v>299</v>
       </c>
       <c r="G49" t="n">
         <v>422</v>
@@ -5603,90 +5603,90 @@
         <v>8.2</v>
       </c>
       <c r="P49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R49" t="s">
         <v>91</v>
       </c>
       <c r="S49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" t="s">
         <v>301</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D50" t="s">
         <v>302</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>303</v>
-      </c>
-      <c r="E50" t="s">
-        <v>304</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H50" t="n">
-        <v>10820194</v>
+        <v>10882055</v>
       </c>
       <c r="I50" t="n">
-        <v>39.559</v>
+        <v>39.785</v>
       </c>
       <c r="J50" t="n">
-        <v>54406</v>
+        <v>61861</v>
       </c>
       <c r="K50" t="n">
-        <v>0.199</v>
+        <v>0.226</v>
       </c>
       <c r="L50" t="n">
-        <v>53433</v>
+        <v>56055</v>
       </c>
       <c r="M50" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="N50" t="n">
-        <v>0.099</v>
+        <v>0.097</v>
       </c>
       <c r="O50" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="P50" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q50" t="s">
         <v>304</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>305</v>
       </c>
       <c r="R50" t="s">
         <v>31</v>
       </c>
       <c r="S50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" t="s">
         <v>307</v>
-      </c>
-      <c r="B51" t="s">
-        <v>308</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D51" t="s">
+        <v>308</v>
+      </c>
+      <c r="E51" t="s">
         <v>309</v>
-      </c>
-      <c r="E51" t="s">
-        <v>310</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
@@ -5713,33 +5713,33 @@
         <v>11.6</v>
       </c>
       <c r="P51" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q51" t="s">
         <v>310</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>311</v>
       </c>
       <c r="R51" t="s">
         <v>37</v>
       </c>
       <c r="S51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>312</v>
+      </c>
+      <c r="B52" t="s">
         <v>313</v>
-      </c>
-      <c r="B52" t="s">
-        <v>314</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="D52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" t="s">
         <v>315</v>
-      </c>
-      <c r="E52" t="s">
-        <v>316</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
@@ -5770,33 +5770,33 @@
         <v>8.4</v>
       </c>
       <c r="P52" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q52" t="s">
         <v>317</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>318</v>
       </c>
       <c r="R52" t="s">
         <v>91</v>
       </c>
       <c r="S52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" t="s">
         <v>320</v>
-      </c>
-      <c r="B53" t="s">
-        <v>321</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>44329</v>
       </c>
       <c r="D53" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" t="s">
         <v>322</v>
-      </c>
-      <c r="E53" t="s">
-        <v>323</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
@@ -5827,33 +5827,33 @@
         <v>43.5</v>
       </c>
       <c r="P53" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q53" t="s">
         <v>323</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>324</v>
       </c>
       <c r="R53" t="s">
         <v>37</v>
       </c>
       <c r="S53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" t="s">
         <v>326</v>
-      </c>
-      <c r="B54" t="s">
-        <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D54" t="s">
+        <v>327</v>
+      </c>
+      <c r="E54" t="s">
         <v>328</v>
-      </c>
-      <c r="E54" t="s">
-        <v>329</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
@@ -5887,33 +5887,33 @@
         <v>42</v>
       </c>
       <c r="Q54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R54" t="s">
         <v>37</v>
       </c>
       <c r="S54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" t="s">
         <v>332</v>
-      </c>
-      <c r="B55" t="s">
-        <v>333</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D55" t="s">
+        <v>333</v>
+      </c>
+      <c r="E55" t="s">
         <v>334</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>335</v>
-      </c>
-      <c r="F55" t="s">
-        <v>336</v>
       </c>
       <c r="G55" t="n">
         <v>401</v>
@@ -5943,36 +5943,36 @@
         <v>15.8</v>
       </c>
       <c r="P55" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q55" t="s">
         <v>337</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>338</v>
       </c>
       <c r="R55" t="s">
         <v>31</v>
       </c>
       <c r="S55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D56" t="s">
+        <v>333</v>
+      </c>
+      <c r="E56" t="s">
         <v>334</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>335</v>
-      </c>
-      <c r="F56" t="s">
-        <v>336</v>
       </c>
       <c r="G56" t="n">
         <v>456</v>
@@ -6002,33 +6002,33 @@
         <v>51.2</v>
       </c>
       <c r="P56" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q56" t="s">
         <v>337</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>338</v>
       </c>
       <c r="R56" t="s">
         <v>37</v>
       </c>
       <c r="S56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" t="s">
         <v>342</v>
-      </c>
-      <c r="B57" t="s">
-        <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E57" t="s">
         <v>344</v>
-      </c>
-      <c r="E57" t="s">
-        <v>345</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
@@ -6055,33 +6055,33 @@
         <v>16.6</v>
       </c>
       <c r="P57" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q57" t="s">
         <v>345</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>346</v>
       </c>
       <c r="R57" t="s">
         <v>91</v>
       </c>
       <c r="S57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" t="s">
         <v>348</v>
-      </c>
-      <c r="B58" t="s">
-        <v>349</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D58" t="s">
+        <v>349</v>
+      </c>
+      <c r="E58" t="s">
         <v>350</v>
-      </c>
-      <c r="E58" t="s">
-        <v>351</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
@@ -6112,33 +6112,33 @@
         <v>19</v>
       </c>
       <c r="P58" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q58" t="s">
         <v>351</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>352</v>
       </c>
       <c r="R58" t="s">
         <v>31</v>
       </c>
       <c r="S58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>353</v>
+      </c>
+      <c r="B59" t="s">
         <v>354</v>
-      </c>
-      <c r="B59" t="s">
-        <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D59" t="s">
+        <v>355</v>
+      </c>
+      <c r="E59" t="s">
         <v>356</v>
-      </c>
-      <c r="E59" t="s">
-        <v>357</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
@@ -6169,33 +6169,33 @@
         <v>47.6</v>
       </c>
       <c r="P59" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q59" t="s">
         <v>357</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>358</v>
       </c>
       <c r="R59" t="s">
         <v>37</v>
       </c>
       <c r="S59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" t="s">
         <v>360</v>
-      </c>
-      <c r="B60" t="s">
-        <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D60" t="s">
+        <v>361</v>
+      </c>
+      <c r="E60" t="s">
         <v>362</v>
-      </c>
-      <c r="E60" t="s">
-        <v>363</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
@@ -6226,33 +6226,33 @@
         <v>22.3</v>
       </c>
       <c r="P60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R60" t="s">
         <v>37</v>
       </c>
       <c r="S60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>364</v>
+      </c>
+      <c r="B61" t="s">
         <v>365</v>
-      </c>
-      <c r="B61" t="s">
-        <v>366</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="D61" t="s">
+        <v>366</v>
+      </c>
+      <c r="E61" t="s">
         <v>367</v>
-      </c>
-      <c r="E61" t="s">
-        <v>368</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
@@ -6282,30 +6282,30 @@
         <v>42</v>
       </c>
       <c r="Q61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R61" t="s">
         <v>37</v>
       </c>
       <c r="S61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" t="s">
         <v>370</v>
-      </c>
-      <c r="B62" t="s">
-        <v>371</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E62" t="s">
         <v>372</v>
-      </c>
-      <c r="E62" t="s">
-        <v>373</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
@@ -6336,36 +6336,36 @@
         <v>8.6</v>
       </c>
       <c r="P62" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q62" t="s">
         <v>373</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>374</v>
       </c>
       <c r="R62" t="s">
         <v>37</v>
       </c>
       <c r="S62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" t="s">
         <v>376</v>
-      </c>
-      <c r="B63" t="s">
-        <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D63" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" t="s">
         <v>378</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>379</v>
-      </c>
-      <c r="F63" t="s">
-        <v>380</v>
       </c>
       <c r="G63" t="n">
         <v>451</v>
@@ -6395,127 +6395,131 @@
         <v>29.8</v>
       </c>
       <c r="P63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R63" t="s">
         <v>37</v>
       </c>
       <c r="S63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B64" t="s">
         <v>382</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D64" t="s">
         <v>383</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>384</v>
-      </c>
-      <c r="E64" t="s">
-        <v>385</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="n">
-        <v>4312975</v>
+        <v>4329075</v>
       </c>
       <c r="I64" t="n">
-        <v>631.897</v>
-      </c>
-      <c r="J64"/>
-      <c r="K64"/>
+        <v>634.256</v>
+      </c>
+      <c r="J64" t="n">
+        <v>16100</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.359</v>
+      </c>
       <c r="L64" t="n">
-        <v>15237</v>
+        <v>14956</v>
       </c>
       <c r="M64" t="n">
-        <v>2.232</v>
+        <v>2.191</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R64" t="s">
         <v>24</v>
       </c>
       <c r="S64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B65" t="s">
         <v>387</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="D65" t="s">
         <v>388</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>44339</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>389</v>
-      </c>
-      <c r="E65" t="s">
-        <v>390</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>3460</v>
+        <v>3665</v>
       </c>
       <c r="K65" t="n">
-        <v>0.504</v>
+        <v>0.533</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q65" t="s">
         <v>390</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>391</v>
       </c>
       <c r="R65" t="s">
         <v>91</v>
       </c>
       <c r="S65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" t="s">
         <v>393</v>
-      </c>
-      <c r="B66" t="s">
-        <v>394</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>44335</v>
       </c>
       <c r="D66" t="s">
+        <v>394</v>
+      </c>
+      <c r="E66" t="s">
         <v>395</v>
-      </c>
-      <c r="E66" t="s">
-        <v>396</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
@@ -6546,33 +6550,33 @@
         <v>76.9</v>
       </c>
       <c r="P66" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q66" t="s">
         <v>396</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>397</v>
       </c>
       <c r="R66" t="s">
         <v>37</v>
       </c>
       <c r="S66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>398</v>
+      </c>
+      <c r="B67" t="s">
         <v>399</v>
-      </c>
-      <c r="B67" t="s">
-        <v>400</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D67" t="s">
+        <v>400</v>
+      </c>
+      <c r="E67" t="s">
         <v>401</v>
-      </c>
-      <c r="E67" t="s">
-        <v>402</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
@@ -6603,33 +6607,33 @@
         <v>21.3</v>
       </c>
       <c r="P67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R67" t="s">
         <v>37</v>
       </c>
       <c r="S67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68" t="s">
         <v>404</v>
-      </c>
-      <c r="B68" t="s">
-        <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D68" t="s">
+        <v>405</v>
+      </c>
+      <c r="E68" t="s">
         <v>406</v>
-      </c>
-      <c r="E68" t="s">
-        <v>407</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
@@ -6660,33 +6664,33 @@
         <v>86.3</v>
       </c>
       <c r="P68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R68" t="s">
         <v>37</v>
       </c>
       <c r="S68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" t="s">
         <v>409</v>
-      </c>
-      <c r="B69" t="s">
-        <v>410</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D69" t="s">
+        <v>410</v>
+      </c>
+      <c r="E69" t="s">
         <v>411</v>
-      </c>
-      <c r="E69" t="s">
-        <v>412</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
@@ -6717,33 +6721,33 @@
         <v>5.1</v>
       </c>
       <c r="P69" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q69" t="s">
         <v>412</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>413</v>
       </c>
       <c r="R69" t="s">
         <v>37</v>
       </c>
       <c r="S69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>414</v>
+      </c>
+      <c r="B70" t="s">
         <v>415</v>
-      </c>
-      <c r="B70" t="s">
-        <v>416</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>44302</v>
       </c>
       <c r="D70" t="s">
+        <v>416</v>
+      </c>
+      <c r="E70" t="s">
         <v>417</v>
-      </c>
-      <c r="E70" t="s">
-        <v>418</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
@@ -6770,36 +6774,36 @@
         <v>25.6</v>
       </c>
       <c r="P70" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q70" t="s">
         <v>419</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>420</v>
       </c>
       <c r="R70" t="s">
         <v>91</v>
       </c>
       <c r="S70" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>421</v>
+      </c>
+      <c r="B71" t="s">
         <v>422</v>
-      </c>
-      <c r="B71" t="s">
-        <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D71" t="s">
+        <v>423</v>
+      </c>
+      <c r="E71" t="s">
         <v>424</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>425</v>
-      </c>
-      <c r="F71" t="s">
-        <v>426</v>
       </c>
       <c r="G71" t="n">
         <v>436</v>
@@ -6832,30 +6836,30 @@
         <v>42</v>
       </c>
       <c r="Q71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R71" t="s">
         <v>31</v>
       </c>
       <c r="S71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>428</v>
+      </c>
+      <c r="B72" t="s">
         <v>429</v>
-      </c>
-      <c r="B72" t="s">
-        <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D72" t="s">
+        <v>430</v>
+      </c>
+      <c r="E72" t="s">
         <v>431</v>
-      </c>
-      <c r="E72" t="s">
-        <v>432</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
@@ -6886,33 +6890,33 @@
         <v>3.3</v>
       </c>
       <c r="P72" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q72" t="s">
         <v>432</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>433</v>
       </c>
       <c r="R72" t="s">
         <v>91</v>
       </c>
       <c r="S72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>434</v>
+      </c>
+      <c r="B73" t="s">
         <v>435</v>
-      </c>
-      <c r="B73" t="s">
-        <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D73" t="s">
+        <v>436</v>
+      </c>
+      <c r="E73" t="s">
         <v>437</v>
-      </c>
-      <c r="E73" t="s">
-        <v>438</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
@@ -6943,30 +6947,30 @@
         <v>570.7</v>
       </c>
       <c r="P73" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q73" t="s">
         <v>438</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>439</v>
       </c>
       <c r="R73" t="s">
         <v>37</v>
       </c>
       <c r="S73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>440</v>
+      </c>
+      <c r="B74" t="s">
         <v>441</v>
-      </c>
-      <c r="B74" t="s">
-        <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="D74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E74" t="s">
         <v>42</v>
@@ -6992,33 +6996,33 @@
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q74" t="s">
         <v>444</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>445</v>
       </c>
       <c r="R74" t="s">
         <v>37</v>
       </c>
       <c r="S74" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>446</v>
+      </c>
+      <c r="B75" t="s">
         <v>447</v>
-      </c>
-      <c r="B75" t="s">
-        <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D75" t="s">
+        <v>448</v>
+      </c>
+      <c r="E75" t="s">
         <v>449</v>
-      </c>
-      <c r="E75" t="s">
-        <v>450</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
@@ -7049,33 +7053,33 @@
         <v>5.9</v>
       </c>
       <c r="P75" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R75" t="s">
         <v>31</v>
       </c>
       <c r="S75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" t="s">
         <v>453</v>
-      </c>
-      <c r="B76" t="s">
-        <v>454</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D76" t="s">
+        <v>454</v>
+      </c>
+      <c r="E76" t="s">
         <v>455</v>
-      </c>
-      <c r="E76" t="s">
-        <v>456</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
@@ -7106,30 +7110,30 @@
         <v>35.7</v>
       </c>
       <c r="P76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R76" t="s">
         <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" t="s">
         <v>458</v>
-      </c>
-      <c r="B77" t="s">
-        <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E77" t="s">
         <v>42</v>
@@ -7166,30 +7170,30 @@
         <v>42</v>
       </c>
       <c r="Q77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R77" t="s">
         <v>91</v>
       </c>
       <c r="S77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>462</v>
+      </c>
+      <c r="B78" t="s">
         <v>463</v>
-      </c>
-      <c r="B78" t="s">
-        <v>464</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D78" t="s">
+        <v>464</v>
+      </c>
+      <c r="E78" t="s">
         <v>465</v>
-      </c>
-      <c r="E78" t="s">
-        <v>466</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
@@ -7220,33 +7224,33 @@
         <v>31.2</v>
       </c>
       <c r="P78" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q78" t="s">
         <v>466</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>467</v>
       </c>
       <c r="R78" t="s">
         <v>31</v>
       </c>
       <c r="S78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" t="s">
         <v>469</v>
-      </c>
-      <c r="B79" t="s">
-        <v>470</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D79" t="s">
+        <v>470</v>
+      </c>
+      <c r="E79" t="s">
         <v>471</v>
-      </c>
-      <c r="E79" t="s">
-        <v>472</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
@@ -7277,33 +7281,33 @@
         <v>52.2</v>
       </c>
       <c r="P79" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q79" t="s">
         <v>472</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>473</v>
       </c>
       <c r="R79" t="s">
         <v>66</v>
       </c>
       <c r="S79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80" t="s">
         <v>475</v>
-      </c>
-      <c r="B80" t="s">
-        <v>476</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D80" t="s">
+        <v>476</v>
+      </c>
+      <c r="E80" t="s">
         <v>477</v>
-      </c>
-      <c r="E80" t="s">
-        <v>478</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
@@ -7334,33 +7338,33 @@
         <v>54.5</v>
       </c>
       <c r="P80" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q80" t="s">
         <v>478</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>479</v>
       </c>
       <c r="R80" t="s">
         <v>91</v>
       </c>
       <c r="S80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>480</v>
+      </c>
+      <c r="B81" t="s">
         <v>481</v>
-      </c>
-      <c r="B81" t="s">
-        <v>482</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D81" t="s">
+        <v>482</v>
+      </c>
+      <c r="E81" t="s">
         <v>483</v>
-      </c>
-      <c r="E81" t="s">
-        <v>484</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
@@ -7391,33 +7395,33 @@
         <v>6.8</v>
       </c>
       <c r="P81" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q81" t="s">
         <v>485</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>486</v>
       </c>
       <c r="R81" t="s">
         <v>91</v>
       </c>
       <c r="S81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>487</v>
+      </c>
+      <c r="B82" t="s">
         <v>488</v>
-      </c>
-      <c r="B82" t="s">
-        <v>489</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D82" t="s">
+        <v>489</v>
+      </c>
+      <c r="E82" t="s">
         <v>490</v>
-      </c>
-      <c r="E82" t="s">
-        <v>491</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
@@ -7448,33 +7452,33 @@
         <v>2.5</v>
       </c>
       <c r="P82" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q82" t="s">
         <v>491</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>492</v>
       </c>
       <c r="R82" t="s">
         <v>37</v>
       </c>
       <c r="S82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>493</v>
+      </c>
+      <c r="B83" t="s">
         <v>494</v>
-      </c>
-      <c r="B83" t="s">
-        <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>44326</v>
       </c>
       <c r="D83" t="s">
+        <v>495</v>
+      </c>
+      <c r="E83" t="s">
         <v>496</v>
-      </c>
-      <c r="E83" t="s">
-        <v>497</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
@@ -7505,86 +7509,86 @@
         <v>9.4</v>
       </c>
       <c r="P83" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q83" t="s">
         <v>498</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>499</v>
       </c>
       <c r="R83" t="s">
         <v>31</v>
       </c>
       <c r="S83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>500</v>
+      </c>
+      <c r="B84" t="s">
         <v>501</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D84" t="s">
         <v>502</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D84" t="s">
-        <v>503</v>
       </c>
       <c r="E84" t="s">
         <v>42</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H84" t="n">
-        <v>2111902</v>
+        <v>2116680</v>
       </c>
       <c r="I84" t="n">
-        <v>437.951</v>
+        <v>438.942</v>
       </c>
       <c r="J84" t="n">
-        <v>2950</v>
+        <v>4778</v>
       </c>
       <c r="K84" t="n">
-        <v>0.612</v>
+        <v>0.991</v>
       </c>
       <c r="L84" t="n">
-        <v>3801</v>
+        <v>3723</v>
       </c>
       <c r="M84" t="n">
-        <v>0.788</v>
+        <v>0.772</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q84" t="s">
         <v>504</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>505</v>
       </c>
       <c r="R84" t="s">
         <v>37</v>
       </c>
       <c r="S84" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>506</v>
+      </c>
+      <c r="B85" t="s">
         <v>507</v>
-      </c>
-      <c r="B85" t="s">
-        <v>508</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D85" t="s">
+        <v>508</v>
+      </c>
+      <c r="E85" t="s">
         <v>509</v>
-      </c>
-      <c r="E85" t="s">
-        <v>510</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
@@ -7611,30 +7615,30 @@
         <v>320.1</v>
       </c>
       <c r="P85" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R85" t="s">
         <v>91</v>
       </c>
       <c r="S85" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>511</v>
+      </c>
+      <c r="B86" t="s">
         <v>512</v>
-      </c>
-      <c r="B86" t="s">
-        <v>513</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>44341</v>
       </c>
       <c r="D86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E86" t="s">
         <v>42</v>
@@ -7657,36 +7661,40 @@
       <c r="M86" t="n">
         <v>0.838</v>
       </c>
-      <c r="N86"/>
-      <c r="O86"/>
+      <c r="N86" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="O86" t="n">
+        <v>45.7</v>
+      </c>
       <c r="P86" t="s">
         <v>42</v>
       </c>
       <c r="Q86" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R86" t="s">
         <v>37</v>
       </c>
       <c r="S86" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" t="s">
-        <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D87" t="s">
+        <v>518</v>
+      </c>
+      <c r="E87" t="s">
         <v>519</v>
-      </c>
-      <c r="E87" t="s">
-        <v>520</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7717,33 +7725,33 @@
         <v>45.9</v>
       </c>
       <c r="P87" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q87" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R87" t="s">
         <v>31</v>
       </c>
       <c r="S87" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>521</v>
+      </c>
+      <c r="B88" t="s">
         <v>522</v>
-      </c>
-      <c r="B88" t="s">
-        <v>523</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D88" t="s">
+        <v>523</v>
+      </c>
+      <c r="E88" t="s">
         <v>524</v>
-      </c>
-      <c r="E88" t="s">
-        <v>525</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
@@ -7762,83 +7770,83 @@
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q88" t="s">
         <v>525</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>526</v>
       </c>
       <c r="R88" t="s">
         <v>66</v>
       </c>
       <c r="S88" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>527</v>
+      </c>
+      <c r="B89" t="s">
         <v>528</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D89" t="s">
         <v>529</v>
       </c>
-      <c r="C89" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>530</v>
-      </c>
-      <c r="E89" t="s">
-        <v>531</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H89" t="n">
-        <v>12884544</v>
+        <v>12943620</v>
       </c>
       <c r="I89" t="n">
-        <v>58.33</v>
+        <v>58.597</v>
       </c>
       <c r="J89" t="n">
-        <v>46726</v>
+        <v>59076</v>
       </c>
       <c r="K89" t="n">
-        <v>0.212</v>
+        <v>0.267</v>
       </c>
       <c r="L89" t="n">
-        <v>53425</v>
+        <v>55897</v>
       </c>
       <c r="M89" t="n">
-        <v>0.242</v>
+        <v>0.253</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q89" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R89" t="s">
         <v>37</v>
       </c>
       <c r="S89" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" t="s">
         <v>533</v>
-      </c>
-      <c r="B90" t="s">
-        <v>534</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D90" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
@@ -7866,33 +7874,33 @@
         <v>11.1</v>
       </c>
       <c r="P90" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q90" t="s">
         <v>536</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>537</v>
       </c>
       <c r="R90" t="s">
         <v>37</v>
       </c>
       <c r="S90" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>538</v>
+      </c>
+      <c r="B91" t="s">
         <v>539</v>
-      </c>
-      <c r="B91" t="s">
-        <v>540</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D91" t="s">
+        <v>540</v>
+      </c>
+      <c r="E91" t="s">
         <v>541</v>
-      </c>
-      <c r="E91" t="s">
-        <v>542</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
@@ -7923,33 +7931,33 @@
         <v>19.1</v>
       </c>
       <c r="P91" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q91" t="s">
         <v>542</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>543</v>
       </c>
       <c r="R91" t="s">
         <v>37</v>
       </c>
       <c r="S91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" t="s">
         <v>545</v>
-      </c>
-      <c r="B92" t="s">
-        <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="D92" t="s">
+        <v>546</v>
+      </c>
+      <c r="E92" t="s">
         <v>547</v>
-      </c>
-      <c r="E92" t="s">
-        <v>548</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
@@ -7980,33 +7988,33 @@
         <v>2.7</v>
       </c>
       <c r="P92" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q92" t="s">
         <v>548</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>549</v>
       </c>
       <c r="R92" t="s">
         <v>37</v>
       </c>
       <c r="S92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>550</v>
+      </c>
+      <c r="B93" t="s">
         <v>551</v>
-      </c>
-      <c r="B93" t="s">
-        <v>552</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44312</v>
       </c>
       <c r="D93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
@@ -8037,33 +8045,33 @@
         <v>6.5</v>
       </c>
       <c r="P93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R93" t="s">
         <v>37</v>
       </c>
       <c r="S93" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>554</v>
+      </c>
+      <c r="B94" t="s">
         <v>555</v>
-      </c>
-      <c r="B94" t="s">
-        <v>556</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D94" t="s">
+        <v>556</v>
+      </c>
+      <c r="E94" t="s">
         <v>557</v>
-      </c>
-      <c r="E94" t="s">
-        <v>558</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
@@ -8094,33 +8102,33 @@
         <v>8.6</v>
       </c>
       <c r="P94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q94" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R94" t="s">
         <v>31</v>
       </c>
       <c r="S94" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>560</v>
+      </c>
+      <c r="B95" t="s">
         <v>561</v>
-      </c>
-      <c r="B95" t="s">
-        <v>562</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D95" t="s">
+        <v>562</v>
+      </c>
+      <c r="E95" t="s">
         <v>563</v>
-      </c>
-      <c r="E95" t="s">
-        <v>564</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
@@ -8151,33 +8159,33 @@
         <v>23.6</v>
       </c>
       <c r="P95" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q95" t="s">
         <v>564</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>565</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B96" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D96" t="s">
+        <v>562</v>
+      </c>
+      <c r="E96" t="s">
         <v>563</v>
-      </c>
-      <c r="E96" t="s">
-        <v>564</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8208,30 +8216,30 @@
         <v>24</v>
       </c>
       <c r="P96" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q96" t="s">
         <v>564</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>565</v>
       </c>
       <c r="R96" t="s">
         <v>91</v>
       </c>
       <c r="S96" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>567</v>
+      </c>
+      <c r="B97" t="s">
         <v>568</v>
-      </c>
-      <c r="B97" t="s">
-        <v>569</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D97" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E97" t="s">
         <v>42</v>
@@ -8265,33 +8273,33 @@
         <v>88</v>
       </c>
       <c r="P97" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q97" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="R97" t="s">
         <v>37</v>
       </c>
       <c r="S97" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>572</v>
+      </c>
+      <c r="B98" t="s">
         <v>573</v>
-      </c>
-      <c r="B98" t="s">
-        <v>574</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D98" t="s">
+        <v>574</v>
+      </c>
+      <c r="E98" t="s">
         <v>575</v>
-      </c>
-      <c r="E98" t="s">
-        <v>576</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
@@ -8322,197 +8330,197 @@
         <v>11</v>
       </c>
       <c r="P98" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q98" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R98" t="s">
         <v>31</v>
       </c>
       <c r="S98" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" t="s">
         <v>579</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D99" t="s">
         <v>580</v>
       </c>
-      <c r="C99" s="1" t="n">
-        <v>44339</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>581</v>
-      </c>
-      <c r="E99" t="s">
-        <v>582</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H99" t="n">
-        <v>7768459</v>
+        <v>7794370</v>
       </c>
       <c r="I99" t="n">
-        <v>403.815</v>
+        <v>405.162</v>
       </c>
       <c r="J99" t="n">
-        <v>13088</v>
+        <v>20519</v>
       </c>
       <c r="K99" t="n">
-        <v>0.68</v>
+        <v>1.067</v>
       </c>
       <c r="L99" t="n">
-        <v>17680</v>
+        <v>17530</v>
       </c>
       <c r="M99" t="n">
-        <v>0.919</v>
+        <v>0.911</v>
       </c>
       <c r="N99" t="n">
-        <v>0.029</v>
+        <v>0.026</v>
       </c>
       <c r="O99" t="n">
-        <v>34</v>
+        <v>38.6</v>
       </c>
       <c r="P99" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q99" t="s">
         <v>583</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>584</v>
       </c>
       <c r="R99" t="s">
         <v>37</v>
       </c>
       <c r="S99" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>585</v>
+      </c>
+      <c r="B100" t="s">
         <v>586</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D100" t="s">
         <v>587</v>
       </c>
-      <c r="C100" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>588</v>
-      </c>
-      <c r="E100" t="s">
-        <v>589</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H100" t="n">
-        <v>136195853</v>
+        <v>136467759</v>
       </c>
       <c r="I100" t="n">
-        <v>933.267</v>
+        <v>935.13</v>
       </c>
       <c r="J100" t="n">
-        <v>206525</v>
+        <v>271906</v>
       </c>
       <c r="K100" t="n">
-        <v>1.415</v>
+        <v>1.863</v>
       </c>
       <c r="L100" t="n">
-        <v>309082</v>
+        <v>308415</v>
       </c>
       <c r="M100" t="n">
-        <v>2.118</v>
+        <v>2.113</v>
       </c>
       <c r="N100" t="n">
         <v>0.027</v>
       </c>
       <c r="O100" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="P100" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q100" t="s">
         <v>589</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>590</v>
       </c>
       <c r="R100" t="s">
         <v>37</v>
       </c>
       <c r="S100" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>591</v>
+      </c>
+      <c r="B101" t="s">
         <v>592</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D101" t="s">
         <v>593</v>
       </c>
-      <c r="C101" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>594</v>
-      </c>
-      <c r="E101" t="s">
-        <v>595</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H101" t="n">
-        <v>1410046</v>
+        <v>1414886</v>
       </c>
       <c r="I101" t="n">
-        <v>108.865</v>
+        <v>109.239</v>
       </c>
       <c r="J101" t="n">
-        <v>4029</v>
+        <v>4840</v>
       </c>
       <c r="K101" t="n">
-        <v>0.311</v>
+        <v>0.374</v>
       </c>
       <c r="L101" t="n">
-        <v>4854</v>
+        <v>4840</v>
       </c>
       <c r="M101" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q101" t="s">
         <v>595</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>596</v>
       </c>
       <c r="R101" t="s">
         <v>91</v>
       </c>
       <c r="S101" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>597</v>
+      </c>
+      <c r="B102" t="s">
         <v>598</v>
-      </c>
-      <c r="B102" t="s">
-        <v>599</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D102" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
@@ -8549,30 +8557,30 @@
         <v>42</v>
       </c>
       <c r="Q102" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R102" t="s">
         <v>37</v>
       </c>
       <c r="S102" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>601</v>
+      </c>
+      <c r="B103" t="s">
         <v>602</v>
-      </c>
-      <c r="B103" t="s">
-        <v>603</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D103" t="s">
+        <v>603</v>
+      </c>
+      <c r="E103" t="s">
         <v>604</v>
-      </c>
-      <c r="E103" t="s">
-        <v>605</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -8603,36 +8611,36 @@
         <v>35.8</v>
       </c>
       <c r="P103" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q103" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R103" t="s">
         <v>37</v>
       </c>
       <c r="S103" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>606</v>
+      </c>
+      <c r="B104" t="s">
         <v>607</v>
-      </c>
-      <c r="B104" t="s">
-        <v>608</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D104" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G104" t="n">
         <v>453</v>
@@ -8665,80 +8673,80 @@
         <v>42</v>
       </c>
       <c r="Q104" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R104" t="s">
         <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>612</v>
+      </c>
+      <c r="B105" t="s">
         <v>613</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="D105" t="s">
         <v>614</v>
-      </c>
-      <c r="C105" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D105" t="s">
-        <v>615</v>
       </c>
       <c r="E105" t="s">
         <v>42</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H105" t="n">
-        <v>11064019</v>
+        <v>11470986</v>
       </c>
       <c r="I105" t="n">
-        <v>1891.174</v>
+        <v>1960.737</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105" t="n">
-        <v>88888</v>
+        <v>58138</v>
       </c>
       <c r="M105" t="n">
-        <v>15.194</v>
+        <v>9.938</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O105" t="n">
-        <v>2647.8</v>
+        <v>1647.6</v>
       </c>
       <c r="P105" t="s">
         <v>42</v>
       </c>
       <c r="Q105" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R105" t="s">
         <v>91</v>
       </c>
       <c r="S105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>616</v>
+      </c>
+      <c r="B106" t="s">
         <v>617</v>
-      </c>
-      <c r="B106" t="s">
-        <v>618</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E106" t="s">
         <v>42</v>
@@ -8775,30 +8783,30 @@
         <v>42</v>
       </c>
       <c r="Q106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="R106" t="s">
         <v>37</v>
       </c>
       <c r="S106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>620</v>
+      </c>
+      <c r="B107" t="s">
         <v>621</v>
-      </c>
-      <c r="B107" t="s">
-        <v>622</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D107" t="s">
+        <v>622</v>
+      </c>
+      <c r="E107" t="s">
         <v>623</v>
-      </c>
-      <c r="E107" t="s">
-        <v>624</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
@@ -8829,36 +8837,36 @@
         <v>10.9</v>
       </c>
       <c r="P107" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q107" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R107" t="s">
         <v>37</v>
       </c>
       <c r="S107" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>625</v>
+      </c>
+      <c r="B108" t="s">
         <v>626</v>
-      </c>
-      <c r="B108" t="s">
-        <v>627</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D108" t="s">
+        <v>627</v>
+      </c>
+      <c r="E108" t="s">
         <v>628</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>629</v>
-      </c>
-      <c r="F108" t="s">
-        <v>630</v>
       </c>
       <c r="G108" t="n">
         <v>444</v>
@@ -8888,52 +8896,52 @@
         <v>10.9</v>
       </c>
       <c r="P108" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q108" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R108" t="s">
         <v>31</v>
       </c>
       <c r="S108" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>632</v>
+      </c>
+      <c r="B109" t="s">
         <v>633</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D109" t="s">
         <v>634</v>
       </c>
-      <c r="C109" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>635</v>
-      </c>
-      <c r="E109" t="s">
-        <v>636</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H109" t="n">
-        <v>9475629</v>
+        <v>9508389</v>
       </c>
       <c r="I109" t="n">
-        <v>184.821</v>
+        <v>185.46</v>
       </c>
       <c r="J109" t="n">
-        <v>42720</v>
+        <v>32760</v>
       </c>
       <c r="K109" t="n">
-        <v>0.833</v>
+        <v>0.639</v>
       </c>
       <c r="L109" t="n">
-        <v>26291</v>
+        <v>26320</v>
       </c>
       <c r="M109" t="n">
         <v>0.513</v>
@@ -8941,90 +8949,84 @@
       <c r="N109"/>
       <c r="O109"/>
       <c r="P109" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q109" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R109" t="s">
         <v>31</v>
       </c>
       <c r="S109" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>637</v>
+      </c>
+      <c r="B110" t="s">
         <v>638</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="D110" t="s">
         <v>639</v>
-      </c>
-      <c r="C110" s="1" t="n">
-        <v>44330</v>
-      </c>
-      <c r="D110" t="s">
-        <v>640</v>
       </c>
       <c r="E110" t="s">
         <v>42</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H110" t="n">
-        <v>159088</v>
+        <v>163474</v>
       </c>
       <c r="I110" t="n">
-        <v>14.212</v>
-      </c>
-      <c r="J110" t="n">
-        <v>410</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.037</v>
-      </c>
+        <v>14.604</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110" t="n">
-        <v>517</v>
+        <v>439</v>
       </c>
       <c r="M110" t="n">
-        <v>0.046</v>
+        <v>0.039</v>
       </c>
       <c r="N110" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O110" t="n">
-        <v>258.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O110"/>
       <c r="P110" t="s">
         <v>42</v>
       </c>
       <c r="Q110" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R110" t="s">
         <v>37</v>
       </c>
       <c r="S110" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>642</v>
+      </c>
+      <c r="B111" t="s">
         <v>643</v>
-      </c>
-      <c r="B111" t="s">
-        <v>644</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>44329</v>
       </c>
       <c r="D111" t="s">
+        <v>644</v>
+      </c>
+      <c r="E111" t="s">
         <v>645</v>
-      </c>
-      <c r="E111" t="s">
-        <v>646</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
@@ -9051,33 +9053,33 @@
         <v>19.9</v>
       </c>
       <c r="P111" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q111" t="s">
         <v>647</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>648</v>
       </c>
       <c r="R111" t="s">
         <v>37</v>
       </c>
       <c r="S111" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>649</v>
+      </c>
+      <c r="B112" t="s">
         <v>650</v>
-      </c>
-      <c r="B112" t="s">
-        <v>651</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D112" t="s">
+        <v>651</v>
+      </c>
+      <c r="E112" t="s">
         <v>652</v>
-      </c>
-      <c r="E112" t="s">
-        <v>653</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
@@ -9108,33 +9110,33 @@
         <v>7.5</v>
       </c>
       <c r="P112" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q112" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R112" t="s">
         <v>37</v>
       </c>
       <c r="S112" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>654</v>
+      </c>
+      <c r="B113" t="s">
         <v>655</v>
-      </c>
-      <c r="B113" t="s">
-        <v>656</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44332</v>
       </c>
       <c r="D113" t="s">
+        <v>656</v>
+      </c>
+      <c r="E113" t="s">
         <v>657</v>
-      </c>
-      <c r="E113" t="s">
-        <v>658</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -9161,33 +9163,33 @@
         <v>9.9</v>
       </c>
       <c r="P113" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q113" t="s">
         <v>659</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>660</v>
       </c>
       <c r="R113" t="s">
         <v>37</v>
       </c>
       <c r="S113" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>661</v>
+      </c>
+      <c r="B114" t="s">
         <v>662</v>
-      </c>
-      <c r="B114" t="s">
-        <v>663</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D114" t="s">
+        <v>394</v>
+      </c>
+      <c r="E114" t="s">
         <v>395</v>
-      </c>
-      <c r="E114" t="s">
-        <v>396</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
@@ -9218,33 +9220,33 @@
         <v>20.8</v>
       </c>
       <c r="P114" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q114" t="s">
         <v>396</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>397</v>
       </c>
       <c r="R114" t="s">
         <v>37</v>
       </c>
       <c r="S114" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>664</v>
+      </c>
+      <c r="B115" t="s">
         <v>665</v>
-      </c>
-      <c r="B115" t="s">
-        <v>666</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D115" t="s">
+        <v>666</v>
+      </c>
+      <c r="E115" t="s">
         <v>667</v>
-      </c>
-      <c r="E115" t="s">
-        <v>668</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
@@ -9275,33 +9277,33 @@
         <v>43.8</v>
       </c>
       <c r="P115" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q115" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R115" t="s">
         <v>31</v>
       </c>
       <c r="S115" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>669</v>
+      </c>
+      <c r="B116" t="s">
         <v>670</v>
-      </c>
-      <c r="B116" t="s">
-        <v>671</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44310</v>
       </c>
       <c r="D116" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
@@ -9332,34 +9334,34 @@
         <v>28.6</v>
       </c>
       <c r="P116" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q116" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R116" t="s">
         <v>37</v>
       </c>
       <c r="S116" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s">
         <v>675</v>
-      </c>
-      <c r="B117" t="s">
-        <v>676</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D117"/>
       <c r="E117" t="s">
+        <v>676</v>
+      </c>
+      <c r="F117" t="s">
         <v>677</v>
-      </c>
-      <c r="F117" t="s">
-        <v>678</v>
       </c>
       <c r="G117" t="n">
         <v>437</v>
@@ -9389,30 +9391,30 @@
         <v>52.4</v>
       </c>
       <c r="P117" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q117" t="s">
+        <v>678</v>
+      </c>
+      <c r="R117" t="s">
         <v>679</v>
       </c>
-      <c r="R117" t="s">
+      <c r="S117" t="s">
         <v>680</v>
-      </c>
-      <c r="S117" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>681</v>
+      </c>
+      <c r="B118" t="s">
         <v>682</v>
-      </c>
-      <c r="B118" t="s">
-        <v>683</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D118" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E118" t="s">
         <v>42</v>
@@ -9449,83 +9451,87 @@
         <v>42</v>
       </c>
       <c r="Q118" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>686</v>
+      </c>
+      <c r="B119" t="s">
         <v>687</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D119" t="s">
         <v>688</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>689</v>
-      </c>
-      <c r="E119" t="s">
-        <v>690</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119" t="n">
-        <v>1430192</v>
+        <v>1436240</v>
       </c>
       <c r="I119" t="n">
-        <v>121.012</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>121.524</v>
+      </c>
+      <c r="J119" t="n">
+        <v>6048</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.512</v>
+      </c>
       <c r="L119" t="n">
-        <v>6119</v>
+        <v>6311</v>
       </c>
       <c r="M119" t="n">
-        <v>0.518</v>
+        <v>0.534</v>
       </c>
       <c r="N119" t="n">
-        <v>0.209</v>
+        <v>0.204</v>
       </c>
       <c r="O119" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="P119" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q119" t="s">
         <v>691</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>692</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" t="s">
         <v>694</v>
-      </c>
-      <c r="B120" t="s">
-        <v>695</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D120" t="s">
+        <v>695</v>
+      </c>
+      <c r="E120" t="s">
         <v>696</v>
-      </c>
-      <c r="E120" t="s">
-        <v>697</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
@@ -9556,33 +9562,33 @@
         <v>22.8</v>
       </c>
       <c r="P120" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q120" t="s">
         <v>697</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>698</v>
       </c>
       <c r="R120" t="s">
         <v>37</v>
       </c>
       <c r="S120" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>699</v>
+      </c>
+      <c r="B121" t="s">
         <v>700</v>
-      </c>
-      <c r="B121" t="s">
-        <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44333</v>
       </c>
       <c r="D121" t="s">
+        <v>701</v>
+      </c>
+      <c r="E121" t="s">
         <v>702</v>
-      </c>
-      <c r="E121" t="s">
-        <v>703</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
@@ -9613,86 +9619,86 @@
         <v>38.4</v>
       </c>
       <c r="P121" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q121" t="s">
         <v>703</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>704</v>
       </c>
       <c r="R121" t="s">
         <v>91</v>
       </c>
       <c r="S121" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>705</v>
+      </c>
+      <c r="B122" t="s">
         <v>706</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D122" t="s">
         <v>707</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>708</v>
-      </c>
-      <c r="E122" t="s">
-        <v>709</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H122" t="n">
-        <v>10045897</v>
+        <v>10076621</v>
       </c>
       <c r="I122" t="n">
-        <v>229.706</v>
+        <v>230.408</v>
       </c>
       <c r="J122" t="n">
-        <v>23440</v>
+        <v>30724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.536</v>
+        <v>0.703</v>
       </c>
       <c r="L122" t="n">
-        <v>23350</v>
+        <v>23177</v>
       </c>
       <c r="M122" t="n">
-        <v>0.534</v>
+        <v>0.53</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q122" t="s">
         <v>709</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>710</v>
       </c>
       <c r="R122" t="s">
         <v>37</v>
       </c>
       <c r="S122" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>711</v>
+      </c>
+      <c r="B123" t="s">
         <v>712</v>
-      </c>
-      <c r="B123" t="s">
-        <v>713</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D123" t="s">
+        <v>713</v>
+      </c>
+      <c r="E123" t="s">
         <v>714</v>
-      </c>
-      <c r="E123" t="s">
-        <v>715</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
@@ -9716,39 +9722,43 @@
       <c r="M123" t="n">
         <v>22.806</v>
       </c>
-      <c r="N123"/>
-      <c r="O123"/>
+      <c r="N123" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O123" t="n">
+        <v>154.7</v>
+      </c>
       <c r="P123" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Q123" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R123" t="s">
         <v>37</v>
       </c>
       <c r="S123" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>716</v>
+      </c>
+      <c r="B124" t="s">
         <v>717</v>
-      </c>
-      <c r="B124" t="s">
-        <v>718</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D124" t="s">
+        <v>718</v>
+      </c>
+      <c r="E124" t="s">
         <v>719</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>720</v>
-      </c>
-      <c r="F124" t="s">
-        <v>721</v>
       </c>
       <c r="G124" t="n">
         <v>419</v>
@@ -9778,33 +9788,33 @@
         <v>585.8</v>
       </c>
       <c r="P124" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Q124" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R124" t="s">
         <v>37</v>
       </c>
       <c r="S124" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>723</v>
+      </c>
+      <c r="B125" t="s">
         <v>724</v>
-      </c>
-      <c r="B125" t="s">
-        <v>725</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>44337</v>
       </c>
       <c r="D125" t="s">
+        <v>725</v>
+      </c>
+      <c r="E125" t="s">
         <v>726</v>
-      </c>
-      <c r="E125" t="s">
-        <v>727</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
@@ -9835,86 +9845,90 @@
         <v>28.6</v>
       </c>
       <c r="P125" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q125" t="s">
         <v>727</v>
       </c>
-      <c r="Q125" t="s">
+      <c r="R125" t="s">
         <v>728</v>
       </c>
-      <c r="R125" t="s">
+      <c r="S125" t="s">
         <v>729</v>
-      </c>
-      <c r="S125" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>730</v>
+      </c>
+      <c r="B126" t="s">
         <v>731</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="D126" t="s">
         <v>732</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>44339</v>
-      </c>
-      <c r="D126" t="s">
-        <v>733</v>
-      </c>
       <c r="E126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H126" t="n">
-        <v>2113069</v>
+        <v>2124792</v>
       </c>
       <c r="I126" t="n">
-        <v>608.3</v>
-      </c>
-      <c r="J126"/>
-      <c r="K126"/>
+        <v>611.675</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11723</v>
+      </c>
+      <c r="K126" t="n">
+        <v>3.375</v>
+      </c>
       <c r="L126" t="n">
-        <v>15407</v>
+        <v>15490</v>
       </c>
       <c r="M126" t="n">
-        <v>4.435</v>
+        <v>4.459</v>
       </c>
       <c r="N126" t="n">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="O126" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="P126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q126" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R126" t="s">
         <v>37</v>
       </c>
       <c r="S126" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>735</v>
+      </c>
+      <c r="B127" t="s">
         <v>736</v>
-      </c>
-      <c r="B127" t="s">
-        <v>737</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44334</v>
       </c>
       <c r="D127" t="s">
+        <v>737</v>
+      </c>
+      <c r="E127" t="s">
         <v>738</v>
-      </c>
-      <c r="E127" t="s">
-        <v>739</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
@@ -9941,33 +9955,33 @@
         <v>204</v>
       </c>
       <c r="P127" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q127" t="s">
         <v>739</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>740</v>
       </c>
       <c r="R127" t="s">
         <v>91</v>
       </c>
       <c r="S127" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>741</v>
+      </c>
+      <c r="B128" t="s">
         <v>742</v>
-      </c>
-      <c r="B128" t="s">
-        <v>743</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>44340</v>
       </c>
       <c r="D128" t="s">
+        <v>743</v>
+      </c>
+      <c r="E128" t="s">
         <v>744</v>
-      </c>
-      <c r="E128" t="s">
-        <v>745</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
@@ -9998,33 +10012,33 @@
         <v>49.3</v>
       </c>
       <c r="P128" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q128" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R128" t="s">
         <v>37</v>
       </c>
       <c r="S128" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>747</v>
+      </c>
+      <c r="B129" t="s">
         <v>748</v>
-      </c>
-      <c r="B129" t="s">
-        <v>749</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>44336</v>
       </c>
       <c r="D129" t="s">
+        <v>749</v>
+      </c>
+      <c r="E129" t="s">
         <v>750</v>
-      </c>
-      <c r="E129" t="s">
-        <v>751</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
@@ -10055,16 +10069,16 @@
         <v>96.5</v>
       </c>
       <c r="P129" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q129" t="s">
         <v>751</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>752</v>
       </c>
       <c r="R129" t="s">
         <v>37</v>
       </c>
       <c r="S129" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="778">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3051-testime-835-te-sheruar-24-raste-te-reja-dhe-2-humbje-jete-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-15-raste-te-reja-2691-testime-dhe-71-te-sheruar-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3932</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3953</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-26-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-28-may-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1169-new-cases-1396-recoveries_i_0000130157.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1434-new-cases-1490-recoveries_i_0000130302.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4190765370985047/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4203792293015688/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5585-reporte-432-de-covid-19-1-634-pacientes-recuperados-9-498-pruebas-negativas-y-1-357-045-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5607-reporte-437-de-covid-19-1-474-pacientes-recuperados-11-244-pruebas-negativas-y-1-511-957-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-25-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-27-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1909804992518519</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1911359415696410</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -676,7 +676,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=46976ec752</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=bb6b4652fe</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-26052021-fdp7</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-28052021-9len</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.431.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.432.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-23052021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-26052021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1340</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1415</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210522.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210526.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/364621</t>
+    <t xml:space="preserve">http://irangov.ir/detail/364694</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1395752641892847619</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1397627521378705410</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-may-22-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-may-26-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1266,7 +1266,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5808</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5816</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1338,7 +1338,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1396511283533467648</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1397598521759514630</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1428,7 +1428,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210526-4nrpzqqh/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210528-rey6l50i/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1480,7 +1480,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4168164826581403/4168161566581729/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4177268802337672/4177262205671665/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1519,7 +1519,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-23052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-26052021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1396511086950551555</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1397598419426844674</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/344503613934855/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/347024057016144/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1641,7 +1641,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-22-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1203/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-26-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1207/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1656,7 +1656,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/23.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/26.5.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1699,7 +1699,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(22-5-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(27-5-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1719,7 +1719,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.751022265570779/751022168904122</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.752596905413315/752596792079993</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1741,7 +1741,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1EMe5R7_xsJLEZfMvgDHA_O7iz8q-m6za</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1n4DPihec0BNIpydGjlTWpws-XpkxrRI2</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1762,7 +1762,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-05/COVID-19_WebSite_rapport_wekelijks_20210518_1137_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-05/COVID-19_WebSite_rapport_wekelijks_20210525_1208.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1894,7 +1894,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3822954301163753</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3843846492407867</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1396245637570629637</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1397711353025028096</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1935,7 +1935,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1394092651050328074</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1397714597570924547</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1969,7 +1969,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1LRoA089MndWA-nFQ9TNNjVpSXYT0xnHi?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1mRuFL64MbuEWzGSX80fHiYn-hpZoEE_E?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1990,7 +1990,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1395299505726050305</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1397836220835586048</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2053,7 +2053,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_26_mai_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_28_mai_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2076,7 +2076,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17909</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17923</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2275,7 +2275,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_13_05_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_20_05_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2385,9 +2385,6 @@
     <t xml:space="preserve">Togo Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Provided to OWID directly by MOH</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://covid19.gouv.tg/</t>
   </si>
   <si>
@@ -2405,7 +2402,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-733/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-735/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2468,7 +2465,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1394944449067761665</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1397476411556966404</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2519,7 +2516,7 @@
   </si>
   <si>
     <t xml:space="preserve">The UAE Federal Competitiveness and Statistics Authority provides a time series dataset (available to download), including the number of daily tests conducted from 29 January 2020 to today.
-According to a [page](https://web.archive.org/web/20210430160249/https://u.ae/en/information-and-services/justice-safety-and-the-law/handling-the-covid-19-outbreak/types-of-tests-for-detecting-covid-19-and-testing-for-covid19) on the UAE's government portal, the UAE conducts multiple types of tests to detect COVID-19 in people, including antigen and antibody tests; it is not clear which types of tests are included in the testing figures. The case definition is also unclear, but a [circular](https://doh.gov.ae/-/media/597A7218DFB24A43976C40F571398086.ashx) published by the UAE Department of Health suggests that a positive PCR test is usually required to confirm cases of COVID-19 (although other types of tests may be used for screening or supporting diagnoses). Including non-diagnostic tests in testing figures may misrepresent testing capacity, and so we remove our estimation of the Positive Rate.
+According to a contact at the Ministry of Cabinet affairs, PCR tests only are included in the testing figures and used to confirm cases of COVID-19.
 The source notes, "to ensure the highest possible quality and accuracy of the COVID-19 numbers, these data are regularly reviewed by UAE governmental authorities concerned. Numbers may change as the data are continuously refined", and so the time series may be impacted by retrospective revisions – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -2578,7 +2575,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-189</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-190</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2638,7 +2635,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1395462936039202819</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1397646213806178309</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2986,7 +2983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3055,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3065,31 +3062,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H2" t="n">
-        <v>665659</v>
+        <v>686370</v>
       </c>
       <c r="I2" t="n">
-        <v>231.308</v>
+        <v>238.505</v>
       </c>
       <c r="J2" t="n">
-        <v>3051</v>
+        <v>2691</v>
       </c>
       <c r="K2" t="n">
-        <v>1.06</v>
+        <v>0.935</v>
       </c>
       <c r="L2" t="n">
-        <v>2812</v>
+        <v>2959</v>
       </c>
       <c r="M2" t="n">
-        <v>0.977</v>
+        <v>1.028</v>
       </c>
       <c r="N2" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="O2" t="n">
-        <v>78.7</v>
+        <v>139</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3165,7 +3162,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3175,31 +3172,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H4" t="n">
-        <v>9641125</v>
+        <v>9686544</v>
       </c>
       <c r="I4" t="n">
-        <v>213.319</v>
+        <v>214.324</v>
       </c>
       <c r="J4" t="n">
-        <v>45495</v>
+        <v>38795</v>
       </c>
       <c r="K4" t="n">
-        <v>1.007</v>
+        <v>0.858</v>
       </c>
       <c r="L4" t="n">
-        <v>39264</v>
+        <v>40742</v>
       </c>
       <c r="M4" t="n">
-        <v>0.869</v>
+        <v>0.901</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326</v>
+        <v>0.328</v>
       </c>
       <c r="O4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3222,7 +3219,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3232,31 +3229,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H5" t="n">
-        <v>1060108</v>
+        <v>1072615</v>
       </c>
       <c r="I5" t="n">
-        <v>357.754</v>
+        <v>361.974</v>
       </c>
       <c r="J5" t="n">
-        <v>2963</v>
+        <v>3503</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>1.182</v>
       </c>
       <c r="L5" t="n">
-        <v>3348</v>
+        <v>3220</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.087</v>
       </c>
       <c r="N5" t="n">
-        <v>0.046</v>
+        <v>0.038</v>
       </c>
       <c r="O5" t="n">
-        <v>21.5</v>
+        <v>26.5</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3279,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3289,32 +3286,28 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H6" t="n">
-        <v>17988148</v>
+        <v>18164843</v>
       </c>
       <c r="I6" t="n">
-        <v>705.421</v>
+        <v>712.35</v>
       </c>
       <c r="J6" t="n">
-        <v>61494</v>
+        <v>95647</v>
       </c>
       <c r="K6" t="n">
-        <v>2.412</v>
+        <v>3.751</v>
       </c>
       <c r="L6" t="n">
-        <v>44163</v>
+        <v>55662</v>
       </c>
       <c r="M6" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4546.3</v>
-      </c>
+        <v>2.183</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
       <c r="P6" t="s">
         <v>48</v>
       </c>
@@ -3336,7 +3329,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3346,31 +3339,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H7" t="n">
-        <v>39471518</v>
+        <v>40456838</v>
       </c>
       <c r="I7" t="n">
-        <v>4382.608</v>
+        <v>4492.01</v>
       </c>
       <c r="J7" t="n">
-        <v>382294</v>
+        <v>542328</v>
       </c>
       <c r="K7" t="n">
-        <v>42.447</v>
+        <v>60.216</v>
       </c>
       <c r="L7" t="n">
-        <v>375814</v>
+        <v>404401</v>
       </c>
       <c r="M7" t="n">
-        <v>41.727</v>
+        <v>44.902</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>660.5</v>
+        <v>797</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3393,7 +3386,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3403,25 +3396,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>3477012</v>
+        <v>3486381</v>
       </c>
       <c r="I8" t="n">
-        <v>342.928</v>
+        <v>343.853</v>
       </c>
       <c r="J8" t="n">
-        <v>8397</v>
+        <v>9369</v>
       </c>
       <c r="K8" t="n">
-        <v>0.828</v>
+        <v>0.924</v>
       </c>
       <c r="L8" t="n">
-        <v>8914</v>
+        <v>8743</v>
       </c>
       <c r="M8" t="n">
-        <v>0.879</v>
+        <v>0.862</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3446,7 +3439,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3456,25 +3449,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H9" t="n">
-        <v>4548243</v>
+        <v>4568702</v>
       </c>
       <c r="I9" t="n">
-        <v>2672.948</v>
+        <v>2684.972</v>
       </c>
       <c r="J9" t="n">
-        <v>19163</v>
+        <v>20459</v>
       </c>
       <c r="K9" t="n">
-        <v>11.262</v>
+        <v>12.024</v>
       </c>
       <c r="L9" t="n">
-        <v>19322</v>
+        <v>19409</v>
       </c>
       <c r="M9" t="n">
-        <v>11.355</v>
+        <v>11.406</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3499,7 +3492,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3509,13 +3502,13 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H10" t="n">
-        <v>5860950</v>
+        <v>5877384</v>
       </c>
       <c r="I10" t="n">
-        <v>35.588</v>
+        <v>35.688</v>
       </c>
       <c r="J10" t="n">
         <v>16434</v>
@@ -3524,16 +3517,16 @@
         <v>0.1</v>
       </c>
       <c r="L10" t="n">
-        <v>16558</v>
+        <v>16129</v>
       </c>
       <c r="M10" t="n">
-        <v>0.101</v>
+        <v>0.098</v>
       </c>
       <c r="N10" t="n">
-        <v>0.086</v>
+        <v>0.087</v>
       </c>
       <c r="O10" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3556,7 +3549,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3566,28 +3559,24 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H11" t="n">
-        <v>6249700</v>
+        <v>6286097</v>
       </c>
       <c r="I11" t="n">
-        <v>661.391</v>
+        <v>665.243</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>15987</v>
+        <v>15992</v>
       </c>
       <c r="M11" t="n">
         <v>1.692</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O11" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3609,7 +3598,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3619,31 +3608,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H12" t="n">
-        <v>13731966</v>
+        <v>13796638</v>
       </c>
       <c r="I12" t="n">
-        <v>1184.851</v>
+        <v>1190.431</v>
       </c>
       <c r="J12" t="n">
-        <v>50279</v>
+        <v>62009</v>
       </c>
       <c r="K12" t="n">
-        <v>4.338</v>
+        <v>5.35</v>
       </c>
       <c r="L12" t="n">
-        <v>44370</v>
+        <v>44451</v>
       </c>
       <c r="M12" t="n">
-        <v>3.828</v>
+        <v>3.835</v>
       </c>
       <c r="N12" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="O12" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3696,8 +3685,12 @@
       <c r="M13" t="n">
         <v>2.12</v>
       </c>
-      <c r="N13"/>
-      <c r="O13"/>
+      <c r="N13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O13" t="n">
+        <v>210.7</v>
+      </c>
       <c r="P13" t="s">
         <v>90</v>
       </c>
@@ -3764,7 +3757,7 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="D15" t="s">
         <v>100</v>
@@ -3774,31 +3767,27 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H15" t="n">
-        <v>768998</v>
+        <v>798573</v>
       </c>
       <c r="I15" t="n">
-        <v>996.612</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4230</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.482</v>
-      </c>
+        <v>1034.941</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
       <c r="L15" t="n">
-        <v>3310</v>
+        <v>5777</v>
       </c>
       <c r="M15" t="n">
-        <v>4.29</v>
+        <v>7.487</v>
       </c>
       <c r="N15" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O15" t="n">
-        <v>214.5</v>
+        <v>264.3</v>
       </c>
       <c r="P15" t="s">
         <v>42</v>
@@ -3821,7 +3810,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3831,31 +3820,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H16" t="n">
-        <v>1368290</v>
+        <v>1423702</v>
       </c>
       <c r="I16" t="n">
-        <v>117.218</v>
+        <v>121.965</v>
       </c>
       <c r="J16" t="n">
-        <v>12503</v>
+        <v>14457</v>
       </c>
       <c r="K16" t="n">
-        <v>1.071</v>
+        <v>1.238</v>
       </c>
       <c r="L16" t="n">
-        <v>9975</v>
+        <v>11561</v>
       </c>
       <c r="M16" t="n">
-        <v>0.855</v>
+        <v>0.99</v>
       </c>
       <c r="N16" t="n">
-        <v>0.227</v>
+        <v>0.261</v>
       </c>
       <c r="O16" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
@@ -3878,7 +3867,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -3888,32 +3877,28 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H17" t="n">
-        <v>968076</v>
+        <v>972590</v>
       </c>
       <c r="I17" t="n">
-        <v>295.072</v>
+        <v>296.448</v>
       </c>
       <c r="J17" t="n">
-        <v>2768</v>
+        <v>2253</v>
       </c>
       <c r="K17" t="n">
-        <v>0.844</v>
+        <v>0.687</v>
       </c>
       <c r="L17" t="n">
-        <v>2280</v>
+        <v>2293</v>
       </c>
       <c r="M17" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="O17" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0.699</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
       <c r="P17" t="s">
         <v>112</v>
       </c>
@@ -3980,7 +3965,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -3990,19 +3975,19 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H19" t="n">
-        <v>2782132</v>
+        <v>2795296</v>
       </c>
       <c r="I19" t="n">
-        <v>400.396</v>
+        <v>402.291</v>
       </c>
       <c r="J19" t="n">
-        <v>13870</v>
+        <v>13164</v>
       </c>
       <c r="K19" t="n">
-        <v>1.996</v>
+        <v>1.895</v>
       </c>
       <c r="L19" t="n">
         <v>10367</v>
@@ -4063,8 +4048,12 @@
       <c r="M20" t="n">
         <v>0.312</v>
       </c>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="N20" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9.3</v>
+      </c>
       <c r="P20" t="s">
         <v>129</v>
       </c>
@@ -4143,7 +4132,7 @@
         <v>137</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D22" t="s">
         <v>133</v>
@@ -4153,31 +4142,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H22" t="n">
-        <v>34372343</v>
+        <v>34449561</v>
       </c>
       <c r="I22" t="n">
-        <v>910.715</v>
+        <v>912.761</v>
       </c>
       <c r="J22" t="n">
-        <v>56992</v>
+        <v>77218</v>
       </c>
       <c r="K22" t="n">
-        <v>1.51</v>
+        <v>2.046</v>
       </c>
       <c r="L22" t="n">
-        <v>88319</v>
+        <v>83705</v>
       </c>
       <c r="M22" t="n">
-        <v>2.34</v>
+        <v>2.218</v>
       </c>
       <c r="N22" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="O22" t="n">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
       <c r="P22" t="s">
         <v>134</v>
@@ -4200,7 +4189,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -4210,15 +4199,15 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>1055</v>
+        <v>1321</v>
       </c>
       <c r="K23" t="n">
-        <v>1.898</v>
+        <v>2.376</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -4245,7 +4234,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4255,25 +4244,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H24" t="n">
-        <v>14458694</v>
+        <v>14528970</v>
       </c>
       <c r="I24" t="n">
-        <v>756.358</v>
+        <v>760.034</v>
       </c>
       <c r="J24" t="n">
-        <v>32389</v>
+        <v>70276</v>
       </c>
       <c r="K24" t="n">
-        <v>1.694</v>
+        <v>3.676</v>
       </c>
       <c r="L24" t="n">
-        <v>54621</v>
+        <v>54843</v>
       </c>
       <c r="M24" t="n">
-        <v>2.857</v>
+        <v>2.869</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -4343,7 +4332,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D26" t="s">
         <v>160</v>
@@ -4353,28 +4342,28 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H26" t="n">
-        <v>16563365</v>
+        <v>16667423</v>
       </c>
       <c r="I26" t="n">
-        <v>325.519</v>
+        <v>327.564</v>
       </c>
       <c r="J26" t="n">
-        <v>97639</v>
+        <v>104058</v>
       </c>
       <c r="K26" t="n">
-        <v>1.919</v>
+        <v>2.045</v>
       </c>
       <c r="L26" t="n">
-        <v>75856</v>
+        <v>80537</v>
       </c>
       <c r="M26" t="n">
-        <v>1.491</v>
+        <v>1.583</v>
       </c>
       <c r="N26" t="n">
-        <v>0.292</v>
+        <v>0.295</v>
       </c>
       <c r="O26" t="n">
         <v>3.4</v>
@@ -4400,7 +4389,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4410,31 +4399,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H27" t="n">
-        <v>980817</v>
+        <v>986759</v>
       </c>
       <c r="I27" t="n">
-        <v>192.539</v>
+        <v>193.706</v>
       </c>
       <c r="J27" t="n">
-        <v>3559</v>
+        <v>5942</v>
       </c>
       <c r="K27" t="n">
-        <v>0.699</v>
+        <v>1.166</v>
       </c>
       <c r="L27" t="n">
-        <v>6297</v>
+        <v>6460</v>
       </c>
       <c r="M27" t="n">
-        <v>1.236</v>
+        <v>1.268</v>
       </c>
       <c r="N27" t="n">
-        <v>0.292</v>
+        <v>0.285</v>
       </c>
       <c r="O27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4457,7 +4446,7 @@
         <v>170</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44339</v>
+        <v>44341</v>
       </c>
       <c r="D28" t="s">
         <v>171</v>
@@ -4467,31 +4456,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H28" t="n">
-        <v>635046</v>
+        <v>636980</v>
       </c>
       <c r="I28" t="n">
-        <v>24.075</v>
+        <v>24.148</v>
       </c>
       <c r="J28" t="n">
-        <v>2856</v>
+        <v>1312</v>
       </c>
       <c r="K28" t="n">
-        <v>0.108</v>
+        <v>0.05</v>
       </c>
       <c r="L28" t="n">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="M28" t="n">
         <v>0.074</v>
       </c>
       <c r="N28" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="O28" t="n">
-        <v>47.7</v>
+        <v>41.4</v>
       </c>
       <c r="P28" t="s">
         <v>172</v>
@@ -4514,7 +4503,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4524,32 +4513,28 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H29" t="n">
-        <v>1988226</v>
+        <v>1999818</v>
       </c>
       <c r="I29" t="n">
-        <v>484.311</v>
+        <v>487.135</v>
       </c>
       <c r="J29" t="n">
-        <v>6830</v>
+        <v>5273</v>
       </c>
       <c r="K29" t="n">
-        <v>1.664</v>
+        <v>1.284</v>
       </c>
       <c r="L29" t="n">
-        <v>6029</v>
+        <v>5847</v>
       </c>
       <c r="M29" t="n">
-        <v>1.469</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="O29" t="n">
-        <v>14.4</v>
-      </c>
+        <v>1.424</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
       <c r="P29" t="s">
         <v>178</v>
       </c>
@@ -4571,7 +4556,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4583,31 +4568,31 @@
         <v>185</v>
       </c>
       <c r="G30" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H30" t="n">
-        <v>4215100</v>
+        <v>4238178</v>
       </c>
       <c r="I30" t="n">
-        <v>372.141</v>
+        <v>374.179</v>
       </c>
       <c r="J30" t="n">
-        <v>21228</v>
+        <v>23078</v>
       </c>
       <c r="K30" t="n">
-        <v>1.874</v>
+        <v>2.038</v>
       </c>
       <c r="L30" t="n">
-        <v>22082</v>
+        <v>22297</v>
       </c>
       <c r="M30" t="n">
-        <v>1.95</v>
+        <v>1.969</v>
       </c>
       <c r="N30" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="O30" t="n">
-        <v>17.7</v>
+        <v>18.3</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4630,7 +4615,7 @@
         <v>189</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D31" t="s">
         <v>190</v>
@@ -4640,31 +4625,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H31" t="n">
-        <v>6757254</v>
+        <v>6801767</v>
       </c>
       <c r="I31" t="n">
-        <v>7714.65</v>
+        <v>7765.47</v>
       </c>
       <c r="J31" t="n">
-        <v>41776</v>
+        <v>44513</v>
       </c>
       <c r="K31" t="n">
-        <v>47.695</v>
+        <v>50.82</v>
       </c>
       <c r="L31" t="n">
-        <v>55566</v>
+        <v>54873</v>
       </c>
       <c r="M31" t="n">
-        <v>63.439</v>
+        <v>62.648</v>
       </c>
       <c r="N31" t="n">
         <v>0.002</v>
       </c>
       <c r="O31" t="n">
-        <v>621.3</v>
+        <v>615.6</v>
       </c>
       <c r="P31" t="s">
         <v>42</v>
@@ -4687,7 +4672,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D32" t="s">
         <v>194</v>
@@ -4697,21 +4682,21 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="n">
-        <v>166323</v>
+        <v>172057</v>
       </c>
       <c r="K32" t="n">
-        <v>15.531</v>
+        <v>16.067</v>
       </c>
       <c r="L32" t="n">
-        <v>180956</v>
+        <v>176580</v>
       </c>
       <c r="M32" t="n">
-        <v>16.898</v>
+        <v>16.489</v>
       </c>
       <c r="N32" t="n">
         <v>0.003</v>
@@ -4740,7 +4725,7 @@
         <v>197</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="D33" t="s">
         <v>198</v>
@@ -4750,27 +4735,27 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>401</v>
+        <v>280</v>
       </c>
       <c r="K33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L33" t="n">
+        <v>354</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.004</v>
       </c>
-      <c r="L33" t="n">
-        <v>300</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.003</v>
-      </c>
       <c r="N33" t="n">
-        <v>0.15</v>
+        <v>0.218</v>
       </c>
       <c r="O33" t="n">
-        <v>6.7</v>
+        <v>4.6</v>
       </c>
       <c r="P33" t="s">
         <v>199</v>
@@ -4793,7 +4778,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4803,31 +4788,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H34" t="n">
-        <v>31416783</v>
+        <v>31738164</v>
       </c>
       <c r="I34" t="n">
-        <v>5423.978</v>
+        <v>5479.463</v>
       </c>
       <c r="J34" t="n">
-        <v>146765</v>
+        <v>150965</v>
       </c>
       <c r="K34" t="n">
-        <v>25.338</v>
+        <v>26.063</v>
       </c>
       <c r="L34" t="n">
-        <v>163882</v>
+        <v>159368</v>
       </c>
       <c r="M34" t="n">
-        <v>28.294</v>
+        <v>27.514</v>
       </c>
       <c r="N34" t="n">
         <v>0.006</v>
       </c>
       <c r="O34" t="n">
-        <v>161.6</v>
+        <v>160.2</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4850,7 +4835,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4860,31 +4845,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H35" t="n">
-        <v>1517163</v>
+        <v>1520322</v>
       </c>
       <c r="I35" t="n">
-        <v>139.858</v>
+        <v>140.149</v>
       </c>
       <c r="J35" t="n">
-        <v>5096</v>
+        <v>3159</v>
       </c>
       <c r="K35" t="n">
-        <v>0.47</v>
+        <v>0.291</v>
       </c>
       <c r="L35" t="n">
-        <v>4856</v>
+        <v>4619</v>
       </c>
       <c r="M35" t="n">
-        <v>0.448</v>
+        <v>0.426</v>
       </c>
       <c r="N35" t="n">
-        <v>0.192</v>
+        <v>0.206</v>
       </c>
       <c r="O35" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4907,7 +4892,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4919,31 +4904,31 @@
         <v>218</v>
       </c>
       <c r="G36" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H36" t="n">
-        <v>1344453</v>
+        <v>1352166</v>
       </c>
       <c r="I36" t="n">
-        <v>76.203</v>
+        <v>76.64</v>
       </c>
       <c r="J36" t="n">
-        <v>3961</v>
+        <v>4257</v>
       </c>
       <c r="K36" t="n">
-        <v>0.225</v>
+        <v>0.241</v>
       </c>
       <c r="L36" t="n">
-        <v>4265</v>
+        <v>3864</v>
       </c>
       <c r="M36" t="n">
-        <v>0.242</v>
+        <v>0.219</v>
       </c>
       <c r="N36" t="n">
-        <v>0.292</v>
+        <v>0.308</v>
       </c>
       <c r="O36" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P36" t="s">
         <v>219</v>
@@ -5023,7 +5008,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -5033,31 +5018,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H38" t="n">
-        <v>1414422</v>
+        <v>1418499</v>
       </c>
       <c r="I38" t="n">
-        <v>1066.25</v>
+        <v>1069.323</v>
       </c>
       <c r="J38" t="n">
-        <v>3915</v>
+        <v>4083</v>
       </c>
       <c r="K38" t="n">
-        <v>2.951</v>
+        <v>3.078</v>
       </c>
       <c r="L38" t="n">
-        <v>4089</v>
+        <v>3997</v>
       </c>
       <c r="M38" t="n">
-        <v>3.082</v>
+        <v>3.013</v>
       </c>
       <c r="N38" t="n">
-        <v>0.044</v>
+        <v>0.038</v>
       </c>
       <c r="O38" t="n">
-        <v>22.8</v>
+        <v>26.1</v>
       </c>
       <c r="P38" t="s">
         <v>231</v>
@@ -5080,7 +5065,7 @@
         <v>234</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D39" t="s">
         <v>235</v>
@@ -5090,31 +5075,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H39" t="n">
-        <v>2701090</v>
+        <v>2706146</v>
       </c>
       <c r="I39" t="n">
-        <v>23.495</v>
+        <v>23.539</v>
       </c>
       <c r="J39" t="n">
-        <v>5027</v>
+        <v>5056</v>
       </c>
       <c r="K39" t="n">
         <v>0.044</v>
       </c>
       <c r="L39" t="n">
-        <v>4953</v>
+        <v>4864</v>
       </c>
       <c r="M39" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="N39" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="O39" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="P39" t="s">
         <v>236</v>
@@ -5194,7 +5179,7 @@
         <v>244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D41" t="s">
         <v>245</v>
@@ -5204,31 +5189,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H41" t="n">
-        <v>4930992</v>
+        <v>4972729</v>
       </c>
       <c r="I41" t="n">
-        <v>889.955</v>
+        <v>897.488</v>
       </c>
       <c r="J41" t="n">
-        <v>11174</v>
+        <v>18122</v>
       </c>
       <c r="K41" t="n">
-        <v>2.017</v>
+        <v>3.271</v>
       </c>
       <c r="L41" t="n">
-        <v>16749</v>
+        <v>15760</v>
       </c>
       <c r="M41" t="n">
-        <v>3.023</v>
+        <v>2.844</v>
       </c>
       <c r="N41" t="n">
         <v>0.012</v>
       </c>
       <c r="O41" t="n">
-        <v>85.6</v>
+        <v>86.4</v>
       </c>
       <c r="P41" t="s">
         <v>247</v>
@@ -5251,7 +5236,7 @@
         <v>250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44338</v>
+        <v>44340</v>
       </c>
       <c r="D42" t="s">
         <v>251</v>
@@ -5261,27 +5246,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42" t="n">
-        <v>241083</v>
+        <v>95482</v>
       </c>
       <c r="K42" t="n">
-        <v>3.568</v>
+        <v>1.413</v>
       </c>
       <c r="L42" t="n">
-        <v>351858</v>
+        <v>298426</v>
       </c>
       <c r="M42" t="n">
-        <v>5.208</v>
+        <v>4.417</v>
       </c>
       <c r="N42" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="O42" t="n">
-        <v>28.6</v>
+        <v>30.3</v>
       </c>
       <c r="P42" t="s">
         <v>252</v>
@@ -5361,7 +5346,7 @@
         <v>260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="D44" t="s">
         <v>261</v>
@@ -5371,27 +5356,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H44" t="n">
-        <v>4679000</v>
+        <v>4855000</v>
       </c>
       <c r="I44" t="n">
-        <v>1172.924</v>
+        <v>1217.044</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>29000</v>
+        <v>25143</v>
       </c>
       <c r="M44" t="n">
-        <v>7.27</v>
+        <v>6.303</v>
       </c>
       <c r="N44" t="n">
-        <v>0.041</v>
+        <v>0.035</v>
       </c>
       <c r="O44" t="n">
-        <v>24.6</v>
+        <v>28.7</v>
       </c>
       <c r="P44" t="s">
         <v>262</v>
@@ -5467,7 +5452,7 @@
         <v>272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="D46" t="s">
         <v>273</v>
@@ -5477,31 +5462,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H46" t="n">
-        <v>1143933</v>
+        <v>1155699</v>
       </c>
       <c r="I46" t="n">
-        <v>36.814</v>
+        <v>37.193</v>
       </c>
       <c r="J46" t="n">
-        <v>3706</v>
+        <v>2828</v>
       </c>
       <c r="K46" t="n">
-        <v>0.119</v>
+        <v>0.091</v>
       </c>
       <c r="L46" t="n">
-        <v>3240</v>
+        <v>3055</v>
       </c>
       <c r="M46" t="n">
-        <v>0.104</v>
+        <v>0.098</v>
       </c>
       <c r="N46" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="O46" t="n">
-        <v>68.5</v>
+        <v>56.7</v>
       </c>
       <c r="P46" t="s">
         <v>275</v>
@@ -5524,7 +5509,7 @@
         <v>278</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
@@ -5534,31 +5519,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H47" t="n">
-        <v>9167566</v>
+        <v>9328911</v>
       </c>
       <c r="I47" t="n">
-        <v>879.547</v>
+        <v>895.026</v>
       </c>
       <c r="J47" t="n">
-        <v>55145</v>
+        <v>49992</v>
       </c>
       <c r="K47" t="n">
-        <v>5.291</v>
+        <v>4.796</v>
       </c>
       <c r="L47" t="n">
-        <v>47833</v>
+        <v>46529</v>
       </c>
       <c r="M47" t="n">
-        <v>4.589</v>
+        <v>4.464</v>
       </c>
       <c r="N47" t="n">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="O47" t="n">
-        <v>25.6</v>
+        <v>28.2</v>
       </c>
       <c r="P47" t="s">
         <v>281</v>
@@ -5581,7 +5566,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5591,31 +5576,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H48" t="n">
-        <v>1398115</v>
+        <v>1404499</v>
       </c>
       <c r="I48" t="n">
-        <v>78.039</v>
+        <v>78.395</v>
       </c>
       <c r="J48" t="n">
-        <v>7464</v>
+        <v>6508</v>
       </c>
       <c r="K48" t="n">
-        <v>0.417</v>
+        <v>0.363</v>
       </c>
       <c r="L48" t="n">
-        <v>5452</v>
+        <v>5304</v>
       </c>
       <c r="M48" t="n">
-        <v>0.304</v>
+        <v>0.296</v>
       </c>
       <c r="N48" t="n">
-        <v>0.158</v>
+        <v>0.174</v>
       </c>
       <c r="O48" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="P48" t="s">
         <v>288</v>
@@ -5691,7 +5676,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5703,25 +5688,25 @@
         <v>302</v>
       </c>
       <c r="G50" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H50" t="n">
-        <v>5320222</v>
+        <v>5335773</v>
       </c>
       <c r="I50" t="n">
-        <v>550.728</v>
+        <v>552.337</v>
       </c>
       <c r="J50" t="n">
-        <v>14459</v>
+        <v>15551</v>
       </c>
       <c r="K50" t="n">
-        <v>1.497</v>
+        <v>1.61</v>
       </c>
       <c r="L50" t="n">
-        <v>11992</v>
+        <v>12694</v>
       </c>
       <c r="M50" t="n">
-        <v>1.241</v>
+        <v>1.314</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5831,8 +5816,12 @@
       <c r="M52" t="n">
         <v>1.513</v>
       </c>
-      <c r="N52"/>
-      <c r="O52"/>
+      <c r="N52" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9.6</v>
+      </c>
       <c r="P52" t="s">
         <v>313</v>
       </c>
@@ -5854,7 +5843,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -5864,25 +5853,25 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H53" t="n">
-        <v>10938373</v>
+        <v>11000759</v>
       </c>
       <c r="I53" t="n">
-        <v>39.991</v>
+        <v>40.219</v>
       </c>
       <c r="J53" t="n">
-        <v>56318</v>
+        <v>62386</v>
       </c>
       <c r="K53" t="n">
-        <v>0.206</v>
+        <v>0.228</v>
       </c>
       <c r="L53" t="n">
-        <v>56506</v>
+        <v>57456</v>
       </c>
       <c r="M53" t="n">
-        <v>0.207</v>
+        <v>0.21</v>
       </c>
       <c r="N53" t="n">
         <v>0.096</v>
@@ -5911,7 +5900,7 @@
         <v>323</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D54" t="s">
         <v>324</v>
@@ -5921,28 +5910,24 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H54" t="n">
-        <v>19307544</v>
+        <v>19550558</v>
       </c>
       <c r="I54" t="n">
-        <v>229.871</v>
+        <v>232.764</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>127128</v>
+        <v>123821</v>
       </c>
       <c r="M54" t="n">
-        <v>1.514</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="O54" t="n">
-        <v>12.1</v>
-      </c>
+        <v>1.474</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
       <c r="P54" t="s">
         <v>325</v>
       </c>
@@ -5964,7 +5949,7 @@
         <v>329</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="D55" t="s">
         <v>330</v>
@@ -5974,31 +5959,31 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H55" t="n">
-        <v>10056011</v>
+        <v>10250984</v>
       </c>
       <c r="I55" t="n">
-        <v>250.01</v>
+        <v>254.857</v>
       </c>
       <c r="J55" t="n">
-        <v>41954</v>
+        <v>44252</v>
       </c>
       <c r="K55" t="n">
-        <v>1.043</v>
+        <v>1.1</v>
       </c>
       <c r="L55" t="n">
-        <v>30766</v>
+        <v>40060</v>
       </c>
       <c r="M55" t="n">
-        <v>0.765</v>
+        <v>0.996</v>
       </c>
       <c r="N55" t="n">
-        <v>0.119</v>
+        <v>0.107</v>
       </c>
       <c r="O55" t="n">
-        <v>8.4</v>
+        <v>9.3</v>
       </c>
       <c r="P55" t="s">
         <v>332</v>
@@ -6078,7 +6063,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6088,31 +6073,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H57" t="n">
-        <v>16821614</v>
+        <v>16852381</v>
       </c>
       <c r="I57" t="n">
-        <v>1943.45</v>
+        <v>1947.005</v>
       </c>
       <c r="J57" t="n">
-        <v>28735</v>
+        <v>30630</v>
       </c>
       <c r="K57" t="n">
-        <v>3.32</v>
+        <v>3.539</v>
       </c>
       <c r="L57" t="n">
-        <v>25337</v>
+        <v>26150</v>
       </c>
       <c r="M57" t="n">
-        <v>2.927</v>
+        <v>3.021</v>
       </c>
       <c r="N57" t="n">
         <v>0.001</v>
       </c>
       <c r="O57" t="n">
-        <v>948.5</v>
+        <v>1165.9</v>
       </c>
       <c r="P57" t="s">
         <v>42</v>
@@ -6135,7 +6120,7 @@
         <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D58" t="s">
         <v>349</v>
@@ -6147,31 +6132,31 @@
         <v>351</v>
       </c>
       <c r="G58" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H58" t="n">
-        <v>27814240</v>
+        <v>27887155</v>
       </c>
       <c r="I58" t="n">
-        <v>460.03</v>
+        <v>461.236</v>
       </c>
       <c r="J58" t="n">
-        <v>77505</v>
+        <v>72915</v>
       </c>
       <c r="K58" t="n">
-        <v>1.282</v>
+        <v>1.206</v>
       </c>
       <c r="L58" t="n">
-        <v>69805</v>
+        <v>68942</v>
       </c>
       <c r="M58" t="n">
-        <v>1.155</v>
+        <v>1.14</v>
       </c>
       <c r="N58" t="n">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="O58" t="n">
-        <v>16.7</v>
+        <v>17.4</v>
       </c>
       <c r="P58" t="s">
         <v>352</v>
@@ -6194,7 +6179,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D59" t="s">
         <v>349</v>
@@ -6206,31 +6191,31 @@
         <v>351</v>
       </c>
       <c r="G59" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H59" t="n">
-        <v>65179575</v>
+        <v>65423542</v>
       </c>
       <c r="I59" t="n">
-        <v>1078.029</v>
+        <v>1082.064</v>
       </c>
       <c r="J59" t="n">
-        <v>260962</v>
+        <v>243967</v>
       </c>
       <c r="K59" t="n">
-        <v>4.316</v>
+        <v>4.035</v>
       </c>
       <c r="L59" t="n">
-        <v>229695</v>
+        <v>228685</v>
       </c>
       <c r="M59" t="n">
-        <v>3.799</v>
+        <v>3.782</v>
       </c>
       <c r="N59" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="O59" t="n">
-        <v>54.9</v>
+        <v>57.8</v>
       </c>
       <c r="P59" t="s">
         <v>352</v>
@@ -6253,7 +6238,7 @@
         <v>358</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="D60" t="s">
         <v>359</v>
@@ -6263,27 +6248,27 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H60" t="n">
-        <v>365701</v>
+        <v>372604</v>
       </c>
       <c r="I60" t="n">
-        <v>123.499</v>
+        <v>125.83</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>1575</v>
+        <v>1683</v>
       </c>
       <c r="M60" t="n">
-        <v>0.532</v>
+        <v>0.568</v>
       </c>
       <c r="N60" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="O60" t="n">
-        <v>16.6</v>
+        <v>22.3</v>
       </c>
       <c r="P60" t="s">
         <v>360</v>
@@ -6306,7 +6291,7 @@
         <v>364</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="D61" t="s">
         <v>365</v>
@@ -6316,31 +6301,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H61" t="n">
-        <v>13223400</v>
+        <v>13427073</v>
       </c>
       <c r="I61" t="n">
-        <v>104.552</v>
+        <v>106.163</v>
       </c>
       <c r="J61" t="n">
-        <v>70045</v>
+        <v>116584</v>
       </c>
       <c r="K61" t="n">
-        <v>0.554</v>
+        <v>0.922</v>
       </c>
       <c r="L61" t="n">
-        <v>89596</v>
+        <v>83475</v>
       </c>
       <c r="M61" t="n">
-        <v>0.708</v>
+        <v>0.66</v>
       </c>
       <c r="N61" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="O61" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="P61" t="s">
         <v>366</v>
@@ -6363,7 +6348,7 @@
         <v>370</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="D62" t="s">
         <v>371</v>
@@ -6373,31 +6358,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H62" t="n">
-        <v>7096837</v>
+        <v>7182844</v>
       </c>
       <c r="I62" t="n">
-        <v>695.554</v>
+        <v>703.984</v>
       </c>
       <c r="J62" t="n">
-        <v>15735</v>
+        <v>20491</v>
       </c>
       <c r="K62" t="n">
-        <v>1.542</v>
+        <v>2.008</v>
       </c>
       <c r="L62" t="n">
-        <v>25003</v>
+        <v>21168</v>
       </c>
       <c r="M62" t="n">
-        <v>2.451</v>
+        <v>2.075</v>
       </c>
       <c r="N62" t="n">
-        <v>0.021</v>
+        <v>0.034</v>
       </c>
       <c r="O62" t="n">
-        <v>47.6</v>
+        <v>29.6</v>
       </c>
       <c r="P62" t="s">
         <v>372</v>
@@ -6420,7 +6405,7 @@
         <v>376</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D63" t="s">
         <v>377</v>
@@ -6430,31 +6415,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H63" t="n">
-        <v>11270949</v>
+        <v>11380185</v>
       </c>
       <c r="I63" t="n">
-        <v>600.262</v>
+        <v>606.08</v>
       </c>
       <c r="J63" t="n">
-        <v>50380</v>
+        <v>47610</v>
       </c>
       <c r="K63" t="n">
-        <v>2.683</v>
+        <v>2.536</v>
       </c>
       <c r="L63" t="n">
-        <v>49082</v>
+        <v>44999</v>
       </c>
       <c r="M63" t="n">
-        <v>2.614</v>
+        <v>2.397</v>
       </c>
       <c r="N63" t="n">
         <v>0.045</v>
       </c>
       <c r="O63" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="P63" t="s">
         <v>378</v>
@@ -6530,7 +6515,7 @@
         <v>386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D65" t="s">
         <v>387</v>
@@ -6540,16 +6525,20 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>599859</v>
+        <v>602319</v>
       </c>
       <c r="I65" t="n">
-        <v>310.362</v>
-      </c>
-      <c r="J65"/>
-      <c r="K65"/>
+        <v>311.634</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.273</v>
+      </c>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
@@ -6575,7 +6564,7 @@
         <v>392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D66" t="s">
         <v>393</v>
@@ -6585,31 +6574,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H66" t="n">
-        <v>2525643</v>
+        <v>2556150</v>
       </c>
       <c r="I66" t="n">
-        <v>591.408</v>
+        <v>598.551</v>
       </c>
       <c r="J66" t="n">
-        <v>8396</v>
+        <v>10309</v>
       </c>
       <c r="K66" t="n">
-        <v>1.966</v>
+        <v>2.414</v>
       </c>
       <c r="L66" t="n">
-        <v>9363</v>
+        <v>9875</v>
       </c>
       <c r="M66" t="n">
-        <v>2.192</v>
+        <v>2.312</v>
       </c>
       <c r="N66" t="n">
-        <v>0.116</v>
+        <v>0.121</v>
       </c>
       <c r="O66" t="n">
-        <v>8.6</v>
+        <v>8.3</v>
       </c>
       <c r="P66" t="s">
         <v>394</v>
@@ -6632,7 +6621,7 @@
         <v>398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D67" t="s">
         <v>399</v>
@@ -6642,25 +6631,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>239985</v>
+        <v>242134</v>
       </c>
       <c r="I67" t="n">
-        <v>32.985</v>
+        <v>33.28</v>
       </c>
       <c r="J67" t="n">
-        <v>1990</v>
+        <v>2149</v>
       </c>
       <c r="K67" t="n">
-        <v>0.274</v>
+        <v>0.295</v>
       </c>
       <c r="L67" t="n">
-        <v>1810</v>
+        <v>1898</v>
       </c>
       <c r="M67" t="n">
-        <v>0.249</v>
+        <v>0.261</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6685,7 +6674,7 @@
         <v>403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D68" t="s">
         <v>404</v>
@@ -6697,32 +6686,28 @@
         <v>406</v>
       </c>
       <c r="G68" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H68" t="n">
-        <v>2565288</v>
+        <v>2593670</v>
       </c>
       <c r="I68" t="n">
-        <v>1360.028</v>
+        <v>1375.075</v>
       </c>
       <c r="J68" t="n">
-        <v>12790</v>
+        <v>14870</v>
       </c>
       <c r="K68" t="n">
-        <v>6.781</v>
+        <v>7.884</v>
       </c>
       <c r="L68" t="n">
-        <v>12000</v>
+        <v>11482</v>
       </c>
       <c r="M68" t="n">
-        <v>6.362</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="O68" t="n">
-        <v>32.1</v>
-      </c>
+        <v>6.087</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" t="s">
         <v>405</v>
       </c>
@@ -6744,7 +6729,7 @@
         <v>409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D69" t="s">
         <v>410</v>
@@ -6754,25 +6739,25 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H69" t="n">
-        <v>4342606</v>
+        <v>4356507</v>
       </c>
       <c r="I69" t="n">
-        <v>636.238</v>
+        <v>638.275</v>
       </c>
       <c r="J69" t="n">
-        <v>13531</v>
+        <v>13901</v>
       </c>
       <c r="K69" t="n">
-        <v>1.982</v>
+        <v>2.037</v>
       </c>
       <c r="L69" t="n">
-        <v>14421</v>
+        <v>14006</v>
       </c>
       <c r="M69" t="n">
-        <v>2.113</v>
+        <v>2.052</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6797,7 +6782,7 @@
         <v>414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="D70" t="s">
         <v>415</v>
@@ -6807,15 +6792,15 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="n">
-        <v>2561</v>
+        <v>3243</v>
       </c>
       <c r="K70" t="n">
-        <v>0.373</v>
+        <v>0.472</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -6842,7 +6827,7 @@
         <v>420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D71" t="s">
         <v>421</v>
@@ -6852,31 +6837,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H71" t="n">
-        <v>45378</v>
+        <v>45825</v>
       </c>
       <c r="I71" t="n">
-        <v>1189.868</v>
+        <v>1201.589</v>
       </c>
       <c r="J71" t="n">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="K71" t="n">
-        <v>2.307</v>
+        <v>6.739</v>
       </c>
       <c r="L71" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="M71" t="n">
-        <v>5.454</v>
+        <v>5.218</v>
       </c>
       <c r="N71" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="O71" t="n">
-        <v>111.1</v>
+        <v>83.3</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6899,7 +6884,7 @@
         <v>426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44340</v>
+        <v>44343</v>
       </c>
       <c r="D72" t="s">
         <v>427</v>
@@ -6909,31 +6894,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H72" t="n">
-        <v>3362712</v>
+        <v>3438503</v>
       </c>
       <c r="I72" t="n">
-        <v>1235.251</v>
+        <v>1263.092</v>
       </c>
       <c r="J72" t="n">
-        <v>19853</v>
+        <v>21370</v>
       </c>
       <c r="K72" t="n">
-        <v>7.293</v>
+        <v>7.85</v>
       </c>
       <c r="L72" t="n">
-        <v>19301</v>
+        <v>19020</v>
       </c>
       <c r="M72" t="n">
-        <v>7.09</v>
+        <v>6.987</v>
       </c>
       <c r="N72" t="n">
-        <v>0.038</v>
+        <v>0.031</v>
       </c>
       <c r="O72" t="n">
-        <v>26.3</v>
+        <v>32.3</v>
       </c>
       <c r="P72" t="s">
         <v>428</v>
@@ -6956,7 +6941,7 @@
         <v>431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D73" t="s">
         <v>432</v>
@@ -6966,31 +6951,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H73" t="n">
-        <v>2859987</v>
+        <v>2869686</v>
       </c>
       <c r="I73" t="n">
-        <v>4568.844</v>
+        <v>4584.339</v>
       </c>
       <c r="J73" t="n">
-        <v>8841</v>
+        <v>9699</v>
       </c>
       <c r="K73" t="n">
-        <v>14.124</v>
+        <v>15.494</v>
       </c>
       <c r="L73" t="n">
-        <v>8961</v>
+        <v>8861</v>
       </c>
       <c r="M73" t="n">
-        <v>14.315</v>
+        <v>14.155</v>
       </c>
       <c r="N73" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O73" t="n">
-        <v>184.5</v>
+        <v>228.9</v>
       </c>
       <c r="P73" t="s">
         <v>433</v>
@@ -7013,7 +6998,7 @@
         <v>436</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44338</v>
+        <v>44341</v>
       </c>
       <c r="D74" t="s">
         <v>437</v>
@@ -7023,31 +7008,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H74" t="n">
-        <v>200306</v>
+        <v>201391</v>
       </c>
       <c r="I74" t="n">
-        <v>7.234</v>
+        <v>7.273</v>
       </c>
       <c r="J74" t="n">
-        <v>868</v>
+        <v>384</v>
       </c>
       <c r="K74" t="n">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="L74" t="n">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="M74" t="n">
         <v>0.02</v>
       </c>
       <c r="N74" t="n">
-        <v>0.197</v>
+        <v>0.174</v>
       </c>
       <c r="O74" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="P74" t="s">
         <v>438</v>
@@ -7115,7 +7100,7 @@
         <v>448</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D76" t="s">
         <v>449</v>
@@ -7127,31 +7112,31 @@
         <v>451</v>
       </c>
       <c r="G76" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H76" t="n">
-        <v>11206334</v>
+        <v>11513351</v>
       </c>
       <c r="I76" t="n">
-        <v>346.238</v>
+        <v>355.724</v>
       </c>
       <c r="J76" t="n">
-        <v>106208</v>
+        <v>114446</v>
       </c>
       <c r="K76" t="n">
-        <v>3.281</v>
+        <v>3.536</v>
       </c>
       <c r="L76" t="n">
-        <v>100435</v>
+        <v>106821</v>
       </c>
       <c r="M76" t="n">
-        <v>3.103</v>
+        <v>3.3</v>
       </c>
       <c r="N76" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="O76" t="n">
-        <v>16.7</v>
+        <v>15.6</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
@@ -7174,7 +7159,7 @@
         <v>455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D77" t="s">
         <v>456</v>
@@ -7184,31 +7169,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H77" t="n">
-        <v>843981</v>
+        <v>858778</v>
       </c>
       <c r="I77" t="n">
-        <v>1561.361</v>
+        <v>1588.735</v>
       </c>
       <c r="J77" t="n">
-        <v>5834</v>
+        <v>5186</v>
       </c>
       <c r="K77" t="n">
-        <v>10.793</v>
+        <v>9.594</v>
       </c>
       <c r="L77" t="n">
-        <v>5386</v>
+        <v>5792</v>
       </c>
       <c r="M77" t="n">
-        <v>9.964</v>
+        <v>10.715</v>
       </c>
       <c r="N77" t="n">
-        <v>0.302</v>
+        <v>0.272</v>
       </c>
       <c r="O77" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="P77" t="s">
         <v>457</v>
@@ -7231,7 +7216,7 @@
         <v>461</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="D78" t="s">
         <v>462</v>
@@ -7241,31 +7226,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H78" t="n">
-        <v>910953</v>
+        <v>918465</v>
       </c>
       <c r="I78" t="n">
-        <v>2063.131</v>
+        <v>2080.145</v>
       </c>
       <c r="J78" t="n">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="K78" t="n">
-        <v>5.456</v>
+        <v>5.245</v>
       </c>
       <c r="L78" t="n">
-        <v>1957</v>
+        <v>1981</v>
       </c>
       <c r="M78" t="n">
-        <v>4.432</v>
+        <v>4.487</v>
       </c>
       <c r="N78" t="n">
         <v>0.002</v>
       </c>
       <c r="O78" t="n">
-        <v>570.7</v>
+        <v>478.2</v>
       </c>
       <c r="P78" t="s">
         <v>463</v>
@@ -7337,7 +7322,7 @@
         <v>473</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D80" t="s">
         <v>474</v>
@@ -7347,31 +7332,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H80" t="n">
-        <v>6546562</v>
+        <v>6563714</v>
       </c>
       <c r="I80" t="n">
-        <v>50.775</v>
+        <v>50.908</v>
       </c>
       <c r="J80" t="n">
-        <v>6782</v>
+        <v>6269</v>
       </c>
       <c r="K80" t="n">
-        <v>0.053</v>
+        <v>0.049</v>
       </c>
       <c r="L80" t="n">
-        <v>9591</v>
+        <v>9518</v>
       </c>
       <c r="M80" t="n">
         <v>0.074</v>
       </c>
       <c r="N80" t="n">
-        <v>0.171</v>
+        <v>0.177</v>
       </c>
       <c r="O80" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="P80" t="s">
         <v>476</v>
@@ -7394,7 +7379,7 @@
         <v>479</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D81" t="s">
         <v>480</v>
@@ -7404,28 +7389,28 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H81" t="n">
-        <v>1094129</v>
+        <v>1105142</v>
       </c>
       <c r="I81" t="n">
-        <v>271.229</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81"/>
+        <v>273.959</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6438</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.596</v>
+      </c>
       <c r="L81" t="n">
-        <v>4010</v>
+        <v>4096</v>
       </c>
       <c r="M81" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="O81" t="n">
-        <v>40.4</v>
-      </c>
+        <v>1.015</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
         <v>481</v>
       </c>
@@ -7447,7 +7432,7 @@
         <v>484</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="D82" t="s">
         <v>485</v>
@@ -7457,31 +7442,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H82" t="n">
-        <v>2873985</v>
+        <v>2903519</v>
       </c>
       <c r="I82" t="n">
-        <v>876.671</v>
+        <v>885.68</v>
       </c>
       <c r="J82" t="n">
-        <v>9015</v>
+        <v>7881</v>
       </c>
       <c r="K82" t="n">
-        <v>2.75</v>
+        <v>2.404</v>
       </c>
       <c r="L82" t="n">
-        <v>7361</v>
+        <v>7652</v>
       </c>
       <c r="M82" t="n">
-        <v>2.245</v>
+        <v>2.334</v>
       </c>
       <c r="N82" t="n">
-        <v>0.074</v>
+        <v>0.083</v>
       </c>
       <c r="O82" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="P82" t="s">
         <v>42</v>
@@ -7504,7 +7489,7 @@
         <v>489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D83" t="s">
         <v>490</v>
@@ -7514,31 +7499,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H83" t="n">
-        <v>5930826</v>
+        <v>5952786</v>
       </c>
       <c r="I83" t="n">
-        <v>160.681</v>
+        <v>161.276</v>
       </c>
       <c r="J83" t="n">
-        <v>8290</v>
+        <v>9618</v>
       </c>
       <c r="K83" t="n">
-        <v>0.225</v>
+        <v>0.261</v>
       </c>
       <c r="L83" t="n">
-        <v>9269</v>
+        <v>8912</v>
       </c>
       <c r="M83" t="n">
-        <v>0.251</v>
+        <v>0.241</v>
       </c>
       <c r="N83" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="O83" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="P83" t="s">
         <v>491</v>
@@ -7618,7 +7603,7 @@
         <v>501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44338</v>
+        <v>44343</v>
       </c>
       <c r="D85" t="s">
         <v>502</v>
@@ -7628,31 +7613,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H85" t="n">
-        <v>2610069</v>
+        <v>2616466</v>
       </c>
       <c r="I85" t="n">
-        <v>47.971</v>
+        <v>48.088</v>
       </c>
       <c r="J85" t="n">
-        <v>1234</v>
+        <v>1788</v>
       </c>
       <c r="K85" t="n">
-        <v>0.023</v>
+        <v>0.033</v>
       </c>
       <c r="L85" t="n">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="M85" t="n">
         <v>0.024</v>
       </c>
       <c r="N85" t="n">
-        <v>0.018</v>
+        <v>0.026</v>
       </c>
       <c r="O85" t="n">
-        <v>54.5</v>
+        <v>39</v>
       </c>
       <c r="P85" t="s">
         <v>503</v>
@@ -7675,7 +7660,7 @@
         <v>507</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D86" t="s">
         <v>508</v>
@@ -7685,31 +7670,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H86" t="n">
-        <v>421684</v>
+        <v>424743</v>
       </c>
       <c r="I86" t="n">
-        <v>165.957</v>
+        <v>167.161</v>
       </c>
       <c r="J86" t="n">
-        <v>1323</v>
+        <v>723</v>
       </c>
       <c r="K86" t="n">
-        <v>0.521</v>
+        <v>0.285</v>
       </c>
       <c r="L86" t="n">
-        <v>1685</v>
+        <v>1425</v>
       </c>
       <c r="M86" t="n">
-        <v>0.663</v>
+        <v>0.561</v>
       </c>
       <c r="N86" t="n">
-        <v>0.147</v>
+        <v>0.178</v>
       </c>
       <c r="O86" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="P86" t="s">
         <v>510</v>
@@ -7732,7 +7717,7 @@
         <v>514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44339</v>
+        <v>44343</v>
       </c>
       <c r="D87" t="s">
         <v>515</v>
@@ -7742,31 +7727,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H87" t="n">
-        <v>2916468</v>
+        <v>2998064</v>
       </c>
       <c r="I87" t="n">
-        <v>100.096</v>
+        <v>102.896</v>
       </c>
       <c r="J87" t="n">
-        <v>18965</v>
+        <v>20414</v>
       </c>
       <c r="K87" t="n">
-        <v>0.651</v>
+        <v>0.701</v>
       </c>
       <c r="L87" t="n">
-        <v>20784</v>
+        <v>20324</v>
       </c>
       <c r="M87" t="n">
-        <v>0.713</v>
+        <v>0.698</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4</v>
+        <v>0.377</v>
       </c>
       <c r="O87" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P87" t="s">
         <v>516</v>
@@ -7789,7 +7774,7 @@
         <v>520</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="D88" t="s">
         <v>521</v>
@@ -7799,31 +7784,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H88" t="n">
-        <v>9510753</v>
+        <v>9657546</v>
       </c>
       <c r="I88" t="n">
-        <v>555.052</v>
+        <v>563.619</v>
       </c>
       <c r="J88" t="n">
-        <v>163716</v>
+        <v>120601</v>
       </c>
       <c r="K88" t="n">
-        <v>9.555</v>
+        <v>7.038</v>
       </c>
       <c r="L88" t="n">
-        <v>52832</v>
+        <v>68880</v>
       </c>
       <c r="M88" t="n">
-        <v>3.083</v>
+        <v>4.02</v>
       </c>
       <c r="N88" t="n">
-        <v>0.106</v>
+        <v>0.086</v>
       </c>
       <c r="O88" t="n">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="P88" t="s">
         <v>523</v>
@@ -7846,7 +7831,7 @@
         <v>527</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D89" t="s">
         <v>528</v>
@@ -7856,25 +7841,25 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H89" t="n">
-        <v>2121676</v>
+        <v>2126807</v>
       </c>
       <c r="I89" t="n">
-        <v>439.978</v>
+        <v>441.042</v>
       </c>
       <c r="J89" t="n">
-        <v>4996</v>
+        <v>5131</v>
       </c>
       <c r="K89" t="n">
-        <v>1.036</v>
+        <v>1.064</v>
       </c>
       <c r="L89" t="n">
-        <v>3751</v>
+        <v>3806</v>
       </c>
       <c r="M89" t="n">
-        <v>0.778</v>
+        <v>0.789</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -7952,7 +7937,7 @@
         <v>538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44341</v>
+        <v>44344</v>
       </c>
       <c r="D91" t="s">
         <v>539</v>
@@ -7962,28 +7947,24 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H91" t="n">
-        <v>765373</v>
+        <v>784734</v>
       </c>
       <c r="I91" t="n">
-        <v>367.371</v>
+        <v>376.664</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>1745</v>
+        <v>3763</v>
       </c>
       <c r="M91" t="n">
-        <v>0.838</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="O91" t="n">
-        <v>45.7</v>
-      </c>
+        <v>1.806</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
       <c r="P91" t="s">
         <v>42</v>
       </c>
@@ -8005,7 +7986,7 @@
         <v>543</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D92" t="s">
         <v>544</v>
@@ -8015,31 +7996,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H92" t="n">
-        <v>5569484</v>
+        <v>5613413</v>
       </c>
       <c r="I92" t="n">
-        <v>1027.345</v>
+        <v>1035.448</v>
       </c>
       <c r="J92" t="n">
-        <v>8803</v>
+        <v>23203</v>
       </c>
       <c r="K92" t="n">
-        <v>1.624</v>
+        <v>4.28</v>
       </c>
       <c r="L92" t="n">
-        <v>18736</v>
+        <v>21227</v>
       </c>
       <c r="M92" t="n">
-        <v>3.456</v>
+        <v>3.916</v>
       </c>
       <c r="N92" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="O92" t="n">
-        <v>39.2</v>
+        <v>44.1</v>
       </c>
       <c r="P92" t="s">
         <v>545</v>
@@ -8107,7 +8088,7 @@
         <v>554</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D94" t="s">
         <v>555</v>
@@ -8117,22 +8098,22 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H94" t="n">
-        <v>13006326</v>
+        <v>13057951</v>
       </c>
       <c r="I94" t="n">
-        <v>58.881</v>
+        <v>59.115</v>
       </c>
       <c r="J94" t="n">
-        <v>62706</v>
+        <v>51625</v>
       </c>
       <c r="K94" t="n">
-        <v>0.284</v>
+        <v>0.234</v>
       </c>
       <c r="L94" t="n">
-        <v>57551</v>
+        <v>57565</v>
       </c>
       <c r="M94" t="n">
         <v>0.261</v>
@@ -8160,7 +8141,7 @@
         <v>559</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="D95" t="s">
         <v>560</v>
@@ -8168,27 +8149,27 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>1591</v>
+        <v>2997</v>
       </c>
       <c r="K95" t="n">
-        <v>0.312</v>
+        <v>0.587</v>
       </c>
       <c r="L95" t="n">
-        <v>2008</v>
+        <v>2665</v>
       </c>
       <c r="M95" t="n">
-        <v>0.394</v>
+        <v>0.522</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09</v>
+        <v>0.121</v>
       </c>
       <c r="O95" t="n">
-        <v>11.1</v>
+        <v>8.2</v>
       </c>
       <c r="P95" t="s">
         <v>561</v>
@@ -8211,7 +8192,7 @@
         <v>565</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="D96" t="s">
         <v>566</v>
@@ -8221,31 +8202,31 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H96" t="n">
-        <v>2574238</v>
+        <v>2607020</v>
       </c>
       <c r="I96" t="n">
-        <v>596.611</v>
+        <v>604.209</v>
       </c>
       <c r="J96" t="n">
-        <v>9976</v>
+        <v>10129</v>
       </c>
       <c r="K96" t="n">
-        <v>2.312</v>
+        <v>2.348</v>
       </c>
       <c r="L96" t="n">
-        <v>8824</v>
+        <v>8906</v>
       </c>
       <c r="M96" t="n">
-        <v>2.045</v>
+        <v>2.064</v>
       </c>
       <c r="N96" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="O96" t="n">
-        <v>19.1</v>
+        <v>18.4</v>
       </c>
       <c r="P96" t="s">
         <v>567</v>
@@ -8268,7 +8249,7 @@
         <v>571</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44332</v>
+        <v>44342</v>
       </c>
       <c r="D97" t="s">
         <v>572</v>
@@ -8278,31 +8259,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="H97" t="n">
-        <v>1187842</v>
+        <v>1252405</v>
       </c>
       <c r="I97" t="n">
-        <v>166.539</v>
+        <v>175.591</v>
       </c>
       <c r="J97" t="n">
-        <v>6091</v>
+        <v>7230</v>
       </c>
       <c r="K97" t="n">
-        <v>0.854</v>
+        <v>1.014</v>
       </c>
       <c r="L97" t="n">
-        <v>6089</v>
+        <v>6630</v>
       </c>
       <c r="M97" t="n">
-        <v>0.854</v>
+        <v>0.93</v>
       </c>
       <c r="N97" t="n">
-        <v>0.369</v>
+        <v>0.457</v>
       </c>
       <c r="O97" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="P97" t="s">
         <v>573</v>
@@ -8382,7 +8363,7 @@
         <v>581</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="D99" t="s">
         <v>582</v>
@@ -8392,31 +8373,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H99" t="n">
-        <v>12340028</v>
+        <v>12444349</v>
       </c>
       <c r="I99" t="n">
-        <v>112.611</v>
+        <v>113.563</v>
       </c>
       <c r="J99" t="n">
-        <v>46175</v>
+        <v>43954</v>
       </c>
       <c r="K99" t="n">
-        <v>0.421</v>
+        <v>0.401</v>
       </c>
       <c r="L99" t="n">
-        <v>45311</v>
+        <v>45802</v>
       </c>
       <c r="M99" t="n">
-        <v>0.413</v>
+        <v>0.418</v>
       </c>
       <c r="N99" t="n">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
       <c r="O99" t="n">
-        <v>9.3</v>
+        <v>9.1</v>
       </c>
       <c r="P99" t="s">
         <v>294</v>
@@ -8439,7 +8420,7 @@
         <v>587</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="D100" t="s">
         <v>588</v>
@@ -8449,31 +8430,31 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H100" t="n">
-        <v>15033623</v>
+        <v>15403654</v>
       </c>
       <c r="I100" t="n">
-        <v>397.225</v>
+        <v>407.002</v>
       </c>
       <c r="J100" t="n">
-        <v>54911</v>
+        <v>63364</v>
       </c>
       <c r="K100" t="n">
-        <v>1.451</v>
+        <v>1.674</v>
       </c>
       <c r="L100" t="n">
-        <v>52484</v>
+        <v>52862</v>
       </c>
       <c r="M100" t="n">
-        <v>1.387</v>
+        <v>1.397</v>
       </c>
       <c r="N100" t="n">
-        <v>0.042</v>
+        <v>0.022</v>
       </c>
       <c r="O100" t="n">
-        <v>23.6</v>
+        <v>44.6</v>
       </c>
       <c r="P100" t="s">
         <v>589</v>
@@ -8496,7 +8477,7 @@
         <v>592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44336</v>
+        <v>44343</v>
       </c>
       <c r="D101" t="s">
         <v>588</v>
@@ -8506,31 +8487,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="H101" t="n">
-        <v>15390803</v>
+        <v>15765052</v>
       </c>
       <c r="I101" t="n">
-        <v>406.663</v>
+        <v>416.551</v>
       </c>
       <c r="J101" t="n">
-        <v>55395</v>
+        <v>63914</v>
       </c>
       <c r="K101" t="n">
-        <v>1.464</v>
+        <v>1.689</v>
       </c>
       <c r="L101" t="n">
-        <v>53341</v>
+        <v>53464</v>
       </c>
       <c r="M101" t="n">
-        <v>1.409</v>
+        <v>1.413</v>
       </c>
       <c r="N101" t="n">
-        <v>0.042</v>
+        <v>0.022</v>
       </c>
       <c r="O101" t="n">
-        <v>24</v>
+        <v>45.1</v>
       </c>
       <c r="P101" t="s">
         <v>589</v>
@@ -8553,7 +8534,7 @@
         <v>594</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D102" t="s">
         <v>595</v>
@@ -8563,31 +8544,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H102" t="n">
-        <v>11542592</v>
+        <v>11595570</v>
       </c>
       <c r="I102" t="n">
-        <v>1131.992</v>
+        <v>1137.188</v>
       </c>
       <c r="J102" t="n">
-        <v>41010</v>
+        <v>49325</v>
       </c>
       <c r="K102" t="n">
-        <v>4.022</v>
+        <v>4.837</v>
       </c>
       <c r="L102" t="n">
-        <v>37928</v>
+        <v>39174</v>
       </c>
       <c r="M102" t="n">
-        <v>3.72</v>
+        <v>3.842</v>
       </c>
       <c r="N102" t="n">
         <v>0.012</v>
       </c>
       <c r="O102" t="n">
-        <v>86.4</v>
+        <v>86.9</v>
       </c>
       <c r="P102" t="s">
         <v>596</v>
@@ -8610,7 +8591,7 @@
         <v>599</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D103" t="s">
         <v>600</v>
@@ -8620,31 +8601,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H103" t="n">
-        <v>1998695</v>
+        <v>2005869</v>
       </c>
       <c r="I103" t="n">
-        <v>693.736</v>
+        <v>696.226</v>
       </c>
       <c r="J103" t="n">
-        <v>3453</v>
+        <v>3922</v>
       </c>
       <c r="K103" t="n">
-        <v>1.199</v>
+        <v>1.361</v>
       </c>
       <c r="L103" t="n">
-        <v>3544</v>
+        <v>3504</v>
       </c>
       <c r="M103" t="n">
-        <v>1.23</v>
+        <v>1.216</v>
       </c>
       <c r="N103" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="O103" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="P103" t="s">
         <v>602</v>
@@ -8667,7 +8648,7 @@
         <v>605</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D104" t="s">
         <v>606</v>
@@ -8677,32 +8658,28 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H104" t="n">
-        <v>7816956</v>
+        <v>7860372</v>
       </c>
       <c r="I104" t="n">
-        <v>406.336</v>
+        <v>408.592</v>
       </c>
       <c r="J104" t="n">
-        <v>22586</v>
+        <v>22600</v>
       </c>
       <c r="K104" t="n">
-        <v>1.174</v>
+        <v>1.175</v>
       </c>
       <c r="L104" t="n">
-        <v>17711</v>
+        <v>17828</v>
       </c>
       <c r="M104" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="O104" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0.927</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104"/>
       <c r="P104" t="s">
         <v>608</v>
       </c>
@@ -8724,7 +8701,7 @@
         <v>612</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D105" t="s">
         <v>613</v>
@@ -8734,31 +8711,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H105" t="n">
-        <v>136806625</v>
+        <v>137180661</v>
       </c>
       <c r="I105" t="n">
-        <v>937.453</v>
+        <v>940.016</v>
       </c>
       <c r="J105" t="n">
-        <v>338866</v>
+        <v>374036</v>
       </c>
       <c r="K105" t="n">
-        <v>2.322</v>
+        <v>2.563</v>
       </c>
       <c r="L105" t="n">
-        <v>308658</v>
+        <v>310808</v>
       </c>
       <c r="M105" t="n">
-        <v>2.115</v>
+        <v>2.13</v>
       </c>
       <c r="N105" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="O105" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="P105" t="s">
         <v>614</v>
@@ -8781,7 +8758,7 @@
         <v>618</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D106" t="s">
         <v>619</v>
@@ -8791,32 +8768,24 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H106" t="n">
-        <v>1414886</v>
+        <v>1426053</v>
       </c>
       <c r="I106" t="n">
-        <v>109.239</v>
-      </c>
-      <c r="J106" t="n">
-        <v>4840</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.374</v>
-      </c>
+        <v>110.101</v>
+      </c>
+      <c r="J106"/>
+      <c r="K106"/>
       <c r="L106" t="n">
-        <v>4840</v>
+        <v>4976</v>
       </c>
       <c r="M106" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="O106" t="n">
-        <v>86.2</v>
-      </c>
+        <v>0.384</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106"/>
       <c r="P106" t="s">
         <v>620</v>
       </c>
@@ -8838,7 +8807,7 @@
         <v>624</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="D107" t="s">
         <v>625</v>
@@ -8848,31 +8817,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H107" t="n">
-        <v>18788835</v>
+        <v>18968030</v>
       </c>
       <c r="I107" t="n">
-        <v>539.694</v>
+        <v>544.841</v>
       </c>
       <c r="J107" t="n">
-        <v>93145</v>
+        <v>92566</v>
       </c>
       <c r="K107" t="n">
-        <v>2.676</v>
+        <v>2.659</v>
       </c>
       <c r="L107" t="n">
-        <v>84839</v>
+        <v>85356</v>
       </c>
       <c r="M107" t="n">
-        <v>2.437</v>
+        <v>2.452</v>
       </c>
       <c r="N107" t="n">
         <v>0.014</v>
       </c>
       <c r="O107" t="n">
-        <v>70.4</v>
+        <v>71.2</v>
       </c>
       <c r="P107" t="s">
         <v>42</v>
@@ -8895,7 +8864,7 @@
         <v>628</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D108" t="s">
         <v>629</v>
@@ -8905,32 +8874,28 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H108" t="n">
-        <v>522468</v>
+        <v>525677</v>
       </c>
       <c r="I108" t="n">
-        <v>31.203</v>
+        <v>31.395</v>
       </c>
       <c r="J108" t="n">
-        <v>1102</v>
+        <v>1442</v>
       </c>
       <c r="K108" t="n">
-        <v>0.066</v>
+        <v>0.086</v>
       </c>
       <c r="L108" t="n">
-        <v>1347</v>
+        <v>1424</v>
       </c>
       <c r="M108" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="O108" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0.085</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
         <v>630</v>
       </c>
@@ -8952,7 +8917,7 @@
         <v>633</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D109" t="s">
         <v>634</v>
@@ -8964,32 +8929,28 @@
         <v>635</v>
       </c>
       <c r="G109" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H109" t="n">
-        <v>4107942</v>
+        <v>4128117</v>
       </c>
       <c r="I109" t="n">
-        <v>603.701</v>
+        <v>606.666</v>
       </c>
       <c r="J109" t="n">
-        <v>10345</v>
+        <v>10189</v>
       </c>
       <c r="K109" t="n">
-        <v>1.52</v>
+        <v>1.497</v>
       </c>
       <c r="L109" t="n">
-        <v>9496</v>
+        <v>9522</v>
       </c>
       <c r="M109" t="n">
-        <v>1.396</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="O109" t="n">
-        <v>23.8</v>
-      </c>
+        <v>1.399</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
       <c r="P109" t="s">
         <v>42</v>
       </c>
@@ -9064,7 +9025,7 @@
         <v>643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D111" t="s">
         <v>644</v>
@@ -9074,25 +9035,25 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H111" t="n">
-        <v>38075805</v>
+        <v>38138645</v>
       </c>
       <c r="I111" t="n">
-        <v>6974.047</v>
+        <v>6985.557</v>
       </c>
       <c r="J111" t="n">
-        <v>52264</v>
+        <v>48136</v>
       </c>
       <c r="K111" t="n">
-        <v>9.573</v>
+        <v>8.817</v>
       </c>
       <c r="L111" t="n">
-        <v>84980</v>
+        <v>83490</v>
       </c>
       <c r="M111" t="n">
-        <v>15.565</v>
+        <v>15.292</v>
       </c>
       <c r="N111" t="n">
         <v>0.004</v>
@@ -9121,7 +9082,7 @@
         <v>647</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D112" t="s">
         <v>648</v>
@@ -9131,31 +9092,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H112" t="n">
-        <v>1268308</v>
+        <v>1271894</v>
       </c>
       <c r="I112" t="n">
-        <v>610.077</v>
+        <v>611.802</v>
       </c>
       <c r="J112" t="n">
-        <v>4012</v>
+        <v>3585</v>
       </c>
       <c r="K112" t="n">
-        <v>1.93</v>
+        <v>1.724</v>
       </c>
       <c r="L112" t="n">
-        <v>3358</v>
+        <v>3280</v>
       </c>
       <c r="M112" t="n">
-        <v>1.615</v>
+        <v>1.578</v>
       </c>
       <c r="N112" t="n">
-        <v>0.086</v>
+        <v>0.087</v>
       </c>
       <c r="O112" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="P112" t="s">
         <v>649</v>
@@ -9178,7 +9139,7 @@
         <v>652</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="D113" t="s">
         <v>653</v>
@@ -9190,31 +9151,31 @@
         <v>655</v>
       </c>
       <c r="G113" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H113" t="n">
-        <v>11406308</v>
+        <v>11452185</v>
       </c>
       <c r="I113" t="n">
-        <v>192.321</v>
+        <v>193.095</v>
       </c>
       <c r="J113" t="n">
-        <v>28026</v>
+        <v>45877</v>
       </c>
       <c r="K113" t="n">
-        <v>0.473</v>
+        <v>0.774</v>
       </c>
       <c r="L113" t="n">
-        <v>34194</v>
+        <v>34983</v>
       </c>
       <c r="M113" t="n">
-        <v>0.577</v>
+        <v>0.59</v>
       </c>
       <c r="N113" t="n">
-        <v>0.084</v>
+        <v>0.067</v>
       </c>
       <c r="O113" t="n">
-        <v>12</v>
+        <v>14.9</v>
       </c>
       <c r="P113" t="s">
         <v>654</v>
@@ -9237,7 +9198,7 @@
         <v>659</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="D114" t="s">
         <v>660</v>
@@ -9247,25 +9208,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H114" t="n">
-        <v>9543034</v>
+        <v>9579584</v>
       </c>
       <c r="I114" t="n">
-        <v>186.136</v>
+        <v>186.849</v>
       </c>
       <c r="J114" t="n">
-        <v>34645</v>
+        <v>36550</v>
       </c>
       <c r="K114" t="n">
-        <v>0.676</v>
+        <v>0.713</v>
       </c>
       <c r="L114" t="n">
-        <v>29221</v>
+        <v>29517</v>
       </c>
       <c r="M114" t="n">
-        <v>0.57</v>
+        <v>0.576</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -9343,7 +9304,7 @@
         <v>669</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44329</v>
+        <v>44336</v>
       </c>
       <c r="D116" t="s">
         <v>670</v>
@@ -9353,27 +9314,27 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H116" t="n">
-        <v>42089670</v>
+        <v>42846660</v>
       </c>
       <c r="I116" t="n">
-        <v>900.222</v>
+        <v>916.412</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>111399</v>
+        <v>106017</v>
       </c>
       <c r="M116" t="n">
-        <v>2.383</v>
+        <v>2.268</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="O116" t="n">
-        <v>19.9</v>
+        <v>22.3</v>
       </c>
       <c r="P116" t="s">
         <v>672</v>
@@ -9396,7 +9357,7 @@
         <v>676</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D117" t="s">
         <v>677</v>
@@ -9406,32 +9367,28 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H117" t="n">
-        <v>3392956</v>
+        <v>3431654</v>
       </c>
       <c r="I117" t="n">
-        <v>158.451</v>
+        <v>160.258</v>
       </c>
       <c r="J117" t="n">
-        <v>20193</v>
+        <v>20542</v>
       </c>
       <c r="K117" t="n">
-        <v>0.943</v>
+        <v>0.959</v>
       </c>
       <c r="L117" t="n">
-        <v>21665</v>
+        <v>19852</v>
       </c>
       <c r="M117" t="n">
-        <v>1.012</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="O117" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0.927</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
       <c r="P117" t="s">
         <v>678</v>
       </c>
@@ -9506,7 +9463,7 @@
         <v>688</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44341</v>
+        <v>44343</v>
       </c>
       <c r="D119" t="s">
         <v>421</v>
@@ -9516,25 +9473,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H119" t="n">
-        <v>7157986</v>
+        <v>7216329</v>
       </c>
       <c r="I119" t="n">
-        <v>827.071</v>
+        <v>833.813</v>
       </c>
       <c r="J119" t="n">
-        <v>19569</v>
+        <v>23686</v>
       </c>
       <c r="K119" t="n">
-        <v>2.261</v>
+        <v>2.737</v>
       </c>
       <c r="L119" t="n">
-        <v>24942</v>
+        <v>22786</v>
       </c>
       <c r="M119" t="n">
-        <v>2.882</v>
+        <v>2.633</v>
       </c>
       <c r="N119" t="n">
         <v>0.038</v>
@@ -9563,7 +9520,7 @@
         <v>691</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D120" t="s">
         <v>692</v>
@@ -9573,31 +9530,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H120" t="n">
-        <v>434840</v>
+        <v>455198</v>
       </c>
       <c r="I120" t="n">
-        <v>18.258</v>
+        <v>19.112</v>
       </c>
       <c r="J120" t="n">
-        <v>21628</v>
+        <v>20495</v>
       </c>
       <c r="K120" t="n">
-        <v>0.908</v>
+        <v>0.861</v>
       </c>
       <c r="L120" t="n">
-        <v>19630</v>
+        <v>19953</v>
       </c>
       <c r="M120" t="n">
-        <v>0.824</v>
+        <v>0.838</v>
       </c>
       <c r="N120" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="O120" t="n">
-        <v>38.6</v>
+        <v>35.5</v>
       </c>
       <c r="P120" t="s">
         <v>693</v>
@@ -9677,581 +9634,571 @@
         <v>701</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44336</v>
+        <v>44342</v>
       </c>
       <c r="D122"/>
       <c r="E122" t="s">
         <v>702</v>
       </c>
-      <c r="F122" t="s">
-        <v>703</v>
-      </c>
+      <c r="F122"/>
       <c r="G122" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H122" t="n">
-        <v>325794</v>
+        <v>330159</v>
       </c>
       <c r="I122" t="n">
-        <v>39.353</v>
+        <v>39.88</v>
       </c>
       <c r="J122" t="n">
-        <v>1033</v>
+        <v>690</v>
       </c>
       <c r="K122" t="n">
-        <v>0.125</v>
+        <v>0.083</v>
       </c>
       <c r="L122" t="n">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="M122" t="n">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="N122" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="O122" t="n">
-        <v>52.4</v>
+        <v>55.6</v>
       </c>
       <c r="P122" t="s">
         <v>702</v>
       </c>
       <c r="Q122" t="s">
+        <v>703</v>
+      </c>
+      <c r="R122" t="s">
         <v>704</v>
       </c>
-      <c r="R122" t="s">
+      <c r="S122" t="s">
         <v>705</v>
-      </c>
-      <c r="S122" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>706</v>
+      </c>
+      <c r="B123" t="s">
         <v>707</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D123" t="s">
         <v>708</v>
-      </c>
-      <c r="C123" s="1" t="n">
-        <v>44339</v>
-      </c>
-      <c r="D123" t="s">
-        <v>709</v>
       </c>
       <c r="E123" t="s">
         <v>42</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H123" t="n">
-        <v>165776</v>
+        <v>173912</v>
       </c>
       <c r="I123" t="n">
-        <v>118.454</v>
+        <v>124.268</v>
       </c>
       <c r="J123" t="n">
-        <v>1128</v>
+        <v>7630</v>
       </c>
       <c r="K123" t="n">
-        <v>0.806</v>
+        <v>5.452</v>
       </c>
       <c r="L123" t="n">
-        <v>1818</v>
+        <v>1990</v>
       </c>
       <c r="M123" t="n">
-        <v>1.299</v>
+        <v>1.422</v>
       </c>
       <c r="N123" t="n">
-        <v>0.296</v>
+        <v>0.268</v>
       </c>
       <c r="O123" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
       </c>
       <c r="Q123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R123" t="s">
         <v>31</v>
       </c>
       <c r="S123" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>711</v>
+      </c>
+      <c r="B124" t="s">
         <v>712</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="D124" t="s">
         <v>713</v>
       </c>
-      <c r="C124" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>714</v>
-      </c>
-      <c r="E124" t="s">
-        <v>715</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H124" t="n">
-        <v>1442288</v>
+        <v>1454431</v>
       </c>
       <c r="I124" t="n">
-        <v>122.035</v>
+        <v>123.063</v>
       </c>
       <c r="J124" t="n">
-        <v>6048</v>
+        <v>6529</v>
       </c>
       <c r="K124" t="n">
-        <v>0.512</v>
+        <v>0.552</v>
       </c>
       <c r="L124" t="n">
-        <v>6418</v>
+        <v>6219</v>
       </c>
       <c r="M124" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="O124" t="n">
-        <v>5</v>
-      </c>
+        <v>0.526</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
       <c r="P124" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q124" t="s">
         <v>716</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>717</v>
       </c>
       <c r="R124" t="s">
         <v>31</v>
       </c>
       <c r="S124" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>718</v>
+      </c>
+      <c r="B125" t="s">
         <v>719</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="D125" t="s">
         <v>720</v>
       </c>
-      <c r="C125" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>721</v>
-      </c>
-      <c r="E125" t="s">
-        <v>722</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H125" t="n">
-        <v>53038651</v>
+        <v>53258116</v>
       </c>
       <c r="I125" t="n">
-        <v>628.874</v>
+        <v>631.476</v>
       </c>
       <c r="J125" t="n">
-        <v>221214</v>
+        <v>219465</v>
       </c>
       <c r="K125" t="n">
-        <v>2.623</v>
+        <v>2.602</v>
       </c>
       <c r="L125" t="n">
-        <v>217994</v>
+        <v>218033</v>
       </c>
       <c r="M125" t="n">
         <v>2.585</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="O125" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="P125" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q125" t="s">
         <v>722</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>723</v>
       </c>
       <c r="R125" t="s">
         <v>37</v>
       </c>
       <c r="S125" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>724</v>
+      </c>
+      <c r="B126" t="s">
         <v>725</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="D126" t="s">
         <v>726</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>44333</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>727</v>
-      </c>
-      <c r="E126" t="s">
-        <v>728</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H126" t="n">
-        <v>1066651</v>
+        <v>1087405</v>
       </c>
       <c r="I126" t="n">
-        <v>23.319</v>
+        <v>23.773</v>
       </c>
       <c r="J126" t="n">
-        <v>2450</v>
+        <v>2645</v>
       </c>
       <c r="K126" t="n">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="L126" t="n">
-        <v>2605</v>
+        <v>2965</v>
       </c>
       <c r="M126" t="n">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
       <c r="N126" t="n">
-        <v>0.026</v>
+        <v>0.051</v>
       </c>
       <c r="O126" t="n">
-        <v>38.4</v>
+        <v>19.6</v>
       </c>
       <c r="P126" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q126" t="s">
         <v>728</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>729</v>
       </c>
       <c r="R126" t="s">
         <v>102</v>
       </c>
       <c r="S126" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>730</v>
+      </c>
+      <c r="B127" t="s">
         <v>731</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="D127" t="s">
         <v>732</v>
       </c>
-      <c r="C127" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>733</v>
-      </c>
-      <c r="E127" t="s">
-        <v>734</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H127" t="n">
-        <v>10105901</v>
+        <v>10131355</v>
       </c>
       <c r="I127" t="n">
-        <v>231.078</v>
+        <v>231.66</v>
       </c>
       <c r="J127" t="n">
-        <v>29280</v>
+        <v>25454</v>
       </c>
       <c r="K127" t="n">
-        <v>0.67</v>
+        <v>0.582</v>
       </c>
       <c r="L127" t="n">
-        <v>23144</v>
+        <v>23044</v>
       </c>
       <c r="M127" t="n">
-        <v>0.529</v>
+        <v>0.527</v>
       </c>
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q127" t="s">
         <v>734</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>735</v>
       </c>
       <c r="R127" t="s">
         <v>37</v>
       </c>
       <c r="S127" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>736</v>
+      </c>
+      <c r="B128" t="s">
         <v>737</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="D128" t="s">
         <v>738</v>
       </c>
-      <c r="C128" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>739</v>
-      </c>
-      <c r="E128" t="s">
-        <v>740</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H128" t="n">
-        <v>49235759</v>
+        <v>49701568</v>
       </c>
       <c r="I128" t="n">
-        <v>4978.136</v>
+        <v>5025.233</v>
       </c>
       <c r="J128" t="n">
-        <v>225954</v>
+        <v>239852</v>
       </c>
       <c r="K128" t="n">
-        <v>22.846</v>
+        <v>24.251</v>
       </c>
       <c r="L128" t="n">
-        <v>225268</v>
+        <v>222310</v>
       </c>
       <c r="M128" t="n">
-        <v>22.776</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O128" t="n">
-        <v>143.1</v>
-      </c>
+        <v>22.477</v>
+      </c>
+      <c r="N128"/>
+      <c r="O128"/>
       <c r="P128" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q128" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R128" t="s">
         <v>37</v>
       </c>
       <c r="S128" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>741</v>
+      </c>
+      <c r="B129" t="s">
         <v>742</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D129" t="s">
         <v>743</v>
       </c>
-      <c r="C129" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>744</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>745</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="n">
+        <v>422</v>
+      </c>
+      <c r="H129" t="n">
+        <v>176394409</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2598.391</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1132061</v>
+      </c>
+      <c r="K129" t="n">
+        <v>16.676</v>
+      </c>
+      <c r="L129" t="n">
+        <v>965605</v>
+      </c>
+      <c r="M129" t="n">
+        <v>14.224</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O129" t="n">
+        <v>379.7</v>
+      </c>
+      <c r="P129" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q129" t="s">
         <v>746</v>
-      </c>
-      <c r="G129" t="n">
-        <v>421</v>
-      </c>
-      <c r="H129" t="n">
-        <v>175208582</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2580.923</v>
-      </c>
-      <c r="J129" t="n">
-        <v>741912</v>
-      </c>
-      <c r="K129" t="n">
-        <v>10.929</v>
-      </c>
-      <c r="L129" t="n">
-        <v>972014</v>
-      </c>
-      <c r="M129" t="n">
-        <v>14.318</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="O129" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="P129" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>747</v>
       </c>
       <c r="R129" t="s">
         <v>37</v>
       </c>
       <c r="S129" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>748</v>
+      </c>
+      <c r="B130" t="s">
         <v>749</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" s="1" t="n">
+        <v>44341</v>
+      </c>
+      <c r="D130" t="s">
         <v>750</v>
       </c>
-      <c r="C130" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>751</v>
-      </c>
-      <c r="E130" t="s">
-        <v>752</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H130" t="n">
-        <v>443192033</v>
+        <v>443917179</v>
       </c>
       <c r="I130" t="n">
-        <v>1338.938</v>
+        <v>1341.129</v>
       </c>
       <c r="J130" t="n">
-        <v>190986</v>
+        <v>337281</v>
       </c>
       <c r="K130" t="n">
-        <v>0.577</v>
+        <v>1.019</v>
       </c>
       <c r="L130" t="n">
-        <v>737006</v>
+        <v>664676</v>
       </c>
       <c r="M130" t="n">
-        <v>2.227</v>
+        <v>2.008</v>
       </c>
       <c r="N130" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="O130" t="n">
-        <v>31.2</v>
+        <v>29.4</v>
       </c>
       <c r="P130" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q130" t="s">
         <v>752</v>
       </c>
-      <c r="Q130" t="s">
+      <c r="R130" t="s">
         <v>753</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
         <v>754</v>
-      </c>
-      <c r="S130" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>755</v>
+      </c>
+      <c r="B131" t="s">
         <v>756</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="D131" t="s">
         <v>757</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>44341</v>
-      </c>
-      <c r="D131" t="s">
-        <v>758</v>
       </c>
       <c r="E131" t="s">
         <v>184</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H131" t="n">
-        <v>2143971</v>
+        <v>2185936</v>
       </c>
       <c r="I131" t="n">
-        <v>617.196</v>
+        <v>629.277</v>
       </c>
       <c r="J131" t="n">
-        <v>19179</v>
+        <v>20597</v>
       </c>
       <c r="K131" t="n">
-        <v>5.521</v>
+        <v>5.929</v>
       </c>
       <c r="L131" t="n">
-        <v>16201</v>
+        <v>17153</v>
       </c>
       <c r="M131" t="n">
-        <v>4.664</v>
+        <v>4.938</v>
       </c>
       <c r="N131" t="n">
-        <v>0.228</v>
+        <v>0.22</v>
       </c>
       <c r="O131" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="P131" t="s">
         <v>184</v>
       </c>
       <c r="Q131" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R131" t="s">
         <v>37</v>
       </c>
       <c r="S131" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>760</v>
+      </c>
+      <c r="B132" t="s">
         <v>761</v>
-      </c>
-      <c r="B132" t="s">
-        <v>762</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>44334</v>
       </c>
       <c r="D132" t="s">
+        <v>762</v>
+      </c>
+      <c r="E132" t="s">
         <v>763</v>
-      </c>
-      <c r="E132" t="s">
-        <v>764</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
@@ -10278,130 +10225,126 @@
         <v>204</v>
       </c>
       <c r="P132" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q132" t="s">
         <v>764</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>765</v>
       </c>
       <c r="R132" t="s">
         <v>102</v>
       </c>
       <c r="S132" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>766</v>
+      </c>
+      <c r="B133" t="s">
         <v>767</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" s="1" t="n">
+        <v>44344</v>
+      </c>
+      <c r="D133" t="s">
         <v>768</v>
       </c>
-      <c r="C133" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>769</v>
-      </c>
-      <c r="E133" t="s">
-        <v>770</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H133" t="n">
-        <v>1515012</v>
+        <v>1538730</v>
       </c>
       <c r="I133" t="n">
-        <v>82.409</v>
+        <v>83.7</v>
       </c>
       <c r="J133" t="n">
-        <v>3471</v>
+        <v>6392</v>
       </c>
       <c r="K133" t="n">
-        <v>0.189</v>
+        <v>0.348</v>
       </c>
       <c r="L133" t="n">
-        <v>5770</v>
+        <v>5408</v>
       </c>
       <c r="M133" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O133" t="n">
-        <v>49.3</v>
-      </c>
+        <v>0.294</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
       <c r="P133" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q133" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R133" t="s">
         <v>37</v>
       </c>
       <c r="S133" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>772</v>
+      </c>
+      <c r="B134" t="s">
         <v>773</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" s="1" t="n">
+        <v>44342</v>
+      </c>
+      <c r="D134" t="s">
         <v>774</v>
       </c>
-      <c r="C134" s="1" t="n">
-        <v>44336</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>775</v>
-      </c>
-      <c r="E134" t="s">
-        <v>776</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H134" t="n">
-        <v>532459</v>
+        <v>542397</v>
       </c>
       <c r="I134" t="n">
-        <v>35.825</v>
+        <v>36.493</v>
       </c>
       <c r="J134" t="n">
-        <v>2134</v>
+        <v>1629</v>
       </c>
       <c r="K134" t="n">
-        <v>0.144</v>
+        <v>0.11</v>
       </c>
       <c r="L134" t="n">
-        <v>1985</v>
+        <v>1725</v>
       </c>
       <c r="M134" t="n">
-        <v>0.134</v>
+        <v>0.116</v>
       </c>
       <c r="N134" t="n">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="O134" t="n">
-        <v>96.5</v>
+        <v>58.3</v>
       </c>
       <c r="P134" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q134" t="s">
         <v>776</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>777</v>
       </c>
       <c r="R134" t="s">
         <v>37</v>
       </c>
       <c r="S134" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-15-raste-te-reja-2691-testime-dhe-71-te-sheruar-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3255-testime-118-te-sheruar-12-raste-te-reja-dhe-1-humbje-jete-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3953</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3961</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-28-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-31-may-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1434-new-cases-1490-recoveries_i_0000130302.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-632-new-covid-19-cases-449-recoveries-in-past-24-hours_i_0000130374.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5607-reporte-437-de-covid-19-1-474-pacientes-recuperados-11-244-pruebas-negativas-y-1-511-957-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5624-reporte-441-de-covid-19-1-388-pacientes-recuperados-5-637-pruebas-negativas-y-1-635-543-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-27-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-30-de-maio-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1911359415696410</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1913894008776284</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -676,7 +676,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=bb6b4652fe</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=b29dc8dd57</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-28052021-9len</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-31052021-vf81</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.432.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.434.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-26052021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-30052021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1415</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1457</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210526.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210531.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/364694</t>
+    <t xml:space="preserve">http://irangov.ir/detail/364898</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1397627521378705410</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1399408721273442306</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1266,7 +1266,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5816</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5825</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1338,7 +1338,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1397598521759514630</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1399410440153833478</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1428,7 +1428,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210528-rey6l50i/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210531-f0b458nd/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1480,7 +1480,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4177268802337672/4177262205671665/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/a.359862397411684/4192589187472300/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1500,7 +1500,7 @@
     <t xml:space="preserve">Malawi - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.health.gov.mw/</t>
+    <t xml:space="preserve">https://www.malawipublichealth.org/</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health Institute of Malawi</t>
@@ -1519,13 +1519,10 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-26052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-31052021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumlah individu disampel' via google translate is interpreted to be the number of individuals sampled. See the 'Taburan Kes' tab at the very bottom of the update.</t>
   </si>
   <si>
     <t xml:space="preserve">http://covid-19.moh.gov.my/terkini</t>
@@ -1544,7 +1541,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1397598419426844674</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1399047970604027907</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1565,7 +1562,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/347024057016144/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/349621370089746/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1641,7 +1638,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-26-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1207/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-30-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1212/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1656,7 +1653,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/26.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/31.5.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1699,7 +1696,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(27-5-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(31-5-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1719,7 +1716,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.752596905413315/752596792079993</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.755337418472597/755337315139274</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1741,7 +1738,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1n4DPihec0BNIpydGjlTWpws-XpkxrRI2</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1rioUMJNVTLucdmsiCIjyu4-WoYiG6HXf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1894,7 +1891,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3843846492407867</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3855354821257034</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1916,7 +1913,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1397711353025028096</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1398782736224206852</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1935,7 +1932,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1397714597570924547</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1399145676529934337</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1969,7 +1966,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1mRuFL64MbuEWzGSX80fHiYn-hpZoEE_E?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1h5sAV6zuxrKqQIN7eDn7v2_zAH-IP1Kx?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1990,7 +1987,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1397836220835586048</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1399285772314759173</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2053,7 +2050,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_28_mai_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/30-05_BULETIN_DE_PRES%C4%82.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2076,7 +2073,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17923</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17957</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2275,7 +2272,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_20_05_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_27_05_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2385,6 +2382,9 @@
     <t xml:space="preserve">Togo Ministry of Health</t>
   </si>
   <si>
+    <t xml:space="preserve">Provided to OWID directly by MOH</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.gouv.tg/</t>
   </si>
   <si>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-735/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-738/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1397476411556966404</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1399275078865633289</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2575,7 +2575,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-190</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-191</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2635,7 +2635,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1397646213806178309</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1398750804954255360</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2983,7 +2983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3052,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3062,31 +3062,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H2" t="n">
-        <v>686370</v>
+        <v>695569</v>
       </c>
       <c r="I2" t="n">
-        <v>238.505</v>
+        <v>241.702</v>
       </c>
       <c r="J2" t="n">
-        <v>2691</v>
+        <v>3255</v>
       </c>
       <c r="K2" t="n">
-        <v>0.935</v>
+        <v>1.131</v>
       </c>
       <c r="L2" t="n">
-        <v>2959</v>
+        <v>2827</v>
       </c>
       <c r="M2" t="n">
-        <v>1.028</v>
+        <v>0.982</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O2" t="n">
-        <v>139</v>
+        <v>163.5</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3162,7 +3162,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44338</v>
+        <v>44342</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3172,28 +3172,28 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H4" t="n">
-        <v>9686544</v>
+        <v>9840134</v>
       </c>
       <c r="I4" t="n">
-        <v>214.324</v>
+        <v>217.722</v>
       </c>
       <c r="J4" t="n">
-        <v>38795</v>
+        <v>42754</v>
       </c>
       <c r="K4" t="n">
-        <v>0.858</v>
+        <v>0.946</v>
       </c>
       <c r="L4" t="n">
-        <v>40742</v>
+        <v>36621</v>
       </c>
       <c r="M4" t="n">
-        <v>0.901</v>
+        <v>0.81</v>
       </c>
       <c r="N4" t="n">
-        <v>0.328</v>
+        <v>0.334</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3229,31 +3229,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H5" t="n">
-        <v>1072615</v>
+        <v>1083960</v>
       </c>
       <c r="I5" t="n">
-        <v>361.974</v>
+        <v>365.803</v>
       </c>
       <c r="J5" t="n">
-        <v>3503</v>
+        <v>2655</v>
       </c>
       <c r="K5" t="n">
-        <v>1.182</v>
+        <v>0.896</v>
       </c>
       <c r="L5" t="n">
-        <v>3220</v>
+        <v>3136</v>
       </c>
       <c r="M5" t="n">
-        <v>1.087</v>
+        <v>1.058</v>
       </c>
       <c r="N5" t="n">
-        <v>0.038</v>
+        <v>0.031</v>
       </c>
       <c r="O5" t="n">
-        <v>26.5</v>
+        <v>31.9</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3276,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3286,28 +3286,28 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H6" t="n">
-        <v>18164843</v>
+        <v>18398692</v>
       </c>
       <c r="I6" t="n">
-        <v>712.35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>95647</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.751</v>
-      </c>
+        <v>721.521</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6" t="n">
-        <v>55662</v>
+        <v>72515</v>
       </c>
       <c r="M6" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="N6"/>
-      <c r="O6"/>
+        <v>2.844</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5703.6</v>
+      </c>
       <c r="P6" t="s">
         <v>48</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44343</v>
+        <v>44346</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3339,31 +3339,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H7" t="n">
-        <v>40456838</v>
+        <v>41563724</v>
       </c>
       <c r="I7" t="n">
-        <v>4492.01</v>
+        <v>4614.91</v>
       </c>
       <c r="J7" t="n">
-        <v>542328</v>
+        <v>339485</v>
       </c>
       <c r="K7" t="n">
-        <v>60.216</v>
+        <v>37.694</v>
       </c>
       <c r="L7" t="n">
-        <v>404401</v>
+        <v>383716</v>
       </c>
       <c r="M7" t="n">
-        <v>44.902</v>
+        <v>42.605</v>
       </c>
       <c r="N7" t="n">
         <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>797</v>
+        <v>837.8</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3386,7 +3386,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3396,25 +3396,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>3486381</v>
+        <v>3513989</v>
       </c>
       <c r="I8" t="n">
-        <v>343.853</v>
+        <v>346.575</v>
       </c>
       <c r="J8" t="n">
-        <v>9369</v>
+        <v>4815</v>
       </c>
       <c r="K8" t="n">
-        <v>0.924</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
-        <v>8743</v>
+        <v>7886</v>
       </c>
       <c r="M8" t="n">
-        <v>0.862</v>
+        <v>0.778</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3439,7 +3439,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3449,25 +3449,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H9" t="n">
-        <v>4568702</v>
+        <v>4643466</v>
       </c>
       <c r="I9" t="n">
-        <v>2684.972</v>
+        <v>2728.909</v>
       </c>
       <c r="J9" t="n">
-        <v>20459</v>
+        <v>17285</v>
       </c>
       <c r="K9" t="n">
-        <v>12.024</v>
+        <v>10.158</v>
       </c>
       <c r="L9" t="n">
-        <v>19409</v>
+        <v>19141</v>
       </c>
       <c r="M9" t="n">
-        <v>11.406</v>
+        <v>11.249</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3492,7 +3492,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3502,31 +3502,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H10" t="n">
-        <v>5877384</v>
+        <v>5937629</v>
       </c>
       <c r="I10" t="n">
-        <v>35.688</v>
+        <v>36.054</v>
       </c>
       <c r="J10" t="n">
-        <v>16434</v>
+        <v>18178</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="L10" t="n">
-        <v>16129</v>
+        <v>15677</v>
       </c>
       <c r="M10" t="n">
-        <v>0.098</v>
+        <v>0.095</v>
       </c>
       <c r="N10" t="n">
-        <v>0.087</v>
+        <v>0.091</v>
       </c>
       <c r="O10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3549,7 +3549,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3559,24 +3559,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H11" t="n">
-        <v>6286097</v>
+        <v>6335432</v>
       </c>
       <c r="I11" t="n">
-        <v>665.243</v>
+        <v>670.464</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>15992</v>
+        <v>16221</v>
       </c>
       <c r="M11" t="n">
-        <v>1.692</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>1.717</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15.2</v>
+      </c>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3608,31 +3612,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H12" t="n">
-        <v>13796638</v>
+        <v>13960553</v>
       </c>
       <c r="I12" t="n">
-        <v>1190.431</v>
+        <v>1204.574</v>
       </c>
       <c r="J12" t="n">
-        <v>62009</v>
+        <v>20604</v>
       </c>
       <c r="K12" t="n">
-        <v>5.35</v>
+        <v>1.778</v>
       </c>
       <c r="L12" t="n">
-        <v>44451</v>
+        <v>43096</v>
       </c>
       <c r="M12" t="n">
-        <v>3.835</v>
+        <v>3.719</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3655,7 +3659,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44343</v>
+        <v>44348</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3665,32 +3669,24 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>131171</v>
+        <v>133694</v>
       </c>
       <c r="I13" t="n">
-        <v>329.89</v>
-      </c>
-      <c r="J13" t="n">
-        <v>642</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.615</v>
-      </c>
+        <v>336.235</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="n">
-        <v>843</v>
+        <v>561</v>
       </c>
       <c r="M13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O13" t="n">
-        <v>210.7</v>
-      </c>
+        <v>1.411</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
         <v>90</v>
       </c>
@@ -3810,7 +3806,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3820,31 +3816,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H16" t="n">
-        <v>1423702</v>
+        <v>1469174</v>
       </c>
       <c r="I16" t="n">
-        <v>121.965</v>
+        <v>125.861</v>
       </c>
       <c r="J16" t="n">
-        <v>14457</v>
+        <v>7397</v>
       </c>
       <c r="K16" t="n">
-        <v>1.238</v>
+        <v>0.634</v>
       </c>
       <c r="L16" t="n">
-        <v>11561</v>
+        <v>12258</v>
       </c>
       <c r="M16" t="n">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.261</v>
+        <v>0.219</v>
       </c>
       <c r="O16" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
@@ -3867,7 +3863,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -3877,28 +3873,28 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H17" t="n">
-        <v>972590</v>
+        <v>977858</v>
       </c>
       <c r="I17" t="n">
-        <v>296.448</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2253</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.687</v>
-      </c>
+        <v>298.053</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17" t="n">
-        <v>2293</v>
+        <v>2189</v>
       </c>
       <c r="M17" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="N17"/>
-      <c r="O17"/>
+        <v>0.667</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="O17" t="n">
+        <v>24.7</v>
+      </c>
       <c r="P17" t="s">
         <v>112</v>
       </c>
@@ -3965,7 +3961,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -3975,25 +3971,25 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H19" t="n">
-        <v>2795296</v>
+        <v>2837936</v>
       </c>
       <c r="I19" t="n">
-        <v>402.291</v>
+        <v>408.427</v>
       </c>
       <c r="J19" t="n">
-        <v>13164</v>
+        <v>16977</v>
       </c>
       <c r="K19" t="n">
-        <v>1.895</v>
+        <v>2.443</v>
       </c>
       <c r="L19" t="n">
-        <v>10367</v>
+        <v>11925</v>
       </c>
       <c r="M19" t="n">
-        <v>1.492</v>
+        <v>1.716</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
@@ -4018,7 +4014,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44343</v>
+        <v>44348</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4028,32 +4024,28 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>1129781</v>
+        <v>1162111</v>
       </c>
       <c r="I20" t="n">
-        <v>67.575</v>
+        <v>69.509</v>
       </c>
       <c r="J20" t="n">
-        <v>6093</v>
+        <v>4686</v>
       </c>
       <c r="K20" t="n">
-        <v>0.364</v>
+        <v>0.28</v>
       </c>
       <c r="L20" t="n">
-        <v>5213</v>
+        <v>6162</v>
       </c>
       <c r="M20" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="O20" t="n">
-        <v>9.3</v>
-      </c>
+        <v>0.369</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
       <c r="P20" t="s">
         <v>129</v>
       </c>
@@ -4132,7 +4124,7 @@
         <v>137</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D22" t="s">
         <v>133</v>
@@ -4142,31 +4134,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H22" t="n">
-        <v>34449561</v>
+        <v>34790069</v>
       </c>
       <c r="I22" t="n">
-        <v>912.761</v>
+        <v>921.783</v>
       </c>
       <c r="J22" t="n">
-        <v>77218</v>
+        <v>72716</v>
       </c>
       <c r="K22" t="n">
-        <v>2.046</v>
+        <v>1.927</v>
       </c>
       <c r="L22" t="n">
-        <v>83705</v>
+        <v>81608</v>
       </c>
       <c r="M22" t="n">
-        <v>2.218</v>
+        <v>2.162</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="O22" t="n">
-        <v>25.2</v>
+        <v>27.1</v>
       </c>
       <c r="P22" t="s">
         <v>134</v>
@@ -4189,7 +4181,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -4199,15 +4191,15 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>1321</v>
+        <v>778</v>
       </c>
       <c r="K23" t="n">
-        <v>2.376</v>
+        <v>1.399</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -4234,7 +4226,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4244,25 +4236,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H24" t="n">
-        <v>14528970</v>
+        <v>14824922</v>
       </c>
       <c r="I24" t="n">
-        <v>760.034</v>
+        <v>775.516</v>
       </c>
       <c r="J24" t="n">
-        <v>70276</v>
+        <v>71749</v>
       </c>
       <c r="K24" t="n">
-        <v>3.676</v>
+        <v>3.753</v>
       </c>
       <c r="L24" t="n">
-        <v>54843</v>
+        <v>61736</v>
       </c>
       <c r="M24" t="n">
-        <v>2.869</v>
+        <v>3.23</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -4332,7 +4324,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D26" t="s">
         <v>160</v>
@@ -4342,31 +4334,31 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H26" t="n">
-        <v>16667423</v>
+        <v>16964487</v>
       </c>
       <c r="I26" t="n">
-        <v>327.564</v>
+        <v>333.403</v>
       </c>
       <c r="J26" t="n">
-        <v>104058</v>
+        <v>50978</v>
       </c>
       <c r="K26" t="n">
-        <v>2.045</v>
+        <v>1.002</v>
       </c>
       <c r="L26" t="n">
-        <v>80537</v>
+        <v>84054</v>
       </c>
       <c r="M26" t="n">
-        <v>1.583</v>
+        <v>1.652</v>
       </c>
       <c r="N26" t="n">
-        <v>0.295</v>
+        <v>0.301</v>
       </c>
       <c r="O26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P26" t="s">
         <v>161</v>
@@ -4389,7 +4381,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44341</v>
+        <v>44345</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4399,31 +4391,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H27" t="n">
-        <v>986759</v>
+        <v>1016851</v>
       </c>
       <c r="I27" t="n">
-        <v>193.706</v>
+        <v>199.613</v>
       </c>
       <c r="J27" t="n">
-        <v>5942</v>
+        <v>6856</v>
       </c>
       <c r="K27" t="n">
-        <v>1.166</v>
+        <v>1.346</v>
       </c>
       <c r="L27" t="n">
-        <v>6460</v>
+        <v>6458</v>
       </c>
       <c r="M27" t="n">
         <v>1.268</v>
       </c>
       <c r="N27" t="n">
-        <v>0.285</v>
+        <v>0.261</v>
       </c>
       <c r="O27" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4446,7 +4438,7 @@
         <v>170</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44341</v>
+        <v>44344</v>
       </c>
       <c r="D28" t="s">
         <v>171</v>
@@ -4456,31 +4448,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H28" t="n">
-        <v>636980</v>
+        <v>643113</v>
       </c>
       <c r="I28" t="n">
-        <v>24.148</v>
+        <v>24.38</v>
       </c>
       <c r="J28" t="n">
-        <v>1312</v>
+        <v>2064</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05</v>
+        <v>0.078</v>
       </c>
       <c r="L28" t="n">
-        <v>1942</v>
+        <v>1809</v>
       </c>
       <c r="M28" t="n">
-        <v>0.074</v>
+        <v>0.069</v>
       </c>
       <c r="N28" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="O28" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="P28" t="s">
         <v>172</v>
@@ -4503,7 +4495,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44344</v>
+        <v>44346</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4513,28 +4505,32 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H29" t="n">
-        <v>1999818</v>
+        <v>2011339</v>
       </c>
       <c r="I29" t="n">
-        <v>487.135</v>
+        <v>489.941</v>
       </c>
       <c r="J29" t="n">
-        <v>5273</v>
+        <v>5550</v>
       </c>
       <c r="K29" t="n">
-        <v>1.284</v>
+        <v>1.352</v>
       </c>
       <c r="L29" t="n">
-        <v>5847</v>
+        <v>5763</v>
       </c>
       <c r="M29" t="n">
-        <v>1.424</v>
-      </c>
-      <c r="N29"/>
-      <c r="O29"/>
+        <v>1.404</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O29" t="n">
+        <v>18.7</v>
+      </c>
       <c r="P29" t="s">
         <v>178</v>
       </c>
@@ -4556,7 +4552,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4568,31 +4564,31 @@
         <v>185</v>
       </c>
       <c r="G30" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H30" t="n">
-        <v>4238178</v>
+        <v>4328864</v>
       </c>
       <c r="I30" t="n">
-        <v>374.179</v>
+        <v>382.185</v>
       </c>
       <c r="J30" t="n">
-        <v>23078</v>
+        <v>22407</v>
       </c>
       <c r="K30" t="n">
-        <v>2.038</v>
+        <v>1.978</v>
       </c>
       <c r="L30" t="n">
-        <v>22297</v>
+        <v>22481</v>
       </c>
       <c r="M30" t="n">
-        <v>1.969</v>
+        <v>1.985</v>
       </c>
       <c r="N30" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
       <c r="O30" t="n">
-        <v>18.3</v>
+        <v>19.4</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4615,7 +4611,7 @@
         <v>189</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D31" t="s">
         <v>190</v>
@@ -4625,31 +4621,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H31" t="n">
-        <v>6801767</v>
+        <v>7014567</v>
       </c>
       <c r="I31" t="n">
-        <v>7765.47</v>
+        <v>8008.42</v>
       </c>
       <c r="J31" t="n">
-        <v>44513</v>
+        <v>47063</v>
       </c>
       <c r="K31" t="n">
-        <v>50.82</v>
+        <v>53.731</v>
       </c>
       <c r="L31" t="n">
-        <v>54873</v>
+        <v>48919</v>
       </c>
       <c r="M31" t="n">
-        <v>62.648</v>
+        <v>55.85</v>
       </c>
       <c r="N31" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O31" t="n">
-        <v>615.6</v>
+        <v>767.8</v>
       </c>
       <c r="P31" t="s">
         <v>42</v>
@@ -4672,7 +4668,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D32" t="s">
         <v>194</v>
@@ -4682,21 +4678,21 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="n">
-        <v>172057</v>
+        <v>240821</v>
       </c>
       <c r="K32" t="n">
-        <v>16.067</v>
+        <v>22.488</v>
       </c>
       <c r="L32" t="n">
-        <v>176580</v>
+        <v>171203</v>
       </c>
       <c r="M32" t="n">
-        <v>16.489</v>
+        <v>15.987</v>
       </c>
       <c r="N32" t="n">
         <v>0.003</v>
@@ -4725,7 +4721,7 @@
         <v>197</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D33" t="s">
         <v>198</v>
@@ -4735,27 +4731,27 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>280</v>
+        <v>533</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="L33" t="n">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="M33" t="n">
         <v>0.004</v>
       </c>
       <c r="N33" t="n">
-        <v>0.218</v>
+        <v>0.232</v>
       </c>
       <c r="O33" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="P33" t="s">
         <v>199</v>
@@ -4778,7 +4774,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4788,31 +4784,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H34" t="n">
-        <v>31738164</v>
+        <v>32234306</v>
       </c>
       <c r="I34" t="n">
-        <v>5479.463</v>
+        <v>5565.12</v>
       </c>
       <c r="J34" t="n">
-        <v>150965</v>
+        <v>48829</v>
       </c>
       <c r="K34" t="n">
-        <v>26.063</v>
+        <v>8.43</v>
       </c>
       <c r="L34" t="n">
-        <v>159368</v>
+        <v>138013</v>
       </c>
       <c r="M34" t="n">
-        <v>27.514</v>
+        <v>23.827</v>
       </c>
       <c r="N34" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O34" t="n">
-        <v>160.2</v>
+        <v>139.3</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4835,7 +4831,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4845,31 +4841,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H35" t="n">
-        <v>1520322</v>
+        <v>1531097</v>
       </c>
       <c r="I35" t="n">
-        <v>140.149</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3159</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.291</v>
-      </c>
+        <v>141.142</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
       <c r="L35" t="n">
-        <v>4619</v>
+        <v>4782</v>
       </c>
       <c r="M35" t="n">
-        <v>0.426</v>
+        <v>0.441</v>
       </c>
       <c r="N35" t="n">
-        <v>0.206</v>
+        <v>0.2</v>
       </c>
       <c r="O35" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4892,7 +4884,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4904,31 +4896,31 @@
         <v>218</v>
       </c>
       <c r="G36" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H36" t="n">
-        <v>1352166</v>
+        <v>1368679</v>
       </c>
       <c r="I36" t="n">
-        <v>76.64</v>
+        <v>77.576</v>
       </c>
       <c r="J36" t="n">
-        <v>4257</v>
+        <v>3662</v>
       </c>
       <c r="K36" t="n">
-        <v>0.241</v>
+        <v>0.208</v>
       </c>
       <c r="L36" t="n">
-        <v>3864</v>
+        <v>3461</v>
       </c>
       <c r="M36" t="n">
-        <v>0.219</v>
+        <v>0.196</v>
       </c>
       <c r="N36" t="n">
-        <v>0.308</v>
+        <v>0.289</v>
       </c>
       <c r="O36" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P36" t="s">
         <v>219</v>
@@ -5008,7 +5000,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -5018,31 +5010,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H38" t="n">
-        <v>1418499</v>
+        <v>1433055</v>
       </c>
       <c r="I38" t="n">
-        <v>1069.323</v>
+        <v>1080.296</v>
       </c>
       <c r="J38" t="n">
-        <v>4083</v>
+        <v>4395</v>
       </c>
       <c r="K38" t="n">
-        <v>3.078</v>
+        <v>3.313</v>
       </c>
       <c r="L38" t="n">
-        <v>3997</v>
+        <v>3826</v>
       </c>
       <c r="M38" t="n">
-        <v>3.013</v>
+        <v>2.884</v>
       </c>
       <c r="N38" t="n">
-        <v>0.038</v>
+        <v>0.033</v>
       </c>
       <c r="O38" t="n">
-        <v>26.1</v>
+        <v>30.6</v>
       </c>
       <c r="P38" t="s">
         <v>231</v>
@@ -5065,7 +5057,7 @@
         <v>234</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D39" t="s">
         <v>235</v>
@@ -5075,31 +5067,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H39" t="n">
-        <v>2706146</v>
+        <v>2723959</v>
       </c>
       <c r="I39" t="n">
-        <v>23.539</v>
+        <v>23.694</v>
       </c>
       <c r="J39" t="n">
-        <v>5056</v>
+        <v>3464</v>
       </c>
       <c r="K39" t="n">
-        <v>0.044</v>
+        <v>0.03</v>
       </c>
       <c r="L39" t="n">
-        <v>4864</v>
+        <v>4674</v>
       </c>
       <c r="M39" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="N39" t="n">
-        <v>0.073</v>
+        <v>0.062</v>
       </c>
       <c r="O39" t="n">
-        <v>13.7</v>
+        <v>16</v>
       </c>
       <c r="P39" t="s">
         <v>236</v>
@@ -5122,7 +5114,7 @@
         <v>239</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44341</v>
+        <v>44346</v>
       </c>
       <c r="D40" t="s">
         <v>240</v>
@@ -5132,31 +5124,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H40" t="n">
-        <v>96111</v>
+        <v>108738</v>
       </c>
       <c r="I40" t="n">
-        <v>107.214</v>
+        <v>121.299</v>
       </c>
       <c r="J40" t="n">
-        <v>3290</v>
+        <v>2475</v>
       </c>
       <c r="K40" t="n">
-        <v>3.67</v>
+        <v>2.761</v>
       </c>
       <c r="L40" t="n">
-        <v>2541</v>
+        <v>2630</v>
       </c>
       <c r="M40" t="n">
-        <v>2.835</v>
+        <v>2.934</v>
       </c>
       <c r="N40" t="n">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="O40" t="n">
-        <v>219.6</v>
+        <v>107.7</v>
       </c>
       <c r="P40" t="s">
         <v>241</v>
@@ -5179,7 +5171,7 @@
         <v>244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D41" t="s">
         <v>245</v>
@@ -5189,31 +5181,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H41" t="n">
-        <v>4972729</v>
+        <v>4993681</v>
       </c>
       <c r="I41" t="n">
-        <v>897.488</v>
+        <v>901.27</v>
       </c>
       <c r="J41" t="n">
-        <v>18122</v>
+        <v>2604</v>
       </c>
       <c r="K41" t="n">
-        <v>3.271</v>
+        <v>0.47</v>
       </c>
       <c r="L41" t="n">
-        <v>15760</v>
+        <v>11753</v>
       </c>
       <c r="M41" t="n">
-        <v>2.844</v>
+        <v>2.121</v>
       </c>
       <c r="N41" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="O41" t="n">
-        <v>86.4</v>
+        <v>98.1</v>
       </c>
       <c r="P41" t="s">
         <v>247</v>
@@ -5236,7 +5228,7 @@
         <v>250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44340</v>
+        <v>44344</v>
       </c>
       <c r="D42" t="s">
         <v>251</v>
@@ -5246,27 +5238,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42" t="n">
-        <v>95482</v>
+        <v>435991</v>
       </c>
       <c r="K42" t="n">
-        <v>1.413</v>
+        <v>6.453</v>
       </c>
       <c r="L42" t="n">
-        <v>298426</v>
+        <v>295156</v>
       </c>
       <c r="M42" t="n">
-        <v>4.417</v>
+        <v>4.369</v>
       </c>
       <c r="N42" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="O42" t="n">
-        <v>30.3</v>
+        <v>31.2</v>
       </c>
       <c r="P42" t="s">
         <v>252</v>
@@ -5346,7 +5338,7 @@
         <v>260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D44" t="s">
         <v>261</v>
@@ -5356,27 +5348,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H44" t="n">
-        <v>4855000</v>
+        <v>4975000</v>
       </c>
       <c r="I44" t="n">
-        <v>1217.044</v>
+        <v>1247.125</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>25143</v>
+        <v>30571</v>
       </c>
       <c r="M44" t="n">
-        <v>6.303</v>
+        <v>7.663</v>
       </c>
       <c r="N44" t="n">
-        <v>0.035</v>
+        <v>0.028</v>
       </c>
       <c r="O44" t="n">
-        <v>28.7</v>
+        <v>35.7</v>
       </c>
       <c r="P44" t="s">
         <v>262</v>
@@ -5452,7 +5444,7 @@
         <v>272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="D46" t="s">
         <v>273</v>
@@ -5462,31 +5454,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H46" t="n">
-        <v>1155699</v>
+        <v>1164383</v>
       </c>
       <c r="I46" t="n">
-        <v>37.193</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2828</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.091</v>
-      </c>
+        <v>37.473</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
       <c r="L46" t="n">
-        <v>3055</v>
+        <v>2921</v>
       </c>
       <c r="M46" t="n">
-        <v>0.098</v>
+        <v>0.094</v>
       </c>
       <c r="N46" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="O46" t="n">
-        <v>56.7</v>
+        <v>80.2</v>
       </c>
       <c r="P46" t="s">
         <v>275</v>
@@ -5509,7 +5497,7 @@
         <v>278</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
@@ -5519,31 +5507,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H47" t="n">
-        <v>9328911</v>
+        <v>9520565</v>
       </c>
       <c r="I47" t="n">
-        <v>895.026</v>
+        <v>913.414</v>
       </c>
       <c r="J47" t="n">
-        <v>49992</v>
+        <v>22986</v>
       </c>
       <c r="K47" t="n">
-        <v>4.796</v>
+        <v>2.205</v>
       </c>
       <c r="L47" t="n">
-        <v>46529</v>
+        <v>44535</v>
       </c>
       <c r="M47" t="n">
-        <v>4.464</v>
+        <v>4.273</v>
       </c>
       <c r="N47" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="O47" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="P47" t="s">
         <v>281</v>
@@ -5566,7 +5554,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5576,31 +5564,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H48" t="n">
-        <v>1404499</v>
+        <v>1420011</v>
       </c>
       <c r="I48" t="n">
-        <v>78.395</v>
+        <v>79.261</v>
       </c>
       <c r="J48" t="n">
-        <v>6508</v>
+        <v>1104</v>
       </c>
       <c r="K48" t="n">
-        <v>0.363</v>
+        <v>0.062</v>
       </c>
       <c r="L48" t="n">
-        <v>5304</v>
+        <v>5263</v>
       </c>
       <c r="M48" t="n">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
       <c r="N48" t="n">
-        <v>0.174</v>
+        <v>0.184</v>
       </c>
       <c r="O48" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="P48" t="s">
         <v>288</v>
@@ -5676,7 +5664,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5688,25 +5676,25 @@
         <v>302</v>
       </c>
       <c r="G50" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H50" t="n">
-        <v>5335773</v>
+        <v>5386794</v>
       </c>
       <c r="I50" t="n">
-        <v>552.337</v>
+        <v>557.619</v>
       </c>
       <c r="J50" t="n">
-        <v>15551</v>
+        <v>12782</v>
       </c>
       <c r="K50" t="n">
-        <v>1.61</v>
+        <v>1.323</v>
       </c>
       <c r="L50" t="n">
-        <v>12694</v>
+        <v>12467</v>
       </c>
       <c r="M50" t="n">
-        <v>1.314</v>
+        <v>1.291</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5784,7 +5772,7 @@
         <v>311</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44343</v>
+        <v>44348</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -5796,32 +5784,28 @@
         <v>314</v>
       </c>
       <c r="G52" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H52" t="n">
-        <v>336969353</v>
+        <v>346792257</v>
       </c>
       <c r="I52" t="n">
-        <v>244.18</v>
+        <v>251.298</v>
       </c>
       <c r="J52" t="n">
-        <v>2157857</v>
+        <v>1925374</v>
       </c>
       <c r="K52" t="n">
-        <v>1.564</v>
+        <v>1.395</v>
       </c>
       <c r="L52" t="n">
-        <v>2087595</v>
+        <v>2028297</v>
       </c>
       <c r="M52" t="n">
-        <v>1.513</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="O52" t="n">
-        <v>9.6</v>
-      </c>
+        <v>1.47</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
       <c r="P52" t="s">
         <v>313</v>
       </c>
@@ -5843,7 +5827,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -5853,31 +5837,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H53" t="n">
-        <v>11000759</v>
+        <v>11251308</v>
       </c>
       <c r="I53" t="n">
-        <v>40.219</v>
+        <v>41.135</v>
       </c>
       <c r="J53" t="n">
-        <v>62386</v>
+        <v>53491</v>
       </c>
       <c r="K53" t="n">
-        <v>0.228</v>
+        <v>0.196</v>
       </c>
       <c r="L53" t="n">
-        <v>57456</v>
+        <v>61588</v>
       </c>
       <c r="M53" t="n">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="N53" t="n">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
       <c r="O53" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="P53" t="s">
         <v>319</v>
@@ -5900,7 +5884,7 @@
         <v>323</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="D54" t="s">
         <v>324</v>
@@ -5910,24 +5894,28 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H54" t="n">
-        <v>19550558</v>
+        <v>19936548</v>
       </c>
       <c r="I54" t="n">
-        <v>232.764</v>
+        <v>237.36</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>123821</v>
+        <v>126004</v>
       </c>
       <c r="M54" t="n">
-        <v>1.474</v>
-      </c>
-      <c r="N54"/>
-      <c r="O54"/>
+        <v>1.5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="O54" t="n">
+        <v>12.7</v>
+      </c>
       <c r="P54" t="s">
         <v>325</v>
       </c>
@@ -5949,7 +5937,7 @@
         <v>329</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="D55" t="s">
         <v>330</v>
@@ -5959,31 +5947,31 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H55" t="n">
-        <v>10250984</v>
+        <v>10442991</v>
       </c>
       <c r="I55" t="n">
-        <v>254.857</v>
+        <v>259.631</v>
       </c>
       <c r="J55" t="n">
-        <v>44252</v>
+        <v>39380</v>
       </c>
       <c r="K55" t="n">
-        <v>1.1</v>
+        <v>0.979</v>
       </c>
       <c r="L55" t="n">
-        <v>40060</v>
+        <v>40283</v>
       </c>
       <c r="M55" t="n">
-        <v>0.996</v>
+        <v>1.002</v>
       </c>
       <c r="N55" t="n">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
       <c r="O55" t="n">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="P55" t="s">
         <v>332</v>
@@ -6063,7 +6051,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6073,31 +6061,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H57" t="n">
-        <v>16852381</v>
+        <v>16948495</v>
       </c>
       <c r="I57" t="n">
-        <v>1947.005</v>
+        <v>1958.109</v>
       </c>
       <c r="J57" t="n">
-        <v>30630</v>
+        <v>29512</v>
       </c>
       <c r="K57" t="n">
-        <v>3.539</v>
+        <v>3.41</v>
       </c>
       <c r="L57" t="n">
-        <v>26150</v>
+        <v>26506</v>
       </c>
       <c r="M57" t="n">
-        <v>3.021</v>
+        <v>3.062</v>
       </c>
       <c r="N57" t="n">
         <v>0.001</v>
       </c>
       <c r="O57" t="n">
-        <v>1165.9</v>
+        <v>1717.9</v>
       </c>
       <c r="P57" t="s">
         <v>42</v>
@@ -6120,7 +6108,7 @@
         <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D58" t="s">
         <v>349</v>
@@ -6132,31 +6120,31 @@
         <v>351</v>
       </c>
       <c r="G58" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H58" t="n">
-        <v>27887155</v>
+        <v>28113732</v>
       </c>
       <c r="I58" t="n">
-        <v>461.236</v>
+        <v>464.983</v>
       </c>
       <c r="J58" t="n">
-        <v>72915</v>
+        <v>30210</v>
       </c>
       <c r="K58" t="n">
-        <v>1.206</v>
+        <v>0.5</v>
       </c>
       <c r="L58" t="n">
-        <v>68942</v>
+        <v>63817</v>
       </c>
       <c r="M58" t="n">
-        <v>1.14</v>
+        <v>1.055</v>
       </c>
       <c r="N58" t="n">
-        <v>0.057</v>
+        <v>0.052</v>
       </c>
       <c r="O58" t="n">
-        <v>17.4</v>
+        <v>19.3</v>
       </c>
       <c r="P58" t="s">
         <v>352</v>
@@ -6179,7 +6167,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D59" t="s">
         <v>349</v>
@@ -6191,31 +6179,31 @@
         <v>351</v>
       </c>
       <c r="G59" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H59" t="n">
-        <v>65423542</v>
+        <v>66172255</v>
       </c>
       <c r="I59" t="n">
-        <v>1082.064</v>
+        <v>1094.447</v>
       </c>
       <c r="J59" t="n">
-        <v>243967</v>
+        <v>86977</v>
       </c>
       <c r="K59" t="n">
-        <v>4.035</v>
+        <v>1.439</v>
       </c>
       <c r="L59" t="n">
-        <v>228685</v>
+        <v>215184</v>
       </c>
       <c r="M59" t="n">
-        <v>3.782</v>
+        <v>3.559</v>
       </c>
       <c r="N59" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="O59" t="n">
-        <v>57.8</v>
+        <v>65.1</v>
       </c>
       <c r="P59" t="s">
         <v>352</v>
@@ -6291,7 +6279,7 @@
         <v>364</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D61" t="s">
         <v>365</v>
@@ -6301,31 +6289,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H61" t="n">
-        <v>13427073</v>
+        <v>13716480</v>
       </c>
       <c r="I61" t="n">
-        <v>106.163</v>
+        <v>108.451</v>
       </c>
       <c r="J61" t="n">
-        <v>116584</v>
+        <v>83703</v>
       </c>
       <c r="K61" t="n">
-        <v>0.922</v>
+        <v>0.662</v>
       </c>
       <c r="L61" t="n">
-        <v>83475</v>
+        <v>80446</v>
       </c>
       <c r="M61" t="n">
-        <v>0.66</v>
+        <v>0.636</v>
       </c>
       <c r="N61" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
       <c r="O61" t="n">
-        <v>19.7</v>
+        <v>23</v>
       </c>
       <c r="P61" t="s">
         <v>366</v>
@@ -6348,7 +6336,7 @@
         <v>370</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D62" t="s">
         <v>371</v>
@@ -6358,31 +6346,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H62" t="n">
-        <v>7182844</v>
+        <v>7260498</v>
       </c>
       <c r="I62" t="n">
-        <v>703.984</v>
+        <v>711.594</v>
       </c>
       <c r="J62" t="n">
-        <v>20491</v>
+        <v>15346</v>
       </c>
       <c r="K62" t="n">
-        <v>2.008</v>
+        <v>1.504</v>
       </c>
       <c r="L62" t="n">
-        <v>21168</v>
+        <v>20229</v>
       </c>
       <c r="M62" t="n">
-        <v>2.075</v>
+        <v>1.983</v>
       </c>
       <c r="N62" t="n">
-        <v>0.034</v>
+        <v>0.058</v>
       </c>
       <c r="O62" t="n">
-        <v>29.6</v>
+        <v>17.2</v>
       </c>
       <c r="P62" t="s">
         <v>372</v>
@@ -6405,7 +6393,7 @@
         <v>376</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D63" t="s">
         <v>377</v>
@@ -6415,31 +6403,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H63" t="n">
-        <v>11380185</v>
+        <v>11528771</v>
       </c>
       <c r="I63" t="n">
-        <v>606.08</v>
+        <v>613.993</v>
       </c>
       <c r="J63" t="n">
-        <v>47610</v>
+        <v>148586</v>
       </c>
       <c r="K63" t="n">
-        <v>2.536</v>
+        <v>7.913</v>
       </c>
       <c r="L63" t="n">
-        <v>44999</v>
+        <v>58251</v>
       </c>
       <c r="M63" t="n">
-        <v>2.397</v>
+        <v>3.102</v>
       </c>
       <c r="N63" t="n">
-        <v>0.045</v>
+        <v>0.034</v>
       </c>
       <c r="O63" t="n">
-        <v>22.1</v>
+        <v>29.5</v>
       </c>
       <c r="P63" t="s">
         <v>378</v>
@@ -6515,7 +6503,7 @@
         <v>386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D65" t="s">
         <v>387</v>
@@ -6525,20 +6513,16 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>602319</v>
+        <v>611357</v>
       </c>
       <c r="I65" t="n">
-        <v>311.634</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2460</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.273</v>
-      </c>
+        <v>316.311</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
@@ -6564,7 +6548,7 @@
         <v>392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="D66" t="s">
         <v>393</v>
@@ -6574,25 +6558,25 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H66" t="n">
-        <v>2556150</v>
+        <v>2607769</v>
       </c>
       <c r="I66" t="n">
-        <v>598.551</v>
+        <v>610.638</v>
       </c>
       <c r="J66" t="n">
-        <v>10309</v>
+        <v>10962</v>
       </c>
       <c r="K66" t="n">
-        <v>2.414</v>
+        <v>2.567</v>
       </c>
       <c r="L66" t="n">
-        <v>9875</v>
+        <v>10391</v>
       </c>
       <c r="M66" t="n">
-        <v>2.312</v>
+        <v>2.433</v>
       </c>
       <c r="N66" t="n">
         <v>0.121</v>
@@ -6621,7 +6605,7 @@
         <v>398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D67" t="s">
         <v>399</v>
@@ -6631,25 +6615,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H67" t="n">
-        <v>242134</v>
+        <v>250496</v>
       </c>
       <c r="I67" t="n">
-        <v>33.28</v>
+        <v>34.43</v>
       </c>
       <c r="J67" t="n">
-        <v>2149</v>
+        <v>2216</v>
       </c>
       <c r="K67" t="n">
-        <v>0.295</v>
+        <v>0.305</v>
       </c>
       <c r="L67" t="n">
-        <v>1898</v>
+        <v>2038</v>
       </c>
       <c r="M67" t="n">
-        <v>0.261</v>
+        <v>0.28</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -6674,7 +6658,7 @@
         <v>403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D68" t="s">
         <v>404</v>
@@ -6686,25 +6670,25 @@
         <v>406</v>
       </c>
       <c r="G68" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H68" t="n">
-        <v>2593670</v>
+        <v>2626819</v>
       </c>
       <c r="I68" t="n">
-        <v>1375.075</v>
+        <v>1392.65</v>
       </c>
       <c r="J68" t="n">
-        <v>14870</v>
+        <v>14546</v>
       </c>
       <c r="K68" t="n">
-        <v>7.884</v>
+        <v>7.712</v>
       </c>
       <c r="L68" t="n">
-        <v>11482</v>
+        <v>10617</v>
       </c>
       <c r="M68" t="n">
-        <v>6.087</v>
+        <v>5.629</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
@@ -6729,7 +6713,7 @@
         <v>409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44343</v>
+        <v>44346</v>
       </c>
       <c r="D69" t="s">
         <v>410</v>
@@ -6739,25 +6723,21 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H69" t="n">
-        <v>4356507</v>
+        <v>4392200</v>
       </c>
       <c r="I69" t="n">
-        <v>638.275</v>
-      </c>
-      <c r="J69" t="n">
-        <v>13901</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2.037</v>
-      </c>
+        <v>643.504</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69" t="n">
-        <v>14006</v>
+        <v>12858</v>
       </c>
       <c r="M69" t="n">
-        <v>2.052</v>
+        <v>1.884</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6782,7 +6762,7 @@
         <v>414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44343</v>
+        <v>44346</v>
       </c>
       <c r="D70" t="s">
         <v>415</v>
@@ -6792,15 +6772,15 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="n">
-        <v>3243</v>
+        <v>3935</v>
       </c>
       <c r="K70" t="n">
-        <v>0.472</v>
+        <v>0.573</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -6827,7 +6807,7 @@
         <v>420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D71" t="s">
         <v>421</v>
@@ -6837,31 +6817,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H71" t="n">
-        <v>45825</v>
+        <v>46432</v>
       </c>
       <c r="I71" t="n">
-        <v>1201.589</v>
+        <v>1217.505</v>
       </c>
       <c r="J71" t="n">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="K71" t="n">
-        <v>6.739</v>
+        <v>1.94</v>
       </c>
       <c r="L71" t="n">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="M71" t="n">
-        <v>5.218</v>
+        <v>4.667</v>
       </c>
       <c r="N71" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O71" t="n">
-        <v>83.3</v>
+        <v>90.9</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6941,7 +6921,7 @@
         <v>431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D73" t="s">
         <v>432</v>
@@ -6951,31 +6931,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H73" t="n">
-        <v>2869686</v>
+        <v>2894879</v>
       </c>
       <c r="I73" t="n">
-        <v>4584.339</v>
+        <v>4624.585</v>
       </c>
       <c r="J73" t="n">
-        <v>9699</v>
+        <v>5930</v>
       </c>
       <c r="K73" t="n">
-        <v>15.494</v>
+        <v>9.473</v>
       </c>
       <c r="L73" t="n">
-        <v>8861</v>
+        <v>6447</v>
       </c>
       <c r="M73" t="n">
-        <v>14.155</v>
+        <v>10.299</v>
       </c>
       <c r="N73" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="O73" t="n">
-        <v>228.9</v>
+        <v>158.3</v>
       </c>
       <c r="P73" t="s">
         <v>433</v>
@@ -6998,7 +6978,7 @@
         <v>436</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44341</v>
+        <v>44346</v>
       </c>
       <c r="D74" t="s">
         <v>437</v>
@@ -7008,31 +6988,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H74" t="n">
-        <v>201391</v>
+        <v>203455</v>
       </c>
       <c r="I74" t="n">
-        <v>7.273</v>
+        <v>7.347</v>
       </c>
       <c r="J74" t="n">
+        <v>573</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L74" t="n">
         <v>384</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.014</v>
       </c>
-      <c r="L74" t="n">
-        <v>552</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.02</v>
-      </c>
       <c r="N74" t="n">
-        <v>0.174</v>
+        <v>0.145</v>
       </c>
       <c r="O74" t="n">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="P74" t="s">
         <v>438</v>
@@ -7055,7 +7035,7 @@
         <v>442</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44342</v>
+        <v>44348</v>
       </c>
       <c r="D75" t="s">
         <v>443</v>
@@ -7065,13 +7045,13 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H75" t="n">
-        <v>344647</v>
+        <v>347638</v>
       </c>
       <c r="I75" t="n">
-        <v>18.016</v>
+        <v>18.172</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -7100,7 +7080,7 @@
         <v>448</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="D76" t="s">
         <v>449</v>
@@ -7108,175 +7088,173 @@
       <c r="E76" t="s">
         <v>450</v>
       </c>
-      <c r="F76" t="s">
-        <v>451</v>
-      </c>
+      <c r="F76"/>
       <c r="G76" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H76" t="n">
-        <v>11513351</v>
+        <v>12066124</v>
       </c>
       <c r="I76" t="n">
-        <v>355.724</v>
+        <v>372.802</v>
       </c>
       <c r="J76" t="n">
-        <v>114446</v>
+        <v>89227</v>
       </c>
       <c r="K76" t="n">
-        <v>3.536</v>
+        <v>2.757</v>
       </c>
       <c r="L76" t="n">
-        <v>106821</v>
+        <v>109191</v>
       </c>
       <c r="M76" t="n">
-        <v>3.3</v>
+        <v>3.374</v>
       </c>
       <c r="N76" t="n">
-        <v>0.064</v>
+        <v>0.07</v>
       </c>
       <c r="O76" t="n">
-        <v>15.6</v>
+        <v>14.2</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
       </c>
       <c r="Q76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R76" t="s">
         <v>31</v>
       </c>
       <c r="S76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" t="s">
         <v>454</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D77" t="s">
         <v>455</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>456</v>
-      </c>
-      <c r="E77" t="s">
-        <v>457</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H77" t="n">
-        <v>858778</v>
+        <v>877954</v>
       </c>
       <c r="I77" t="n">
-        <v>1588.735</v>
+        <v>1624.211</v>
       </c>
       <c r="J77" t="n">
-        <v>5186</v>
+        <v>4356</v>
       </c>
       <c r="K77" t="n">
-        <v>9.594</v>
+        <v>8.059</v>
       </c>
       <c r="L77" t="n">
-        <v>5792</v>
+        <v>4853</v>
       </c>
       <c r="M77" t="n">
-        <v>10.715</v>
+        <v>8.978</v>
       </c>
       <c r="N77" t="n">
-        <v>0.272</v>
+        <v>0.228</v>
       </c>
       <c r="O77" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="P77" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q77" t="s">
         <v>457</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>458</v>
       </c>
       <c r="R77" t="s">
         <v>102</v>
       </c>
       <c r="S77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" t="s">
         <v>460</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D78" t="s">
         <v>461</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>462</v>
-      </c>
-      <c r="E78" t="s">
-        <v>463</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H78" t="n">
-        <v>918465</v>
+        <v>926764</v>
       </c>
       <c r="I78" t="n">
-        <v>2080.145</v>
+        <v>2098.94</v>
       </c>
       <c r="J78" t="n">
-        <v>2316</v>
+        <v>1722</v>
       </c>
       <c r="K78" t="n">
-        <v>5.245</v>
+        <v>3.9</v>
       </c>
       <c r="L78" t="n">
-        <v>1981</v>
+        <v>2027</v>
       </c>
       <c r="M78" t="n">
-        <v>4.487</v>
+        <v>4.591</v>
       </c>
       <c r="N78" t="n">
         <v>0.002</v>
       </c>
       <c r="O78" t="n">
-        <v>478.2</v>
+        <v>489.3</v>
       </c>
       <c r="P78" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q78" t="s">
         <v>463</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>464</v>
       </c>
       <c r="R78" t="s">
         <v>37</v>
       </c>
       <c r="S78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>465</v>
+      </c>
+      <c r="B79" t="s">
         <v>466</v>
-      </c>
-      <c r="B79" t="s">
-        <v>467</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="D79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E79" t="s">
         <v>42</v>
@@ -7302,257 +7280,257 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q79" t="s">
         <v>469</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>470</v>
       </c>
       <c r="R79" t="s">
         <v>37</v>
       </c>
       <c r="S79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>471</v>
+      </c>
+      <c r="B80" t="s">
         <v>472</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D80" t="s">
         <v>473</v>
       </c>
-      <c r="C80" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>474</v>
-      </c>
-      <c r="E80" t="s">
-        <v>475</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H80" t="n">
-        <v>6563714</v>
+        <v>6607253</v>
       </c>
       <c r="I80" t="n">
-        <v>50.908</v>
+        <v>51.246</v>
       </c>
       <c r="J80" t="n">
-        <v>6269</v>
+        <v>1392</v>
       </c>
       <c r="K80" t="n">
-        <v>0.049</v>
+        <v>0.011</v>
       </c>
       <c r="L80" t="n">
-        <v>9518</v>
+        <v>9391</v>
       </c>
       <c r="M80" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="N80" t="n">
-        <v>0.177</v>
+        <v>0.185</v>
       </c>
       <c r="O80" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="P80" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R80" t="s">
         <v>31</v>
       </c>
       <c r="S80" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>477</v>
+      </c>
+      <c r="B81" t="s">
         <v>478</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="D81" t="s">
         <v>479</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>480</v>
-      </c>
-      <c r="E81" t="s">
-        <v>481</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H81" t="n">
-        <v>1105142</v>
+        <v>1115509</v>
       </c>
       <c r="I81" t="n">
-        <v>273.959</v>
+        <v>276.529</v>
       </c>
       <c r="J81" t="n">
-        <v>6438</v>
+        <v>2644</v>
       </c>
       <c r="K81" t="n">
-        <v>1.596</v>
+        <v>0.655</v>
       </c>
       <c r="L81" t="n">
-        <v>4096</v>
+        <v>3681</v>
       </c>
       <c r="M81" t="n">
-        <v>1.015</v>
+        <v>0.913</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R81" t="s">
         <v>24</v>
       </c>
       <c r="S81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>482</v>
+      </c>
+      <c r="B82" t="s">
         <v>483</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D82" t="s">
         <v>484</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D82" t="s">
-        <v>485</v>
       </c>
       <c r="E82" t="s">
         <v>42</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H82" t="n">
-        <v>2903519</v>
+        <v>2933544</v>
       </c>
       <c r="I82" t="n">
-        <v>885.68</v>
+        <v>894.839</v>
       </c>
       <c r="J82" t="n">
-        <v>7881</v>
+        <v>7837</v>
       </c>
       <c r="K82" t="n">
-        <v>2.404</v>
+        <v>2.391</v>
       </c>
       <c r="L82" t="n">
-        <v>7652</v>
+        <v>7396</v>
       </c>
       <c r="M82" t="n">
-        <v>2.334</v>
+        <v>2.256</v>
       </c>
       <c r="N82" t="n">
-        <v>0.083</v>
+        <v>0.085</v>
       </c>
       <c r="O82" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="P82" t="s">
         <v>42</v>
       </c>
       <c r="Q82" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R82" t="s">
         <v>102</v>
       </c>
       <c r="S82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83" t="s">
         <v>488</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D83" t="s">
         <v>489</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>490</v>
-      </c>
-      <c r="E83" t="s">
-        <v>491</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H83" t="n">
-        <v>5952786</v>
+        <v>5993324</v>
       </c>
       <c r="I83" t="n">
-        <v>161.276</v>
+        <v>162.374</v>
       </c>
       <c r="J83" t="n">
-        <v>9618</v>
+        <v>4434</v>
       </c>
       <c r="K83" t="n">
-        <v>0.261</v>
+        <v>0.12</v>
       </c>
       <c r="L83" t="n">
-        <v>8912</v>
+        <v>8429</v>
       </c>
       <c r="M83" t="n">
-        <v>0.241</v>
+        <v>0.228</v>
       </c>
       <c r="N83" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="O83" t="n">
-        <v>30.4</v>
+        <v>28.1</v>
       </c>
       <c r="P83" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q83" t="s">
         <v>491</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>492</v>
       </c>
       <c r="R83" t="s">
         <v>31</v>
       </c>
       <c r="S83" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>493</v>
+      </c>
+      <c r="B84" t="s">
         <v>494</v>
-      </c>
-      <c r="B84" t="s">
-        <v>495</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>44338</v>
       </c>
       <c r="D84" t="s">
+        <v>495</v>
+      </c>
+      <c r="E84" t="s">
         <v>496</v>
-      </c>
-      <c r="E84" t="s">
-        <v>497</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
@@ -7583,204 +7561,204 @@
         <v>52.2</v>
       </c>
       <c r="P84" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q84" t="s">
         <v>497</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>498</v>
       </c>
       <c r="R84" t="s">
         <v>66</v>
       </c>
       <c r="S84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85" t="s">
         <v>500</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D85" t="s">
         <v>501</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>502</v>
-      </c>
-      <c r="E85" t="s">
-        <v>503</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H85" t="n">
-        <v>2616466</v>
+        <v>2621413</v>
       </c>
       <c r="I85" t="n">
-        <v>48.088</v>
+        <v>48.179</v>
       </c>
       <c r="J85" t="n">
-        <v>1788</v>
+        <v>1771</v>
       </c>
       <c r="K85" t="n">
         <v>0.033</v>
       </c>
       <c r="L85" t="n">
-        <v>1287</v>
+        <v>1398</v>
       </c>
       <c r="M85" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="N85" t="n">
-        <v>0.026</v>
+        <v>0.038</v>
       </c>
       <c r="O85" t="n">
-        <v>39</v>
+        <v>26.7</v>
       </c>
       <c r="P85" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q85" t="s">
         <v>503</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>504</v>
       </c>
       <c r="R85" t="s">
         <v>102</v>
       </c>
       <c r="S85" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>505</v>
+      </c>
+      <c r="B86" t="s">
         <v>506</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D86" t="s">
         <v>507</v>
       </c>
-      <c r="C86" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>508</v>
-      </c>
-      <c r="E86" t="s">
-        <v>509</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H86" t="n">
-        <v>424743</v>
+        <v>435661</v>
       </c>
       <c r="I86" t="n">
-        <v>167.161</v>
+        <v>171.458</v>
       </c>
       <c r="J86" t="n">
-        <v>723</v>
+        <v>2234</v>
       </c>
       <c r="K86" t="n">
-        <v>0.285</v>
+        <v>0.879</v>
       </c>
       <c r="L86" t="n">
-        <v>1425</v>
+        <v>1840</v>
       </c>
       <c r="M86" t="n">
-        <v>0.561</v>
+        <v>0.724</v>
       </c>
       <c r="N86" t="n">
-        <v>0.178</v>
+        <v>0.182</v>
       </c>
       <c r="O86" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="P86" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q86" t="s">
         <v>510</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>511</v>
       </c>
       <c r="R86" t="s">
         <v>102</v>
       </c>
       <c r="S86" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>512</v>
+      </c>
+      <c r="B87" t="s">
         <v>513</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D87" t="s">
         <v>514</v>
       </c>
-      <c r="C87" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>515</v>
-      </c>
-      <c r="E87" t="s">
-        <v>516</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H87" t="n">
-        <v>2998064</v>
+        <v>3057424</v>
       </c>
       <c r="I87" t="n">
-        <v>102.896</v>
+        <v>104.933</v>
       </c>
       <c r="J87" t="n">
-        <v>20414</v>
+        <v>15055</v>
       </c>
       <c r="K87" t="n">
-        <v>0.701</v>
+        <v>0.517</v>
       </c>
       <c r="L87" t="n">
-        <v>20324</v>
+        <v>17301</v>
       </c>
       <c r="M87" t="n">
-        <v>0.698</v>
+        <v>0.594</v>
       </c>
       <c r="N87" t="n">
-        <v>0.377</v>
+        <v>0.337</v>
       </c>
       <c r="O87" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P87" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q87" t="s">
         <v>516</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>517</v>
       </c>
       <c r="R87" t="s">
         <v>37</v>
       </c>
       <c r="S87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>518</v>
+      </c>
+      <c r="B88" t="s">
         <v>519</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="D88" t="s">
         <v>520</v>
       </c>
-      <c r="C88" s="1" t="n">
-        <v>44327</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>521</v>
-      </c>
-      <c r="E88" t="s">
-        <v>522</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
@@ -7792,17 +7770,13 @@
       <c r="I88" t="n">
         <v>563.619</v>
       </c>
-      <c r="J88" t="n">
-        <v>120601</v>
-      </c>
-      <c r="K88" t="n">
-        <v>7.038</v>
-      </c>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88" t="n">
-        <v>68880</v>
+        <v>17229</v>
       </c>
       <c r="M88" t="n">
-        <v>4.02</v>
+        <v>1.005</v>
       </c>
       <c r="N88" t="n">
         <v>0.086</v>
@@ -7811,245 +7785,249 @@
         <v>11.6</v>
       </c>
       <c r="P88" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q88" t="s">
         <v>523</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>524</v>
       </c>
       <c r="R88" t="s">
         <v>31</v>
       </c>
       <c r="S88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>525</v>
+      </c>
+      <c r="B89" t="s">
         <v>526</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="D89" t="s">
         <v>527</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D89" t="s">
-        <v>528</v>
       </c>
       <c r="E89" t="s">
         <v>42</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H89" t="n">
-        <v>2126807</v>
+        <v>2143395</v>
       </c>
       <c r="I89" t="n">
-        <v>441.042</v>
+        <v>444.482</v>
       </c>
       <c r="J89" t="n">
-        <v>5131</v>
+        <v>3056</v>
       </c>
       <c r="K89" t="n">
-        <v>1.064</v>
+        <v>0.634</v>
       </c>
       <c r="L89" t="n">
-        <v>3806</v>
+        <v>4499</v>
       </c>
       <c r="M89" t="n">
-        <v>0.789</v>
+        <v>0.933</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q89" t="s">
         <v>529</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>530</v>
       </c>
       <c r="R89" t="s">
         <v>37</v>
       </c>
       <c r="S89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>531</v>
+      </c>
+      <c r="B90" t="s">
         <v>532</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D90" t="s">
         <v>533</v>
       </c>
-      <c r="C90" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>534</v>
-      </c>
-      <c r="E90" t="s">
-        <v>535</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H90" t="n">
-        <v>2093243</v>
+        <v>2133061</v>
       </c>
       <c r="I90" t="n">
-        <v>10.154</v>
+        <v>10.348</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>12941</v>
+        <v>5688</v>
       </c>
       <c r="M90" t="n">
-        <v>0.063</v>
+        <v>0.028</v>
       </c>
       <c r="N90" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="O90" t="n">
-        <v>320.1</v>
+        <v>87.1</v>
       </c>
       <c r="P90" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q90" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R90" t="s">
         <v>102</v>
       </c>
       <c r="S90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>536</v>
+      </c>
+      <c r="B91" t="s">
         <v>537</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D91" t="s">
         <v>538</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D91" t="s">
-        <v>539</v>
       </c>
       <c r="E91" t="s">
         <v>42</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H91" t="n">
-        <v>784734</v>
+        <v>791466</v>
       </c>
       <c r="I91" t="n">
-        <v>376.664</v>
+        <v>379.895</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>3763</v>
+        <v>4226</v>
       </c>
       <c r="M91" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
+        <v>2.028</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O91" t="n">
+        <v>143.6</v>
+      </c>
       <c r="P91" t="s">
         <v>42</v>
       </c>
       <c r="Q91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R91" t="s">
         <v>37</v>
       </c>
       <c r="S91" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>541</v>
+      </c>
+      <c r="B92" t="s">
         <v>542</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="n">
+        <v>44345</v>
+      </c>
+      <c r="D92" t="s">
         <v>543</v>
       </c>
-      <c r="C92" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>544</v>
-      </c>
-      <c r="E92" t="s">
-        <v>545</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H92" t="n">
-        <v>5613413</v>
+        <v>5661903</v>
       </c>
       <c r="I92" t="n">
-        <v>1035.448</v>
+        <v>1044.392</v>
       </c>
       <c r="J92" t="n">
-        <v>23203</v>
+        <v>7643</v>
       </c>
       <c r="K92" t="n">
-        <v>4.28</v>
+        <v>1.41</v>
       </c>
       <c r="L92" t="n">
-        <v>21227</v>
+        <v>18687</v>
       </c>
       <c r="M92" t="n">
-        <v>3.916</v>
+        <v>3.447</v>
       </c>
       <c r="N92" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="O92" t="n">
-        <v>44.1</v>
+        <v>48.6</v>
       </c>
       <c r="P92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q92" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R92" t="s">
         <v>31</v>
       </c>
       <c r="S92" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
         <v>547</v>
-      </c>
-      <c r="B93" t="s">
-        <v>548</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D93" t="s">
+        <v>548</v>
+      </c>
+      <c r="E93" t="s">
         <v>549</v>
-      </c>
-      <c r="E93" t="s">
-        <v>550</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
@@ -8068,248 +8046,248 @@
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q93" t="s">
         <v>550</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>551</v>
       </c>
       <c r="R93" t="s">
         <v>66</v>
       </c>
       <c r="S93" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>552</v>
+      </c>
+      <c r="B94" t="s">
         <v>553</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="D94" t="s">
         <v>554</v>
       </c>
-      <c r="C94" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>555</v>
-      </c>
-      <c r="E94" t="s">
-        <v>556</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H94" t="n">
-        <v>13057951</v>
+        <v>13269214</v>
       </c>
       <c r="I94" t="n">
-        <v>59.115</v>
+        <v>60.071</v>
       </c>
       <c r="J94" t="n">
-        <v>51625</v>
+        <v>47633</v>
       </c>
       <c r="K94" t="n">
-        <v>0.234</v>
+        <v>0.216</v>
       </c>
       <c r="L94" t="n">
-        <v>57565</v>
+        <v>54953</v>
       </c>
       <c r="M94" t="n">
-        <v>0.261</v>
+        <v>0.249</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q94" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R94" t="s">
         <v>37</v>
       </c>
       <c r="S94" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>557</v>
+      </c>
+      <c r="B95" t="s">
         <v>558</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D95" t="s">
         <v>559</v>
-      </c>
-      <c r="C95" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D95" t="s">
-        <v>560</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>2997</v>
+        <v>3178</v>
       </c>
       <c r="K95" t="n">
-        <v>0.587</v>
+        <v>0.623</v>
       </c>
       <c r="L95" t="n">
-        <v>2665</v>
+        <v>2809</v>
       </c>
       <c r="M95" t="n">
-        <v>0.522</v>
+        <v>0.551</v>
       </c>
       <c r="N95" t="n">
-        <v>0.121</v>
+        <v>0.131</v>
       </c>
       <c r="O95" t="n">
-        <v>8.2</v>
+        <v>7.6</v>
       </c>
       <c r="P95" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q95" t="s">
         <v>561</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>562</v>
       </c>
       <c r="R95" t="s">
         <v>37</v>
       </c>
       <c r="S95" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>563</v>
+      </c>
+      <c r="B96" t="s">
         <v>564</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="1" t="n">
+        <v>44345</v>
+      </c>
+      <c r="D96" t="s">
         <v>565</v>
       </c>
-      <c r="C96" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>566</v>
-      </c>
-      <c r="E96" t="s">
-        <v>567</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H96" t="n">
-        <v>2607020</v>
+        <v>2639502</v>
       </c>
       <c r="I96" t="n">
-        <v>604.209</v>
+        <v>611.737</v>
       </c>
       <c r="J96" t="n">
-        <v>10129</v>
+        <v>10130</v>
       </c>
       <c r="K96" t="n">
         <v>2.348</v>
       </c>
       <c r="L96" t="n">
-        <v>8906</v>
+        <v>9323</v>
       </c>
       <c r="M96" t="n">
-        <v>2.064</v>
+        <v>2.161</v>
       </c>
       <c r="N96" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="O96" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="P96" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q96" t="s">
         <v>567</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>568</v>
       </c>
       <c r="R96" t="s">
         <v>37</v>
       </c>
       <c r="S96" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>569</v>
+      </c>
+      <c r="B97" t="s">
         <v>570</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D97" t="s">
         <v>571</v>
       </c>
-      <c r="C97" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>572</v>
-      </c>
-      <c r="E97" t="s">
-        <v>573</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H97" t="n">
-        <v>1252405</v>
+        <v>1284759</v>
       </c>
       <c r="I97" t="n">
-        <v>175.591</v>
+        <v>180.127</v>
       </c>
       <c r="J97" t="n">
-        <v>7230</v>
+        <v>8506</v>
       </c>
       <c r="K97" t="n">
-        <v>1.014</v>
+        <v>1.193</v>
       </c>
       <c r="L97" t="n">
-        <v>6630</v>
+        <v>7647</v>
       </c>
       <c r="M97" t="n">
-        <v>0.93</v>
+        <v>1.072</v>
       </c>
       <c r="N97" t="n">
-        <v>0.457</v>
+        <v>0.368</v>
       </c>
       <c r="O97" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="P97" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q97" t="s">
         <v>573</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>574</v>
       </c>
       <c r="R97" t="s">
         <v>37</v>
       </c>
       <c r="S97" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>575</v>
+      </c>
+      <c r="B98" t="s">
         <v>576</v>
-      </c>
-      <c r="B98" t="s">
-        <v>577</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>44312</v>
       </c>
       <c r="D98" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E98" t="s">
         <v>161</v>
@@ -8346,258 +8324,258 @@
         <v>161</v>
       </c>
       <c r="Q98" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R98" t="s">
         <v>37</v>
       </c>
       <c r="S98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>579</v>
+      </c>
+      <c r="B99" t="s">
         <v>580</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D99" t="s">
         <v>581</v>
       </c>
-      <c r="C99" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>582</v>
-      </c>
-      <c r="E99" t="s">
-        <v>583</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H99" t="n">
-        <v>12444349</v>
+        <v>12576976</v>
       </c>
       <c r="I99" t="n">
-        <v>113.563</v>
+        <v>114.773</v>
       </c>
       <c r="J99" t="n">
-        <v>43954</v>
+        <v>30349</v>
       </c>
       <c r="K99" t="n">
-        <v>0.401</v>
+        <v>0.277</v>
       </c>
       <c r="L99" t="n">
-        <v>45802</v>
+        <v>45104</v>
       </c>
       <c r="M99" t="n">
-        <v>0.418</v>
+        <v>0.412</v>
       </c>
       <c r="N99" t="n">
-        <v>0.11</v>
+        <v>0.139</v>
       </c>
       <c r="O99" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="P99" t="s">
         <v>294</v>
       </c>
       <c r="Q99" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R99" t="s">
         <v>31</v>
       </c>
       <c r="S99" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>585</v>
+      </c>
+      <c r="B100" t="s">
         <v>586</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D100" t="s">
         <v>587</v>
       </c>
-      <c r="C100" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>588</v>
-      </c>
-      <c r="E100" t="s">
-        <v>589</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H100" t="n">
-        <v>15403654</v>
+        <v>15595978</v>
       </c>
       <c r="I100" t="n">
-        <v>407.002</v>
+        <v>412.084</v>
       </c>
       <c r="J100" t="n">
-        <v>63364</v>
+        <v>32035</v>
       </c>
       <c r="K100" t="n">
-        <v>1.674</v>
+        <v>0.846</v>
       </c>
       <c r="L100" t="n">
-        <v>52862</v>
+        <v>53363</v>
       </c>
       <c r="M100" t="n">
-        <v>1.397</v>
+        <v>1.41</v>
       </c>
       <c r="N100" t="n">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="O100" t="n">
-        <v>44.6</v>
+        <v>61.2</v>
       </c>
       <c r="P100" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q100" t="s">
         <v>589</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>590</v>
       </c>
       <c r="R100" t="s">
         <v>31</v>
       </c>
       <c r="S100" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B101" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D101" t="s">
+        <v>587</v>
+      </c>
+      <c r="E101" t="s">
         <v>588</v>
-      </c>
-      <c r="E101" t="s">
-        <v>589</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H101" t="n">
-        <v>15765052</v>
+        <v>15959992</v>
       </c>
       <c r="I101" t="n">
-        <v>416.551</v>
+        <v>421.702</v>
       </c>
       <c r="J101" t="n">
-        <v>63914</v>
+        <v>32369</v>
       </c>
       <c r="K101" t="n">
-        <v>1.689</v>
+        <v>0.855</v>
       </c>
       <c r="L101" t="n">
-        <v>53464</v>
+        <v>54034</v>
       </c>
       <c r="M101" t="n">
-        <v>1.413</v>
+        <v>1.428</v>
       </c>
       <c r="N101" t="n">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="O101" t="n">
-        <v>45.1</v>
+        <v>62</v>
       </c>
       <c r="P101" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q101" t="s">
         <v>589</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>590</v>
       </c>
       <c r="R101" t="s">
         <v>102</v>
       </c>
       <c r="S101" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>592</v>
+      </c>
+      <c r="B102" t="s">
         <v>593</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="1" t="n">
+        <v>44345</v>
+      </c>
+      <c r="D102" t="s">
         <v>594</v>
-      </c>
-      <c r="C102" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D102" t="s">
-        <v>595</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H102" t="n">
-        <v>11595570</v>
+        <v>11746487</v>
       </c>
       <c r="I102" t="n">
-        <v>1137.188</v>
+        <v>1151.988</v>
       </c>
       <c r="J102" t="n">
-        <v>49325</v>
+        <v>40398</v>
       </c>
       <c r="K102" t="n">
-        <v>4.837</v>
+        <v>3.962</v>
       </c>
       <c r="L102" t="n">
-        <v>39174</v>
+        <v>43118</v>
       </c>
       <c r="M102" t="n">
-        <v>3.842</v>
+        <v>4.229</v>
       </c>
       <c r="N102" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O102" t="n">
-        <v>86.9</v>
+        <v>88.7</v>
       </c>
       <c r="P102" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q102" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R102" t="s">
         <v>37</v>
       </c>
       <c r="S102" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>597</v>
+      </c>
+      <c r="B103" t="s">
         <v>598</v>
-      </c>
-      <c r="B103" t="s">
-        <v>599</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D103" t="s">
+        <v>599</v>
+      </c>
+      <c r="E103" t="s">
         <v>600</v>
-      </c>
-      <c r="E103" t="s">
-        <v>601</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -8628,432 +8606,444 @@
         <v>10.9</v>
       </c>
       <c r="P103" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>603</v>
+      </c>
+      <c r="B104" t="s">
         <v>604</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D104" t="s">
         <v>605</v>
       </c>
-      <c r="C104" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>606</v>
-      </c>
-      <c r="E104" t="s">
-        <v>607</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H104" t="n">
-        <v>7860372</v>
+        <v>7891479</v>
       </c>
       <c r="I104" t="n">
-        <v>408.592</v>
+        <v>410.209</v>
       </c>
       <c r="J104" t="n">
-        <v>22600</v>
+        <v>11765</v>
       </c>
       <c r="K104" t="n">
-        <v>1.175</v>
+        <v>0.612</v>
       </c>
       <c r="L104" t="n">
-        <v>17828</v>
+        <v>17574</v>
       </c>
       <c r="M104" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="N104"/>
-      <c r="O104"/>
+        <v>0.914</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O104" t="n">
+        <v>60.3</v>
+      </c>
       <c r="P104" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q104" t="s">
         <v>608</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>609</v>
       </c>
       <c r="R104" t="s">
         <v>37</v>
       </c>
       <c r="S104" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>610</v>
+      </c>
+      <c r="B105" t="s">
         <v>611</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D105" t="s">
         <v>612</v>
       </c>
-      <c r="C105" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>613</v>
-      </c>
-      <c r="E105" t="s">
-        <v>614</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H105" t="n">
-        <v>137180661</v>
+        <v>138547723</v>
       </c>
       <c r="I105" t="n">
-        <v>940.016</v>
+        <v>949.383</v>
       </c>
       <c r="J105" t="n">
-        <v>374036</v>
+        <v>271007</v>
       </c>
       <c r="K105" t="n">
-        <v>2.563</v>
+        <v>1.857</v>
       </c>
       <c r="L105" t="n">
-        <v>310808</v>
+        <v>335981</v>
       </c>
       <c r="M105" t="n">
-        <v>2.13</v>
+        <v>2.302</v>
       </c>
       <c r="N105" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="O105" t="n">
-        <v>36.6</v>
+        <v>38.5</v>
       </c>
       <c r="P105" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q105" t="s">
         <v>614</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>615</v>
       </c>
       <c r="R105" t="s">
         <v>37</v>
       </c>
       <c r="S105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>616</v>
+      </c>
+      <c r="B106" t="s">
         <v>617</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="D106" t="s">
         <v>618</v>
       </c>
-      <c r="C106" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>619</v>
-      </c>
-      <c r="E106" t="s">
-        <v>620</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H106" t="n">
-        <v>1426053</v>
+        <v>1445631</v>
       </c>
       <c r="I106" t="n">
-        <v>110.101</v>
+        <v>111.613</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>4976</v>
+        <v>5084</v>
       </c>
       <c r="M106" t="n">
-        <v>0.384</v>
+        <v>0.393</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q106" t="s">
         <v>620</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>621</v>
       </c>
       <c r="R106" t="s">
         <v>102</v>
       </c>
       <c r="S106" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" t="s">
         <v>623</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D107" t="s">
         <v>624</v>
-      </c>
-      <c r="C107" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D107" t="s">
-        <v>625</v>
       </c>
       <c r="E107" t="s">
         <v>42</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H107" t="n">
-        <v>18968030</v>
+        <v>19214578</v>
       </c>
       <c r="I107" t="n">
-        <v>544.841</v>
+        <v>551.923</v>
       </c>
       <c r="J107" t="n">
-        <v>92566</v>
+        <v>92458</v>
       </c>
       <c r="K107" t="n">
-        <v>2.659</v>
+        <v>2.656</v>
       </c>
       <c r="L107" t="n">
-        <v>85356</v>
+        <v>86724</v>
       </c>
       <c r="M107" t="n">
-        <v>2.452</v>
+        <v>2.491</v>
       </c>
       <c r="N107" t="n">
         <v>0.014</v>
       </c>
       <c r="O107" t="n">
-        <v>71.2</v>
+        <v>73.3</v>
       </c>
       <c r="P107" t="s">
         <v>42</v>
       </c>
       <c r="Q107" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R107" t="s">
         <v>37</v>
       </c>
       <c r="S107" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>626</v>
+      </c>
+      <c r="B108" t="s">
         <v>627</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D108" t="s">
         <v>628</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>629</v>
-      </c>
-      <c r="E108" t="s">
-        <v>630</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H108" t="n">
-        <v>525677</v>
+        <v>530975</v>
       </c>
       <c r="I108" t="n">
-        <v>31.395</v>
+        <v>31.711</v>
       </c>
       <c r="J108" t="n">
-        <v>1442</v>
+        <v>1526</v>
       </c>
       <c r="K108" t="n">
-        <v>0.086</v>
+        <v>0.091</v>
       </c>
       <c r="L108" t="n">
-        <v>1424</v>
+        <v>1500</v>
       </c>
       <c r="M108" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="N108"/>
-      <c r="O108"/>
+        <v>0.09</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="O108" t="n">
+        <v>38.3</v>
+      </c>
       <c r="P108" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q108" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R108" t="s">
         <v>37</v>
       </c>
       <c r="S108" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>631</v>
+      </c>
+      <c r="B109" t="s">
         <v>632</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D109" t="s">
         <v>633</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D109" t="s">
-        <v>634</v>
       </c>
       <c r="E109" t="s">
         <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G109" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H109" t="n">
-        <v>4128117</v>
+        <v>4152776</v>
       </c>
       <c r="I109" t="n">
-        <v>606.666</v>
+        <v>610.29</v>
       </c>
       <c r="J109" t="n">
-        <v>10189</v>
+        <v>8684</v>
       </c>
       <c r="K109" t="n">
-        <v>1.497</v>
+        <v>1.276</v>
       </c>
       <c r="L109" t="n">
-        <v>9522</v>
+        <v>9440</v>
       </c>
       <c r="M109" t="n">
-        <v>1.399</v>
-      </c>
-      <c r="N109"/>
-      <c r="O109"/>
+        <v>1.387</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O109" t="n">
+        <v>30.6</v>
+      </c>
       <c r="P109" t="s">
         <v>42</v>
       </c>
       <c r="Q109" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R109" t="s">
         <v>31</v>
       </c>
       <c r="S109" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>637</v>
+      </c>
+      <c r="B110" t="s">
         <v>638</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D110" t="s">
         <v>639</v>
-      </c>
-      <c r="C110" s="1" t="n">
-        <v>44340</v>
-      </c>
-      <c r="D110" t="s">
-        <v>640</v>
       </c>
       <c r="E110" t="s">
         <v>42</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H110" t="n">
-        <v>11470986</v>
+        <v>11947790</v>
       </c>
       <c r="I110" t="n">
-        <v>1960.737</v>
+        <v>2042.238</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>58138</v>
+        <v>68115</v>
       </c>
       <c r="M110" t="n">
-        <v>9.938</v>
+        <v>11.643</v>
       </c>
       <c r="N110" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>1647.6</v>
+        <v>2496.3</v>
       </c>
       <c r="P110" t="s">
         <v>42</v>
       </c>
       <c r="Q110" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R110" t="s">
         <v>102</v>
       </c>
       <c r="S110" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>641</v>
+      </c>
+      <c r="B111" t="s">
         <v>642</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="n">
+        <v>44346</v>
+      </c>
+      <c r="D111" t="s">
         <v>643</v>
-      </c>
-      <c r="C111" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D111" t="s">
-        <v>644</v>
       </c>
       <c r="E111" t="s">
         <v>42</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H111" t="n">
-        <v>38138645</v>
+        <v>29848733</v>
       </c>
       <c r="I111" t="n">
-        <v>6985.557</v>
+        <v>5467.158</v>
       </c>
       <c r="J111" t="n">
-        <v>48136</v>
+        <v>74731</v>
       </c>
       <c r="K111" t="n">
-        <v>8.817</v>
+        <v>13.688</v>
       </c>
       <c r="L111" t="n">
-        <v>83490</v>
+        <v>78935</v>
       </c>
       <c r="M111" t="n">
-        <v>15.292</v>
+        <v>14.458</v>
       </c>
       <c r="N111" t="n">
         <v>0.004</v>
@@ -9065,196 +9055,196 @@
         <v>42</v>
       </c>
       <c r="Q111" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R111" t="s">
         <v>37</v>
       </c>
       <c r="S111" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>645</v>
+      </c>
+      <c r="B112" t="s">
         <v>646</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D112" t="s">
         <v>647</v>
       </c>
-      <c r="C112" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>648</v>
-      </c>
-      <c r="E112" t="s">
-        <v>649</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H112" t="n">
-        <v>1271894</v>
+        <v>1282334</v>
       </c>
       <c r="I112" t="n">
-        <v>611.802</v>
+        <v>616.823</v>
       </c>
       <c r="J112" t="n">
-        <v>3585</v>
+        <v>3378</v>
       </c>
       <c r="K112" t="n">
-        <v>1.724</v>
+        <v>1.625</v>
       </c>
       <c r="L112" t="n">
-        <v>3280</v>
+        <v>3182</v>
       </c>
       <c r="M112" t="n">
-        <v>1.578</v>
+        <v>1.531</v>
       </c>
       <c r="N112" t="n">
-        <v>0.087</v>
+        <v>0.088</v>
       </c>
       <c r="O112" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="P112" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q112" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R112" t="s">
         <v>37</v>
       </c>
       <c r="S112" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>650</v>
+      </c>
+      <c r="B113" t="s">
         <v>651</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D113" t="s">
         <v>652</v>
       </c>
-      <c r="C113" s="1" t="n">
-        <v>44342</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>653</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>654</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="n">
+        <v>451</v>
+      </c>
+      <c r="H113" t="n">
+        <v>11631239</v>
+      </c>
+      <c r="I113" t="n">
+        <v>196.114</v>
+      </c>
+      <c r="J113" t="n">
+        <v>24669</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="L113" t="n">
+        <v>36137</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O113" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P113" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q113" t="s">
         <v>655</v>
-      </c>
-      <c r="G113" t="n">
-        <v>446</v>
-      </c>
-      <c r="H113" t="n">
-        <v>11452185</v>
-      </c>
-      <c r="I113" t="n">
-        <v>193.095</v>
-      </c>
-      <c r="J113" t="n">
-        <v>45877</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="L113" t="n">
-        <v>34983</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="O113" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="P113" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>656</v>
       </c>
       <c r="R113" t="s">
         <v>31</v>
       </c>
       <c r="S113" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>657</v>
+      </c>
+      <c r="B114" t="s">
         <v>658</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="D114" t="s">
         <v>659</v>
       </c>
-      <c r="C114" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>660</v>
-      </c>
-      <c r="E114" t="s">
-        <v>661</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H114" t="n">
-        <v>9579584</v>
+        <v>9670790</v>
       </c>
       <c r="I114" t="n">
-        <v>186.849</v>
+        <v>188.628</v>
       </c>
       <c r="J114" t="n">
-        <v>36550</v>
+        <v>37585</v>
       </c>
       <c r="K114" t="n">
-        <v>0.713</v>
+        <v>0.733</v>
       </c>
       <c r="L114" t="n">
-        <v>29517</v>
+        <v>27880</v>
       </c>
       <c r="M114" t="n">
-        <v>0.576</v>
+        <v>0.544</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>662</v>
+      </c>
+      <c r="B115" t="s">
         <v>663</v>
-      </c>
-      <c r="B115" t="s">
-        <v>664</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D115" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E115" t="s">
         <v>42</v>
@@ -9287,136 +9277,140 @@
         <v>42</v>
       </c>
       <c r="Q115" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R115" t="s">
         <v>37</v>
       </c>
       <c r="S115" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>667</v>
+      </c>
+      <c r="B116" t="s">
         <v>668</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="D116" t="s">
         <v>669</v>
       </c>
-      <c r="C116" s="1" t="n">
-        <v>44336</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>670</v>
-      </c>
-      <c r="E116" t="s">
-        <v>671</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H116" t="n">
-        <v>42846660</v>
+        <v>43557867</v>
       </c>
       <c r="I116" t="n">
-        <v>916.412</v>
+        <v>931.624</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>106017</v>
+        <v>99506</v>
       </c>
       <c r="M116" t="n">
-        <v>2.268</v>
+        <v>2.128</v>
       </c>
       <c r="N116" t="n">
         <v>0.045</v>
       </c>
       <c r="O116" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="P116" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q116" t="s">
         <v>672</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>673</v>
       </c>
       <c r="R116" t="s">
         <v>37</v>
       </c>
       <c r="S116" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s">
         <v>675</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D117" t="s">
         <v>676</v>
       </c>
-      <c r="C117" s="1" t="n">
-        <v>44344</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>677</v>
-      </c>
-      <c r="E117" t="s">
-        <v>678</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H117" t="n">
-        <v>3431654</v>
+        <v>3495070</v>
       </c>
       <c r="I117" t="n">
-        <v>160.258</v>
+        <v>163.22</v>
       </c>
       <c r="J117" t="n">
-        <v>20542</v>
+        <v>20785</v>
       </c>
       <c r="K117" t="n">
-        <v>0.959</v>
+        <v>0.971</v>
       </c>
       <c r="L117" t="n">
-        <v>19852</v>
+        <v>19939</v>
       </c>
       <c r="M117" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="N117"/>
-      <c r="O117"/>
+        <v>0.931</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="O117" t="n">
+        <v>7.3</v>
+      </c>
       <c r="P117" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q117" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="R117" t="s">
         <v>37</v>
       </c>
       <c r="S117" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>679</v>
+      </c>
+      <c r="B118" t="s">
         <v>680</v>
-      </c>
-      <c r="B118" t="s">
-        <v>681</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>44339</v>
       </c>
       <c r="D118" t="s">
+        <v>681</v>
+      </c>
+      <c r="E118" t="s">
         <v>682</v>
-      </c>
-      <c r="E118" t="s">
-        <v>683</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
@@ -9443,27 +9437,27 @@
         <v>12.4</v>
       </c>
       <c r="P118" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q118" t="s">
         <v>684</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>685</v>
       </c>
       <c r="R118" t="s">
         <v>37</v>
       </c>
       <c r="S118" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>686</v>
+      </c>
+      <c r="B119" t="s">
         <v>687</v>
       </c>
-      <c r="B119" t="s">
-        <v>688</v>
-      </c>
       <c r="C119" s="1" t="n">
-        <v>44343</v>
+        <v>44345</v>
       </c>
       <c r="D119" t="s">
         <v>421</v>
@@ -9473,31 +9467,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H119" t="n">
-        <v>7216329</v>
+        <v>7270436</v>
       </c>
       <c r="I119" t="n">
-        <v>833.813</v>
+        <v>840.064</v>
       </c>
       <c r="J119" t="n">
-        <v>23686</v>
+        <v>17131</v>
       </c>
       <c r="K119" t="n">
-        <v>2.737</v>
+        <v>1.979</v>
       </c>
       <c r="L119" t="n">
-        <v>22786</v>
+        <v>22059</v>
       </c>
       <c r="M119" t="n">
-        <v>2.633</v>
+        <v>2.549</v>
       </c>
       <c r="N119" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="O119" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="P119" t="s">
         <v>422</v>
@@ -9509,78 +9503,78 @@
         <v>37</v>
       </c>
       <c r="S119" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>689</v>
+      </c>
+      <c r="B120" t="s">
         <v>690</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D120" t="s">
         <v>691</v>
       </c>
-      <c r="C120" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>692</v>
-      </c>
-      <c r="E120" t="s">
-        <v>693</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H120" t="n">
-        <v>455198</v>
+        <v>522816</v>
       </c>
       <c r="I120" t="n">
-        <v>19.112</v>
+        <v>21.952</v>
       </c>
       <c r="J120" t="n">
-        <v>20495</v>
+        <v>13756</v>
       </c>
       <c r="K120" t="n">
-        <v>0.861</v>
+        <v>0.578</v>
       </c>
       <c r="L120" t="n">
-        <v>19953</v>
+        <v>19217</v>
       </c>
       <c r="M120" t="n">
-        <v>0.838</v>
+        <v>0.807</v>
       </c>
       <c r="N120" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="O120" t="n">
-        <v>35.5</v>
+        <v>37.4</v>
       </c>
       <c r="P120" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q120" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="R120" t="s">
         <v>31</v>
       </c>
       <c r="S120" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>694</v>
+      </c>
+      <c r="B121" t="s">
         <v>695</v>
-      </c>
-      <c r="B121" t="s">
-        <v>696</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44310</v>
       </c>
       <c r="D121" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E121" t="s">
         <v>184</v>
@@ -9614,62 +9608,64 @@
         <v>28.6</v>
       </c>
       <c r="P121" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q121" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R121" t="s">
         <v>37</v>
       </c>
       <c r="S121" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>699</v>
+      </c>
+      <c r="B122" t="s">
         <v>700</v>
       </c>
-      <c r="B122" t="s">
-        <v>701</v>
-      </c>
       <c r="C122" s="1" t="n">
-        <v>44342</v>
+        <v>44347</v>
       </c>
       <c r="D122"/>
       <c r="E122" t="s">
+        <v>701</v>
+      </c>
+      <c r="F122" t="s">
         <v>702</v>
       </c>
-      <c r="F122"/>
       <c r="G122" t="n">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="H122" t="n">
-        <v>330159</v>
+        <v>334593</v>
       </c>
       <c r="I122" t="n">
-        <v>39.88</v>
+        <v>40.416</v>
       </c>
       <c r="J122" t="n">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="K122" t="n">
-        <v>0.083</v>
+        <v>0.081</v>
       </c>
       <c r="L122" t="n">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="M122" t="n">
-        <v>0.093</v>
+        <v>0.099</v>
       </c>
       <c r="N122" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="O122" t="n">
-        <v>55.6</v>
+        <v>62.4</v>
       </c>
       <c r="P122" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q122" t="s">
         <v>703</v>
@@ -9689,7 +9685,7 @@
         <v>707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44341</v>
+        <v>44344</v>
       </c>
       <c r="D123" t="s">
         <v>708</v>
@@ -9699,31 +9695,31 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H123" t="n">
-        <v>173912</v>
+        <v>178294</v>
       </c>
       <c r="I123" t="n">
-        <v>124.268</v>
+        <v>127.399</v>
       </c>
       <c r="J123" t="n">
-        <v>7630</v>
+        <v>1618</v>
       </c>
       <c r="K123" t="n">
-        <v>5.452</v>
+        <v>1.156</v>
       </c>
       <c r="L123" t="n">
-        <v>1990</v>
+        <v>2097</v>
       </c>
       <c r="M123" t="n">
-        <v>1.422</v>
+        <v>1.498</v>
       </c>
       <c r="N123" t="n">
-        <v>0.268</v>
+        <v>0.251</v>
       </c>
       <c r="O123" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
@@ -9746,7 +9742,7 @@
         <v>712</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D124" t="s">
         <v>713</v>
@@ -9756,25 +9752,25 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H124" t="n">
-        <v>1454431</v>
+        <v>1476437</v>
       </c>
       <c r="I124" t="n">
-        <v>123.063</v>
+        <v>124.925</v>
       </c>
       <c r="J124" t="n">
-        <v>6529</v>
+        <v>4679</v>
       </c>
       <c r="K124" t="n">
-        <v>0.552</v>
+        <v>0.396</v>
       </c>
       <c r="L124" t="n">
-        <v>6219</v>
+        <v>5742</v>
       </c>
       <c r="M124" t="n">
-        <v>0.526</v>
+        <v>0.486</v>
       </c>
       <c r="N124"/>
       <c r="O124"/>
@@ -9799,7 +9795,7 @@
         <v>719</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D125" t="s">
         <v>720</v>
@@ -9809,31 +9805,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H125" t="n">
-        <v>53258116</v>
+        <v>54139309</v>
       </c>
       <c r="I125" t="n">
-        <v>631.476</v>
+        <v>641.924</v>
       </c>
       <c r="J125" t="n">
-        <v>219465</v>
+        <v>219461</v>
       </c>
       <c r="K125" t="n">
         <v>2.602</v>
       </c>
       <c r="L125" t="n">
-        <v>218033</v>
+        <v>220711</v>
       </c>
       <c r="M125" t="n">
-        <v>2.585</v>
+        <v>2.617</v>
       </c>
       <c r="N125" t="n">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="O125" t="n">
-        <v>25.4</v>
+        <v>27.9</v>
       </c>
       <c r="P125" t="s">
         <v>721</v>
@@ -9856,7 +9852,7 @@
         <v>725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44340</v>
+        <v>44345</v>
       </c>
       <c r="D126" t="s">
         <v>726</v>
@@ -9866,31 +9862,31 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H126" t="n">
-        <v>1087405</v>
+        <v>1109851</v>
       </c>
       <c r="I126" t="n">
-        <v>23.773</v>
+        <v>24.264</v>
       </c>
       <c r="J126" t="n">
-        <v>2645</v>
+        <v>4335</v>
       </c>
       <c r="K126" t="n">
-        <v>0.058</v>
+        <v>0.095</v>
       </c>
       <c r="L126" t="n">
-        <v>2965</v>
+        <v>4040</v>
       </c>
       <c r="M126" t="n">
-        <v>0.065</v>
+        <v>0.088</v>
       </c>
       <c r="N126" t="n">
-        <v>0.051</v>
+        <v>0.086</v>
       </c>
       <c r="O126" t="n">
-        <v>19.6</v>
+        <v>11.7</v>
       </c>
       <c r="P126" t="s">
         <v>727</v>
@@ -9913,7 +9909,7 @@
         <v>731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D127" t="s">
         <v>732</v>
@@ -9923,22 +9919,22 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H127" t="n">
-        <v>10131355</v>
+        <v>10207245</v>
       </c>
       <c r="I127" t="n">
-        <v>231.66</v>
+        <v>233.395</v>
       </c>
       <c r="J127" t="n">
-        <v>25454</v>
+        <v>26468</v>
       </c>
       <c r="K127" t="n">
-        <v>0.582</v>
+        <v>0.605</v>
       </c>
       <c r="L127" t="n">
-        <v>23044</v>
+        <v>23050</v>
       </c>
       <c r="M127" t="n">
         <v>0.527</v>
@@ -9966,7 +9962,7 @@
         <v>737</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="D128" t="s">
         <v>738</v>
@@ -9976,28 +9972,32 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H128" t="n">
-        <v>49701568</v>
+        <v>50338982</v>
       </c>
       <c r="I128" t="n">
-        <v>5025.233</v>
+        <v>5089.681</v>
       </c>
       <c r="J128" t="n">
-        <v>239852</v>
+        <v>189946</v>
       </c>
       <c r="K128" t="n">
-        <v>24.251</v>
+        <v>19.205</v>
       </c>
       <c r="L128" t="n">
-        <v>222310</v>
+        <v>221883</v>
       </c>
       <c r="M128" t="n">
-        <v>22.477</v>
-      </c>
-      <c r="N128"/>
-      <c r="O128"/>
+        <v>22.434</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O128" t="n">
+        <v>117.5</v>
+      </c>
       <c r="P128" t="s">
         <v>739</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="D129" t="s">
         <v>743</v>
@@ -10031,31 +10031,31 @@
         <v>745</v>
       </c>
       <c r="G129" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H129" t="n">
-        <v>176394409</v>
+        <v>177486846</v>
       </c>
       <c r="I129" t="n">
-        <v>2598.391</v>
+        <v>2614.484</v>
       </c>
       <c r="J129" t="n">
-        <v>1132061</v>
+        <v>959007</v>
       </c>
       <c r="K129" t="n">
-        <v>16.676</v>
+        <v>14.127</v>
       </c>
       <c r="L129" t="n">
-        <v>965605</v>
+        <v>958967</v>
       </c>
       <c r="M129" t="n">
-        <v>14.224</v>
+        <v>14.126</v>
       </c>
       <c r="N129" t="n">
         <v>0.003</v>
       </c>
       <c r="O129" t="n">
-        <v>379.7</v>
+        <v>363.1</v>
       </c>
       <c r="P129" t="s">
         <v>744</v>
@@ -10078,7 +10078,7 @@
         <v>749</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44341</v>
+        <v>44344</v>
       </c>
       <c r="D130" t="s">
         <v>750</v>
@@ -10088,31 +10088,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H130" t="n">
-        <v>443917179</v>
+        <v>446844325</v>
       </c>
       <c r="I130" t="n">
-        <v>1341.129</v>
+        <v>1349.972</v>
       </c>
       <c r="J130" t="n">
-        <v>337281</v>
+        <v>502059</v>
       </c>
       <c r="K130" t="n">
-        <v>1.019</v>
+        <v>1.517</v>
       </c>
       <c r="L130" t="n">
-        <v>664676</v>
+        <v>620361</v>
       </c>
       <c r="M130" t="n">
-        <v>2.008</v>
+        <v>1.874</v>
       </c>
       <c r="N130" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="O130" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="P130" t="s">
         <v>751</v>
@@ -10135,7 +10135,7 @@
         <v>756</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44343</v>
+        <v>44346</v>
       </c>
       <c r="D131" t="s">
         <v>757</v>
@@ -10145,31 +10145,27 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H131" t="n">
-        <v>2185936</v>
+        <v>2248766</v>
       </c>
       <c r="I131" t="n">
-        <v>629.277</v>
-      </c>
-      <c r="J131" t="n">
-        <v>20597</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5.929</v>
-      </c>
+        <v>647.364</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131"/>
       <c r="L131" t="n">
-        <v>17153</v>
+        <v>19385</v>
       </c>
       <c r="M131" t="n">
-        <v>4.938</v>
+        <v>5.58</v>
       </c>
       <c r="N131" t="n">
-        <v>0.22</v>
+        <v>0.194</v>
       </c>
       <c r="O131" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="P131" t="s">
         <v>184</v>
@@ -10275,8 +10271,12 @@
       <c r="M133" t="n">
         <v>0.294</v>
       </c>
-      <c r="N133"/>
-      <c r="O133"/>
+      <c r="N133" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O133" t="n">
+        <v>25.1</v>
+      </c>
       <c r="P133" t="s">
         <v>770</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>773</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D134" t="s">
         <v>774</v>
@@ -10308,31 +10308,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H134" t="n">
-        <v>542397</v>
+        <v>548421</v>
       </c>
       <c r="I134" t="n">
-        <v>36.493</v>
+        <v>36.899</v>
       </c>
       <c r="J134" t="n">
-        <v>1629</v>
+        <v>2032</v>
       </c>
       <c r="K134" t="n">
-        <v>0.11</v>
+        <v>0.137</v>
       </c>
       <c r="L134" t="n">
-        <v>1725</v>
+        <v>1790</v>
       </c>
       <c r="M134" t="n">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="N134" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="O134" t="n">
-        <v>58.3</v>
+        <v>49.3</v>
       </c>
       <c r="P134" t="s">
         <v>775</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-3255-testime-118-te-sheruar-12-raste-te-reja-dhe-1-humbje-jete-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-3661-testime-42-te-sheruar-22-raste-te-reja-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3961</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3979</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/05/coronavirus-covid-19-at-a-glance-31-may-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-3-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-632-new-covid-19-cases-449-recoveries-in-past-24-hours_i_0000130374.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-879-new-cases-1294-recoveries_i_0000130557.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5624-reporte-441-de-covid-19-1-388-pacientes-recuperados-5-637-pruebas-negativas-y-1-635-543-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5639-reporte-444-de-covid-19-2-560-pacientes-recuperados-11-264-pruebas-negativas-y-1-767-803-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-30-de-maio-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-02-de-junho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1913894008776284</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1918534804978871</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -676,7 +676,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=b29dc8dd57</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=a5ffaf9acc</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-31052021-vf81</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-03062021-km12</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/05/Boletin-COVID-19-no.434.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.438.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/05/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-30052021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-02062021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1457</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1493</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/05/covid-gr-daily-report-20210531.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210603.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/364898</t>
+    <t xml:space="preserve">http://irangov.ir/detail/365071</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1399408721273442306</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1400126396035436545</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1338,7 +1338,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1399410440153833478</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1400497587170521095</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1428,7 +1428,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210531-f0b458nd/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210603-nub31zkr/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1480,7 +1480,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/a.359862397411684/4192589187472300/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4201255483272337/4201243003273585/?__cft__[0]=AZX0nPK_vCepobUEnwaqNGlxRPUUM3SEkgMHAZ6V4VybyLfWU7RVTkJSsgerr4jI6495-6Vxcnm-SlKrQLkmMLTo_fJII2hvci-XDlKWsYaUktGQWO3B67ap8OEPIEf7c-JlC6B4ja3-HLeWfudIryCt&amp;__tn__=*bH-R</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1519,7 +1519,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/05/situasi-terkini-covid-19-di-malaysia-31052021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-03062021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1399047970604027907</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1400497588491538438</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/349621370089746/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/351595223225694/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1638,7 +1638,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-05-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-30-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1212/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-02-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1215/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1653,7 +1653,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/31.5.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/03.6.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1675,7 +1675,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=988:boletim-diario-covid-19-n-431</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1001:boletim-diario-covid-19-n-443</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1696,7 +1696,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FMay_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(31-5-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(3-6-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1716,7 +1716,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.755337418472597/755337315139274</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.756911624981843/756911531648519</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1738,7 +1738,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1rioUMJNVTLucdmsiCIjyu4-WoYiG6HXf</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1bvJ8eM7PAuu1eM5jf3HUDSEg7XedSvzo</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1759,7 +1759,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-05/COVID-19_WebSite_rapport_wekelijks_20210525_1208.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-06/COVID-19_WebSite_rapport_wekelijks_20210601_1232.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1891,7 +1891,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3855354821257034</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3863880933737756</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1398782736224206852</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1400230347237888000</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1932,7 +1932,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1399145676529934337</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1400251887224557574</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1966,7 +1966,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1h5sAV6zuxrKqQIN7eDn7v2_zAH-IP1Kx?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/19kXT2E08ourfgBQTm9NqhA8KtqPBypFM?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1987,7 +1987,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1399285772314759173</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1400372936012349442</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2050,7 +2050,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/30-05_BULETIN_DE_PRES%C4%82.pdf</t>
+    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/03-06_BULETIN_DE_PRESA%CC%86_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2073,7 +2073,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17957</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17988</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-738/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-743/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1399275078865633289</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1400348625050472449</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2575,7 +2575,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-191</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-194</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2635,7 +2635,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1398750804954255360</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1400562979570081795</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3052,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3062,31 +3062,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H2" t="n">
-        <v>695569</v>
+        <v>703725</v>
       </c>
       <c r="I2" t="n">
-        <v>241.702</v>
+        <v>244.536</v>
       </c>
       <c r="J2" t="n">
-        <v>3255</v>
+        <v>3661</v>
       </c>
       <c r="K2" t="n">
-        <v>1.131</v>
+        <v>1.272</v>
       </c>
       <c r="L2" t="n">
-        <v>2827</v>
+        <v>2864</v>
       </c>
       <c r="M2" t="n">
-        <v>0.982</v>
+        <v>0.995</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O2" t="n">
-        <v>163.5</v>
+        <v>185.6</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3109,7 +3109,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3119,27 +3119,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>190469</v>
+        <v>191856</v>
       </c>
       <c r="I3" t="n">
-        <v>2465.139</v>
+        <v>2483.091</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="M3" t="n">
-        <v>4.051</v>
+        <v>2.563</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006</v>
+        <v>0.114</v>
       </c>
       <c r="O3" t="n">
-        <v>156.5</v>
+        <v>8.8</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3162,7 +3162,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44342</v>
+        <v>44345</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3172,31 +3172,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H4" t="n">
-        <v>9840134</v>
+        <v>9994522</v>
       </c>
       <c r="I4" t="n">
-        <v>217.722</v>
+        <v>221.138</v>
       </c>
       <c r="J4" t="n">
-        <v>42754</v>
+        <v>36263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.946</v>
+        <v>0.802</v>
       </c>
       <c r="L4" t="n">
-        <v>36621</v>
+        <v>36729</v>
       </c>
       <c r="M4" t="n">
-        <v>0.81</v>
+        <v>0.813</v>
       </c>
       <c r="N4" t="n">
-        <v>0.334</v>
+        <v>0.339</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3219,7 +3219,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3229,31 +3229,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H5" t="n">
-        <v>1083960</v>
+        <v>1093012</v>
       </c>
       <c r="I5" t="n">
-        <v>365.803</v>
+        <v>368.858</v>
       </c>
       <c r="J5" t="n">
-        <v>2655</v>
+        <v>2856</v>
       </c>
       <c r="K5" t="n">
-        <v>0.896</v>
+        <v>0.964</v>
       </c>
       <c r="L5" t="n">
-        <v>3136</v>
+        <v>2914</v>
       </c>
       <c r="M5" t="n">
-        <v>1.058</v>
+        <v>0.983</v>
       </c>
       <c r="N5" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="O5" t="n">
-        <v>31.9</v>
+        <v>35.8</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3276,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3286,27 +3286,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H6" t="n">
-        <v>18398692</v>
+        <v>18643613</v>
       </c>
       <c r="I6" t="n">
-        <v>721.521</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
+        <v>731.125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>92378</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.623</v>
+      </c>
       <c r="L6" t="n">
-        <v>72515</v>
+        <v>82060</v>
       </c>
       <c r="M6" t="n">
-        <v>2.844</v>
+        <v>3.218</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>5703.6</v>
+        <v>8573.8</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3329,7 +3333,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3339,31 +3343,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H7" t="n">
-        <v>41563724</v>
+        <v>43048076</v>
       </c>
       <c r="I7" t="n">
-        <v>4614.91</v>
+        <v>4779.721</v>
       </c>
       <c r="J7" t="n">
-        <v>339485</v>
+        <v>925527</v>
       </c>
       <c r="K7" t="n">
-        <v>37.694</v>
+        <v>102.763</v>
       </c>
       <c r="L7" t="n">
-        <v>383716</v>
+        <v>447652</v>
       </c>
       <c r="M7" t="n">
-        <v>42.605</v>
+        <v>49.704</v>
       </c>
       <c r="N7" t="n">
         <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>837.8</v>
+        <v>1055.4</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3386,7 +3390,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3396,25 +3400,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>3513989</v>
+        <v>3542035</v>
       </c>
       <c r="I8" t="n">
-        <v>346.575</v>
+        <v>349.342</v>
       </c>
       <c r="J8" t="n">
-        <v>4815</v>
+        <v>9563</v>
       </c>
       <c r="K8" t="n">
-        <v>0.475</v>
+        <v>0.943</v>
       </c>
       <c r="L8" t="n">
-        <v>7886</v>
+        <v>7951</v>
       </c>
       <c r="M8" t="n">
-        <v>0.778</v>
+        <v>0.784</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3439,7 +3443,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3449,25 +3453,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H9" t="n">
-        <v>4643466</v>
+        <v>4689976</v>
       </c>
       <c r="I9" t="n">
-        <v>2728.909</v>
+        <v>2756.243</v>
       </c>
       <c r="J9" t="n">
-        <v>17285</v>
+        <v>15868</v>
       </c>
       <c r="K9" t="n">
-        <v>10.158</v>
+        <v>9.325</v>
       </c>
       <c r="L9" t="n">
-        <v>19141</v>
+        <v>17325</v>
       </c>
       <c r="M9" t="n">
-        <v>11.249</v>
+        <v>10.182</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3492,7 +3496,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3502,31 +3506,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H10" t="n">
-        <v>5937629</v>
+        <v>5993110</v>
       </c>
       <c r="I10" t="n">
-        <v>36.054</v>
+        <v>36.39</v>
       </c>
       <c r="J10" t="n">
-        <v>18178</v>
+        <v>16972</v>
       </c>
       <c r="K10" t="n">
-        <v>0.11</v>
+        <v>0.103</v>
       </c>
       <c r="L10" t="n">
-        <v>15677</v>
+        <v>16532</v>
       </c>
       <c r="M10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.095</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.091</v>
-      </c>
       <c r="O10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3549,7 +3553,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3559,27 +3563,27 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H11" t="n">
-        <v>6335432</v>
+        <v>6378212</v>
       </c>
       <c r="I11" t="n">
-        <v>670.464</v>
+        <v>674.992</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>16221</v>
+        <v>15759</v>
       </c>
       <c r="M11" t="n">
-        <v>1.717</v>
+        <v>1.668</v>
       </c>
       <c r="N11" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="O11" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3602,7 +3606,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3612,31 +3616,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H12" t="n">
-        <v>13960553</v>
+        <v>14115802</v>
       </c>
       <c r="I12" t="n">
-        <v>1204.574</v>
+        <v>1217.97</v>
       </c>
       <c r="J12" t="n">
-        <v>20604</v>
+        <v>48713</v>
       </c>
       <c r="K12" t="n">
-        <v>1.778</v>
+        <v>4.203</v>
       </c>
       <c r="L12" t="n">
-        <v>43096</v>
+        <v>45398</v>
       </c>
       <c r="M12" t="n">
-        <v>3.719</v>
+        <v>3.917</v>
       </c>
       <c r="N12" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7</v>
+        <v>23.8</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3659,7 +3663,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3669,24 +3673,28 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>133694</v>
+        <v>134842</v>
       </c>
       <c r="I13" t="n">
-        <v>336.235</v>
+        <v>339.122</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>561</v>
+        <v>524</v>
       </c>
       <c r="M13" t="n">
-        <v>1.411</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13"/>
+        <v>1.318</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O13" t="n">
+        <v>71.9</v>
+      </c>
       <c r="P13" t="s">
         <v>90</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3816,31 +3824,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H16" t="n">
-        <v>1469174</v>
+        <v>1511251</v>
       </c>
       <c r="I16" t="n">
-        <v>125.861</v>
+        <v>129.465</v>
       </c>
       <c r="J16" t="n">
-        <v>7397</v>
+        <v>14574</v>
       </c>
       <c r="K16" t="n">
-        <v>0.634</v>
+        <v>1.249</v>
       </c>
       <c r="L16" t="n">
-        <v>12258</v>
+        <v>12507</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.071</v>
       </c>
       <c r="N16" t="n">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="O16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
@@ -3863,7 +3871,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -3873,27 +3881,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H17" t="n">
-        <v>977858</v>
+        <v>984706</v>
       </c>
       <c r="I17" t="n">
-        <v>298.053</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
+        <v>300.141</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.686</v>
+      </c>
       <c r="L17" t="n">
-        <v>2189</v>
+        <v>2053</v>
       </c>
       <c r="M17" t="n">
-        <v>0.667</v>
+        <v>0.626</v>
       </c>
       <c r="N17" t="n">
-        <v>0.041</v>
+        <v>0.034</v>
       </c>
       <c r="O17" t="n">
-        <v>24.7</v>
+        <v>29.3</v>
       </c>
       <c r="P17" t="s">
         <v>112</v>
@@ -3961,7 +3973,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -3971,25 +3983,25 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H19" t="n">
-        <v>2837936</v>
+        <v>2878511</v>
       </c>
       <c r="I19" t="n">
-        <v>408.427</v>
+        <v>414.267</v>
       </c>
       <c r="J19" t="n">
-        <v>16977</v>
+        <v>15294</v>
       </c>
       <c r="K19" t="n">
-        <v>2.443</v>
+        <v>2.201</v>
       </c>
       <c r="L19" t="n">
-        <v>11925</v>
+        <v>11888</v>
       </c>
       <c r="M19" t="n">
-        <v>1.716</v>
+        <v>1.711</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
@@ -4014,7 +4026,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4024,25 +4036,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>1162111</v>
+        <v>1178067</v>
       </c>
       <c r="I20" t="n">
-        <v>69.509</v>
+        <v>70.463</v>
       </c>
       <c r="J20" t="n">
-        <v>4686</v>
+        <v>4654</v>
       </c>
       <c r="K20" t="n">
-        <v>0.28</v>
+        <v>0.278</v>
       </c>
       <c r="L20" t="n">
-        <v>6162</v>
+        <v>6340</v>
       </c>
       <c r="M20" t="n">
-        <v>0.369</v>
+        <v>0.379</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4124,7 +4136,7 @@
         <v>137</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D22" t="s">
         <v>133</v>
@@ -4134,31 +4146,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H22" t="n">
-        <v>34790069</v>
+        <v>35017704</v>
       </c>
       <c r="I22" t="n">
-        <v>921.783</v>
+        <v>927.814</v>
       </c>
       <c r="J22" t="n">
-        <v>72716</v>
+        <v>89777</v>
       </c>
       <c r="K22" t="n">
-        <v>1.927</v>
+        <v>2.379</v>
       </c>
       <c r="L22" t="n">
-        <v>81608</v>
+        <v>81163</v>
       </c>
       <c r="M22" t="n">
-        <v>2.162</v>
+        <v>2.15</v>
       </c>
       <c r="N22" t="n">
-        <v>0.037</v>
+        <v>0.029</v>
       </c>
       <c r="O22" t="n">
-        <v>27.1</v>
+        <v>34.8</v>
       </c>
       <c r="P22" t="s">
         <v>134</v>
@@ -4181,7 +4193,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -4191,15 +4203,15 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>778</v>
+        <v>974</v>
       </c>
       <c r="K23" t="n">
-        <v>1.399</v>
+        <v>1.752</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -4226,7 +4238,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4236,25 +4248,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H24" t="n">
-        <v>14824922</v>
+        <v>14981086</v>
       </c>
       <c r="I24" t="n">
-        <v>775.516</v>
+        <v>783.685</v>
       </c>
       <c r="J24" t="n">
-        <v>71749</v>
+        <v>73435</v>
       </c>
       <c r="K24" t="n">
-        <v>3.753</v>
+        <v>3.842</v>
       </c>
       <c r="L24" t="n">
-        <v>61736</v>
+        <v>64588</v>
       </c>
       <c r="M24" t="n">
-        <v>3.23</v>
+        <v>3.379</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -4324,7 +4336,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D26" t="s">
         <v>160</v>
@@ -4334,31 +4346,31 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H26" t="n">
-        <v>16964487</v>
+        <v>17259970</v>
       </c>
       <c r="I26" t="n">
-        <v>333.403</v>
+        <v>339.21</v>
       </c>
       <c r="J26" t="n">
-        <v>50978</v>
+        <v>96870</v>
       </c>
       <c r="K26" t="n">
-        <v>1.002</v>
+        <v>1.904</v>
       </c>
       <c r="L26" t="n">
-        <v>84054</v>
+        <v>84650</v>
       </c>
       <c r="M26" t="n">
-        <v>1.652</v>
+        <v>1.664</v>
       </c>
       <c r="N26" t="n">
-        <v>0.301</v>
+        <v>0.313</v>
       </c>
       <c r="O26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P26" t="s">
         <v>161</v>
@@ -4381,7 +4393,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4391,25 +4403,25 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H27" t="n">
-        <v>1016851</v>
+        <v>1030935</v>
       </c>
       <c r="I27" t="n">
-        <v>199.613</v>
+        <v>202.378</v>
       </c>
       <c r="J27" t="n">
-        <v>6856</v>
+        <v>7449</v>
       </c>
       <c r="K27" t="n">
-        <v>1.346</v>
+        <v>1.462</v>
       </c>
       <c r="L27" t="n">
-        <v>6458</v>
+        <v>6311</v>
       </c>
       <c r="M27" t="n">
-        <v>1.268</v>
+        <v>1.239</v>
       </c>
       <c r="N27" t="n">
         <v>0.261</v>
@@ -4438,7 +4450,7 @@
         <v>170</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44344</v>
+        <v>44350</v>
       </c>
       <c r="D28" t="s">
         <v>171</v>
@@ -4448,31 +4460,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H28" t="n">
-        <v>643113</v>
+        <v>654588</v>
       </c>
       <c r="I28" t="n">
-        <v>24.38</v>
+        <v>24.815</v>
       </c>
       <c r="J28" t="n">
-        <v>2064</v>
+        <v>1810</v>
       </c>
       <c r="K28" t="n">
-        <v>0.078</v>
+        <v>0.069</v>
       </c>
       <c r="L28" t="n">
-        <v>1809</v>
+        <v>1934</v>
       </c>
       <c r="M28" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
       <c r="N28" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="O28" t="n">
-        <v>39.4</v>
+        <v>55.7</v>
       </c>
       <c r="P28" t="s">
         <v>172</v>
@@ -4495,7 +4507,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44346</v>
+        <v>44350</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4505,31 +4517,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H29" t="n">
-        <v>2011339</v>
+        <v>2032200</v>
       </c>
       <c r="I29" t="n">
-        <v>489.941</v>
+        <v>495.022</v>
       </c>
       <c r="J29" t="n">
-        <v>5550</v>
+        <v>6049</v>
       </c>
       <c r="K29" t="n">
-        <v>1.352</v>
+        <v>1.473</v>
       </c>
       <c r="L29" t="n">
-        <v>5763</v>
+        <v>5379</v>
       </c>
       <c r="M29" t="n">
-        <v>1.404</v>
+        <v>1.31</v>
       </c>
       <c r="N29" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>20.8</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4552,7 +4564,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4564,31 +4576,31 @@
         <v>185</v>
       </c>
       <c r="G30" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H30" t="n">
-        <v>4328864</v>
+        <v>4393370</v>
       </c>
       <c r="I30" t="n">
-        <v>382.185</v>
+        <v>387.88</v>
       </c>
       <c r="J30" t="n">
-        <v>22407</v>
+        <v>22620</v>
       </c>
       <c r="K30" t="n">
-        <v>1.978</v>
+        <v>1.997</v>
       </c>
       <c r="L30" t="n">
-        <v>22481</v>
+        <v>22170</v>
       </c>
       <c r="M30" t="n">
-        <v>1.985</v>
+        <v>1.957</v>
       </c>
       <c r="N30" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="O30" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4611,7 +4623,7 @@
         <v>189</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D31" t="s">
         <v>190</v>
@@ -4621,31 +4633,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H31" t="n">
-        <v>7014567</v>
+        <v>7140326</v>
       </c>
       <c r="I31" t="n">
-        <v>8008.42</v>
+        <v>8151.997</v>
       </c>
       <c r="J31" t="n">
-        <v>47063</v>
+        <v>43163</v>
       </c>
       <c r="K31" t="n">
-        <v>53.731</v>
+        <v>49.279</v>
       </c>
       <c r="L31" t="n">
-        <v>48919</v>
+        <v>48366</v>
       </c>
       <c r="M31" t="n">
-        <v>55.85</v>
+        <v>55.219</v>
       </c>
       <c r="N31" t="n">
         <v>0.001</v>
       </c>
       <c r="O31" t="n">
-        <v>767.8</v>
+        <v>863.7</v>
       </c>
       <c r="P31" t="s">
         <v>42</v>
@@ -4668,7 +4680,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D32" t="s">
         <v>194</v>
@@ -4678,27 +4690,27 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="n">
-        <v>240821</v>
+        <v>164513</v>
       </c>
       <c r="K32" t="n">
-        <v>22.488</v>
+        <v>15.362</v>
       </c>
       <c r="L32" t="n">
-        <v>171203</v>
+        <v>163177</v>
       </c>
       <c r="M32" t="n">
-        <v>15.987</v>
+        <v>15.237</v>
       </c>
       <c r="N32" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O32" t="n">
-        <v>333.3</v>
+        <v>500</v>
       </c>
       <c r="P32" t="s">
         <v>42</v>
@@ -4721,7 +4733,7 @@
         <v>197</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44345</v>
+        <v>44349</v>
       </c>
       <c r="D33" t="s">
         <v>198</v>
@@ -4731,28 +4743,20 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="K33" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="L33" t="n">
-        <v>340</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="O33" t="n">
-        <v>4.3</v>
-      </c>
+        <v>0.005</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
       <c r="P33" t="s">
         <v>199</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44346</v>
+        <v>44348</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4784,31 +4788,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H34" t="n">
-        <v>32234306</v>
+        <v>32583080</v>
       </c>
       <c r="I34" t="n">
-        <v>5565.12</v>
+        <v>5625.335</v>
       </c>
       <c r="J34" t="n">
-        <v>48829</v>
+        <v>124618</v>
       </c>
       <c r="K34" t="n">
-        <v>8.43</v>
+        <v>21.515</v>
       </c>
       <c r="L34" t="n">
-        <v>138013</v>
+        <v>142244</v>
       </c>
       <c r="M34" t="n">
-        <v>23.827</v>
+        <v>24.558</v>
       </c>
       <c r="N34" t="n">
         <v>0.007</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3</v>
+        <v>143</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4831,7 +4835,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44342</v>
+        <v>44346</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4841,27 +4845,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H35" t="n">
-        <v>1531097</v>
+        <v>1551549</v>
       </c>
       <c r="I35" t="n">
-        <v>141.142</v>
+        <v>143.028</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>4782</v>
+        <v>4912</v>
       </c>
       <c r="M35" t="n">
-        <v>0.441</v>
+        <v>0.453</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2</v>
+        <v>0.238</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4884,7 +4888,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4896,25 +4900,25 @@
         <v>218</v>
       </c>
       <c r="G36" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H36" t="n">
-        <v>1368679</v>
+        <v>1378573</v>
       </c>
       <c r="I36" t="n">
-        <v>77.576</v>
+        <v>78.137</v>
       </c>
       <c r="J36" t="n">
-        <v>3662</v>
+        <v>4643</v>
       </c>
       <c r="K36" t="n">
-        <v>0.208</v>
+        <v>0.263</v>
       </c>
       <c r="L36" t="n">
-        <v>3461</v>
+        <v>3772</v>
       </c>
       <c r="M36" t="n">
-        <v>0.196</v>
+        <v>0.214</v>
       </c>
       <c r="N36" t="n">
         <v>0.289</v>
@@ -5000,7 +5004,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -5010,31 +5014,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H38" t="n">
-        <v>1433055</v>
+        <v>1443219</v>
       </c>
       <c r="I38" t="n">
-        <v>1080.296</v>
+        <v>1087.958</v>
       </c>
       <c r="J38" t="n">
-        <v>4395</v>
+        <v>3972</v>
       </c>
       <c r="K38" t="n">
-        <v>3.313</v>
+        <v>2.994</v>
       </c>
       <c r="L38" t="n">
-        <v>3826</v>
+        <v>4114</v>
       </c>
       <c r="M38" t="n">
-        <v>2.884</v>
+        <v>3.101</v>
       </c>
       <c r="N38" t="n">
-        <v>0.033</v>
+        <v>0.027</v>
       </c>
       <c r="O38" t="n">
-        <v>30.6</v>
+        <v>36.5</v>
       </c>
       <c r="P38" t="s">
         <v>231</v>
@@ -5057,7 +5061,7 @@
         <v>234</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D39" t="s">
         <v>235</v>
@@ -5067,31 +5071,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H39" t="n">
-        <v>2723959</v>
+        <v>2737938</v>
       </c>
       <c r="I39" t="n">
-        <v>23.694</v>
+        <v>23.816</v>
       </c>
       <c r="J39" t="n">
-        <v>3464</v>
+        <v>4376</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="L39" t="n">
-        <v>4674</v>
+        <v>4542</v>
       </c>
       <c r="M39" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="N39" t="n">
-        <v>0.062</v>
+        <v>0.055</v>
       </c>
       <c r="O39" t="n">
-        <v>16</v>
+        <v>18.1</v>
       </c>
       <c r="P39" t="s">
         <v>236</v>
@@ -5171,7 +5175,7 @@
         <v>244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="D41" t="s">
         <v>245</v>
@@ -5181,31 +5185,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H41" t="n">
-        <v>4993681</v>
+        <v>5078609</v>
       </c>
       <c r="I41" t="n">
-        <v>901.27</v>
+        <v>916.598</v>
       </c>
       <c r="J41" t="n">
-        <v>2604</v>
+        <v>20036</v>
       </c>
       <c r="K41" t="n">
-        <v>0.47</v>
+        <v>3.616</v>
       </c>
       <c r="L41" t="n">
-        <v>11753</v>
+        <v>16485</v>
       </c>
       <c r="M41" t="n">
-        <v>2.121</v>
+        <v>2.975</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="O41" t="n">
-        <v>98.1</v>
+        <v>128.5</v>
       </c>
       <c r="P41" t="s">
         <v>247</v>
@@ -5228,7 +5232,7 @@
         <v>250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44344</v>
+        <v>44347</v>
       </c>
       <c r="D42" t="s">
         <v>251</v>
@@ -5238,27 +5242,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42" t="n">
-        <v>435991</v>
+        <v>396726</v>
       </c>
       <c r="K42" t="n">
-        <v>6.453</v>
+        <v>5.872</v>
       </c>
       <c r="L42" t="n">
-        <v>295156</v>
+        <v>337149</v>
       </c>
       <c r="M42" t="n">
-        <v>4.369</v>
+        <v>4.99</v>
       </c>
       <c r="N42" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="O42" t="n">
-        <v>31.2</v>
+        <v>32.3</v>
       </c>
       <c r="P42" t="s">
         <v>252</v>
@@ -5338,7 +5342,7 @@
         <v>260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D44" t="s">
         <v>261</v>
@@ -5348,27 +5352,31 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H44" t="n">
-        <v>4975000</v>
+        <v>5067000</v>
       </c>
       <c r="I44" t="n">
-        <v>1247.125</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44"/>
+        <v>1270.187</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.005</v>
+      </c>
       <c r="L44" t="n">
-        <v>30571</v>
+        <v>30286</v>
       </c>
       <c r="M44" t="n">
-        <v>7.663</v>
+        <v>7.592</v>
       </c>
       <c r="N44" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="O44" t="n">
-        <v>35.7</v>
+        <v>34.5</v>
       </c>
       <c r="P44" t="s">
         <v>262</v>
@@ -5391,7 +5399,7 @@
         <v>266</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="D45" t="s">
         <v>267</v>
@@ -5401,27 +5409,27 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H45" t="n">
-        <v>60339078</v>
+        <v>61311193</v>
       </c>
       <c r="I45" t="n">
-        <v>720.175</v>
+        <v>731.777</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>170812</v>
+        <v>133773</v>
       </c>
       <c r="M45" t="n">
-        <v>2.039</v>
+        <v>1.597</v>
       </c>
       <c r="N45" t="n">
-        <v>0.058</v>
+        <v>0.042</v>
       </c>
       <c r="O45" t="n">
-        <v>17.2</v>
+        <v>23.8</v>
       </c>
       <c r="P45" t="s">
         <v>268</v>
@@ -5444,7 +5452,7 @@
         <v>272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44342</v>
+        <v>44344</v>
       </c>
       <c r="D46" t="s">
         <v>273</v>
@@ -5454,27 +5462,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H46" t="n">
-        <v>1164383</v>
+        <v>1170855</v>
       </c>
       <c r="I46" t="n">
-        <v>37.473</v>
+        <v>37.681</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>2921</v>
+        <v>3015</v>
       </c>
       <c r="M46" t="n">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
       <c r="N46" t="n">
         <v>0.012</v>
       </c>
       <c r="O46" t="n">
-        <v>80.2</v>
+        <v>83.1</v>
       </c>
       <c r="P46" t="s">
         <v>275</v>
@@ -5497,7 +5505,7 @@
         <v>278</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
@@ -5507,31 +5515,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H47" t="n">
-        <v>9520565</v>
+        <v>9673644</v>
       </c>
       <c r="I47" t="n">
-        <v>913.414</v>
+        <v>928.101</v>
       </c>
       <c r="J47" t="n">
-        <v>22986</v>
+        <v>46251</v>
       </c>
       <c r="K47" t="n">
-        <v>2.205</v>
+        <v>4.437</v>
       </c>
       <c r="L47" t="n">
-        <v>44535</v>
+        <v>42185</v>
       </c>
       <c r="M47" t="n">
-        <v>4.273</v>
+        <v>4.047</v>
       </c>
       <c r="N47" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="O47" t="n">
-        <v>28</v>
+        <v>30.2</v>
       </c>
       <c r="P47" t="s">
         <v>281</v>
@@ -5554,7 +5562,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5564,31 +5572,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H48" t="n">
-        <v>1420011</v>
+        <v>1438805</v>
       </c>
       <c r="I48" t="n">
-        <v>79.261</v>
+        <v>80.31</v>
       </c>
       <c r="J48" t="n">
-        <v>1104</v>
+        <v>7148</v>
       </c>
       <c r="K48" t="n">
-        <v>0.062</v>
+        <v>0.399</v>
       </c>
       <c r="L48" t="n">
-        <v>5263</v>
+        <v>5006</v>
       </c>
       <c r="M48" t="n">
-        <v>0.294</v>
+        <v>0.279</v>
       </c>
       <c r="N48" t="n">
-        <v>0.184</v>
+        <v>0.196</v>
       </c>
       <c r="O48" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="P48" t="s">
         <v>288</v>
@@ -5664,7 +5672,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5676,25 +5684,25 @@
         <v>302</v>
       </c>
       <c r="G50" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H50" t="n">
-        <v>5386794</v>
+        <v>5434051</v>
       </c>
       <c r="I50" t="n">
-        <v>557.619</v>
+        <v>562.511</v>
       </c>
       <c r="J50" t="n">
-        <v>12782</v>
+        <v>18673</v>
       </c>
       <c r="K50" t="n">
-        <v>1.323</v>
+        <v>1.933</v>
       </c>
       <c r="L50" t="n">
-        <v>12467</v>
+        <v>14040</v>
       </c>
       <c r="M50" t="n">
-        <v>1.291</v>
+        <v>1.453</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5772,7 +5780,7 @@
         <v>311</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -5784,25 +5792,25 @@
         <v>314</v>
       </c>
       <c r="G52" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H52" t="n">
-        <v>346792257</v>
+        <v>357433846</v>
       </c>
       <c r="I52" t="n">
-        <v>251.298</v>
+        <v>259.009</v>
       </c>
       <c r="J52" t="n">
-        <v>1925374</v>
+        <v>3651198</v>
       </c>
       <c r="K52" t="n">
-        <v>1.395</v>
+        <v>2.646</v>
       </c>
       <c r="L52" t="n">
-        <v>2028297</v>
+        <v>2627712</v>
       </c>
       <c r="M52" t="n">
-        <v>1.47</v>
+        <v>1.904</v>
       </c>
       <c r="N52"/>
       <c r="O52"/>
@@ -5827,7 +5835,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -5837,31 +5845,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H53" t="n">
-        <v>11251308</v>
+        <v>11411006</v>
       </c>
       <c r="I53" t="n">
-        <v>41.135</v>
+        <v>41.719</v>
       </c>
       <c r="J53" t="n">
-        <v>53491</v>
+        <v>58367</v>
       </c>
       <c r="K53" t="n">
-        <v>0.196</v>
+        <v>0.213</v>
       </c>
       <c r="L53" t="n">
-        <v>61588</v>
+        <v>58607</v>
       </c>
       <c r="M53" t="n">
-        <v>0.225</v>
+        <v>0.214</v>
       </c>
       <c r="N53" t="n">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
       <c r="O53" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="P53" t="s">
         <v>319</v>
@@ -5884,7 +5892,7 @@
         <v>323</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="D54" t="s">
         <v>324</v>
@@ -5894,27 +5902,27 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H54" t="n">
-        <v>19936548</v>
+        <v>20183510</v>
       </c>
       <c r="I54" t="n">
-        <v>237.36</v>
+        <v>240.3</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>126004</v>
+        <v>125138</v>
       </c>
       <c r="M54" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="N54" t="n">
         <v>0.079</v>
       </c>
       <c r="O54" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="P54" t="s">
         <v>325</v>
@@ -5937,7 +5945,7 @@
         <v>329</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="D55" t="s">
         <v>330</v>
@@ -5947,31 +5955,31 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H55" t="n">
-        <v>10442991</v>
+        <v>10530876</v>
       </c>
       <c r="I55" t="n">
-        <v>259.631</v>
+        <v>261.816</v>
       </c>
       <c r="J55" t="n">
-        <v>39380</v>
+        <v>46905</v>
       </c>
       <c r="K55" t="n">
-        <v>0.979</v>
+        <v>1.166</v>
       </c>
       <c r="L55" t="n">
-        <v>40283</v>
+        <v>39985</v>
       </c>
       <c r="M55" t="n">
-        <v>1.002</v>
+        <v>0.994</v>
       </c>
       <c r="N55" t="n">
-        <v>0.104</v>
+        <v>0.101</v>
       </c>
       <c r="O55" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="P55" t="s">
         <v>332</v>
@@ -6051,7 +6059,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6061,31 +6069,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H57" t="n">
-        <v>16948495</v>
+        <v>17010116</v>
       </c>
       <c r="I57" t="n">
-        <v>1958.109</v>
+        <v>1965.229</v>
       </c>
       <c r="J57" t="n">
-        <v>29512</v>
+        <v>16990</v>
       </c>
       <c r="K57" t="n">
-        <v>3.41</v>
+        <v>1.963</v>
       </c>
       <c r="L57" t="n">
-        <v>26506</v>
+        <v>22473</v>
       </c>
       <c r="M57" t="n">
-        <v>3.062</v>
+        <v>2.596</v>
       </c>
       <c r="N57" t="n">
         <v>0.001</v>
       </c>
       <c r="O57" t="n">
-        <v>1717.9</v>
+        <v>1404.6</v>
       </c>
       <c r="P57" t="s">
         <v>42</v>
@@ -6108,7 +6116,7 @@
         <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D58" t="s">
         <v>349</v>
@@ -6120,31 +6128,31 @@
         <v>351</v>
       </c>
       <c r="G58" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H58" t="n">
-        <v>28113732</v>
+        <v>28277767</v>
       </c>
       <c r="I58" t="n">
-        <v>464.983</v>
+        <v>467.696</v>
       </c>
       <c r="J58" t="n">
-        <v>30210</v>
+        <v>35665</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="L58" t="n">
-        <v>63817</v>
+        <v>55802</v>
       </c>
       <c r="M58" t="n">
-        <v>1.055</v>
+        <v>0.923</v>
       </c>
       <c r="N58" t="n">
-        <v>0.052</v>
+        <v>0.049</v>
       </c>
       <c r="O58" t="n">
-        <v>19.3</v>
+        <v>20.4</v>
       </c>
       <c r="P58" t="s">
         <v>352</v>
@@ -6167,7 +6175,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="D59" t="s">
         <v>349</v>
@@ -6179,31 +6187,31 @@
         <v>351</v>
       </c>
       <c r="G59" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H59" t="n">
-        <v>66172255</v>
+        <v>66620345</v>
       </c>
       <c r="I59" t="n">
-        <v>1094.447</v>
+        <v>1101.858</v>
       </c>
       <c r="J59" t="n">
-        <v>86977</v>
+        <v>226272</v>
       </c>
       <c r="K59" t="n">
-        <v>1.439</v>
+        <v>3.742</v>
       </c>
       <c r="L59" t="n">
-        <v>215184</v>
+        <v>205824</v>
       </c>
       <c r="M59" t="n">
-        <v>3.559</v>
+        <v>3.404</v>
       </c>
       <c r="N59" t="n">
         <v>0.015</v>
       </c>
       <c r="O59" t="n">
-        <v>65.1</v>
+        <v>67.4</v>
       </c>
       <c r="P59" t="s">
         <v>352</v>
@@ -6279,7 +6287,7 @@
         <v>364</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="D61" t="s">
         <v>365</v>
@@ -6289,31 +6297,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H61" t="n">
-        <v>13716480</v>
+        <v>13860464</v>
       </c>
       <c r="I61" t="n">
-        <v>108.451</v>
+        <v>109.589</v>
       </c>
       <c r="J61" t="n">
-        <v>83703</v>
+        <v>76590</v>
       </c>
       <c r="K61" t="n">
-        <v>0.662</v>
+        <v>0.606</v>
       </c>
       <c r="L61" t="n">
-        <v>80446</v>
+        <v>78568</v>
       </c>
       <c r="M61" t="n">
-        <v>0.636</v>
+        <v>0.621</v>
       </c>
       <c r="N61" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="O61" t="n">
-        <v>23</v>
+        <v>25.2</v>
       </c>
       <c r="P61" t="s">
         <v>366</v>
@@ -6503,7 +6511,7 @@
         <v>386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="D65" t="s">
         <v>387</v>
@@ -6513,20 +6521,28 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
-        <v>611357</v>
+        <v>619091</v>
       </c>
       <c r="I65" t="n">
-        <v>316.311</v>
+        <v>320.312</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
+      <c r="L65" t="n">
+        <v>2747</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O65" t="n">
+        <v>143.5</v>
+      </c>
       <c r="P65" t="s">
         <v>389</v>
       </c>
@@ -6548,7 +6564,7 @@
         <v>392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D66" t="s">
         <v>393</v>
@@ -6558,31 +6574,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H66" t="n">
-        <v>2607769</v>
+        <v>2640588</v>
       </c>
       <c r="I66" t="n">
-        <v>610.638</v>
+        <v>618.323</v>
       </c>
       <c r="J66" t="n">
-        <v>10962</v>
+        <v>11043</v>
       </c>
       <c r="K66" t="n">
-        <v>2.567</v>
+        <v>2.586</v>
       </c>
       <c r="L66" t="n">
-        <v>10391</v>
+        <v>10523</v>
       </c>
       <c r="M66" t="n">
-        <v>2.433</v>
+        <v>2.464</v>
       </c>
       <c r="N66" t="n">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
       <c r="O66" t="n">
-        <v>8.3</v>
+        <v>8.1</v>
       </c>
       <c r="P66" t="s">
         <v>394</v>
@@ -6605,7 +6621,7 @@
         <v>398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="D67" t="s">
         <v>399</v>
@@ -6615,28 +6631,28 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H67" t="n">
-        <v>250496</v>
+        <v>254153</v>
       </c>
       <c r="I67" t="n">
-        <v>34.43</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2216</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.305</v>
-      </c>
+        <v>34.932</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67"/>
       <c r="L67" t="n">
-        <v>2038</v>
+        <v>2024</v>
       </c>
       <c r="M67" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N67"/>
-      <c r="O67"/>
+        <v>0.278</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O67" t="n">
+        <v>295.2</v>
+      </c>
       <c r="P67" t="s">
         <v>400</v>
       </c>
@@ -6658,7 +6674,7 @@
         <v>403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="D68" t="s">
         <v>404</v>
@@ -6670,28 +6686,32 @@
         <v>406</v>
       </c>
       <c r="G68" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H68" t="n">
-        <v>2626819</v>
+        <v>2648925</v>
       </c>
       <c r="I68" t="n">
-        <v>1392.65</v>
+        <v>1404.37</v>
       </c>
       <c r="J68" t="n">
-        <v>14546</v>
+        <v>11679</v>
       </c>
       <c r="K68" t="n">
-        <v>7.712</v>
+        <v>6.192</v>
       </c>
       <c r="L68" t="n">
-        <v>10617</v>
+        <v>10018</v>
       </c>
       <c r="M68" t="n">
-        <v>5.629</v>
-      </c>
-      <c r="N68"/>
-      <c r="O68"/>
+        <v>5.311</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O68" t="n">
+        <v>36.8</v>
+      </c>
       <c r="P68" t="s">
         <v>405</v>
       </c>
@@ -6713,7 +6733,7 @@
         <v>409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44346</v>
+        <v>44348</v>
       </c>
       <c r="D69" t="s">
         <v>410</v>
@@ -6723,21 +6743,21 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H69" t="n">
-        <v>4392200</v>
+        <v>4429826</v>
       </c>
       <c r="I69" t="n">
-        <v>643.504</v>
+        <v>649.017</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>12858</v>
+        <v>14393</v>
       </c>
       <c r="M69" t="n">
-        <v>1.884</v>
+        <v>2.109</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6762,7 +6782,7 @@
         <v>414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D70" t="s">
         <v>415</v>
@@ -6772,15 +6792,15 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="n">
-        <v>3935</v>
+        <v>3718</v>
       </c>
       <c r="K70" t="n">
-        <v>0.573</v>
+        <v>0.541</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -6807,7 +6827,7 @@
         <v>420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="D71" t="s">
         <v>421</v>
@@ -6817,31 +6837,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H71" t="n">
-        <v>46432</v>
+        <v>47110</v>
       </c>
       <c r="I71" t="n">
-        <v>1217.505</v>
+        <v>1235.283</v>
       </c>
       <c r="J71" t="n">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="K71" t="n">
-        <v>1.94</v>
+        <v>9.413</v>
       </c>
       <c r="L71" t="n">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="M71" t="n">
-        <v>4.667</v>
+        <v>5.769</v>
       </c>
       <c r="N71" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O71" t="n">
-        <v>90.9</v>
+        <v>100</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6864,7 +6884,7 @@
         <v>426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44343</v>
+        <v>44347</v>
       </c>
       <c r="D72" t="s">
         <v>427</v>
@@ -6874,31 +6894,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H72" t="n">
-        <v>3438503</v>
+        <v>3503918</v>
       </c>
       <c r="I72" t="n">
-        <v>1263.092</v>
+        <v>1287.121</v>
       </c>
       <c r="J72" t="n">
-        <v>21370</v>
+        <v>22431</v>
       </c>
       <c r="K72" t="n">
-        <v>7.85</v>
+        <v>8.24</v>
       </c>
       <c r="L72" t="n">
-        <v>19020</v>
+        <v>19850</v>
       </c>
       <c r="M72" t="n">
-        <v>6.987</v>
+        <v>7.292</v>
       </c>
       <c r="N72" t="n">
-        <v>0.031</v>
+        <v>0.024</v>
       </c>
       <c r="O72" t="n">
-        <v>32.3</v>
+        <v>41.7</v>
       </c>
       <c r="P72" t="s">
         <v>428</v>
@@ -6921,7 +6941,7 @@
         <v>431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44345</v>
+        <v>44349</v>
       </c>
       <c r="D73" t="s">
         <v>432</v>
@@ -6931,31 +6951,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H73" t="n">
-        <v>2894879</v>
+        <v>2918328</v>
       </c>
       <c r="I73" t="n">
-        <v>4624.585</v>
+        <v>4662.045</v>
       </c>
       <c r="J73" t="n">
-        <v>5930</v>
+        <v>6881</v>
       </c>
       <c r="K73" t="n">
-        <v>9.473</v>
+        <v>10.992</v>
       </c>
       <c r="L73" t="n">
-        <v>6447</v>
+        <v>6949</v>
       </c>
       <c r="M73" t="n">
-        <v>10.299</v>
+        <v>11.101</v>
       </c>
       <c r="N73" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O73" t="n">
-        <v>158.3</v>
+        <v>135.9</v>
       </c>
       <c r="P73" t="s">
         <v>433</v>
@@ -6978,7 +6998,7 @@
         <v>436</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D74" t="s">
         <v>437</v>
@@ -6988,31 +7008,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H74" t="n">
-        <v>203455</v>
+        <v>204569</v>
       </c>
       <c r="I74" t="n">
-        <v>7.347</v>
+        <v>7.388</v>
       </c>
       <c r="J74" t="n">
-        <v>573</v>
+        <v>459</v>
       </c>
       <c r="K74" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="L74" t="n">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="M74" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="N74" t="n">
-        <v>0.145</v>
+        <v>0.117</v>
       </c>
       <c r="O74" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="P74" t="s">
         <v>438</v>
@@ -7035,7 +7055,7 @@
         <v>442</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="D75" t="s">
         <v>443</v>
@@ -7045,20 +7065,28 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H75" t="n">
-        <v>347638</v>
+        <v>356134</v>
       </c>
       <c r="I75" t="n">
-        <v>18.172</v>
+        <v>18.617</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
+      <c r="L75" t="n">
+        <v>1570</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O75" t="n">
+        <v>180.2</v>
+      </c>
       <c r="P75" t="s">
         <v>444</v>
       </c>
@@ -7080,7 +7108,7 @@
         <v>448</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D76" t="s">
         <v>449</v>
@@ -7090,31 +7118,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H76" t="n">
-        <v>12066124</v>
+        <v>12371406</v>
       </c>
       <c r="I76" t="n">
-        <v>372.802</v>
+        <v>382.235</v>
       </c>
       <c r="J76" t="n">
-        <v>89227</v>
+        <v>104109</v>
       </c>
       <c r="K76" t="n">
-        <v>2.757</v>
+        <v>3.217</v>
       </c>
       <c r="L76" t="n">
-        <v>109191</v>
+        <v>122579</v>
       </c>
       <c r="M76" t="n">
-        <v>3.374</v>
+        <v>3.787</v>
       </c>
       <c r="N76" t="n">
-        <v>0.07</v>
+        <v>0.063</v>
       </c>
       <c r="O76" t="n">
-        <v>14.2</v>
+        <v>15.8</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
@@ -7137,7 +7165,7 @@
         <v>454</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44346</v>
+        <v>44350</v>
       </c>
       <c r="D77" t="s">
         <v>455</v>
@@ -7147,31 +7175,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H77" t="n">
-        <v>877954</v>
+        <v>897962</v>
       </c>
       <c r="I77" t="n">
-        <v>1624.211</v>
+        <v>1661.225</v>
       </c>
       <c r="J77" t="n">
-        <v>4356</v>
+        <v>3832</v>
       </c>
       <c r="K77" t="n">
-        <v>8.059</v>
+        <v>7.089</v>
       </c>
       <c r="L77" t="n">
-        <v>4853</v>
+        <v>4860</v>
       </c>
       <c r="M77" t="n">
-        <v>8.978</v>
+        <v>8.991</v>
       </c>
       <c r="N77" t="n">
-        <v>0.228</v>
+        <v>0.164</v>
       </c>
       <c r="O77" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="P77" t="s">
         <v>456</v>
@@ -7194,7 +7222,7 @@
         <v>460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D78" t="s">
         <v>461</v>
@@ -7204,31 +7232,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H78" t="n">
-        <v>926764</v>
+        <v>933864</v>
       </c>
       <c r="I78" t="n">
-        <v>2098.94</v>
+        <v>2115.02</v>
       </c>
       <c r="J78" t="n">
-        <v>1722</v>
+        <v>2799</v>
       </c>
       <c r="K78" t="n">
-        <v>3.9</v>
+        <v>6.339</v>
       </c>
       <c r="L78" t="n">
-        <v>2027</v>
+        <v>2200</v>
       </c>
       <c r="M78" t="n">
-        <v>4.591</v>
+        <v>4.983</v>
       </c>
       <c r="N78" t="n">
         <v>0.002</v>
       </c>
       <c r="O78" t="n">
-        <v>489.3</v>
+        <v>416.2</v>
       </c>
       <c r="P78" t="s">
         <v>462</v>
@@ -7300,7 +7328,7 @@
         <v>472</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D80" t="s">
         <v>473</v>
@@ -7310,31 +7338,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H80" t="n">
-        <v>6607253</v>
+        <v>6660277</v>
       </c>
       <c r="I80" t="n">
-        <v>51.246</v>
+        <v>51.657</v>
       </c>
       <c r="J80" t="n">
-        <v>1392</v>
+        <v>6413</v>
       </c>
       <c r="K80" t="n">
-        <v>0.011</v>
+        <v>0.05</v>
       </c>
       <c r="L80" t="n">
-        <v>9391</v>
+        <v>9178</v>
       </c>
       <c r="M80" t="n">
-        <v>0.073</v>
+        <v>0.071</v>
       </c>
       <c r="N80" t="n">
-        <v>0.185</v>
+        <v>0.192</v>
       </c>
       <c r="O80" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="P80" t="s">
         <v>475</v>
@@ -7357,7 +7385,7 @@
         <v>478</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D81" t="s">
         <v>479</v>
@@ -7367,25 +7395,21 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H81" t="n">
-        <v>1115509</v>
+        <v>1131074</v>
       </c>
       <c r="I81" t="n">
-        <v>276.529</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2644</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.655</v>
-      </c>
+        <v>280.388</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81"/>
       <c r="L81" t="n">
-        <v>3681</v>
+        <v>3705</v>
       </c>
       <c r="M81" t="n">
-        <v>0.913</v>
+        <v>0.918</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
@@ -7410,7 +7434,7 @@
         <v>483</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D82" t="s">
         <v>484</v>
@@ -7420,31 +7444,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H82" t="n">
-        <v>2933544</v>
+        <v>2955253</v>
       </c>
       <c r="I82" t="n">
-        <v>894.839</v>
+        <v>901.461</v>
       </c>
       <c r="J82" t="n">
-        <v>7837</v>
+        <v>7102</v>
       </c>
       <c r="K82" t="n">
-        <v>2.391</v>
+        <v>2.166</v>
       </c>
       <c r="L82" t="n">
-        <v>7396</v>
+        <v>7391</v>
       </c>
       <c r="M82" t="n">
-        <v>2.256</v>
+        <v>2.255</v>
       </c>
       <c r="N82" t="n">
-        <v>0.085</v>
+        <v>0.103</v>
       </c>
       <c r="O82" t="n">
-        <v>11.7</v>
+        <v>9.8</v>
       </c>
       <c r="P82" t="s">
         <v>42</v>
@@ -7467,7 +7491,7 @@
         <v>488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D83" t="s">
         <v>489</v>
@@ -7477,31 +7501,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H83" t="n">
-        <v>5993324</v>
+        <v>6020249</v>
       </c>
       <c r="I83" t="n">
-        <v>162.374</v>
+        <v>163.104</v>
       </c>
       <c r="J83" t="n">
-        <v>4434</v>
+        <v>8770</v>
       </c>
       <c r="K83" t="n">
-        <v>0.12</v>
+        <v>0.238</v>
       </c>
       <c r="L83" t="n">
-        <v>8429</v>
+        <v>8361</v>
       </c>
       <c r="M83" t="n">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="N83" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="O83" t="n">
-        <v>28.1</v>
+        <v>25.4</v>
       </c>
       <c r="P83" t="s">
         <v>490</v>
@@ -7524,7 +7548,7 @@
         <v>494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44338</v>
+        <v>44350</v>
       </c>
       <c r="D84" t="s">
         <v>495</v>
@@ -7534,31 +7558,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H84" t="n">
-        <v>544605</v>
+        <v>557044</v>
       </c>
       <c r="I84" t="n">
-        <v>17.424</v>
+        <v>17.822</v>
       </c>
       <c r="J84" t="n">
-        <v>1710</v>
+        <v>999</v>
       </c>
       <c r="K84" t="n">
-        <v>0.055</v>
+        <v>0.032</v>
       </c>
       <c r="L84" t="n">
-        <v>1179</v>
+        <v>1064</v>
       </c>
       <c r="M84" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="N84" t="n">
-        <v>0.019</v>
+        <v>0.039</v>
       </c>
       <c r="O84" t="n">
-        <v>52.2</v>
+        <v>25.5</v>
       </c>
       <c r="P84" t="s">
         <v>496</v>
@@ -7581,7 +7605,7 @@
         <v>500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D85" t="s">
         <v>501</v>
@@ -7591,31 +7615,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H85" t="n">
-        <v>2621413</v>
+        <v>2626468</v>
       </c>
       <c r="I85" t="n">
-        <v>48.179</v>
+        <v>48.272</v>
       </c>
       <c r="J85" t="n">
-        <v>1771</v>
+        <v>1448</v>
       </c>
       <c r="K85" t="n">
-        <v>0.033</v>
+        <v>0.027</v>
       </c>
       <c r="L85" t="n">
-        <v>1398</v>
+        <v>1429</v>
       </c>
       <c r="M85" t="n">
         <v>0.026</v>
       </c>
       <c r="N85" t="n">
-        <v>0.038</v>
+        <v>0.053</v>
       </c>
       <c r="O85" t="n">
-        <v>26.7</v>
+        <v>18.8</v>
       </c>
       <c r="P85" t="s">
         <v>502</v>
@@ -7638,7 +7662,7 @@
         <v>506</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D86" t="s">
         <v>507</v>
@@ -7648,31 +7672,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H86" t="n">
-        <v>435661</v>
+        <v>441606</v>
       </c>
       <c r="I86" t="n">
-        <v>171.458</v>
+        <v>173.798</v>
       </c>
       <c r="J86" t="n">
-        <v>2234</v>
+        <v>3146</v>
       </c>
       <c r="K86" t="n">
-        <v>0.879</v>
+        <v>1.238</v>
       </c>
       <c r="L86" t="n">
-        <v>1840</v>
+        <v>2105</v>
       </c>
       <c r="M86" t="n">
-        <v>0.724</v>
+        <v>0.828</v>
       </c>
       <c r="N86" t="n">
-        <v>0.182</v>
+        <v>0.209</v>
       </c>
       <c r="O86" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="P86" t="s">
         <v>509</v>
@@ -7695,7 +7719,7 @@
         <v>513</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D87" t="s">
         <v>514</v>
@@ -7705,31 +7729,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H87" t="n">
-        <v>3057424</v>
+        <v>3106938</v>
       </c>
       <c r="I87" t="n">
-        <v>104.933</v>
+        <v>106.633</v>
       </c>
       <c r="J87" t="n">
-        <v>15055</v>
+        <v>18562</v>
       </c>
       <c r="K87" t="n">
-        <v>0.517</v>
+        <v>0.637</v>
       </c>
       <c r="L87" t="n">
-        <v>17301</v>
+        <v>15553</v>
       </c>
       <c r="M87" t="n">
-        <v>0.594</v>
+        <v>0.534</v>
       </c>
       <c r="N87" t="n">
-        <v>0.337</v>
+        <v>0.319</v>
       </c>
       <c r="O87" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P87" t="s">
         <v>515</v>
@@ -7752,7 +7776,7 @@
         <v>519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="D88" t="s">
         <v>520</v>
@@ -7762,27 +7786,27 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H88" t="n">
-        <v>9657546</v>
+        <v>9869645</v>
       </c>
       <c r="I88" t="n">
-        <v>563.619</v>
+        <v>575.998</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>17229</v>
+        <v>19498</v>
       </c>
       <c r="M88" t="n">
-        <v>1.005</v>
+        <v>1.138</v>
       </c>
       <c r="N88" t="n">
-        <v>0.086</v>
+        <v>0.076</v>
       </c>
       <c r="O88" t="n">
-        <v>11.6</v>
+        <v>13.2</v>
       </c>
       <c r="P88" t="s">
         <v>522</v>
@@ -7805,7 +7829,7 @@
         <v>526</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D89" t="s">
         <v>527</v>
@@ -7815,25 +7839,25 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H89" t="n">
-        <v>2143395</v>
+        <v>2159702</v>
       </c>
       <c r="I89" t="n">
-        <v>444.482</v>
+        <v>447.863</v>
       </c>
       <c r="J89" t="n">
-        <v>3056</v>
+        <v>4771</v>
       </c>
       <c r="K89" t="n">
-        <v>0.634</v>
+        <v>0.989</v>
       </c>
       <c r="L89" t="n">
-        <v>4499</v>
+        <v>4699</v>
       </c>
       <c r="M89" t="n">
-        <v>0.933</v>
+        <v>0.974</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -7911,7 +7935,7 @@
         <v>537</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44346</v>
+        <v>44350</v>
       </c>
       <c r="D91" t="s">
         <v>538</v>
@@ -7921,27 +7945,27 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H91" t="n">
-        <v>791466</v>
+        <v>804117</v>
       </c>
       <c r="I91" t="n">
-        <v>379.895</v>
+        <v>385.968</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>4226</v>
+        <v>3691</v>
       </c>
       <c r="M91" t="n">
-        <v>2.028</v>
+        <v>1.772</v>
       </c>
       <c r="N91" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="O91" t="n">
-        <v>143.6</v>
+        <v>132.5</v>
       </c>
       <c r="P91" t="s">
         <v>42</v>
@@ -7964,7 +7988,7 @@
         <v>542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="D92" t="s">
         <v>543</v>
@@ -7974,31 +7998,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H92" t="n">
-        <v>5661903</v>
+        <v>5715218</v>
       </c>
       <c r="I92" t="n">
-        <v>1044.392</v>
+        <v>1054.227</v>
       </c>
       <c r="J92" t="n">
-        <v>7643</v>
+        <v>18881</v>
       </c>
       <c r="K92" t="n">
-        <v>1.41</v>
+        <v>3.483</v>
       </c>
       <c r="L92" t="n">
-        <v>18687</v>
+        <v>17823</v>
       </c>
       <c r="M92" t="n">
-        <v>3.447</v>
+        <v>3.288</v>
       </c>
       <c r="N92" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="O92" t="n">
-        <v>48.6</v>
+        <v>51.7</v>
       </c>
       <c r="P92" t="s">
         <v>544</v>
@@ -8066,7 +8090,7 @@
         <v>553</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D94" t="s">
         <v>554</v>
@@ -8076,25 +8100,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H94" t="n">
-        <v>13269214</v>
+        <v>13420779</v>
       </c>
       <c r="I94" t="n">
-        <v>60.071</v>
+        <v>60.757</v>
       </c>
       <c r="J94" t="n">
-        <v>47633</v>
+        <v>52859</v>
       </c>
       <c r="K94" t="n">
-        <v>0.216</v>
+        <v>0.239</v>
       </c>
       <c r="L94" t="n">
-        <v>54953</v>
+        <v>51833</v>
       </c>
       <c r="M94" t="n">
-        <v>0.249</v>
+        <v>0.235</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8119,7 +8143,7 @@
         <v>558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D95" t="s">
         <v>559</v>
@@ -8127,27 +8151,27 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>3178</v>
+        <v>2382</v>
       </c>
       <c r="K95" t="n">
-        <v>0.623</v>
+        <v>0.467</v>
       </c>
       <c r="L95" t="n">
-        <v>2809</v>
+        <v>2615</v>
       </c>
       <c r="M95" t="n">
-        <v>0.551</v>
+        <v>0.513</v>
       </c>
       <c r="N95" t="n">
-        <v>0.131</v>
+        <v>0.139</v>
       </c>
       <c r="O95" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="P95" t="s">
         <v>560</v>
@@ -8170,7 +8194,7 @@
         <v>564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44345</v>
+        <v>44349</v>
       </c>
       <c r="D96" t="s">
         <v>565</v>
@@ -8180,31 +8204,31 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H96" t="n">
-        <v>2639502</v>
+        <v>2673992</v>
       </c>
       <c r="I96" t="n">
-        <v>611.737</v>
+        <v>619.73</v>
       </c>
       <c r="J96" t="n">
-        <v>10130</v>
+        <v>10866</v>
       </c>
       <c r="K96" t="n">
-        <v>2.348</v>
+        <v>2.518</v>
       </c>
       <c r="L96" t="n">
-        <v>9323</v>
+        <v>9567</v>
       </c>
       <c r="M96" t="n">
-        <v>2.161</v>
+        <v>2.217</v>
       </c>
       <c r="N96" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="O96" t="n">
-        <v>17.9</v>
+        <v>17.1</v>
       </c>
       <c r="P96" t="s">
         <v>566</v>
@@ -8227,7 +8251,7 @@
         <v>570</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D97" t="s">
         <v>571</v>
@@ -8237,31 +8261,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H97" t="n">
-        <v>1284759</v>
+        <v>1310116</v>
       </c>
       <c r="I97" t="n">
-        <v>180.127</v>
+        <v>183.682</v>
       </c>
       <c r="J97" t="n">
-        <v>8506</v>
+        <v>8651</v>
       </c>
       <c r="K97" t="n">
-        <v>1.193</v>
+        <v>1.213</v>
       </c>
       <c r="L97" t="n">
-        <v>7647</v>
+        <v>8244</v>
       </c>
       <c r="M97" t="n">
-        <v>1.072</v>
+        <v>1.156</v>
       </c>
       <c r="N97" t="n">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="O97" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P97" t="s">
         <v>572</v>
@@ -8284,7 +8308,7 @@
         <v>576</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44312</v>
+        <v>44343</v>
       </c>
       <c r="D98" t="s">
         <v>577</v>
@@ -8294,31 +8318,31 @@
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="H98" t="n">
-        <v>3459353</v>
+        <v>4007521</v>
       </c>
       <c r="I98" t="n">
-        <v>104.918</v>
+        <v>121.544</v>
       </c>
       <c r="J98" t="n">
-        <v>2211</v>
+        <v>7014</v>
       </c>
       <c r="K98" t="n">
-        <v>0.067</v>
+        <v>0.213</v>
       </c>
       <c r="L98" t="n">
-        <v>6695</v>
+        <v>10173</v>
       </c>
       <c r="M98" t="n">
-        <v>0.203</v>
+        <v>0.309</v>
       </c>
       <c r="N98" t="n">
-        <v>0.154</v>
+        <v>0.089</v>
       </c>
       <c r="O98" t="n">
-        <v>6.5</v>
+        <v>11.2</v>
       </c>
       <c r="P98" t="s">
         <v>161</v>
@@ -8341,7 +8365,7 @@
         <v>580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44346</v>
+        <v>44348</v>
       </c>
       <c r="D99" t="s">
         <v>581</v>
@@ -8351,31 +8375,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H99" t="n">
-        <v>12576976</v>
+        <v>12682374</v>
       </c>
       <c r="I99" t="n">
-        <v>114.773</v>
+        <v>115.735</v>
       </c>
       <c r="J99" t="n">
-        <v>30349</v>
+        <v>41472</v>
       </c>
       <c r="K99" t="n">
-        <v>0.277</v>
+        <v>0.378</v>
       </c>
       <c r="L99" t="n">
-        <v>45104</v>
+        <v>46657</v>
       </c>
       <c r="M99" t="n">
-        <v>0.412</v>
+        <v>0.426</v>
       </c>
       <c r="N99" t="n">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="O99" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="P99" t="s">
         <v>294</v>
@@ -8398,7 +8422,7 @@
         <v>586</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D100" t="s">
         <v>587</v>
@@ -8408,31 +8432,31 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H100" t="n">
-        <v>15595978</v>
+        <v>15765794</v>
       </c>
       <c r="I100" t="n">
-        <v>412.084</v>
+        <v>416.571</v>
       </c>
       <c r="J100" t="n">
-        <v>32035</v>
+        <v>54545</v>
       </c>
       <c r="K100" t="n">
-        <v>0.846</v>
+        <v>1.441</v>
       </c>
       <c r="L100" t="n">
-        <v>53363</v>
+        <v>51734</v>
       </c>
       <c r="M100" t="n">
-        <v>1.41</v>
+        <v>1.367</v>
       </c>
       <c r="N100" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="O100" t="n">
-        <v>61.2</v>
+        <v>81.6</v>
       </c>
       <c r="P100" t="s">
         <v>588</v>
@@ -8455,7 +8479,7 @@
         <v>591</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D101" t="s">
         <v>587</v>
@@ -8465,31 +8489,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H101" t="n">
-        <v>15959992</v>
+        <v>16131930</v>
       </c>
       <c r="I101" t="n">
-        <v>421.702</v>
+        <v>426.245</v>
       </c>
       <c r="J101" t="n">
-        <v>32369</v>
+        <v>55146</v>
       </c>
       <c r="K101" t="n">
-        <v>0.855</v>
+        <v>1.457</v>
       </c>
       <c r="L101" t="n">
-        <v>54034</v>
+        <v>52411</v>
       </c>
       <c r="M101" t="n">
-        <v>1.428</v>
+        <v>1.385</v>
       </c>
       <c r="N101" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="O101" t="n">
-        <v>62</v>
+        <v>82.6</v>
       </c>
       <c r="P101" t="s">
         <v>588</v>
@@ -8512,7 +8536,7 @@
         <v>593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44345</v>
+        <v>44347</v>
       </c>
       <c r="D102" t="s">
         <v>594</v>
@@ -8522,31 +8546,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H102" t="n">
-        <v>11746487</v>
+        <v>11815476</v>
       </c>
       <c r="I102" t="n">
-        <v>1151.988</v>
+        <v>1158.754</v>
       </c>
       <c r="J102" t="n">
-        <v>40398</v>
+        <v>44105</v>
       </c>
       <c r="K102" t="n">
-        <v>3.962</v>
+        <v>4.325</v>
       </c>
       <c r="L102" t="n">
-        <v>43118</v>
+        <v>44626</v>
       </c>
       <c r="M102" t="n">
-        <v>4.229</v>
+        <v>4.377</v>
       </c>
       <c r="N102" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O102" t="n">
-        <v>88.7</v>
+        <v>86.1</v>
       </c>
       <c r="P102" t="s">
         <v>595</v>
@@ -8569,7 +8593,7 @@
         <v>598</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44342</v>
+        <v>44349</v>
       </c>
       <c r="D103" t="s">
         <v>599</v>
@@ -8579,31 +8603,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H103" t="n">
-        <v>2005869</v>
+        <v>2032185</v>
       </c>
       <c r="I103" t="n">
-        <v>696.226</v>
+        <v>705.36</v>
       </c>
       <c r="J103" t="n">
-        <v>3922</v>
+        <v>3976</v>
       </c>
       <c r="K103" t="n">
-        <v>1.361</v>
+        <v>1.38</v>
       </c>
       <c r="L103" t="n">
-        <v>3504</v>
+        <v>3759</v>
       </c>
       <c r="M103" t="n">
-        <v>1.216</v>
+        <v>1.305</v>
       </c>
       <c r="N103" t="n">
-        <v>0.092</v>
+        <v>0.056</v>
       </c>
       <c r="O103" t="n">
-        <v>10.9</v>
+        <v>17.7</v>
       </c>
       <c r="P103" t="s">
         <v>601</v>
@@ -8626,7 +8650,7 @@
         <v>604</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44346</v>
+        <v>44350</v>
       </c>
       <c r="D104" t="s">
         <v>605</v>
@@ -8636,31 +8660,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H104" t="n">
-        <v>7891479</v>
+        <v>7945521</v>
       </c>
       <c r="I104" t="n">
-        <v>410.209</v>
+        <v>413.019</v>
       </c>
       <c r="J104" t="n">
-        <v>11765</v>
+        <v>20627</v>
       </c>
       <c r="K104" t="n">
-        <v>0.612</v>
+        <v>1.072</v>
       </c>
       <c r="L104" t="n">
-        <v>17574</v>
+        <v>15393</v>
       </c>
       <c r="M104" t="n">
-        <v>0.914</v>
+        <v>0.8</v>
       </c>
       <c r="N104" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="O104" t="n">
-        <v>60.3</v>
+        <v>71.9</v>
       </c>
       <c r="P104" t="s">
         <v>607</v>
@@ -8683,7 +8707,7 @@
         <v>611</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D105" t="s">
         <v>612</v>
@@ -8693,31 +8717,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H105" t="n">
-        <v>138547723</v>
+        <v>139597578</v>
       </c>
       <c r="I105" t="n">
-        <v>949.383</v>
+        <v>956.577</v>
       </c>
       <c r="J105" t="n">
-        <v>271007</v>
+        <v>392952</v>
       </c>
       <c r="K105" t="n">
-        <v>1.857</v>
+        <v>2.693</v>
       </c>
       <c r="L105" t="n">
-        <v>335981</v>
+        <v>345274</v>
       </c>
       <c r="M105" t="n">
-        <v>2.302</v>
+        <v>2.366</v>
       </c>
       <c r="N105" t="n">
         <v>0.026</v>
       </c>
       <c r="O105" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="P105" t="s">
         <v>613</v>
@@ -8740,7 +8764,7 @@
         <v>617</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D106" t="s">
         <v>618</v>
@@ -8750,18 +8774,22 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H106" t="n">
-        <v>1445631</v>
+        <v>1457954</v>
       </c>
       <c r="I106" t="n">
-        <v>111.613</v>
-      </c>
-      <c r="J106"/>
-      <c r="K106"/>
+        <v>112.564</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4074</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.315</v>
+      </c>
       <c r="L106" t="n">
-        <v>5084</v>
+        <v>5089</v>
       </c>
       <c r="M106" t="n">
         <v>0.393</v>
@@ -8789,7 +8817,7 @@
         <v>623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D107" t="s">
         <v>624</v>
@@ -8799,31 +8827,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H107" t="n">
-        <v>19214578</v>
+        <v>19496450</v>
       </c>
       <c r="I107" t="n">
-        <v>551.923</v>
+        <v>560.02</v>
       </c>
       <c r="J107" t="n">
-        <v>92458</v>
+        <v>96230</v>
       </c>
       <c r="K107" t="n">
-        <v>2.656</v>
+        <v>2.764</v>
       </c>
       <c r="L107" t="n">
-        <v>86724</v>
+        <v>88712</v>
       </c>
       <c r="M107" t="n">
-        <v>2.491</v>
+        <v>2.548</v>
       </c>
       <c r="N107" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="O107" t="n">
-        <v>73.3</v>
+        <v>76</v>
       </c>
       <c r="P107" t="s">
         <v>42</v>
@@ -8846,7 +8874,7 @@
         <v>627</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D108" t="s">
         <v>628</v>
@@ -8856,31 +8884,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H108" t="n">
-        <v>530975</v>
+        <v>534987</v>
       </c>
       <c r="I108" t="n">
-        <v>31.711</v>
+        <v>31.951</v>
       </c>
       <c r="J108" t="n">
-        <v>1526</v>
+        <v>1275</v>
       </c>
       <c r="K108" t="n">
-        <v>0.091</v>
+        <v>0.076</v>
       </c>
       <c r="L108" t="n">
-        <v>1500</v>
+        <v>1536</v>
       </c>
       <c r="M108" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="N108" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="O108" t="n">
-        <v>38.3</v>
+        <v>36.9</v>
       </c>
       <c r="P108" t="s">
         <v>629</v>
@@ -8903,7 +8931,7 @@
         <v>632</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D109" t="s">
         <v>633</v>
@@ -8915,31 +8943,31 @@
         <v>634</v>
       </c>
       <c r="G109" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H109" t="n">
-        <v>4152776</v>
+        <v>4185210</v>
       </c>
       <c r="I109" t="n">
-        <v>610.29</v>
+        <v>615.056</v>
       </c>
       <c r="J109" t="n">
-        <v>8684</v>
+        <v>10101</v>
       </c>
       <c r="K109" t="n">
-        <v>1.276</v>
+        <v>1.484</v>
       </c>
       <c r="L109" t="n">
-        <v>9440</v>
+        <v>9612</v>
       </c>
       <c r="M109" t="n">
-        <v>1.387</v>
+        <v>1.413</v>
       </c>
       <c r="N109" t="n">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="O109" t="n">
-        <v>30.6</v>
+        <v>38.1</v>
       </c>
       <c r="P109" t="s">
         <v>42</v>
@@ -9015,7 +9043,7 @@
         <v>642</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D111" t="s">
         <v>643</v>
@@ -9025,25 +9053,25 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H111" t="n">
-        <v>29848733</v>
+        <v>38595165</v>
       </c>
       <c r="I111" t="n">
-        <v>5467.158</v>
+        <v>7069.174</v>
       </c>
       <c r="J111" t="n">
-        <v>74731</v>
+        <v>44831</v>
       </c>
       <c r="K111" t="n">
-        <v>13.688</v>
+        <v>8.211</v>
       </c>
       <c r="L111" t="n">
-        <v>78935</v>
+        <v>71804</v>
       </c>
       <c r="M111" t="n">
-        <v>14.458</v>
+        <v>13.152</v>
       </c>
       <c r="N111" t="n">
         <v>0.004</v>
@@ -9072,7 +9100,7 @@
         <v>646</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44347</v>
+        <v>44349</v>
       </c>
       <c r="D112" t="s">
         <v>647</v>
@@ -9082,31 +9110,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H112" t="n">
-        <v>1282334</v>
+        <v>1290337</v>
       </c>
       <c r="I112" t="n">
-        <v>616.823</v>
+        <v>620.673</v>
       </c>
       <c r="J112" t="n">
-        <v>3378</v>
+        <v>3837</v>
       </c>
       <c r="K112" t="n">
-        <v>1.625</v>
+        <v>1.846</v>
       </c>
       <c r="L112" t="n">
-        <v>3182</v>
+        <v>3147</v>
       </c>
       <c r="M112" t="n">
-        <v>1.531</v>
+        <v>1.514</v>
       </c>
       <c r="N112" t="n">
-        <v>0.088</v>
+        <v>0.084</v>
       </c>
       <c r="O112" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="P112" t="s">
         <v>648</v>
@@ -9129,7 +9157,7 @@
         <v>651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="D113" t="s">
         <v>652</v>
@@ -9141,31 +9169,31 @@
         <v>654</v>
       </c>
       <c r="G113" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H113" t="n">
-        <v>11631239</v>
+        <v>11667916</v>
       </c>
       <c r="I113" t="n">
-        <v>196.114</v>
+        <v>196.732</v>
       </c>
       <c r="J113" t="n">
-        <v>24669</v>
+        <v>36677</v>
       </c>
       <c r="K113" t="n">
-        <v>0.416</v>
+        <v>0.618</v>
       </c>
       <c r="L113" t="n">
-        <v>36137</v>
+        <v>37373</v>
       </c>
       <c r="M113" t="n">
-        <v>0.609</v>
+        <v>0.63</v>
       </c>
       <c r="N113" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O113" t="n">
-        <v>9.1</v>
+        <v>8.3</v>
       </c>
       <c r="P113" t="s">
         <v>653</v>
@@ -9188,7 +9216,7 @@
         <v>658</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D114" t="s">
         <v>659</v>
@@ -9198,25 +9226,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H114" t="n">
-        <v>9670790</v>
+        <v>9777480</v>
       </c>
       <c r="I114" t="n">
-        <v>188.628</v>
+        <v>190.709</v>
       </c>
       <c r="J114" t="n">
-        <v>37585</v>
+        <v>34978</v>
       </c>
       <c r="K114" t="n">
-        <v>0.733</v>
+        <v>0.682</v>
       </c>
       <c r="L114" t="n">
-        <v>27880</v>
+        <v>28271</v>
       </c>
       <c r="M114" t="n">
-        <v>0.544</v>
+        <v>0.551</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -9347,7 +9375,7 @@
         <v>675</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D117" t="s">
         <v>676</v>
@@ -9357,31 +9385,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H117" t="n">
-        <v>3495070</v>
+        <v>3553708</v>
       </c>
       <c r="I117" t="n">
-        <v>163.22</v>
+        <v>165.958</v>
       </c>
       <c r="J117" t="n">
-        <v>20785</v>
+        <v>21697</v>
       </c>
       <c r="K117" t="n">
-        <v>0.971</v>
+        <v>1.013</v>
       </c>
       <c r="L117" t="n">
-        <v>19939</v>
+        <v>20371</v>
       </c>
       <c r="M117" t="n">
-        <v>0.931</v>
+        <v>0.951</v>
       </c>
       <c r="N117" t="n">
-        <v>0.138</v>
+        <v>0.147</v>
       </c>
       <c r="O117" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="P117" t="s">
         <v>677</v>
@@ -9404,7 +9432,7 @@
         <v>680</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44339</v>
+        <v>44346</v>
       </c>
       <c r="D118" t="s">
         <v>681</v>
@@ -9414,27 +9442,27 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="n">
-        <v>37510</v>
+        <v>32800</v>
       </c>
       <c r="K118" t="n">
-        <v>3.714</v>
+        <v>3.248</v>
       </c>
       <c r="L118" t="n">
-        <v>37510</v>
+        <v>32800</v>
       </c>
       <c r="M118" t="n">
-        <v>3.714</v>
+        <v>3.248</v>
       </c>
       <c r="N118" t="n">
-        <v>0.081</v>
+        <v>0.044</v>
       </c>
       <c r="O118" t="n">
-        <v>12.4</v>
+        <v>22.7</v>
       </c>
       <c r="P118" t="s">
         <v>683</v>
@@ -9457,7 +9485,7 @@
         <v>687</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44345</v>
+        <v>44349</v>
       </c>
       <c r="D119" t="s">
         <v>421</v>
@@ -9467,31 +9495,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H119" t="n">
-        <v>7270436</v>
+        <v>7357864</v>
       </c>
       <c r="I119" t="n">
-        <v>840.064</v>
+        <v>850.166</v>
       </c>
       <c r="J119" t="n">
-        <v>17131</v>
+        <v>25722</v>
       </c>
       <c r="K119" t="n">
-        <v>1.979</v>
+        <v>2.972</v>
       </c>
       <c r="L119" t="n">
-        <v>22059</v>
+        <v>23517</v>
       </c>
       <c r="M119" t="n">
-        <v>2.549</v>
+        <v>2.717</v>
       </c>
       <c r="N119" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="O119" t="n">
-        <v>27</v>
+        <v>32.3</v>
       </c>
       <c r="P119" t="s">
         <v>422</v>
@@ -9514,7 +9542,7 @@
         <v>690</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D120" t="s">
         <v>691</v>
@@ -9524,31 +9552,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H120" t="n">
-        <v>522816</v>
+        <v>606921</v>
       </c>
       <c r="I120" t="n">
-        <v>21.952</v>
+        <v>25.483</v>
       </c>
       <c r="J120" t="n">
-        <v>13756</v>
+        <v>14664</v>
       </c>
       <c r="K120" t="n">
-        <v>0.578</v>
+        <v>0.616</v>
       </c>
       <c r="L120" t="n">
-        <v>19217</v>
+        <v>21956</v>
       </c>
       <c r="M120" t="n">
-        <v>0.807</v>
+        <v>0.922</v>
       </c>
       <c r="N120" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="O120" t="n">
-        <v>37.4</v>
+        <v>47.8</v>
       </c>
       <c r="P120" t="s">
         <v>692</v>
@@ -9628,7 +9656,7 @@
         <v>700</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D122"/>
       <c r="E122" t="s">
@@ -9638,31 +9666,31 @@
         <v>702</v>
       </c>
       <c r="G122" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H122" t="n">
-        <v>334593</v>
+        <v>337067</v>
       </c>
       <c r="I122" t="n">
-        <v>40.416</v>
+        <v>40.715</v>
       </c>
       <c r="J122" t="n">
-        <v>668</v>
+        <v>873</v>
       </c>
       <c r="K122" t="n">
-        <v>0.081</v>
+        <v>0.105</v>
       </c>
       <c r="L122" t="n">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="M122" t="n">
-        <v>0.099</v>
+        <v>0.104</v>
       </c>
       <c r="N122" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="O122" t="n">
-        <v>62.4</v>
+        <v>65</v>
       </c>
       <c r="P122" t="s">
         <v>701</v>
@@ -9685,7 +9713,7 @@
         <v>707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44344</v>
+        <v>44349</v>
       </c>
       <c r="D123" t="s">
         <v>708</v>
@@ -9695,31 +9723,31 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H123" t="n">
-        <v>178294</v>
+        <v>193798</v>
       </c>
       <c r="I123" t="n">
-        <v>127.399</v>
+        <v>138.477</v>
       </c>
       <c r="J123" t="n">
-        <v>1618</v>
+        <v>11180</v>
       </c>
       <c r="K123" t="n">
-        <v>1.156</v>
+        <v>7.989</v>
       </c>
       <c r="L123" t="n">
-        <v>2097</v>
+        <v>2635</v>
       </c>
       <c r="M123" t="n">
-        <v>1.498</v>
+        <v>1.883</v>
       </c>
       <c r="N123" t="n">
-        <v>0.251</v>
+        <v>0.177</v>
       </c>
       <c r="O123" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
@@ -9742,7 +9770,7 @@
         <v>712</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D124" t="s">
         <v>713</v>
@@ -9752,25 +9780,25 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H124" t="n">
-        <v>1476437</v>
+        <v>1489899</v>
       </c>
       <c r="I124" t="n">
-        <v>124.925</v>
+        <v>126.064</v>
       </c>
       <c r="J124" t="n">
-        <v>4679</v>
+        <v>6775</v>
       </c>
       <c r="K124" t="n">
-        <v>0.396</v>
+        <v>0.573</v>
       </c>
       <c r="L124" t="n">
-        <v>5742</v>
+        <v>5067</v>
       </c>
       <c r="M124" t="n">
-        <v>0.486</v>
+        <v>0.429</v>
       </c>
       <c r="N124"/>
       <c r="O124"/>
@@ -9795,7 +9823,7 @@
         <v>719</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D125" t="s">
         <v>720</v>
@@ -9805,31 +9833,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H125" t="n">
-        <v>54139309</v>
+        <v>54809788</v>
       </c>
       <c r="I125" t="n">
-        <v>641.924</v>
+        <v>649.874</v>
       </c>
       <c r="J125" t="n">
-        <v>219461</v>
+        <v>222847</v>
       </c>
       <c r="K125" t="n">
-        <v>2.602</v>
+        <v>2.642</v>
       </c>
       <c r="L125" t="n">
-        <v>220711</v>
+        <v>221667</v>
       </c>
       <c r="M125" t="n">
-        <v>2.617</v>
+        <v>2.628</v>
       </c>
       <c r="N125" t="n">
-        <v>0.036</v>
+        <v>0.032</v>
       </c>
       <c r="O125" t="n">
-        <v>27.9</v>
+        <v>31.2</v>
       </c>
       <c r="P125" t="s">
         <v>721</v>
@@ -9852,7 +9880,7 @@
         <v>725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44345</v>
+        <v>44348</v>
       </c>
       <c r="D126" t="s">
         <v>726</v>
@@ -9862,31 +9890,31 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H126" t="n">
-        <v>1109851</v>
+        <v>1125306</v>
       </c>
       <c r="I126" t="n">
-        <v>24.264</v>
+        <v>24.602</v>
       </c>
       <c r="J126" t="n">
-        <v>4335</v>
+        <v>6283</v>
       </c>
       <c r="K126" t="n">
-        <v>0.095</v>
+        <v>0.137</v>
       </c>
       <c r="L126" t="n">
-        <v>4040</v>
+        <v>4838</v>
       </c>
       <c r="M126" t="n">
-        <v>0.088</v>
+        <v>0.106</v>
       </c>
       <c r="N126" t="n">
-        <v>0.086</v>
+        <v>0.109</v>
       </c>
       <c r="O126" t="n">
-        <v>11.7</v>
+        <v>9.2</v>
       </c>
       <c r="P126" t="s">
         <v>727</v>
@@ -9909,7 +9937,7 @@
         <v>731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D127" t="s">
         <v>732</v>
@@ -9919,25 +9947,25 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H127" t="n">
-        <v>10207245</v>
+        <v>10290345</v>
       </c>
       <c r="I127" t="n">
-        <v>233.395</v>
+        <v>235.295</v>
       </c>
       <c r="J127" t="n">
-        <v>26468</v>
+        <v>28696</v>
       </c>
       <c r="K127" t="n">
-        <v>0.605</v>
+        <v>0.656</v>
       </c>
       <c r="L127" t="n">
-        <v>23050</v>
+        <v>22713</v>
       </c>
       <c r="M127" t="n">
-        <v>0.527</v>
+        <v>0.519</v>
       </c>
       <c r="N127"/>
       <c r="O127"/>
@@ -9962,7 +9990,7 @@
         <v>737</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D128" t="s">
         <v>738</v>
@@ -9972,31 +10000,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H128" t="n">
-        <v>50338982</v>
+        <v>51004376</v>
       </c>
       <c r="I128" t="n">
-        <v>5089.681</v>
+        <v>5156.958</v>
       </c>
       <c r="J128" t="n">
-        <v>189946</v>
+        <v>230728</v>
       </c>
       <c r="K128" t="n">
-        <v>19.205</v>
+        <v>23.328</v>
       </c>
       <c r="L128" t="n">
-        <v>221883</v>
+        <v>220380</v>
       </c>
       <c r="M128" t="n">
-        <v>22.434</v>
+        <v>22.282</v>
       </c>
       <c r="N128" t="n">
         <v>0.009</v>
       </c>
       <c r="O128" t="n">
-        <v>117.5</v>
+        <v>112.3</v>
       </c>
       <c r="P128" t="s">
         <v>739</v>
@@ -10019,7 +10047,7 @@
         <v>742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44343</v>
+        <v>44349</v>
       </c>
       <c r="D129" t="s">
         <v>743</v>
@@ -10031,31 +10059,31 @@
         <v>745</v>
       </c>
       <c r="G129" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H129" t="n">
-        <v>177486846</v>
+        <v>181720658</v>
       </c>
       <c r="I129" t="n">
-        <v>2614.484</v>
+        <v>2676.85</v>
       </c>
       <c r="J129" t="n">
-        <v>959007</v>
+        <v>854697</v>
       </c>
       <c r="K129" t="n">
-        <v>14.127</v>
+        <v>12.59</v>
       </c>
       <c r="L129" t="n">
-        <v>958967</v>
+        <v>760893</v>
       </c>
       <c r="M129" t="n">
-        <v>14.126</v>
+        <v>11.208</v>
       </c>
       <c r="N129" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="O129" t="n">
-        <v>363.1</v>
+        <v>218</v>
       </c>
       <c r="P129" t="s">
         <v>744</v>
@@ -10078,7 +10106,7 @@
         <v>749</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="D130" t="s">
         <v>750</v>
@@ -10088,31 +10116,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H130" t="n">
-        <v>446844325</v>
+        <v>449406416</v>
       </c>
       <c r="I130" t="n">
-        <v>1349.972</v>
+        <v>1357.712</v>
       </c>
       <c r="J130" t="n">
-        <v>502059</v>
+        <v>169585</v>
       </c>
       <c r="K130" t="n">
-        <v>1.517</v>
+        <v>0.512</v>
       </c>
       <c r="L130" t="n">
-        <v>620361</v>
+        <v>548934</v>
       </c>
       <c r="M130" t="n">
-        <v>1.874</v>
+        <v>1.658</v>
       </c>
       <c r="N130" t="n">
-        <v>0.033</v>
+        <v>0.028</v>
       </c>
       <c r="O130" t="n">
-        <v>30.3</v>
+        <v>35.7</v>
       </c>
       <c r="P130" t="s">
         <v>751</v>
@@ -10135,7 +10163,7 @@
         <v>756</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44346</v>
+        <v>44349</v>
       </c>
       <c r="D131" t="s">
         <v>757</v>
@@ -10145,27 +10173,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H131" t="n">
-        <v>2248766</v>
+        <v>2310860</v>
       </c>
       <c r="I131" t="n">
-        <v>647.364</v>
-      </c>
-      <c r="J131"/>
-      <c r="K131"/>
+        <v>665.239</v>
+      </c>
+      <c r="J131" t="n">
+        <v>23506</v>
+      </c>
+      <c r="K131" t="n">
+        <v>6.767</v>
+      </c>
       <c r="L131" t="n">
-        <v>19385</v>
+        <v>20789</v>
       </c>
       <c r="M131" t="n">
-        <v>5.58</v>
+        <v>5.985</v>
       </c>
       <c r="N131" t="n">
-        <v>0.194</v>
+        <v>0.172</v>
       </c>
       <c r="O131" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="P131" t="s">
         <v>184</v>
@@ -10241,7 +10273,7 @@
         <v>767</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44344</v>
+        <v>44350</v>
       </c>
       <c r="D133" t="s">
         <v>768</v>
@@ -10251,31 +10283,31 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H133" t="n">
-        <v>1538730</v>
+        <v>1585960</v>
       </c>
       <c r="I133" t="n">
-        <v>83.7</v>
+        <v>86.269</v>
       </c>
       <c r="J133" t="n">
-        <v>6392</v>
+        <v>10949</v>
       </c>
       <c r="K133" t="n">
-        <v>0.348</v>
+        <v>0.596</v>
       </c>
       <c r="L133" t="n">
-        <v>5408</v>
+        <v>7660</v>
       </c>
       <c r="M133" t="n">
-        <v>0.294</v>
+        <v>0.417</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04</v>
+        <v>0.064</v>
       </c>
       <c r="O133" t="n">
-        <v>25.1</v>
+        <v>15.6</v>
       </c>
       <c r="P133" t="s">
         <v>770</v>
@@ -10298,7 +10330,7 @@
         <v>773</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44345</v>
+        <v>44350</v>
       </c>
       <c r="D134" t="s">
         <v>774</v>
@@ -10308,31 +10340,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H134" t="n">
-        <v>548421</v>
+        <v>557596</v>
       </c>
       <c r="I134" t="n">
-        <v>36.899</v>
+        <v>37.516</v>
       </c>
       <c r="J134" t="n">
-        <v>2032</v>
+        <v>1817</v>
       </c>
       <c r="K134" t="n">
-        <v>0.137</v>
+        <v>0.122</v>
       </c>
       <c r="L134" t="n">
-        <v>1790</v>
+        <v>1863</v>
       </c>
       <c r="M134" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="O134" t="n">
-        <v>49.3</v>
+        <v>54.8</v>
       </c>
       <c r="P134" t="s">
         <v>775</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-3661-testime-42-te-sheruar-22-raste-te-reja-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-1881-testime-37-te-sheruar-5-raste-te-reja-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/3979</t>
+    <t xml:space="preserve">https://www.moh.am/#3/3990</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-3-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-7-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-879-new-cases-1294-recoveries_i_0000130557.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-570-new-covid-19-cases-378-recoveries-in-past-24-hours_i_0000130719.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5639-reporte-444-de-covid-19-2-560-pacientes-recuperados-11-264-pruebas-negativas-y-1-767-803-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5657-reporte-448-de-covid-19-1-600-pacientes-recuperados-4-729-pruebas-negativas-y-1-829-560-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-02-de-junho-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-06-de-junho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1918534804978871</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1920966051402413</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -676,7 +676,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=a5ffaf9acc</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=caba549b48</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-03062021-km12</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-07062021-cd56</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.438.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.443.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-02062021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-07062021-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1493</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1507</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210603.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210607.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/365071</t>
+    <t xml:space="preserve">http://irangov.ir/detail/365199</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1400126396035436545</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1401890167879880705</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-may-26-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-friday-june-4-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1266,7 +1266,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/5825</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/en</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1338,7 +1338,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1400497587170521095</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1401947170203488259</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1428,7 +1428,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210603-nub31zkr/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210607-lp4k75ja/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1480,7 +1480,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4201255483272337/4201243003273585/?__cft__[0]=AZX0nPK_vCepobUEnwaqNGlxRPUUM3SEkgMHAZ6V4VybyLfWU7RVTkJSsgerr4jI6495-6Vxcnm-SlKrQLkmMLTo_fJII2hvci-XDlKWsYaUktGQWO3B67ap8OEPIEf7c-JlC6B4ja3-HLeWfudIryCt&amp;__tn__=*bH-R</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4212893738775178/4212883948776157/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1519,7 +1519,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-03062021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-07062021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1400497588491538438</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1401947268266086405</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/351595223225694/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/354155742969642/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1638,7 +1638,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-02-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1215/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-06-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1218/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1653,7 +1653,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/03.6.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/07.6.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1675,7 +1675,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1001:boletim-diario-covid-19-n-443</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1005:boletim-diario-covid-19-n-446</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1696,7 +1696,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(3-6-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=Annex%20COVID-19%20Tsp%20News%20(7-6-2021)%20(n%3D64).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1716,7 +1716,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.756911624981843/756911531648519</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.758489151490757/758489048157434</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1738,7 +1738,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1bvJ8eM7PAuu1eM5jf3HUDSEg7XedSvzo</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1EXqHr65Tsa9AYutVfvSTl6WA-E7493hC</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1891,7 +1891,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3863880933737756</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3875214509271065</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1400230347237888000</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1401698571414609920</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1932,7 +1932,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1400251887224557574</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1401711247771459584</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1966,7 +1966,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/19kXT2E08ourfgBQTm9NqhA8KtqPBypFM?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1kd0irrsRXTVqoIyYgDWOOc0wm9FM9pDk?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1987,7 +1987,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1400372936012349442</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1401822487306903553</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2050,7 +2050,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/03-06_BULETIN_DE_PRESA%CC%86_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRES%C4%82_-_8_iunie_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2073,7 +2073,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=17988</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18025</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2272,7 +2272,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_27_05_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_03_06_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-743/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-747/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1400348625050472449</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1401889083560017920</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2575,7 +2575,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-194</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-196</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2592,7 +2592,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ncov.moh.gov.vn/en/web/guest/-/6847426-3678</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-832-bc-byt-ve-tinh-hinh-dich-covid-19-va-ket-qua-cong-tac-phong-chong-dich-203206-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam General Department of Preventive Medicine</t>
@@ -2635,7 +2635,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1400562979570081795</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1401608643695493122</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3052,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44348</v>
+        <v>44353</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3062,31 +3062,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H2" t="n">
-        <v>703725</v>
+        <v>718515</v>
       </c>
       <c r="I2" t="n">
-        <v>244.536</v>
+        <v>249.675</v>
       </c>
       <c r="J2" t="n">
-        <v>3661</v>
+        <v>1881</v>
       </c>
       <c r="K2" t="n">
-        <v>1.272</v>
+        <v>0.654</v>
       </c>
       <c r="L2" t="n">
-        <v>2864</v>
+        <v>2968</v>
       </c>
       <c r="M2" t="n">
-        <v>0.995</v>
+        <v>1.031</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6</v>
+        <v>296.8</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3162,7 +3162,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44345</v>
+        <v>44349</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3172,31 +3172,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H4" t="n">
-        <v>9994522</v>
+        <v>10156324</v>
       </c>
       <c r="I4" t="n">
-        <v>221.138</v>
+        <v>224.718</v>
       </c>
       <c r="J4" t="n">
-        <v>36263</v>
+        <v>40346</v>
       </c>
       <c r="K4" t="n">
-        <v>0.802</v>
+        <v>0.893</v>
       </c>
       <c r="L4" t="n">
-        <v>36729</v>
+        <v>39257</v>
       </c>
       <c r="M4" t="n">
-        <v>0.813</v>
+        <v>0.869</v>
       </c>
       <c r="N4" t="n">
-        <v>0.339</v>
+        <v>0.325</v>
       </c>
       <c r="O4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -3219,7 +3219,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -3229,31 +3229,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H5" t="n">
-        <v>1093012</v>
+        <v>1104999</v>
       </c>
       <c r="I5" t="n">
-        <v>368.858</v>
+        <v>372.903</v>
       </c>
       <c r="J5" t="n">
-        <v>2856</v>
+        <v>2448</v>
       </c>
       <c r="K5" t="n">
-        <v>0.964</v>
+        <v>0.826</v>
       </c>
       <c r="L5" t="n">
-        <v>2914</v>
+        <v>3006</v>
       </c>
       <c r="M5" t="n">
-        <v>0.983</v>
+        <v>1.014</v>
       </c>
       <c r="N5" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="O5" t="n">
-        <v>35.8</v>
+        <v>38.8</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -3276,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -3286,31 +3286,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H6" t="n">
-        <v>18643613</v>
+        <v>18961812</v>
       </c>
       <c r="I6" t="n">
-        <v>731.125</v>
+        <v>743.604</v>
       </c>
       <c r="J6" t="n">
-        <v>92378</v>
+        <v>88142</v>
       </c>
       <c r="K6" t="n">
-        <v>3.623</v>
+        <v>3.457</v>
       </c>
       <c r="L6" t="n">
-        <v>82060</v>
+        <v>80446</v>
       </c>
       <c r="M6" t="n">
-        <v>3.218</v>
+        <v>3.155</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8573.8</v>
+        <v>6472.4</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
@@ -3333,7 +3333,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3343,31 +3343,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H7" t="n">
-        <v>43048076</v>
+        <v>45278379</v>
       </c>
       <c r="I7" t="n">
-        <v>4779.721</v>
+        <v>5027.356</v>
       </c>
       <c r="J7" t="n">
-        <v>925527</v>
+        <v>419385</v>
       </c>
       <c r="K7" t="n">
-        <v>102.763</v>
+        <v>46.565</v>
       </c>
       <c r="L7" t="n">
-        <v>447652</v>
+        <v>530665</v>
       </c>
       <c r="M7" t="n">
-        <v>49.704</v>
+        <v>58.921</v>
       </c>
       <c r="N7" t="n">
         <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>1055.4</v>
+        <v>1677.8</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3390,7 +3390,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -3400,25 +3400,25 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>3542035</v>
+        <v>3572418</v>
       </c>
       <c r="I8" t="n">
-        <v>349.342</v>
+        <v>352.338</v>
       </c>
       <c r="J8" t="n">
-        <v>9563</v>
+        <v>4673</v>
       </c>
       <c r="K8" t="n">
-        <v>0.943</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>7951</v>
+        <v>8347</v>
       </c>
       <c r="M8" t="n">
-        <v>0.784</v>
+        <v>0.823</v>
       </c>
       <c r="N8"/>
       <c r="O8"/>
@@ -3443,7 +3443,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -3453,25 +3453,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H9" t="n">
-        <v>4689976</v>
+        <v>4742989</v>
       </c>
       <c r="I9" t="n">
-        <v>2756.243</v>
+        <v>2787.398</v>
       </c>
       <c r="J9" t="n">
-        <v>15868</v>
+        <v>12520</v>
       </c>
       <c r="K9" t="n">
-        <v>9.325</v>
+        <v>7.358</v>
       </c>
       <c r="L9" t="n">
-        <v>17325</v>
+        <v>14218</v>
       </c>
       <c r="M9" t="n">
-        <v>10.182</v>
+        <v>8.356</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3496,7 +3496,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3506,31 +3506,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H10" t="n">
-        <v>5993110</v>
+        <v>6057158</v>
       </c>
       <c r="I10" t="n">
-        <v>36.39</v>
+        <v>36.779</v>
       </c>
       <c r="J10" t="n">
-        <v>16972</v>
+        <v>17169</v>
       </c>
       <c r="K10" t="n">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="L10" t="n">
-        <v>16532</v>
+        <v>17076</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="N10" t="n">
-        <v>0.095</v>
+        <v>0.104</v>
       </c>
       <c r="O10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="P10" t="s">
         <v>71</v>
@@ -3553,7 +3553,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3563,27 +3563,27 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H11" t="n">
-        <v>6378212</v>
+        <v>6438423</v>
       </c>
       <c r="I11" t="n">
-        <v>674.992</v>
+        <v>681.364</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>15759</v>
+        <v>14713</v>
       </c>
       <c r="M11" t="n">
-        <v>1.668</v>
+        <v>1.557</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>17.2</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3606,7 +3606,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3616,31 +3616,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H12" t="n">
-        <v>14115802</v>
+        <v>14274146</v>
       </c>
       <c r="I12" t="n">
-        <v>1217.97</v>
+        <v>1231.632</v>
       </c>
       <c r="J12" t="n">
-        <v>48713</v>
+        <v>19079</v>
       </c>
       <c r="K12" t="n">
-        <v>4.203</v>
+        <v>1.646</v>
       </c>
       <c r="L12" t="n">
-        <v>45398</v>
+        <v>44267</v>
       </c>
       <c r="M12" t="n">
-        <v>3.917</v>
+        <v>3.82</v>
       </c>
       <c r="N12" t="n">
-        <v>0.042</v>
+        <v>0.034</v>
       </c>
       <c r="O12" t="n">
-        <v>23.8</v>
+        <v>29.4</v>
       </c>
       <c r="P12" t="s">
         <v>84</v>
@@ -3814,7 +3814,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3824,31 +3824,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H16" t="n">
-        <v>1511251</v>
+        <v>1550210</v>
       </c>
       <c r="I16" t="n">
-        <v>129.465</v>
+        <v>132.803</v>
       </c>
       <c r="J16" t="n">
-        <v>14574</v>
+        <v>6157</v>
       </c>
       <c r="K16" t="n">
-        <v>1.249</v>
+        <v>0.527</v>
       </c>
       <c r="L16" t="n">
-        <v>12507</v>
+        <v>11577</v>
       </c>
       <c r="M16" t="n">
-        <v>1.071</v>
+        <v>0.992</v>
       </c>
       <c r="N16" t="n">
-        <v>0.222</v>
+        <v>0.231</v>
       </c>
       <c r="O16" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
@@ -3871,7 +3871,7 @@
         <v>110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -3881,31 +3881,27 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H17" t="n">
-        <v>984706</v>
+        <v>992476</v>
       </c>
       <c r="I17" t="n">
-        <v>300.141</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.686</v>
-      </c>
+        <v>302.509</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17" t="n">
-        <v>2053</v>
+        <v>2088</v>
       </c>
       <c r="M17" t="n">
-        <v>0.626</v>
+        <v>0.636</v>
       </c>
       <c r="N17" t="n">
-        <v>0.034</v>
+        <v>0.027</v>
       </c>
       <c r="O17" t="n">
-        <v>29.3</v>
+        <v>36.7</v>
       </c>
       <c r="P17" t="s">
         <v>112</v>
@@ -3973,7 +3969,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -3983,25 +3979,25 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H19" t="n">
-        <v>2878511</v>
+        <v>2918130</v>
       </c>
       <c r="I19" t="n">
-        <v>414.267</v>
+        <v>419.969</v>
       </c>
       <c r="J19" t="n">
-        <v>15294</v>
+        <v>13413</v>
       </c>
       <c r="K19" t="n">
-        <v>2.201</v>
+        <v>1.93</v>
       </c>
       <c r="L19" t="n">
-        <v>11888</v>
+        <v>11456</v>
       </c>
       <c r="M19" t="n">
-        <v>1.711</v>
+        <v>1.649</v>
       </c>
       <c r="N19"/>
       <c r="O19"/>
@@ -4026,7 +4022,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4036,25 +4032,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>1178067</v>
+        <v>1201405</v>
       </c>
       <c r="I20" t="n">
-        <v>70.463</v>
+        <v>71.859</v>
       </c>
       <c r="J20" t="n">
-        <v>4654</v>
+        <v>5617</v>
       </c>
       <c r="K20" t="n">
-        <v>0.278</v>
+        <v>0.336</v>
       </c>
       <c r="L20" t="n">
-        <v>6340</v>
+        <v>5613</v>
       </c>
       <c r="M20" t="n">
-        <v>0.379</v>
+        <v>0.336</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4136,7 +4132,7 @@
         <v>137</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D22" t="s">
         <v>133</v>
@@ -4146,31 +4142,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H22" t="n">
-        <v>35017704</v>
+        <v>35317305</v>
       </c>
       <c r="I22" t="n">
-        <v>927.814</v>
+        <v>935.752</v>
       </c>
       <c r="J22" t="n">
-        <v>89777</v>
+        <v>146126</v>
       </c>
       <c r="K22" t="n">
-        <v>2.379</v>
+        <v>3.872</v>
       </c>
       <c r="L22" t="n">
-        <v>81163</v>
+        <v>75319</v>
       </c>
       <c r="M22" t="n">
-        <v>2.15</v>
+        <v>1.996</v>
       </c>
       <c r="N22" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="O22" t="n">
-        <v>34.8</v>
+        <v>41.9</v>
       </c>
       <c r="P22" t="s">
         <v>134</v>
@@ -4193,7 +4189,7 @@
         <v>140</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -4203,15 +4199,15 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>974</v>
+        <v>639</v>
       </c>
       <c r="K23" t="n">
-        <v>1.752</v>
+        <v>1.149</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -4238,7 +4234,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4248,25 +4244,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H24" t="n">
-        <v>14981086</v>
+        <v>15284313</v>
       </c>
       <c r="I24" t="n">
-        <v>783.685</v>
+        <v>799.547</v>
       </c>
       <c r="J24" t="n">
-        <v>73435</v>
+        <v>75405</v>
       </c>
       <c r="K24" t="n">
-        <v>3.842</v>
+        <v>3.945</v>
       </c>
       <c r="L24" t="n">
-        <v>64588</v>
+        <v>65627</v>
       </c>
       <c r="M24" t="n">
-        <v>3.379</v>
+        <v>3.433</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -4336,7 +4332,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D26" t="s">
         <v>160</v>
@@ -4346,31 +4342,31 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H26" t="n">
-        <v>17259970</v>
+        <v>17579550</v>
       </c>
       <c r="I26" t="n">
-        <v>339.21</v>
+        <v>345.49</v>
       </c>
       <c r="J26" t="n">
-        <v>96870</v>
+        <v>52198</v>
       </c>
       <c r="K26" t="n">
-        <v>1.904</v>
+        <v>1.026</v>
       </c>
       <c r="L26" t="n">
-        <v>84650</v>
+        <v>87866</v>
       </c>
       <c r="M26" t="n">
-        <v>1.664</v>
+        <v>1.727</v>
       </c>
       <c r="N26" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="O26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P26" t="s">
         <v>161</v>
@@ -4393,7 +4389,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4403,31 +4399,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H27" t="n">
-        <v>1030935</v>
+        <v>1063153</v>
       </c>
       <c r="I27" t="n">
-        <v>202.378</v>
+        <v>208.702</v>
       </c>
       <c r="J27" t="n">
-        <v>7449</v>
+        <v>7661</v>
       </c>
       <c r="K27" t="n">
-        <v>1.462</v>
+        <v>1.504</v>
       </c>
       <c r="L27" t="n">
-        <v>6311</v>
+        <v>6615</v>
       </c>
       <c r="M27" t="n">
-        <v>1.239</v>
+        <v>1.299</v>
       </c>
       <c r="N27" t="n">
-        <v>0.261</v>
+        <v>0.231</v>
       </c>
       <c r="O27" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4450,7 +4446,7 @@
         <v>170</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="D28" t="s">
         <v>171</v>
@@ -4460,31 +4456,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H28" t="n">
-        <v>654588</v>
+        <v>661623</v>
       </c>
       <c r="I28" t="n">
-        <v>24.815</v>
+        <v>25.082</v>
       </c>
       <c r="J28" t="n">
-        <v>1810</v>
+        <v>1826</v>
       </c>
       <c r="K28" t="n">
         <v>0.069</v>
       </c>
       <c r="L28" t="n">
-        <v>1934</v>
+        <v>2099</v>
       </c>
       <c r="M28" t="n">
-        <v>0.073</v>
+        <v>0.08</v>
       </c>
       <c r="N28" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="O28" t="n">
-        <v>55.7</v>
+        <v>57.2</v>
       </c>
       <c r="P28" t="s">
         <v>172</v>
@@ -4507,7 +4503,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4517,31 +4513,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H29" t="n">
-        <v>2032200</v>
+        <v>2045229</v>
       </c>
       <c r="I29" t="n">
-        <v>495.022</v>
+        <v>498.196</v>
       </c>
       <c r="J29" t="n">
-        <v>6049</v>
+        <v>4973</v>
       </c>
       <c r="K29" t="n">
-        <v>1.473</v>
+        <v>1.211</v>
       </c>
       <c r="L29" t="n">
-        <v>5379</v>
+        <v>4841</v>
       </c>
       <c r="M29" t="n">
-        <v>1.31</v>
+        <v>1.179</v>
       </c>
       <c r="N29" t="n">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="O29" t="n">
-        <v>20.8</v>
+        <v>23.8</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4564,7 +4560,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4576,31 +4572,31 @@
         <v>185</v>
       </c>
       <c r="G30" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H30" t="n">
-        <v>4393370</v>
+        <v>4484454</v>
       </c>
       <c r="I30" t="n">
-        <v>387.88</v>
+        <v>395.922</v>
       </c>
       <c r="J30" t="n">
-        <v>22620</v>
+        <v>20992</v>
       </c>
       <c r="K30" t="n">
-        <v>1.997</v>
+        <v>1.853</v>
       </c>
       <c r="L30" t="n">
-        <v>22170</v>
+        <v>22227</v>
       </c>
       <c r="M30" t="n">
-        <v>1.957</v>
+        <v>1.962</v>
       </c>
       <c r="N30" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="O30" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4623,7 +4619,7 @@
         <v>189</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D31" t="s">
         <v>190</v>
@@ -4633,31 +4629,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H31" t="n">
-        <v>7140326</v>
+        <v>7336892</v>
       </c>
       <c r="I31" t="n">
-        <v>8151.997</v>
+        <v>8376.413</v>
       </c>
       <c r="J31" t="n">
-        <v>43163</v>
+        <v>46611</v>
       </c>
       <c r="K31" t="n">
-        <v>49.279</v>
+        <v>53.215</v>
       </c>
       <c r="L31" t="n">
-        <v>48366</v>
+        <v>46046</v>
       </c>
       <c r="M31" t="n">
-        <v>55.219</v>
+        <v>52.57</v>
       </c>
       <c r="N31" t="n">
         <v>0.001</v>
       </c>
       <c r="O31" t="n">
-        <v>863.7</v>
+        <v>801.8</v>
       </c>
       <c r="P31" t="s">
         <v>42</v>
@@ -4680,7 +4676,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D32" t="s">
         <v>194</v>
@@ -4690,21 +4686,21 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="n">
-        <v>164513</v>
+        <v>190948</v>
       </c>
       <c r="K32" t="n">
-        <v>15.362</v>
+        <v>17.831</v>
       </c>
       <c r="L32" t="n">
-        <v>163177</v>
+        <v>153145</v>
       </c>
       <c r="M32" t="n">
-        <v>15.237</v>
+        <v>14.301</v>
       </c>
       <c r="N32" t="n">
         <v>0.002</v>
@@ -4733,7 +4729,7 @@
         <v>197</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D33" t="s">
         <v>198</v>
@@ -4743,15 +4739,15 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>488</v>
+        <v>587</v>
       </c>
       <c r="K33" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -4778,7 +4774,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4788,31 +4784,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H34" t="n">
-        <v>32583080</v>
+        <v>33135872</v>
       </c>
       <c r="I34" t="n">
-        <v>5625.335</v>
+        <v>5720.772</v>
       </c>
       <c r="J34" t="n">
-        <v>124618</v>
+        <v>77938</v>
       </c>
       <c r="K34" t="n">
-        <v>21.515</v>
+        <v>13.456</v>
       </c>
       <c r="L34" t="n">
-        <v>142244</v>
+        <v>135661</v>
       </c>
       <c r="M34" t="n">
-        <v>24.558</v>
+        <v>23.421</v>
       </c>
       <c r="N34" t="n">
         <v>0.007</v>
       </c>
       <c r="O34" t="n">
-        <v>143</v>
+        <v>152.3</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4835,7 +4831,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44346</v>
+        <v>44351</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4845,27 +4841,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H35" t="n">
-        <v>1551549</v>
+        <v>1578947</v>
       </c>
       <c r="I35" t="n">
-        <v>143.028</v>
+        <v>145.553</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>4912</v>
+        <v>5375</v>
       </c>
       <c r="M35" t="n">
-        <v>0.453</v>
+        <v>0.495</v>
       </c>
       <c r="N35" t="n">
-        <v>0.238</v>
+        <v>0.243</v>
       </c>
       <c r="O35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4888,7 +4884,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4900,31 +4896,31 @@
         <v>218</v>
       </c>
       <c r="G36" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H36" t="n">
-        <v>1378573</v>
+        <v>1394714</v>
       </c>
       <c r="I36" t="n">
-        <v>78.137</v>
+        <v>79.052</v>
       </c>
       <c r="J36" t="n">
-        <v>4643</v>
+        <v>2080</v>
       </c>
       <c r="K36" t="n">
-        <v>0.263</v>
+        <v>0.118</v>
       </c>
       <c r="L36" t="n">
-        <v>3772</v>
+        <v>3565</v>
       </c>
       <c r="M36" t="n">
-        <v>0.214</v>
+        <v>0.202</v>
       </c>
       <c r="N36" t="n">
-        <v>0.289</v>
+        <v>0.269</v>
       </c>
       <c r="O36" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="P36" t="s">
         <v>219</v>
@@ -5004,7 +5000,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D38" t="s">
         <v>230</v>
@@ -5014,31 +5010,31 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H38" t="n">
-        <v>1443219</v>
+        <v>1460967</v>
       </c>
       <c r="I38" t="n">
-        <v>1087.958</v>
+        <v>1101.337</v>
       </c>
       <c r="J38" t="n">
-        <v>3972</v>
+        <v>4087</v>
       </c>
       <c r="K38" t="n">
-        <v>2.994</v>
+        <v>3.081</v>
       </c>
       <c r="L38" t="n">
-        <v>4114</v>
+        <v>3987</v>
       </c>
       <c r="M38" t="n">
-        <v>3.101</v>
+        <v>3.006</v>
       </c>
       <c r="N38" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="O38" t="n">
-        <v>36.5</v>
+        <v>45.6</v>
       </c>
       <c r="P38" t="s">
         <v>231</v>
@@ -5061,7 +5057,7 @@
         <v>234</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D39" t="s">
         <v>235</v>
@@ -5071,31 +5067,31 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H39" t="n">
-        <v>2737938</v>
+        <v>2755429</v>
       </c>
       <c r="I39" t="n">
-        <v>23.816</v>
+        <v>23.968</v>
       </c>
       <c r="J39" t="n">
-        <v>4376</v>
+        <v>3442</v>
       </c>
       <c r="K39" t="n">
-        <v>0.038</v>
+        <v>0.03</v>
       </c>
       <c r="L39" t="n">
-        <v>4542</v>
+        <v>4496</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="N39" t="n">
-        <v>0.055</v>
+        <v>0.047</v>
       </c>
       <c r="O39" t="n">
-        <v>18.1</v>
+        <v>21.2</v>
       </c>
       <c r="P39" t="s">
         <v>236</v>
@@ -5175,7 +5171,7 @@
         <v>244</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44348</v>
+        <v>44353</v>
       </c>
       <c r="D41" t="s">
         <v>245</v>
@@ -5185,31 +5181,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H41" t="n">
-        <v>5078609</v>
+        <v>5147709</v>
       </c>
       <c r="I41" t="n">
-        <v>916.598</v>
+        <v>929.069</v>
       </c>
       <c r="J41" t="n">
-        <v>20036</v>
+        <v>6691</v>
       </c>
       <c r="K41" t="n">
-        <v>3.616</v>
+        <v>1.208</v>
       </c>
       <c r="L41" t="n">
-        <v>16485</v>
+        <v>14453</v>
       </c>
       <c r="M41" t="n">
-        <v>2.975</v>
+        <v>2.609</v>
       </c>
       <c r="N41" t="n">
         <v>0.008</v>
       </c>
       <c r="O41" t="n">
-        <v>128.5</v>
+        <v>127.4</v>
       </c>
       <c r="P41" t="s">
         <v>247</v>
@@ -5232,7 +5228,7 @@
         <v>250</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44347</v>
+        <v>44351</v>
       </c>
       <c r="D42" t="s">
         <v>251</v>
@@ -5242,27 +5238,27 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42" t="n">
-        <v>396726</v>
+        <v>411573</v>
       </c>
       <c r="K42" t="n">
-        <v>5.872</v>
+        <v>6.092</v>
       </c>
       <c r="L42" t="n">
-        <v>337149</v>
+        <v>301250</v>
       </c>
       <c r="M42" t="n">
-        <v>4.99</v>
+        <v>4.459</v>
       </c>
       <c r="N42" t="n">
-        <v>0.031</v>
+        <v>0.024</v>
       </c>
       <c r="O42" t="n">
-        <v>32.3</v>
+        <v>41.7</v>
       </c>
       <c r="P42" t="s">
         <v>252</v>
@@ -5342,7 +5338,7 @@
         <v>260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="D44" t="s">
         <v>261</v>
@@ -5352,19 +5348,19 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44" t="n">
-        <v>5067000</v>
+        <v>5097000</v>
       </c>
       <c r="I44" t="n">
-        <v>1270.187</v>
+        <v>1277.708</v>
       </c>
       <c r="J44" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="K44" t="n">
-        <v>2.005</v>
+        <v>7.52</v>
       </c>
       <c r="L44" t="n">
         <v>30286</v>
@@ -5373,10 +5369,10 @@
         <v>7.592</v>
       </c>
       <c r="N44" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="O44" t="n">
-        <v>34.5</v>
+        <v>36.1</v>
       </c>
       <c r="P44" t="s">
         <v>262</v>
@@ -5452,7 +5448,7 @@
         <v>272</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44344</v>
+        <v>44349</v>
       </c>
       <c r="D46" t="s">
         <v>273</v>
@@ -5462,27 +5458,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H46" t="n">
-        <v>1170855</v>
+        <v>1188952</v>
       </c>
       <c r="I46" t="n">
-        <v>37.681</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
+        <v>38.263</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3143</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.101</v>
+      </c>
       <c r="L46" t="n">
-        <v>3015</v>
+        <v>3510</v>
       </c>
       <c r="M46" t="n">
-        <v>0.097</v>
+        <v>0.113</v>
       </c>
       <c r="N46" t="n">
         <v>0.012</v>
       </c>
       <c r="O46" t="n">
-        <v>83.1</v>
+        <v>81.9</v>
       </c>
       <c r="P46" t="s">
         <v>275</v>
@@ -5505,7 +5505,7 @@
         <v>278</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
@@ -5515,31 +5515,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H47" t="n">
-        <v>9673644</v>
+        <v>9812468</v>
       </c>
       <c r="I47" t="n">
-        <v>928.101</v>
+        <v>941.419</v>
       </c>
       <c r="J47" t="n">
-        <v>46251</v>
+        <v>20703</v>
       </c>
       <c r="K47" t="n">
-        <v>4.437</v>
+        <v>1.986</v>
       </c>
       <c r="L47" t="n">
-        <v>42185</v>
+        <v>41700</v>
       </c>
       <c r="M47" t="n">
-        <v>4.047</v>
+        <v>4.001</v>
       </c>
       <c r="N47" t="n">
-        <v>0.033</v>
+        <v>0.027</v>
       </c>
       <c r="O47" t="n">
-        <v>30.2</v>
+        <v>37.1</v>
       </c>
       <c r="P47" t="s">
         <v>281</v>
@@ -5562,7 +5562,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5572,31 +5572,31 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H48" t="n">
-        <v>1438805</v>
+        <v>1456203</v>
       </c>
       <c r="I48" t="n">
-        <v>80.31</v>
+        <v>81.281</v>
       </c>
       <c r="J48" t="n">
-        <v>7148</v>
+        <v>1432</v>
       </c>
       <c r="K48" t="n">
-        <v>0.399</v>
+        <v>0.08</v>
       </c>
       <c r="L48" t="n">
-        <v>5006</v>
+        <v>5283</v>
       </c>
       <c r="M48" t="n">
-        <v>0.279</v>
+        <v>0.295</v>
       </c>
       <c r="N48" t="n">
-        <v>0.196</v>
+        <v>0.209</v>
       </c>
       <c r="O48" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="P48" t="s">
         <v>288</v>
@@ -5672,7 +5672,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5684,25 +5684,25 @@
         <v>302</v>
       </c>
       <c r="G50" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H50" t="n">
-        <v>5434051</v>
+        <v>5471908</v>
       </c>
       <c r="I50" t="n">
-        <v>562.511</v>
+        <v>566.43</v>
       </c>
       <c r="J50" t="n">
-        <v>18673</v>
+        <v>5878</v>
       </c>
       <c r="K50" t="n">
-        <v>1.933</v>
+        <v>0.608</v>
       </c>
       <c r="L50" t="n">
-        <v>14040</v>
+        <v>12159</v>
       </c>
       <c r="M50" t="n">
-        <v>1.453</v>
+        <v>1.259</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -5780,7 +5780,7 @@
         <v>311</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44351</v>
+        <v>44353</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -5792,28 +5792,32 @@
         <v>314</v>
       </c>
       <c r="G52" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H52" t="n">
-        <v>357433846</v>
+        <v>364746522</v>
       </c>
       <c r="I52" t="n">
-        <v>259.009</v>
+        <v>264.308</v>
       </c>
       <c r="J52" t="n">
-        <v>3651198</v>
+        <v>3572380</v>
       </c>
       <c r="K52" t="n">
-        <v>2.646</v>
+        <v>2.589</v>
       </c>
       <c r="L52" t="n">
-        <v>2627712</v>
+        <v>3080396</v>
       </c>
       <c r="M52" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="N52"/>
-      <c r="O52"/>
+        <v>2.232</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O52" t="n">
+        <v>25</v>
+      </c>
       <c r="P52" t="s">
         <v>313</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -5845,31 +5849,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H53" t="n">
-        <v>11411006</v>
+        <v>11633720</v>
       </c>
       <c r="I53" t="n">
-        <v>41.719</v>
+        <v>42.533</v>
       </c>
       <c r="J53" t="n">
-        <v>58367</v>
+        <v>51495</v>
       </c>
       <c r="K53" t="n">
-        <v>0.213</v>
+        <v>0.188</v>
       </c>
       <c r="L53" t="n">
-        <v>58607</v>
+        <v>54630</v>
       </c>
       <c r="M53" t="n">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="N53" t="n">
-        <v>0.097</v>
+        <v>0.108</v>
       </c>
       <c r="O53" t="n">
-        <v>10.4</v>
+        <v>9.3</v>
       </c>
       <c r="P53" t="s">
         <v>319</v>
@@ -5892,7 +5896,7 @@
         <v>323</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D54" t="s">
         <v>324</v>
@@ -5902,27 +5906,27 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H54" t="n">
-        <v>20183510</v>
+        <v>20812819</v>
       </c>
       <c r="I54" t="n">
-        <v>240.3</v>
+        <v>247.792</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>125138</v>
+        <v>125182</v>
       </c>
       <c r="M54" t="n">
         <v>1.49</v>
       </c>
       <c r="N54" t="n">
-        <v>0.079</v>
+        <v>0.066</v>
       </c>
       <c r="O54" t="n">
-        <v>12.6</v>
+        <v>15.1</v>
       </c>
       <c r="P54" t="s">
         <v>325</v>
@@ -5945,7 +5949,7 @@
         <v>329</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D55" t="s">
         <v>330</v>
@@ -5955,31 +5959,31 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H55" t="n">
-        <v>10530876</v>
+        <v>10719740</v>
       </c>
       <c r="I55" t="n">
-        <v>261.816</v>
+        <v>266.511</v>
       </c>
       <c r="J55" t="n">
-        <v>46905</v>
+        <v>40407</v>
       </c>
       <c r="K55" t="n">
-        <v>1.166</v>
+        <v>1.005</v>
       </c>
       <c r="L55" t="n">
-        <v>39985</v>
+        <v>39536</v>
       </c>
       <c r="M55" t="n">
-        <v>0.994</v>
+        <v>0.983</v>
       </c>
       <c r="N55" t="n">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="O55" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="P55" t="s">
         <v>332</v>
@@ -6059,7 +6063,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6069,31 +6073,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H57" t="n">
-        <v>17010116</v>
+        <v>17072424</v>
       </c>
       <c r="I57" t="n">
-        <v>1965.229</v>
+        <v>1972.427</v>
       </c>
       <c r="J57" t="n">
-        <v>16990</v>
+        <v>17579</v>
       </c>
       <c r="K57" t="n">
-        <v>1.963</v>
+        <v>2.031</v>
       </c>
       <c r="L57" t="n">
-        <v>22473</v>
+        <v>17665</v>
       </c>
       <c r="M57" t="n">
-        <v>2.596</v>
+        <v>2.041</v>
       </c>
       <c r="N57" t="n">
         <v>0.001</v>
       </c>
       <c r="O57" t="n">
-        <v>1404.6</v>
+        <v>1124.2</v>
       </c>
       <c r="P57" t="s">
         <v>42</v>
@@ -6116,7 +6120,7 @@
         <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="D58" t="s">
         <v>349</v>
@@ -6128,31 +6132,31 @@
         <v>351</v>
       </c>
       <c r="G58" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H58" t="n">
-        <v>28277767</v>
+        <v>28497871</v>
       </c>
       <c r="I58" t="n">
-        <v>467.696</v>
+        <v>471.337</v>
       </c>
       <c r="J58" t="n">
-        <v>35665</v>
+        <v>55305</v>
       </c>
       <c r="K58" t="n">
-        <v>0.59</v>
+        <v>0.915</v>
       </c>
       <c r="L58" t="n">
-        <v>55802</v>
+        <v>59193</v>
       </c>
       <c r="M58" t="n">
-        <v>0.923</v>
+        <v>0.979</v>
       </c>
       <c r="N58" t="n">
-        <v>0.049</v>
+        <v>0.04</v>
       </c>
       <c r="O58" t="n">
-        <v>20.4</v>
+        <v>25.2</v>
       </c>
       <c r="P58" t="s">
         <v>352</v>
@@ -6175,7 +6179,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D59" t="s">
         <v>349</v>
@@ -6187,31 +6191,31 @@
         <v>351</v>
       </c>
       <c r="G59" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H59" t="n">
-        <v>66620345</v>
+        <v>67412074</v>
       </c>
       <c r="I59" t="n">
-        <v>1101.858</v>
+        <v>1114.953</v>
       </c>
       <c r="J59" t="n">
-        <v>226272</v>
+        <v>84567</v>
       </c>
       <c r="K59" t="n">
-        <v>3.742</v>
+        <v>1.399</v>
       </c>
       <c r="L59" t="n">
-        <v>205824</v>
+        <v>177117</v>
       </c>
       <c r="M59" t="n">
-        <v>3.404</v>
+        <v>2.929</v>
       </c>
       <c r="N59" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="O59" t="n">
-        <v>67.4</v>
+        <v>78.1</v>
       </c>
       <c r="P59" t="s">
         <v>352</v>
@@ -6234,7 +6238,7 @@
         <v>358</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44342</v>
+        <v>44351</v>
       </c>
       <c r="D60" t="s">
         <v>359</v>
@@ -6244,27 +6248,27 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H60" t="n">
-        <v>372604</v>
+        <v>391215</v>
       </c>
       <c r="I60" t="n">
-        <v>125.83</v>
+        <v>132.115</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>1683</v>
+        <v>2068</v>
       </c>
       <c r="M60" t="n">
-        <v>0.568</v>
+        <v>0.698</v>
       </c>
       <c r="N60" t="n">
-        <v>0.045</v>
+        <v>0.024</v>
       </c>
       <c r="O60" t="n">
-        <v>22.3</v>
+        <v>41.4</v>
       </c>
       <c r="P60" t="s">
         <v>360</v>
@@ -6287,7 +6291,7 @@
         <v>364</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D61" t="s">
         <v>365</v>
@@ -6297,31 +6301,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H61" t="n">
-        <v>13860464</v>
+        <v>14290924</v>
       </c>
       <c r="I61" t="n">
-        <v>109.589</v>
+        <v>112.993</v>
       </c>
       <c r="J61" t="n">
-        <v>76590</v>
+        <v>75134</v>
       </c>
       <c r="K61" t="n">
-        <v>0.606</v>
+        <v>0.594</v>
       </c>
       <c r="L61" t="n">
-        <v>78568</v>
+        <v>82063</v>
       </c>
       <c r="M61" t="n">
-        <v>0.621</v>
+        <v>0.649</v>
       </c>
       <c r="N61" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O61" t="n">
-        <v>25.2</v>
+        <v>33.8</v>
       </c>
       <c r="P61" t="s">
         <v>366</v>
@@ -6344,7 +6348,7 @@
         <v>370</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44346</v>
+        <v>44354</v>
       </c>
       <c r="D62" t="s">
         <v>371</v>
@@ -6354,31 +6358,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H62" t="n">
-        <v>7260498</v>
+        <v>7429181</v>
       </c>
       <c r="I62" t="n">
-        <v>711.594</v>
+        <v>728.127</v>
       </c>
       <c r="J62" t="n">
-        <v>15346</v>
+        <v>22128</v>
       </c>
       <c r="K62" t="n">
-        <v>1.504</v>
+        <v>2.169</v>
       </c>
       <c r="L62" t="n">
-        <v>20229</v>
+        <v>21085</v>
       </c>
       <c r="M62" t="n">
-        <v>1.983</v>
+        <v>2.067</v>
       </c>
       <c r="N62" t="n">
-        <v>0.058</v>
+        <v>0.022</v>
       </c>
       <c r="O62" t="n">
-        <v>17.2</v>
+        <v>44.6</v>
       </c>
       <c r="P62" t="s">
         <v>372</v>
@@ -6511,7 +6515,7 @@
         <v>386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D65" t="s">
         <v>387</v>
@@ -6521,27 +6525,27 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>619091</v>
+        <v>627803</v>
       </c>
       <c r="I65" t="n">
-        <v>320.312</v>
+        <v>324.82</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>2747</v>
+        <v>2349</v>
       </c>
       <c r="M65" t="n">
-        <v>1.421</v>
+        <v>1.215</v>
       </c>
       <c r="N65" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O65" t="n">
-        <v>143.5</v>
+        <v>169.5</v>
       </c>
       <c r="P65" t="s">
         <v>389</v>
@@ -6564,7 +6568,7 @@
         <v>392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D66" t="s">
         <v>393</v>
@@ -6574,31 +6578,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H66" t="n">
-        <v>2640588</v>
+        <v>2682924</v>
       </c>
       <c r="I66" t="n">
-        <v>618.323</v>
+        <v>628.237</v>
       </c>
       <c r="J66" t="n">
-        <v>11043</v>
+        <v>11911</v>
       </c>
       <c r="K66" t="n">
-        <v>2.586</v>
+        <v>2.789</v>
       </c>
       <c r="L66" t="n">
-        <v>10523</v>
+        <v>10736</v>
       </c>
       <c r="M66" t="n">
-        <v>2.464</v>
+        <v>2.514</v>
       </c>
       <c r="N66" t="n">
-        <v>0.123</v>
+        <v>0.126</v>
       </c>
       <c r="O66" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="P66" t="s">
         <v>394</v>
@@ -6621,7 +6625,7 @@
         <v>398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="D67" t="s">
         <v>399</v>
@@ -6631,28 +6635,28 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H67" t="n">
-        <v>254153</v>
+        <v>263648</v>
       </c>
       <c r="I67" t="n">
-        <v>34.932</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67"/>
+        <v>36.238</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1485</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.204</v>
+      </c>
       <c r="L67" t="n">
-        <v>2024</v>
+        <v>1879</v>
       </c>
       <c r="M67" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="O67" t="n">
-        <v>295.2</v>
-      </c>
+        <v>0.258</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
       <c r="P67" t="s">
         <v>400</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="D68" t="s">
         <v>404</v>
@@ -6686,32 +6690,28 @@
         <v>406</v>
       </c>
       <c r="G68" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H68" t="n">
-        <v>2648925</v>
+        <v>2690429</v>
       </c>
       <c r="I68" t="n">
-        <v>1404.37</v>
+        <v>1426.374</v>
       </c>
       <c r="J68" t="n">
-        <v>11679</v>
+        <v>12773</v>
       </c>
       <c r="K68" t="n">
-        <v>6.192</v>
+        <v>6.772</v>
       </c>
       <c r="L68" t="n">
-        <v>10018</v>
+        <v>9087</v>
       </c>
       <c r="M68" t="n">
-        <v>5.311</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="O68" t="n">
-        <v>36.8</v>
-      </c>
+        <v>4.818</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" t="s">
         <v>405</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>409</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="D69" t="s">
         <v>410</v>
@@ -6743,21 +6743,21 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H69" t="n">
-        <v>4429826</v>
+        <v>4513473</v>
       </c>
       <c r="I69" t="n">
-        <v>649.017</v>
+        <v>661.272</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>14393</v>
+        <v>14637</v>
       </c>
       <c r="M69" t="n">
-        <v>2.109</v>
+        <v>2.144</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
@@ -6782,7 +6782,7 @@
         <v>414</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D70" t="s">
         <v>415</v>
@@ -6792,15 +6792,15 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="n">
-        <v>3718</v>
+        <v>3956</v>
       </c>
       <c r="K70" t="n">
-        <v>0.541</v>
+        <v>0.576</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -6827,7 +6827,7 @@
         <v>420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="D71" t="s">
         <v>421</v>
@@ -6837,31 +6837,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H71" t="n">
-        <v>47110</v>
+        <v>47954</v>
       </c>
       <c r="I71" t="n">
-        <v>1235.283</v>
+        <v>1257.414</v>
       </c>
       <c r="J71" t="n">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="K71" t="n">
-        <v>9.413</v>
+        <v>2.858</v>
       </c>
       <c r="L71" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M71" t="n">
-        <v>5.769</v>
+        <v>5.69</v>
       </c>
       <c r="N71" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="O71" t="n">
-        <v>100</v>
+        <v>111.1</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6884,7 +6884,7 @@
         <v>426</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="D72" t="s">
         <v>427</v>
@@ -6894,31 +6894,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H72" t="n">
-        <v>3503918</v>
+        <v>3577793</v>
       </c>
       <c r="I72" t="n">
-        <v>1287.121</v>
+        <v>1314.258</v>
       </c>
       <c r="J72" t="n">
-        <v>22431</v>
+        <v>21755</v>
       </c>
       <c r="K72" t="n">
-        <v>8.24</v>
+        <v>7.991</v>
       </c>
       <c r="L72" t="n">
-        <v>19850</v>
+        <v>19593</v>
       </c>
       <c r="M72" t="n">
-        <v>7.292</v>
+        <v>7.197</v>
       </c>
       <c r="N72" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="O72" t="n">
-        <v>41.7</v>
+        <v>47.6</v>
       </c>
       <c r="P72" t="s">
         <v>428</v>
@@ -6941,7 +6941,7 @@
         <v>431</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44349</v>
+        <v>44352</v>
       </c>
       <c r="D73" t="s">
         <v>432</v>
@@ -6951,31 +6951,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H73" t="n">
-        <v>2918328</v>
+        <v>2942194</v>
       </c>
       <c r="I73" t="n">
-        <v>4662.045</v>
+        <v>4700.171</v>
       </c>
       <c r="J73" t="n">
-        <v>6881</v>
+        <v>5760</v>
       </c>
       <c r="K73" t="n">
-        <v>10.992</v>
+        <v>9.202</v>
       </c>
       <c r="L73" t="n">
-        <v>6949</v>
+        <v>6759</v>
       </c>
       <c r="M73" t="n">
-        <v>11.101</v>
+        <v>10.798</v>
       </c>
       <c r="N73" t="n">
         <v>0.007</v>
       </c>
       <c r="O73" t="n">
-        <v>135.9</v>
+        <v>134.4</v>
       </c>
       <c r="P73" t="s">
         <v>433</v>
@@ -6998,7 +6998,7 @@
         <v>436</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D74" t="s">
         <v>437</v>
@@ -7008,31 +7008,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H74" t="n">
-        <v>204569</v>
+        <v>206212</v>
       </c>
       <c r="I74" t="n">
-        <v>7.388</v>
+        <v>7.447</v>
       </c>
       <c r="J74" t="n">
-        <v>459</v>
+        <v>327</v>
       </c>
       <c r="K74" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="L74" t="n">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="M74" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="N74" t="n">
-        <v>0.117</v>
+        <v>0.154</v>
       </c>
       <c r="O74" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="P74" t="s">
         <v>438</v>
@@ -7108,7 +7108,7 @@
         <v>448</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D76" t="s">
         <v>449</v>
@@ -7118,31 +7118,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H76" t="n">
-        <v>12371406</v>
+        <v>12752267</v>
       </c>
       <c r="I76" t="n">
-        <v>382.235</v>
+        <v>394.002</v>
       </c>
       <c r="J76" t="n">
-        <v>104109</v>
+        <v>81708</v>
       </c>
       <c r="K76" t="n">
-        <v>3.217</v>
+        <v>2.525</v>
       </c>
       <c r="L76" t="n">
-        <v>122579</v>
+        <v>98020</v>
       </c>
       <c r="M76" t="n">
-        <v>3.787</v>
+        <v>3.028</v>
       </c>
       <c r="N76" t="n">
-        <v>0.063</v>
+        <v>0.072</v>
       </c>
       <c r="O76" t="n">
-        <v>15.8</v>
+        <v>13.8</v>
       </c>
       <c r="P76" t="s">
         <v>42</v>
@@ -7165,7 +7165,7 @@
         <v>454</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D77" t="s">
         <v>455</v>
@@ -7175,31 +7175,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H77" t="n">
-        <v>897962</v>
+        <v>917399</v>
       </c>
       <c r="I77" t="n">
-        <v>1661.225</v>
+        <v>1697.184</v>
       </c>
       <c r="J77" t="n">
-        <v>3832</v>
+        <v>5043</v>
       </c>
       <c r="K77" t="n">
-        <v>7.089</v>
+        <v>9.33</v>
       </c>
       <c r="L77" t="n">
-        <v>4860</v>
+        <v>4876</v>
       </c>
       <c r="M77" t="n">
-        <v>8.991</v>
+        <v>9.021</v>
       </c>
       <c r="N77" t="n">
-        <v>0.164</v>
+        <v>0.12</v>
       </c>
       <c r="O77" t="n">
-        <v>6.1</v>
+        <v>8.3</v>
       </c>
       <c r="P77" t="s">
         <v>456</v>
@@ -7222,7 +7222,7 @@
         <v>460</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D78" t="s">
         <v>461</v>
@@ -7232,31 +7232,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H78" t="n">
-        <v>933864</v>
+        <v>942552</v>
       </c>
       <c r="I78" t="n">
-        <v>2115.02</v>
+        <v>2134.697</v>
       </c>
       <c r="J78" t="n">
-        <v>2799</v>
+        <v>1355</v>
       </c>
       <c r="K78" t="n">
-        <v>6.339</v>
+        <v>3.069</v>
       </c>
       <c r="L78" t="n">
-        <v>2200</v>
+        <v>2255</v>
       </c>
       <c r="M78" t="n">
-        <v>4.983</v>
+        <v>5.107</v>
       </c>
       <c r="N78" t="n">
         <v>0.002</v>
       </c>
       <c r="O78" t="n">
-        <v>416.2</v>
+        <v>438.5</v>
       </c>
       <c r="P78" t="s">
         <v>462</v>
@@ -7328,7 +7328,7 @@
         <v>472</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D80" t="s">
         <v>473</v>
@@ -7338,31 +7338,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H80" t="n">
-        <v>6660277</v>
+        <v>6701075</v>
       </c>
       <c r="I80" t="n">
-        <v>51.657</v>
+        <v>51.973</v>
       </c>
       <c r="J80" t="n">
-        <v>6413</v>
+        <v>789</v>
       </c>
       <c r="K80" t="n">
-        <v>0.05</v>
+        <v>0.006</v>
       </c>
       <c r="L80" t="n">
-        <v>9178</v>
+        <v>9201</v>
       </c>
       <c r="M80" t="n">
         <v>0.071</v>
       </c>
       <c r="N80" t="n">
-        <v>0.192</v>
+        <v>0.2</v>
       </c>
       <c r="O80" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="P80" t="s">
         <v>475</v>
@@ -7385,7 +7385,7 @@
         <v>478</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D81" t="s">
         <v>479</v>
@@ -7395,21 +7395,21 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="n">
-        <v>1131074</v>
+        <v>1148201</v>
       </c>
       <c r="I81" t="n">
-        <v>280.388</v>
+        <v>284.633</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81" t="n">
-        <v>3705</v>
+        <v>4670</v>
       </c>
       <c r="M81" t="n">
-        <v>0.918</v>
+        <v>1.158</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
@@ -7434,7 +7434,7 @@
         <v>483</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D82" t="s">
         <v>484</v>
@@ -7444,31 +7444,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H82" t="n">
-        <v>2955253</v>
+        <v>2993959</v>
       </c>
       <c r="I82" t="n">
-        <v>901.461</v>
+        <v>913.268</v>
       </c>
       <c r="J82" t="n">
-        <v>7102</v>
+        <v>7501</v>
       </c>
       <c r="K82" t="n">
-        <v>2.166</v>
+        <v>2.288</v>
       </c>
       <c r="L82" t="n">
-        <v>7391</v>
+        <v>8631</v>
       </c>
       <c r="M82" t="n">
-        <v>2.255</v>
+        <v>2.633</v>
       </c>
       <c r="N82" t="n">
-        <v>0.103</v>
+        <v>0.148</v>
       </c>
       <c r="O82" t="n">
-        <v>9.8</v>
+        <v>6.8</v>
       </c>
       <c r="P82" t="s">
         <v>42</v>
@@ -7491,7 +7491,7 @@
         <v>488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D83" t="s">
         <v>489</v>
@@ -7501,31 +7501,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H83" t="n">
-        <v>6020249</v>
+        <v>6050938</v>
       </c>
       <c r="I83" t="n">
-        <v>163.104</v>
+        <v>163.935</v>
       </c>
       <c r="J83" t="n">
-        <v>8770</v>
+        <v>3791</v>
       </c>
       <c r="K83" t="n">
-        <v>0.238</v>
+        <v>0.103</v>
       </c>
       <c r="L83" t="n">
-        <v>8361</v>
+        <v>8231</v>
       </c>
       <c r="M83" t="n">
-        <v>0.227</v>
+        <v>0.223</v>
       </c>
       <c r="N83" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="O83" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="P83" t="s">
         <v>490</v>
@@ -7548,7 +7548,7 @@
         <v>494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="D84" t="s">
         <v>495</v>
@@ -7558,31 +7558,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H84" t="n">
-        <v>557044</v>
+        <v>560774</v>
       </c>
       <c r="I84" t="n">
-        <v>17.822</v>
+        <v>17.942</v>
       </c>
       <c r="J84" t="n">
-        <v>999</v>
+        <v>1038</v>
       </c>
       <c r="K84" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="L84" t="n">
-        <v>1064</v>
+        <v>1114</v>
       </c>
       <c r="M84" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="N84" t="n">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="O84" t="n">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="P84" t="s">
         <v>496</v>
@@ -7605,7 +7605,7 @@
         <v>500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D85" t="s">
         <v>501</v>
@@ -7615,31 +7615,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H85" t="n">
-        <v>2626468</v>
+        <v>2633023</v>
       </c>
       <c r="I85" t="n">
-        <v>48.272</v>
+        <v>48.392</v>
       </c>
       <c r="J85" t="n">
-        <v>1448</v>
+        <v>2216</v>
       </c>
       <c r="K85" t="n">
-        <v>0.027</v>
+        <v>0.041</v>
       </c>
       <c r="L85" t="n">
-        <v>1429</v>
+        <v>1659</v>
       </c>
       <c r="M85" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="N85" t="n">
-        <v>0.053</v>
+        <v>0.071</v>
       </c>
       <c r="O85" t="n">
-        <v>18.8</v>
+        <v>14</v>
       </c>
       <c r="P85" t="s">
         <v>502</v>
@@ -7662,7 +7662,7 @@
         <v>506</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="D86" t="s">
         <v>507</v>
@@ -7672,31 +7672,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H86" t="n">
-        <v>441606</v>
+        <v>448892</v>
       </c>
       <c r="I86" t="n">
-        <v>173.798</v>
+        <v>176.665</v>
       </c>
       <c r="J86" t="n">
-        <v>3146</v>
+        <v>2328</v>
       </c>
       <c r="K86" t="n">
-        <v>1.238</v>
+        <v>0.916</v>
       </c>
       <c r="L86" t="n">
-        <v>2105</v>
+        <v>2209</v>
       </c>
       <c r="M86" t="n">
-        <v>0.828</v>
+        <v>0.869</v>
       </c>
       <c r="N86" t="n">
-        <v>0.209</v>
+        <v>0.231</v>
       </c>
       <c r="O86" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="P86" t="s">
         <v>509</v>
@@ -7719,7 +7719,7 @@
         <v>513</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D87" t="s">
         <v>514</v>
@@ -7729,31 +7729,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H87" t="n">
-        <v>3106938</v>
+        <v>3155064</v>
       </c>
       <c r="I87" t="n">
-        <v>106.633</v>
+        <v>108.284</v>
       </c>
       <c r="J87" t="n">
-        <v>18562</v>
+        <v>12002</v>
       </c>
       <c r="K87" t="n">
-        <v>0.637</v>
+        <v>0.412</v>
       </c>
       <c r="L87" t="n">
-        <v>15553</v>
+        <v>13949</v>
       </c>
       <c r="M87" t="n">
-        <v>0.534</v>
+        <v>0.479</v>
       </c>
       <c r="N87" t="n">
-        <v>0.319</v>
+        <v>0.309</v>
       </c>
       <c r="O87" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P87" t="s">
         <v>515</v>
@@ -7829,7 +7829,7 @@
         <v>526</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D89" t="s">
         <v>527</v>
@@ -7839,25 +7839,21 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H89" t="n">
-        <v>2159702</v>
+        <v>2171925</v>
       </c>
       <c r="I89" t="n">
-        <v>447.863</v>
-      </c>
-      <c r="J89" t="n">
-        <v>4771</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.989</v>
-      </c>
+        <v>450.398</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="L89" t="n">
-        <v>4699</v>
+        <v>4076</v>
       </c>
       <c r="M89" t="n">
-        <v>0.974</v>
+        <v>0.845</v>
       </c>
       <c r="N89"/>
       <c r="O89"/>
@@ -7882,7 +7878,7 @@
         <v>532</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44347</v>
+        <v>44354</v>
       </c>
       <c r="D90" t="s">
         <v>533</v>
@@ -7892,27 +7888,27 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H90" t="n">
-        <v>2133061</v>
+        <v>2180444</v>
       </c>
       <c r="I90" t="n">
-        <v>10.348</v>
+        <v>10.578</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>5688</v>
+        <v>6769</v>
       </c>
       <c r="M90" t="n">
-        <v>0.028</v>
+        <v>0.033</v>
       </c>
       <c r="N90" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="O90" t="n">
-        <v>87.1</v>
+        <v>159</v>
       </c>
       <c r="P90" t="s">
         <v>534</v>
@@ -7935,7 +7931,7 @@
         <v>537</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D91" t="s">
         <v>538</v>
@@ -7945,27 +7941,31 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H91" t="n">
-        <v>804117</v>
+        <v>815282</v>
       </c>
       <c r="I91" t="n">
-        <v>385.968</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
+        <v>391.327</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4200</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.016</v>
+      </c>
       <c r="L91" t="n">
-        <v>3691</v>
+        <v>2950</v>
       </c>
       <c r="M91" t="n">
-        <v>1.772</v>
+        <v>1.416</v>
       </c>
       <c r="N91" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O91" t="n">
-        <v>132.5</v>
+        <v>141.4</v>
       </c>
       <c r="P91" t="s">
         <v>42</v>
@@ -7988,7 +7988,7 @@
         <v>542</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="D92" t="s">
         <v>543</v>
@@ -7998,31 +7998,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H92" t="n">
-        <v>5715218</v>
+        <v>5780875</v>
       </c>
       <c r="I92" t="n">
-        <v>1054.227</v>
+        <v>1066.338</v>
       </c>
       <c r="J92" t="n">
-        <v>18881</v>
+        <v>6887</v>
       </c>
       <c r="K92" t="n">
-        <v>3.483</v>
+        <v>1.27</v>
       </c>
       <c r="L92" t="n">
-        <v>17823</v>
+        <v>16780</v>
       </c>
       <c r="M92" t="n">
-        <v>3.288</v>
+        <v>3.095</v>
       </c>
       <c r="N92" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="O92" t="n">
-        <v>51.7</v>
+        <v>57.7</v>
       </c>
       <c r="P92" t="s">
         <v>544</v>
@@ -8090,7 +8090,7 @@
         <v>553</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D94" t="s">
         <v>554</v>
@@ -8100,25 +8100,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H94" t="n">
-        <v>13420779</v>
+        <v>13619766</v>
       </c>
       <c r="I94" t="n">
-        <v>60.757</v>
+        <v>61.658</v>
       </c>
       <c r="J94" t="n">
-        <v>52859</v>
+        <v>46882</v>
       </c>
       <c r="K94" t="n">
-        <v>0.239</v>
+        <v>0.212</v>
       </c>
       <c r="L94" t="n">
-        <v>51833</v>
+        <v>50079</v>
       </c>
       <c r="M94" t="n">
-        <v>0.235</v>
+        <v>0.227</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8143,7 +8143,7 @@
         <v>558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D95" t="s">
         <v>559</v>
@@ -8151,27 +8151,27 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>2382</v>
+        <v>3156</v>
       </c>
       <c r="K95" t="n">
-        <v>0.467</v>
+        <v>0.619</v>
       </c>
       <c r="L95" t="n">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="M95" t="n">
         <v>0.513</v>
       </c>
       <c r="N95" t="n">
-        <v>0.139</v>
+        <v>0.091</v>
       </c>
       <c r="O95" t="n">
-        <v>7.2</v>
+        <v>10.9</v>
       </c>
       <c r="P95" t="s">
         <v>560</v>
@@ -8194,7 +8194,7 @@
         <v>564</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D96" t="s">
         <v>565</v>
@@ -8204,31 +8204,31 @@
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H96" t="n">
-        <v>2673992</v>
+        <v>2718106</v>
       </c>
       <c r="I96" t="n">
-        <v>619.73</v>
+        <v>629.954</v>
       </c>
       <c r="J96" t="n">
-        <v>10866</v>
+        <v>7676</v>
       </c>
       <c r="K96" t="n">
-        <v>2.518</v>
+        <v>1.779</v>
       </c>
       <c r="L96" t="n">
-        <v>9567</v>
+        <v>10255</v>
       </c>
       <c r="M96" t="n">
-        <v>2.217</v>
+        <v>2.377</v>
       </c>
       <c r="N96" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="O96" t="n">
-        <v>17.1</v>
+        <v>15.3</v>
       </c>
       <c r="P96" t="s">
         <v>566</v>
@@ -8251,7 +8251,7 @@
         <v>570</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D97" t="s">
         <v>571</v>
@@ -8261,31 +8261,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H97" t="n">
-        <v>1310116</v>
+        <v>1343529</v>
       </c>
       <c r="I97" t="n">
-        <v>183.682</v>
+        <v>188.366</v>
       </c>
       <c r="J97" t="n">
-        <v>8651</v>
+        <v>7344</v>
       </c>
       <c r="K97" t="n">
-        <v>1.213</v>
+        <v>1.03</v>
       </c>
       <c r="L97" t="n">
-        <v>8244</v>
+        <v>8396</v>
       </c>
       <c r="M97" t="n">
-        <v>1.156</v>
+        <v>1.177</v>
       </c>
       <c r="N97" t="n">
-        <v>0.333</v>
+        <v>0.348</v>
       </c>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P97" t="s">
         <v>572</v>
@@ -8365,7 +8365,7 @@
         <v>580</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44348</v>
+        <v>44353</v>
       </c>
       <c r="D99" t="s">
         <v>581</v>
@@ -8375,31 +8375,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H99" t="n">
-        <v>12682374</v>
+        <v>12910630</v>
       </c>
       <c r="I99" t="n">
-        <v>115.735</v>
+        <v>117.818</v>
       </c>
       <c r="J99" t="n">
-        <v>41472</v>
+        <v>27571</v>
       </c>
       <c r="K99" t="n">
-        <v>0.378</v>
+        <v>0.252</v>
       </c>
       <c r="L99" t="n">
-        <v>46657</v>
+        <v>43920</v>
       </c>
       <c r="M99" t="n">
-        <v>0.426</v>
+        <v>0.401</v>
       </c>
       <c r="N99" t="n">
-        <v>0.143</v>
+        <v>0.149</v>
       </c>
       <c r="O99" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="P99" t="s">
         <v>294</v>
@@ -8422,7 +8422,7 @@
         <v>586</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D100" t="s">
         <v>587</v>
@@ -8432,31 +8432,31 @@
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H100" t="n">
-        <v>15765794</v>
+        <v>15923744</v>
       </c>
       <c r="I100" t="n">
-        <v>416.571</v>
+        <v>420.744</v>
       </c>
       <c r="J100" t="n">
-        <v>54545</v>
+        <v>31764</v>
       </c>
       <c r="K100" t="n">
-        <v>1.441</v>
+        <v>0.839</v>
       </c>
       <c r="L100" t="n">
-        <v>51734</v>
+        <v>46824</v>
       </c>
       <c r="M100" t="n">
-        <v>1.367</v>
+        <v>1.237</v>
       </c>
       <c r="N100" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="O100" t="n">
-        <v>81.6</v>
+        <v>107.6</v>
       </c>
       <c r="P100" t="s">
         <v>588</v>
@@ -8479,7 +8479,7 @@
         <v>591</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D101" t="s">
         <v>587</v>
@@ -8489,31 +8489,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H101" t="n">
-        <v>16131930</v>
+        <v>16292058</v>
       </c>
       <c r="I101" t="n">
-        <v>426.245</v>
+        <v>430.476</v>
       </c>
       <c r="J101" t="n">
-        <v>55146</v>
+        <v>32135</v>
       </c>
       <c r="K101" t="n">
-        <v>1.457</v>
+        <v>0.849</v>
       </c>
       <c r="L101" t="n">
-        <v>52411</v>
+        <v>47438</v>
       </c>
       <c r="M101" t="n">
-        <v>1.385</v>
+        <v>1.253</v>
       </c>
       <c r="N101" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="O101" t="n">
-        <v>82.6</v>
+        <v>109.1</v>
       </c>
       <c r="P101" t="s">
         <v>588</v>
@@ -8536,7 +8536,7 @@
         <v>593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44347</v>
+        <v>44352</v>
       </c>
       <c r="D102" t="s">
         <v>594</v>
@@ -8546,31 +8546,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H102" t="n">
-        <v>11815476</v>
+        <v>12070060</v>
       </c>
       <c r="I102" t="n">
-        <v>1158.754</v>
+        <v>1183.721</v>
       </c>
       <c r="J102" t="n">
-        <v>44105</v>
+        <v>47290</v>
       </c>
       <c r="K102" t="n">
-        <v>4.325</v>
+        <v>4.638</v>
       </c>
       <c r="L102" t="n">
-        <v>44626</v>
+        <v>45446</v>
       </c>
       <c r="M102" t="n">
-        <v>4.377</v>
+        <v>4.457</v>
       </c>
       <c r="N102" t="n">
         <v>0.012</v>
       </c>
       <c r="O102" t="n">
-        <v>86.1</v>
+        <v>83.3</v>
       </c>
       <c r="P102" t="s">
         <v>595</v>
@@ -8593,7 +8593,7 @@
         <v>598</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44349</v>
+        <v>44352</v>
       </c>
       <c r="D103" t="s">
         <v>599</v>
@@ -8603,31 +8603,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H103" t="n">
-        <v>2032185</v>
+        <v>2044926</v>
       </c>
       <c r="I103" t="n">
-        <v>705.36</v>
+        <v>709.783</v>
       </c>
       <c r="J103" t="n">
-        <v>3976</v>
+        <v>3942</v>
       </c>
       <c r="K103" t="n">
-        <v>1.38</v>
+        <v>1.368</v>
       </c>
       <c r="L103" t="n">
-        <v>3759</v>
+        <v>4026</v>
       </c>
       <c r="M103" t="n">
-        <v>1.305</v>
+        <v>1.397</v>
       </c>
       <c r="N103" t="n">
-        <v>0.056</v>
+        <v>0.05</v>
       </c>
       <c r="O103" t="n">
-        <v>17.7</v>
+        <v>19.9</v>
       </c>
       <c r="P103" t="s">
         <v>601</v>
@@ -8650,7 +8650,7 @@
         <v>604</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="D104" t="s">
         <v>605</v>
@@ -8660,32 +8660,28 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H104" t="n">
-        <v>7945521</v>
+        <v>8024302</v>
       </c>
       <c r="I104" t="n">
-        <v>413.019</v>
+        <v>417.114</v>
       </c>
       <c r="J104" t="n">
-        <v>20627</v>
+        <v>18949</v>
       </c>
       <c r="K104" t="n">
-        <v>1.072</v>
+        <v>0.985</v>
       </c>
       <c r="L104" t="n">
-        <v>15393</v>
+        <v>15698</v>
       </c>
       <c r="M104" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="O104" t="n">
-        <v>71.9</v>
-      </c>
+        <v>0.816</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104"/>
       <c r="P104" t="s">
         <v>607</v>
       </c>
@@ -8707,7 +8703,7 @@
         <v>611</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D105" t="s">
         <v>612</v>
@@ -8717,31 +8713,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H105" t="n">
-        <v>139597578</v>
+        <v>140875265</v>
       </c>
       <c r="I105" t="n">
-        <v>956.577</v>
+        <v>965.332</v>
       </c>
       <c r="J105" t="n">
-        <v>392952</v>
+        <v>224825</v>
       </c>
       <c r="K105" t="n">
-        <v>2.693</v>
+        <v>1.541</v>
       </c>
       <c r="L105" t="n">
-        <v>345274</v>
+        <v>332506</v>
       </c>
       <c r="M105" t="n">
-        <v>2.366</v>
+        <v>2.278</v>
       </c>
       <c r="N105" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="O105" t="n">
-        <v>38.3</v>
+        <v>36.9</v>
       </c>
       <c r="P105" t="s">
         <v>613</v>
@@ -8764,7 +8760,7 @@
         <v>617</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D106" t="s">
         <v>618</v>
@@ -8774,25 +8770,25 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H106" t="n">
-        <v>1457954</v>
+        <v>1475285</v>
       </c>
       <c r="I106" t="n">
-        <v>112.564</v>
+        <v>113.902</v>
       </c>
       <c r="J106" t="n">
-        <v>4074</v>
+        <v>3910</v>
       </c>
       <c r="K106" t="n">
-        <v>0.315</v>
+        <v>0.302</v>
       </c>
       <c r="L106" t="n">
-        <v>5089</v>
+        <v>4236</v>
       </c>
       <c r="M106" t="n">
-        <v>0.393</v>
+        <v>0.327</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
@@ -8817,7 +8813,7 @@
         <v>623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D107" t="s">
         <v>624</v>
@@ -8827,31 +8823,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H107" t="n">
-        <v>19496450</v>
+        <v>19836639</v>
       </c>
       <c r="I107" t="n">
-        <v>560.02</v>
+        <v>569.791</v>
       </c>
       <c r="J107" t="n">
-        <v>96230</v>
+        <v>86073</v>
       </c>
       <c r="K107" t="n">
-        <v>2.764</v>
+        <v>2.472</v>
       </c>
       <c r="L107" t="n">
-        <v>88712</v>
+        <v>88866</v>
       </c>
       <c r="M107" t="n">
-        <v>2.548</v>
+        <v>2.553</v>
       </c>
       <c r="N107" t="n">
         <v>0.013</v>
       </c>
       <c r="O107" t="n">
-        <v>76</v>
+        <v>74.5</v>
       </c>
       <c r="P107" t="s">
         <v>42</v>
@@ -8874,7 +8870,7 @@
         <v>627</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D108" t="s">
         <v>628</v>
@@ -8884,31 +8880,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H108" t="n">
-        <v>534987</v>
+        <v>541183</v>
       </c>
       <c r="I108" t="n">
-        <v>31.951</v>
+        <v>32.321</v>
       </c>
       <c r="J108" t="n">
-        <v>1275</v>
+        <v>1368</v>
       </c>
       <c r="K108" t="n">
-        <v>0.076</v>
+        <v>0.082</v>
       </c>
       <c r="L108" t="n">
-        <v>1536</v>
+        <v>1458</v>
       </c>
       <c r="M108" t="n">
-        <v>0.092</v>
+        <v>0.087</v>
       </c>
       <c r="N108" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="O108" t="n">
-        <v>36.9</v>
+        <v>34.4</v>
       </c>
       <c r="P108" t="s">
         <v>629</v>
@@ -9043,7 +9039,7 @@
         <v>642</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D111" t="s">
         <v>643</v>
@@ -9053,31 +9049,31 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H111" t="n">
-        <v>38595165</v>
+        <v>38925316</v>
       </c>
       <c r="I111" t="n">
-        <v>7069.174</v>
+        <v>7129.645</v>
       </c>
       <c r="J111" t="n">
-        <v>44831</v>
+        <v>52941</v>
       </c>
       <c r="K111" t="n">
-        <v>8.211</v>
+        <v>9.697</v>
       </c>
       <c r="L111" t="n">
-        <v>71804</v>
+        <v>61712</v>
       </c>
       <c r="M111" t="n">
-        <v>13.152</v>
+        <v>11.303</v>
       </c>
       <c r="N111" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O111" t="n">
-        <v>250</v>
+        <v>333.3</v>
       </c>
       <c r="P111" t="s">
         <v>42</v>
@@ -9100,7 +9096,7 @@
         <v>646</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44349</v>
+        <v>44354</v>
       </c>
       <c r="D112" t="s">
         <v>647</v>
@@ -9110,31 +9106,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H112" t="n">
-        <v>1290337</v>
+        <v>1304349</v>
       </c>
       <c r="I112" t="n">
-        <v>620.673</v>
+        <v>627.413</v>
       </c>
       <c r="J112" t="n">
-        <v>3837</v>
+        <v>3048</v>
       </c>
       <c r="K112" t="n">
-        <v>1.846</v>
+        <v>1.466</v>
       </c>
       <c r="L112" t="n">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="M112" t="n">
-        <v>1.514</v>
+        <v>1.513</v>
       </c>
       <c r="N112" t="n">
-        <v>0.084</v>
+        <v>0.073</v>
       </c>
       <c r="O112" t="n">
-        <v>11.9</v>
+        <v>13.7</v>
       </c>
       <c r="P112" t="s">
         <v>648</v>
@@ -9157,7 +9153,7 @@
         <v>651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="D113" t="s">
         <v>652</v>
@@ -9169,31 +9165,31 @@
         <v>654</v>
       </c>
       <c r="G113" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="H113" t="n">
-        <v>11667916</v>
+        <v>11899793</v>
       </c>
       <c r="I113" t="n">
-        <v>196.732</v>
+        <v>200.642</v>
       </c>
       <c r="J113" t="n">
-        <v>36677</v>
+        <v>23199</v>
       </c>
       <c r="K113" t="n">
-        <v>0.618</v>
+        <v>0.391</v>
       </c>
       <c r="L113" t="n">
-        <v>37373</v>
+        <v>38365</v>
       </c>
       <c r="M113" t="n">
-        <v>0.63</v>
+        <v>0.647</v>
       </c>
       <c r="N113" t="n">
-        <v>0.12</v>
+        <v>0.127</v>
       </c>
       <c r="O113" t="n">
-        <v>8.3</v>
+        <v>7.8</v>
       </c>
       <c r="P113" t="s">
         <v>653</v>
@@ -9216,7 +9212,7 @@
         <v>658</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D114" t="s">
         <v>659</v>
@@ -9226,25 +9222,25 @@
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H114" t="n">
-        <v>9777480</v>
+        <v>9869324</v>
       </c>
       <c r="I114" t="n">
-        <v>190.709</v>
+        <v>192.5</v>
       </c>
       <c r="J114" t="n">
-        <v>34978</v>
+        <v>33553</v>
       </c>
       <c r="K114" t="n">
-        <v>0.682</v>
+        <v>0.654</v>
       </c>
       <c r="L114" t="n">
-        <v>28271</v>
+        <v>28362</v>
       </c>
       <c r="M114" t="n">
-        <v>0.551</v>
+        <v>0.553</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -9322,7 +9318,7 @@
         <v>668</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44343</v>
+        <v>44350</v>
       </c>
       <c r="D116" t="s">
         <v>669</v>
@@ -9332,27 +9328,27 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H116" t="n">
-        <v>43557867</v>
+        <v>44294542</v>
       </c>
       <c r="I116" t="n">
-        <v>931.624</v>
+        <v>947.38</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116" t="n">
-        <v>99506</v>
+        <v>97280</v>
       </c>
       <c r="M116" t="n">
-        <v>2.128</v>
+        <v>2.081</v>
       </c>
       <c r="N116" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="O116" t="n">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="P116" t="s">
         <v>671</v>
@@ -9375,7 +9371,7 @@
         <v>675</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44350</v>
+        <v>44355</v>
       </c>
       <c r="D117" t="s">
         <v>676</v>
@@ -9385,32 +9381,28 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H117" t="n">
-        <v>3553708</v>
+        <v>3652039</v>
       </c>
       <c r="I117" t="n">
-        <v>165.958</v>
+        <v>170.55</v>
       </c>
       <c r="J117" t="n">
-        <v>21697</v>
+        <v>17096</v>
       </c>
       <c r="K117" t="n">
-        <v>1.013</v>
+        <v>0.798</v>
       </c>
       <c r="L117" t="n">
-        <v>20371</v>
+        <v>19906</v>
       </c>
       <c r="M117" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="O117" t="n">
-        <v>6.8</v>
-      </c>
+        <v>0.93</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
       <c r="P117" t="s">
         <v>677</v>
       </c>
@@ -9485,7 +9477,7 @@
         <v>687</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44349</v>
+        <v>44352</v>
       </c>
       <c r="D119" t="s">
         <v>421</v>
@@ -9495,31 +9487,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H119" t="n">
-        <v>7357864</v>
+        <v>7433420</v>
       </c>
       <c r="I119" t="n">
-        <v>850.166</v>
+        <v>858.896</v>
       </c>
       <c r="J119" t="n">
-        <v>25722</v>
+        <v>15618</v>
       </c>
       <c r="K119" t="n">
-        <v>2.972</v>
+        <v>1.805</v>
       </c>
       <c r="L119" t="n">
-        <v>23517</v>
+        <v>22990</v>
       </c>
       <c r="M119" t="n">
-        <v>2.717</v>
+        <v>2.656</v>
       </c>
       <c r="N119" t="n">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="O119" t="n">
-        <v>32.3</v>
+        <v>38.5</v>
       </c>
       <c r="P119" t="s">
         <v>422</v>
@@ -9542,7 +9534,7 @@
         <v>690</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D120" t="s">
         <v>691</v>
@@ -9552,31 +9544,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H120" t="n">
-        <v>606921</v>
+        <v>698373</v>
       </c>
       <c r="I120" t="n">
-        <v>25.483</v>
+        <v>29.323</v>
       </c>
       <c r="J120" t="n">
-        <v>14664</v>
+        <v>20175</v>
       </c>
       <c r="K120" t="n">
-        <v>0.616</v>
+        <v>0.847</v>
       </c>
       <c r="L120" t="n">
-        <v>21956</v>
+        <v>22801</v>
       </c>
       <c r="M120" t="n">
-        <v>0.922</v>
+        <v>0.957</v>
       </c>
       <c r="N120" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="O120" t="n">
-        <v>47.8</v>
+        <v>53.6</v>
       </c>
       <c r="P120" t="s">
         <v>692</v>
@@ -9599,7 +9591,7 @@
         <v>695</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44310</v>
+        <v>44352</v>
       </c>
       <c r="D121" t="s">
         <v>696</v>
@@ -9609,31 +9601,31 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="H121" t="n">
-        <v>4351770</v>
+        <v>7016799</v>
       </c>
       <c r="I121" t="n">
-        <v>62.346</v>
+        <v>100.527</v>
       </c>
       <c r="J121" t="n">
-        <v>60262</v>
+        <v>52402</v>
       </c>
       <c r="K121" t="n">
-        <v>0.863</v>
+        <v>0.751</v>
       </c>
       <c r="L121" t="n">
-        <v>66681</v>
+        <v>59718</v>
       </c>
       <c r="M121" t="n">
-        <v>0.955</v>
+        <v>0.856</v>
       </c>
       <c r="N121" t="n">
-        <v>0.035</v>
+        <v>0.048</v>
       </c>
       <c r="O121" t="n">
-        <v>28.6</v>
+        <v>20.8</v>
       </c>
       <c r="P121" t="s">
         <v>697</v>
@@ -9656,7 +9648,7 @@
         <v>700</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D122"/>
       <c r="E122" t="s">
@@ -9666,31 +9658,31 @@
         <v>702</v>
       </c>
       <c r="G122" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H122" t="n">
-        <v>337067</v>
+        <v>340751</v>
       </c>
       <c r="I122" t="n">
-        <v>40.715</v>
+        <v>41.16</v>
       </c>
       <c r="J122" t="n">
-        <v>873</v>
+        <v>718</v>
       </c>
       <c r="K122" t="n">
-        <v>0.105</v>
+        <v>0.087</v>
       </c>
       <c r="L122" t="n">
-        <v>863</v>
+        <v>880</v>
       </c>
       <c r="M122" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="N122" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="O122" t="n">
-        <v>65</v>
+        <v>81.1</v>
       </c>
       <c r="P122" t="s">
         <v>701</v>
@@ -9713,7 +9705,7 @@
         <v>707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D123" t="s">
         <v>708</v>
@@ -9723,31 +9715,31 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H123" t="n">
-        <v>193798</v>
+        <v>198200</v>
       </c>
       <c r="I123" t="n">
-        <v>138.477</v>
+        <v>141.623</v>
       </c>
       <c r="J123" t="n">
-        <v>11180</v>
+        <v>550</v>
       </c>
       <c r="K123" t="n">
-        <v>7.989</v>
+        <v>0.393</v>
       </c>
       <c r="L123" t="n">
-        <v>2635</v>
+        <v>2443</v>
       </c>
       <c r="M123" t="n">
-        <v>1.883</v>
+        <v>1.746</v>
       </c>
       <c r="N123" t="n">
-        <v>0.177</v>
+        <v>0.162</v>
       </c>
       <c r="O123" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="P123" t="s">
         <v>42</v>
@@ -9770,7 +9762,7 @@
         <v>712</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D124" t="s">
         <v>713</v>
@@ -9780,25 +9772,25 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H124" t="n">
-        <v>1489899</v>
+        <v>1519696</v>
       </c>
       <c r="I124" t="n">
-        <v>126.064</v>
+        <v>128.585</v>
       </c>
       <c r="J124" t="n">
-        <v>6775</v>
+        <v>4774</v>
       </c>
       <c r="K124" t="n">
-        <v>0.573</v>
+        <v>0.404</v>
       </c>
       <c r="L124" t="n">
-        <v>5067</v>
+        <v>6180</v>
       </c>
       <c r="M124" t="n">
-        <v>0.429</v>
+        <v>0.523</v>
       </c>
       <c r="N124"/>
       <c r="O124"/>
@@ -9823,7 +9815,7 @@
         <v>719</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D125" t="s">
         <v>720</v>
@@ -9833,31 +9825,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H125" t="n">
-        <v>54809788</v>
+        <v>55673616</v>
       </c>
       <c r="I125" t="n">
-        <v>649.874</v>
+        <v>660.117</v>
       </c>
       <c r="J125" t="n">
-        <v>222847</v>
+        <v>218164</v>
       </c>
       <c r="K125" t="n">
-        <v>2.642</v>
+        <v>2.587</v>
       </c>
       <c r="L125" t="n">
-        <v>221667</v>
+        <v>219187</v>
       </c>
       <c r="M125" t="n">
-        <v>2.628</v>
+        <v>2.599</v>
       </c>
       <c r="N125" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="O125" t="n">
-        <v>31.2</v>
+        <v>34.7</v>
       </c>
       <c r="P125" t="s">
         <v>721</v>
@@ -9880,7 +9872,7 @@
         <v>725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="D126" t="s">
         <v>726</v>
@@ -9890,31 +9882,31 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H126" t="n">
-        <v>1125306</v>
+        <v>1151421</v>
       </c>
       <c r="I126" t="n">
-        <v>24.602</v>
+        <v>25.173</v>
       </c>
       <c r="J126" t="n">
-        <v>6283</v>
+        <v>7296</v>
       </c>
       <c r="K126" t="n">
-        <v>0.137</v>
+        <v>0.16</v>
       </c>
       <c r="L126" t="n">
-        <v>4838</v>
+        <v>5939</v>
       </c>
       <c r="M126" t="n">
-        <v>0.106</v>
+        <v>0.13</v>
       </c>
       <c r="N126" t="n">
-        <v>0.109</v>
+        <v>0.138</v>
       </c>
       <c r="O126" t="n">
-        <v>9.2</v>
+        <v>7.2</v>
       </c>
       <c r="P126" t="s">
         <v>727</v>
@@ -9937,7 +9929,7 @@
         <v>731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D127" t="s">
         <v>732</v>
@@ -9947,25 +9939,25 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H127" t="n">
-        <v>10290345</v>
+        <v>10380233</v>
       </c>
       <c r="I127" t="n">
-        <v>235.295</v>
+        <v>237.351</v>
       </c>
       <c r="J127" t="n">
-        <v>28696</v>
+        <v>33355</v>
       </c>
       <c r="K127" t="n">
-        <v>0.656</v>
+        <v>0.763</v>
       </c>
       <c r="L127" t="n">
-        <v>22713</v>
+        <v>24713</v>
       </c>
       <c r="M127" t="n">
-        <v>0.519</v>
+        <v>0.565</v>
       </c>
       <c r="N127"/>
       <c r="O127"/>
@@ -9990,7 +9982,7 @@
         <v>737</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44350</v>
+        <v>44354</v>
       </c>
       <c r="D128" t="s">
         <v>738</v>
@@ -10000,31 +9992,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H128" t="n">
-        <v>51004376</v>
+        <v>51923942</v>
       </c>
       <c r="I128" t="n">
-        <v>5156.958</v>
+        <v>5249.933</v>
       </c>
       <c r="J128" t="n">
-        <v>230728</v>
+        <v>208090</v>
       </c>
       <c r="K128" t="n">
-        <v>23.328</v>
+        <v>21.04</v>
       </c>
       <c r="L128" t="n">
-        <v>220380</v>
+        <v>226423</v>
       </c>
       <c r="M128" t="n">
-        <v>22.282</v>
+        <v>22.893</v>
       </c>
       <c r="N128" t="n">
         <v>0.009</v>
       </c>
       <c r="O128" t="n">
-        <v>112.3</v>
+        <v>111.6</v>
       </c>
       <c r="P128" t="s">
         <v>739</v>
@@ -10047,7 +10039,7 @@
         <v>742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D129" t="s">
         <v>743</v>
@@ -10059,31 +10051,31 @@
         <v>745</v>
       </c>
       <c r="G129" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H129" t="n">
-        <v>181720658</v>
+        <v>185147729</v>
       </c>
       <c r="I129" t="n">
-        <v>2676.85</v>
+        <v>2727.333</v>
       </c>
       <c r="J129" t="n">
-        <v>854697</v>
+        <v>1242068</v>
       </c>
       <c r="K129" t="n">
-        <v>12.59</v>
+        <v>18.296</v>
       </c>
       <c r="L129" t="n">
-        <v>760893</v>
+        <v>821033</v>
       </c>
       <c r="M129" t="n">
-        <v>11.208</v>
+        <v>12.094</v>
       </c>
       <c r="N129" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O129" t="n">
-        <v>218</v>
+        <v>174.9</v>
       </c>
       <c r="P129" t="s">
         <v>744</v>
@@ -10106,7 +10098,7 @@
         <v>749</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44348</v>
+        <v>44351</v>
       </c>
       <c r="D130" t="s">
         <v>750</v>
@@ -10116,31 +10108,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H130" t="n">
-        <v>449406416</v>
+        <v>451911067</v>
       </c>
       <c r="I130" t="n">
-        <v>1357.712</v>
+        <v>1365.279</v>
       </c>
       <c r="J130" t="n">
-        <v>169585</v>
+        <v>480061</v>
       </c>
       <c r="K130" t="n">
-        <v>0.512</v>
+        <v>1.45</v>
       </c>
       <c r="L130" t="n">
-        <v>548934</v>
+        <v>520320</v>
       </c>
       <c r="M130" t="n">
-        <v>1.658</v>
+        <v>1.572</v>
       </c>
       <c r="N130" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="O130" t="n">
-        <v>35.7</v>
+        <v>38.5</v>
       </c>
       <c r="P130" t="s">
         <v>751</v>
@@ -10163,7 +10155,7 @@
         <v>756</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44349</v>
+        <v>44353</v>
       </c>
       <c r="D131" t="s">
         <v>757</v>
@@ -10173,31 +10165,27 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H131" t="n">
-        <v>2310860</v>
+        <v>2399396</v>
       </c>
       <c r="I131" t="n">
-        <v>665.239</v>
-      </c>
-      <c r="J131" t="n">
-        <v>23506</v>
-      </c>
-      <c r="K131" t="n">
-        <v>6.767</v>
-      </c>
+        <v>690.727</v>
+      </c>
+      <c r="J131"/>
+      <c r="K131"/>
       <c r="L131" t="n">
-        <v>20789</v>
+        <v>21519</v>
       </c>
       <c r="M131" t="n">
-        <v>5.985</v>
+        <v>6.195</v>
       </c>
       <c r="N131" t="n">
-        <v>0.172</v>
+        <v>0.166</v>
       </c>
       <c r="O131" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="P131" t="s">
         <v>184</v>
@@ -10220,7 +10208,7 @@
         <v>761</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44334</v>
+        <v>44351</v>
       </c>
       <c r="D132" t="s">
         <v>762</v>
@@ -10230,27 +10218,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H132" t="n">
-        <v>3324043</v>
+        <v>4300036</v>
       </c>
       <c r="I132" t="n">
-        <v>34.149</v>
-      </c>
-      <c r="J132"/>
-      <c r="K132"/>
+        <v>44.176</v>
+      </c>
+      <c r="J132" t="n">
+        <v>43003</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.442</v>
+      </c>
       <c r="L132" t="n">
-        <v>27427</v>
+        <v>52949</v>
       </c>
       <c r="M132" t="n">
-        <v>0.282</v>
+        <v>0.544</v>
       </c>
       <c r="N132" t="n">
         <v>0.005</v>
       </c>
       <c r="O132" t="n">
-        <v>204</v>
+        <v>188.3</v>
       </c>
       <c r="P132" t="s">
         <v>763</v>
@@ -10273,7 +10265,7 @@
         <v>767</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="D133" t="s">
         <v>768</v>
@@ -10283,31 +10275,31 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H133" t="n">
-        <v>1585960</v>
+        <v>1596883</v>
       </c>
       <c r="I133" t="n">
-        <v>86.269</v>
+        <v>86.863</v>
       </c>
       <c r="J133" t="n">
-        <v>10949</v>
+        <v>10923</v>
       </c>
       <c r="K133" t="n">
-        <v>0.596</v>
+        <v>0.594</v>
       </c>
       <c r="L133" t="n">
-        <v>7660</v>
+        <v>8308</v>
       </c>
       <c r="M133" t="n">
-        <v>0.417</v>
+        <v>0.452</v>
       </c>
       <c r="N133" t="n">
-        <v>0.064</v>
+        <v>0.068</v>
       </c>
       <c r="O133" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="P133" t="s">
         <v>770</v>
@@ -10330,7 +10322,7 @@
         <v>773</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44350</v>
+        <v>44353</v>
       </c>
       <c r="D134" t="s">
         <v>774</v>
@@ -10340,31 +10332,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H134" t="n">
-        <v>557596</v>
+        <v>562867</v>
       </c>
       <c r="I134" t="n">
-        <v>37.516</v>
+        <v>37.871</v>
       </c>
       <c r="J134" t="n">
-        <v>1817</v>
+        <v>1048</v>
       </c>
       <c r="K134" t="n">
-        <v>0.122</v>
+        <v>0.071</v>
       </c>
       <c r="L134" t="n">
-        <v>1863</v>
+        <v>1955</v>
       </c>
       <c r="M134" t="n">
-        <v>0.125</v>
+        <v>0.132</v>
       </c>
       <c r="N134" t="n">
         <v>0.018</v>
       </c>
       <c r="O134" t="n">
-        <v>54.8</v>
+        <v>55.9</v>
       </c>
       <c r="P134" t="s">
         <v>775</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-2821-testime-25-te-sheruar-18-raste-te-reja-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-2916-testime-19-te-sheruar-12-raste-te-reja-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4010</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4023</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-10-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-14-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-1026-new-covid-19-cases-1187-recoveries-in-past-24-hours_i_0000130949.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-697-new-cases-432-recoveries_i_0000131035.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5674-reporte-451-de-covid-19-2-105-pacientes-recuperados-14-050-pruebas-negativas-y-1-983-406-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5694-reporte-455-de-covid-19-1-999-pacientes-recuperados-5-395-pruebas-negativas-y-2-069-629-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-10-de-junho-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-14-de-junho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1924245974407754</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1926736014158750</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=c91ad42c28</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=41e5e58199</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -714,7 +714,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-10062021-fttp</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-14062021-xw23</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.446.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.451.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-09062021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-13062021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://guineasalud.org/estadisticas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministerio de Sanidad y Bienestar Social</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Welfare</t>
@@ -1006,7 +1009,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210610.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210613.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1161,7 +1164,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/365336</t>
+    <t xml:space="preserve">http://irangov.ir/detail/365669</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1181,7 +1184,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1402734751778283525</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1404144250682499073</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1393,7 +1396,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1403049376658956288</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1404136522274725893</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1486,7 +1489,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210611-omqkbdat/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210614-f67qx6pj/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1538,7 +1541,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/a.359862397411684/4221102834620935/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4231883023542916/4231881036876448/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1577,7 +1580,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-10062021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-14062021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1599,7 +1602,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1403034297674518528</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1404483788097265665</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1620,7 +1623,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/356185826099967/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/358704019181481/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1696,7 +1699,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-09-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1222/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-13-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1228/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1711,7 +1714,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/10.6.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/14.6.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1754,7 +1757,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(10-6-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(14-6-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1774,7 +1777,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.760652554607750/760652467941092</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.762735667732772/762735584399447</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1796,7 +1799,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1D-O59f-s3ABzI0L9DmJ5lP-Dn2tZnhfM</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1PRjTZ9ewvXNtZJsOYDBnLds9FQWEcL0U</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1949,7 +1952,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3883002245158958</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3893483744110808</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1971,7 +1974,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1402776882815307777</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1404281146142306306</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1984,13 +1987,28 @@
 The number of tests performed includes antigen and PCR tests, according to [biweekly status reports](https://www.paho.org/es/panama/informes-situacion-covid-19) published by the Pan American Health Organization. Note that the number of positive tests is marginally greater than the number of confirmed cases, presumably due to the use of multiple tests to confirm one case; we record the latter figure, because the former is only reported once every other week.</t>
   </si>
   <si>
+    <t xml:space="preserve">PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.info.gov.pg/files/Situation%20Report/PNG%20COVID-19%20Health%20Situation%20Report%2069%20FINAL.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.info.gov.pg/situation-reports-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Department of Health publishes weekly [situation reports](https://covid19.info.gov.pg/situation-reports-2/) reporting the number of tests performed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRY</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1402782215990394885</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1404246495252123648</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2024,7 +2042,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1BLSEOtyHfSPLRhosnBFLXkWdzreFGkXw?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1uInQiO2Hf7Au3Hwk69P73Bk_camKN0R3?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2045,7 +2063,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1402909651117694977</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1403996814668230658</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2061,6 +2079,9 @@
   </si>
   <si>
     <t xml:space="preserve">Poland - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1402909651117694977</t>
   </si>
   <si>
     <t xml:space="preserve">PRT</t>
@@ -2108,7 +2129,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/11-06_BULETIN_DE_PRESĂ_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/15-06_BULETIN_DE_PRESĂ_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2131,7 +2152,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18058</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18085</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2345,7 +2366,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_03_06_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_10_06_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2468,9 +2489,6 @@
     <t xml:space="preserve">Togo Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Provided to OWID directly by MOH</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://covid19.gouv.tg/</t>
   </si>
   <si>
@@ -2488,7 +2506,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-751/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-754/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2551,7 +2569,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1403076275418406914</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1404366656290312193</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2661,7 +2679,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-9-junio</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-200</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2678,7 +2696,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-856-bc-byt-2021-tinh-hinh-dich-covid-19-va-ket-qua-phong-chong-dich-203420-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-869-bc-byt-2021-tinh-hinh-dich-covid-19-va-ket-qua-phong-chong-dich-203570-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam General Department of Preventive Medicine</t>
@@ -2721,7 +2739,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1403067527975034887</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1404151436380983312</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3138,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44356</v>
+        <v>44359</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3148,31 +3166,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H2" t="n">
-        <v>726311</v>
+        <v>734790</v>
       </c>
       <c r="I2" t="n">
-        <v>252.384</v>
+        <v>255.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2821</v>
+        <v>2916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.98</v>
+        <v>1.013</v>
       </c>
       <c r="L2" t="n">
-        <v>2790</v>
+        <v>2594</v>
       </c>
       <c r="M2" t="n">
-        <v>0.969</v>
+        <v>0.901</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="O2" t="n">
-        <v>305.2</v>
+        <v>242.1</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3248,7 +3266,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44356</v>
+        <v>44362</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3258,7 +3276,7 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>16700</v>
@@ -3268,18 +3286,10 @@
       </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" t="n">
-        <v>343</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.503</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2398.6</v>
-      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
       <c r="P4" t="s">
         <v>37</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44352</v>
+        <v>44356</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3311,31 +3321,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H5" t="n">
-        <v>10295295</v>
+        <v>10452838</v>
       </c>
       <c r="I5" t="n">
-        <v>227.793</v>
+        <v>231.279</v>
       </c>
       <c r="J5" t="n">
-        <v>31827</v>
+        <v>37334</v>
       </c>
       <c r="K5" t="n">
-        <v>0.704</v>
+        <v>0.826</v>
       </c>
       <c r="L5" t="n">
-        <v>37247</v>
+        <v>35856</v>
       </c>
       <c r="M5" t="n">
-        <v>0.824</v>
+        <v>0.793</v>
       </c>
       <c r="N5" t="n">
-        <v>0.299</v>
+        <v>0.271</v>
       </c>
       <c r="O5" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3358,7 +3368,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3368,31 +3378,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H6" t="n">
-        <v>1114887</v>
+        <v>1125102</v>
       </c>
       <c r="I6" t="n">
-        <v>376.24</v>
+        <v>379.687</v>
       </c>
       <c r="J6" t="n">
-        <v>3291</v>
+        <v>2807</v>
       </c>
       <c r="K6" t="n">
-        <v>1.111</v>
+        <v>0.947</v>
       </c>
       <c r="L6" t="n">
-        <v>3125</v>
+        <v>3222</v>
       </c>
       <c r="M6" t="n">
-        <v>1.055</v>
+        <v>1.087</v>
       </c>
       <c r="N6" t="n">
         <v>0.022</v>
       </c>
       <c r="O6" t="n">
-        <v>45.4</v>
+        <v>44.9</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3415,7 +3425,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3425,31 +3435,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H7" t="n">
-        <v>19157609</v>
+        <v>19354043</v>
       </c>
       <c r="I7" t="n">
-        <v>751.282</v>
-      </c>
-      <c r="J7" t="n">
-        <v>66779</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.619</v>
-      </c>
+        <v>758.986</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>73428</v>
+        <v>56033</v>
       </c>
       <c r="M7" t="n">
-        <v>2.88</v>
+        <v>2.197</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5907.8</v>
+        <v>5768.3</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3472,7 +3478,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3482,31 +3488,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H8" t="n">
-        <v>46426166</v>
+        <v>48145979</v>
       </c>
       <c r="I8" t="n">
-        <v>5154.797</v>
+        <v>5345.752</v>
       </c>
       <c r="J8" t="n">
-        <v>443161</v>
+        <v>420545</v>
       </c>
       <c r="K8" t="n">
-        <v>49.205</v>
+        <v>46.694</v>
       </c>
       <c r="L8" t="n">
-        <v>482584</v>
+        <v>409657</v>
       </c>
       <c r="M8" t="n">
-        <v>53.582</v>
+        <v>45.485</v>
       </c>
       <c r="N8" t="n">
         <v>0.001</v>
       </c>
       <c r="O8" t="n">
-        <v>1581.5</v>
+        <v>1575.6</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3529,7 +3535,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3539,25 +3545,25 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>3597849</v>
+        <v>3627573</v>
       </c>
       <c r="I9" t="n">
-        <v>354.846</v>
+        <v>357.778</v>
       </c>
       <c r="J9" t="n">
-        <v>8618</v>
+        <v>5074</v>
       </c>
       <c r="K9" t="n">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>7973</v>
+        <v>7879</v>
       </c>
       <c r="M9" t="n">
-        <v>0.786</v>
+        <v>0.777</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3582,7 +3588,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3592,25 +3598,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H10" t="n">
-        <v>4780224</v>
+        <v>4831727</v>
       </c>
       <c r="I10" t="n">
-        <v>2809.281</v>
+        <v>2839.548</v>
       </c>
       <c r="J10" t="n">
-        <v>13272</v>
+        <v>14569</v>
       </c>
       <c r="K10" t="n">
-        <v>7.8</v>
+        <v>8.562</v>
       </c>
       <c r="L10" t="n">
-        <v>12893</v>
+        <v>12677</v>
       </c>
       <c r="M10" t="n">
-        <v>7.577</v>
+        <v>7.45</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3635,7 +3641,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3645,31 +3651,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H11" t="n">
-        <v>6114935</v>
+        <v>6184411</v>
       </c>
       <c r="I11" t="n">
-        <v>37.13</v>
+        <v>37.552</v>
       </c>
       <c r="J11" t="n">
-        <v>19447</v>
+        <v>20602</v>
       </c>
       <c r="K11" t="n">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="L11" t="n">
-        <v>17404</v>
+        <v>18179</v>
       </c>
       <c r="M11" t="n">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="N11" t="n">
-        <v>0.118</v>
+        <v>0.134</v>
       </c>
       <c r="O11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3692,7 +3698,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3702,24 +3708,28 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H12" t="n">
-        <v>6500351</v>
+        <v>6544800</v>
       </c>
       <c r="I12" t="n">
-        <v>687.917</v>
+        <v>692.621</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>15298</v>
+        <v>15197</v>
       </c>
       <c r="M12" t="n">
-        <v>1.619</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12"/>
+        <v>1.608</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O12" t="n">
+        <v>17.9</v>
+      </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3741,7 +3751,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3751,31 +3761,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H13" t="n">
-        <v>14411883</v>
+        <v>14551168</v>
       </c>
       <c r="I13" t="n">
-        <v>1243.517</v>
+        <v>1255.535</v>
       </c>
       <c r="J13" t="n">
-        <v>44221</v>
+        <v>18251</v>
       </c>
       <c r="K13" t="n">
-        <v>3.816</v>
+        <v>1.575</v>
       </c>
       <c r="L13" t="n">
-        <v>41807</v>
+        <v>39399</v>
       </c>
       <c r="M13" t="n">
-        <v>3.607</v>
+        <v>3.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5</v>
+        <v>41.7</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3798,7 +3808,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3808,28 +3818,24 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>139502</v>
+        <v>142646</v>
       </c>
       <c r="I14" t="n">
-        <v>350.842</v>
+        <v>358.749</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="M14" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="O14" t="n">
-        <v>55.5</v>
-      </c>
+        <v>1.607</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" t="s">
         <v>96</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3959,31 +3965,27 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H17" t="n">
-        <v>1595028</v>
+        <v>1643629</v>
       </c>
       <c r="I17" t="n">
-        <v>136.642</v>
-      </c>
-      <c r="J17" t="n">
-        <v>17889</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.533</v>
-      </c>
+        <v>140.806</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17" t="n">
-        <v>11968</v>
+        <v>13346</v>
       </c>
       <c r="M17" t="n">
-        <v>1.025</v>
+        <v>1.143</v>
       </c>
       <c r="N17" t="n">
-        <v>0.178</v>
+        <v>0.212</v>
       </c>
       <c r="O17" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4006,7 +4008,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4016,31 +4018,27 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H18" t="n">
-        <v>998869</v>
+        <v>1004976</v>
       </c>
       <c r="I18" t="n">
-        <v>304.458</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1992</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.607</v>
-      </c>
+        <v>306.319</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>2023</v>
+        <v>1786</v>
       </c>
       <c r="M18" t="n">
-        <v>0.617</v>
+        <v>0.544</v>
       </c>
       <c r="N18" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="O18" t="n">
-        <v>45</v>
+        <v>48.5</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4108,7 +4106,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4118,25 +4116,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H20" t="n">
-        <v>2957309</v>
+        <v>3000226</v>
       </c>
       <c r="I20" t="n">
-        <v>425.607</v>
+        <v>431.784</v>
       </c>
       <c r="J20" t="n">
-        <v>14291</v>
+        <v>17860</v>
       </c>
       <c r="K20" t="n">
-        <v>2.057</v>
+        <v>2.57</v>
       </c>
       <c r="L20" t="n">
-        <v>11257</v>
+        <v>11728</v>
       </c>
       <c r="M20" t="n">
-        <v>1.62</v>
+        <v>1.688</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4161,7 +4159,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -4171,25 +4169,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H21" t="n">
-        <v>1222011</v>
+        <v>1253563</v>
       </c>
       <c r="I21" t="n">
-        <v>73.091</v>
+        <v>74.978</v>
       </c>
       <c r="J21" t="n">
-        <v>7117</v>
+        <v>9649</v>
       </c>
       <c r="K21" t="n">
-        <v>0.426</v>
+        <v>0.577</v>
       </c>
       <c r="L21" t="n">
-        <v>6278</v>
+        <v>7451</v>
       </c>
       <c r="M21" t="n">
-        <v>0.376</v>
+        <v>0.446</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4271,7 +4269,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4281,31 +4279,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H23" t="n">
-        <v>35504029</v>
+        <v>35785462</v>
       </c>
       <c r="I23" t="n">
-        <v>940.7</v>
+        <v>948.156</v>
       </c>
       <c r="J23" t="n">
-        <v>81056</v>
+        <v>137945</v>
       </c>
       <c r="K23" t="n">
-        <v>2.148</v>
+        <v>3.655</v>
       </c>
       <c r="L23" t="n">
-        <v>69475</v>
+        <v>66880</v>
       </c>
       <c r="M23" t="n">
-        <v>1.841</v>
+        <v>1.772</v>
       </c>
       <c r="N23" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="O23" t="n">
-        <v>46</v>
+        <v>52.5</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4328,7 +4326,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4338,15 +4336,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1083</v>
+        <v>491</v>
       </c>
       <c r="K24" t="n">
-        <v>1.948</v>
+        <v>0.883</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4373,7 +4371,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4383,25 +4381,25 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H25" t="n">
-        <v>15443833</v>
+        <v>15744813</v>
       </c>
       <c r="I25" t="n">
-        <v>807.892</v>
+        <v>823.637</v>
       </c>
       <c r="J25" t="n">
-        <v>71578</v>
+        <v>69966</v>
       </c>
       <c r="K25" t="n">
-        <v>3.744</v>
+        <v>3.66</v>
       </c>
       <c r="L25" t="n">
-        <v>66107</v>
+        <v>65786</v>
       </c>
       <c r="M25" t="n">
-        <v>3.458</v>
+        <v>3.441</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4471,7 +4469,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4481,31 +4479,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H27" t="n">
-        <v>17865464</v>
+        <v>18159504</v>
       </c>
       <c r="I27" t="n">
-        <v>351.11</v>
+        <v>356.888</v>
       </c>
       <c r="J27" t="n">
-        <v>112372</v>
+        <v>91746</v>
       </c>
       <c r="K27" t="n">
-        <v>2.208</v>
+        <v>1.803</v>
       </c>
       <c r="L27" t="n">
-        <v>86499</v>
+        <v>90307</v>
       </c>
       <c r="M27" t="n">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="N27" t="n">
-        <v>0.325</v>
+        <v>0.328</v>
       </c>
       <c r="O27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4528,7 +4526,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44354</v>
+        <v>44359</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4538,31 +4536,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H28" t="n">
-        <v>1071806</v>
+        <v>1110951</v>
       </c>
       <c r="I28" t="n">
-        <v>210.401</v>
+        <v>218.085</v>
       </c>
       <c r="J28" t="n">
-        <v>3229</v>
+        <v>8870</v>
       </c>
       <c r="K28" t="n">
-        <v>0.634</v>
+        <v>1.741</v>
       </c>
       <c r="L28" t="n">
-        <v>6903</v>
+        <v>6828</v>
       </c>
       <c r="M28" t="n">
-        <v>1.355</v>
+        <v>1.34</v>
       </c>
       <c r="N28" t="n">
-        <v>0.214</v>
+        <v>0.198</v>
       </c>
       <c r="O28" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4585,7 +4583,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4595,31 +4593,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H29" t="n">
-        <v>668205</v>
+        <v>674878</v>
       </c>
       <c r="I29" t="n">
-        <v>25.332</v>
+        <v>25.585</v>
       </c>
       <c r="J29" t="n">
-        <v>2604</v>
+        <v>2225</v>
       </c>
       <c r="K29" t="n">
-        <v>0.099</v>
+        <v>0.084</v>
       </c>
       <c r="L29" t="n">
-        <v>1945</v>
+        <v>1894</v>
       </c>
       <c r="M29" t="n">
-        <v>0.074</v>
+        <v>0.072</v>
       </c>
       <c r="N29" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="O29" t="n">
-        <v>63</v>
+        <v>77.1</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4642,7 +4640,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4652,25 +4650,25 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H30" t="n">
-        <v>2069520</v>
+        <v>2086716</v>
       </c>
       <c r="I30" t="n">
-        <v>504.113</v>
+        <v>508.302</v>
       </c>
       <c r="J30" t="n">
-        <v>4083</v>
+        <v>5924</v>
       </c>
       <c r="K30" t="n">
-        <v>0.995</v>
+        <v>1.443</v>
       </c>
       <c r="L30" t="n">
-        <v>4949</v>
+        <v>4669</v>
       </c>
       <c r="M30" t="n">
-        <v>1.206</v>
+        <v>1.137</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4695,7 +4693,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4707,31 +4705,31 @@
         <v>191</v>
       </c>
       <c r="G31" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H31" t="n">
-        <v>4552905</v>
+        <v>4638018</v>
       </c>
       <c r="I31" t="n">
-        <v>401.965</v>
+        <v>409.48</v>
       </c>
       <c r="J31" t="n">
-        <v>23618</v>
+        <v>22093</v>
       </c>
       <c r="K31" t="n">
-        <v>2.085</v>
+        <v>1.951</v>
       </c>
       <c r="L31" t="n">
-        <v>22791</v>
+        <v>21938</v>
       </c>
       <c r="M31" t="n">
-        <v>2.012</v>
+        <v>1.937</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05</v>
+        <v>0.057</v>
       </c>
       <c r="O31" t="n">
-        <v>20.2</v>
+        <v>17.5</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4754,7 +4752,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D32" t="s">
         <v>196</v>
@@ -4764,31 +4762,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H32" t="n">
-        <v>7452115</v>
+        <v>7632484</v>
       </c>
       <c r="I32" t="n">
-        <v>8507.962</v>
+        <v>8713.886</v>
       </c>
       <c r="J32" t="n">
-        <v>37664</v>
+        <v>39852</v>
       </c>
       <c r="K32" t="n">
-        <v>43</v>
+        <v>45.498</v>
       </c>
       <c r="L32" t="n">
-        <v>44541</v>
+        <v>42227</v>
       </c>
       <c r="M32" t="n">
-        <v>50.852</v>
+        <v>48.21</v>
       </c>
       <c r="N32" t="n">
         <v>0.001</v>
       </c>
       <c r="O32" t="n">
-        <v>726.8</v>
+        <v>761.8</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4811,7 +4809,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4821,27 +4819,27 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>138173</v>
+        <v>176495</v>
       </c>
       <c r="K33" t="n">
-        <v>12.903</v>
+        <v>16.481</v>
       </c>
       <c r="L33" t="n">
-        <v>140507</v>
+        <v>136337</v>
       </c>
       <c r="M33" t="n">
-        <v>13.12</v>
+        <v>12.731</v>
       </c>
       <c r="N33" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O33" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="P33" t="s">
         <v>36</v>
@@ -4864,7 +4862,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44355</v>
+        <v>44359</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4874,27 +4872,27 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="n">
-        <v>2511</v>
+        <v>1358</v>
       </c>
       <c r="K34" t="n">
-        <v>0.028</v>
+        <v>0.015</v>
       </c>
       <c r="L34" t="n">
-        <v>892</v>
+        <v>1386</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="N34" t="n">
-        <v>0.308</v>
+        <v>0.222</v>
       </c>
       <c r="O34" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4917,7 +4915,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44355</v>
+        <v>44360</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4927,31 +4925,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H35" t="n">
-        <v>33478947</v>
+        <v>33945628</v>
       </c>
       <c r="I35" t="n">
-        <v>5780.002</v>
+        <v>5860.573</v>
       </c>
       <c r="J35" t="n">
-        <v>105891</v>
+        <v>39586</v>
       </c>
       <c r="K35" t="n">
-        <v>18.282</v>
+        <v>6.834</v>
       </c>
       <c r="L35" t="n">
-        <v>127332</v>
+        <v>99961</v>
       </c>
       <c r="M35" t="n">
-        <v>21.983</v>
+        <v>17.258</v>
       </c>
       <c r="N35" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O35" t="n">
-        <v>170.8</v>
+        <v>205.9</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4974,7 +4972,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44354</v>
+        <v>44359</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4984,31 +4982,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H36" t="n">
-        <v>1595359</v>
+        <v>1622856</v>
       </c>
       <c r="I36" t="n">
-        <v>147.066</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4594</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.423</v>
-      </c>
+        <v>149.601</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36" t="n">
-        <v>5476</v>
+        <v>5429</v>
       </c>
       <c r="M36" t="n">
-        <v>0.505</v>
+        <v>0.5</v>
       </c>
       <c r="N36" t="n">
-        <v>0.24</v>
+        <v>0.215</v>
       </c>
       <c r="O36" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5031,7 +5025,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5043,31 +5037,31 @@
         <v>224</v>
       </c>
       <c r="G37" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H37" t="n">
-        <v>1399540</v>
+        <v>1417925</v>
       </c>
       <c r="I37" t="n">
-        <v>79.325</v>
+        <v>80.367</v>
       </c>
       <c r="J37" t="n">
-        <v>3441</v>
+        <v>3909</v>
       </c>
       <c r="K37" t="n">
-        <v>0.195</v>
+        <v>0.222</v>
       </c>
       <c r="L37" t="n">
-        <v>2995</v>
+        <v>3613</v>
       </c>
       <c r="M37" t="n">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="N37" t="n">
-        <v>0.239</v>
+        <v>0.26</v>
       </c>
       <c r="O37" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P37" t="s">
         <v>225</v>
@@ -5147,7 +5141,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44356</v>
+        <v>44362</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5160,27 +5154,19 @@
         <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>144054</v>
+        <v>150392</v>
       </c>
       <c r="I39" t="n">
-        <v>102.677</v>
+        <v>107.194</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="L39" t="n">
-        <v>219</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="O39" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q39" t="s">
         <v>236</v>
@@ -5189,359 +5175,347 @@
         <v>24</v>
       </c>
       <c r="S39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H40" t="n">
-        <v>1472086</v>
+        <v>1485850</v>
       </c>
       <c r="I40" t="n">
-        <v>1109.719</v>
+        <v>1120.095</v>
       </c>
       <c r="J40" t="n">
-        <v>3683</v>
+        <v>4746</v>
       </c>
       <c r="K40" t="n">
-        <v>2.776</v>
+        <v>3.578</v>
       </c>
       <c r="L40" t="n">
-        <v>3515</v>
+        <v>3554</v>
       </c>
       <c r="M40" t="n">
-        <v>2.65</v>
+        <v>2.679</v>
       </c>
       <c r="N40" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="O40" t="n">
-        <v>54.1</v>
+        <v>65.1</v>
       </c>
       <c r="P40" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q40" t="s">
         <v>242</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>241</v>
       </c>
       <c r="R40" t="s">
         <v>44</v>
       </c>
       <c r="S40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H41" t="n">
-        <v>2770859</v>
+        <v>2791959</v>
       </c>
       <c r="I41" t="n">
-        <v>24.102</v>
+        <v>24.286</v>
       </c>
       <c r="J41" t="n">
-        <v>6069</v>
+        <v>4969</v>
       </c>
       <c r="K41" t="n">
-        <v>0.053</v>
+        <v>0.043</v>
       </c>
       <c r="L41" t="n">
-        <v>4703</v>
+        <v>5219</v>
       </c>
       <c r="M41" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="N41" t="n">
-        <v>0.042</v>
+        <v>0.036</v>
       </c>
       <c r="O41" t="n">
-        <v>23.6</v>
+        <v>27.6</v>
       </c>
       <c r="P41" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q41" t="s">
         <v>247</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>246</v>
       </c>
       <c r="R41" t="s">
         <v>44</v>
       </c>
       <c r="S41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44346</v>
+        <v>44360</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H42" t="n">
-        <v>108738</v>
+        <v>153372</v>
       </c>
       <c r="I42" t="n">
-        <v>121.299</v>
+        <v>171.089</v>
       </c>
       <c r="J42" t="n">
-        <v>2475</v>
+        <v>2813</v>
       </c>
       <c r="K42" t="n">
-        <v>2.761</v>
+        <v>3.138</v>
       </c>
       <c r="L42" t="n">
-        <v>2630</v>
+        <v>3339</v>
       </c>
       <c r="M42" t="n">
-        <v>2.934</v>
+        <v>3.725</v>
       </c>
       <c r="N42" t="n">
-        <v>0.009</v>
+        <v>0.018</v>
       </c>
       <c r="O42" t="n">
-        <v>107.7</v>
+        <v>54.2</v>
       </c>
       <c r="P42" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q42" t="s">
         <v>252</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>251</v>
       </c>
       <c r="R42" t="s">
         <v>44</v>
       </c>
       <c r="S42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H43" t="n">
-        <v>5192687</v>
+        <v>5233797</v>
       </c>
       <c r="I43" t="n">
-        <v>937.187</v>
+        <v>944.606</v>
       </c>
       <c r="J43" t="n">
-        <v>10282</v>
+        <v>5631</v>
       </c>
       <c r="K43" t="n">
-        <v>1.856</v>
+        <v>1.016</v>
       </c>
       <c r="L43" t="n">
-        <v>12132</v>
+        <v>11212</v>
       </c>
       <c r="M43" t="n">
-        <v>2.19</v>
+        <v>2.024</v>
       </c>
       <c r="N43" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="O43" t="n">
-        <v>113.2</v>
+        <v>131.9</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R43" t="s">
         <v>44</v>
       </c>
       <c r="S43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>372226</v>
+        <v>375862</v>
       </c>
       <c r="K44" t="n">
-        <v>5.509</v>
+        <v>5.563</v>
       </c>
       <c r="L44" t="n">
-        <v>295425</v>
+        <v>278449</v>
       </c>
       <c r="M44" t="n">
-        <v>4.373</v>
+        <v>4.121</v>
       </c>
       <c r="N44" t="n">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="O44" t="n">
-        <v>47.6</v>
+        <v>66.7</v>
       </c>
       <c r="P44" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q44" t="s">
         <v>263</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>262</v>
       </c>
       <c r="R44" t="s">
         <v>31</v>
       </c>
       <c r="S44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>833128</v>
+        <v>842822</v>
       </c>
       <c r="I45" t="n">
-        <v>374.317</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11188</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.027</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3203</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.439</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="O45" t="n">
-        <v>84</v>
-      </c>
+        <v>378.673</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
       <c r="P45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>44325</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5575,33 +5549,33 @@
         <v>42.2</v>
       </c>
       <c r="P46" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q46" t="s">
         <v>275</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>274</v>
       </c>
       <c r="R46" t="s">
         <v>108</v>
       </c>
       <c r="S46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>44357</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
@@ -5632,37 +5606,37 @@
         <v>38.6</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R47" t="s">
         <v>24</v>
       </c>
       <c r="S47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44353</v>
+        <v>44347</v>
       </c>
       <c r="D48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" t="n">
         <v>62193564</v>
@@ -5685,196 +5659,204 @@
         <v>32.3</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R48" t="s">
         <v>44</v>
       </c>
       <c r="S48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44352</v>
+        <v>44355</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H49" t="n">
-        <v>1199082</v>
+        <v>1208386</v>
       </c>
       <c r="I49" t="n">
-        <v>38.589</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49"/>
+        <v>38.889</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3073</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.099</v>
+      </c>
       <c r="L49" t="n">
-        <v>3498</v>
+        <v>3225</v>
       </c>
       <c r="M49" t="n">
-        <v>0.113</v>
+        <v>0.104</v>
       </c>
       <c r="N49" t="n">
-        <v>0.017</v>
+        <v>0.01</v>
       </c>
       <c r="O49" t="n">
-        <v>59.3</v>
+        <v>104</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R49" t="s">
         <v>108</v>
       </c>
       <c r="S49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H50" t="n">
-        <v>9952216</v>
+        <v>10059608</v>
       </c>
       <c r="I50" t="n">
-        <v>954.827</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
+        <v>965.13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>20514</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.968</v>
+      </c>
       <c r="L50" t="n">
-        <v>39796</v>
+        <v>38263</v>
       </c>
       <c r="M50" t="n">
-        <v>3.818</v>
+        <v>3.671</v>
       </c>
       <c r="N50" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="O50" t="n">
-        <v>43.4</v>
+        <v>48.1</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R50" t="s">
         <v>108</v>
       </c>
       <c r="S50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44356</v>
+        <v>44359</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H51" t="n">
-        <v>1480193</v>
+        <v>1278093</v>
       </c>
       <c r="I51" t="n">
-        <v>82.62</v>
+        <v>71.34</v>
       </c>
       <c r="J51" t="n">
-        <v>8035</v>
+        <v>2329</v>
       </c>
       <c r="K51" t="n">
-        <v>0.448</v>
+        <v>0.13</v>
       </c>
       <c r="L51" t="n">
-        <v>6017</v>
+        <v>5232</v>
       </c>
       <c r="M51" t="n">
-        <v>0.336</v>
+        <v>0.292</v>
       </c>
       <c r="N51" t="n">
-        <v>0.202</v>
+        <v>0.266</v>
       </c>
       <c r="O51" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R51" t="s">
         <v>31</v>
       </c>
       <c r="S51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>44334</v>
       </c>
       <c r="D52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
@@ -5901,88 +5883,92 @@
         <v>50000</v>
       </c>
       <c r="P52" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R52" t="s">
         <v>44</v>
       </c>
       <c r="S52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="D53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F53" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" t="n">
+        <v>463</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5540334</v>
+      </c>
+      <c r="I53" t="n">
+        <v>573.513</v>
+      </c>
+      <c r="J53" t="n">
+        <v>28283</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.928</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10615</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O53" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="P53" t="s">
         <v>320</v>
       </c>
-      <c r="G53" t="n">
-        <v>462</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5512051</v>
-      </c>
-      <c r="I53" t="n">
-        <v>570.585</v>
-      </c>
-      <c r="J53" t="n">
-        <v>14013</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.451</v>
-      </c>
-      <c r="L53" t="n">
-        <v>11143</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.153</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53" t="s">
-        <v>319</v>
-      </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R53" t="s">
         <v>108</v>
       </c>
       <c r="S53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>44335</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
@@ -6009,251 +5995,251 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q54" t="s">
         <v>326</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>325</v>
       </c>
       <c r="R54" t="s">
         <v>44</v>
       </c>
       <c r="S54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="D55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E55" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" t="n">
+        <v>443</v>
+      </c>
+      <c r="H55" t="n">
+        <v>379624626</v>
+      </c>
+      <c r="I55" t="n">
+        <v>275.089</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1492152</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1898645</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O55" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q55" t="s">
         <v>331</v>
-      </c>
-      <c r="F55" t="s">
-        <v>332</v>
-      </c>
-      <c r="G55" t="n">
-        <v>440</v>
-      </c>
-      <c r="H55" t="n">
-        <v>374242384</v>
-      </c>
-      <c r="I55" t="n">
-        <v>271.189</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2044131</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.481</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2401220</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>330</v>
       </c>
       <c r="R55" t="s">
         <v>108</v>
       </c>
       <c r="S55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H56" t="n">
-        <v>11842433</v>
+        <v>12139998</v>
       </c>
       <c r="I56" t="n">
-        <v>43.296</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>44.384</v>
+      </c>
+      <c r="J56" t="n">
+        <v>59153</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.216</v>
+      </c>
       <c r="L56" t="n">
-        <v>61632</v>
+        <v>62442</v>
       </c>
       <c r="M56" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="O56" t="n">
-        <v>8.8</v>
-      </c>
+        <v>0.228</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="P56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R56" t="s">
         <v>31</v>
       </c>
       <c r="S56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44356</v>
+        <v>44362</v>
       </c>
       <c r="D57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H57" t="n">
-        <v>21065451</v>
+        <v>21817747</v>
       </c>
       <c r="I57" t="n">
-        <v>250.8</v>
+        <v>259.757</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>125992</v>
+        <v>125516</v>
       </c>
       <c r="M57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="O57" t="n">
-        <v>16</v>
-      </c>
+        <v>1.494</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R57" t="s">
         <v>44</v>
       </c>
       <c r="S57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H58" t="n">
-        <v>10807363</v>
+        <v>10970128</v>
       </c>
       <c r="I58" t="n">
-        <v>268.689</v>
+        <v>272.736</v>
       </c>
       <c r="J58" t="n">
-        <v>44999</v>
+        <v>36473</v>
       </c>
       <c r="K58" t="n">
-        <v>1.119</v>
+        <v>0.907</v>
       </c>
       <c r="L58" t="n">
-        <v>39498</v>
+        <v>41542</v>
       </c>
       <c r="M58" t="n">
-        <v>0.982</v>
+        <v>1.033</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="O58" t="n">
-        <v>10</v>
+        <v>9.8</v>
       </c>
       <c r="P58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R58" t="s">
         <v>108</v>
       </c>
       <c r="S58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>44329</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
@@ -6284,208 +6270,208 @@
         <v>43.5</v>
       </c>
       <c r="P59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q59" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R59" t="s">
         <v>44</v>
       </c>
       <c r="S59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H60" t="n">
-        <v>17142265</v>
+        <v>17223680</v>
       </c>
       <c r="I60" t="n">
-        <v>1980.496</v>
+        <v>1989.902</v>
       </c>
       <c r="J60" t="n">
-        <v>19050</v>
+        <v>30747</v>
       </c>
       <c r="K60" t="n">
-        <v>2.201</v>
+        <v>3.552</v>
       </c>
       <c r="L60" t="n">
-        <v>18820</v>
+        <v>20469</v>
       </c>
       <c r="M60" t="n">
-        <v>2.174</v>
+        <v>2.365</v>
       </c>
       <c r="N60" t="n">
         <v>0.001</v>
       </c>
       <c r="O60" t="n">
-        <v>1344.3</v>
+        <v>1364.6</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
       </c>
       <c r="Q60" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R60" t="s">
         <v>44</v>
       </c>
       <c r="S60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D61" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E61" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F61" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G61" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H61" t="n">
-        <v>28667166</v>
+        <v>28841384</v>
       </c>
       <c r="I61" t="n">
-        <v>474.137</v>
+        <v>477.018</v>
       </c>
       <c r="J61" t="n">
-        <v>56945</v>
+        <v>23989</v>
       </c>
       <c r="K61" t="n">
-        <v>0.942</v>
+        <v>0.397</v>
       </c>
       <c r="L61" t="n">
-        <v>55628</v>
+        <v>50441</v>
       </c>
       <c r="M61" t="n">
-        <v>0.92</v>
+        <v>0.834</v>
       </c>
       <c r="N61" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="O61" t="n">
-        <v>26.5</v>
+        <v>29.2</v>
       </c>
       <c r="P61" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R61" t="s">
         <v>31</v>
       </c>
       <c r="S61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G62" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H62" t="n">
-        <v>68057064</v>
+        <v>68684085</v>
       </c>
       <c r="I62" t="n">
-        <v>1125.62</v>
+        <v>1135.991</v>
       </c>
       <c r="J62" t="n">
-        <v>205335</v>
+        <v>79524</v>
       </c>
       <c r="K62" t="n">
-        <v>3.396</v>
+        <v>1.315</v>
       </c>
       <c r="L62" t="n">
-        <v>191298</v>
+        <v>181716</v>
       </c>
       <c r="M62" t="n">
-        <v>3.164</v>
+        <v>3.005</v>
       </c>
       <c r="N62" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="O62" t="n">
-        <v>91.1</v>
+        <v>105.3</v>
       </c>
       <c r="P62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R62" t="s">
         <v>44</v>
       </c>
       <c r="S62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>44356</v>
       </c>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
@@ -6506,153 +6492,151 @@
         <v>0.642</v>
       </c>
       <c r="N63" t="n">
-        <v>0.013</v>
+        <v>0.034</v>
       </c>
       <c r="O63" t="n">
-        <v>77.4</v>
+        <v>29.5</v>
       </c>
       <c r="P63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R63" t="s">
         <v>108</v>
       </c>
       <c r="S63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H64" t="n">
-        <v>14490993</v>
+        <v>14727513</v>
       </c>
       <c r="I64" t="n">
-        <v>114.575</v>
+        <v>116.445</v>
       </c>
       <c r="J64" t="n">
-        <v>74713</v>
+        <v>60314</v>
       </c>
       <c r="K64" t="n">
-        <v>0.591</v>
+        <v>0.477</v>
       </c>
       <c r="L64" t="n">
-        <v>64879</v>
+        <v>62370</v>
       </c>
       <c r="M64" t="n">
-        <v>0.513</v>
+        <v>0.493</v>
       </c>
       <c r="N64" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="O64" t="n">
-        <v>31</v>
+        <v>35.3</v>
       </c>
       <c r="P64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R64" t="s">
         <v>31</v>
       </c>
       <c r="S64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H65" t="n">
-        <v>7493032</v>
+        <v>7543911</v>
       </c>
       <c r="I65" t="n">
-        <v>734.385</v>
+        <v>739.372</v>
       </c>
       <c r="J65" t="n">
-        <v>21629</v>
+        <v>18617</v>
       </c>
       <c r="K65" t="n">
-        <v>2.12</v>
+        <v>1.825</v>
       </c>
       <c r="L65" t="n">
-        <v>21255</v>
+        <v>19551</v>
       </c>
       <c r="M65" t="n">
-        <v>2.083</v>
+        <v>1.916</v>
       </c>
       <c r="N65" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="O65" t="n">
-        <v>112.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O65"/>
       <c r="P65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R65" t="s">
         <v>44</v>
       </c>
       <c r="S65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>44343</v>
       </c>
       <c r="D66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
@@ -6683,33 +6667,33 @@
         <v>29.5</v>
       </c>
       <c r="P66" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q66" t="s">
         <v>396</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>395</v>
       </c>
       <c r="R66" t="s">
         <v>44</v>
       </c>
       <c r="S66" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="D67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
@@ -6739,574 +6723,570 @@
         <v>36</v>
       </c>
       <c r="Q67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R67" t="s">
         <v>44</v>
       </c>
       <c r="S67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
-        <v>636591</v>
+        <v>642459</v>
       </c>
       <c r="I68" t="n">
-        <v>329.366</v>
-      </c>
-      <c r="J68"/>
-      <c r="K68"/>
+        <v>332.403</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2117</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.095</v>
+      </c>
       <c r="L68" t="n">
-        <v>2251</v>
+        <v>2343</v>
       </c>
       <c r="M68" t="n">
-        <v>1.165</v>
+        <v>1.212</v>
       </c>
       <c r="N68" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="O68" t="n">
-        <v>212.9</v>
+        <v>146.4</v>
       </c>
       <c r="P68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R68" t="s">
         <v>24</v>
       </c>
       <c r="S68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D69" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E69" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H69" t="n">
-        <v>2717599</v>
+        <v>2752544</v>
       </c>
       <c r="I69" t="n">
-        <v>636.356</v>
+        <v>644.539</v>
       </c>
       <c r="J69" t="n">
-        <v>12669</v>
+        <v>11121</v>
       </c>
       <c r="K69" t="n">
-        <v>2.967</v>
+        <v>2.604</v>
       </c>
       <c r="L69" t="n">
-        <v>11002</v>
+        <v>11647</v>
       </c>
       <c r="M69" t="n">
-        <v>2.576</v>
+        <v>2.727</v>
       </c>
       <c r="N69" t="n">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="O69" t="n">
         <v>7.6</v>
       </c>
       <c r="P69" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R69" t="s">
         <v>44</v>
       </c>
       <c r="S69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D70" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H70" t="n">
-        <v>268285</v>
+        <v>274907</v>
       </c>
       <c r="I70" t="n">
-        <v>36.875</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1826</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.251</v>
-      </c>
+        <v>37.785</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70" t="n">
-        <v>1745</v>
+        <v>1608</v>
       </c>
       <c r="M70" t="n">
-        <v>0.24</v>
+        <v>0.221</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q70" t="s">
         <v>418</v>
       </c>
-      <c r="Q70" t="s">
-        <v>417</v>
-      </c>
       <c r="R70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H71" t="n">
-        <v>2723681</v>
+        <v>2753690</v>
       </c>
       <c r="I71" t="n">
-        <v>1444.003</v>
+        <v>1459.913</v>
       </c>
       <c r="J71" t="n">
-        <v>10362</v>
+        <v>11452</v>
       </c>
       <c r="K71" t="n">
-        <v>5.494</v>
+        <v>6.071</v>
       </c>
       <c r="L71" t="n">
-        <v>9140</v>
+        <v>9037</v>
       </c>
       <c r="M71" t="n">
-        <v>4.846</v>
+        <v>4.791</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q71" t="s">
         <v>424</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>423</v>
       </c>
       <c r="R71" t="s">
         <v>44</v>
       </c>
       <c r="S71" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44356</v>
+        <v>44361</v>
       </c>
       <c r="D72" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H72" t="n">
-        <v>4543738</v>
+        <v>4599186</v>
       </c>
       <c r="I72" t="n">
-        <v>665.706</v>
-      </c>
-      <c r="J72" t="n">
-        <v>14038</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.057</v>
-      </c>
+        <v>673.83</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
       <c r="L72" t="n">
-        <v>14113</v>
+        <v>12245</v>
       </c>
       <c r="M72" t="n">
-        <v>2.068</v>
+        <v>1.794</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q72" t="s">
         <v>430</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>429</v>
       </c>
       <c r="R72" t="s">
         <v>24</v>
       </c>
       <c r="S72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>3457</v>
+        <v>3588</v>
       </c>
       <c r="K73" t="n">
-        <v>0.503</v>
+        <v>0.522</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q73" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R73" t="s">
         <v>108</v>
       </c>
       <c r="S73" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B74" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44356</v>
+        <v>44359</v>
       </c>
       <c r="D74" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H74" t="n">
-        <v>48480</v>
+        <v>49022</v>
       </c>
       <c r="I74" t="n">
-        <v>1271.206</v>
+        <v>1285.418</v>
       </c>
       <c r="J74" t="n">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="K74" t="n">
-        <v>4.956</v>
+        <v>1.783</v>
       </c>
       <c r="L74" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M74" t="n">
-        <v>4.064</v>
+        <v>4.012</v>
       </c>
       <c r="N74" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O74" t="n">
-        <v>166.7</v>
+        <v>142.9</v>
       </c>
       <c r="P74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R74" t="s">
         <v>44</v>
       </c>
       <c r="S74" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44354</v>
+        <v>44357</v>
       </c>
       <c r="D75" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H75" t="n">
-        <v>3634110</v>
+        <v>3701486</v>
       </c>
       <c r="I75" t="n">
-        <v>1334.945</v>
+        <v>1359.695</v>
       </c>
       <c r="J75" t="n">
-        <v>17806</v>
+        <v>20483</v>
       </c>
       <c r="K75" t="n">
-        <v>6.541</v>
+        <v>7.524</v>
       </c>
       <c r="L75" t="n">
-        <v>18481</v>
+        <v>17556</v>
       </c>
       <c r="M75" t="n">
-        <v>6.789</v>
+        <v>6.449</v>
       </c>
       <c r="N75" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="O75" t="n">
-        <v>58.8</v>
+        <v>71.4</v>
       </c>
       <c r="P75" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q75" t="s">
         <v>447</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>446</v>
       </c>
       <c r="R75" t="s">
         <v>44</v>
       </c>
       <c r="S75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B76" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44356</v>
+        <v>44359</v>
       </c>
       <c r="D76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H76" t="n">
-        <v>2964202</v>
+        <v>2987872</v>
       </c>
       <c r="I76" t="n">
-        <v>4735.329</v>
+        <v>4773.141</v>
       </c>
       <c r="J76" t="n">
-        <v>7094</v>
+        <v>5713</v>
       </c>
       <c r="K76" t="n">
-        <v>11.333</v>
+        <v>9.127</v>
       </c>
       <c r="L76" t="n">
-        <v>6553</v>
+        <v>6525</v>
       </c>
       <c r="M76" t="n">
-        <v>10.468</v>
+        <v>10.424</v>
       </c>
       <c r="N76" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="O76" t="n">
-        <v>145.2</v>
+        <v>203.9</v>
       </c>
       <c r="P76" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q76" t="s">
         <v>452</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>451</v>
       </c>
       <c r="R76" t="s">
         <v>44</v>
       </c>
       <c r="S76" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B77" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H77" t="n">
-        <v>207682</v>
+        <v>209522</v>
       </c>
       <c r="I77" t="n">
-        <v>7.5</v>
+        <v>7.566</v>
       </c>
       <c r="J77" t="n">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="K77" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="L77" t="n">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="M77" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="N77" t="n">
-        <v>0.118</v>
+        <v>0.073</v>
       </c>
       <c r="O77" t="n">
-        <v>8.5</v>
+        <v>13.6</v>
       </c>
       <c r="P77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q77" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R77" t="s">
         <v>44</v>
       </c>
       <c r="S77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>44350</v>
       </c>
       <c r="D78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
@@ -7333,199 +7313,201 @@
         <v>180.2</v>
       </c>
       <c r="P78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q78" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="R78" t="s">
         <v>108</v>
       </c>
       <c r="S78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H79" t="n">
-        <v>13020243</v>
+        <v>13360629</v>
       </c>
       <c r="I79" t="n">
-        <v>402.282</v>
+        <v>412.798</v>
       </c>
       <c r="J79" t="n">
-        <v>100059</v>
+        <v>70044</v>
       </c>
       <c r="K79" t="n">
-        <v>3.091</v>
+        <v>2.164</v>
       </c>
       <c r="L79" t="n">
-        <v>92691</v>
+        <v>86909</v>
       </c>
       <c r="M79" t="n">
-        <v>2.864</v>
+        <v>2.685</v>
       </c>
       <c r="N79" t="n">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
       <c r="O79" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="P79" t="s">
         <v>36</v>
       </c>
       <c r="Q79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R79" t="s">
         <v>31</v>
       </c>
       <c r="S79" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B80" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D80" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H80" t="n">
-        <v>930671</v>
+        <v>949191</v>
       </c>
       <c r="I80" t="n">
-        <v>1721.737</v>
+        <v>1755.999</v>
       </c>
       <c r="J80" t="n">
-        <v>3819</v>
+        <v>5262</v>
       </c>
       <c r="K80" t="n">
-        <v>7.065</v>
+        <v>9.735</v>
       </c>
       <c r="L80" t="n">
-        <v>4673</v>
+        <v>4542</v>
       </c>
       <c r="M80" t="n">
-        <v>8.645</v>
+        <v>8.403</v>
       </c>
       <c r="N80" t="n">
-        <v>0.092</v>
+        <v>0.068</v>
       </c>
       <c r="O80" t="n">
-        <v>10.8</v>
+        <v>14.6</v>
       </c>
       <c r="P80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q80" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="R80" t="s">
         <v>108</v>
       </c>
       <c r="S80" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D81" t="s">
-        <v>480</v>
-      </c>
-      <c r="E81"/>
+        <v>481</v>
+      </c>
+      <c r="E81" t="s">
+        <v>482</v>
+      </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H81" t="n">
-        <v>947765</v>
+        <v>954117</v>
       </c>
       <c r="I81" t="n">
-        <v>2146.503</v>
+        <v>2160.89</v>
       </c>
       <c r="J81" t="n">
-        <v>2123</v>
+        <v>1021</v>
       </c>
       <c r="K81" t="n">
-        <v>4.808</v>
+        <v>2.312</v>
       </c>
       <c r="L81" t="n">
-        <v>1986</v>
+        <v>1652</v>
       </c>
       <c r="M81" t="n">
-        <v>4.498</v>
+        <v>3.741</v>
       </c>
       <c r="N81" t="n">
         <v>0.001</v>
       </c>
       <c r="O81" t="n">
-        <v>695.1</v>
+        <v>1051.6</v>
       </c>
       <c r="P81" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="R81" t="s">
         <v>44</v>
       </c>
       <c r="S81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B82" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="D82" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7551,253 +7533,253 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q82" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R82" t="s">
         <v>44</v>
       </c>
       <c r="S82" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D83" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E83" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H83" t="n">
-        <v>6753755</v>
+        <v>6799882</v>
       </c>
       <c r="I83" t="n">
-        <v>52.382</v>
+        <v>52.74</v>
       </c>
       <c r="J83" t="n">
-        <v>7623</v>
+        <v>1482</v>
       </c>
       <c r="K83" t="n">
-        <v>0.059</v>
+        <v>0.011</v>
       </c>
       <c r="L83" t="n">
-        <v>9605</v>
+        <v>10367</v>
       </c>
       <c r="M83" t="n">
-        <v>0.074</v>
+        <v>0.08</v>
       </c>
       <c r="N83" t="n">
-        <v>0.211</v>
+        <v>0.217</v>
       </c>
       <c r="O83" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="P83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q83" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="R83" t="s">
         <v>31</v>
       </c>
       <c r="S83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H84" t="n">
-        <v>1163859</v>
+        <v>1181446</v>
       </c>
       <c r="I84" t="n">
-        <v>288.515</v>
+        <v>292.875</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>4684</v>
+        <v>4749</v>
       </c>
       <c r="M84" t="n">
-        <v>1.161</v>
+        <v>1.177</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q84" t="s">
         <v>499</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>498</v>
       </c>
       <c r="R84" t="s">
         <v>24</v>
       </c>
       <c r="S84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D85" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H85" t="n">
-        <v>3018338</v>
+        <v>3061071</v>
       </c>
       <c r="I85" t="n">
-        <v>920.704</v>
+        <v>933.74</v>
       </c>
       <c r="J85" t="n">
-        <v>8500</v>
+        <v>10963</v>
       </c>
       <c r="K85" t="n">
-        <v>2.593</v>
+        <v>3.344</v>
       </c>
       <c r="L85" t="n">
-        <v>9012</v>
+        <v>9587</v>
       </c>
       <c r="M85" t="n">
-        <v>2.749</v>
+        <v>2.924</v>
       </c>
       <c r="N85" t="n">
-        <v>0.137</v>
+        <v>0.144</v>
       </c>
       <c r="O85" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="P85" t="s">
         <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="R85" t="s">
         <v>108</v>
       </c>
       <c r="S85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B86" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D86" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E86" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H86" t="n">
-        <v>6079920</v>
+        <v>6110273</v>
       </c>
       <c r="I86" t="n">
-        <v>164.72</v>
+        <v>165.543</v>
       </c>
       <c r="J86" t="n">
-        <v>9189</v>
+        <v>4489</v>
       </c>
       <c r="K86" t="n">
-        <v>0.249</v>
+        <v>0.122</v>
       </c>
       <c r="L86" t="n">
-        <v>8524</v>
+        <v>8476</v>
       </c>
       <c r="M86" t="n">
-        <v>0.231</v>
+        <v>0.23</v>
       </c>
       <c r="N86" t="n">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
       <c r="O86" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="P86" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q86" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44357</v>
       </c>
       <c r="D87" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7828,204 +7810,204 @@
         <v>23.7</v>
       </c>
       <c r="P87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="R87" t="s">
         <v>72</v>
       </c>
       <c r="S87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D88" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H88" t="n">
-        <v>2639138</v>
+        <v>2651053</v>
       </c>
       <c r="I88" t="n">
-        <v>48.505</v>
+        <v>48.724</v>
       </c>
       <c r="J88" t="n">
-        <v>2347</v>
+        <v>2819</v>
       </c>
       <c r="K88" t="n">
-        <v>0.043</v>
+        <v>0.052</v>
       </c>
       <c r="L88" t="n">
-        <v>1810</v>
+        <v>2576</v>
       </c>
       <c r="M88" t="n">
-        <v>0.033</v>
+        <v>0.047</v>
       </c>
       <c r="N88" t="n">
-        <v>0.073</v>
+        <v>0.076</v>
       </c>
       <c r="O88" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="P88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R88" t="s">
         <v>108</v>
       </c>
       <c r="S88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B89" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D89" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H89" t="n">
-        <v>457886</v>
+        <v>470132</v>
       </c>
       <c r="I89" t="n">
-        <v>180.205</v>
+        <v>185.025</v>
       </c>
       <c r="J89" t="n">
-        <v>3178</v>
+        <v>1594</v>
       </c>
       <c r="K89" t="n">
-        <v>1.251</v>
+        <v>0.627</v>
       </c>
       <c r="L89" t="n">
-        <v>2326</v>
+        <v>2870</v>
       </c>
       <c r="M89" t="n">
-        <v>0.915</v>
+        <v>1.13</v>
       </c>
       <c r="N89" t="n">
-        <v>0.27</v>
+        <v>0.335</v>
       </c>
       <c r="O89" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="P89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="R89" t="s">
         <v>108</v>
       </c>
       <c r="S89" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D90" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H90" t="n">
-        <v>3189104</v>
+        <v>3224163</v>
       </c>
       <c r="I90" t="n">
-        <v>109.453</v>
+        <v>110.656</v>
       </c>
       <c r="J90" t="n">
-        <v>9901</v>
+        <v>9438</v>
       </c>
       <c r="K90" t="n">
-        <v>0.34</v>
+        <v>0.324</v>
       </c>
       <c r="L90" t="n">
-        <v>11738</v>
+        <v>9871</v>
       </c>
       <c r="M90" t="n">
-        <v>0.403</v>
+        <v>0.339</v>
       </c>
       <c r="N90" t="n">
-        <v>0.301</v>
+        <v>0.275</v>
       </c>
       <c r="O90" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="R90" t="s">
         <v>44</v>
       </c>
       <c r="S90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>44353</v>
       </c>
       <c r="D91" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
@@ -8052,161 +8034,161 @@
         <v>16.4</v>
       </c>
       <c r="P91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H92" t="n">
-        <v>2186193</v>
+        <v>2200141</v>
       </c>
       <c r="I92" t="n">
-        <v>453.357</v>
+        <v>456.249</v>
       </c>
       <c r="J92" t="n">
-        <v>4924</v>
+        <v>2695</v>
       </c>
       <c r="K92" t="n">
-        <v>1.021</v>
+        <v>0.559</v>
       </c>
       <c r="L92" t="n">
-        <v>3784</v>
+        <v>4031</v>
       </c>
       <c r="M92" t="n">
-        <v>0.785</v>
+        <v>0.836</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R92" t="s">
         <v>44</v>
       </c>
       <c r="S92" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="D93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H93" t="n">
-        <v>2180444</v>
+        <v>2231409</v>
       </c>
       <c r="I93" t="n">
-        <v>10.578</v>
+        <v>10.825</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>6769</v>
+        <v>7281</v>
       </c>
       <c r="M93" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O93" t="n">
-        <v>159</v>
+        <v>194.5</v>
       </c>
       <c r="P93" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q93" t="s">
         <v>553</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>552</v>
       </c>
       <c r="R93" t="s">
         <v>108</v>
       </c>
       <c r="S93" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B94" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H94" t="n">
-        <v>823165</v>
+        <v>834825</v>
       </c>
       <c r="I94" t="n">
-        <v>395.11</v>
+        <v>400.707</v>
       </c>
       <c r="J94" t="n">
-        <v>2411</v>
+        <v>1337</v>
       </c>
       <c r="K94" t="n">
-        <v>1.157</v>
+        <v>0.642</v>
       </c>
       <c r="L94" t="n">
-        <v>2499</v>
+        <v>2588</v>
       </c>
       <c r="M94" t="n">
-        <v>1.199</v>
+        <v>1.242</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8214,87 +8196,87 @@
         <v>36</v>
       </c>
       <c r="Q94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R94" t="s">
         <v>44</v>
       </c>
       <c r="S94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B95" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44355</v>
+        <v>44359</v>
       </c>
       <c r="D95" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H95" t="n">
-        <v>5827560</v>
+        <v>5885569</v>
       </c>
       <c r="I95" t="n">
-        <v>1074.949</v>
+        <v>1085.65</v>
       </c>
       <c r="J95" t="n">
-        <v>16456</v>
+        <v>7107</v>
       </c>
       <c r="K95" t="n">
-        <v>3.035</v>
+        <v>1.311</v>
       </c>
       <c r="L95" t="n">
-        <v>15910</v>
+        <v>14763</v>
       </c>
       <c r="M95" t="n">
-        <v>2.935</v>
+        <v>2.723</v>
       </c>
       <c r="N95" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="O95" t="n">
-        <v>66.4</v>
+        <v>79.7</v>
       </c>
       <c r="P95" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q95" t="s">
         <v>563</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>562</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B96" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D96" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E96" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8313,231 +8295,223 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q96" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="R96" t="s">
         <v>72</v>
       </c>
       <c r="S96" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B97" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D97" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E97" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H97" t="n">
-        <v>13745973</v>
+        <v>13892289</v>
       </c>
       <c r="I97" t="n">
-        <v>62.229</v>
+        <v>62.892</v>
       </c>
       <c r="J97" t="n">
-        <v>40483</v>
+        <v>35039</v>
       </c>
       <c r="K97" t="n">
-        <v>0.183</v>
+        <v>0.159</v>
       </c>
       <c r="L97" t="n">
-        <v>46456</v>
+        <v>38932</v>
       </c>
       <c r="M97" t="n">
-        <v>0.21</v>
+        <v>0.176</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q97" t="s">
         <v>574</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>573</v>
       </c>
       <c r="R97" t="s">
         <v>44</v>
       </c>
       <c r="S97" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B98" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D98" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>2409</v>
+        <v>2559</v>
       </c>
       <c r="K98" t="n">
-        <v>0.472</v>
+        <v>0.502</v>
       </c>
       <c r="L98" t="n">
-        <v>2586</v>
+        <v>2391</v>
       </c>
       <c r="M98" t="n">
-        <v>0.507</v>
+        <v>0.469</v>
       </c>
       <c r="N98" t="n">
-        <v>0.093</v>
+        <v>0.099</v>
       </c>
       <c r="O98" t="n">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="P98" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q98" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R98" t="s">
         <v>44</v>
       </c>
       <c r="S98" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B99" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D99" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E99" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H99" t="n">
-        <v>2748101</v>
+        <v>2794885</v>
       </c>
       <c r="I99" t="n">
-        <v>636.906</v>
-      </c>
-      <c r="J99" t="n">
-        <v>12119</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2.809</v>
-      </c>
+        <v>647.749</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
       <c r="L99" t="n">
-        <v>10587</v>
+        <v>10968</v>
       </c>
       <c r="M99" t="n">
-        <v>2.454</v>
+        <v>2.542</v>
       </c>
       <c r="N99" t="n">
-        <v>0.068</v>
+        <v>0.07</v>
       </c>
       <c r="O99" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="P99" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q99" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R99" t="s">
         <v>44</v>
       </c>
       <c r="S99" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B100" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44356</v>
+        <v>44304</v>
       </c>
       <c r="D100" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E100" t="s">
-        <v>591</v>
+        <v>313</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>457</v>
+        <v>7</v>
       </c>
       <c r="H100" t="n">
-        <v>1370827</v>
+        <v>82516</v>
       </c>
       <c r="I100" t="n">
-        <v>192.194</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9581</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.343</v>
-      </c>
+        <v>9.223</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
       <c r="L100" t="n">
-        <v>8673</v>
+        <v>943</v>
       </c>
       <c r="M100" t="n">
-        <v>1.216</v>
+        <v>0.105</v>
       </c>
       <c r="N100" t="n">
-        <v>0.342</v>
+        <v>0.196</v>
       </c>
       <c r="O100" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="P100" t="s">
-        <v>591</v>
+        <v>313</v>
       </c>
       <c r="Q100" t="s">
         <v>592</v>
       </c>
       <c r="R100" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="S100" t="s">
         <v>593</v>
@@ -8551,107 +8525,107 @@
         <v>595</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44343</v>
+        <v>44360</v>
       </c>
       <c r="D101" t="s">
         <v>596</v>
       </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>597</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="H101" t="n">
-        <v>4007521</v>
+        <v>1403539</v>
       </c>
       <c r="I101" t="n">
-        <v>121.544</v>
+        <v>196.78</v>
       </c>
       <c r="J101" t="n">
-        <v>7014</v>
+        <v>7052</v>
       </c>
       <c r="K101" t="n">
-        <v>0.213</v>
+        <v>0.989</v>
       </c>
       <c r="L101" t="n">
-        <v>10173</v>
+        <v>8573</v>
       </c>
       <c r="M101" t="n">
-        <v>0.309</v>
+        <v>1.202</v>
       </c>
       <c r="N101" t="n">
-        <v>0.089</v>
+        <v>0.304</v>
       </c>
       <c r="O101" t="n">
-        <v>11.2</v>
+        <v>3.3</v>
       </c>
       <c r="P101" t="s">
-        <v>167</v>
+        <v>597</v>
       </c>
       <c r="Q101" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="R101" t="s">
         <v>44</v>
       </c>
       <c r="S101" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B102" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44356</v>
+        <v>44343</v>
       </c>
       <c r="D102" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E102" t="s">
-        <v>601</v>
+        <v>167</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="H102" t="n">
-        <v>13079519</v>
+        <v>4007521</v>
       </c>
       <c r="I102" t="n">
-        <v>119.359</v>
+        <v>121.544</v>
       </c>
       <c r="J102" t="n">
-        <v>48652</v>
+        <v>7014</v>
       </c>
       <c r="K102" t="n">
-        <v>0.444</v>
+        <v>0.213</v>
       </c>
       <c r="L102" t="n">
-        <v>47098</v>
+        <v>10173</v>
       </c>
       <c r="M102" t="n">
-        <v>0.43</v>
+        <v>0.309</v>
       </c>
       <c r="N102" t="n">
-        <v>0.138</v>
+        <v>0.089</v>
       </c>
       <c r="O102" t="n">
-        <v>7.2</v>
+        <v>11.2</v>
       </c>
       <c r="P102" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="Q102" t="s">
         <v>602</v>
       </c>
       <c r="R102" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S102" t="s">
         <v>603</v>
@@ -8665,7 +8639,7 @@
         <v>605</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44356</v>
+        <v>44359</v>
       </c>
       <c r="D103" t="s">
         <v>606</v>
@@ -8675,34 +8649,34 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="H103" t="n">
-        <v>16097102</v>
+        <v>13237602</v>
       </c>
       <c r="I103" t="n">
-        <v>425.325</v>
+        <v>120.802</v>
       </c>
       <c r="J103" t="n">
-        <v>109848</v>
+        <v>39046</v>
       </c>
       <c r="K103" t="n">
-        <v>2.902</v>
+        <v>0.356</v>
       </c>
       <c r="L103" t="n">
-        <v>55122</v>
+        <v>47859</v>
       </c>
       <c r="M103" t="n">
-        <v>1.456</v>
+        <v>0.437</v>
       </c>
       <c r="N103" t="n">
-        <v>0.007</v>
+        <v>0.138</v>
       </c>
       <c r="O103" t="n">
-        <v>139.7</v>
+        <v>7.3</v>
       </c>
       <c r="P103" t="s">
-        <v>607</v>
+        <v>313</v>
       </c>
       <c r="Q103" t="s">
         <v>608</v>
@@ -8716,113 +8690,113 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B104" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="D104" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E104" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="H104" t="n">
-        <v>16467982</v>
+        <v>16251795</v>
       </c>
       <c r="I104" t="n">
-        <v>435.124</v>
+        <v>429.412</v>
       </c>
       <c r="J104" t="n">
-        <v>111334</v>
+        <v>47640</v>
       </c>
       <c r="K104" t="n">
-        <v>2.942</v>
+        <v>1.259</v>
       </c>
       <c r="L104" t="n">
-        <v>55885</v>
+        <v>51402</v>
       </c>
       <c r="M104" t="n">
-        <v>1.477</v>
+        <v>1.358</v>
       </c>
       <c r="N104" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O104" t="n">
-        <v>141.6</v>
+        <v>154.2</v>
       </c>
       <c r="P104" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="Q104" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="R104" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B105" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>44356</v>
       </c>
       <c r="D105" t="s">
+        <v>617</v>
+      </c>
+      <c r="E105" t="s">
         <v>613</v>
-      </c>
-      <c r="E105" t="s">
-        <v>36</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H105" t="n">
-        <v>12232895</v>
+        <v>16467982</v>
       </c>
       <c r="I105" t="n">
-        <v>1199.691</v>
+        <v>435.124</v>
       </c>
       <c r="J105" t="n">
-        <v>41198</v>
+        <v>111334</v>
       </c>
       <c r="K105" t="n">
-        <v>4.04</v>
+        <v>2.942</v>
       </c>
       <c r="L105" t="n">
-        <v>42329</v>
+        <v>55885</v>
       </c>
       <c r="M105" t="n">
-        <v>4.151</v>
+        <v>1.477</v>
       </c>
       <c r="N105" t="n">
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
       <c r="O105" t="n">
-        <v>69.6</v>
+        <v>141.6</v>
       </c>
       <c r="P105" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q105" t="s">
         <v>614</v>
       </c>
-      <c r="Q105" t="s">
-        <v>613</v>
-      </c>
       <c r="R105" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="S105" t="s">
         <v>615</v>
@@ -8830,109 +8804,113 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B106" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44355</v>
+        <v>44359</v>
       </c>
       <c r="D106" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E106" t="s">
-        <v>619</v>
+        <v>36</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="H106" t="n">
-        <v>2056656</v>
+        <v>12356036</v>
       </c>
       <c r="I106" t="n">
-        <v>713.854</v>
+        <v>1211.767</v>
       </c>
       <c r="J106" t="n">
-        <v>3247</v>
+        <v>36762</v>
       </c>
       <c r="K106" t="n">
-        <v>1.127</v>
+        <v>3.605</v>
       </c>
       <c r="L106" t="n">
-        <v>4064</v>
+        <v>40435</v>
       </c>
       <c r="M106" t="n">
-        <v>1.411</v>
+        <v>3.965</v>
       </c>
       <c r="N106" t="n">
-        <v>0.045</v>
+        <v>0.017</v>
       </c>
       <c r="O106" t="n">
-        <v>22</v>
+        <v>60.1</v>
       </c>
       <c r="P106" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q106" t="s">
         <v>620</v>
       </c>
-      <c r="Q106" t="s">
-        <v>618</v>
-      </c>
       <c r="R106" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S106" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B107" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="D107" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="H107" t="n">
-        <v>8082482</v>
+        <v>2084963</v>
       </c>
       <c r="I107" t="n">
-        <v>420.138</v>
+        <v>723.679</v>
       </c>
       <c r="J107" t="n">
-        <v>19066</v>
+        <v>4428</v>
       </c>
       <c r="K107" t="n">
-        <v>0.991</v>
+        <v>1.537</v>
       </c>
       <c r="L107" t="n">
-        <v>16446</v>
+        <v>4508</v>
       </c>
       <c r="M107" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="N107"/>
-      <c r="O107"/>
+        <v>1.565</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O107" t="n">
+        <v>29</v>
+      </c>
       <c r="P107" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q107" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="R107" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S107" t="s">
         <v>628</v>
@@ -8946,7 +8924,7 @@
         <v>630</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44357</v>
+        <v>44362</v>
       </c>
       <c r="D108" t="s">
         <v>631</v>
@@ -8956,541 +8934,531 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="H108" t="n">
-        <v>141949258</v>
+        <v>8132876</v>
       </c>
       <c r="I108" t="n">
-        <v>972.692</v>
+        <v>422.758</v>
       </c>
       <c r="J108" t="n">
-        <v>400122</v>
+        <v>17532</v>
       </c>
       <c r="K108" t="n">
-        <v>2.742</v>
+        <v>0.911</v>
       </c>
       <c r="L108" t="n">
-        <v>335954</v>
+        <v>15511</v>
       </c>
       <c r="M108" t="n">
-        <v>2.302</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="O108" t="n">
-        <v>34.7</v>
-      </c>
+        <v>0.806</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Q108" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="R108" t="s">
         <v>44</v>
       </c>
       <c r="S108" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B109" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="D109" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E109" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>358</v>
+        <v>439</v>
       </c>
       <c r="H109" t="n">
-        <v>1487840</v>
+        <v>143356426</v>
       </c>
       <c r="I109" t="n">
-        <v>114.872</v>
+        <v>982.334</v>
       </c>
       <c r="J109" t="n">
-        <v>5002</v>
+        <v>253506</v>
       </c>
       <c r="K109" t="n">
-        <v>0.386</v>
+        <v>1.737</v>
       </c>
       <c r="L109" t="n">
-        <v>4269</v>
+        <v>354452</v>
       </c>
       <c r="M109" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N109"/>
-      <c r="O109"/>
+        <v>2.429</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="O109" t="n">
+        <v>29</v>
+      </c>
       <c r="P109" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Q109" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="R109" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="S109" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B110" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D110" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>645</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>362</v>
       </c>
       <c r="H110" t="n">
-        <v>17008</v>
+        <v>1510426</v>
       </c>
       <c r="I110" t="n">
-        <v>319.747</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
+        <v>116.615</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4715</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.364</v>
+      </c>
       <c r="L110" t="n">
-        <v>88</v>
+        <v>5020</v>
       </c>
       <c r="M110" t="n">
-        <v>1.654</v>
+        <v>0.388</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110" t="s">
-        <v>36</v>
+        <v>645</v>
       </c>
       <c r="Q110" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="R110" t="s">
-        <v>419</v>
+        <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B111" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44356</v>
+        <v>44362</v>
       </c>
       <c r="D111" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>20113388</v>
+        <v>19154</v>
       </c>
       <c r="I111" t="n">
-        <v>577.741</v>
-      </c>
-      <c r="J111" t="n">
-        <v>92227</v>
-      </c>
-      <c r="K111" t="n">
-        <v>2.649</v>
-      </c>
-      <c r="L111" t="n">
-        <v>88134</v>
-      </c>
-      <c r="M111" t="n">
-        <v>2.532</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="O111" t="n">
-        <v>74.5</v>
-      </c>
+        <v>360.092</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>36</v>
       </c>
       <c r="Q111" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="R111" t="s">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="S111" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B112" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D112" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E112" t="s">
-        <v>653</v>
+        <v>36</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H112" t="n">
-        <v>545153</v>
+        <v>20438923</v>
       </c>
       <c r="I112" t="n">
-        <v>32.558</v>
+        <v>587.091</v>
       </c>
       <c r="J112" t="n">
-        <v>1349</v>
+        <v>83368</v>
       </c>
       <c r="K112" t="n">
-        <v>0.081</v>
+        <v>2.395</v>
       </c>
       <c r="L112" t="n">
-        <v>1452</v>
+        <v>86041</v>
       </c>
       <c r="M112" t="n">
-        <v>0.087</v>
+        <v>2.471</v>
       </c>
       <c r="N112" t="n">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="O112" t="n">
-        <v>32.7</v>
+        <v>73</v>
       </c>
       <c r="P112" t="s">
-        <v>653</v>
+        <v>36</v>
       </c>
       <c r="Q112" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="R112" t="s">
         <v>44</v>
       </c>
       <c r="S112" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B113" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D113" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
-      </c>
-      <c r="F113" t="s">
-        <v>658</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="F113"/>
       <c r="G113" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H113" t="n">
-        <v>4249908</v>
+        <v>551580</v>
       </c>
       <c r="I113" t="n">
-        <v>624.564</v>
+        <v>32.942</v>
       </c>
       <c r="J113" t="n">
-        <v>9730</v>
+        <v>1326</v>
       </c>
       <c r="K113" t="n">
-        <v>1.43</v>
+        <v>0.079</v>
       </c>
       <c r="L113" t="n">
-        <v>9243</v>
+        <v>1485</v>
       </c>
       <c r="M113" t="n">
-        <v>1.358</v>
+        <v>0.089</v>
       </c>
       <c r="N113" t="n">
-        <v>0.019</v>
+        <v>0.03</v>
       </c>
       <c r="O113" t="n">
-        <v>51.6</v>
+        <v>33.5</v>
       </c>
       <c r="P113" t="s">
-        <v>36</v>
+        <v>660</v>
       </c>
       <c r="Q113" t="s">
         <v>659</v>
       </c>
       <c r="R113" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S113" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B114" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="D114" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
-      <c r="F114"/>
+      <c r="F114" t="s">
+        <v>665</v>
+      </c>
       <c r="G114" t="n">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="H114" t="n">
-        <v>12366898</v>
+        <v>4282416</v>
       </c>
       <c r="I114" t="n">
-        <v>2113.876</v>
-      </c>
-      <c r="J114"/>
-      <c r="K114"/>
+        <v>629.342</v>
+      </c>
+      <c r="J114" t="n">
+        <v>8287</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1.218</v>
+      </c>
       <c r="L114" t="n">
-        <v>59873</v>
+        <v>8917</v>
       </c>
       <c r="M114" t="n">
-        <v>10.234</v>
+        <v>1.31</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="O114" t="n">
-        <v>2636</v>
+        <v>53.1</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="R114" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B115" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44355</v>
+        <v>44361</v>
       </c>
       <c r="D115" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>460</v>
+        <v>61</v>
       </c>
       <c r="H115" t="n">
-        <v>38983356</v>
+        <v>12809152</v>
       </c>
       <c r="I115" t="n">
-        <v>7140.276</v>
-      </c>
-      <c r="J115" t="n">
-        <v>42637</v>
-      </c>
-      <c r="K115" t="n">
-        <v>7.809</v>
-      </c>
+        <v>2189.47</v>
+      </c>
+      <c r="J115"/>
+      <c r="K115"/>
       <c r="L115" t="n">
-        <v>61855</v>
+        <v>63179</v>
       </c>
       <c r="M115" t="n">
-        <v>11.329</v>
+        <v>10.799</v>
       </c>
       <c r="N115" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>333.3</v>
+        <v>4859.9</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="R115" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="S115" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B116" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D116" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E116" t="s">
-        <v>672</v>
+        <v>36</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="H116" t="n">
-        <v>1313619</v>
+        <v>42324356</v>
       </c>
       <c r="I116" t="n">
-        <v>631.872</v>
+        <v>7752.22</v>
       </c>
       <c r="J116" t="n">
-        <v>2734</v>
+        <v>45523</v>
       </c>
       <c r="K116" t="n">
-        <v>1.315</v>
+        <v>8.338</v>
       </c>
       <c r="L116" t="n">
-        <v>2767</v>
+        <v>53704</v>
       </c>
       <c r="M116" t="n">
-        <v>1.331</v>
+        <v>9.837</v>
       </c>
       <c r="N116" t="n">
-        <v>0.065</v>
+        <v>0.003</v>
       </c>
       <c r="O116" t="n">
-        <v>15.4</v>
+        <v>333.3</v>
       </c>
       <c r="P116" t="s">
-        <v>672</v>
+        <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="R116" t="s">
         <v>44</v>
       </c>
       <c r="S116" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B117" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D117" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E117" t="s">
-        <v>677</v>
-      </c>
-      <c r="F117" t="s">
+        <v>679</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>481</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1321072</v>
+      </c>
+      <c r="I117" t="n">
+        <v>635.457</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2386</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="O117" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="P117" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q117" t="s">
         <v>678</v>
       </c>
-      <c r="G117" t="n">
-        <v>461</v>
-      </c>
-      <c r="H117" t="n">
-        <v>12044072</v>
-      </c>
-      <c r="I117" t="n">
-        <v>203.074</v>
-      </c>
-      <c r="J117" t="n">
-        <v>58322</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="L117" t="n">
-        <v>40985</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.691</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="O117" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="P117" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>679</v>
-      </c>
       <c r="R117" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S117" t="s">
         <v>680</v>
@@ -9504,7 +9472,7 @@
         <v>682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="D118" t="s">
         <v>683</v>
@@ -9512,138 +9480,144 @@
       <c r="E118" t="s">
         <v>684</v>
       </c>
-      <c r="F118"/>
+      <c r="F118" t="s">
+        <v>685</v>
+      </c>
       <c r="G118" t="n">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H118" t="n">
-        <v>9977311</v>
+        <v>12223448</v>
       </c>
       <c r="I118" t="n">
-        <v>194.606</v>
+        <v>206.099</v>
       </c>
       <c r="J118" t="n">
-        <v>30776</v>
+        <v>30034</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6</v>
+        <v>0.506</v>
       </c>
       <c r="L118" t="n">
-        <v>28547</v>
+        <v>46236</v>
       </c>
       <c r="M118" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="N118"/>
-      <c r="O118"/>
+        <v>0.78</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="O118" t="n">
+        <v>6.1</v>
+      </c>
       <c r="P118" t="s">
         <v>684</v>
       </c>
       <c r="Q118" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B119" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44342</v>
+        <v>44362</v>
       </c>
       <c r="D119" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>691</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>141</v>
+        <v>471</v>
       </c>
       <c r="H119" t="n">
-        <v>164472</v>
+        <v>10072806</v>
       </c>
       <c r="I119" t="n">
-        <v>14.693</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>196.469</v>
+      </c>
+      <c r="J119" t="n">
+        <v>30733</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.599</v>
+      </c>
       <c r="L119" t="n">
-        <v>456</v>
+        <v>29069</v>
       </c>
       <c r="M119" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="O119" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0.567</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
-        <v>36</v>
+        <v>691</v>
       </c>
       <c r="Q119" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="R119" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B120" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44350</v>
+        <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E120" t="s">
-        <v>694</v>
+        <v>36</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="H120" t="n">
-        <v>44294542</v>
+        <v>164472</v>
       </c>
       <c r="I120" t="n">
-        <v>947.38</v>
+        <v>14.693</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120" t="n">
-        <v>97280</v>
+        <v>456</v>
       </c>
       <c r="M120" t="n">
-        <v>2.081</v>
+        <v>0.041</v>
       </c>
       <c r="N120" t="n">
-        <v>0.044</v>
+        <v>0.008</v>
       </c>
       <c r="O120" t="n">
-        <v>22.8</v>
+        <v>127.7</v>
       </c>
       <c r="P120" t="s">
-        <v>695</v>
+        <v>36</v>
       </c>
       <c r="Q120" t="s">
         <v>696</v>
@@ -9663,7 +9637,7 @@
         <v>699</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="D121" t="s">
         <v>700</v>
@@ -9673,86 +9647,90 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>474</v>
+        <v>61</v>
       </c>
       <c r="H121" t="n">
-        <v>3709461</v>
+        <v>44966367</v>
       </c>
       <c r="I121" t="n">
-        <v>173.232</v>
-      </c>
-      <c r="J121" t="n">
-        <v>18691</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.873</v>
-      </c>
+        <v>961.749</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
       <c r="L121" t="n">
-        <v>19143</v>
+        <v>92429</v>
       </c>
       <c r="M121" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121"/>
+        <v>1.977</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O121" t="n">
+        <v>17.8</v>
+      </c>
       <c r="P121" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Q121" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B122" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44353</v>
+        <v>44361</v>
       </c>
       <c r="D122" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E122" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>329</v>
-      </c>
-      <c r="H122"/>
-      <c r="I122"/>
+        <v>477</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3764895</v>
+      </c>
+      <c r="I122" t="n">
+        <v>175.821</v>
+      </c>
       <c r="J122" t="n">
-        <v>27113</v>
+        <v>16873</v>
       </c>
       <c r="K122" t="n">
-        <v>2.685</v>
+        <v>0.788</v>
       </c>
       <c r="L122" t="n">
-        <v>27113</v>
+        <v>18565</v>
       </c>
       <c r="M122" t="n">
-        <v>2.685</v>
+        <v>0.867</v>
       </c>
       <c r="N122" t="n">
-        <v>0.051</v>
+        <v>0.138</v>
       </c>
       <c r="O122" t="n">
-        <v>19.8</v>
+        <v>7.2</v>
       </c>
       <c r="P122" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q122" t="s">
         <v>707</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>708</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
@@ -9769,266 +9747,262 @@
         <v>711</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44357</v>
+        <v>44353</v>
       </c>
       <c r="D123" t="s">
-        <v>440</v>
+        <v>712</v>
       </c>
       <c r="E123" t="s">
-        <v>441</v>
+        <v>713</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>384</v>
-      </c>
-      <c r="H123" t="n">
-        <v>7528309</v>
-      </c>
-      <c r="I123" t="n">
-        <v>869.86</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
       <c r="J123" t="n">
-        <v>21312</v>
+        <v>27113</v>
       </c>
       <c r="K123" t="n">
-        <v>2.463</v>
+        <v>2.685</v>
       </c>
       <c r="L123" t="n">
-        <v>19813</v>
+        <v>27113</v>
       </c>
       <c r="M123" t="n">
-        <v>2.289</v>
+        <v>2.685</v>
       </c>
       <c r="N123" t="n">
-        <v>0.022</v>
+        <v>0.051</v>
       </c>
       <c r="O123" t="n">
-        <v>45.5</v>
+        <v>19.8</v>
       </c>
       <c r="P123" t="s">
-        <v>441</v>
+        <v>714</v>
       </c>
       <c r="Q123" t="s">
-        <v>442</v>
+        <v>715</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B124" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="D124" t="s">
-        <v>715</v>
+        <v>441</v>
       </c>
       <c r="E124" t="s">
-        <v>716</v>
+        <v>442</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>511</v>
+        <v>386</v>
       </c>
       <c r="H124" t="n">
-        <v>804931</v>
+        <v>7575348</v>
       </c>
       <c r="I124" t="n">
-        <v>33.797</v>
+        <v>875.295</v>
       </c>
       <c r="J124" t="n">
-        <v>22852</v>
+        <v>14772</v>
       </c>
       <c r="K124" t="n">
-        <v>0.959</v>
+        <v>1.707</v>
       </c>
       <c r="L124" t="n">
-        <v>25468</v>
+        <v>20155</v>
       </c>
       <c r="M124" t="n">
-        <v>1.069</v>
+        <v>2.329</v>
       </c>
       <c r="N124" t="n">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="O124" t="n">
-        <v>79.3</v>
+        <v>50</v>
       </c>
       <c r="P124" t="s">
-        <v>716</v>
+        <v>442</v>
       </c>
       <c r="Q124" t="s">
-        <v>715</v>
+        <v>443</v>
       </c>
       <c r="R124" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B125" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44352</v>
+        <v>44361</v>
       </c>
       <c r="D125" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E125" t="s">
-        <v>190</v>
+        <v>723</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H125" t="n">
-        <v>7016799</v>
+        <v>903676</v>
       </c>
       <c r="I125" t="n">
-        <v>100.527</v>
+        <v>37.943</v>
       </c>
       <c r="J125" t="n">
-        <v>52402</v>
+        <v>13715</v>
       </c>
       <c r="K125" t="n">
-        <v>0.751</v>
+        <v>0.576</v>
       </c>
       <c r="L125" t="n">
-        <v>59718</v>
+        <v>25852</v>
       </c>
       <c r="M125" t="n">
-        <v>0.856</v>
+        <v>1.085</v>
       </c>
       <c r="N125" t="n">
-        <v>0.048</v>
+        <v>0.009</v>
       </c>
       <c r="O125" t="n">
-        <v>20.8</v>
+        <v>112.1</v>
       </c>
       <c r="P125" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="Q125" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="R125" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B126" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44347</v>
+        <v>44359</v>
       </c>
       <c r="D126" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="H126" t="n">
-        <v>92122</v>
+        <v>7405990</v>
       </c>
       <c r="I126" t="n">
-        <v>69.872</v>
-      </c>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
+        <v>106.103</v>
+      </c>
+      <c r="J126" t="n">
+        <v>50989</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="L126" t="n">
+        <v>55599</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="O126" t="n">
+        <v>21.3</v>
+      </c>
       <c r="P126" t="s">
-        <v>36</v>
+        <v>728</v>
       </c>
       <c r="Q126" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="R126" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B127" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44357</v>
-      </c>
-      <c r="D127"/>
+        <v>44362</v>
+      </c>
+      <c r="D127" t="s">
+        <v>732</v>
+      </c>
       <c r="E127" t="s">
-        <v>729</v>
-      </c>
-      <c r="F127" t="s">
-        <v>730</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F127"/>
       <c r="G127" t="n">
-        <v>458</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>343086</v>
+        <v>92122</v>
       </c>
       <c r="I127" t="n">
-        <v>41.442</v>
-      </c>
-      <c r="J127" t="n">
-        <v>803</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="L127" t="n">
-        <v>860</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O127" t="n">
-        <v>95.6</v>
-      </c>
+        <v>69.872</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
       <c r="P127" t="s">
-        <v>729</v>
+        <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R127" t="s">
-        <v>732</v>
+        <v>24</v>
       </c>
       <c r="S127" t="s">
         <v>733</v>
@@ -10042,152 +10016,150 @@
         <v>735</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44357</v>
-      </c>
-      <c r="D128" t="s">
+        <v>44361</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="s">
         <v>736</v>
-      </c>
-      <c r="E128" t="s">
-        <v>36</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="H128" t="n">
-        <v>205495</v>
+        <v>346702</v>
       </c>
       <c r="I128" t="n">
-        <v>146.836</v>
+        <v>41.879</v>
       </c>
       <c r="J128" t="n">
-        <v>1005</v>
+        <v>693</v>
       </c>
       <c r="K128" t="n">
-        <v>0.718</v>
+        <v>0.084</v>
       </c>
       <c r="L128" t="n">
-        <v>1435</v>
+        <v>850</v>
       </c>
       <c r="M128" t="n">
-        <v>1.025</v>
+        <v>0.103</v>
       </c>
       <c r="N128" t="n">
-        <v>0.252</v>
+        <v>0.015</v>
       </c>
       <c r="O128" t="n">
-        <v>4</v>
+        <v>66.9</v>
       </c>
       <c r="P128" t="s">
-        <v>36</v>
+        <v>736</v>
       </c>
       <c r="Q128" t="s">
         <v>737</v>
       </c>
       <c r="R128" t="s">
-        <v>31</v>
+        <v>738</v>
       </c>
       <c r="S128" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B129" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44358</v>
+        <v>44360</v>
       </c>
       <c r="D129" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E129" t="s">
-        <v>742</v>
+        <v>36</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>56</v>
+        <v>396</v>
       </c>
       <c r="H129" t="n">
-        <v>1540880</v>
+        <v>208400</v>
       </c>
       <c r="I129" t="n">
-        <v>130.377</v>
+        <v>148.911</v>
       </c>
       <c r="J129" t="n">
-        <v>7057</v>
+        <v>1000</v>
       </c>
       <c r="K129" t="n">
-        <v>0.597</v>
+        <v>0.715</v>
       </c>
       <c r="L129" t="n">
-        <v>7283</v>
+        <v>1457</v>
       </c>
       <c r="M129" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="N129"/>
-      <c r="O129"/>
+        <v>1.041</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="O129" t="n">
+        <v>4.4</v>
+      </c>
       <c r="P129" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q129" t="s">
         <v>743</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>744</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>745</v>
+      </c>
+      <c r="B130" t="s">
         <v>746</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" s="1" t="n">
+        <v>44362</v>
+      </c>
+      <c r="D130" t="s">
         <v>747</v>
       </c>
-      <c r="C130" s="1" t="n">
-        <v>44357</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>748</v>
-      </c>
-      <c r="E130" t="s">
-        <v>749</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>441</v>
+        <v>58</v>
       </c>
       <c r="H130" t="n">
-        <v>56346656</v>
+        <v>1568353</v>
       </c>
       <c r="I130" t="n">
-        <v>668.097</v>
+        <v>132.702</v>
       </c>
       <c r="J130" t="n">
-        <v>223320</v>
+        <v>5525</v>
       </c>
       <c r="K130" t="n">
-        <v>2.648</v>
+        <v>0.467</v>
       </c>
       <c r="L130" t="n">
-        <v>219553</v>
+        <v>6951</v>
       </c>
       <c r="M130" t="n">
-        <v>2.603</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="O130" t="n">
-        <v>35.9</v>
-      </c>
+        <v>0.588</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130"/>
       <c r="P130" t="s">
         <v>749</v>
       </c>
@@ -10195,7 +10167,7 @@
         <v>750</v>
       </c>
       <c r="R130" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S130" t="s">
         <v>751</v>
@@ -10209,7 +10181,7 @@
         <v>753</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44355</v>
+        <v>44361</v>
       </c>
       <c r="D131" t="s">
         <v>754</v>
@@ -10219,31 +10191,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>307</v>
+        <v>445</v>
       </c>
       <c r="H131" t="n">
-        <v>1168479</v>
+        <v>57223789</v>
       </c>
       <c r="I131" t="n">
-        <v>25.546</v>
+        <v>678.497</v>
       </c>
       <c r="J131" t="n">
-        <v>8478</v>
+        <v>219290</v>
       </c>
       <c r="K131" t="n">
-        <v>0.185</v>
+        <v>2.6</v>
       </c>
       <c r="L131" t="n">
-        <v>6168</v>
+        <v>221453</v>
       </c>
       <c r="M131" t="n">
-        <v>0.135</v>
+        <v>2.626</v>
       </c>
       <c r="N131" t="n">
-        <v>0.16</v>
+        <v>0.027</v>
       </c>
       <c r="O131" t="n">
-        <v>6.3</v>
+        <v>36.5</v>
       </c>
       <c r="P131" t="s">
         <v>755</v>
@@ -10252,7 +10224,7 @@
         <v>756</v>
       </c>
       <c r="R131" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="S131" t="s">
         <v>757</v>
@@ -10266,7 +10238,7 @@
         <v>759</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="D132" t="s">
         <v>760</v>
@@ -10276,28 +10248,32 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="H132" t="n">
-        <v>10460411</v>
+        <v>1203499</v>
       </c>
       <c r="I132" t="n">
-        <v>239.184</v>
+        <v>26.311</v>
       </c>
       <c r="J132" t="n">
-        <v>25837</v>
+        <v>6573</v>
       </c>
       <c r="K132" t="n">
-        <v>0.591</v>
+        <v>0.144</v>
       </c>
       <c r="L132" t="n">
-        <v>24295</v>
+        <v>7440</v>
       </c>
       <c r="M132" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="N132"/>
-      <c r="O132"/>
+        <v>0.163</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="O132" t="n">
+        <v>6.1</v>
+      </c>
       <c r="P132" t="s">
         <v>761</v>
       </c>
@@ -10305,7 +10281,7 @@
         <v>762</v>
       </c>
       <c r="R132" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="S132" t="s">
         <v>763</v>
@@ -10319,7 +10295,7 @@
         <v>765</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D133" t="s">
         <v>766</v>
@@ -10329,25 +10305,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>469</v>
+        <v>357</v>
       </c>
       <c r="H133" t="n">
-        <v>52853775</v>
+        <v>10548499</v>
       </c>
       <c r="I133" t="n">
-        <v>5343.947</v>
+        <v>241.198</v>
       </c>
       <c r="J133" t="n">
-        <v>225651</v>
+        <v>32313</v>
       </c>
       <c r="K133" t="n">
-        <v>22.815</v>
+        <v>0.739</v>
       </c>
       <c r="L133" t="n">
-        <v>230909</v>
+        <v>24038</v>
       </c>
       <c r="M133" t="n">
-        <v>23.347</v>
+        <v>0.55</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10355,240 +10331,236 @@
         <v>767</v>
       </c>
       <c r="Q133" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="R133" t="s">
         <v>44</v>
       </c>
       <c r="S133" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B134" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44356</v>
+        <v>44362</v>
       </c>
       <c r="D134" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E134" t="s">
+        <v>773</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134" t="n">
+        <v>473</v>
+      </c>
+      <c r="H134" t="n">
+        <v>53787952</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5438.4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>229143</v>
+      </c>
+      <c r="K134" t="n">
+        <v>23.168</v>
+      </c>
+      <c r="L134" t="n">
+        <v>236426</v>
+      </c>
+      <c r="M134" t="n">
+        <v>23.905</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q134" t="s">
         <v>772</v>
-      </c>
-      <c r="F134" t="s">
-        <v>773</v>
-      </c>
-      <c r="G134" t="n">
-        <v>436</v>
-      </c>
-      <c r="H134" t="n">
-        <v>188125558</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2771.198</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1085999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>15.997</v>
-      </c>
-      <c r="L134" t="n">
-        <v>914986</v>
-      </c>
-      <c r="M134" t="n">
-        <v>13.478</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O134" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="P134" t="s">
-        <v>772</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>774</v>
       </c>
       <c r="R134" t="s">
         <v>44</v>
       </c>
       <c r="S134" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>775</v>
+      </c>
+      <c r="B135" t="s">
         <v>776</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" s="1" t="n">
+        <v>44360</v>
+      </c>
+      <c r="D135" t="s">
         <v>777</v>
       </c>
-      <c r="C135" s="1" t="n">
-        <v>44355</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>778</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>779</v>
       </c>
-      <c r="F135"/>
       <c r="G135" t="n">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="H135" t="n">
-        <v>454405214</v>
+        <v>191675702</v>
       </c>
       <c r="I135" t="n">
-        <v>1372.814</v>
+        <v>2823.494</v>
       </c>
       <c r="J135" t="n">
-        <v>264012</v>
+        <v>1052222</v>
       </c>
       <c r="K135" t="n">
-        <v>0.798</v>
+        <v>15.5</v>
       </c>
       <c r="L135" t="n">
-        <v>592016</v>
+        <v>932568</v>
       </c>
       <c r="M135" t="n">
-        <v>1.789</v>
+        <v>13.737</v>
       </c>
       <c r="N135" t="n">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="O135" t="n">
-        <v>41.7</v>
+        <v>133.3</v>
       </c>
       <c r="P135" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q135" t="s">
         <v>780</v>
       </c>
       <c r="R135" t="s">
+        <v>44</v>
+      </c>
+      <c r="S135" t="s">
         <v>781</v>
-      </c>
-      <c r="S135" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>782</v>
+      </c>
+      <c r="B136" t="s">
         <v>783</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" s="1" t="n">
+        <v>44358</v>
+      </c>
+      <c r="D136" t="s">
         <v>784</v>
       </c>
-      <c r="C136" s="1" t="n">
-        <v>44356</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>785</v>
-      </c>
-      <c r="E136" t="s">
-        <v>190</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="H136" t="n">
-        <v>2461711</v>
+        <v>456982870</v>
       </c>
       <c r="I136" t="n">
-        <v>708.666</v>
+        <v>1380.602</v>
       </c>
       <c r="J136" t="n">
-        <v>22520</v>
+        <v>418153</v>
       </c>
       <c r="K136" t="n">
-        <v>6.483</v>
+        <v>1.263</v>
       </c>
       <c r="L136" t="n">
-        <v>21550</v>
+        <v>524329</v>
       </c>
       <c r="M136" t="n">
-        <v>6.204</v>
+        <v>1.584</v>
       </c>
       <c r="N136" t="n">
-        <v>0.165</v>
+        <v>0.026</v>
       </c>
       <c r="O136" t="n">
-        <v>6.1</v>
+        <v>38.5</v>
       </c>
       <c r="P136" t="s">
-        <v>190</v>
+        <v>785</v>
       </c>
       <c r="Q136" t="s">
         <v>786</v>
       </c>
       <c r="R136" t="s">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="S136" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B137" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44355</v>
+        <v>44361</v>
       </c>
       <c r="D137" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E137" t="s">
-        <v>791</v>
+        <v>190</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="H137" t="n">
-        <v>4519876</v>
+        <v>2556998</v>
       </c>
       <c r="I137" t="n">
-        <v>46.435</v>
+        <v>736.096</v>
       </c>
       <c r="J137" t="n">
-        <v>42290</v>
+        <v>15546</v>
       </c>
       <c r="K137" t="n">
-        <v>0.434</v>
+        <v>4.475</v>
       </c>
       <c r="L137" t="n">
-        <v>52042</v>
+        <v>20196</v>
       </c>
       <c r="M137" t="n">
-        <v>0.535</v>
+        <v>5.814</v>
       </c>
       <c r="N137" t="n">
-        <v>0.004</v>
+        <v>0.156</v>
       </c>
       <c r="O137" t="n">
-        <v>228.1</v>
+        <v>6.4</v>
       </c>
       <c r="P137" t="s">
-        <v>791</v>
+        <v>190</v>
       </c>
       <c r="Q137" t="s">
         <v>792</v>
       </c>
       <c r="R137" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="S137" t="s">
         <v>793</v>
@@ -10602,7 +10574,7 @@
         <v>795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="D138" t="s">
         <v>796</v>
@@ -10612,36 +10584,40 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>425</v>
+        <v>106</v>
       </c>
       <c r="H138" t="n">
-        <v>1670458</v>
+        <v>4766532</v>
       </c>
       <c r="I138" t="n">
-        <v>90.865</v>
+        <v>48.969</v>
       </c>
       <c r="J138" t="n">
-        <v>12415</v>
+        <v>69511</v>
       </c>
       <c r="K138" t="n">
-        <v>0.675</v>
+        <v>0.714</v>
       </c>
       <c r="L138" t="n">
-        <v>10511</v>
+        <v>58883</v>
       </c>
       <c r="M138" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="N138"/>
-      <c r="O138"/>
+        <v>0.605</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O138" t="n">
+        <v>234.6</v>
+      </c>
       <c r="P138" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q138" t="s">
         <v>798</v>
       </c>
-      <c r="Q138" t="s">
-        <v>796</v>
-      </c>
       <c r="R138" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="S138" t="s">
         <v>799</v>
@@ -10655,7 +10631,7 @@
         <v>801</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="D139" t="s">
         <v>802</v>
@@ -10665,43 +10641,100 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="H139" t="n">
-        <v>574237</v>
+        <v>1670458</v>
       </c>
       <c r="I139" t="n">
-        <v>38.636</v>
+        <v>90.865</v>
       </c>
       <c r="J139" t="n">
-        <v>2841</v>
+        <v>12415</v>
       </c>
       <c r="K139" t="n">
-        <v>0.191</v>
+        <v>0.675</v>
       </c>
       <c r="L139" t="n">
-        <v>2377</v>
+        <v>10511</v>
       </c>
       <c r="M139" t="n">
-        <v>0.16</v>
+        <v>0.572</v>
       </c>
       <c r="N139" t="n">
-        <v>0.024</v>
+        <v>0.13</v>
       </c>
       <c r="O139" t="n">
-        <v>41.2</v>
+        <v>7.7</v>
       </c>
       <c r="P139" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q139" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="R139" t="s">
         <v>44</v>
       </c>
       <c r="S139" t="s">
         <v>805</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>806</v>
+      </c>
+      <c r="B140" t="s">
+        <v>807</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>44360</v>
+      </c>
+      <c r="D140" t="s">
+        <v>808</v>
+      </c>
+      <c r="E140" t="s">
+        <v>809</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140" t="n">
+        <v>401</v>
+      </c>
+      <c r="H140" t="n">
+        <v>580870</v>
+      </c>
+      <c r="I140" t="n">
+        <v>39.082</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1363</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2572</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O140" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P140" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>810</v>
+      </c>
+      <c r="R140" t="s">
+        <v>44</v>
+      </c>
+      <c r="S140" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-14-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-15-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.451.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.452-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -3087,7 +3087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3266,7 +3266,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3311,7 +3311,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3321,28 +3321,28 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H5" t="n">
-        <v>10452838</v>
+        <v>10487582</v>
       </c>
       <c r="I5" t="n">
-        <v>231.279</v>
+        <v>232.048</v>
       </c>
       <c r="J5" t="n">
-        <v>37334</v>
+        <v>34744</v>
       </c>
       <c r="K5" t="n">
-        <v>0.826</v>
+        <v>0.769</v>
       </c>
       <c r="L5" t="n">
-        <v>35856</v>
+        <v>34834</v>
       </c>
       <c r="M5" t="n">
-        <v>0.793</v>
+        <v>0.771</v>
       </c>
       <c r="N5" t="n">
-        <v>0.271</v>
+        <v>0.267</v>
       </c>
       <c r="O5" t="n">
         <v>3.7</v>
@@ -3425,7 +3425,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3435,27 +3435,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H7" t="n">
-        <v>19354043</v>
+        <v>19394794</v>
       </c>
       <c r="I7" t="n">
-        <v>758.986</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>760.584</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40751</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.598</v>
+      </c>
       <c r="L7" t="n">
-        <v>56033</v>
+        <v>53893</v>
       </c>
       <c r="M7" t="n">
-        <v>2.197</v>
+        <v>2.113</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5768.3</v>
+        <v>4963.9</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3565,8 +3569,12 @@
       <c r="M9" t="n">
         <v>0.777</v>
       </c>
-      <c r="N9"/>
-      <c r="O9"/>
+      <c r="N9" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O9" t="n">
+        <v>132.9</v>
+      </c>
       <c r="P9" t="s">
         <v>65</v>
       </c>
@@ -3588,7 +3596,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3598,25 +3606,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H10" t="n">
-        <v>4831727</v>
+        <v>4845013</v>
       </c>
       <c r="I10" t="n">
-        <v>2839.548</v>
+        <v>2847.356</v>
       </c>
       <c r="J10" t="n">
-        <v>14569</v>
+        <v>13286</v>
       </c>
       <c r="K10" t="n">
-        <v>8.562</v>
+        <v>7.808</v>
       </c>
       <c r="L10" t="n">
-        <v>12677</v>
+        <v>12784</v>
       </c>
       <c r="M10" t="n">
-        <v>7.45</v>
+        <v>7.513</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3834,8 +3842,12 @@
       <c r="M14" t="n">
         <v>1.607</v>
       </c>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="N14" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O14" t="n">
+        <v>55.9</v>
+      </c>
       <c r="P14" t="s">
         <v>96</v>
       </c>
@@ -4106,7 +4118,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4116,25 +4128,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H20" t="n">
-        <v>3000226</v>
+        <v>3013425</v>
       </c>
       <c r="I20" t="n">
-        <v>431.784</v>
+        <v>433.683</v>
       </c>
       <c r="J20" t="n">
-        <v>17860</v>
+        <v>13199</v>
       </c>
       <c r="K20" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="L20" t="n">
-        <v>11728</v>
+        <v>11475</v>
       </c>
       <c r="M20" t="n">
-        <v>1.688</v>
+        <v>1.651</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4159,7 +4171,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -4169,25 +4181,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>1253563</v>
+        <v>1262862</v>
       </c>
       <c r="I21" t="n">
-        <v>74.978</v>
+        <v>75.535</v>
       </c>
       <c r="J21" t="n">
-        <v>9649</v>
+        <v>9299</v>
       </c>
       <c r="K21" t="n">
-        <v>0.577</v>
+        <v>0.556</v>
       </c>
       <c r="L21" t="n">
-        <v>7451</v>
+        <v>7804</v>
       </c>
       <c r="M21" t="n">
-        <v>0.446</v>
+        <v>0.467</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4670,8 +4682,12 @@
       <c r="M30" t="n">
         <v>1.137</v>
       </c>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="N30" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O30" t="n">
+        <v>36.7</v>
+      </c>
       <c r="P30" t="s">
         <v>184</v>
       </c>
@@ -4972,7 +4988,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4982,27 +4998,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H36" t="n">
-        <v>1622856</v>
+        <v>1627049</v>
       </c>
       <c r="I36" t="n">
-        <v>149.601</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>149.987</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4193</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.387</v>
+      </c>
       <c r="L36" t="n">
-        <v>5429</v>
+        <v>5183</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="N36" t="n">
-        <v>0.215</v>
+        <v>0.209</v>
       </c>
       <c r="O36" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5467,7 +5487,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5626,7 +5646,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44347</v>
+        <v>44353</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5636,7 +5656,7 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H48" t="n">
         <v>62193564</v>
@@ -6104,8 +6124,12 @@
       <c r="M56" t="n">
         <v>0.228</v>
       </c>
-      <c r="N56"/>
-      <c r="O56"/>
+      <c r="N56" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7.5</v>
+      </c>
       <c r="P56" t="s">
         <v>338</v>
       </c>
@@ -6153,8 +6177,12 @@
       <c r="M57" t="n">
         <v>1.494</v>
       </c>
-      <c r="N57"/>
-      <c r="O57"/>
+      <c r="N57" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="O57" t="n">
+        <v>12.6</v>
+      </c>
       <c r="P57" t="s">
         <v>344</v>
       </c>
@@ -6606,9 +6634,11 @@
         <v>1.916</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65"/>
+        <v>0.025</v>
+      </c>
+      <c r="O65" t="n">
+        <v>39.3</v>
+      </c>
       <c r="P65" t="s">
         <v>391</v>
       </c>
@@ -6880,8 +6910,12 @@
       <c r="M70" t="n">
         <v>0.221</v>
       </c>
-      <c r="N70"/>
-      <c r="O70"/>
+      <c r="N70" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O70" t="n">
+        <v>204.7</v>
+      </c>
       <c r="P70" t="s">
         <v>419</v>
       </c>
@@ -6935,8 +6969,12 @@
       <c r="M71" t="n">
         <v>4.791</v>
       </c>
-      <c r="N71"/>
-      <c r="O71"/>
+      <c r="N71" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O71" t="n">
+        <v>57.4</v>
+      </c>
       <c r="P71" t="s">
         <v>425</v>
       </c>
@@ -7007,7 +7045,7 @@
         <v>434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="D73" t="s">
         <v>435</v>
@@ -7017,15 +7055,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>3588</v>
+        <v>3215</v>
       </c>
       <c r="K73" t="n">
-        <v>0.522</v>
+        <v>0.468</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7636,8 +7674,12 @@
       <c r="M84" t="n">
         <v>1.177</v>
       </c>
-      <c r="N84"/>
-      <c r="O84"/>
+      <c r="N84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O84" t="n">
+        <v>98.6</v>
+      </c>
       <c r="P84" t="s">
         <v>500</v>
       </c>
@@ -8054,7 +8096,7 @@
         <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D92" t="s">
         <v>547</v>
@@ -8064,25 +8106,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H92" t="n">
-        <v>2200141</v>
+        <v>2205616</v>
       </c>
       <c r="I92" t="n">
-        <v>456.249</v>
+        <v>457.385</v>
       </c>
       <c r="J92" t="n">
-        <v>2695</v>
+        <v>5475</v>
       </c>
       <c r="K92" t="n">
-        <v>0.559</v>
+        <v>1.135</v>
       </c>
       <c r="L92" t="n">
-        <v>4031</v>
+        <v>4281</v>
       </c>
       <c r="M92" t="n">
-        <v>0.836</v>
+        <v>0.888</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8160,7 +8202,7 @@
         <v>557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D94" t="s">
         <v>558</v>
@@ -8170,25 +8212,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H94" t="n">
-        <v>834825</v>
+        <v>837712</v>
       </c>
       <c r="I94" t="n">
-        <v>400.707</v>
+        <v>402.093</v>
       </c>
       <c r="J94" t="n">
-        <v>1337</v>
+        <v>2887</v>
       </c>
       <c r="K94" t="n">
-        <v>0.642</v>
+        <v>1.386</v>
       </c>
       <c r="L94" t="n">
-        <v>2588</v>
+        <v>2797</v>
       </c>
       <c r="M94" t="n">
-        <v>1.242</v>
+        <v>1.343</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8315,7 +8357,7 @@
         <v>573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D97" t="s">
         <v>574</v>
@@ -8325,25 +8367,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H97" t="n">
-        <v>13892289</v>
+        <v>13934493</v>
       </c>
       <c r="I97" t="n">
-        <v>62.892</v>
+        <v>63.083</v>
       </c>
       <c r="J97" t="n">
-        <v>35039</v>
+        <v>42204</v>
       </c>
       <c r="K97" t="n">
-        <v>0.159</v>
+        <v>0.191</v>
       </c>
       <c r="L97" t="n">
-        <v>38932</v>
+        <v>38690</v>
       </c>
       <c r="M97" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8954,8 +8996,12 @@
       <c r="M108" t="n">
         <v>0.806</v>
       </c>
-      <c r="N108"/>
-      <c r="O108"/>
+      <c r="N108" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O108" t="n">
+        <v>149.8</v>
+      </c>
       <c r="P108" t="s">
         <v>633</v>
       </c>
@@ -9034,7 +9080,7 @@
         <v>643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D110" t="s">
         <v>644</v>
@@ -9044,25 +9090,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H110" t="n">
-        <v>1510426</v>
+        <v>1516498</v>
       </c>
       <c r="I110" t="n">
-        <v>116.615</v>
+        <v>117.084</v>
       </c>
       <c r="J110" t="n">
-        <v>4715</v>
+        <v>6072</v>
       </c>
       <c r="K110" t="n">
-        <v>0.364</v>
+        <v>0.469</v>
       </c>
       <c r="L110" t="n">
-        <v>5020</v>
+        <v>5374</v>
       </c>
       <c r="M110" t="n">
-        <v>0.388</v>
+        <v>0.415</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9087,7 +9133,7 @@
         <v>649</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D111" t="s">
         <v>650</v>
@@ -9097,16 +9143,20 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
-        <v>19154</v>
+        <v>19307</v>
       </c>
       <c r="I111" t="n">
-        <v>360.092</v>
-      </c>
-      <c r="J111"/>
-      <c r="K111"/>
+        <v>362.968</v>
+      </c>
+      <c r="J111" t="n">
+        <v>153</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2.876</v>
+      </c>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
@@ -9531,7 +9581,7 @@
         <v>689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D119" t="s">
         <v>690</v>
@@ -9541,25 +9591,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H119" t="n">
-        <v>10072806</v>
+        <v>10110620</v>
       </c>
       <c r="I119" t="n">
-        <v>196.469</v>
+        <v>197.207</v>
       </c>
       <c r="J119" t="n">
-        <v>30733</v>
+        <v>37814</v>
       </c>
       <c r="K119" t="n">
-        <v>0.599</v>
+        <v>0.738</v>
       </c>
       <c r="L119" t="n">
-        <v>29069</v>
+        <v>28180</v>
       </c>
       <c r="M119" t="n">
-        <v>0.567</v>
+        <v>0.55</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9971,7 +10021,7 @@
         <v>731</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D127" t="s">
         <v>732</v>
@@ -10158,8 +10208,12 @@
       <c r="M130" t="n">
         <v>0.588</v>
       </c>
-      <c r="N130"/>
-      <c r="O130"/>
+      <c r="N130" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="O130" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P130" t="s">
         <v>749</v>
       </c>
@@ -10295,7 +10349,7 @@
         <v>765</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D133" t="s">
         <v>766</v>
@@ -10305,25 +10359,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H133" t="n">
-        <v>10548499</v>
+        <v>10576820</v>
       </c>
       <c r="I133" t="n">
-        <v>241.198</v>
+        <v>241.846</v>
       </c>
       <c r="J133" t="n">
-        <v>32313</v>
+        <v>28321</v>
       </c>
       <c r="K133" t="n">
-        <v>0.739</v>
+        <v>0.648</v>
       </c>
       <c r="L133" t="n">
-        <v>24038</v>
+        <v>24463</v>
       </c>
       <c r="M133" t="n">
-        <v>0.55</v>
+        <v>0.559</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10378,8 +10432,12 @@
       <c r="M134" t="n">
         <v>23.905</v>
       </c>
-      <c r="N134"/>
-      <c r="O134"/>
+      <c r="N134" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O134" t="n">
+        <v>112.5</v>
+      </c>
       <c r="P134" t="s">
         <v>773</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Albania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-2916-testime-19-te-sheruar-12-raste-te-reja-ne-24-oret-e-fundit/</t>
+    <t xml:space="preserve">https://shendetesia.gov.al/covid19-ministria-e-shendetesise-asnje-humbje-jete-2224-testime-16-te-sheruar-10-raste-te-reja-ne-24-oret-e-fundit/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Protection</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4023</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4043</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-15-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-17-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-697-new-cases-432-recoveries_i_0000131035.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-873-new-covid-19-cases-949-recoveries-in-past-24-hours_i_0000131233.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5694-reporte-455-de-covid-19-1-999-pacientes-recuperados-5-395-pruebas-negativas-y-2-069-629-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5706-reporte-458-de-covid-19-3-664-pacientes-recuperados-13-295-pruebas-negativas-y-2-151-088-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-14-de-junho-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-16-de-junho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1926736014158750</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1929029473929404</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=41e5e58199</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=815e057c56</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -714,7 +714,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-14062021-xw23</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-17062021-31lv</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.452-1.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.453-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1565</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1641</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1009,7 +1009,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210613.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210617.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1164,7 +1164,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/365669</t>
+    <t xml:space="preserve">http://irangov.ir/detail/365710</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1404144250682499073</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1404490524204097537</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1287,7 +1287,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-june-9-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-june-16-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1396,7 +1396,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1404136522274725893</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1405571057885515776</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210614-f67qx6pj/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210617-c97ucxib/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4231883023542916/4231881036876448/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4237233829674502/4237225736341978/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-14062021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-17062021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1602,7 +1602,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1404483788097265665</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1405570907574132737</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1623,7 +1623,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/358704019181481/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/360611895657360/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1699,7 +1699,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-13-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1228/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-16-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1231/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1714,7 +1714,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/14.6.21.COVID-19.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/17.6.21.COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1009:boletim-diario-covid-19-n-450</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1016:boletim-diario-covid-19-n-456</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(14-6-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(17-6-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.762735667732772/762735584399447</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.764013497604989/764013404271665</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1PRjTZ9ewvXNtZJsOYDBnLds9FQWEcL0U</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1kNQKo4nWMv3WdbQD6EJ2Pjk4G4P4tnO3</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-06/COVID-19_WebSite_rapport_wekelijks_20210608_1316_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-06/COVID-19_WebSite_rapport_wekelijks_20210615_1259_final_correctie.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3893483744110808</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3898802633578919</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1974,7 +1974,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1404281146142306306</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1405670593706463234</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2008,7 +2008,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1404246495252123648</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1405683388133093378</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1uInQiO2Hf7Au3Hwk69P73Bk_camKN0R3?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/12bJhnwpaKGDoZqColvDm7Yon0lbpPXlM?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1403996814668230658</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1405446366516633603</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2079,9 +2079,6 @@
   </si>
   <si>
     <t xml:space="preserve">Poland - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1402909651117694977</t>
   </si>
   <si>
     <t xml:space="preserve">PRT</t>
@@ -2129,7 +2126,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/15-06_BULETIN_DE_PRESĂ_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_17_IUNIE.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2152,7 +2149,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18085</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18116</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2489,6 +2486,9 @@
     <t xml:space="preserve">Togo Ministry of Health</t>
   </si>
   <si>
+    <t xml:space="preserve">Provided to OWID directly by MOH</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.gouv.tg/</t>
   </si>
   <si>
@@ -2506,7 +2506,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-754/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-758/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2569,7 +2569,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1404366656290312193</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1405565449656541187</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2679,7 +2679,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-200</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-201</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-869-bc-byt-2021-tinh-hinh-dich-covid-19-va-ket-qua-phong-chong-dich-203570-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-893-bc-byt-tinh-hinh-dich-covid-19-203865-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam General Department of Preventive Medicine</t>
@@ -2739,7 +2739,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1404151436380983312</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1405636903647551488</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3087,7 +3087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3156,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -3166,31 +3166,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H2" t="n">
-        <v>734790</v>
+        <v>737014</v>
       </c>
       <c r="I2" t="n">
-        <v>255.33</v>
+        <v>256.103</v>
       </c>
       <c r="J2" t="n">
-        <v>2916</v>
+        <v>2224</v>
       </c>
       <c r="K2" t="n">
-        <v>1.013</v>
+        <v>0.773</v>
       </c>
       <c r="L2" t="n">
-        <v>2594</v>
+        <v>2643</v>
       </c>
       <c r="M2" t="n">
-        <v>0.901</v>
+        <v>0.918</v>
       </c>
       <c r="N2" t="n">
         <v>0.004</v>
       </c>
       <c r="O2" t="n">
-        <v>242.1</v>
+        <v>231.3</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -3213,7 +3213,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44354</v>
+        <v>44360</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3223,27 +3223,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>193594</v>
+        <v>194606</v>
       </c>
       <c r="I3" t="n">
-        <v>2505.585</v>
+        <v>2518.682</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="M3" t="n">
-        <v>3.21</v>
+        <v>2.33</v>
       </c>
       <c r="N3" t="n">
-        <v>0.029</v>
+        <v>0.044</v>
       </c>
       <c r="O3" t="n">
-        <v>34.7</v>
+        <v>22.9</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3266,7 +3266,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3311,7 +3311,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3321,31 +3321,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H5" t="n">
-        <v>10487582</v>
+        <v>10579571</v>
       </c>
       <c r="I5" t="n">
-        <v>232.048</v>
+        <v>234.083</v>
       </c>
       <c r="J5" t="n">
-        <v>34744</v>
+        <v>28762</v>
       </c>
       <c r="K5" t="n">
-        <v>0.769</v>
+        <v>0.636</v>
       </c>
       <c r="L5" t="n">
-        <v>34834</v>
+        <v>34218</v>
       </c>
       <c r="M5" t="n">
-        <v>0.771</v>
+        <v>0.757</v>
       </c>
       <c r="N5" t="n">
-        <v>0.267</v>
+        <v>0.258</v>
       </c>
       <c r="O5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3368,7 +3368,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3378,31 +3378,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H6" t="n">
-        <v>1125102</v>
+        <v>1138719</v>
       </c>
       <c r="I6" t="n">
-        <v>379.687</v>
+        <v>384.283</v>
       </c>
       <c r="J6" t="n">
-        <v>2807</v>
+        <v>3814</v>
       </c>
       <c r="K6" t="n">
-        <v>0.947</v>
+        <v>1.287</v>
       </c>
       <c r="L6" t="n">
-        <v>3222</v>
+        <v>3405</v>
       </c>
       <c r="M6" t="n">
-        <v>1.087</v>
+        <v>1.149</v>
       </c>
       <c r="N6" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="O6" t="n">
-        <v>44.9</v>
+        <v>44.1</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3425,7 +3425,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3435,31 +3435,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H7" t="n">
-        <v>19394794</v>
+        <v>19512699</v>
       </c>
       <c r="I7" t="n">
-        <v>760.584</v>
+        <v>765.207</v>
       </c>
       <c r="J7" t="n">
-        <v>40751</v>
+        <v>70468</v>
       </c>
       <c r="K7" t="n">
-        <v>1.598</v>
+        <v>2.763</v>
       </c>
       <c r="L7" t="n">
-        <v>53893</v>
+        <v>50727</v>
       </c>
       <c r="M7" t="n">
-        <v>2.113</v>
+        <v>1.989</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4963.9</v>
+        <v>4384</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3482,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3492,31 +3492,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H8" t="n">
-        <v>48145979</v>
+        <v>49167859</v>
       </c>
       <c r="I8" t="n">
-        <v>5345.752</v>
+        <v>5459.213</v>
       </c>
       <c r="J8" t="n">
-        <v>420545</v>
+        <v>354696</v>
       </c>
       <c r="K8" t="n">
-        <v>46.694</v>
+        <v>39.383</v>
       </c>
       <c r="L8" t="n">
-        <v>409657</v>
+        <v>391670</v>
       </c>
       <c r="M8" t="n">
-        <v>45.485</v>
+        <v>43.488</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1575.6</v>
+        <v>2086.5</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3539,7 +3539,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3549,31 +3549,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="n">
-        <v>3627573</v>
+        <v>3644912</v>
       </c>
       <c r="I9" t="n">
-        <v>357.778</v>
+        <v>359.488</v>
       </c>
       <c r="J9" t="n">
-        <v>5074</v>
+        <v>17339</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>1.71</v>
       </c>
       <c r="L9" t="n">
-        <v>7879</v>
+        <v>9120</v>
       </c>
       <c r="M9" t="n">
-        <v>0.777</v>
+        <v>0.899</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="O9" t="n">
-        <v>132.9</v>
+        <v>170.7</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3596,7 +3596,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3606,25 +3606,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H10" t="n">
-        <v>4845013</v>
+        <v>4872668</v>
       </c>
       <c r="I10" t="n">
-        <v>2847.356</v>
+        <v>2863.609</v>
       </c>
       <c r="J10" t="n">
-        <v>13286</v>
+        <v>14504</v>
       </c>
       <c r="K10" t="n">
-        <v>7.808</v>
+        <v>8.524</v>
       </c>
       <c r="L10" t="n">
-        <v>12784</v>
+        <v>13206</v>
       </c>
       <c r="M10" t="n">
-        <v>7.513</v>
+        <v>7.761</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3649,7 +3649,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3659,31 +3659,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H11" t="n">
-        <v>6184411</v>
+        <v>6256354</v>
       </c>
       <c r="I11" t="n">
-        <v>37.552</v>
+        <v>37.989</v>
       </c>
       <c r="J11" t="n">
-        <v>20602</v>
+        <v>24871</v>
       </c>
       <c r="K11" t="n">
-        <v>0.125</v>
+        <v>0.151</v>
       </c>
       <c r="L11" t="n">
-        <v>18179</v>
+        <v>20203</v>
       </c>
       <c r="M11" t="n">
-        <v>0.11</v>
+        <v>0.123</v>
       </c>
       <c r="N11" t="n">
-        <v>0.134</v>
+        <v>0.146</v>
       </c>
       <c r="O11" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3706,7 +3706,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3716,27 +3716,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H12" t="n">
-        <v>6544800</v>
+        <v>6593438</v>
       </c>
       <c r="I12" t="n">
-        <v>692.621</v>
+        <v>697.768</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>15197</v>
+        <v>15510</v>
       </c>
       <c r="M12" t="n">
-        <v>1.608</v>
+        <v>1.641</v>
       </c>
       <c r="N12" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9</v>
+        <v>18.7</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3759,7 +3759,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3769,31 +3769,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H13" t="n">
-        <v>14551168</v>
+        <v>14683161</v>
       </c>
       <c r="I13" t="n">
-        <v>1255.535</v>
+        <v>1266.924</v>
       </c>
       <c r="J13" t="n">
-        <v>18251</v>
+        <v>41934</v>
       </c>
       <c r="K13" t="n">
-        <v>1.575</v>
+        <v>3.618</v>
       </c>
       <c r="L13" t="n">
-        <v>39399</v>
+        <v>38704</v>
       </c>
       <c r="M13" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="N13" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="O13" t="n">
-        <v>41.7</v>
+        <v>52.6</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3967,7 +3967,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3977,27 +3977,27 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H17" t="n">
-        <v>1643629</v>
+        <v>1684775</v>
       </c>
       <c r="I17" t="n">
-        <v>140.806</v>
+        <v>144.331</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>13346</v>
+        <v>12821</v>
       </c>
       <c r="M17" t="n">
-        <v>1.143</v>
+        <v>1.098</v>
       </c>
       <c r="N17" t="n">
-        <v>0.212</v>
+        <v>0.24</v>
       </c>
       <c r="O17" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4020,7 +4020,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4030,27 +4030,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H18" t="n">
-        <v>1004976</v>
+        <v>1010886</v>
       </c>
       <c r="I18" t="n">
-        <v>306.319</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>308.12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2033</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.62</v>
+      </c>
       <c r="L18" t="n">
-        <v>1786</v>
+        <v>1717</v>
       </c>
       <c r="M18" t="n">
-        <v>0.544</v>
+        <v>0.523</v>
       </c>
       <c r="N18" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="O18" t="n">
-        <v>48.5</v>
+        <v>53.7</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4118,7 +4122,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4128,25 +4132,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H20" t="n">
-        <v>3013425</v>
+        <v>3039261</v>
       </c>
       <c r="I20" t="n">
-        <v>433.683</v>
+        <v>437.402</v>
       </c>
       <c r="J20" t="n">
-        <v>13199</v>
+        <v>13668</v>
       </c>
       <c r="K20" t="n">
-        <v>1.9</v>
+        <v>1.967</v>
       </c>
       <c r="L20" t="n">
-        <v>11475</v>
+        <v>11707</v>
       </c>
       <c r="M20" t="n">
-        <v>1.651</v>
+        <v>1.685</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4171,7 +4175,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -4181,25 +4185,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>1262862</v>
+        <v>1277758</v>
       </c>
       <c r="I21" t="n">
-        <v>75.535</v>
+        <v>76.426</v>
       </c>
       <c r="J21" t="n">
-        <v>9299</v>
+        <v>8517</v>
       </c>
       <c r="K21" t="n">
-        <v>0.556</v>
+        <v>0.509</v>
       </c>
       <c r="L21" t="n">
-        <v>7804</v>
+        <v>7964</v>
       </c>
       <c r="M21" t="n">
-        <v>0.467</v>
+        <v>0.476</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4281,7 +4285,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4291,31 +4295,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H23" t="n">
-        <v>35785462</v>
+        <v>35974549</v>
       </c>
       <c r="I23" t="n">
-        <v>948.156</v>
+        <v>953.166</v>
       </c>
       <c r="J23" t="n">
-        <v>137945</v>
+        <v>84632</v>
       </c>
       <c r="K23" t="n">
-        <v>3.655</v>
+        <v>2.242</v>
       </c>
       <c r="L23" t="n">
-        <v>66880</v>
+        <v>67217</v>
       </c>
       <c r="M23" t="n">
-        <v>1.772</v>
+        <v>1.781</v>
       </c>
       <c r="N23" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="O23" t="n">
-        <v>52.5</v>
+        <v>59.3</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4338,7 +4342,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4348,15 +4352,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>491</v>
+        <v>791</v>
       </c>
       <c r="K24" t="n">
-        <v>0.883</v>
+        <v>1.423</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4383,7 +4387,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4393,25 +4397,25 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H25" t="n">
-        <v>15744813</v>
+        <v>15901153</v>
       </c>
       <c r="I25" t="n">
-        <v>823.637</v>
+        <v>831.815</v>
       </c>
       <c r="J25" t="n">
-        <v>69966</v>
+        <v>75673</v>
       </c>
       <c r="K25" t="n">
-        <v>3.66</v>
+        <v>3.959</v>
       </c>
       <c r="L25" t="n">
-        <v>65786</v>
+        <v>65331</v>
       </c>
       <c r="M25" t="n">
-        <v>3.441</v>
+        <v>3.418</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4481,7 +4485,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4491,28 +4495,28 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H27" t="n">
-        <v>18159504</v>
+        <v>18510364</v>
       </c>
       <c r="I27" t="n">
-        <v>356.888</v>
+        <v>363.784</v>
       </c>
       <c r="J27" t="n">
-        <v>91746</v>
+        <v>106714</v>
       </c>
       <c r="K27" t="n">
-        <v>1.803</v>
+        <v>2.097</v>
       </c>
       <c r="L27" t="n">
-        <v>90307</v>
+        <v>92129</v>
       </c>
       <c r="M27" t="n">
-        <v>1.775</v>
+        <v>1.811</v>
       </c>
       <c r="N27" t="n">
-        <v>0.328</v>
+        <v>0.338</v>
       </c>
       <c r="O27" t="n">
         <v>3</v>
@@ -4538,7 +4542,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4548,31 +4552,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H28" t="n">
-        <v>1110951</v>
+        <v>1127025</v>
       </c>
       <c r="I28" t="n">
-        <v>218.085</v>
+        <v>221.241</v>
       </c>
       <c r="J28" t="n">
-        <v>8870</v>
+        <v>6297</v>
       </c>
       <c r="K28" t="n">
-        <v>1.741</v>
+        <v>1.236</v>
       </c>
       <c r="L28" t="n">
-        <v>6828</v>
+        <v>6975</v>
       </c>
       <c r="M28" t="n">
-        <v>1.34</v>
+        <v>1.369</v>
       </c>
       <c r="N28" t="n">
-        <v>0.198</v>
+        <v>0.188</v>
       </c>
       <c r="O28" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4595,7 +4599,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4605,31 +4609,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H29" t="n">
-        <v>674878</v>
+        <v>678807</v>
       </c>
       <c r="I29" t="n">
-        <v>25.585</v>
+        <v>25.734</v>
       </c>
       <c r="J29" t="n">
-        <v>2225</v>
+        <v>1292</v>
       </c>
       <c r="K29" t="n">
-        <v>0.084</v>
+        <v>0.049</v>
       </c>
       <c r="L29" t="n">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="M29" t="n">
         <v>0.072</v>
       </c>
       <c r="N29" t="n">
-        <v>0.013</v>
+        <v>0.029</v>
       </c>
       <c r="O29" t="n">
-        <v>77.1</v>
+        <v>34.2</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4652,7 +4656,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4662,31 +4666,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H30" t="n">
-        <v>2086716</v>
+        <v>2097393</v>
       </c>
       <c r="I30" t="n">
-        <v>508.302</v>
+        <v>510.903</v>
       </c>
       <c r="J30" t="n">
-        <v>5924</v>
+        <v>5192</v>
       </c>
       <c r="K30" t="n">
-        <v>1.443</v>
+        <v>1.265</v>
       </c>
       <c r="L30" t="n">
-        <v>4669</v>
+        <v>4565</v>
       </c>
       <c r="M30" t="n">
-        <v>1.137</v>
+        <v>1.112</v>
       </c>
       <c r="N30" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="O30" t="n">
-        <v>36.7</v>
+        <v>47.5</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4709,7 +4713,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4721,31 +4725,31 @@
         <v>191</v>
       </c>
       <c r="G31" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H31" t="n">
-        <v>4638018</v>
+        <v>4697013</v>
       </c>
       <c r="I31" t="n">
-        <v>409.48</v>
+        <v>414.688</v>
       </c>
       <c r="J31" t="n">
-        <v>22093</v>
+        <v>19342</v>
       </c>
       <c r="K31" t="n">
-        <v>1.951</v>
+        <v>1.708</v>
       </c>
       <c r="L31" t="n">
-        <v>21938</v>
+        <v>20587</v>
       </c>
       <c r="M31" t="n">
-        <v>1.937</v>
+        <v>1.818</v>
       </c>
       <c r="N31" t="n">
-        <v>0.057</v>
+        <v>0.066</v>
       </c>
       <c r="O31" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4768,7 +4772,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D32" t="s">
         <v>196</v>
@@ -4778,31 +4782,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H32" t="n">
-        <v>7632484</v>
+        <v>7733494</v>
       </c>
       <c r="I32" t="n">
-        <v>8713.886</v>
+        <v>8829.207</v>
       </c>
       <c r="J32" t="n">
-        <v>39852</v>
+        <v>34157</v>
       </c>
       <c r="K32" t="n">
-        <v>45.498</v>
+        <v>38.997</v>
       </c>
       <c r="L32" t="n">
-        <v>42227</v>
+        <v>40197</v>
       </c>
       <c r="M32" t="n">
-        <v>48.21</v>
+        <v>45.892</v>
       </c>
       <c r="N32" t="n">
         <v>0.001</v>
       </c>
       <c r="O32" t="n">
-        <v>761.8</v>
+        <v>723.3</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4825,7 +4829,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4835,21 +4839,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>176495</v>
+        <v>149389</v>
       </c>
       <c r="K33" t="n">
-        <v>16.481</v>
+        <v>13.95</v>
       </c>
       <c r="L33" t="n">
-        <v>136337</v>
+        <v>134909</v>
       </c>
       <c r="M33" t="n">
-        <v>12.731</v>
+        <v>12.598</v>
       </c>
       <c r="N33" t="n">
         <v>0.001</v>
@@ -4878,7 +4882,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4888,27 +4892,27 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="n">
-        <v>1358</v>
+        <v>1009</v>
       </c>
       <c r="K34" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="L34" t="n">
-        <v>1386</v>
+        <v>1886</v>
       </c>
       <c r="M34" t="n">
-        <v>0.015</v>
+        <v>0.021</v>
       </c>
       <c r="N34" t="n">
-        <v>0.222</v>
+        <v>0.172</v>
       </c>
       <c r="O34" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4931,7 +4935,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4941,31 +4945,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H35" t="n">
-        <v>33945628</v>
+        <v>34168269</v>
       </c>
       <c r="I35" t="n">
-        <v>5860.573</v>
+        <v>5899.011</v>
       </c>
       <c r="J35" t="n">
-        <v>39586</v>
+        <v>86839</v>
       </c>
       <c r="K35" t="n">
-        <v>6.834</v>
+        <v>14.992</v>
       </c>
       <c r="L35" t="n">
-        <v>99961</v>
+        <v>98429</v>
       </c>
       <c r="M35" t="n">
-        <v>17.258</v>
+        <v>16.993</v>
       </c>
       <c r="N35" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O35" t="n">
-        <v>205.9</v>
+        <v>227.8</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4988,7 +4992,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4998,31 +5002,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H36" t="n">
-        <v>1627049</v>
+        <v>1632441</v>
       </c>
       <c r="I36" t="n">
-        <v>149.987</v>
+        <v>150.484</v>
       </c>
       <c r="J36" t="n">
-        <v>4193</v>
+        <v>5392</v>
       </c>
       <c r="K36" t="n">
-        <v>0.387</v>
+        <v>0.497</v>
       </c>
       <c r="L36" t="n">
-        <v>5183</v>
+        <v>5297</v>
       </c>
       <c r="M36" t="n">
-        <v>0.478</v>
+        <v>0.488</v>
       </c>
       <c r="N36" t="n">
-        <v>0.209</v>
+        <v>0.202</v>
       </c>
       <c r="O36" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5161,7 +5165,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5171,13 +5175,13 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>150392</v>
+        <v>152177</v>
       </c>
       <c r="I39" t="n">
-        <v>107.194</v>
+        <v>108.467</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -5206,7 +5210,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5216,31 +5220,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H40" t="n">
-        <v>1485850</v>
+        <v>1498070</v>
       </c>
       <c r="I40" t="n">
-        <v>1120.095</v>
+        <v>1129.307</v>
       </c>
       <c r="J40" t="n">
-        <v>4746</v>
+        <v>3841</v>
       </c>
       <c r="K40" t="n">
-        <v>3.578</v>
+        <v>2.896</v>
       </c>
       <c r="L40" t="n">
-        <v>3554</v>
+        <v>3712</v>
       </c>
       <c r="M40" t="n">
-        <v>2.679</v>
+        <v>2.798</v>
       </c>
       <c r="N40" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="O40" t="n">
-        <v>65.1</v>
+        <v>78.5</v>
       </c>
       <c r="P40" t="s">
         <v>243</v>
@@ -5263,7 +5267,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="D41" t="s">
         <v>247</v>
@@ -5273,31 +5277,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H41" t="n">
-        <v>2791959</v>
+        <v>2802595</v>
       </c>
       <c r="I41" t="n">
-        <v>24.286</v>
+        <v>24.378</v>
       </c>
       <c r="J41" t="n">
-        <v>4969</v>
+        <v>5237</v>
       </c>
       <c r="K41" t="n">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="L41" t="n">
-        <v>5219</v>
+        <v>5401</v>
       </c>
       <c r="M41" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="N41" t="n">
-        <v>0.036</v>
+        <v>0.032</v>
       </c>
       <c r="O41" t="n">
-        <v>27.6</v>
+        <v>31.4</v>
       </c>
       <c r="P41" t="s">
         <v>248</v>
@@ -5377,7 +5381,7 @@
         <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="D43" t="s">
         <v>257</v>
@@ -5387,31 +5391,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H43" t="n">
-        <v>5233797</v>
+        <v>5271508</v>
       </c>
       <c r="I43" t="n">
-        <v>944.606</v>
+        <v>951.412</v>
       </c>
       <c r="J43" t="n">
-        <v>5631</v>
+        <v>13590</v>
       </c>
       <c r="K43" t="n">
-        <v>1.016</v>
+        <v>2.453</v>
       </c>
       <c r="L43" t="n">
-        <v>11212</v>
+        <v>12636</v>
       </c>
       <c r="M43" t="n">
-        <v>2.024</v>
+        <v>2.281</v>
       </c>
       <c r="N43" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="O43" t="n">
-        <v>131.9</v>
+        <v>167.2</v>
       </c>
       <c r="P43" t="s">
         <v>259</v>
@@ -5434,7 +5438,7 @@
         <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="D44" t="s">
         <v>263</v>
@@ -5444,27 +5448,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>375862</v>
+        <v>338517</v>
       </c>
       <c r="K44" t="n">
-        <v>5.563</v>
+        <v>5.01</v>
       </c>
       <c r="L44" t="n">
-        <v>278449</v>
+        <v>272603</v>
       </c>
       <c r="M44" t="n">
-        <v>4.121</v>
+        <v>4.035</v>
       </c>
       <c r="N44" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="O44" t="n">
-        <v>66.7</v>
+        <v>76.9</v>
       </c>
       <c r="P44" t="s">
         <v>264</v>
@@ -5487,7 +5491,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5500,10 +5504,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>842822</v>
+        <v>850090</v>
       </c>
       <c r="I45" t="n">
-        <v>378.673</v>
+        <v>381.938</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -5589,7 +5593,7 @@
         <v>279</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="D47" t="s">
         <v>280</v>
@@ -5599,31 +5603,27 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H47" t="n">
-        <v>5259000</v>
+        <v>5466000</v>
       </c>
       <c r="I47" t="n">
-        <v>1318.318</v>
-      </c>
-      <c r="J47" t="n">
-        <v>33000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>8.272</v>
-      </c>
+        <v>1370.208</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="n">
-        <v>27429</v>
+        <v>29571</v>
       </c>
       <c r="M47" t="n">
-        <v>6.876</v>
+        <v>7.413</v>
       </c>
       <c r="N47" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="O47" t="n">
-        <v>38.6</v>
+        <v>41.7</v>
       </c>
       <c r="P47" t="s">
         <v>281</v>
@@ -5646,7 +5646,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5656,27 +5656,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H48" t="n">
-        <v>62193564</v>
+        <v>63021704</v>
       </c>
       <c r="I48" t="n">
-        <v>742.309</v>
+        <v>752.193</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>124494</v>
+        <v>117568</v>
       </c>
       <c r="M48" t="n">
-        <v>1.486</v>
+        <v>1.403</v>
       </c>
       <c r="N48" t="n">
-        <v>0.031</v>
+        <v>0.023</v>
       </c>
       <c r="O48" t="n">
-        <v>32.3</v>
+        <v>43.5</v>
       </c>
       <c r="P48" t="s">
         <v>287</v>
@@ -5699,7 +5699,7 @@
         <v>291</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44355</v>
+        <v>44359</v>
       </c>
       <c r="D49" t="s">
         <v>292</v>
@@ -5709,31 +5709,31 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H49" t="n">
-        <v>1208386</v>
+        <v>1223378</v>
       </c>
       <c r="I49" t="n">
-        <v>38.889</v>
+        <v>39.371</v>
       </c>
       <c r="J49" t="n">
-        <v>3073</v>
+        <v>4939</v>
       </c>
       <c r="K49" t="n">
-        <v>0.099</v>
+        <v>0.159</v>
       </c>
       <c r="L49" t="n">
-        <v>3225</v>
+        <v>3471</v>
       </c>
       <c r="M49" t="n">
-        <v>0.104</v>
+        <v>0.112</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="O49" t="n">
-        <v>104</v>
+        <v>79.7</v>
       </c>
       <c r="P49" t="s">
         <v>294</v>
@@ -5756,7 +5756,7 @@
         <v>297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D50" t="s">
         <v>298</v>
@@ -5766,31 +5766,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H50" t="n">
-        <v>10059608</v>
+        <v>10207626</v>
       </c>
       <c r="I50" t="n">
-        <v>965.13</v>
+        <v>979.331</v>
       </c>
       <c r="J50" t="n">
-        <v>20514</v>
+        <v>39311</v>
       </c>
       <c r="K50" t="n">
-        <v>1.968</v>
+        <v>3.772</v>
       </c>
       <c r="L50" t="n">
-        <v>38263</v>
+        <v>36487</v>
       </c>
       <c r="M50" t="n">
-        <v>3.671</v>
+        <v>3.501</v>
       </c>
       <c r="N50" t="n">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
       <c r="O50" t="n">
-        <v>48.1</v>
+        <v>62.6</v>
       </c>
       <c r="P50" t="s">
         <v>300</v>
@@ -5813,7 +5813,7 @@
         <v>304</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="D51" t="s">
         <v>305</v>
@@ -5823,31 +5823,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H51" t="n">
-        <v>1278093</v>
+        <v>1519589</v>
       </c>
       <c r="I51" t="n">
-        <v>71.34</v>
+        <v>84.819</v>
       </c>
       <c r="J51" t="n">
-        <v>2329</v>
+        <v>7063</v>
       </c>
       <c r="K51" t="n">
-        <v>0.13</v>
+        <v>0.394</v>
       </c>
       <c r="L51" t="n">
-        <v>5232</v>
+        <v>5740</v>
       </c>
       <c r="M51" t="n">
-        <v>0.292</v>
+        <v>0.32</v>
       </c>
       <c r="N51" t="n">
-        <v>0.266</v>
+        <v>0.237</v>
       </c>
       <c r="O51" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P51" t="s">
         <v>307</v>
@@ -5923,7 +5923,7 @@
         <v>318</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44361</v>
+        <v>44365</v>
       </c>
       <c r="D53" t="s">
         <v>319</v>
@@ -5935,32 +5935,28 @@
         <v>321</v>
       </c>
       <c r="G53" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H53" t="n">
-        <v>5540334</v>
+        <v>5582683</v>
       </c>
       <c r="I53" t="n">
-        <v>573.513</v>
+        <v>577.897</v>
       </c>
       <c r="J53" t="n">
-        <v>28283</v>
+        <v>13492</v>
       </c>
       <c r="K53" t="n">
-        <v>2.928</v>
+        <v>1.397</v>
       </c>
       <c r="L53" t="n">
-        <v>10615</v>
+        <v>10090</v>
       </c>
       <c r="M53" t="n">
-        <v>1.099</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="O53" t="n">
-        <v>77.7</v>
-      </c>
+        <v>1.044</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>320</v>
       </c>
@@ -6035,7 +6031,7 @@
         <v>330</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D55" t="s">
         <v>331</v>
@@ -6047,31 +6043,31 @@
         <v>333</v>
       </c>
       <c r="G55" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H55" t="n">
-        <v>379624626</v>
+        <v>385238220</v>
       </c>
       <c r="I55" t="n">
-        <v>275.089</v>
+        <v>279.157</v>
       </c>
       <c r="J55" t="n">
-        <v>1492152</v>
+        <v>1931249</v>
       </c>
       <c r="K55" t="n">
-        <v>1.081</v>
+        <v>1.399</v>
       </c>
       <c r="L55" t="n">
-        <v>1898645</v>
+        <v>1862852</v>
       </c>
       <c r="M55" t="n">
-        <v>1.376</v>
+        <v>1.35</v>
       </c>
       <c r="N55" t="n">
-        <v>0.043</v>
+        <v>0.037</v>
       </c>
       <c r="O55" t="n">
-        <v>23.1</v>
+        <v>26.7</v>
       </c>
       <c r="P55" t="s">
         <v>332</v>
@@ -6094,7 +6090,7 @@
         <v>336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="D56" t="s">
         <v>337</v>
@@ -6104,31 +6100,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H56" t="n">
-        <v>12139998</v>
+        <v>12261392</v>
       </c>
       <c r="I56" t="n">
-        <v>44.384</v>
+        <v>44.828</v>
       </c>
       <c r="J56" t="n">
-        <v>59153</v>
+        <v>79322</v>
       </c>
       <c r="K56" t="n">
-        <v>0.216</v>
+        <v>0.29</v>
       </c>
       <c r="L56" t="n">
-        <v>62442</v>
+        <v>59851</v>
       </c>
       <c r="M56" t="n">
-        <v>0.228</v>
+        <v>0.219</v>
       </c>
       <c r="N56" t="n">
-        <v>0.134</v>
+        <v>0.154</v>
       </c>
       <c r="O56" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="P56" t="s">
         <v>338</v>
@@ -6151,7 +6147,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6161,21 +6157,25 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H57" t="n">
-        <v>21817747</v>
+        <v>21941648</v>
       </c>
       <c r="I57" t="n">
-        <v>259.757</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57"/>
+        <v>261.232</v>
+      </c>
+      <c r="J57" t="n">
+        <v>123901</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.475</v>
+      </c>
       <c r="L57" t="n">
-        <v>125516</v>
+        <v>125171</v>
       </c>
       <c r="M57" t="n">
-        <v>1.494</v>
+        <v>1.49</v>
       </c>
       <c r="N57" t="n">
         <v>0.079</v>
@@ -6204,7 +6204,7 @@
         <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="D58" t="s">
         <v>349</v>
@@ -6214,31 +6214,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H58" t="n">
-        <v>10970128</v>
+        <v>11014936</v>
       </c>
       <c r="I58" t="n">
-        <v>272.736</v>
+        <v>273.85</v>
       </c>
       <c r="J58" t="n">
-        <v>36473</v>
+        <v>44808</v>
       </c>
       <c r="K58" t="n">
-        <v>0.907</v>
+        <v>1.114</v>
       </c>
       <c r="L58" t="n">
-        <v>41542</v>
+        <v>42171</v>
       </c>
       <c r="M58" t="n">
-        <v>1.033</v>
+        <v>1.048</v>
       </c>
       <c r="N58" t="n">
-        <v>0.102</v>
+        <v>0.104</v>
       </c>
       <c r="O58" t="n">
-        <v>9.8</v>
+        <v>9.7</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6318,7 +6318,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6328,31 +6328,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H60" t="n">
-        <v>17223680</v>
+        <v>17293383</v>
       </c>
       <c r="I60" t="n">
-        <v>1989.902</v>
+        <v>1997.955</v>
       </c>
       <c r="J60" t="n">
-        <v>30747</v>
+        <v>18784</v>
       </c>
       <c r="K60" t="n">
-        <v>3.552</v>
+        <v>2.17</v>
       </c>
       <c r="L60" t="n">
-        <v>20469</v>
+        <v>21587</v>
       </c>
       <c r="M60" t="n">
-        <v>2.365</v>
+        <v>2.494</v>
       </c>
       <c r="N60" t="n">
         <v>0.001</v>
       </c>
       <c r="O60" t="n">
-        <v>1364.6</v>
+        <v>1291.6</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6375,7 +6375,7 @@
         <v>367</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D61" t="s">
         <v>368</v>
@@ -6387,31 +6387,31 @@
         <v>370</v>
       </c>
       <c r="G61" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H61" t="n">
-        <v>28841384</v>
+        <v>28995279</v>
       </c>
       <c r="I61" t="n">
-        <v>477.018</v>
+        <v>479.563</v>
       </c>
       <c r="J61" t="n">
-        <v>23989</v>
+        <v>49716</v>
       </c>
       <c r="K61" t="n">
-        <v>0.397</v>
+        <v>0.822</v>
       </c>
       <c r="L61" t="n">
-        <v>50441</v>
+        <v>46873</v>
       </c>
       <c r="M61" t="n">
-        <v>0.834</v>
+        <v>0.775</v>
       </c>
       <c r="N61" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="O61" t="n">
-        <v>29.2</v>
+        <v>33.2</v>
       </c>
       <c r="P61" t="s">
         <v>371</v>
@@ -6434,7 +6434,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6446,31 +6446,31 @@
         <v>370</v>
       </c>
       <c r="G62" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H62" t="n">
-        <v>68684085</v>
+        <v>69299685</v>
       </c>
       <c r="I62" t="n">
-        <v>1135.991</v>
+        <v>1146.173</v>
       </c>
       <c r="J62" t="n">
-        <v>79524</v>
+        <v>200315</v>
       </c>
       <c r="K62" t="n">
-        <v>1.315</v>
+        <v>3.313</v>
       </c>
       <c r="L62" t="n">
-        <v>181716</v>
+        <v>179977</v>
       </c>
       <c r="M62" t="n">
-        <v>3.005</v>
+        <v>2.977</v>
       </c>
       <c r="N62" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="O62" t="n">
-        <v>105.3</v>
+        <v>127.4</v>
       </c>
       <c r="P62" t="s">
         <v>371</v>
@@ -6493,7 +6493,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6503,27 +6503,27 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H63" t="n">
-        <v>400389</v>
+        <v>413408</v>
       </c>
       <c r="I63" t="n">
-        <v>135.214</v>
+        <v>139.61</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63" t="n">
-        <v>1901</v>
+        <v>1860</v>
       </c>
       <c r="M63" t="n">
-        <v>0.642</v>
+        <v>0.628</v>
       </c>
       <c r="N63" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="O63" t="n">
-        <v>29.5</v>
+        <v>38.4</v>
       </c>
       <c r="P63" t="s">
         <v>379</v>
@@ -6546,7 +6546,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6556,31 +6556,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H64" t="n">
-        <v>14727513</v>
+        <v>14854712</v>
       </c>
       <c r="I64" t="n">
-        <v>116.445</v>
+        <v>117.45</v>
       </c>
       <c r="J64" t="n">
-        <v>60314</v>
+        <v>65986</v>
       </c>
       <c r="K64" t="n">
-        <v>0.477</v>
+        <v>0.522</v>
       </c>
       <c r="L64" t="n">
-        <v>62370</v>
+        <v>62633</v>
       </c>
       <c r="M64" t="n">
-        <v>0.493</v>
+        <v>0.495</v>
       </c>
       <c r="N64" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="O64" t="n">
-        <v>35.3</v>
+        <v>38.5</v>
       </c>
       <c r="P64" t="s">
         <v>385</v>
@@ -6603,7 +6603,7 @@
         <v>389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D65" t="s">
         <v>390</v>
@@ -6613,31 +6613,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H65" t="n">
-        <v>7543911</v>
+        <v>7628372</v>
       </c>
       <c r="I65" t="n">
-        <v>739.372</v>
+        <v>747.649</v>
       </c>
       <c r="J65" t="n">
-        <v>18617</v>
+        <v>21212</v>
       </c>
       <c r="K65" t="n">
-        <v>1.825</v>
+        <v>2.079</v>
       </c>
       <c r="L65" t="n">
-        <v>19551</v>
+        <v>19334</v>
       </c>
       <c r="M65" t="n">
-        <v>1.916</v>
+        <v>1.895</v>
       </c>
       <c r="N65" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O65" t="n">
-        <v>39.3</v>
+        <v>42.5</v>
       </c>
       <c r="P65" t="s">
         <v>391</v>
@@ -6770,7 +6770,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D68" t="s">
         <v>406</v>
@@ -6780,31 +6780,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
-        <v>642459</v>
+        <v>650181</v>
       </c>
       <c r="I68" t="n">
-        <v>332.403</v>
+        <v>336.398</v>
       </c>
       <c r="J68" t="n">
-        <v>2117</v>
+        <v>1848</v>
       </c>
       <c r="K68" t="n">
-        <v>1.095</v>
+        <v>0.956</v>
       </c>
       <c r="L68" t="n">
-        <v>2343</v>
+        <v>1941</v>
       </c>
       <c r="M68" t="n">
-        <v>1.212</v>
+        <v>1.004</v>
       </c>
       <c r="N68" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="O68" t="n">
-        <v>146.4</v>
+        <v>202.8</v>
       </c>
       <c r="P68" t="s">
         <v>408</v>
@@ -6827,7 +6827,7 @@
         <v>411</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D69" t="s">
         <v>412</v>
@@ -6837,31 +6837,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H69" t="n">
-        <v>2752544</v>
+        <v>2800861</v>
       </c>
       <c r="I69" t="n">
-        <v>644.539</v>
+        <v>655.853</v>
       </c>
       <c r="J69" t="n">
-        <v>11121</v>
+        <v>12448</v>
       </c>
       <c r="K69" t="n">
-        <v>2.604</v>
+        <v>2.915</v>
       </c>
       <c r="L69" t="n">
-        <v>11647</v>
+        <v>11895</v>
       </c>
       <c r="M69" t="n">
-        <v>2.727</v>
+        <v>2.785</v>
       </c>
       <c r="N69" t="n">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="O69" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="P69" t="s">
         <v>413</v>
@@ -6884,7 +6884,7 @@
         <v>417</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="D70" t="s">
         <v>418</v>
@@ -6894,28 +6894,28 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H70" t="n">
-        <v>274907</v>
+        <v>280011</v>
       </c>
       <c r="I70" t="n">
-        <v>37.785</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70"/>
+        <v>38.487</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1479</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.203</v>
+      </c>
       <c r="L70" t="n">
-        <v>1608</v>
+        <v>1675</v>
       </c>
       <c r="M70" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O70" t="n">
-        <v>204.7</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
         <v>419</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6949,31 +6949,31 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H71" t="n">
-        <v>2753690</v>
+        <v>2772387</v>
       </c>
       <c r="I71" t="n">
-        <v>1459.913</v>
+        <v>1469.825</v>
       </c>
       <c r="J71" t="n">
-        <v>11452</v>
+        <v>9644</v>
       </c>
       <c r="K71" t="n">
-        <v>6.071</v>
+        <v>5.113</v>
       </c>
       <c r="L71" t="n">
-        <v>9037</v>
+        <v>8438</v>
       </c>
       <c r="M71" t="n">
-        <v>4.791</v>
+        <v>4.474</v>
       </c>
       <c r="N71" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="O71" t="n">
-        <v>57.4</v>
+        <v>61.5</v>
       </c>
       <c r="P71" t="s">
         <v>425</v>
@@ -7045,7 +7045,7 @@
         <v>434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="D73" t="s">
         <v>435</v>
@@ -7055,15 +7055,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>3215</v>
+        <v>3368</v>
       </c>
       <c r="K73" t="n">
-        <v>0.468</v>
+        <v>0.49</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7090,7 +7090,7 @@
         <v>440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="D74" t="s">
         <v>441</v>
@@ -7100,25 +7100,25 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H74" t="n">
-        <v>49022</v>
+        <v>49330</v>
       </c>
       <c r="I74" t="n">
-        <v>1285.418</v>
+        <v>1293.495</v>
       </c>
       <c r="J74" t="n">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="K74" t="n">
-        <v>1.783</v>
+        <v>3.356</v>
       </c>
       <c r="L74" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M74" t="n">
-        <v>4.012</v>
+        <v>3.881</v>
       </c>
       <c r="N74" t="n">
         <v>0.007</v>
@@ -7147,7 +7147,7 @@
         <v>446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="D75" t="s">
         <v>447</v>
@@ -7157,31 +7157,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H75" t="n">
-        <v>3701486</v>
+        <v>3750785</v>
       </c>
       <c r="I75" t="n">
-        <v>1359.695</v>
+        <v>1377.805</v>
       </c>
       <c r="J75" t="n">
-        <v>20483</v>
+        <v>15187</v>
       </c>
       <c r="K75" t="n">
-        <v>7.524</v>
+        <v>5.579</v>
       </c>
       <c r="L75" t="n">
-        <v>17556</v>
+        <v>16529</v>
       </c>
       <c r="M75" t="n">
-        <v>6.449</v>
+        <v>6.072</v>
       </c>
       <c r="N75" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="O75" t="n">
-        <v>71.4</v>
+        <v>83.3</v>
       </c>
       <c r="P75" t="s">
         <v>448</v>
@@ -7204,7 +7204,7 @@
         <v>451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="D76" t="s">
         <v>452</v>
@@ -7214,31 +7214,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H76" t="n">
-        <v>2987872</v>
+        <v>3009854</v>
       </c>
       <c r="I76" t="n">
-        <v>4773.141</v>
+        <v>4808.258</v>
       </c>
       <c r="J76" t="n">
-        <v>5713</v>
+        <v>7044</v>
       </c>
       <c r="K76" t="n">
-        <v>9.127</v>
+        <v>11.253</v>
       </c>
       <c r="L76" t="n">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="M76" t="n">
-        <v>10.424</v>
+        <v>10.419</v>
       </c>
       <c r="N76" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="O76" t="n">
-        <v>203.9</v>
+        <v>321.5</v>
       </c>
       <c r="P76" t="s">
         <v>453</v>
@@ -7261,7 +7261,7 @@
         <v>456</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="D77" t="s">
         <v>457</v>
@@ -7271,31 +7271,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H77" t="n">
-        <v>209522</v>
+        <v>210637</v>
       </c>
       <c r="I77" t="n">
-        <v>7.566</v>
+        <v>7.607</v>
       </c>
       <c r="J77" t="n">
-        <v>470</v>
+        <v>598</v>
       </c>
       <c r="K77" t="n">
-        <v>0.017</v>
+        <v>0.022</v>
       </c>
       <c r="L77" t="n">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="M77" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="N77" t="n">
-        <v>0.073</v>
+        <v>0.06</v>
       </c>
       <c r="O77" t="n">
-        <v>13.6</v>
+        <v>16.7</v>
       </c>
       <c r="P77" t="s">
         <v>458</v>
@@ -7371,7 +7371,7 @@
         <v>468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D79" t="s">
         <v>469</v>
@@ -7381,31 +7381,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H79" t="n">
-        <v>13360629</v>
+        <v>13604929</v>
       </c>
       <c r="I79" t="n">
-        <v>412.798</v>
+        <v>420.346</v>
       </c>
       <c r="J79" t="n">
-        <v>70044</v>
+        <v>82369</v>
       </c>
       <c r="K79" t="n">
-        <v>2.164</v>
+        <v>2.545</v>
       </c>
       <c r="L79" t="n">
-        <v>86909</v>
+        <v>83527</v>
       </c>
       <c r="M79" t="n">
-        <v>2.685</v>
+        <v>2.581</v>
       </c>
       <c r="N79" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="O79" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="P79" t="s">
         <v>36</v>
@@ -7428,7 +7428,7 @@
         <v>474</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D80" t="s">
         <v>475</v>
@@ -7438,31 +7438,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H80" t="n">
-        <v>949191</v>
+        <v>962500</v>
       </c>
       <c r="I80" t="n">
-        <v>1755.999</v>
+        <v>1780.62</v>
       </c>
       <c r="J80" t="n">
-        <v>5262</v>
+        <v>4247</v>
       </c>
       <c r="K80" t="n">
-        <v>9.735</v>
+        <v>7.857</v>
       </c>
       <c r="L80" t="n">
-        <v>4542</v>
+        <v>4547</v>
       </c>
       <c r="M80" t="n">
-        <v>8.403</v>
+        <v>8.412</v>
       </c>
       <c r="N80" t="n">
-        <v>0.068</v>
+        <v>0.057</v>
       </c>
       <c r="O80" t="n">
-        <v>14.6</v>
+        <v>17.5</v>
       </c>
       <c r="P80" t="s">
         <v>476</v>
@@ -7485,7 +7485,7 @@
         <v>480</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D81" t="s">
         <v>481</v>
@@ -7495,31 +7495,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H81" t="n">
-        <v>954117</v>
+        <v>959419</v>
       </c>
       <c r="I81" t="n">
-        <v>2160.89</v>
+        <v>2172.898</v>
       </c>
       <c r="J81" t="n">
-        <v>1021</v>
+        <v>1978</v>
       </c>
       <c r="K81" t="n">
-        <v>2.312</v>
+        <v>4.48</v>
       </c>
       <c r="L81" t="n">
-        <v>1652</v>
+        <v>1665</v>
       </c>
       <c r="M81" t="n">
-        <v>3.741</v>
+        <v>3.771</v>
       </c>
       <c r="N81" t="n">
         <v>0.001</v>
       </c>
       <c r="O81" t="n">
-        <v>1051.6</v>
+        <v>1456.7</v>
       </c>
       <c r="P81" t="s">
         <v>482</v>
@@ -7591,7 +7591,7 @@
         <v>492</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D83" t="s">
         <v>493</v>
@@ -7601,31 +7601,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H83" t="n">
-        <v>6799882</v>
+        <v>6853908</v>
       </c>
       <c r="I83" t="n">
-        <v>52.74</v>
+        <v>53.159</v>
       </c>
       <c r="J83" t="n">
-        <v>1482</v>
+        <v>8119</v>
       </c>
       <c r="K83" t="n">
-        <v>0.011</v>
+        <v>0.063</v>
       </c>
       <c r="L83" t="n">
-        <v>10367</v>
+        <v>10471</v>
       </c>
       <c r="M83" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="N83" t="n">
-        <v>0.217</v>
+        <v>0.226</v>
       </c>
       <c r="O83" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="P83" t="s">
         <v>495</v>
@@ -7648,7 +7648,7 @@
         <v>498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="D84" t="s">
         <v>499</v>
@@ -7658,28 +7658,24 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H84" t="n">
-        <v>1181446</v>
+        <v>1192798</v>
       </c>
       <c r="I84" t="n">
-        <v>292.875</v>
+        <v>295.689</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>4749</v>
+        <v>4134</v>
       </c>
       <c r="M84" t="n">
-        <v>1.177</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O84" t="n">
-        <v>98.6</v>
-      </c>
+        <v>1.025</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
       <c r="P84" t="s">
         <v>500</v>
       </c>
@@ -7701,7 +7697,7 @@
         <v>503</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D85" t="s">
         <v>504</v>
@@ -7711,31 +7707,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H85" t="n">
-        <v>3061071</v>
+        <v>3097091</v>
       </c>
       <c r="I85" t="n">
-        <v>933.74</v>
+        <v>944.727</v>
       </c>
       <c r="J85" t="n">
-        <v>10963</v>
+        <v>13673</v>
       </c>
       <c r="K85" t="n">
-        <v>3.344</v>
+        <v>4.171</v>
       </c>
       <c r="L85" t="n">
-        <v>9587</v>
+        <v>11250</v>
       </c>
       <c r="M85" t="n">
-        <v>2.924</v>
+        <v>3.432</v>
       </c>
       <c r="N85" t="n">
-        <v>0.144</v>
+        <v>0.213</v>
       </c>
       <c r="O85" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="P85" t="s">
         <v>36</v>
@@ -7758,7 +7754,7 @@
         <v>508</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D86" t="s">
         <v>509</v>
@@ -7768,31 +7764,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H86" t="n">
-        <v>6110273</v>
+        <v>6150869</v>
       </c>
       <c r="I86" t="n">
-        <v>165.543</v>
+        <v>166.643</v>
       </c>
       <c r="J86" t="n">
-        <v>4489</v>
+        <v>13852</v>
       </c>
       <c r="K86" t="n">
-        <v>0.122</v>
+        <v>0.375</v>
       </c>
       <c r="L86" t="n">
-        <v>8476</v>
+        <v>10136</v>
       </c>
       <c r="M86" t="n">
-        <v>0.23</v>
+        <v>0.275</v>
       </c>
       <c r="N86" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
       <c r="O86" t="n">
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="P86" t="s">
         <v>510</v>
@@ -7815,7 +7811,7 @@
         <v>514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="D87" t="s">
         <v>515</v>
@@ -7825,31 +7821,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H87" t="n">
-        <v>564481</v>
+        <v>571002</v>
       </c>
       <c r="I87" t="n">
-        <v>18.06</v>
+        <v>18.269</v>
       </c>
       <c r="J87" t="n">
-        <v>1175</v>
+        <v>1319</v>
       </c>
       <c r="K87" t="n">
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="L87" t="n">
-        <v>1062</v>
+        <v>1099</v>
       </c>
       <c r="M87" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="N87" t="n">
-        <v>0.042</v>
+        <v>0.068</v>
       </c>
       <c r="O87" t="n">
-        <v>23.7</v>
+        <v>14.7</v>
       </c>
       <c r="P87" t="s">
         <v>516</v>
@@ -7872,7 +7868,7 @@
         <v>520</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D88" t="s">
         <v>521</v>
@@ -7882,31 +7878,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H88" t="n">
-        <v>2651053</v>
+        <v>2661984</v>
       </c>
       <c r="I88" t="n">
-        <v>48.724</v>
+        <v>48.925</v>
       </c>
       <c r="J88" t="n">
-        <v>2819</v>
+        <v>4176</v>
       </c>
       <c r="K88" t="n">
-        <v>0.052</v>
+        <v>0.077</v>
       </c>
       <c r="L88" t="n">
-        <v>2576</v>
+        <v>3264</v>
       </c>
       <c r="M88" t="n">
-        <v>0.047</v>
+        <v>0.06</v>
       </c>
       <c r="N88" t="n">
-        <v>0.076</v>
+        <v>0.083</v>
       </c>
       <c r="O88" t="n">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="P88" t="s">
         <v>522</v>
@@ -7929,7 +7925,7 @@
         <v>526</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="D89" t="s">
         <v>527</v>
@@ -7939,31 +7935,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H89" t="n">
-        <v>470132</v>
+        <v>479290</v>
       </c>
       <c r="I89" t="n">
-        <v>185.025</v>
+        <v>188.629</v>
       </c>
       <c r="J89" t="n">
-        <v>1594</v>
+        <v>5833</v>
       </c>
       <c r="K89" t="n">
-        <v>0.627</v>
+        <v>2.296</v>
       </c>
       <c r="L89" t="n">
-        <v>2870</v>
+        <v>3512</v>
       </c>
       <c r="M89" t="n">
-        <v>1.13</v>
+        <v>1.382</v>
       </c>
       <c r="N89" t="n">
-        <v>0.335</v>
+        <v>0.272</v>
       </c>
       <c r="O89" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P89" t="s">
         <v>529</v>
@@ -7986,7 +7982,7 @@
         <v>533</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D90" t="s">
         <v>534</v>
@@ -7996,31 +7992,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H90" t="n">
-        <v>3224163</v>
+        <v>3248010</v>
       </c>
       <c r="I90" t="n">
-        <v>110.656</v>
+        <v>111.474</v>
       </c>
       <c r="J90" t="n">
-        <v>9438</v>
+        <v>7711</v>
       </c>
       <c r="K90" t="n">
-        <v>0.324</v>
+        <v>0.265</v>
       </c>
       <c r="L90" t="n">
-        <v>9871</v>
+        <v>8415</v>
       </c>
       <c r="M90" t="n">
-        <v>0.339</v>
+        <v>0.289</v>
       </c>
       <c r="N90" t="n">
-        <v>0.275</v>
+        <v>0.243</v>
       </c>
       <c r="O90" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="P90" t="s">
         <v>535</v>
@@ -8043,7 +8039,7 @@
         <v>539</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="D91" t="s">
         <v>540</v>
@@ -8053,27 +8049,27 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H91" t="n">
-        <v>10081647</v>
+        <v>10250498</v>
       </c>
       <c r="I91" t="n">
-        <v>588.37</v>
+        <v>598.224</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>19789</v>
+        <v>19766</v>
       </c>
       <c r="M91" t="n">
-        <v>1.155</v>
+        <v>1.154</v>
       </c>
       <c r="N91" t="n">
-        <v>0.061</v>
+        <v>0.042</v>
       </c>
       <c r="O91" t="n">
-        <v>16.4</v>
+        <v>23.8</v>
       </c>
       <c r="P91" t="s">
         <v>542</v>
@@ -8096,7 +8092,7 @@
         <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D92" t="s">
         <v>547</v>
@@ -8106,25 +8102,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H92" t="n">
-        <v>2205616</v>
+        <v>2216363</v>
       </c>
       <c r="I92" t="n">
-        <v>457.385</v>
+        <v>459.613</v>
       </c>
       <c r="J92" t="n">
-        <v>5475</v>
+        <v>5248</v>
       </c>
       <c r="K92" t="n">
-        <v>1.135</v>
+        <v>1.088</v>
       </c>
       <c r="L92" t="n">
-        <v>4281</v>
+        <v>4310</v>
       </c>
       <c r="M92" t="n">
-        <v>0.888</v>
+        <v>0.894</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8232,8 +8228,12 @@
       <c r="M94" t="n">
         <v>1.343</v>
       </c>
-      <c r="N94"/>
-      <c r="O94"/>
+      <c r="N94" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O94" t="n">
+        <v>171.7</v>
+      </c>
       <c r="P94" t="s">
         <v>36</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>562</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="D95" t="s">
         <v>563</v>
@@ -8265,31 +8265,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H95" t="n">
-        <v>5885569</v>
+        <v>5933768</v>
       </c>
       <c r="I95" t="n">
-        <v>1085.65</v>
+        <v>1094.54</v>
       </c>
       <c r="J95" t="n">
-        <v>7107</v>
+        <v>17502</v>
       </c>
       <c r="K95" t="n">
-        <v>1.311</v>
+        <v>3.228</v>
       </c>
       <c r="L95" t="n">
-        <v>14763</v>
+        <v>15065</v>
       </c>
       <c r="M95" t="n">
-        <v>2.723</v>
+        <v>2.779</v>
       </c>
       <c r="N95" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="O95" t="n">
-        <v>79.7</v>
+        <v>84.7</v>
       </c>
       <c r="P95" t="s">
         <v>564</v>
@@ -8357,7 +8357,7 @@
         <v>573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D97" t="s">
         <v>574</v>
@@ -8367,25 +8367,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H97" t="n">
-        <v>13934493</v>
+        <v>14026336</v>
       </c>
       <c r="I97" t="n">
-        <v>63.083</v>
+        <v>63.499</v>
       </c>
       <c r="J97" t="n">
-        <v>42204</v>
+        <v>54647</v>
       </c>
       <c r="K97" t="n">
-        <v>0.191</v>
+        <v>0.247</v>
       </c>
       <c r="L97" t="n">
-        <v>38690</v>
+        <v>40052</v>
       </c>
       <c r="M97" t="n">
-        <v>0.175</v>
+        <v>0.181</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8410,7 +8410,7 @@
         <v>578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="D98" t="s">
         <v>579</v>
@@ -8418,27 +8418,27 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>2559</v>
+        <v>2658</v>
       </c>
       <c r="K98" t="n">
-        <v>0.502</v>
+        <v>0.521</v>
       </c>
       <c r="L98" t="n">
-        <v>2391</v>
+        <v>2356</v>
       </c>
       <c r="M98" t="n">
-        <v>0.469</v>
+        <v>0.462</v>
       </c>
       <c r="N98" t="n">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="O98" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="P98" t="s">
         <v>580</v>
@@ -8461,7 +8461,7 @@
         <v>584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D99" t="s">
         <v>585</v>
@@ -8471,27 +8471,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H99" t="n">
-        <v>2794885</v>
+        <v>2840072</v>
       </c>
       <c r="I99" t="n">
-        <v>647.749</v>
-      </c>
-      <c r="J99"/>
-      <c r="K99"/>
+        <v>658.221</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12298</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.85</v>
+      </c>
       <c r="L99" t="n">
-        <v>10968</v>
+        <v>11483</v>
       </c>
       <c r="M99" t="n">
-        <v>2.542</v>
+        <v>2.661</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07</v>
+        <v>0.073</v>
       </c>
       <c r="O99" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="P99" t="s">
         <v>586</v>
@@ -8567,7 +8571,7 @@
         <v>595</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D101" t="s">
         <v>596</v>
@@ -8577,31 +8581,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H101" t="n">
-        <v>1403539</v>
+        <v>1434879</v>
       </c>
       <c r="I101" t="n">
-        <v>196.78</v>
+        <v>201.174</v>
       </c>
       <c r="J101" t="n">
-        <v>7052</v>
+        <v>8717</v>
       </c>
       <c r="K101" t="n">
-        <v>0.989</v>
+        <v>1.222</v>
       </c>
       <c r="L101" t="n">
-        <v>8573</v>
+        <v>7814</v>
       </c>
       <c r="M101" t="n">
-        <v>1.202</v>
+        <v>1.096</v>
       </c>
       <c r="N101" t="n">
-        <v>0.304</v>
+        <v>0.297</v>
       </c>
       <c r="O101" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101" t="s">
         <v>597</v>
@@ -8681,7 +8685,7 @@
         <v>605</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="D103" t="s">
         <v>606</v>
@@ -8691,31 +8695,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H103" t="n">
-        <v>13237602</v>
+        <v>13409845</v>
       </c>
       <c r="I103" t="n">
-        <v>120.802</v>
+        <v>122.374</v>
       </c>
       <c r="J103" t="n">
-        <v>39046</v>
+        <v>42741</v>
       </c>
       <c r="K103" t="n">
-        <v>0.356</v>
+        <v>0.39</v>
       </c>
       <c r="L103" t="n">
-        <v>47859</v>
+        <v>45624</v>
       </c>
       <c r="M103" t="n">
-        <v>0.437</v>
+        <v>0.416</v>
       </c>
       <c r="N103" t="n">
-        <v>0.138</v>
+        <v>0.146</v>
       </c>
       <c r="O103" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="P103" t="s">
         <v>313</v>
@@ -8738,7 +8742,7 @@
         <v>611</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D104" t="s">
         <v>612</v>
@@ -8748,31 +8752,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H104" t="n">
-        <v>16251795</v>
+        <v>16447564</v>
       </c>
       <c r="I104" t="n">
-        <v>429.412</v>
+        <v>434.585</v>
       </c>
       <c r="J104" t="n">
-        <v>47640</v>
+        <v>50867</v>
       </c>
       <c r="K104" t="n">
-        <v>1.259</v>
+        <v>1.344</v>
       </c>
       <c r="L104" t="n">
-        <v>51402</v>
+        <v>57574</v>
       </c>
       <c r="M104" t="n">
-        <v>1.358</v>
+        <v>1.521</v>
       </c>
       <c r="N104" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O104" t="n">
-        <v>154.2</v>
+        <v>250.5</v>
       </c>
       <c r="P104" t="s">
         <v>613</v>
@@ -8795,41 +8799,41 @@
         <v>616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44356</v>
+        <v>44364</v>
       </c>
       <c r="D105" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E105" t="s">
         <v>613</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H105" t="n">
-        <v>16467982</v>
+        <v>16824919</v>
       </c>
       <c r="I105" t="n">
-        <v>435.124</v>
+        <v>444.556</v>
       </c>
       <c r="J105" t="n">
-        <v>111334</v>
+        <v>51409</v>
       </c>
       <c r="K105" t="n">
-        <v>2.942</v>
+        <v>1.358</v>
       </c>
       <c r="L105" t="n">
-        <v>55885</v>
+        <v>58596</v>
       </c>
       <c r="M105" t="n">
-        <v>1.477</v>
+        <v>1.548</v>
       </c>
       <c r="N105" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="O105" t="n">
-        <v>141.6</v>
+        <v>254.9</v>
       </c>
       <c r="P105" t="s">
         <v>613</v>
@@ -8846,317 +8850,313 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>617</v>
+      </c>
+      <c r="B106" t="s">
         <v>618</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="n">
+        <v>44363</v>
+      </c>
+      <c r="D106" t="s">
         <v>619</v>
-      </c>
-      <c r="C106" s="1" t="n">
-        <v>44359</v>
-      </c>
-      <c r="D106" t="s">
-        <v>620</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H106" t="n">
-        <v>12356036</v>
+        <v>12538601</v>
       </c>
       <c r="I106" t="n">
-        <v>1211.767</v>
+        <v>1229.672</v>
       </c>
       <c r="J106" t="n">
-        <v>36762</v>
+        <v>51126</v>
       </c>
       <c r="K106" t="n">
-        <v>3.605</v>
+        <v>5.014</v>
       </c>
       <c r="L106" t="n">
-        <v>40435</v>
+        <v>41031</v>
       </c>
       <c r="M106" t="n">
-        <v>3.965</v>
+        <v>4.024</v>
       </c>
       <c r="N106" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="O106" t="n">
-        <v>60.1</v>
+        <v>48.9</v>
       </c>
       <c r="P106" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Q106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R106" t="s">
         <v>44</v>
       </c>
       <c r="S106" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" t="s">
         <v>623</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="n">
+        <v>44363</v>
+      </c>
+      <c r="D107" t="s">
         <v>624</v>
       </c>
-      <c r="C107" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>625</v>
-      </c>
-      <c r="E107" t="s">
-        <v>626</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H107" t="n">
-        <v>2084963</v>
+        <v>2094362</v>
       </c>
       <c r="I107" t="n">
-        <v>723.679</v>
+        <v>726.941</v>
       </c>
       <c r="J107" t="n">
-        <v>4428</v>
+        <v>3997</v>
       </c>
       <c r="K107" t="n">
-        <v>1.537</v>
+        <v>1.387</v>
       </c>
       <c r="L107" t="n">
-        <v>4508</v>
+        <v>4573</v>
       </c>
       <c r="M107" t="n">
-        <v>1.565</v>
+        <v>1.587</v>
       </c>
       <c r="N107" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="O107" t="n">
-        <v>29</v>
+        <v>30.2</v>
       </c>
       <c r="P107" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q107" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R107" t="s">
         <v>31</v>
       </c>
       <c r="S107" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" t="s">
         <v>629</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D108" t="s">
         <v>630</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>44362</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>631</v>
-      </c>
-      <c r="E108" t="s">
-        <v>632</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H108" t="n">
-        <v>8132876</v>
+        <v>8168419</v>
       </c>
       <c r="I108" t="n">
-        <v>422.758</v>
+        <v>424.605</v>
       </c>
       <c r="J108" t="n">
-        <v>17532</v>
+        <v>17509</v>
       </c>
       <c r="K108" t="n">
-        <v>0.911</v>
+        <v>0.91</v>
       </c>
       <c r="L108" t="n">
-        <v>15511</v>
+        <v>15000</v>
       </c>
       <c r="M108" t="n">
-        <v>0.806</v>
+        <v>0.78</v>
       </c>
       <c r="N108" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O108" t="n">
-        <v>149.8</v>
+        <v>163.3</v>
       </c>
       <c r="P108" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q108" t="s">
         <v>633</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>634</v>
       </c>
       <c r="R108" t="s">
         <v>44</v>
       </c>
       <c r="S108" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>635</v>
+      </c>
+      <c r="B109" t="s">
         <v>636</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D109" t="s">
         <v>637</v>
       </c>
-      <c r="C109" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>638</v>
-      </c>
-      <c r="E109" t="s">
-        <v>639</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H109" t="n">
-        <v>143356426</v>
+        <v>144422331</v>
       </c>
       <c r="I109" t="n">
-        <v>982.334</v>
+        <v>989.638</v>
       </c>
       <c r="J109" t="n">
-        <v>253506</v>
+        <v>444649</v>
       </c>
       <c r="K109" t="n">
-        <v>1.737</v>
+        <v>3.047</v>
       </c>
       <c r="L109" t="n">
-        <v>354452</v>
+        <v>353296</v>
       </c>
       <c r="M109" t="n">
-        <v>2.429</v>
+        <v>2.421</v>
       </c>
       <c r="N109" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="O109" t="n">
-        <v>29</v>
+        <v>26.1</v>
       </c>
       <c r="P109" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q109" t="s">
         <v>639</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>640</v>
       </c>
       <c r="R109" t="s">
         <v>44</v>
       </c>
       <c r="S109" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>641</v>
+      </c>
+      <c r="B110" t="s">
         <v>642</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D110" t="s">
         <v>643</v>
       </c>
-      <c r="C110" s="1" t="n">
-        <v>44363</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>644</v>
-      </c>
-      <c r="E110" t="s">
-        <v>645</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H110" t="n">
-        <v>1516498</v>
+        <v>1527944</v>
       </c>
       <c r="I110" t="n">
-        <v>117.084</v>
+        <v>117.968</v>
       </c>
       <c r="J110" t="n">
-        <v>6072</v>
+        <v>5770</v>
       </c>
       <c r="K110" t="n">
-        <v>0.469</v>
+        <v>0.445</v>
       </c>
       <c r="L110" t="n">
-        <v>5374</v>
+        <v>5729</v>
       </c>
       <c r="M110" t="n">
-        <v>0.415</v>
+        <v>0.442</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q110" t="s">
         <v>645</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>646</v>
       </c>
       <c r="R110" t="s">
         <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>647</v>
+      </c>
+      <c r="B111" t="s">
         <v>648</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D111" t="s">
         <v>649</v>
-      </c>
-      <c r="C111" s="1" t="n">
-        <v>44363</v>
-      </c>
-      <c r="D111" t="s">
-        <v>650</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>19307</v>
+        <v>19431</v>
       </c>
       <c r="I111" t="n">
-        <v>362.968</v>
-      </c>
-      <c r="J111" t="n">
-        <v>153</v>
-      </c>
-      <c r="K111" t="n">
-        <v>2.876</v>
-      </c>
+        <v>365.299</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
@@ -9165,200 +9165,200 @@
         <v>36</v>
       </c>
       <c r="Q111" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R111" t="s">
         <v>420</v>
       </c>
       <c r="S111" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>652</v>
+      </c>
+      <c r="B112" t="s">
         <v>653</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="n">
+        <v>44363</v>
+      </c>
+      <c r="D112" t="s">
         <v>654</v>
-      </c>
-      <c r="C112" s="1" t="n">
-        <v>44360</v>
-      </c>
-      <c r="D112" t="s">
-        <v>655</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H112" t="n">
-        <v>20438923</v>
+        <v>20712598</v>
       </c>
       <c r="I112" t="n">
-        <v>587.091</v>
+        <v>594.953</v>
       </c>
       <c r="J112" t="n">
-        <v>83368</v>
+        <v>94921</v>
       </c>
       <c r="K112" t="n">
-        <v>2.395</v>
+        <v>2.727</v>
       </c>
       <c r="L112" t="n">
-        <v>86041</v>
+        <v>85601</v>
       </c>
       <c r="M112" t="n">
-        <v>2.471</v>
+        <v>2.459</v>
       </c>
       <c r="N112" t="n">
         <v>0.014</v>
       </c>
       <c r="O112" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
       </c>
       <c r="Q112" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R112" t="s">
         <v>44</v>
       </c>
       <c r="S112" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>656</v>
+      </c>
+      <c r="B113" t="s">
         <v>657</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D113" t="s">
         <v>658</v>
       </c>
-      <c r="C113" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>659</v>
-      </c>
-      <c r="E113" t="s">
-        <v>660</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H113" t="n">
-        <v>551580</v>
+        <v>555527</v>
       </c>
       <c r="I113" t="n">
-        <v>32.942</v>
+        <v>33.178</v>
       </c>
       <c r="J113" t="n">
-        <v>1326</v>
+        <v>1347</v>
       </c>
       <c r="K113" t="n">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="L113" t="n">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="M113" t="n">
         <v>0.089</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="O113" t="n">
-        <v>33.5</v>
+        <v>29.1</v>
       </c>
       <c r="P113" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q113" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R113" t="s">
         <v>44</v>
       </c>
       <c r="S113" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>661</v>
+      </c>
+      <c r="B114" t="s">
         <v>662</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D114" t="s">
         <v>663</v>
-      </c>
-      <c r="C114" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D114" t="s">
-        <v>664</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G114" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H114" t="n">
-        <v>4282416</v>
+        <v>4311577</v>
       </c>
       <c r="I114" t="n">
-        <v>629.342</v>
+        <v>633.627</v>
       </c>
       <c r="J114" t="n">
-        <v>8287</v>
+        <v>9187</v>
       </c>
       <c r="K114" t="n">
-        <v>1.218</v>
+        <v>1.35</v>
       </c>
       <c r="L114" t="n">
-        <v>8917</v>
+        <v>8810</v>
       </c>
       <c r="M114" t="n">
-        <v>1.31</v>
+        <v>1.295</v>
       </c>
       <c r="N114" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="O114" t="n">
-        <v>53.1</v>
+        <v>62.9</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>667</v>
+      </c>
+      <c r="B115" t="s">
         <v>668</v>
-      </c>
-      <c r="B115" t="s">
-        <v>669</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44361</v>
       </c>
       <c r="D115" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
@@ -9391,253 +9391,253 @@
         <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R115" t="s">
         <v>108</v>
       </c>
       <c r="S115" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>671</v>
+      </c>
+      <c r="B116" t="s">
         <v>672</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="1" t="n">
+        <v>44363</v>
+      </c>
+      <c r="D116" t="s">
         <v>673</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D116" t="s">
-        <v>674</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H116" t="n">
-        <v>42324356</v>
+        <v>39319625</v>
       </c>
       <c r="I116" t="n">
-        <v>7752.22</v>
+        <v>7201.867</v>
       </c>
       <c r="J116" t="n">
-        <v>45523</v>
+        <v>35330</v>
       </c>
       <c r="K116" t="n">
-        <v>8.338</v>
+        <v>6.471</v>
       </c>
       <c r="L116" t="n">
-        <v>53704</v>
+        <v>52748</v>
       </c>
       <c r="M116" t="n">
-        <v>9.837</v>
+        <v>9.661</v>
       </c>
       <c r="N116" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O116" t="n">
-        <v>333.3</v>
+        <v>500</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R116" t="s">
         <v>44</v>
       </c>
       <c r="S116" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>675</v>
+      </c>
+      <c r="B117" t="s">
         <v>676</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D117" t="s">
         <v>677</v>
       </c>
-      <c r="C117" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>678</v>
-      </c>
-      <c r="E117" t="s">
-        <v>679</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H117" t="n">
-        <v>1321072</v>
+        <v>1328531</v>
       </c>
       <c r="I117" t="n">
-        <v>635.457</v>
+        <v>639.045</v>
       </c>
       <c r="J117" t="n">
-        <v>2330</v>
+        <v>2409</v>
       </c>
       <c r="K117" t="n">
-        <v>1.121</v>
+        <v>1.159</v>
       </c>
       <c r="L117" t="n">
-        <v>2386</v>
+        <v>2117</v>
       </c>
       <c r="M117" t="n">
-        <v>1.148</v>
+        <v>1.018</v>
       </c>
       <c r="N117" t="n">
-        <v>0.055</v>
+        <v>0.043</v>
       </c>
       <c r="O117" t="n">
-        <v>18.2</v>
+        <v>23.3</v>
       </c>
       <c r="P117" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q117" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R117" t="s">
         <v>44</v>
       </c>
       <c r="S117" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>680</v>
+      </c>
+      <c r="B118" t="s">
         <v>681</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D118" t="s">
         <v>682</v>
       </c>
-      <c r="C118" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>683</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>684</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="n">
+        <v>468</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12383955</v>
+      </c>
+      <c r="I118" t="n">
+        <v>208.805</v>
+      </c>
+      <c r="J118" t="n">
+        <v>52118</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="L118" t="n">
+        <v>48555</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="O118" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="P118" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q118" t="s">
         <v>685</v>
-      </c>
-      <c r="G118" t="n">
-        <v>465</v>
-      </c>
-      <c r="H118" t="n">
-        <v>12223448</v>
-      </c>
-      <c r="I118" t="n">
-        <v>206.099</v>
-      </c>
-      <c r="J118" t="n">
-        <v>30034</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="L118" t="n">
-        <v>46236</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="O118" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="P118" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>686</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>687</v>
+      </c>
+      <c r="B119" t="s">
         <v>688</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D119" t="s">
         <v>689</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>44363</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>690</v>
-      </c>
-      <c r="E119" t="s">
-        <v>691</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H119" t="n">
-        <v>10110620</v>
+        <v>10168211</v>
       </c>
       <c r="I119" t="n">
-        <v>197.207</v>
+        <v>198.33</v>
       </c>
       <c r="J119" t="n">
-        <v>37814</v>
+        <v>31694</v>
       </c>
       <c r="K119" t="n">
-        <v>0.738</v>
+        <v>0.618</v>
       </c>
       <c r="L119" t="n">
-        <v>28180</v>
+        <v>27271</v>
       </c>
       <c r="M119" t="n">
-        <v>0.55</v>
+        <v>0.532</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q119" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>692</v>
+      </c>
+      <c r="B120" t="s">
         <v>693</v>
-      </c>
-      <c r="B120" t="s">
-        <v>694</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -9670,30 +9670,30 @@
         <v>36</v>
       </c>
       <c r="Q120" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="R120" t="s">
         <v>44</v>
       </c>
       <c r="S120" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>697</v>
+      </c>
+      <c r="B121" t="s">
         <v>698</v>
-      </c>
-      <c r="B121" t="s">
-        <v>699</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44357</v>
       </c>
       <c r="D121" t="s">
+        <v>699</v>
+      </c>
+      <c r="E121" t="s">
         <v>700</v>
-      </c>
-      <c r="E121" t="s">
-        <v>701</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
@@ -9720,137 +9720,137 @@
         <v>17.8</v>
       </c>
       <c r="P121" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q121" t="s">
         <v>702</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>703</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>704</v>
+      </c>
+      <c r="B122" t="s">
         <v>705</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D122" t="s">
         <v>706</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>707</v>
-      </c>
-      <c r="E122" t="s">
-        <v>708</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H122" t="n">
-        <v>3764895</v>
+        <v>3818494</v>
       </c>
       <c r="I122" t="n">
-        <v>175.821</v>
+        <v>178.324</v>
       </c>
       <c r="J122" t="n">
-        <v>16873</v>
+        <v>20128</v>
       </c>
       <c r="K122" t="n">
-        <v>0.788</v>
+        <v>0.94</v>
       </c>
       <c r="L122" t="n">
-        <v>18565</v>
+        <v>18246</v>
       </c>
       <c r="M122" t="n">
-        <v>0.867</v>
+        <v>0.852</v>
       </c>
       <c r="N122" t="n">
-        <v>0.138</v>
+        <v>0.133</v>
       </c>
       <c r="O122" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="P122" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Q122" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
       </c>
       <c r="S122" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>709</v>
+      </c>
+      <c r="B123" t="s">
         <v>710</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="1" t="n">
+        <v>44360</v>
+      </c>
+      <c r="D123" t="s">
         <v>711</v>
       </c>
-      <c r="C123" s="1" t="n">
-        <v>44353</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>712</v>
-      </c>
-      <c r="E123" t="s">
-        <v>713</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>27113</v>
+        <v>22353</v>
       </c>
       <c r="K123" t="n">
-        <v>2.685</v>
+        <v>2.213</v>
       </c>
       <c r="L123" t="n">
-        <v>27113</v>
+        <v>22353</v>
       </c>
       <c r="M123" t="n">
-        <v>2.685</v>
+        <v>2.213</v>
       </c>
       <c r="N123" t="n">
-        <v>0.051</v>
+        <v>0.034</v>
       </c>
       <c r="O123" t="n">
-        <v>19.8</v>
+        <v>29</v>
       </c>
       <c r="P123" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q123" t="s">
         <v>714</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>715</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>716</v>
+      </c>
+      <c r="B124" t="s">
         <v>717</v>
       </c>
-      <c r="B124" t="s">
-        <v>718</v>
-      </c>
       <c r="C124" s="1" t="n">
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="D124" t="s">
         <v>441</v>
@@ -9860,31 +9860,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H124" t="n">
-        <v>7575348</v>
+        <v>7640516</v>
       </c>
       <c r="I124" t="n">
-        <v>875.295</v>
+        <v>882.825</v>
       </c>
       <c r="J124" t="n">
-        <v>14772</v>
+        <v>18002</v>
       </c>
       <c r="K124" t="n">
-        <v>1.707</v>
+        <v>2.08</v>
       </c>
       <c r="L124" t="n">
-        <v>20155</v>
+        <v>19079</v>
       </c>
       <c r="M124" t="n">
-        <v>2.329</v>
+        <v>2.204</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="O124" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="P124" t="s">
         <v>442</v>
@@ -9896,78 +9896,78 @@
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>719</v>
+      </c>
+      <c r="B125" t="s">
         <v>720</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="D125" t="s">
         <v>721</v>
       </c>
-      <c r="C125" s="1" t="n">
-        <v>44361</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>722</v>
-      </c>
-      <c r="E125" t="s">
-        <v>723</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H125" t="n">
-        <v>903676</v>
+        <v>1011097</v>
       </c>
       <c r="I125" t="n">
-        <v>37.943</v>
+        <v>42.453</v>
       </c>
       <c r="J125" t="n">
-        <v>13715</v>
+        <v>28674</v>
       </c>
       <c r="K125" t="n">
-        <v>0.576</v>
+        <v>1.204</v>
       </c>
       <c r="L125" t="n">
-        <v>25852</v>
+        <v>26778</v>
       </c>
       <c r="M125" t="n">
-        <v>1.085</v>
+        <v>1.124</v>
       </c>
       <c r="N125" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="O125" t="n">
-        <v>112.1</v>
+        <v>137.6</v>
       </c>
       <c r="P125" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q125" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>724</v>
+      </c>
+      <c r="B126" t="s">
         <v>725</v>
-      </c>
-      <c r="B126" t="s">
-        <v>726</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44359</v>
       </c>
       <c r="D126" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E126" t="s">
         <v>190</v>
@@ -9994,37 +9994,33 @@
       <c r="M126" t="n">
         <v>0.797</v>
       </c>
-      <c r="N126" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="O126" t="n">
-        <v>21.3</v>
-      </c>
+      <c r="N126"/>
+      <c r="O126"/>
       <c r="P126" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Q126" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>729</v>
+      </c>
+      <c r="B127" t="s">
         <v>730</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D127" t="s">
         <v>731</v>
-      </c>
-      <c r="C127" s="1" t="n">
-        <v>44363</v>
-      </c>
-      <c r="D127" t="s">
-        <v>732</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
@@ -10049,59 +10045,61 @@
         <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
       </c>
       <c r="S127" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>733</v>
+      </c>
+      <c r="B128" t="s">
         <v>734</v>
       </c>
-      <c r="B128" t="s">
-        <v>735</v>
-      </c>
       <c r="C128" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
+        <v>735</v>
+      </c>
+      <c r="F128" t="s">
         <v>736</v>
       </c>
-      <c r="F128"/>
       <c r="G128" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H128" t="n">
-        <v>346702</v>
+        <v>349222</v>
       </c>
       <c r="I128" t="n">
-        <v>41.879</v>
+        <v>42.183</v>
       </c>
       <c r="J128" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K128" t="n">
         <v>0.084</v>
       </c>
       <c r="L128" t="n">
-        <v>850</v>
+        <v>877</v>
       </c>
       <c r="M128" t="n">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="N128" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="O128" t="n">
-        <v>66.9</v>
+        <v>57.9</v>
       </c>
       <c r="P128" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q128" t="s">
         <v>737</v>
@@ -10121,7 +10119,7 @@
         <v>741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D129" t="s">
         <v>742</v>
@@ -10131,31 +10129,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H129" t="n">
-        <v>208400</v>
+        <v>215149</v>
       </c>
       <c r="I129" t="n">
-        <v>148.911</v>
+        <v>153.734</v>
       </c>
       <c r="J129" t="n">
-        <v>1000</v>
+        <v>1225</v>
       </c>
       <c r="K129" t="n">
-        <v>0.715</v>
+        <v>0.875</v>
       </c>
       <c r="L129" t="n">
-        <v>1457</v>
+        <v>1379</v>
       </c>
       <c r="M129" t="n">
-        <v>1.041</v>
+        <v>0.985</v>
       </c>
       <c r="N129" t="n">
-        <v>0.227</v>
+        <v>0.223</v>
       </c>
       <c r="O129" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10178,7 +10176,7 @@
         <v>746</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="D130" t="s">
         <v>747</v>
@@ -10188,28 +10186,28 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H130" t="n">
-        <v>1568353</v>
+        <v>1582787</v>
       </c>
       <c r="I130" t="n">
-        <v>132.702</v>
+        <v>133.923</v>
       </c>
       <c r="J130" t="n">
-        <v>5525</v>
+        <v>6911</v>
       </c>
       <c r="K130" t="n">
-        <v>0.467</v>
+        <v>0.585</v>
       </c>
       <c r="L130" t="n">
-        <v>6951</v>
+        <v>6995</v>
       </c>
       <c r="M130" t="n">
-        <v>0.588</v>
+        <v>0.592</v>
       </c>
       <c r="N130" t="n">
-        <v>0.289</v>
+        <v>0.287</v>
       </c>
       <c r="O130" t="n">
         <v>3.5</v>
@@ -10235,7 +10233,7 @@
         <v>753</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D131" t="s">
         <v>754</v>
@@ -10245,31 +10243,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H131" t="n">
-        <v>57223789</v>
+        <v>57899862</v>
       </c>
       <c r="I131" t="n">
-        <v>678.497</v>
+        <v>686.513</v>
       </c>
       <c r="J131" t="n">
-        <v>219290</v>
+        <v>225064</v>
       </c>
       <c r="K131" t="n">
-        <v>2.6</v>
+        <v>2.669</v>
       </c>
       <c r="L131" t="n">
-        <v>221453</v>
+        <v>221887</v>
       </c>
       <c r="M131" t="n">
-        <v>2.626</v>
+        <v>2.631</v>
       </c>
       <c r="N131" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="O131" t="n">
-        <v>36.5</v>
+        <v>37.8</v>
       </c>
       <c r="P131" t="s">
         <v>755</v>
@@ -10292,7 +10290,7 @@
         <v>759</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="D132" t="s">
         <v>760</v>
@@ -10302,28 +10300,28 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H132" t="n">
-        <v>1203499</v>
+        <v>1228618</v>
       </c>
       <c r="I132" t="n">
-        <v>26.311</v>
+        <v>26.86</v>
       </c>
       <c r="J132" t="n">
-        <v>6573</v>
+        <v>10816</v>
       </c>
       <c r="K132" t="n">
-        <v>0.144</v>
+        <v>0.236</v>
       </c>
       <c r="L132" t="n">
-        <v>7440</v>
+        <v>8591</v>
       </c>
       <c r="M132" t="n">
-        <v>0.163</v>
+        <v>0.188</v>
       </c>
       <c r="N132" t="n">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="O132" t="n">
         <v>6.1</v>
@@ -10349,7 +10347,7 @@
         <v>765</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="D133" t="s">
         <v>766</v>
@@ -10359,25 +10357,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H133" t="n">
-        <v>10576820</v>
+        <v>10629744</v>
       </c>
       <c r="I133" t="n">
-        <v>241.846</v>
+        <v>243.056</v>
       </c>
       <c r="J133" t="n">
-        <v>28321</v>
+        <v>25888</v>
       </c>
       <c r="K133" t="n">
-        <v>0.648</v>
+        <v>0.592</v>
       </c>
       <c r="L133" t="n">
-        <v>24463</v>
+        <v>24190</v>
       </c>
       <c r="M133" t="n">
-        <v>0.559</v>
+        <v>0.553</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10402,7 +10400,7 @@
         <v>771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="D134" t="s">
         <v>772</v>
@@ -10412,31 +10410,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H134" t="n">
-        <v>53787952</v>
+        <v>54259480</v>
       </c>
       <c r="I134" t="n">
-        <v>5438.4</v>
+        <v>5486.075</v>
       </c>
       <c r="J134" t="n">
-        <v>229143</v>
+        <v>243844</v>
       </c>
       <c r="K134" t="n">
-        <v>23.168</v>
+        <v>24.655</v>
       </c>
       <c r="L134" t="n">
-        <v>236426</v>
+        <v>233051</v>
       </c>
       <c r="M134" t="n">
-        <v>23.905</v>
+        <v>23.563</v>
       </c>
       <c r="N134" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="O134" t="n">
-        <v>112.5</v>
+        <v>97.7</v>
       </c>
       <c r="P134" t="s">
         <v>773</v>
@@ -10459,7 +10457,7 @@
         <v>776</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="D135" t="s">
         <v>777</v>
@@ -10471,31 +10469,31 @@
         <v>779</v>
       </c>
       <c r="G135" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H135" t="n">
-        <v>191675702</v>
+        <v>194738939</v>
       </c>
       <c r="I135" t="n">
-        <v>2823.494</v>
+        <v>2868.617</v>
       </c>
       <c r="J135" t="n">
-        <v>1052222</v>
+        <v>1101741</v>
       </c>
       <c r="K135" t="n">
-        <v>15.5</v>
+        <v>16.229</v>
       </c>
       <c r="L135" t="n">
-        <v>932568</v>
+        <v>944769</v>
       </c>
       <c r="M135" t="n">
-        <v>13.737</v>
+        <v>13.917</v>
       </c>
       <c r="N135" t="n">
         <v>0.008</v>
       </c>
       <c r="O135" t="n">
-        <v>133.3</v>
+        <v>122.2</v>
       </c>
       <c r="P135" t="s">
         <v>778</v>
@@ -10518,7 +10516,7 @@
         <v>783</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="D136" t="s">
         <v>784</v>
@@ -10528,31 +10526,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H136" t="n">
-        <v>456982870</v>
+        <v>459513109</v>
       </c>
       <c r="I136" t="n">
-        <v>1380.602</v>
+        <v>1388.246</v>
       </c>
       <c r="J136" t="n">
-        <v>418153</v>
+        <v>263123</v>
       </c>
       <c r="K136" t="n">
-        <v>1.263</v>
+        <v>0.795</v>
       </c>
       <c r="L136" t="n">
-        <v>524329</v>
+        <v>515388</v>
       </c>
       <c r="M136" t="n">
-        <v>1.584</v>
+        <v>1.557</v>
       </c>
       <c r="N136" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="O136" t="n">
-        <v>38.5</v>
+        <v>41.7</v>
       </c>
       <c r="P136" t="s">
         <v>785</v>
@@ -10575,7 +10573,7 @@
         <v>790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="D137" t="s">
         <v>791</v>
@@ -10585,31 +10583,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H137" t="n">
-        <v>2556998</v>
+        <v>2596916</v>
       </c>
       <c r="I137" t="n">
-        <v>736.096</v>
+        <v>747.588</v>
       </c>
       <c r="J137" t="n">
-        <v>15546</v>
+        <v>20249</v>
       </c>
       <c r="K137" t="n">
-        <v>4.475</v>
+        <v>5.829</v>
       </c>
       <c r="L137" t="n">
-        <v>20196</v>
+        <v>19315</v>
       </c>
       <c r="M137" t="n">
-        <v>5.814</v>
+        <v>5.56</v>
       </c>
       <c r="N137" t="n">
-        <v>0.156</v>
+        <v>0.149</v>
       </c>
       <c r="O137" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="P137" t="s">
         <v>190</v>
@@ -10632,7 +10630,7 @@
         <v>795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="D138" t="s">
         <v>796</v>
@@ -10642,31 +10640,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H138" t="n">
-        <v>4766532</v>
+        <v>5043551</v>
       </c>
       <c r="I138" t="n">
-        <v>48.969</v>
+        <v>51.815</v>
       </c>
       <c r="J138" t="n">
-        <v>69511</v>
+        <v>59363</v>
       </c>
       <c r="K138" t="n">
-        <v>0.714</v>
+        <v>0.61</v>
       </c>
       <c r="L138" t="n">
-        <v>58883</v>
+        <v>65901</v>
       </c>
       <c r="M138" t="n">
-        <v>0.605</v>
+        <v>0.677</v>
       </c>
       <c r="N138" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O138" t="n">
-        <v>234.6</v>
+        <v>213.7</v>
       </c>
       <c r="P138" t="s">
         <v>797</v>
@@ -10689,7 +10687,7 @@
         <v>801</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44358</v>
+        <v>44364</v>
       </c>
       <c r="D139" t="s">
         <v>802</v>
@@ -10699,31 +10697,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H139" t="n">
-        <v>1670458</v>
+        <v>1738788</v>
       </c>
       <c r="I139" t="n">
-        <v>90.865</v>
+        <v>94.582</v>
       </c>
       <c r="J139" t="n">
-        <v>12415</v>
+        <v>16002</v>
       </c>
       <c r="K139" t="n">
-        <v>0.675</v>
+        <v>0.87</v>
       </c>
       <c r="L139" t="n">
-        <v>10511</v>
+        <v>11535</v>
       </c>
       <c r="M139" t="n">
-        <v>0.572</v>
+        <v>0.627</v>
       </c>
       <c r="N139" t="n">
-        <v>0.13</v>
+        <v>0.202</v>
       </c>
       <c r="O139" t="n">
-        <v>7.7</v>
+        <v>4.9</v>
       </c>
       <c r="P139" t="s">
         <v>804</v>
@@ -10746,7 +10744,7 @@
         <v>807</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="D140" t="s">
         <v>808</v>
@@ -10756,31 +10754,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H140" t="n">
-        <v>580870</v>
+        <v>591453</v>
       </c>
       <c r="I140" t="n">
-        <v>39.082</v>
+        <v>39.794</v>
       </c>
       <c r="J140" t="n">
-        <v>1363</v>
+        <v>3538</v>
       </c>
       <c r="K140" t="n">
-        <v>0.092</v>
+        <v>0.238</v>
       </c>
       <c r="L140" t="n">
-        <v>2572</v>
+        <v>2459</v>
       </c>
       <c r="M140" t="n">
-        <v>0.173</v>
+        <v>0.165</v>
       </c>
       <c r="N140" t="n">
-        <v>0.043</v>
+        <v>0.083</v>
       </c>
       <c r="O140" t="n">
-        <v>23.4</v>
+        <v>12</v>
       </c>
       <c r="P140" t="s">
         <v>809</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-17-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-21-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-873-new-covid-19-cases-949-recoveries-in-past-24-hours_i_0000131233.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-475-new-covid-19-cases-267-recoveries-in-past-24-hours_i_0000131338.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-16-de-junho-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-junho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -714,7 +714,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-17062021-31lv</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-21062021-mr31</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.453-1.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.454.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1164,7 +1164,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/365710</t>
+    <t xml:space="preserve">http://irangov.ir/detail/365987</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1287,7 +1287,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-june-16-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-june-20-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210617-c97ucxib/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210621-uq87e7in/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/12bJhnwpaKGDoZqColvDm7Yon0lbpPXlM?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1enojFud59_TjLqRqm0r7VbOg5cq7uQjM?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_17_IUNIE.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_20_iunie_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2149,7 +2149,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18116</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18150</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2679,7 +2679,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-201</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-205</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -3266,7 +3266,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3311,7 +3311,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3321,31 +3321,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H5" t="n">
-        <v>10579571</v>
+        <v>10724876</v>
       </c>
       <c r="I5" t="n">
-        <v>234.083</v>
+        <v>237.298</v>
       </c>
       <c r="J5" t="n">
-        <v>28762</v>
+        <v>37195</v>
       </c>
       <c r="K5" t="n">
-        <v>0.636</v>
+        <v>0.823</v>
       </c>
       <c r="L5" t="n">
-        <v>34218</v>
+        <v>33029</v>
       </c>
       <c r="M5" t="n">
-        <v>0.757</v>
+        <v>0.731</v>
       </c>
       <c r="N5" t="n">
-        <v>0.258</v>
+        <v>0.246</v>
       </c>
       <c r="O5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3425,7 +3425,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3435,31 +3435,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H7" t="n">
-        <v>19512699</v>
+        <v>19779231</v>
       </c>
       <c r="I7" t="n">
-        <v>765.207</v>
+        <v>775.66</v>
       </c>
       <c r="J7" t="n">
-        <v>70468</v>
+        <v>61683</v>
       </c>
       <c r="K7" t="n">
-        <v>2.763</v>
+        <v>2.419</v>
       </c>
       <c r="L7" t="n">
-        <v>50727</v>
+        <v>60741</v>
       </c>
       <c r="M7" t="n">
-        <v>1.989</v>
+        <v>2.382</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4384</v>
+        <v>4571.8</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3482,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3492,31 +3492,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H8" t="n">
-        <v>49167859</v>
+        <v>51082866</v>
       </c>
       <c r="I8" t="n">
-        <v>5459.213</v>
+        <v>5671.841</v>
       </c>
       <c r="J8" t="n">
-        <v>354696</v>
+        <v>418937</v>
       </c>
       <c r="K8" t="n">
-        <v>39.383</v>
+        <v>46.515</v>
       </c>
       <c r="L8" t="n">
-        <v>391670</v>
+        <v>419555</v>
       </c>
       <c r="M8" t="n">
-        <v>43.488</v>
+        <v>46.584</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2086.5</v>
+        <v>3072.1</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3539,7 +3539,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3549,31 +3549,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H9" t="n">
-        <v>3644912</v>
+        <v>3680977</v>
       </c>
       <c r="I9" t="n">
-        <v>359.488</v>
+        <v>363.045</v>
       </c>
       <c r="J9" t="n">
-        <v>17339</v>
+        <v>5115</v>
       </c>
       <c r="K9" t="n">
-        <v>1.71</v>
+        <v>0.504</v>
       </c>
       <c r="L9" t="n">
-        <v>9120</v>
+        <v>8354</v>
       </c>
       <c r="M9" t="n">
-        <v>0.899</v>
+        <v>0.824</v>
       </c>
       <c r="N9" t="n">
         <v>0.006</v>
       </c>
       <c r="O9" t="n">
-        <v>170.7</v>
+        <v>179.9</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3596,7 +3596,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3606,25 +3606,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H10" t="n">
-        <v>4872668</v>
+        <v>4924454</v>
       </c>
       <c r="I10" t="n">
-        <v>2863.609</v>
+        <v>2894.043</v>
       </c>
       <c r="J10" t="n">
-        <v>14504</v>
+        <v>13249</v>
       </c>
       <c r="K10" t="n">
-        <v>8.524</v>
+        <v>7.786</v>
       </c>
       <c r="L10" t="n">
-        <v>13206</v>
+        <v>13247</v>
       </c>
       <c r="M10" t="n">
-        <v>7.761</v>
+        <v>7.785</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3649,7 +3649,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3659,31 +3659,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H11" t="n">
-        <v>6256354</v>
+        <v>6340488</v>
       </c>
       <c r="I11" t="n">
-        <v>37.989</v>
+        <v>38.5</v>
       </c>
       <c r="J11" t="n">
-        <v>24871</v>
+        <v>24057</v>
       </c>
       <c r="K11" t="n">
-        <v>0.151</v>
+        <v>0.146</v>
       </c>
       <c r="L11" t="n">
-        <v>20203</v>
+        <v>22297</v>
       </c>
       <c r="M11" t="n">
-        <v>0.123</v>
+        <v>0.135</v>
       </c>
       <c r="N11" t="n">
-        <v>0.146</v>
+        <v>0.169</v>
       </c>
       <c r="O11" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3706,7 +3706,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3716,27 +3716,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H12" t="n">
-        <v>6593438</v>
+        <v>6655621</v>
       </c>
       <c r="I12" t="n">
-        <v>697.768</v>
+        <v>704.349</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>15510</v>
+        <v>15832</v>
       </c>
       <c r="M12" t="n">
-        <v>1.641</v>
+        <v>1.675</v>
       </c>
       <c r="N12" t="n">
-        <v>0.053</v>
+        <v>0.043</v>
       </c>
       <c r="O12" t="n">
-        <v>18.7</v>
+        <v>23.1</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3759,7 +3759,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3769,31 +3769,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H13" t="n">
-        <v>14683161</v>
+        <v>14824282</v>
       </c>
       <c r="I13" t="n">
-        <v>1266.924</v>
+        <v>1279.1</v>
       </c>
       <c r="J13" t="n">
-        <v>41934</v>
+        <v>20608</v>
       </c>
       <c r="K13" t="n">
-        <v>3.618</v>
+        <v>1.778</v>
       </c>
       <c r="L13" t="n">
-        <v>38704</v>
+        <v>38816</v>
       </c>
       <c r="M13" t="n">
-        <v>3.34</v>
+        <v>3.349</v>
       </c>
       <c r="N13" t="n">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="O13" t="n">
-        <v>52.6</v>
+        <v>71.4</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3816,7 +3816,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44362</v>
+        <v>44366</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3826,27 +3826,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>142646</v>
+        <v>145629</v>
       </c>
       <c r="I14" t="n">
-        <v>358.749</v>
+        <v>366.251</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>639</v>
+        <v>696</v>
       </c>
       <c r="M14" t="n">
-        <v>1.607</v>
+        <v>1.75</v>
       </c>
       <c r="N14" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="O14" t="n">
-        <v>55.9</v>
+        <v>73.8</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -4020,7 +4020,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4030,31 +4030,27 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H18" t="n">
-        <v>1010886</v>
+        <v>1016893</v>
       </c>
       <c r="I18" t="n">
-        <v>308.12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2033</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.62</v>
-      </c>
+        <v>309.951</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>1717</v>
+        <v>1702</v>
       </c>
       <c r="M18" t="n">
-        <v>0.523</v>
+        <v>0.519</v>
       </c>
       <c r="N18" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="O18" t="n">
-        <v>53.7</v>
+        <v>62.1</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4122,7 +4118,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4132,25 +4128,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H20" t="n">
-        <v>3039261</v>
+        <v>3082674</v>
       </c>
       <c r="I20" t="n">
-        <v>437.402</v>
+        <v>443.649</v>
       </c>
       <c r="J20" t="n">
-        <v>13668</v>
+        <v>16068</v>
       </c>
       <c r="K20" t="n">
-        <v>1.967</v>
+        <v>2.312</v>
       </c>
       <c r="L20" t="n">
-        <v>11707</v>
+        <v>11778</v>
       </c>
       <c r="M20" t="n">
-        <v>1.685</v>
+        <v>1.695</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4175,7 +4171,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -4185,22 +4181,22 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
-        <v>1277758</v>
+        <v>1309229</v>
       </c>
       <c r="I21" t="n">
-        <v>76.426</v>
+        <v>78.308</v>
       </c>
       <c r="J21" t="n">
-        <v>8517</v>
+        <v>5913</v>
       </c>
       <c r="K21" t="n">
-        <v>0.509</v>
+        <v>0.354</v>
       </c>
       <c r="L21" t="n">
-        <v>7964</v>
+        <v>7952</v>
       </c>
       <c r="M21" t="n">
         <v>0.476</v>
@@ -4285,7 +4281,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4295,31 +4291,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H23" t="n">
-        <v>35974549</v>
+        <v>36243642</v>
       </c>
       <c r="I23" t="n">
-        <v>953.166</v>
+        <v>960.296</v>
       </c>
       <c r="J23" t="n">
-        <v>84632</v>
+        <v>132344</v>
       </c>
       <c r="K23" t="n">
-        <v>2.242</v>
+        <v>3.507</v>
       </c>
       <c r="L23" t="n">
-        <v>67217</v>
+        <v>65454</v>
       </c>
       <c r="M23" t="n">
-        <v>1.781</v>
+        <v>1.734</v>
       </c>
       <c r="N23" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="O23" t="n">
-        <v>59.3</v>
+        <v>71.5</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4342,7 +4338,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44362</v>
+        <v>44366</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4352,15 +4348,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>791</v>
+        <v>475</v>
       </c>
       <c r="K24" t="n">
-        <v>1.423</v>
+        <v>0.854</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4387,7 +4383,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4397,25 +4393,25 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H25" t="n">
-        <v>15901153</v>
+        <v>16186004</v>
       </c>
       <c r="I25" t="n">
-        <v>831.815</v>
+        <v>846.716</v>
       </c>
       <c r="J25" t="n">
-        <v>75673</v>
+        <v>72479</v>
       </c>
       <c r="K25" t="n">
-        <v>3.959</v>
+        <v>3.791</v>
       </c>
       <c r="L25" t="n">
-        <v>65331</v>
+        <v>63027</v>
       </c>
       <c r="M25" t="n">
-        <v>3.418</v>
+        <v>3.297</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4485,7 +4481,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4495,31 +4491,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H27" t="n">
-        <v>18510364</v>
+        <v>18880824</v>
       </c>
       <c r="I27" t="n">
-        <v>363.784</v>
+        <v>371.064</v>
       </c>
       <c r="J27" t="n">
-        <v>106714</v>
+        <v>79665</v>
       </c>
       <c r="K27" t="n">
-        <v>2.097</v>
+        <v>1.566</v>
       </c>
       <c r="L27" t="n">
-        <v>92129</v>
+        <v>96521</v>
       </c>
       <c r="M27" t="n">
-        <v>1.811</v>
+        <v>1.897</v>
       </c>
       <c r="N27" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4542,7 +4538,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44362</v>
+        <v>44366</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4552,31 +4548,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H28" t="n">
-        <v>1127025</v>
+        <v>1160635</v>
       </c>
       <c r="I28" t="n">
-        <v>221.241</v>
+        <v>227.838</v>
       </c>
       <c r="J28" t="n">
-        <v>6297</v>
+        <v>7915</v>
       </c>
       <c r="K28" t="n">
-        <v>1.236</v>
+        <v>1.554</v>
       </c>
       <c r="L28" t="n">
-        <v>6975</v>
+        <v>7098</v>
       </c>
       <c r="M28" t="n">
-        <v>1.369</v>
+        <v>1.393</v>
       </c>
       <c r="N28" t="n">
-        <v>0.188</v>
+        <v>0.171</v>
       </c>
       <c r="O28" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4656,7 +4652,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4666,31 +4662,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H30" t="n">
-        <v>2097393</v>
+        <v>2110485</v>
       </c>
       <c r="I30" t="n">
-        <v>510.903</v>
+        <v>514.092</v>
       </c>
       <c r="J30" t="n">
-        <v>5192</v>
+        <v>4340</v>
       </c>
       <c r="K30" t="n">
-        <v>1.265</v>
+        <v>1.057</v>
       </c>
       <c r="L30" t="n">
-        <v>4565</v>
+        <v>4538</v>
       </c>
       <c r="M30" t="n">
-        <v>1.112</v>
+        <v>1.105</v>
       </c>
       <c r="N30" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="O30" t="n">
-        <v>47.5</v>
+        <v>52.1</v>
       </c>
       <c r="P30" t="s">
         <v>184</v>
@@ -4713,7 +4709,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4725,31 +4721,31 @@
         <v>191</v>
       </c>
       <c r="G31" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H31" t="n">
-        <v>4697013</v>
+        <v>4825077</v>
       </c>
       <c r="I31" t="n">
-        <v>414.688</v>
+        <v>425.995</v>
       </c>
       <c r="J31" t="n">
-        <v>19342</v>
+        <v>29281</v>
       </c>
       <c r="K31" t="n">
-        <v>1.708</v>
+        <v>2.585</v>
       </c>
       <c r="L31" t="n">
-        <v>20587</v>
+        <v>26723</v>
       </c>
       <c r="M31" t="n">
-        <v>1.818</v>
+        <v>2.359</v>
       </c>
       <c r="N31" t="n">
-        <v>0.066</v>
+        <v>0.054</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4772,7 +4768,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D32" t="s">
         <v>196</v>
@@ -4782,31 +4778,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H32" t="n">
-        <v>7733494</v>
+        <v>7868471</v>
       </c>
       <c r="I32" t="n">
-        <v>8829.207</v>
+        <v>8983.309</v>
       </c>
       <c r="J32" t="n">
-        <v>34157</v>
+        <v>21250</v>
       </c>
       <c r="K32" t="n">
-        <v>38.997</v>
+        <v>24.261</v>
       </c>
       <c r="L32" t="n">
-        <v>40197</v>
+        <v>33712</v>
       </c>
       <c r="M32" t="n">
-        <v>45.892</v>
+        <v>38.488</v>
       </c>
       <c r="N32" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="O32" t="n">
-        <v>723.3</v>
+        <v>509.7</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4829,7 +4825,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4839,21 +4835,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>149389</v>
+        <v>158948</v>
       </c>
       <c r="K33" t="n">
-        <v>13.95</v>
+        <v>14.842</v>
       </c>
       <c r="L33" t="n">
-        <v>134909</v>
+        <v>133503</v>
       </c>
       <c r="M33" t="n">
-        <v>12.598</v>
+        <v>12.466</v>
       </c>
       <c r="N33" t="n">
         <v>0.001</v>
@@ -4935,7 +4931,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44362</v>
+        <v>44367</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4945,31 +4941,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H35" t="n">
-        <v>34168269</v>
+        <v>34540071</v>
       </c>
       <c r="I35" t="n">
-        <v>5899.011</v>
+        <v>5963.201</v>
       </c>
       <c r="J35" t="n">
-        <v>86839</v>
+        <v>34489</v>
       </c>
       <c r="K35" t="n">
-        <v>14.992</v>
+        <v>5.954</v>
       </c>
       <c r="L35" t="n">
-        <v>98429</v>
+        <v>79058</v>
       </c>
       <c r="M35" t="n">
-        <v>16.993</v>
+        <v>13.649</v>
       </c>
       <c r="N35" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O35" t="n">
-        <v>227.8</v>
+        <v>308.6</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4992,7 +4988,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44361</v>
+        <v>44366</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -5002,31 +4998,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H36" t="n">
-        <v>1632441</v>
+        <v>1638427</v>
       </c>
       <c r="I36" t="n">
-        <v>150.484</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5392</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.497</v>
-      </c>
+        <v>151.036</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36" t="n">
-        <v>5297</v>
+        <v>2224</v>
       </c>
       <c r="M36" t="n">
-        <v>0.488</v>
+        <v>0.205</v>
       </c>
       <c r="N36" t="n">
-        <v>0.202</v>
+        <v>0.512</v>
       </c>
       <c r="O36" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5165,7 +5157,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5178,10 +5170,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>152177</v>
+        <v>154344</v>
       </c>
       <c r="I39" t="n">
-        <v>108.467</v>
+        <v>110.011</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -5210,7 +5202,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5220,31 +5212,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H40" t="n">
-        <v>1498070</v>
+        <v>1510633</v>
       </c>
       <c r="I40" t="n">
-        <v>1129.307</v>
+        <v>1138.778</v>
       </c>
       <c r="J40" t="n">
-        <v>3841</v>
+        <v>3585</v>
       </c>
       <c r="K40" t="n">
-        <v>2.896</v>
+        <v>2.703</v>
       </c>
       <c r="L40" t="n">
-        <v>3712</v>
+        <v>3543</v>
       </c>
       <c r="M40" t="n">
-        <v>2.798</v>
+        <v>2.671</v>
       </c>
       <c r="N40" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="O40" t="n">
-        <v>78.5</v>
+        <v>88.6</v>
       </c>
       <c r="P40" t="s">
         <v>243</v>
@@ -5267,7 +5259,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="D41" t="s">
         <v>247</v>
@@ -5277,31 +5269,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H41" t="n">
-        <v>2802595</v>
+        <v>2828170</v>
       </c>
       <c r="I41" t="n">
-        <v>24.378</v>
+        <v>24.601</v>
       </c>
       <c r="J41" t="n">
-        <v>5237</v>
+        <v>3177</v>
       </c>
       <c r="K41" t="n">
-        <v>0.046</v>
+        <v>0.028</v>
       </c>
       <c r="L41" t="n">
-        <v>5401</v>
+        <v>5173</v>
       </c>
       <c r="M41" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="N41" t="n">
-        <v>0.032</v>
+        <v>0.027</v>
       </c>
       <c r="O41" t="n">
-        <v>31.4</v>
+        <v>37.3</v>
       </c>
       <c r="P41" t="s">
         <v>248</v>
@@ -5381,7 +5373,7 @@
         <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44362</v>
+        <v>44367</v>
       </c>
       <c r="D43" t="s">
         <v>257</v>
@@ -5391,31 +5383,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H43" t="n">
-        <v>5271508</v>
+        <v>5327146</v>
       </c>
       <c r="I43" t="n">
-        <v>951.412</v>
+        <v>961.454</v>
       </c>
       <c r="J43" t="n">
-        <v>13590</v>
+        <v>4776</v>
       </c>
       <c r="K43" t="n">
-        <v>2.453</v>
+        <v>0.862</v>
       </c>
       <c r="L43" t="n">
-        <v>12636</v>
+        <v>11238</v>
       </c>
       <c r="M43" t="n">
-        <v>2.281</v>
+        <v>2.028</v>
       </c>
       <c r="N43" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O43" t="n">
-        <v>167.2</v>
+        <v>153.3</v>
       </c>
       <c r="P43" t="s">
         <v>259</v>
@@ -5438,7 +5430,7 @@
         <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44361</v>
+        <v>44365</v>
       </c>
       <c r="D44" t="s">
         <v>263</v>
@@ -5448,27 +5440,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>338517</v>
+        <v>382425</v>
       </c>
       <c r="K44" t="n">
-        <v>5.01</v>
+        <v>5.66</v>
       </c>
       <c r="L44" t="n">
-        <v>272603</v>
+        <v>259349</v>
       </c>
       <c r="M44" t="n">
-        <v>4.035</v>
+        <v>3.839</v>
       </c>
       <c r="N44" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="O44" t="n">
-        <v>76.9</v>
+        <v>100</v>
       </c>
       <c r="P44" t="s">
         <v>264</v>
@@ -5491,7 +5483,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5504,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>850090</v>
+        <v>856066</v>
       </c>
       <c r="I45" t="n">
-        <v>381.938</v>
+        <v>384.623</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -5870,7 +5862,7 @@
         <v>311</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44334</v>
+        <v>44362</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -5880,27 +5872,27 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>16710131</v>
+        <v>18981947</v>
       </c>
       <c r="I52" t="n">
-        <v>2228.913</v>
+        <v>2531.943</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>133411</v>
+        <v>68148</v>
       </c>
       <c r="M52" t="n">
-        <v>17.795</v>
+        <v>9.09</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="P52" t="s">
         <v>314</v>
@@ -5923,7 +5915,7 @@
         <v>318</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="D53" t="s">
         <v>319</v>
@@ -5935,28 +5927,32 @@
         <v>321</v>
       </c>
       <c r="G53" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H53" t="n">
-        <v>5582683</v>
+        <v>5607652</v>
       </c>
       <c r="I53" t="n">
-        <v>577.897</v>
+        <v>580.481</v>
       </c>
       <c r="J53" t="n">
-        <v>13492</v>
+        <v>24969</v>
       </c>
       <c r="K53" t="n">
-        <v>1.397</v>
+        <v>2.585</v>
       </c>
       <c r="L53" t="n">
-        <v>10090</v>
+        <v>9617</v>
       </c>
       <c r="M53" t="n">
-        <v>1.044</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>0.996</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O53" t="n">
+        <v>115.1</v>
+      </c>
       <c r="P53" t="s">
         <v>320</v>
       </c>
@@ -6031,7 +6027,7 @@
         <v>330</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="D55" t="s">
         <v>331</v>
@@ -6043,32 +6039,28 @@
         <v>333</v>
       </c>
       <c r="G55" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H55" t="n">
-        <v>385238220</v>
+        <v>394072142</v>
       </c>
       <c r="I55" t="n">
-        <v>279.157</v>
+        <v>285.559</v>
       </c>
       <c r="J55" t="n">
-        <v>1931249</v>
+        <v>1664360</v>
       </c>
       <c r="K55" t="n">
-        <v>1.399</v>
+        <v>1.206</v>
       </c>
       <c r="L55" t="n">
-        <v>1862852</v>
+        <v>1813737</v>
       </c>
       <c r="M55" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="O55" t="n">
-        <v>26.7</v>
-      </c>
+        <v>1.314</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>332</v>
       </c>
@@ -6090,7 +6082,7 @@
         <v>336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D56" t="s">
         <v>337</v>
@@ -6100,31 +6092,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H56" t="n">
-        <v>12261392</v>
+        <v>12533392</v>
       </c>
       <c r="I56" t="n">
-        <v>44.828</v>
+        <v>45.822</v>
       </c>
       <c r="J56" t="n">
-        <v>79322</v>
+        <v>62361</v>
       </c>
       <c r="K56" t="n">
-        <v>0.29</v>
+        <v>0.228</v>
       </c>
       <c r="L56" t="n">
-        <v>59851</v>
+        <v>64650</v>
       </c>
       <c r="M56" t="n">
-        <v>0.219</v>
+        <v>0.236</v>
       </c>
       <c r="N56" t="n">
-        <v>0.154</v>
+        <v>0.188</v>
       </c>
       <c r="O56" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="P56" t="s">
         <v>338</v>
@@ -6147,7 +6139,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6157,31 +6149,27 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H57" t="n">
-        <v>21941648</v>
+        <v>22573637</v>
       </c>
       <c r="I57" t="n">
-        <v>261.232</v>
-      </c>
-      <c r="J57" t="n">
-        <v>123901</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.475</v>
-      </c>
+        <v>268.756</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
       <c r="L57" t="n">
-        <v>125171</v>
+        <v>125896</v>
       </c>
       <c r="M57" t="n">
-        <v>1.49</v>
+        <v>1.499</v>
       </c>
       <c r="N57" t="n">
-        <v>0.079</v>
+        <v>0.075</v>
       </c>
       <c r="O57" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="P57" t="s">
         <v>344</v>
@@ -6318,7 +6306,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6328,31 +6316,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H60" t="n">
-        <v>17293383</v>
+        <v>17426307</v>
       </c>
       <c r="I60" t="n">
-        <v>1997.955</v>
+        <v>2013.312</v>
       </c>
       <c r="J60" t="n">
-        <v>18784</v>
+        <v>49044</v>
       </c>
       <c r="K60" t="n">
-        <v>2.17</v>
+        <v>5.666</v>
       </c>
       <c r="L60" t="n">
-        <v>21587</v>
+        <v>28924</v>
       </c>
       <c r="M60" t="n">
-        <v>2.494</v>
+        <v>3.342</v>
       </c>
       <c r="N60" t="n">
         <v>0.001</v>
       </c>
       <c r="O60" t="n">
-        <v>1291.6</v>
+        <v>674.9</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6375,7 +6363,7 @@
         <v>367</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D61" t="s">
         <v>368</v>
@@ -6387,31 +6375,31 @@
         <v>370</v>
       </c>
       <c r="G61" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H61" t="n">
-        <v>28995279</v>
+        <v>29161438</v>
       </c>
       <c r="I61" t="n">
-        <v>479.563</v>
+        <v>482.312</v>
       </c>
       <c r="J61" t="n">
-        <v>49716</v>
+        <v>21721</v>
       </c>
       <c r="K61" t="n">
-        <v>0.822</v>
+        <v>0.359</v>
       </c>
       <c r="L61" t="n">
-        <v>46873</v>
+        <v>45722</v>
       </c>
       <c r="M61" t="n">
-        <v>0.775</v>
+        <v>0.756</v>
       </c>
       <c r="N61" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="O61" t="n">
-        <v>33.2</v>
+        <v>41.7</v>
       </c>
       <c r="P61" t="s">
         <v>371</v>
@@ -6434,7 +6422,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6446,31 +6434,31 @@
         <v>370</v>
       </c>
       <c r="G62" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H62" t="n">
-        <v>69299685</v>
+        <v>69997973</v>
       </c>
       <c r="I62" t="n">
-        <v>1146.173</v>
+        <v>1157.722</v>
       </c>
       <c r="J62" t="n">
-        <v>200315</v>
+        <v>81752</v>
       </c>
       <c r="K62" t="n">
-        <v>3.313</v>
+        <v>1.352</v>
       </c>
       <c r="L62" t="n">
-        <v>179977</v>
+        <v>187783</v>
       </c>
       <c r="M62" t="n">
-        <v>2.977</v>
+        <v>3.106</v>
       </c>
       <c r="N62" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="O62" t="n">
-        <v>127.4</v>
+        <v>171.1</v>
       </c>
       <c r="P62" t="s">
         <v>371</v>
@@ -6493,7 +6481,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6503,27 +6491,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H63" t="n">
-        <v>413408</v>
+        <v>423182</v>
       </c>
       <c r="I63" t="n">
-        <v>139.61</v>
-      </c>
-      <c r="J63"/>
-      <c r="K63"/>
+        <v>142.911</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2083</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.703</v>
+      </c>
       <c r="L63" t="n">
-        <v>1860</v>
+        <v>2193</v>
       </c>
       <c r="M63" t="n">
-        <v>0.628</v>
+        <v>0.741</v>
       </c>
       <c r="N63" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="O63" t="n">
-        <v>38.4</v>
+        <v>39.3</v>
       </c>
       <c r="P63" t="s">
         <v>379</v>
@@ -6546,7 +6538,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6556,31 +6548,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H64" t="n">
-        <v>14854712</v>
+        <v>15127598</v>
       </c>
       <c r="I64" t="n">
-        <v>117.45</v>
+        <v>119.608</v>
       </c>
       <c r="J64" t="n">
-        <v>65986</v>
+        <v>58844</v>
       </c>
       <c r="K64" t="n">
-        <v>0.522</v>
+        <v>0.465</v>
       </c>
       <c r="L64" t="n">
-        <v>62633</v>
+        <v>57155</v>
       </c>
       <c r="M64" t="n">
-        <v>0.495</v>
+        <v>0.452</v>
       </c>
       <c r="N64" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="O64" t="n">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="P64" t="s">
         <v>385</v>
@@ -6884,7 +6876,7 @@
         <v>417</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="D70" t="s">
         <v>418</v>
@@ -6894,28 +6886,32 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H70" t="n">
-        <v>280011</v>
+        <v>284191</v>
       </c>
       <c r="I70" t="n">
-        <v>38.487</v>
+        <v>39.061</v>
       </c>
       <c r="J70" t="n">
-        <v>1479</v>
+        <v>911</v>
       </c>
       <c r="K70" t="n">
-        <v>0.203</v>
+        <v>0.125</v>
       </c>
       <c r="L70" t="n">
-        <v>1675</v>
+        <v>1571</v>
       </c>
       <c r="M70" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N70"/>
-      <c r="O70"/>
+        <v>0.216</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O70" t="n">
+        <v>249.9</v>
+      </c>
       <c r="P70" t="s">
         <v>419</v>
       </c>
@@ -6937,7 +6933,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6949,32 +6945,28 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H71" t="n">
-        <v>2772387</v>
+        <v>2807205</v>
       </c>
       <c r="I71" t="n">
-        <v>1469.825</v>
+        <v>1488.284</v>
       </c>
       <c r="J71" t="n">
-        <v>9644</v>
+        <v>8333</v>
       </c>
       <c r="K71" t="n">
-        <v>5.113</v>
+        <v>4.418</v>
       </c>
       <c r="L71" t="n">
-        <v>8438</v>
+        <v>7645</v>
       </c>
       <c r="M71" t="n">
-        <v>4.474</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="O71" t="n">
-        <v>61.5</v>
-      </c>
+        <v>4.053</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
         <v>425</v>
       </c>
@@ -7045,7 +7037,7 @@
         <v>434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D73" t="s">
         <v>435</v>
@@ -7055,15 +7047,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>3368</v>
+        <v>3378</v>
       </c>
       <c r="K73" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7090,7 +7082,7 @@
         <v>440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44362</v>
+        <v>44366</v>
       </c>
       <c r="D74" t="s">
         <v>441</v>
@@ -7100,31 +7092,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H74" t="n">
-        <v>49330</v>
+        <v>49926</v>
       </c>
       <c r="I74" t="n">
-        <v>1293.495</v>
+        <v>1309.122</v>
       </c>
       <c r="J74" t="n">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K74" t="n">
-        <v>3.356</v>
+        <v>2.229</v>
       </c>
       <c r="L74" t="n">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M74" t="n">
-        <v>3.881</v>
+        <v>3.383</v>
       </c>
       <c r="N74" t="n">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="O74" t="n">
-        <v>142.9</v>
+        <v>111.1</v>
       </c>
       <c r="P74" t="s">
         <v>442</v>
@@ -7147,7 +7139,7 @@
         <v>446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="D75" t="s">
         <v>447</v>
@@ -7157,31 +7149,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H75" t="n">
-        <v>3750785</v>
+        <v>3788985</v>
       </c>
       <c r="I75" t="n">
-        <v>1377.805</v>
+        <v>1391.837</v>
       </c>
       <c r="J75" t="n">
-        <v>15187</v>
+        <v>11650</v>
       </c>
       <c r="K75" t="n">
-        <v>5.579</v>
+        <v>4.279</v>
       </c>
       <c r="L75" t="n">
-        <v>16529</v>
+        <v>12291</v>
       </c>
       <c r="M75" t="n">
-        <v>6.072</v>
+        <v>4.515</v>
       </c>
       <c r="N75" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O75" t="n">
-        <v>83.3</v>
+        <v>90.9</v>
       </c>
       <c r="P75" t="s">
         <v>448</v>
@@ -7204,7 +7196,7 @@
         <v>451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="D76" t="s">
         <v>452</v>
@@ -7214,31 +7206,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H76" t="n">
-        <v>3009854</v>
+        <v>3034270</v>
       </c>
       <c r="I76" t="n">
-        <v>4808.258</v>
+        <v>4847.263</v>
       </c>
       <c r="J76" t="n">
-        <v>7044</v>
+        <v>5674</v>
       </c>
       <c r="K76" t="n">
-        <v>11.253</v>
+        <v>9.064</v>
       </c>
       <c r="L76" t="n">
-        <v>6522</v>
+        <v>6628</v>
       </c>
       <c r="M76" t="n">
-        <v>10.419</v>
+        <v>10.588</v>
       </c>
       <c r="N76" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O76" t="n">
-        <v>321.5</v>
+        <v>421.8</v>
       </c>
       <c r="P76" t="s">
         <v>453</v>
@@ -7591,7 +7583,7 @@
         <v>492</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D83" t="s">
         <v>493</v>
@@ -7601,31 +7593,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H83" t="n">
-        <v>6853908</v>
+        <v>6903487</v>
       </c>
       <c r="I83" t="n">
-        <v>53.159</v>
+        <v>53.543</v>
       </c>
       <c r="J83" t="n">
-        <v>8119</v>
+        <v>1690</v>
       </c>
       <c r="K83" t="n">
-        <v>0.063</v>
+        <v>0.013</v>
       </c>
       <c r="L83" t="n">
-        <v>10471</v>
+        <v>11212</v>
       </c>
       <c r="M83" t="n">
-        <v>0.081</v>
+        <v>0.087</v>
       </c>
       <c r="N83" t="n">
-        <v>0.226</v>
+        <v>0.23</v>
       </c>
       <c r="O83" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="P83" t="s">
         <v>495</v>
@@ -7648,7 +7640,7 @@
         <v>498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D84" t="s">
         <v>499</v>
@@ -7658,21 +7650,21 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H84" t="n">
-        <v>1192798</v>
+        <v>1212930</v>
       </c>
       <c r="I84" t="n">
-        <v>295.689</v>
+        <v>300.68</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>4134</v>
+        <v>4498</v>
       </c>
       <c r="M84" t="n">
-        <v>1.025</v>
+        <v>1.115</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -7956,10 +7948,10 @@
         <v>1.382</v>
       </c>
       <c r="N89" t="n">
-        <v>0.272</v>
+        <v>0.357</v>
       </c>
       <c r="O89" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="P89" t="s">
         <v>529</v>
@@ -8092,7 +8084,7 @@
         <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D92" t="s">
         <v>547</v>
@@ -8102,25 +8094,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H92" t="n">
-        <v>2216363</v>
+        <v>2229592</v>
       </c>
       <c r="I92" t="n">
-        <v>459.613</v>
+        <v>462.357</v>
       </c>
       <c r="J92" t="n">
-        <v>5248</v>
+        <v>2858</v>
       </c>
       <c r="K92" t="n">
-        <v>1.088</v>
+        <v>0.593</v>
       </c>
       <c r="L92" t="n">
-        <v>4310</v>
+        <v>4207</v>
       </c>
       <c r="M92" t="n">
-        <v>0.894</v>
+        <v>0.872</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8145,7 +8137,7 @@
         <v>552</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="D93" t="s">
         <v>553</v>
@@ -8155,27 +8147,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H93" t="n">
-        <v>2231409</v>
+        <v>2266591</v>
       </c>
       <c r="I93" t="n">
-        <v>10.825</v>
+        <v>10.995</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>7281</v>
+        <v>5026</v>
       </c>
       <c r="M93" t="n">
-        <v>0.035</v>
+        <v>0.024</v>
       </c>
       <c r="N93" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O93" t="n">
-        <v>194.5</v>
+        <v>164.4</v>
       </c>
       <c r="P93" t="s">
         <v>554</v>
@@ -8198,7 +8190,7 @@
         <v>557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="D94" t="s">
         <v>558</v>
@@ -8208,31 +8200,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H94" t="n">
-        <v>837712</v>
+        <v>847723</v>
       </c>
       <c r="I94" t="n">
-        <v>402.093</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2887</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.386</v>
-      </c>
+        <v>406.898</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94"/>
       <c r="L94" t="n">
-        <v>2797</v>
+        <v>3017</v>
       </c>
       <c r="M94" t="n">
-        <v>1.343</v>
+        <v>1.448</v>
       </c>
       <c r="N94" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O94" t="n">
-        <v>171.7</v>
+        <v>240</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8255,7 +8243,7 @@
         <v>562</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44362</v>
+        <v>44366</v>
       </c>
       <c r="D95" t="s">
         <v>563</v>
@@ -8265,31 +8253,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H95" t="n">
-        <v>5933768</v>
+        <v>5994659</v>
       </c>
       <c r="I95" t="n">
-        <v>1094.54</v>
+        <v>1105.772</v>
       </c>
       <c r="J95" t="n">
-        <v>17502</v>
+        <v>8440</v>
       </c>
       <c r="K95" t="n">
-        <v>3.228</v>
+        <v>1.557</v>
       </c>
       <c r="L95" t="n">
-        <v>15065</v>
+        <v>15415</v>
       </c>
       <c r="M95" t="n">
-        <v>2.779</v>
+        <v>2.843</v>
       </c>
       <c r="N95" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O95" t="n">
-        <v>84.7</v>
+        <v>87.1</v>
       </c>
       <c r="P95" t="s">
         <v>564</v>
@@ -8357,7 +8345,7 @@
         <v>573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D97" t="s">
         <v>574</v>
@@ -8367,25 +8355,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H97" t="n">
-        <v>14026336</v>
+        <v>14187441</v>
       </c>
       <c r="I97" t="n">
-        <v>63.499</v>
+        <v>64.228</v>
       </c>
       <c r="J97" t="n">
-        <v>54647</v>
+        <v>39017</v>
       </c>
       <c r="K97" t="n">
-        <v>0.247</v>
+        <v>0.177</v>
       </c>
       <c r="L97" t="n">
-        <v>40052</v>
+        <v>42165</v>
       </c>
       <c r="M97" t="n">
-        <v>0.181</v>
+        <v>0.191</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8685,7 +8673,7 @@
         <v>605</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D103" t="s">
         <v>606</v>
@@ -8695,31 +8683,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H103" t="n">
-        <v>13409845</v>
+        <v>13589750</v>
       </c>
       <c r="I103" t="n">
-        <v>122.374</v>
+        <v>124.015</v>
       </c>
       <c r="J103" t="n">
-        <v>42741</v>
+        <v>26432</v>
       </c>
       <c r="K103" t="n">
-        <v>0.39</v>
+        <v>0.241</v>
       </c>
       <c r="L103" t="n">
-        <v>45624</v>
+        <v>43517</v>
       </c>
       <c r="M103" t="n">
-        <v>0.416</v>
+        <v>0.397</v>
       </c>
       <c r="N103" t="n">
-        <v>0.146</v>
+        <v>0.142</v>
       </c>
       <c r="O103" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="P103" t="s">
         <v>313</v>
@@ -8856,7 +8844,7 @@
         <v>618</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="D106" t="s">
         <v>619</v>
@@ -8866,31 +8854,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H106" t="n">
-        <v>12538601</v>
+        <v>12730360</v>
       </c>
       <c r="I106" t="n">
-        <v>1229.672</v>
+        <v>1248.478</v>
       </c>
       <c r="J106" t="n">
-        <v>51126</v>
+        <v>46881</v>
       </c>
       <c r="K106" t="n">
-        <v>5.014</v>
+        <v>4.598</v>
       </c>
       <c r="L106" t="n">
-        <v>41031</v>
+        <v>52169</v>
       </c>
       <c r="M106" t="n">
-        <v>4.024</v>
+        <v>5.116</v>
       </c>
       <c r="N106" t="n">
         <v>0.02</v>
       </c>
       <c r="O106" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="P106" t="s">
         <v>620</v>
@@ -8913,7 +8901,7 @@
         <v>623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="D107" t="s">
         <v>624</v>
@@ -8923,31 +8911,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H107" t="n">
-        <v>2094362</v>
+        <v>2121764</v>
       </c>
       <c r="I107" t="n">
-        <v>726.941</v>
+        <v>736.453</v>
       </c>
       <c r="J107" t="n">
-        <v>3997</v>
+        <v>5671</v>
       </c>
       <c r="K107" t="n">
-        <v>1.387</v>
+        <v>1.968</v>
       </c>
       <c r="L107" t="n">
-        <v>4573</v>
+        <v>5257</v>
       </c>
       <c r="M107" t="n">
-        <v>1.587</v>
+        <v>1.825</v>
       </c>
       <c r="N107" t="n">
-        <v>0.033</v>
+        <v>0.028</v>
       </c>
       <c r="O107" t="n">
-        <v>30.2</v>
+        <v>35.3</v>
       </c>
       <c r="P107" t="s">
         <v>626</v>
@@ -8970,7 +8958,7 @@
         <v>629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="D108" t="s">
         <v>630</v>
@@ -8980,31 +8968,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H108" t="n">
-        <v>8168419</v>
+        <v>8220005</v>
       </c>
       <c r="I108" t="n">
-        <v>424.605</v>
+        <v>427.287</v>
       </c>
       <c r="J108" t="n">
-        <v>17509</v>
+        <v>12173</v>
       </c>
       <c r="K108" t="n">
-        <v>0.91</v>
+        <v>0.633</v>
       </c>
       <c r="L108" t="n">
-        <v>15000</v>
+        <v>15803</v>
       </c>
       <c r="M108" t="n">
-        <v>0.78</v>
+        <v>0.821</v>
       </c>
       <c r="N108" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O108" t="n">
-        <v>163.3</v>
+        <v>208.7</v>
       </c>
       <c r="P108" t="s">
         <v>632</v>
@@ -9027,7 +9015,7 @@
         <v>636</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D109" t="s">
         <v>637</v>
@@ -9037,31 +9025,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H109" t="n">
-        <v>144422331</v>
+        <v>146025652</v>
       </c>
       <c r="I109" t="n">
-        <v>989.638</v>
+        <v>1000.625</v>
       </c>
       <c r="J109" t="n">
-        <v>444649</v>
+        <v>274606</v>
       </c>
       <c r="K109" t="n">
-        <v>3.047</v>
+        <v>1.882</v>
       </c>
       <c r="L109" t="n">
-        <v>353296</v>
+        <v>381318</v>
       </c>
       <c r="M109" t="n">
-        <v>2.421</v>
+        <v>2.613</v>
       </c>
       <c r="N109" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="O109" t="n">
-        <v>26.1</v>
+        <v>24.2</v>
       </c>
       <c r="P109" t="s">
         <v>638</v>
@@ -9084,7 +9072,7 @@
         <v>642</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D110" t="s">
         <v>643</v>
@@ -9094,25 +9082,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H110" t="n">
-        <v>1527944</v>
+        <v>1556862</v>
       </c>
       <c r="I110" t="n">
-        <v>117.968</v>
+        <v>120.201</v>
       </c>
       <c r="J110" t="n">
-        <v>5770</v>
+        <v>5342</v>
       </c>
       <c r="K110" t="n">
-        <v>0.445</v>
+        <v>0.412</v>
       </c>
       <c r="L110" t="n">
-        <v>5729</v>
+        <v>6634</v>
       </c>
       <c r="M110" t="n">
-        <v>0.442</v>
+        <v>0.512</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9137,7 +9125,7 @@
         <v>648</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D111" t="s">
         <v>649</v>
@@ -9147,16 +9135,20 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
-        <v>19431</v>
+        <v>19871</v>
       </c>
       <c r="I111" t="n">
-        <v>365.299</v>
-      </c>
-      <c r="J111"/>
-      <c r="K111"/>
+        <v>373.571</v>
+      </c>
+      <c r="J111" t="n">
+        <v>220</v>
+      </c>
+      <c r="K111" t="n">
+        <v>4.136</v>
+      </c>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
@@ -9182,7 +9174,7 @@
         <v>653</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D112" t="s">
         <v>654</v>
@@ -9192,31 +9184,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H112" t="n">
-        <v>20712598</v>
+        <v>21036893</v>
       </c>
       <c r="I112" t="n">
-        <v>594.953</v>
+        <v>604.268</v>
       </c>
       <c r="J112" t="n">
-        <v>94921</v>
+        <v>75117</v>
       </c>
       <c r="K112" t="n">
-        <v>2.727</v>
+        <v>2.158</v>
       </c>
       <c r="L112" t="n">
-        <v>85601</v>
+        <v>85424</v>
       </c>
       <c r="M112" t="n">
-        <v>2.459</v>
+        <v>2.454</v>
       </c>
       <c r="N112" t="n">
         <v>0.014</v>
       </c>
       <c r="O112" t="n">
-        <v>73.3</v>
+        <v>71.2</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9239,7 +9231,7 @@
         <v>657</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D113" t="s">
         <v>658</v>
@@ -9249,31 +9241,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H113" t="n">
-        <v>555527</v>
+        <v>562077</v>
       </c>
       <c r="I113" t="n">
-        <v>33.178</v>
+        <v>33.569</v>
       </c>
       <c r="J113" t="n">
-        <v>1347</v>
+        <v>1429</v>
       </c>
       <c r="K113" t="n">
-        <v>0.08</v>
+        <v>0.085</v>
       </c>
       <c r="L113" t="n">
-        <v>1482</v>
+        <v>1500</v>
       </c>
       <c r="M113" t="n">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="N113" t="n">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="O113" t="n">
-        <v>29.1</v>
+        <v>25.4</v>
       </c>
       <c r="P113" t="s">
         <v>659</v>
@@ -9296,7 +9288,7 @@
         <v>662</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D114" t="s">
         <v>663</v>
@@ -9308,31 +9300,31 @@
         <v>664</v>
       </c>
       <c r="G114" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H114" t="n">
-        <v>4311577</v>
+        <v>4343775</v>
       </c>
       <c r="I114" t="n">
-        <v>633.627</v>
+        <v>638.359</v>
       </c>
       <c r="J114" t="n">
-        <v>9187</v>
+        <v>7992</v>
       </c>
       <c r="K114" t="n">
-        <v>1.35</v>
+        <v>1.175</v>
       </c>
       <c r="L114" t="n">
-        <v>8810</v>
+        <v>8766</v>
       </c>
       <c r="M114" t="n">
-        <v>1.295</v>
+        <v>1.288</v>
       </c>
       <c r="N114" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="O114" t="n">
-        <v>62.9</v>
+        <v>74.3</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9408,7 +9400,7 @@
         <v>672</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44363</v>
+        <v>44368</v>
       </c>
       <c r="D116" t="s">
         <v>673</v>
@@ -9418,25 +9410,25 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H116" t="n">
-        <v>39319625</v>
+        <v>39570293</v>
       </c>
       <c r="I116" t="n">
-        <v>7201.867</v>
+        <v>7247.78</v>
       </c>
       <c r="J116" t="n">
-        <v>35330</v>
+        <v>41932</v>
       </c>
       <c r="K116" t="n">
-        <v>6.471</v>
+        <v>7.68</v>
       </c>
       <c r="L116" t="n">
-        <v>52748</v>
+        <v>46623</v>
       </c>
       <c r="M116" t="n">
-        <v>9.661</v>
+        <v>8.54</v>
       </c>
       <c r="N116" t="n">
         <v>0.002</v>
@@ -9465,7 +9457,7 @@
         <v>676</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D117" t="s">
         <v>677</v>
@@ -9475,31 +9467,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H117" t="n">
-        <v>1328531</v>
+        <v>1334817</v>
       </c>
       <c r="I117" t="n">
-        <v>639.045</v>
+        <v>642.069</v>
       </c>
       <c r="J117" t="n">
-        <v>2409</v>
+        <v>2177</v>
       </c>
       <c r="K117" t="n">
-        <v>1.159</v>
+        <v>1.047</v>
       </c>
       <c r="L117" t="n">
-        <v>2117</v>
+        <v>1953</v>
       </c>
       <c r="M117" t="n">
-        <v>1.018</v>
+        <v>0.939</v>
       </c>
       <c r="N117" t="n">
-        <v>0.043</v>
+        <v>0.035</v>
       </c>
       <c r="O117" t="n">
-        <v>23.3</v>
+        <v>28.6</v>
       </c>
       <c r="P117" t="s">
         <v>678</v>
@@ -9522,7 +9514,7 @@
         <v>681</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D118" t="s">
         <v>682</v>
@@ -9534,31 +9526,31 @@
         <v>684</v>
       </c>
       <c r="G118" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H118" t="n">
-        <v>12383955</v>
+        <v>12586342</v>
       </c>
       <c r="I118" t="n">
-        <v>208.805</v>
+        <v>212.218</v>
       </c>
       <c r="J118" t="n">
-        <v>52118</v>
+        <v>36858</v>
       </c>
       <c r="K118" t="n">
-        <v>0.879</v>
+        <v>0.621</v>
       </c>
       <c r="L118" t="n">
-        <v>48555</v>
+        <v>51842</v>
       </c>
       <c r="M118" t="n">
-        <v>0.819</v>
+        <v>0.874</v>
       </c>
       <c r="N118" t="n">
-        <v>0.188</v>
+        <v>0.22</v>
       </c>
       <c r="O118" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="P118" t="s">
         <v>683</v>
@@ -9581,7 +9573,7 @@
         <v>688</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D119" t="s">
         <v>689</v>
@@ -9591,25 +9583,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H119" t="n">
-        <v>10168211</v>
+        <v>10252916</v>
       </c>
       <c r="I119" t="n">
-        <v>198.33</v>
+        <v>199.982</v>
       </c>
       <c r="J119" t="n">
-        <v>31694</v>
+        <v>35302</v>
       </c>
       <c r="K119" t="n">
-        <v>0.618</v>
+        <v>0.689</v>
       </c>
       <c r="L119" t="n">
-        <v>27271</v>
+        <v>25730</v>
       </c>
       <c r="M119" t="n">
-        <v>0.532</v>
+        <v>0.502</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9740,7 +9732,7 @@
         <v>705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D122" t="s">
         <v>706</v>
@@ -9750,31 +9742,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H122" t="n">
-        <v>3818494</v>
+        <v>3893006</v>
       </c>
       <c r="I122" t="n">
-        <v>178.324</v>
+        <v>181.804</v>
       </c>
       <c r="J122" t="n">
-        <v>20128</v>
+        <v>18682</v>
       </c>
       <c r="K122" t="n">
-        <v>0.94</v>
+        <v>0.872</v>
       </c>
       <c r="L122" t="n">
-        <v>18246</v>
+        <v>18302</v>
       </c>
       <c r="M122" t="n">
-        <v>0.852</v>
+        <v>0.855</v>
       </c>
       <c r="N122" t="n">
-        <v>0.133</v>
+        <v>0.124</v>
       </c>
       <c r="O122" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="P122" t="s">
         <v>707</v>
@@ -9850,7 +9842,7 @@
         <v>717</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="D124" t="s">
         <v>441</v>
@@ -9860,31 +9852,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H124" t="n">
-        <v>7640516</v>
+        <v>7716235</v>
       </c>
       <c r="I124" t="n">
-        <v>882.825</v>
+        <v>891.574</v>
       </c>
       <c r="J124" t="n">
-        <v>18002</v>
+        <v>15529</v>
       </c>
       <c r="K124" t="n">
-        <v>2.08</v>
+        <v>1.794</v>
       </c>
       <c r="L124" t="n">
-        <v>19079</v>
+        <v>19895</v>
       </c>
       <c r="M124" t="n">
-        <v>2.204</v>
+        <v>2.299</v>
       </c>
       <c r="N124" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="O124" t="n">
-        <v>66.7</v>
+        <v>90.9</v>
       </c>
       <c r="P124" t="s">
         <v>442</v>
@@ -9907,7 +9899,7 @@
         <v>720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D125" t="s">
         <v>721</v>
@@ -9917,31 +9909,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H125" t="n">
-        <v>1011097</v>
+        <v>1107543</v>
       </c>
       <c r="I125" t="n">
-        <v>42.453</v>
+        <v>46.503</v>
       </c>
       <c r="J125" t="n">
-        <v>28674</v>
+        <v>21335</v>
       </c>
       <c r="K125" t="n">
-        <v>1.204</v>
+        <v>0.896</v>
       </c>
       <c r="L125" t="n">
-        <v>26778</v>
+        <v>26919</v>
       </c>
       <c r="M125" t="n">
-        <v>1.124</v>
+        <v>1.13</v>
       </c>
       <c r="N125" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="O125" t="n">
-        <v>137.6</v>
+        <v>193.5</v>
       </c>
       <c r="P125" t="s">
         <v>722</v>
@@ -9964,7 +9956,7 @@
         <v>725</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44359</v>
+        <v>44366</v>
       </c>
       <c r="D126" t="s">
         <v>726</v>
@@ -9974,25 +9966,25 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H126" t="n">
-        <v>7405990</v>
+        <v>7833796</v>
       </c>
       <c r="I126" t="n">
-        <v>106.103</v>
+        <v>112.232</v>
       </c>
       <c r="J126" t="n">
-        <v>50989</v>
+        <v>61372</v>
       </c>
       <c r="K126" t="n">
-        <v>0.731</v>
+        <v>0.879</v>
       </c>
       <c r="L126" t="n">
-        <v>55599</v>
+        <v>61115</v>
       </c>
       <c r="M126" t="n">
-        <v>0.797</v>
+        <v>0.876</v>
       </c>
       <c r="N126"/>
       <c r="O126"/>
@@ -10017,7 +10009,7 @@
         <v>730</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D127" t="s">
         <v>731</v>
@@ -10176,7 +10168,7 @@
         <v>746</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="D130" t="s">
         <v>747</v>
@@ -10186,32 +10178,28 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H130" t="n">
-        <v>1582787</v>
+        <v>1619741</v>
       </c>
       <c r="I130" t="n">
-        <v>133.923</v>
+        <v>137.05</v>
       </c>
       <c r="J130" t="n">
-        <v>6911</v>
+        <v>8378</v>
       </c>
       <c r="K130" t="n">
-        <v>0.585</v>
+        <v>0.709</v>
       </c>
       <c r="L130" t="n">
-        <v>6995</v>
+        <v>7341</v>
       </c>
       <c r="M130" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="O130" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0.621</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130"/>
       <c r="P130" t="s">
         <v>749</v>
       </c>
@@ -10233,7 +10221,7 @@
         <v>753</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D131" t="s">
         <v>754</v>
@@ -10243,31 +10231,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H131" t="n">
-        <v>57899862</v>
+        <v>58773835</v>
       </c>
       <c r="I131" t="n">
-        <v>686.513</v>
+        <v>696.876</v>
       </c>
       <c r="J131" t="n">
-        <v>225064</v>
+        <v>221052</v>
       </c>
       <c r="K131" t="n">
-        <v>2.669</v>
+        <v>2.621</v>
       </c>
       <c r="L131" t="n">
-        <v>221887</v>
+        <v>221435</v>
       </c>
       <c r="M131" t="n">
-        <v>2.631</v>
+        <v>2.626</v>
       </c>
       <c r="N131" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="O131" t="n">
-        <v>37.8</v>
+        <v>39.2</v>
       </c>
       <c r="P131" t="s">
         <v>755</v>
@@ -10347,7 +10335,7 @@
         <v>765</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D133" t="s">
         <v>766</v>
@@ -10357,25 +10345,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H133" t="n">
-        <v>10629744</v>
+        <v>10690896</v>
       </c>
       <c r="I133" t="n">
-        <v>243.056</v>
+        <v>244.454</v>
       </c>
       <c r="J133" t="n">
-        <v>25888</v>
+        <v>11881</v>
       </c>
       <c r="K133" t="n">
-        <v>0.592</v>
+        <v>0.272</v>
       </c>
       <c r="L133" t="n">
-        <v>24190</v>
+        <v>20342</v>
       </c>
       <c r="M133" t="n">
-        <v>0.553</v>
+        <v>0.465</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10400,7 +10388,7 @@
         <v>771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="D134" t="s">
         <v>772</v>
@@ -10410,32 +10398,28 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H134" t="n">
-        <v>54259480</v>
+        <v>55553623</v>
       </c>
       <c r="I134" t="n">
-        <v>5486.075</v>
+        <v>5616.924</v>
       </c>
       <c r="J134" t="n">
-        <v>243844</v>
+        <v>274675</v>
       </c>
       <c r="K134" t="n">
-        <v>24.655</v>
+        <v>27.772</v>
       </c>
       <c r="L134" t="n">
-        <v>233051</v>
+        <v>252239</v>
       </c>
       <c r="M134" t="n">
-        <v>23.563</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O134" t="n">
-        <v>97.7</v>
-      </c>
+        <v>25.503</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
       <c r="P134" t="s">
         <v>773</v>
       </c>
@@ -10457,7 +10441,7 @@
         <v>776</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D135" t="s">
         <v>777</v>
@@ -10469,31 +10453,31 @@
         <v>779</v>
       </c>
       <c r="G135" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H135" t="n">
-        <v>194738939</v>
+        <v>198576291</v>
       </c>
       <c r="I135" t="n">
-        <v>2868.617</v>
+        <v>2925.143</v>
       </c>
       <c r="J135" t="n">
-        <v>1101741</v>
+        <v>1149112</v>
       </c>
       <c r="K135" t="n">
-        <v>16.229</v>
+        <v>16.927</v>
       </c>
       <c r="L135" t="n">
-        <v>944769</v>
+        <v>985798</v>
       </c>
       <c r="M135" t="n">
-        <v>13.917</v>
+        <v>14.521</v>
       </c>
       <c r="N135" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="O135" t="n">
-        <v>122.2</v>
+        <v>107.3</v>
       </c>
       <c r="P135" t="s">
         <v>778</v>
@@ -10516,7 +10500,7 @@
         <v>783</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="D136" t="s">
         <v>784</v>
@@ -10526,31 +10510,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H136" t="n">
-        <v>459513109</v>
+        <v>461862544</v>
       </c>
       <c r="I136" t="n">
-        <v>1388.246</v>
+        <v>1395.344</v>
       </c>
       <c r="J136" t="n">
-        <v>263123</v>
+        <v>379999</v>
       </c>
       <c r="K136" t="n">
-        <v>0.795</v>
+        <v>1.148</v>
       </c>
       <c r="L136" t="n">
-        <v>515388</v>
+        <v>496530</v>
       </c>
       <c r="M136" t="n">
-        <v>1.557</v>
+        <v>1.5</v>
       </c>
       <c r="N136" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="O136" t="n">
-        <v>41.7</v>
+        <v>45.5</v>
       </c>
       <c r="P136" t="s">
         <v>785</v>
@@ -10573,7 +10557,7 @@
         <v>790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="D137" t="s">
         <v>791</v>
@@ -10583,31 +10567,27 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H137" t="n">
-        <v>2596916</v>
+        <v>2664363</v>
       </c>
       <c r="I137" t="n">
-        <v>747.588</v>
-      </c>
-      <c r="J137" t="n">
-        <v>20249</v>
-      </c>
-      <c r="K137" t="n">
-        <v>5.829</v>
-      </c>
+        <v>767.004</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137" t="n">
-        <v>19315</v>
+        <v>17559</v>
       </c>
       <c r="M137" t="n">
-        <v>5.56</v>
+        <v>5.055</v>
       </c>
       <c r="N137" t="n">
-        <v>0.149</v>
+        <v>0.133</v>
       </c>
       <c r="O137" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="P137" t="s">
         <v>190</v>
@@ -10687,7 +10667,7 @@
         <v>801</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D139" t="s">
         <v>802</v>
@@ -10697,31 +10677,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H139" t="n">
-        <v>1738788</v>
+        <v>1777727</v>
       </c>
       <c r="I139" t="n">
-        <v>94.582</v>
+        <v>96.7</v>
       </c>
       <c r="J139" t="n">
-        <v>16002</v>
+        <v>6369</v>
       </c>
       <c r="K139" t="n">
-        <v>0.87</v>
+        <v>0.346</v>
       </c>
       <c r="L139" t="n">
-        <v>11535</v>
+        <v>11410</v>
       </c>
       <c r="M139" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="N139" t="n">
-        <v>0.202</v>
+        <v>0.219</v>
       </c>
       <c r="O139" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="P139" t="s">
         <v>804</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4043</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4065</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-21-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-24-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-475-new-covid-19-cases-267-recoveries-in-past-24-hours_i_0000131338.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-802-new-covid-19-cases-805-recoveries_i_0000131443.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5706-reporte-458-de-covid-19-3-664-pacientes-recuperados-13-295-pruebas-negativas-y-2-151-088-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5728-reporte-465-de-covid-19-2-270-pacientes-recuperados-11-383-pruebas-negativas-y-2-316-046-dosis-de-vacunas-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-20-de-junho-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-24-de-junho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1929029473929404</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/photos/a.270240923141609/1934778833354468/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=815e057c56</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=478a23d1f8</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -714,7 +714,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-21062021-mr31</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-24062021-51fp</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-13062021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-23062021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1641</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1719</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1009,7 +1009,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210617.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210624.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1164,7 +1164,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/365987</t>
+    <t xml:space="preserve">http://irangov.ir/detail/366192</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1404490524204097537</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1407769831517085697</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1287,7 +1287,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-june-20-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-june-23-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1396,7 +1396,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1405571057885515776</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1407760420820197380</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210621-uq87e7in/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210624-hspb40jj/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4237233829674502/4237225736341978/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4259170380814180/4259157074148844/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-17062021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-24062021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1602,7 +1602,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1405570907574132737</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1408107680397336585</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1623,7 +1623,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/360611895657360/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/365055095213040/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1699,7 +1699,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-16-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1231/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-22-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1238/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1714,7 +1714,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/17.6.21.COVID-19.pdf</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1408090405288173568</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1016:boletim-diario-covid-19-n-456</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1024:boletim-diario-covid-19-n-464</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(17-6-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(24-6-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.764013497604989/764013404271665</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.768035670536105/768035557202783</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1kNQKo4nWMv3WdbQD6EJ2Pjk4G4P4tnO3</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1bSJX0d2H76W5u8qPIJnAgL6GLIjH5Y6z</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-06/COVID-19_WebSite_rapport_wekelijks_20210615_1259_final_correctie.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-06/COVID-19_WebSite_rapport_wekelijks_20210622_1136_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3898802633578919</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3920118901447292</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1974,7 +1974,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1405670593706463234</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1407846706042085376</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2008,7 +2008,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1405683388133093378</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1408211396916125698</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1enojFud59_TjLqRqm0r7VbOg5cq7uQjM?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1UiEPgY9bdSHgNK4eURHKIjDwsN3syPhZ?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1405446366516633603</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1407983081311535109</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_20_iunie_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_25_iunie_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2149,7 +2149,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18150</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18180</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_10_06_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_17_06_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2461,7 +2461,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Public Health's Department of Medical Sciences publishes a complete time series of tests performed in Thailand. Data is available since January 2020.
-We use this time series to collect a time series of tests performed in the country, as well as the positive rate (dividing the 7-day average number of positive results by the 7-day average number of tests).</t>
+We use this time series to collect a time series of tests performed in the country, as well as the positive rate (dividing the 7-day average number of positive results by the 7-day average number of tests).
+As of June 2021, it is unclear according to what definition cases are confirmed, with the number of confirmed cases being sometimes greater than the number of positive tests. Therefore, we currently do not calculate any positive rate for Thailand.</t>
   </si>
   <si>
     <t xml:space="preserve">TLS</t>
@@ -2506,7 +2507,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-758/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-764/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2569,7 +2570,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1405565449656541187</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1408076873696006145</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2679,7 +2680,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-205</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-208</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2739,7 +2740,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1405636903647551488</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1408157426562572293</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3213,7 +3214,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44360</v>
+        <v>44368</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3223,27 +3224,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>194606</v>
+        <v>195713</v>
       </c>
       <c r="I3" t="n">
-        <v>2518.682</v>
+        <v>2533.01</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="M3" t="n">
-        <v>2.33</v>
+        <v>1.786</v>
       </c>
       <c r="N3" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="O3" t="n">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3266,7 +3267,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3311,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3321,31 +3322,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H5" t="n">
-        <v>10724876</v>
+        <v>10832061</v>
       </c>
       <c r="I5" t="n">
-        <v>237.298</v>
+        <v>239.67</v>
       </c>
       <c r="J5" t="n">
-        <v>37195</v>
+        <v>25684</v>
       </c>
       <c r="K5" t="n">
-        <v>0.823</v>
+        <v>0.568</v>
       </c>
       <c r="L5" t="n">
-        <v>33029</v>
+        <v>31716</v>
       </c>
       <c r="M5" t="n">
-        <v>0.731</v>
+        <v>0.702</v>
       </c>
       <c r="N5" t="n">
-        <v>0.246</v>
+        <v>0.233</v>
       </c>
       <c r="O5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3368,7 +3369,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3378,31 +3379,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H6" t="n">
-        <v>1138719</v>
+        <v>1163742</v>
       </c>
       <c r="I6" t="n">
-        <v>384.283</v>
+        <v>392.727</v>
       </c>
       <c r="J6" t="n">
-        <v>3814</v>
+        <v>3452</v>
       </c>
       <c r="K6" t="n">
-        <v>1.287</v>
+        <v>1.165</v>
       </c>
       <c r="L6" t="n">
-        <v>3405</v>
+        <v>3575</v>
       </c>
       <c r="M6" t="n">
-        <v>1.149</v>
+        <v>1.206</v>
       </c>
       <c r="N6" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="O6" t="n">
-        <v>44.1</v>
+        <v>47</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3425,7 +3426,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3435,31 +3436,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H7" t="n">
-        <v>19779231</v>
+        <v>20029252</v>
       </c>
       <c r="I7" t="n">
-        <v>775.66</v>
+        <v>785.465</v>
       </c>
       <c r="J7" t="n">
-        <v>61683</v>
+        <v>95014</v>
       </c>
       <c r="K7" t="n">
-        <v>2.419</v>
+        <v>3.726</v>
       </c>
       <c r="L7" t="n">
-        <v>60741</v>
+        <v>73793</v>
       </c>
       <c r="M7" t="n">
-        <v>2.382</v>
+        <v>2.894</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4571.8</v>
+        <v>4491.6</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3482,7 +3483,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3492,31 +3493,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H8" t="n">
-        <v>51082866</v>
+        <v>52553372</v>
       </c>
       <c r="I8" t="n">
-        <v>5671.841</v>
+        <v>5835.114</v>
       </c>
       <c r="J8" t="n">
-        <v>418937</v>
+        <v>389863</v>
       </c>
       <c r="K8" t="n">
-        <v>46.515</v>
+        <v>43.287</v>
       </c>
       <c r="L8" t="n">
-        <v>419555</v>
+        <v>483645</v>
       </c>
       <c r="M8" t="n">
-        <v>46.584</v>
+        <v>53.7</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3072.1</v>
+        <v>4016</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3539,7 +3540,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3549,31 +3550,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>3680977</v>
+        <v>3706051</v>
       </c>
       <c r="I9" t="n">
-        <v>363.045</v>
+        <v>365.518</v>
       </c>
       <c r="J9" t="n">
-        <v>5115</v>
+        <v>7879</v>
       </c>
       <c r="K9" t="n">
-        <v>0.504</v>
+        <v>0.777</v>
       </c>
       <c r="L9" t="n">
-        <v>8354</v>
+        <v>7568</v>
       </c>
       <c r="M9" t="n">
-        <v>0.824</v>
+        <v>0.746</v>
       </c>
       <c r="N9" t="n">
         <v>0.006</v>
       </c>
       <c r="O9" t="n">
-        <v>179.9</v>
+        <v>157.2</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3596,7 +3597,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3606,25 +3607,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H10" t="n">
-        <v>4924454</v>
+        <v>4964087</v>
       </c>
       <c r="I10" t="n">
-        <v>2894.043</v>
+        <v>2917.335</v>
       </c>
       <c r="J10" t="n">
-        <v>13249</v>
+        <v>12860</v>
       </c>
       <c r="K10" t="n">
-        <v>7.786</v>
+        <v>7.558</v>
       </c>
       <c r="L10" t="n">
-        <v>13247</v>
+        <v>13060</v>
       </c>
       <c r="M10" t="n">
-        <v>7.785</v>
+        <v>7.675</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3649,7 +3650,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3659,31 +3660,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H11" t="n">
-        <v>6340488</v>
+        <v>6422028</v>
       </c>
       <c r="I11" t="n">
-        <v>38.5</v>
+        <v>38.995</v>
       </c>
       <c r="J11" t="n">
-        <v>24057</v>
+        <v>28256</v>
       </c>
       <c r="K11" t="n">
-        <v>0.146</v>
+        <v>0.172</v>
       </c>
       <c r="L11" t="n">
-        <v>22297</v>
+        <v>23668</v>
       </c>
       <c r="M11" t="n">
-        <v>0.135</v>
+        <v>0.144</v>
       </c>
       <c r="N11" t="n">
-        <v>0.169</v>
+        <v>0.192</v>
       </c>
       <c r="O11" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3706,7 +3707,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3716,27 +3717,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H12" t="n">
-        <v>6655621</v>
+        <v>6686521</v>
       </c>
       <c r="I12" t="n">
-        <v>704.349</v>
+        <v>707.619</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>15832</v>
+        <v>15614</v>
       </c>
       <c r="M12" t="n">
-        <v>1.675</v>
+        <v>1.652</v>
       </c>
       <c r="N12" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="O12" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3759,7 +3760,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3769,31 +3770,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H13" t="n">
-        <v>14824282</v>
+        <v>14968450</v>
       </c>
       <c r="I13" t="n">
-        <v>1279.1</v>
+        <v>1291.54</v>
       </c>
       <c r="J13" t="n">
-        <v>20608</v>
+        <v>44777</v>
       </c>
       <c r="K13" t="n">
-        <v>1.778</v>
+        <v>3.864</v>
       </c>
       <c r="L13" t="n">
-        <v>38816</v>
+        <v>38515</v>
       </c>
       <c r="M13" t="n">
-        <v>3.349</v>
+        <v>3.323</v>
       </c>
       <c r="N13" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="O13" t="n">
-        <v>71.4</v>
+        <v>83.3</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3816,7 +3817,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44366</v>
+        <v>44371</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3826,27 +3827,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>145629</v>
+        <v>148799</v>
       </c>
       <c r="I14" t="n">
-        <v>366.251</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
+        <v>374.223</v>
+      </c>
+      <c r="J14" t="n">
+        <v>931</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.341</v>
+      </c>
       <c r="L14" t="n">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="M14" t="n">
-        <v>1.75</v>
+        <v>1.675</v>
       </c>
       <c r="N14" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="O14" t="n">
-        <v>73.8</v>
+        <v>42.4</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3967,7 +3972,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3977,27 +3982,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H17" t="n">
-        <v>1684775</v>
+        <v>1756722</v>
       </c>
       <c r="I17" t="n">
-        <v>144.331</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
+        <v>150.494</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13653</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.17</v>
+      </c>
       <c r="L17" t="n">
-        <v>12821</v>
+        <v>10278</v>
       </c>
       <c r="M17" t="n">
-        <v>1.098</v>
+        <v>0.88</v>
       </c>
       <c r="N17" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="O17" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4020,7 +4029,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4030,27 +4039,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H18" t="n">
-        <v>1016893</v>
+        <v>1021848</v>
       </c>
       <c r="I18" t="n">
-        <v>309.951</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>311.462</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1540</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.469</v>
+      </c>
       <c r="L18" t="n">
-        <v>1702</v>
+        <v>1566</v>
       </c>
       <c r="M18" t="n">
-        <v>0.519</v>
+        <v>0.477</v>
       </c>
       <c r="N18" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="O18" t="n">
-        <v>62.1</v>
+        <v>75.6</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4118,7 +4131,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4128,25 +4141,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H20" t="n">
-        <v>3082674</v>
+        <v>3117849</v>
       </c>
       <c r="I20" t="n">
-        <v>443.649</v>
+        <v>448.712</v>
       </c>
       <c r="J20" t="n">
-        <v>16068</v>
+        <v>9646</v>
       </c>
       <c r="K20" t="n">
-        <v>2.312</v>
+        <v>1.388</v>
       </c>
       <c r="L20" t="n">
-        <v>11778</v>
+        <v>11227</v>
       </c>
       <c r="M20" t="n">
-        <v>1.695</v>
+        <v>1.616</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4171,7 +4184,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -4181,25 +4194,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H21" t="n">
-        <v>1309229</v>
+        <v>1328165</v>
       </c>
       <c r="I21" t="n">
-        <v>78.308</v>
+        <v>79.441</v>
       </c>
       <c r="J21" t="n">
-        <v>5913</v>
+        <v>6966</v>
       </c>
       <c r="K21" t="n">
-        <v>0.354</v>
+        <v>0.417</v>
       </c>
       <c r="L21" t="n">
-        <v>7952</v>
+        <v>7201</v>
       </c>
       <c r="M21" t="n">
-        <v>0.476</v>
+        <v>0.431</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4281,7 +4294,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4291,31 +4304,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H23" t="n">
-        <v>36243642</v>
+        <v>36415725</v>
       </c>
       <c r="I23" t="n">
-        <v>960.296</v>
+        <v>964.855</v>
       </c>
       <c r="J23" t="n">
-        <v>132344</v>
+        <v>70980</v>
       </c>
       <c r="K23" t="n">
-        <v>3.507</v>
+        <v>1.881</v>
       </c>
       <c r="L23" t="n">
-        <v>65454</v>
+        <v>63025</v>
       </c>
       <c r="M23" t="n">
-        <v>1.734</v>
+        <v>1.67</v>
       </c>
       <c r="N23" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="O23" t="n">
-        <v>71.5</v>
+        <v>82.3</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4338,7 +4351,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4348,15 +4361,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>475</v>
+        <v>820</v>
       </c>
       <c r="K24" t="n">
-        <v>0.854</v>
+        <v>1.475</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4383,7 +4396,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4393,25 +4406,25 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H25" t="n">
-        <v>16186004</v>
+        <v>16284119</v>
       </c>
       <c r="I25" t="n">
-        <v>846.716</v>
+        <v>851.849</v>
       </c>
       <c r="J25" t="n">
-        <v>72479</v>
+        <v>35435</v>
       </c>
       <c r="K25" t="n">
-        <v>3.791</v>
+        <v>1.854</v>
       </c>
       <c r="L25" t="n">
-        <v>63027</v>
+        <v>54709</v>
       </c>
       <c r="M25" t="n">
-        <v>3.297</v>
+        <v>2.862</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4481,7 +4494,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4491,31 +4504,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H27" t="n">
-        <v>18880824</v>
+        <v>19238762</v>
       </c>
       <c r="I27" t="n">
-        <v>371.064</v>
+        <v>378.099</v>
       </c>
       <c r="J27" t="n">
-        <v>79665</v>
+        <v>119377</v>
       </c>
       <c r="K27" t="n">
-        <v>1.566</v>
+        <v>2.346</v>
       </c>
       <c r="L27" t="n">
-        <v>96521</v>
+        <v>104057</v>
       </c>
       <c r="M27" t="n">
-        <v>1.897</v>
+        <v>2.045</v>
       </c>
       <c r="N27" t="n">
-        <v>0.339</v>
+        <v>0.331</v>
       </c>
       <c r="O27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4538,7 +4551,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4548,31 +4561,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H28" t="n">
-        <v>1160635</v>
+        <v>1178133</v>
       </c>
       <c r="I28" t="n">
-        <v>227.838</v>
+        <v>231.273</v>
       </c>
       <c r="J28" t="n">
-        <v>7915</v>
+        <v>8157</v>
       </c>
       <c r="K28" t="n">
-        <v>1.554</v>
+        <v>1.601</v>
       </c>
       <c r="L28" t="n">
-        <v>7098</v>
+        <v>7301</v>
       </c>
       <c r="M28" t="n">
-        <v>1.393</v>
+        <v>1.433</v>
       </c>
       <c r="N28" t="n">
-        <v>0.171</v>
+        <v>0.161</v>
       </c>
       <c r="O28" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4595,7 +4608,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4605,31 +4618,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H29" t="n">
-        <v>678807</v>
+        <v>694178</v>
       </c>
       <c r="I29" t="n">
-        <v>25.734</v>
+        <v>26.316</v>
       </c>
       <c r="J29" t="n">
-        <v>1292</v>
+        <v>2025</v>
       </c>
       <c r="K29" t="n">
-        <v>0.049</v>
+        <v>0.077</v>
       </c>
       <c r="L29" t="n">
-        <v>1887</v>
+        <v>2196</v>
       </c>
       <c r="M29" t="n">
-        <v>0.072</v>
+        <v>0.083</v>
       </c>
       <c r="N29" t="n">
-        <v>0.029</v>
+        <v>0.008</v>
       </c>
       <c r="O29" t="n">
-        <v>34.2</v>
+        <v>123</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4652,7 +4665,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4662,32 +4675,28 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H30" t="n">
-        <v>2110485</v>
+        <v>2128519</v>
       </c>
       <c r="I30" t="n">
-        <v>514.092</v>
+        <v>518.485</v>
       </c>
       <c r="J30" t="n">
-        <v>4340</v>
+        <v>4009</v>
       </c>
       <c r="K30" t="n">
-        <v>1.057</v>
+        <v>0.977</v>
       </c>
       <c r="L30" t="n">
-        <v>4538</v>
+        <v>3813</v>
       </c>
       <c r="M30" t="n">
-        <v>1.105</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="O30" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0.929</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>184</v>
       </c>
@@ -4709,7 +4718,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4721,31 +4730,31 @@
         <v>191</v>
       </c>
       <c r="G31" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H31" t="n">
-        <v>4825077</v>
+        <v>4916136</v>
       </c>
       <c r="I31" t="n">
-        <v>425.995</v>
+        <v>434.034</v>
       </c>
       <c r="J31" t="n">
-        <v>29281</v>
+        <v>33471</v>
       </c>
       <c r="K31" t="n">
-        <v>2.585</v>
+        <v>2.955</v>
       </c>
       <c r="L31" t="n">
-        <v>26723</v>
+        <v>31303</v>
       </c>
       <c r="M31" t="n">
-        <v>2.359</v>
+        <v>2.764</v>
       </c>
       <c r="N31" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="O31" t="n">
-        <v>18.5</v>
+        <v>20.1</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4768,7 +4777,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D32" t="s">
         <v>196</v>
@@ -4778,31 +4787,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H32" t="n">
-        <v>7868471</v>
+        <v>7973985</v>
       </c>
       <c r="I32" t="n">
-        <v>8983.309</v>
+        <v>9103.772</v>
       </c>
       <c r="J32" t="n">
-        <v>21250</v>
+        <v>34427</v>
       </c>
       <c r="K32" t="n">
-        <v>24.261</v>
+        <v>39.305</v>
       </c>
       <c r="L32" t="n">
-        <v>33712</v>
+        <v>34356</v>
       </c>
       <c r="M32" t="n">
-        <v>38.488</v>
+        <v>39.224</v>
       </c>
       <c r="N32" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O32" t="n">
-        <v>509.7</v>
+        <v>329.4</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4825,7 +4834,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4835,21 +4844,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>158948</v>
+        <v>129023</v>
       </c>
       <c r="K33" t="n">
-        <v>14.842</v>
+        <v>12.048</v>
       </c>
       <c r="L33" t="n">
-        <v>133503</v>
+        <v>121853</v>
       </c>
       <c r="M33" t="n">
-        <v>12.466</v>
+        <v>11.379</v>
       </c>
       <c r="N33" t="n">
         <v>0.001</v>
@@ -4878,7 +4887,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4888,27 +4897,27 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="n">
-        <v>1009</v>
+        <v>1126</v>
       </c>
       <c r="K34" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="L34" t="n">
-        <v>1886</v>
+        <v>1417</v>
       </c>
       <c r="M34" t="n">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
       <c r="N34" t="n">
-        <v>0.172</v>
+        <v>0.235</v>
       </c>
       <c r="O34" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4931,7 +4940,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44367</v>
+        <v>44369</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4941,31 +4950,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H35" t="n">
-        <v>34540071</v>
+        <v>34727595</v>
       </c>
       <c r="I35" t="n">
-        <v>5963.201</v>
+        <v>5995.576</v>
       </c>
       <c r="J35" t="n">
-        <v>34489</v>
+        <v>70772</v>
       </c>
       <c r="K35" t="n">
-        <v>5.954</v>
+        <v>12.218</v>
       </c>
       <c r="L35" t="n">
-        <v>79058</v>
+        <v>79854</v>
       </c>
       <c r="M35" t="n">
-        <v>13.649</v>
+        <v>13.786</v>
       </c>
       <c r="N35" t="n">
         <v>0.003</v>
       </c>
       <c r="O35" t="n">
-        <v>308.6</v>
+        <v>341.7</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -5041,7 +5050,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44360</v>
+        <v>44370</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5053,31 +5062,31 @@
         <v>224</v>
       </c>
       <c r="G37" t="n">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="H37" t="n">
-        <v>1417925</v>
+        <v>1458030</v>
       </c>
       <c r="I37" t="n">
-        <v>80.367</v>
+        <v>82.64</v>
       </c>
       <c r="J37" t="n">
-        <v>3909</v>
+        <v>8097</v>
       </c>
       <c r="K37" t="n">
-        <v>0.222</v>
+        <v>0.459</v>
       </c>
       <c r="L37" t="n">
-        <v>3613</v>
+        <v>4552</v>
       </c>
       <c r="M37" t="n">
-        <v>0.205</v>
+        <v>0.258</v>
       </c>
       <c r="N37" t="n">
-        <v>0.26</v>
+        <v>0.249</v>
       </c>
       <c r="O37" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P37" t="s">
         <v>225</v>
@@ -5157,7 +5166,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5170,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>154344</v>
+        <v>156103</v>
       </c>
       <c r="I39" t="n">
-        <v>110.011</v>
+        <v>111.265</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -5202,7 +5211,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5212,31 +5221,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H40" t="n">
-        <v>1510633</v>
+        <v>1517538</v>
       </c>
       <c r="I40" t="n">
-        <v>1138.778</v>
+        <v>1143.983</v>
       </c>
       <c r="J40" t="n">
-        <v>3585</v>
+        <v>1968</v>
       </c>
       <c r="K40" t="n">
-        <v>2.703</v>
+        <v>1.484</v>
       </c>
       <c r="L40" t="n">
-        <v>3543</v>
+        <v>2784</v>
       </c>
       <c r="M40" t="n">
-        <v>2.671</v>
+        <v>2.099</v>
       </c>
       <c r="N40" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O40" t="n">
-        <v>88.6</v>
+        <v>96</v>
       </c>
       <c r="P40" t="s">
         <v>243</v>
@@ -5259,7 +5268,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D41" t="s">
         <v>247</v>
@@ -5269,31 +5278,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H41" t="n">
-        <v>2828170</v>
+        <v>2839867</v>
       </c>
       <c r="I41" t="n">
-        <v>24.601</v>
+        <v>24.702</v>
       </c>
       <c r="J41" t="n">
-        <v>3177</v>
+        <v>4525</v>
       </c>
       <c r="K41" t="n">
-        <v>0.028</v>
+        <v>0.039</v>
       </c>
       <c r="L41" t="n">
-        <v>5173</v>
+        <v>4501</v>
       </c>
       <c r="M41" t="n">
-        <v>0.045</v>
+        <v>0.039</v>
       </c>
       <c r="N41" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3</v>
+        <v>38.1</v>
       </c>
       <c r="P41" t="s">
         <v>248</v>
@@ -5373,7 +5382,7 @@
         <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44367</v>
+        <v>44369</v>
       </c>
       <c r="D43" t="s">
         <v>257</v>
@@ -5383,31 +5392,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H43" t="n">
-        <v>5327146</v>
+        <v>5364579</v>
       </c>
       <c r="I43" t="n">
-        <v>961.454</v>
+        <v>968.21</v>
       </c>
       <c r="J43" t="n">
-        <v>4776</v>
+        <v>12081</v>
       </c>
       <c r="K43" t="n">
-        <v>0.862</v>
+        <v>2.18</v>
       </c>
       <c r="L43" t="n">
-        <v>11238</v>
+        <v>11902</v>
       </c>
       <c r="M43" t="n">
-        <v>2.028</v>
+        <v>2.148</v>
       </c>
       <c r="N43" t="n">
         <v>0.007</v>
       </c>
       <c r="O43" t="n">
-        <v>153.3</v>
+        <v>147.2</v>
       </c>
       <c r="P43" t="s">
         <v>259</v>
@@ -5430,7 +5439,7 @@
         <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="D44" t="s">
         <v>263</v>
@@ -5440,27 +5449,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>382425</v>
+        <v>313314</v>
       </c>
       <c r="K44" t="n">
-        <v>5.66</v>
+        <v>4.637</v>
       </c>
       <c r="L44" t="n">
-        <v>259349</v>
+        <v>257756</v>
       </c>
       <c r="M44" t="n">
-        <v>3.839</v>
+        <v>3.815</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="O44" t="n">
-        <v>100</v>
+        <v>111.1</v>
       </c>
       <c r="P44" t="s">
         <v>264</v>
@@ -5483,7 +5492,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5496,10 +5505,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>856066</v>
+        <v>867881</v>
       </c>
       <c r="I45" t="n">
-        <v>384.623</v>
+        <v>389.931</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -5585,7 +5594,7 @@
         <v>279</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D47" t="s">
         <v>280</v>
@@ -5595,27 +5604,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H47" t="n">
-        <v>5466000</v>
+        <v>5652000</v>
       </c>
       <c r="I47" t="n">
-        <v>1370.208</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
+        <v>1416.834</v>
+      </c>
+      <c r="J47" t="n">
+        <v>31000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.771</v>
+      </c>
       <c r="L47" t="n">
-        <v>29571</v>
+        <v>26571</v>
       </c>
       <c r="M47" t="n">
-        <v>7.413</v>
+        <v>6.661</v>
       </c>
       <c r="N47" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="O47" t="n">
-        <v>41.7</v>
+        <v>40.8</v>
       </c>
       <c r="P47" t="s">
         <v>281</v>
@@ -5638,7 +5651,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5648,27 +5661,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" t="n">
-        <v>63021704</v>
+        <v>63743675</v>
       </c>
       <c r="I48" t="n">
-        <v>752.193</v>
+        <v>760.81</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>117568</v>
+        <v>101166</v>
       </c>
       <c r="M48" t="n">
-        <v>1.403</v>
+        <v>1.207</v>
       </c>
       <c r="N48" t="n">
-        <v>0.023</v>
+        <v>0.014</v>
       </c>
       <c r="O48" t="n">
-        <v>43.5</v>
+        <v>71.4</v>
       </c>
       <c r="P48" t="s">
         <v>287</v>
@@ -5691,7 +5704,7 @@
         <v>291</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44359</v>
+        <v>44367</v>
       </c>
       <c r="D49" t="s">
         <v>292</v>
@@ -5701,31 +5714,31 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H49" t="n">
-        <v>1223378</v>
+        <v>1252073</v>
       </c>
       <c r="I49" t="n">
-        <v>39.371</v>
+        <v>40.295</v>
       </c>
       <c r="J49" t="n">
-        <v>4939</v>
+        <v>3521</v>
       </c>
       <c r="K49" t="n">
-        <v>0.159</v>
+        <v>0.113</v>
       </c>
       <c r="L49" t="n">
-        <v>3471</v>
+        <v>3617</v>
       </c>
       <c r="M49" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="N49" t="n">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="O49" t="n">
-        <v>79.7</v>
+        <v>60.3</v>
       </c>
       <c r="P49" t="s">
         <v>294</v>
@@ -5748,7 +5761,7 @@
         <v>297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D50" t="s">
         <v>298</v>
@@ -5758,31 +5771,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H50" t="n">
-        <v>10207626</v>
+        <v>10430875</v>
       </c>
       <c r="I50" t="n">
-        <v>979.331</v>
+        <v>1000.75</v>
       </c>
       <c r="J50" t="n">
-        <v>39311</v>
+        <v>38292</v>
       </c>
       <c r="K50" t="n">
-        <v>3.772</v>
+        <v>3.674</v>
       </c>
       <c r="L50" t="n">
-        <v>36487</v>
+        <v>31893</v>
       </c>
       <c r="M50" t="n">
-        <v>3.501</v>
+        <v>3.06</v>
       </c>
       <c r="N50" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="O50" t="n">
-        <v>62.6</v>
+        <v>84.1</v>
       </c>
       <c r="P50" t="s">
         <v>300</v>
@@ -5805,7 +5818,7 @@
         <v>304</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="D51" t="s">
         <v>305</v>
@@ -5815,31 +5828,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H51" t="n">
-        <v>1519589</v>
+        <v>1558097</v>
       </c>
       <c r="I51" t="n">
-        <v>84.819</v>
+        <v>86.969</v>
       </c>
       <c r="J51" t="n">
-        <v>7063</v>
+        <v>7740</v>
       </c>
       <c r="K51" t="n">
-        <v>0.394</v>
+        <v>0.432</v>
       </c>
       <c r="L51" t="n">
-        <v>5740</v>
+        <v>5626</v>
       </c>
       <c r="M51" t="n">
-        <v>0.32</v>
+        <v>0.314</v>
       </c>
       <c r="N51" t="n">
-        <v>0.237</v>
+        <v>0.242</v>
       </c>
       <c r="O51" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="P51" t="s">
         <v>307</v>
@@ -5862,7 +5875,7 @@
         <v>311</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44362</v>
+        <v>44369</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -5875,18 +5888,18 @@
         <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>18981947</v>
+        <v>19443410</v>
       </c>
       <c r="I52" t="n">
-        <v>2531.943</v>
+        <v>2593.496</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>68148</v>
+        <v>67130</v>
       </c>
       <c r="M52" t="n">
-        <v>9.09</v>
+        <v>8.954</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5915,7 +5928,7 @@
         <v>318</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="D53" t="s">
         <v>319</v>
@@ -5927,32 +5940,28 @@
         <v>321</v>
       </c>
       <c r="G53" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H53" t="n">
-        <v>5607652</v>
+        <v>5643579</v>
       </c>
       <c r="I53" t="n">
-        <v>580.481</v>
+        <v>584.2</v>
       </c>
       <c r="J53" t="n">
-        <v>24969</v>
+        <v>11167</v>
       </c>
       <c r="K53" t="n">
-        <v>2.585</v>
+        <v>1.156</v>
       </c>
       <c r="L53" t="n">
-        <v>9617</v>
+        <v>8699</v>
       </c>
       <c r="M53" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="O53" t="n">
-        <v>115.1</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>320</v>
       </c>
@@ -6027,7 +6036,7 @@
         <v>330</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D55" t="s">
         <v>331</v>
@@ -6039,25 +6048,25 @@
         <v>333</v>
       </c>
       <c r="G55" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H55" t="n">
-        <v>394072142</v>
+        <v>399568448</v>
       </c>
       <c r="I55" t="n">
-        <v>285.559</v>
+        <v>289.541</v>
       </c>
       <c r="J55" t="n">
-        <v>1664360</v>
+        <v>1735781</v>
       </c>
       <c r="K55" t="n">
-        <v>1.206</v>
+        <v>1.258</v>
       </c>
       <c r="L55" t="n">
-        <v>1813737</v>
+        <v>1771536</v>
       </c>
       <c r="M55" t="n">
-        <v>1.314</v>
+        <v>1.284</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6082,7 +6091,7 @@
         <v>336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="D56" t="s">
         <v>337</v>
@@ -6092,31 +6101,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H56" t="n">
-        <v>12533392</v>
+        <v>12678525</v>
       </c>
       <c r="I56" t="n">
-        <v>45.822</v>
+        <v>46.353</v>
       </c>
       <c r="J56" t="n">
-        <v>62361</v>
+        <v>74391</v>
       </c>
       <c r="K56" t="n">
-        <v>0.228</v>
+        <v>0.272</v>
       </c>
       <c r="L56" t="n">
-        <v>64650</v>
+        <v>70922</v>
       </c>
       <c r="M56" t="n">
-        <v>0.236</v>
+        <v>0.259</v>
       </c>
       <c r="N56" t="n">
-        <v>0.188</v>
+        <v>0.193</v>
       </c>
       <c r="O56" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="P56" t="s">
         <v>338</v>
@@ -6139,7 +6148,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6149,28 +6158,24 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H57" t="n">
-        <v>22573637</v>
+        <v>23067205</v>
       </c>
       <c r="I57" t="n">
-        <v>268.756</v>
+        <v>274.633</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>125896</v>
+        <v>124680</v>
       </c>
       <c r="M57" t="n">
-        <v>1.499</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="O57" t="n">
-        <v>13.3</v>
-      </c>
+        <v>1.484</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
         <v>344</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44361</v>
+        <v>44370</v>
       </c>
       <c r="D58" t="s">
         <v>349</v>
@@ -6202,31 +6207,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H58" t="n">
-        <v>11014936</v>
+        <v>11414059</v>
       </c>
       <c r="I58" t="n">
-        <v>273.85</v>
+        <v>283.773</v>
       </c>
       <c r="J58" t="n">
-        <v>44808</v>
+        <v>49330</v>
       </c>
       <c r="K58" t="n">
-        <v>1.114</v>
+        <v>1.226</v>
       </c>
       <c r="L58" t="n">
-        <v>42171</v>
+        <v>43499</v>
       </c>
       <c r="M58" t="n">
-        <v>1.048</v>
+        <v>1.081</v>
       </c>
       <c r="N58" t="n">
-        <v>0.104</v>
+        <v>0.117</v>
       </c>
       <c r="O58" t="n">
-        <v>9.7</v>
+        <v>8.6</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6306,7 +6311,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6316,32 +6321,28 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H60" t="n">
-        <v>17426307</v>
+        <v>17580708</v>
       </c>
       <c r="I60" t="n">
-        <v>2013.312</v>
+        <v>2031.151</v>
       </c>
       <c r="J60" t="n">
-        <v>49044</v>
+        <v>20901</v>
       </c>
       <c r="K60" t="n">
-        <v>5.666</v>
+        <v>2.415</v>
       </c>
       <c r="L60" t="n">
-        <v>28924</v>
+        <v>36466</v>
       </c>
       <c r="M60" t="n">
-        <v>3.342</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O60" t="n">
-        <v>674.9</v>
-      </c>
+        <v>4.213</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
         <v>36</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>367</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="D61" t="s">
         <v>368</v>
@@ -6375,31 +6376,31 @@
         <v>370</v>
       </c>
       <c r="G61" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H61" t="n">
-        <v>29161438</v>
+        <v>29259826</v>
       </c>
       <c r="I61" t="n">
-        <v>482.312</v>
+        <v>483.939</v>
       </c>
       <c r="J61" t="n">
-        <v>21721</v>
+        <v>49813</v>
       </c>
       <c r="K61" t="n">
-        <v>0.359</v>
+        <v>0.824</v>
       </c>
       <c r="L61" t="n">
-        <v>45722</v>
+        <v>44895</v>
       </c>
       <c r="M61" t="n">
-        <v>0.756</v>
+        <v>0.743</v>
       </c>
       <c r="N61" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="O61" t="n">
-        <v>41.7</v>
+        <v>44.9</v>
       </c>
       <c r="P61" t="s">
         <v>371</v>
@@ -6422,7 +6423,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6434,31 +6435,31 @@
         <v>370</v>
       </c>
       <c r="G62" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H62" t="n">
-        <v>69997973</v>
+        <v>70577077</v>
       </c>
       <c r="I62" t="n">
-        <v>1157.722</v>
+        <v>1167.3</v>
       </c>
       <c r="J62" t="n">
-        <v>81752</v>
+        <v>188191</v>
       </c>
       <c r="K62" t="n">
-        <v>1.352</v>
+        <v>3.113</v>
       </c>
       <c r="L62" t="n">
-        <v>187783</v>
+        <v>182485</v>
       </c>
       <c r="M62" t="n">
-        <v>3.106</v>
+        <v>3.018</v>
       </c>
       <c r="N62" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O62" t="n">
-        <v>171.1</v>
+        <v>214.9</v>
       </c>
       <c r="P62" t="s">
         <v>371</v>
@@ -6481,7 +6482,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6491,31 +6492,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H63" t="n">
-        <v>423182</v>
+        <v>429551</v>
       </c>
       <c r="I63" t="n">
-        <v>142.911</v>
+        <v>145.062</v>
       </c>
       <c r="J63" t="n">
-        <v>2083</v>
+        <v>2612</v>
       </c>
       <c r="K63" t="n">
-        <v>0.703</v>
+        <v>0.882</v>
       </c>
       <c r="L63" t="n">
-        <v>2193</v>
+        <v>2306</v>
       </c>
       <c r="M63" t="n">
-        <v>0.741</v>
+        <v>0.779</v>
       </c>
       <c r="N63" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="O63" t="n">
-        <v>39.3</v>
+        <v>44.1</v>
       </c>
       <c r="P63" t="s">
         <v>379</v>
@@ -6538,7 +6539,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6548,31 +6549,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H64" t="n">
-        <v>15127598</v>
+        <v>15302980</v>
       </c>
       <c r="I64" t="n">
-        <v>119.608</v>
+        <v>120.995</v>
       </c>
       <c r="J64" t="n">
-        <v>58844</v>
+        <v>60420</v>
       </c>
       <c r="K64" t="n">
-        <v>0.465</v>
+        <v>0.478</v>
       </c>
       <c r="L64" t="n">
-        <v>57155</v>
+        <v>53952</v>
       </c>
       <c r="M64" t="n">
-        <v>0.452</v>
+        <v>0.427</v>
       </c>
       <c r="N64" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="O64" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P64" t="s">
         <v>385</v>
@@ -6595,7 +6596,7 @@
         <v>389</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D65" t="s">
         <v>390</v>
@@ -6605,31 +6606,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H65" t="n">
-        <v>7628372</v>
+        <v>7758637</v>
       </c>
       <c r="I65" t="n">
-        <v>747.649</v>
+        <v>760.417</v>
       </c>
       <c r="J65" t="n">
-        <v>21212</v>
+        <v>19553</v>
       </c>
       <c r="K65" t="n">
-        <v>2.079</v>
+        <v>1.916</v>
       </c>
       <c r="L65" t="n">
-        <v>19334</v>
+        <v>18609</v>
       </c>
       <c r="M65" t="n">
-        <v>1.895</v>
+        <v>1.824</v>
       </c>
       <c r="N65" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="O65" t="n">
-        <v>42.5</v>
+        <v>39.2</v>
       </c>
       <c r="P65" t="s">
         <v>391</v>
@@ -6652,7 +6653,7 @@
         <v>395</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="D66" t="s">
         <v>396</v>
@@ -6662,31 +6663,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="H66" t="n">
-        <v>11528771</v>
+        <v>11965068</v>
       </c>
       <c r="I66" t="n">
-        <v>613.993</v>
+        <v>637.229</v>
       </c>
       <c r="J66" t="n">
-        <v>148586</v>
+        <v>52729</v>
       </c>
       <c r="K66" t="n">
-        <v>7.913</v>
+        <v>2.808</v>
       </c>
       <c r="L66" t="n">
-        <v>58251</v>
+        <v>39955</v>
       </c>
       <c r="M66" t="n">
-        <v>3.102</v>
+        <v>2.128</v>
       </c>
       <c r="N66" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="O66" t="n">
-        <v>29.5</v>
+        <v>33.4</v>
       </c>
       <c r="P66" t="s">
         <v>397</v>
@@ -6762,7 +6763,7 @@
         <v>405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44364</v>
+        <v>44369</v>
       </c>
       <c r="D68" t="s">
         <v>406</v>
@@ -6772,31 +6773,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H68" t="n">
-        <v>650181</v>
+        <v>661107</v>
       </c>
       <c r="I68" t="n">
-        <v>336.398</v>
+        <v>342.051</v>
       </c>
       <c r="J68" t="n">
-        <v>1848</v>
+        <v>3585</v>
       </c>
       <c r="K68" t="n">
-        <v>0.956</v>
+        <v>1.855</v>
       </c>
       <c r="L68" t="n">
-        <v>1941</v>
+        <v>2105</v>
       </c>
       <c r="M68" t="n">
-        <v>1.004</v>
+        <v>1.089</v>
       </c>
       <c r="N68" t="n">
         <v>0.005</v>
       </c>
       <c r="O68" t="n">
-        <v>202.8</v>
+        <v>204.6</v>
       </c>
       <c r="P68" t="s">
         <v>408</v>
@@ -6819,7 +6820,7 @@
         <v>411</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44364</v>
+        <v>44370</v>
       </c>
       <c r="D69" t="s">
         <v>412</v>
@@ -6829,31 +6830,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H69" t="n">
-        <v>2800861</v>
+        <v>2879549</v>
       </c>
       <c r="I69" t="n">
-        <v>655.853</v>
+        <v>674.279</v>
       </c>
       <c r="J69" t="n">
-        <v>12448</v>
+        <v>14678</v>
       </c>
       <c r="K69" t="n">
-        <v>2.915</v>
+        <v>3.437</v>
       </c>
       <c r="L69" t="n">
-        <v>11895</v>
+        <v>13019</v>
       </c>
       <c r="M69" t="n">
-        <v>2.785</v>
+        <v>3.049</v>
       </c>
       <c r="N69" t="n">
-        <v>0.13</v>
+        <v>0.134</v>
       </c>
       <c r="O69" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="P69" t="s">
         <v>413</v>
@@ -6876,7 +6877,7 @@
         <v>417</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="D70" t="s">
         <v>418</v>
@@ -6886,32 +6887,28 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H70" t="n">
-        <v>284191</v>
+        <v>289377</v>
       </c>
       <c r="I70" t="n">
-        <v>39.061</v>
+        <v>39.774</v>
       </c>
       <c r="J70" t="n">
-        <v>911</v>
+        <v>1159</v>
       </c>
       <c r="K70" t="n">
-        <v>0.125</v>
+        <v>0.159</v>
       </c>
       <c r="L70" t="n">
-        <v>1571</v>
+        <v>1338</v>
       </c>
       <c r="M70" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O70" t="n">
-        <v>249.9</v>
-      </c>
+        <v>0.184</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
         <v>419</v>
       </c>
@@ -6933,7 +6930,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6945,25 +6942,25 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H71" t="n">
-        <v>2807205</v>
+        <v>2817641</v>
       </c>
       <c r="I71" t="n">
-        <v>1488.284</v>
+        <v>1493.817</v>
       </c>
       <c r="J71" t="n">
-        <v>8333</v>
+        <v>2361</v>
       </c>
       <c r="K71" t="n">
-        <v>4.418</v>
+        <v>1.252</v>
       </c>
       <c r="L71" t="n">
-        <v>7645</v>
+        <v>5047</v>
       </c>
       <c r="M71" t="n">
-        <v>4.053</v>
+        <v>2.676</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
@@ -6988,7 +6985,7 @@
         <v>429</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44361</v>
+        <v>44370</v>
       </c>
       <c r="D72" t="s">
         <v>430</v>
@@ -6998,21 +6995,21 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H72" t="n">
-        <v>4599186</v>
+        <v>4731376</v>
       </c>
       <c r="I72" t="n">
-        <v>673.83</v>
+        <v>693.197</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>12245</v>
+        <v>14688</v>
       </c>
       <c r="M72" t="n">
-        <v>1.794</v>
+        <v>2.152</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -7037,7 +7034,7 @@
         <v>434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44367</v>
+        <v>44371</v>
       </c>
       <c r="D73" t="s">
         <v>435</v>
@@ -7047,15 +7044,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>3378</v>
+        <v>4506</v>
       </c>
       <c r="K73" t="n">
-        <v>0.492</v>
+        <v>0.656</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7082,7 +7079,7 @@
         <v>440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="D74" t="s">
         <v>441</v>
@@ -7092,31 +7089,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H74" t="n">
-        <v>49926</v>
+        <v>50320</v>
       </c>
       <c r="I74" t="n">
-        <v>1309.122</v>
+        <v>1319.454</v>
       </c>
       <c r="J74" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K74" t="n">
-        <v>2.229</v>
+        <v>1.468</v>
       </c>
       <c r="L74" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M74" t="n">
-        <v>3.383</v>
+        <v>3.147</v>
       </c>
       <c r="N74" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="O74" t="n">
-        <v>111.1</v>
+        <v>83.3</v>
       </c>
       <c r="P74" t="s">
         <v>442</v>
@@ -7139,7 +7136,7 @@
         <v>446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="D75" t="s">
         <v>447</v>
@@ -7149,31 +7146,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H75" t="n">
-        <v>3788985</v>
+        <v>3825057</v>
       </c>
       <c r="I75" t="n">
-        <v>1391.837</v>
+        <v>1405.087</v>
       </c>
       <c r="J75" t="n">
-        <v>11650</v>
+        <v>10384</v>
       </c>
       <c r="K75" t="n">
-        <v>4.279</v>
+        <v>3.814</v>
       </c>
       <c r="L75" t="n">
-        <v>12291</v>
+        <v>10529</v>
       </c>
       <c r="M75" t="n">
-        <v>4.515</v>
+        <v>3.868</v>
       </c>
       <c r="N75" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="O75" t="n">
-        <v>90.9</v>
+        <v>125</v>
       </c>
       <c r="P75" t="s">
         <v>448</v>
@@ -7196,7 +7193,7 @@
         <v>451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="D76" t="s">
         <v>452</v>
@@ -7206,31 +7203,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H76" t="n">
-        <v>3034270</v>
+        <v>3050927</v>
       </c>
       <c r="I76" t="n">
-        <v>4847.263</v>
+        <v>4873.872</v>
       </c>
       <c r="J76" t="n">
-        <v>5674</v>
+        <v>8855</v>
       </c>
       <c r="K76" t="n">
-        <v>9.064</v>
+        <v>14.146</v>
       </c>
       <c r="L76" t="n">
-        <v>6628</v>
+        <v>6871</v>
       </c>
       <c r="M76" t="n">
-        <v>10.588</v>
+        <v>10.976</v>
       </c>
       <c r="N76" t="n">
         <v>0.002</v>
       </c>
       <c r="O76" t="n">
-        <v>421.8</v>
+        <v>593.8</v>
       </c>
       <c r="P76" t="s">
         <v>453</v>
@@ -7253,7 +7250,7 @@
         <v>456</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44362</v>
+        <v>44370</v>
       </c>
       <c r="D77" t="s">
         <v>457</v>
@@ -7263,31 +7260,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H77" t="n">
-        <v>210637</v>
+        <v>213591</v>
       </c>
       <c r="I77" t="n">
-        <v>7.607</v>
+        <v>7.713</v>
       </c>
       <c r="J77" t="n">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="K77" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="L77" t="n">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="M77" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="O77" t="n">
-        <v>16.7</v>
+        <v>16.1</v>
       </c>
       <c r="P77" t="s">
         <v>458</v>
@@ -7310,7 +7307,7 @@
         <v>462</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="D78" t="s">
         <v>463</v>
@@ -7320,28 +7317,20 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H78" t="n">
-        <v>356134</v>
+        <v>260001</v>
       </c>
       <c r="I78" t="n">
-        <v>18.617</v>
+        <v>13.591</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="L78" t="n">
-        <v>1570</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O78" t="n">
-        <v>180.2</v>
-      </c>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
       <c r="P78" t="s">
         <v>464</v>
       </c>
@@ -7363,7 +7352,7 @@
         <v>468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D79" t="s">
         <v>469</v>
@@ -7373,31 +7362,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H79" t="n">
-        <v>13604929</v>
+        <v>14127888</v>
       </c>
       <c r="I79" t="n">
-        <v>420.346</v>
+        <v>436.504</v>
       </c>
       <c r="J79" t="n">
-        <v>82369</v>
+        <v>74542</v>
       </c>
       <c r="K79" t="n">
-        <v>2.545</v>
+        <v>2.303</v>
       </c>
       <c r="L79" t="n">
-        <v>83527</v>
+        <v>74708</v>
       </c>
       <c r="M79" t="n">
-        <v>2.581</v>
+        <v>2.308</v>
       </c>
       <c r="N79" t="n">
-        <v>0.067</v>
+        <v>0.073</v>
       </c>
       <c r="O79" t="n">
-        <v>14.9</v>
+        <v>13.7</v>
       </c>
       <c r="P79" t="s">
         <v>36</v>
@@ -7420,7 +7409,7 @@
         <v>474</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D80" t="s">
         <v>475</v>
@@ -7430,31 +7419,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H80" t="n">
-        <v>962500</v>
+        <v>994374</v>
       </c>
       <c r="I80" t="n">
-        <v>1780.62</v>
+        <v>1839.587</v>
       </c>
       <c r="J80" t="n">
-        <v>4247</v>
+        <v>4959</v>
       </c>
       <c r="K80" t="n">
-        <v>7.857</v>
+        <v>9.174</v>
       </c>
       <c r="L80" t="n">
-        <v>4547</v>
+        <v>4553</v>
       </c>
       <c r="M80" t="n">
-        <v>8.412</v>
+        <v>8.423</v>
       </c>
       <c r="N80" t="n">
-        <v>0.057</v>
+        <v>0.041</v>
       </c>
       <c r="O80" t="n">
-        <v>17.5</v>
+        <v>24.1</v>
       </c>
       <c r="P80" t="s">
         <v>476</v>
@@ -7477,7 +7466,7 @@
         <v>480</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D81" t="s">
         <v>481</v>
@@ -7487,31 +7476,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H81" t="n">
-        <v>959419</v>
+        <v>971975</v>
       </c>
       <c r="I81" t="n">
-        <v>2172.898</v>
+        <v>2201.334</v>
       </c>
       <c r="J81" t="n">
-        <v>1978</v>
+        <v>2271</v>
       </c>
       <c r="K81" t="n">
-        <v>4.48</v>
+        <v>5.143</v>
       </c>
       <c r="L81" t="n">
-        <v>1665</v>
+        <v>1794</v>
       </c>
       <c r="M81" t="n">
-        <v>3.771</v>
+        <v>4.063</v>
       </c>
       <c r="N81" t="n">
         <v>0.001</v>
       </c>
       <c r="O81" t="n">
-        <v>1456.7</v>
+        <v>966.1</v>
       </c>
       <c r="P81" t="s">
         <v>482</v>
@@ -7583,7 +7572,7 @@
         <v>492</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D83" t="s">
         <v>493</v>
@@ -7593,31 +7582,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H83" t="n">
-        <v>6903487</v>
+        <v>6963371</v>
       </c>
       <c r="I83" t="n">
-        <v>53.543</v>
+        <v>54.008</v>
       </c>
       <c r="J83" t="n">
-        <v>1690</v>
+        <v>9027</v>
       </c>
       <c r="K83" t="n">
-        <v>0.013</v>
+        <v>0.07</v>
       </c>
       <c r="L83" t="n">
-        <v>11212</v>
+        <v>11776</v>
       </c>
       <c r="M83" t="n">
-        <v>0.087</v>
+        <v>0.091</v>
       </c>
       <c r="N83" t="n">
-        <v>0.23</v>
+        <v>0.245</v>
       </c>
       <c r="O83" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="P83" t="s">
         <v>495</v>
@@ -7640,7 +7629,7 @@
         <v>498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D84" t="s">
         <v>499</v>
@@ -7650,21 +7639,21 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>1212930</v>
+        <v>1227308</v>
       </c>
       <c r="I84" t="n">
-        <v>300.68</v>
+        <v>304.244</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>4498</v>
+        <v>4930</v>
       </c>
       <c r="M84" t="n">
-        <v>1.115</v>
+        <v>1.222</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -7689,7 +7678,7 @@
         <v>503</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44363</v>
+        <v>44369</v>
       </c>
       <c r="D85" t="s">
         <v>504</v>
@@ -7699,31 +7688,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H85" t="n">
-        <v>3097091</v>
+        <v>3166892</v>
       </c>
       <c r="I85" t="n">
-        <v>944.727</v>
+        <v>966.019</v>
       </c>
       <c r="J85" t="n">
-        <v>13673</v>
+        <v>11765</v>
       </c>
       <c r="K85" t="n">
-        <v>4.171</v>
+        <v>3.589</v>
       </c>
       <c r="L85" t="n">
-        <v>11250</v>
+        <v>11925</v>
       </c>
       <c r="M85" t="n">
-        <v>3.432</v>
+        <v>3.638</v>
       </c>
       <c r="N85" t="n">
-        <v>0.213</v>
+        <v>0.179</v>
       </c>
       <c r="O85" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="P85" t="s">
         <v>36</v>
@@ -7746,7 +7735,7 @@
         <v>508</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D86" t="s">
         <v>509</v>
@@ -7756,31 +7745,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H86" t="n">
-        <v>6150869</v>
+        <v>6230211</v>
       </c>
       <c r="I86" t="n">
-        <v>166.643</v>
+        <v>168.792</v>
       </c>
       <c r="J86" t="n">
-        <v>13852</v>
+        <v>12423</v>
       </c>
       <c r="K86" t="n">
-        <v>0.375</v>
+        <v>0.337</v>
       </c>
       <c r="L86" t="n">
-        <v>10136</v>
+        <v>11335</v>
       </c>
       <c r="M86" t="n">
-        <v>0.275</v>
+        <v>0.307</v>
       </c>
       <c r="N86" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="O86" t="n">
-        <v>26.5</v>
+        <v>29</v>
       </c>
       <c r="P86" t="s">
         <v>510</v>
@@ -7803,7 +7792,7 @@
         <v>514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="D87" t="s">
         <v>515</v>
@@ -7813,31 +7802,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H87" t="n">
-        <v>571002</v>
+        <v>583387</v>
       </c>
       <c r="I87" t="n">
-        <v>18.269</v>
+        <v>18.665</v>
       </c>
       <c r="J87" t="n">
-        <v>1319</v>
+        <v>1947</v>
       </c>
       <c r="K87" t="n">
-        <v>0.042</v>
+        <v>0.062</v>
       </c>
       <c r="L87" t="n">
-        <v>1099</v>
+        <v>1531</v>
       </c>
       <c r="M87" t="n">
-        <v>0.035</v>
+        <v>0.049</v>
       </c>
       <c r="N87" t="n">
-        <v>0.068</v>
+        <v>0.161</v>
       </c>
       <c r="O87" t="n">
-        <v>14.7</v>
+        <v>6.2</v>
       </c>
       <c r="P87" t="s">
         <v>516</v>
@@ -7860,7 +7849,7 @@
         <v>520</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D88" t="s">
         <v>521</v>
@@ -7870,31 +7859,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H88" t="n">
-        <v>2661984</v>
+        <v>2695546</v>
       </c>
       <c r="I88" t="n">
-        <v>48.925</v>
+        <v>49.542</v>
       </c>
       <c r="J88" t="n">
-        <v>4176</v>
+        <v>5754</v>
       </c>
       <c r="K88" t="n">
-        <v>0.077</v>
+        <v>0.106</v>
       </c>
       <c r="L88" t="n">
-        <v>3264</v>
+        <v>4795</v>
       </c>
       <c r="M88" t="n">
-        <v>0.06</v>
+        <v>0.088</v>
       </c>
       <c r="N88" t="n">
-        <v>0.083</v>
+        <v>0.118</v>
       </c>
       <c r="O88" t="n">
-        <v>12.1</v>
+        <v>8.5</v>
       </c>
       <c r="P88" t="s">
         <v>522</v>
@@ -7917,7 +7906,7 @@
         <v>526</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44363</v>
+        <v>44370</v>
       </c>
       <c r="D89" t="s">
         <v>527</v>
@@ -7927,31 +7916,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H89" t="n">
-        <v>479290</v>
+        <v>504284</v>
       </c>
       <c r="I89" t="n">
-        <v>188.629</v>
+        <v>198.465</v>
       </c>
       <c r="J89" t="n">
-        <v>5833</v>
+        <v>3653</v>
       </c>
       <c r="K89" t="n">
-        <v>2.296</v>
+        <v>1.438</v>
       </c>
       <c r="L89" t="n">
-        <v>3512</v>
+        <v>3571</v>
       </c>
       <c r="M89" t="n">
-        <v>1.382</v>
+        <v>1.405</v>
       </c>
       <c r="N89" t="n">
-        <v>0.357</v>
+        <v>0.33</v>
       </c>
       <c r="O89" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P89" t="s">
         <v>529</v>
@@ -7974,7 +7963,7 @@
         <v>533</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D90" t="s">
         <v>534</v>
@@ -7984,28 +7973,28 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H90" t="n">
-        <v>3248010</v>
+        <v>3302749</v>
       </c>
       <c r="I90" t="n">
-        <v>111.474</v>
+        <v>113.353</v>
       </c>
       <c r="J90" t="n">
-        <v>7711</v>
+        <v>7235</v>
       </c>
       <c r="K90" t="n">
-        <v>0.265</v>
+        <v>0.248</v>
       </c>
       <c r="L90" t="n">
-        <v>8415</v>
+        <v>7820</v>
       </c>
       <c r="M90" t="n">
-        <v>0.289</v>
+        <v>0.268</v>
       </c>
       <c r="N90" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="O90" t="n">
         <v>4.1</v>
@@ -8031,7 +8020,7 @@
         <v>539</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="D91" t="s">
         <v>540</v>
@@ -8041,27 +8030,27 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H91" t="n">
-        <v>10250498</v>
+        <v>10358795</v>
       </c>
       <c r="I91" t="n">
-        <v>598.224</v>
+        <v>604.545</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>19766</v>
+        <v>13329</v>
       </c>
       <c r="M91" t="n">
-        <v>1.154</v>
+        <v>0.778</v>
       </c>
       <c r="N91" t="n">
-        <v>0.042</v>
+        <v>0.031</v>
       </c>
       <c r="O91" t="n">
-        <v>23.8</v>
+        <v>32.3</v>
       </c>
       <c r="P91" t="s">
         <v>542</v>
@@ -8084,7 +8073,7 @@
         <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D92" t="s">
         <v>547</v>
@@ -8094,25 +8083,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H92" t="n">
-        <v>2229592</v>
+        <v>2253275</v>
       </c>
       <c r="I92" t="n">
-        <v>462.357</v>
+        <v>467.268</v>
       </c>
       <c r="J92" t="n">
-        <v>2858</v>
+        <v>10753</v>
       </c>
       <c r="K92" t="n">
-        <v>0.593</v>
+        <v>2.23</v>
       </c>
       <c r="L92" t="n">
-        <v>4207</v>
+        <v>5273</v>
       </c>
       <c r="M92" t="n">
-        <v>0.872</v>
+        <v>1.093</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8190,7 +8179,7 @@
         <v>557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="D94" t="s">
         <v>558</v>
@@ -8200,27 +8189,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H94" t="n">
-        <v>847723</v>
+        <v>858615</v>
       </c>
       <c r="I94" t="n">
-        <v>406.898</v>
+        <v>412.126</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>3017</v>
+        <v>2986</v>
       </c>
       <c r="M94" t="n">
-        <v>1.448</v>
+        <v>1.433</v>
       </c>
       <c r="N94" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O94" t="n">
-        <v>240</v>
+        <v>337.1</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8243,7 +8232,7 @@
         <v>562</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="D95" t="s">
         <v>563</v>
@@ -8253,31 +8242,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H95" t="n">
-        <v>5994659</v>
+        <v>6040262</v>
       </c>
       <c r="I95" t="n">
-        <v>1105.772</v>
+        <v>1114.184</v>
       </c>
       <c r="J95" t="n">
-        <v>8440</v>
+        <v>15784</v>
       </c>
       <c r="K95" t="n">
-        <v>1.557</v>
+        <v>2.912</v>
       </c>
       <c r="L95" t="n">
-        <v>15415</v>
+        <v>15092</v>
       </c>
       <c r="M95" t="n">
-        <v>2.843</v>
+        <v>2.784</v>
       </c>
       <c r="N95" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O95" t="n">
-        <v>87.1</v>
+        <v>83.4</v>
       </c>
       <c r="P95" t="s">
         <v>564</v>
@@ -8345,7 +8334,7 @@
         <v>573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D97" t="s">
         <v>574</v>
@@ -8355,25 +8344,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H97" t="n">
-        <v>14187441</v>
+        <v>14325008</v>
       </c>
       <c r="I97" t="n">
-        <v>64.228</v>
+        <v>64.851</v>
       </c>
       <c r="J97" t="n">
-        <v>39017</v>
+        <v>45924</v>
       </c>
       <c r="K97" t="n">
-        <v>0.177</v>
+        <v>0.208</v>
       </c>
       <c r="L97" t="n">
-        <v>42165</v>
+        <v>42667</v>
       </c>
       <c r="M97" t="n">
-        <v>0.191</v>
+        <v>0.193</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8398,7 +8387,7 @@
         <v>578</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="D98" t="s">
         <v>579</v>
@@ -8406,27 +8395,27 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>2658</v>
+        <v>2601</v>
       </c>
       <c r="K98" t="n">
-        <v>0.521</v>
+        <v>0.51</v>
       </c>
       <c r="L98" t="n">
-        <v>2356</v>
+        <v>2445</v>
       </c>
       <c r="M98" t="n">
-        <v>0.462</v>
+        <v>0.479</v>
       </c>
       <c r="N98" t="n">
-        <v>0.098</v>
+        <v>0.04</v>
       </c>
       <c r="O98" t="n">
-        <v>10.2</v>
+        <v>25.1</v>
       </c>
       <c r="P98" t="s">
         <v>580</v>
@@ -8449,7 +8438,7 @@
         <v>584</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44364</v>
+        <v>44370</v>
       </c>
       <c r="D99" t="s">
         <v>585</v>
@@ -8459,31 +8448,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H99" t="n">
-        <v>2840072</v>
+        <v>2908676</v>
       </c>
       <c r="I99" t="n">
-        <v>658.221</v>
+        <v>674.121</v>
       </c>
       <c r="J99" t="n">
-        <v>12298</v>
+        <v>14117</v>
       </c>
       <c r="K99" t="n">
-        <v>2.85</v>
+        <v>3.272</v>
       </c>
       <c r="L99" t="n">
-        <v>11483</v>
+        <v>11557</v>
       </c>
       <c r="M99" t="n">
-        <v>2.661</v>
+        <v>2.678</v>
       </c>
       <c r="N99" t="n">
-        <v>0.073</v>
+        <v>0.078</v>
       </c>
       <c r="O99" t="n">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="P99" t="s">
         <v>586</v>
@@ -8559,7 +8548,7 @@
         <v>595</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D101" t="s">
         <v>596</v>
@@ -8569,31 +8558,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H101" t="n">
-        <v>1434879</v>
+        <v>1487084</v>
       </c>
       <c r="I101" t="n">
-        <v>201.174</v>
+        <v>208.493</v>
       </c>
       <c r="J101" t="n">
-        <v>8717</v>
+        <v>7339</v>
       </c>
       <c r="K101" t="n">
-        <v>1.222</v>
+        <v>1.029</v>
       </c>
       <c r="L101" t="n">
-        <v>7814</v>
+        <v>7458</v>
       </c>
       <c r="M101" t="n">
-        <v>1.096</v>
+        <v>1.046</v>
       </c>
       <c r="N101" t="n">
-        <v>0.297</v>
+        <v>0.234</v>
       </c>
       <c r="O101" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="P101" t="s">
         <v>597</v>
@@ -8616,7 +8605,7 @@
         <v>601</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44343</v>
+        <v>44361</v>
       </c>
       <c r="D102" t="s">
         <v>602</v>
@@ -8626,31 +8615,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="H102" t="n">
-        <v>4007521</v>
+        <v>4246577</v>
       </c>
       <c r="I102" t="n">
-        <v>121.544</v>
+        <v>128.794</v>
       </c>
       <c r="J102" t="n">
-        <v>7014</v>
+        <v>1610</v>
       </c>
       <c r="K102" t="n">
-        <v>0.213</v>
+        <v>0.049</v>
       </c>
       <c r="L102" t="n">
-        <v>10173</v>
+        <v>8054</v>
       </c>
       <c r="M102" t="n">
-        <v>0.309</v>
+        <v>0.244</v>
       </c>
       <c r="N102" t="n">
-        <v>0.089</v>
+        <v>0.078</v>
       </c>
       <c r="O102" t="n">
-        <v>11.2</v>
+        <v>12.8</v>
       </c>
       <c r="P102" t="s">
         <v>167</v>
@@ -8673,7 +8662,7 @@
         <v>605</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D103" t="s">
         <v>606</v>
@@ -8683,31 +8672,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H103" t="n">
-        <v>13589750</v>
+        <v>13737116</v>
       </c>
       <c r="I103" t="n">
-        <v>124.015</v>
+        <v>125.36</v>
       </c>
       <c r="J103" t="n">
-        <v>26432</v>
+        <v>50843</v>
       </c>
       <c r="K103" t="n">
-        <v>0.241</v>
+        <v>0.464</v>
       </c>
       <c r="L103" t="n">
-        <v>43517</v>
+        <v>44610</v>
       </c>
       <c r="M103" t="n">
-        <v>0.397</v>
+        <v>0.407</v>
       </c>
       <c r="N103" t="n">
-        <v>0.142</v>
+        <v>0.126</v>
       </c>
       <c r="O103" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="P103" t="s">
         <v>313</v>
@@ -8730,7 +8719,7 @@
         <v>611</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D104" t="s">
         <v>612</v>
@@ -8740,31 +8729,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H104" t="n">
-        <v>16447564</v>
+        <v>16782161</v>
       </c>
       <c r="I104" t="n">
-        <v>434.585</v>
+        <v>443.426</v>
       </c>
       <c r="J104" t="n">
-        <v>50867</v>
+        <v>47622</v>
       </c>
       <c r="K104" t="n">
-        <v>1.344</v>
+        <v>1.258</v>
       </c>
       <c r="L104" t="n">
-        <v>57574</v>
+        <v>47800</v>
       </c>
       <c r="M104" t="n">
-        <v>1.521</v>
+        <v>1.263</v>
       </c>
       <c r="N104" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O104" t="n">
-        <v>250.5</v>
+        <v>315.7</v>
       </c>
       <c r="P104" t="s">
         <v>613</v>
@@ -8787,7 +8776,7 @@
         <v>616</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D105" t="s">
         <v>612</v>
@@ -8797,31 +8786,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H105" t="n">
-        <v>16824919</v>
+        <v>17163586</v>
       </c>
       <c r="I105" t="n">
-        <v>444.556</v>
+        <v>453.504</v>
       </c>
       <c r="J105" t="n">
-        <v>51409</v>
+        <v>48113</v>
       </c>
       <c r="K105" t="n">
-        <v>1.358</v>
+        <v>1.271</v>
       </c>
       <c r="L105" t="n">
-        <v>58596</v>
+        <v>48381</v>
       </c>
       <c r="M105" t="n">
-        <v>1.548</v>
+        <v>1.278</v>
       </c>
       <c r="N105" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O105" t="n">
-        <v>254.9</v>
+        <v>319.5</v>
       </c>
       <c r="P105" t="s">
         <v>613</v>
@@ -8844,7 +8833,7 @@
         <v>618</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="D106" t="s">
         <v>619</v>
@@ -8854,31 +8843,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H106" t="n">
-        <v>12730360</v>
+        <v>12926064</v>
       </c>
       <c r="I106" t="n">
-        <v>1248.478</v>
+        <v>1267.67</v>
       </c>
       <c r="J106" t="n">
-        <v>46881</v>
+        <v>60718</v>
       </c>
       <c r="K106" t="n">
-        <v>4.598</v>
+        <v>5.955</v>
       </c>
       <c r="L106" t="n">
-        <v>52169</v>
+        <v>54651</v>
       </c>
       <c r="M106" t="n">
-        <v>5.116</v>
+        <v>5.36</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="O106" t="n">
-        <v>49.6</v>
+        <v>48.3</v>
       </c>
       <c r="P106" t="s">
         <v>620</v>
@@ -8901,7 +8890,7 @@
         <v>623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="D107" t="s">
         <v>624</v>
@@ -8911,31 +8900,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H107" t="n">
-        <v>2121764</v>
+        <v>2131383</v>
       </c>
       <c r="I107" t="n">
-        <v>736.453</v>
+        <v>739.791</v>
       </c>
       <c r="J107" t="n">
-        <v>5671</v>
+        <v>4751</v>
       </c>
       <c r="K107" t="n">
-        <v>1.968</v>
+        <v>1.649</v>
       </c>
       <c r="L107" t="n">
-        <v>5257</v>
+        <v>5289</v>
       </c>
       <c r="M107" t="n">
-        <v>1.825</v>
+        <v>1.836</v>
       </c>
       <c r="N107" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="O107" t="n">
-        <v>35.3</v>
+        <v>34.4</v>
       </c>
       <c r="P107" t="s">
         <v>626</v>
@@ -8958,7 +8947,7 @@
         <v>629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44367</v>
+        <v>44372</v>
       </c>
       <c r="D108" t="s">
         <v>630</v>
@@ -8968,32 +8957,28 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H108" t="n">
-        <v>8220005</v>
+        <v>8286995</v>
       </c>
       <c r="I108" t="n">
-        <v>427.287</v>
+        <v>430.769</v>
       </c>
       <c r="J108" t="n">
-        <v>12173</v>
+        <v>17701</v>
       </c>
       <c r="K108" t="n">
-        <v>0.633</v>
+        <v>0.92</v>
       </c>
       <c r="L108" t="n">
-        <v>15803</v>
+        <v>14038</v>
       </c>
       <c r="M108" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O108" t="n">
-        <v>208.7</v>
-      </c>
+        <v>0.73</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
         <v>632</v>
       </c>
@@ -9015,7 +9000,7 @@
         <v>636</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D109" t="s">
         <v>637</v>
@@ -9025,31 +9010,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H109" t="n">
-        <v>146025652</v>
+        <v>147444161</v>
       </c>
       <c r="I109" t="n">
-        <v>1000.625</v>
+        <v>1010.345</v>
       </c>
       <c r="J109" t="n">
-        <v>274606</v>
+        <v>505299</v>
       </c>
       <c r="K109" t="n">
-        <v>1.882</v>
+        <v>3.463</v>
       </c>
       <c r="L109" t="n">
-        <v>381318</v>
+        <v>431690</v>
       </c>
       <c r="M109" t="n">
-        <v>2.613</v>
+        <v>2.958</v>
       </c>
       <c r="N109" t="n">
         <v>0.041</v>
       </c>
       <c r="O109" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="P109" t="s">
         <v>638</v>
@@ -9072,7 +9057,7 @@
         <v>642</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="D110" t="s">
         <v>643</v>
@@ -9082,28 +9067,32 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H110" t="n">
-        <v>1556862</v>
+        <v>1573227</v>
       </c>
       <c r="I110" t="n">
-        <v>120.201</v>
+        <v>121.464</v>
       </c>
       <c r="J110" t="n">
-        <v>5342</v>
+        <v>8741</v>
       </c>
       <c r="K110" t="n">
-        <v>0.412</v>
+        <v>0.675</v>
       </c>
       <c r="L110" t="n">
-        <v>6634</v>
+        <v>7293</v>
       </c>
       <c r="M110" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>0.563</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="O110" t="n">
+        <v>11.2</v>
+      </c>
       <c r="P110" t="s">
         <v>644</v>
       </c>
@@ -9125,7 +9114,7 @@
         <v>648</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D111" t="s">
         <v>649</v>
@@ -9135,20 +9124,16 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>19871</v>
+        <v>20546</v>
       </c>
       <c r="I111" t="n">
-        <v>373.571</v>
-      </c>
-      <c r="J111" t="n">
-        <v>220</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4.136</v>
-      </c>
+        <v>386.261</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
@@ -9174,7 +9159,7 @@
         <v>653</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D112" t="s">
         <v>654</v>
@@ -9184,31 +9169,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H112" t="n">
-        <v>21036893</v>
+        <v>21310136</v>
       </c>
       <c r="I112" t="n">
-        <v>604.268</v>
+        <v>612.116</v>
       </c>
       <c r="J112" t="n">
-        <v>75117</v>
+        <v>91021</v>
       </c>
       <c r="K112" t="n">
-        <v>2.158</v>
+        <v>2.615</v>
       </c>
       <c r="L112" t="n">
-        <v>85424</v>
+        <v>85363</v>
       </c>
       <c r="M112" t="n">
-        <v>2.454</v>
+        <v>2.452</v>
       </c>
       <c r="N112" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="O112" t="n">
-        <v>71.2</v>
+        <v>68.5</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9231,7 +9216,7 @@
         <v>657</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D113" t="s">
         <v>658</v>
@@ -9241,31 +9226,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H113" t="n">
-        <v>562077</v>
+        <v>566577</v>
       </c>
       <c r="I113" t="n">
-        <v>33.569</v>
+        <v>33.838</v>
       </c>
       <c r="J113" t="n">
-        <v>1429</v>
+        <v>1582</v>
       </c>
       <c r="K113" t="n">
-        <v>0.085</v>
+        <v>0.094</v>
       </c>
       <c r="L113" t="n">
-        <v>1500</v>
+        <v>1579</v>
       </c>
       <c r="M113" t="n">
-        <v>0.09</v>
+        <v>0.094</v>
       </c>
       <c r="N113" t="n">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="O113" t="n">
-        <v>25.4</v>
+        <v>23.5</v>
       </c>
       <c r="P113" t="s">
         <v>659</v>
@@ -9288,7 +9273,7 @@
         <v>662</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="D114" t="s">
         <v>663</v>
@@ -9300,31 +9285,31 @@
         <v>664</v>
       </c>
       <c r="G114" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H114" t="n">
-        <v>4343775</v>
+        <v>4361392</v>
       </c>
       <c r="I114" t="n">
-        <v>638.359</v>
+        <v>640.948</v>
       </c>
       <c r="J114" t="n">
-        <v>7992</v>
+        <v>8368</v>
       </c>
       <c r="K114" t="n">
-        <v>1.175</v>
+        <v>1.23</v>
       </c>
       <c r="L114" t="n">
-        <v>8766</v>
+        <v>8429</v>
       </c>
       <c r="M114" t="n">
-        <v>1.288</v>
+        <v>1.239</v>
       </c>
       <c r="N114" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="O114" t="n">
-        <v>74.3</v>
+        <v>83.2</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9347,7 +9332,7 @@
         <v>668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44361</v>
+        <v>44368</v>
       </c>
       <c r="D115" t="s">
         <v>669</v>
@@ -9357,27 +9342,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H115" t="n">
-        <v>12809152</v>
+        <v>13287834</v>
       </c>
       <c r="I115" t="n">
-        <v>2189.47</v>
+        <v>2271.291</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>63179</v>
+        <v>68383</v>
       </c>
       <c r="M115" t="n">
-        <v>10.799</v>
+        <v>11.689</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>4859.9</v>
+        <v>3710.6</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9400,7 +9385,7 @@
         <v>672</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="D116" t="s">
         <v>673</v>
@@ -9410,25 +9395,25 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H116" t="n">
-        <v>39570293</v>
+        <v>39644079</v>
       </c>
       <c r="I116" t="n">
-        <v>7247.78</v>
+        <v>7261.295</v>
       </c>
       <c r="J116" t="n">
-        <v>41932</v>
+        <v>30044</v>
       </c>
       <c r="K116" t="n">
-        <v>7.68</v>
+        <v>5.503</v>
       </c>
       <c r="L116" t="n">
-        <v>46623</v>
+        <v>45289</v>
       </c>
       <c r="M116" t="n">
-        <v>8.54</v>
+        <v>8.295</v>
       </c>
       <c r="N116" t="n">
         <v>0.002</v>
@@ -9457,7 +9442,7 @@
         <v>676</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D117" t="s">
         <v>677</v>
@@ -9467,31 +9452,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H117" t="n">
-        <v>1334817</v>
+        <v>1341183</v>
       </c>
       <c r="I117" t="n">
-        <v>642.069</v>
+        <v>645.131</v>
       </c>
       <c r="J117" t="n">
-        <v>2177</v>
+        <v>2161</v>
       </c>
       <c r="K117" t="n">
-        <v>1.047</v>
+        <v>1.039</v>
       </c>
       <c r="L117" t="n">
-        <v>1953</v>
+        <v>1806</v>
       </c>
       <c r="M117" t="n">
-        <v>0.939</v>
+        <v>0.869</v>
       </c>
       <c r="N117" t="n">
-        <v>0.035</v>
+        <v>0.027</v>
       </c>
       <c r="O117" t="n">
-        <v>28.6</v>
+        <v>37</v>
       </c>
       <c r="P117" t="s">
         <v>678</v>
@@ -9514,7 +9499,7 @@
         <v>681</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D118" t="s">
         <v>682</v>
@@ -9526,31 +9511,31 @@
         <v>684</v>
       </c>
       <c r="G118" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H118" t="n">
-        <v>12586342</v>
+        <v>12769052</v>
       </c>
       <c r="I118" t="n">
-        <v>212.218</v>
+        <v>215.298</v>
       </c>
       <c r="J118" t="n">
-        <v>36858</v>
+        <v>65631</v>
       </c>
       <c r="K118" t="n">
-        <v>0.621</v>
+        <v>1.107</v>
       </c>
       <c r="L118" t="n">
-        <v>51842</v>
+        <v>55014</v>
       </c>
       <c r="M118" t="n">
-        <v>0.874</v>
+        <v>0.928</v>
       </c>
       <c r="N118" t="n">
-        <v>0.22</v>
+        <v>0.236</v>
       </c>
       <c r="O118" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P118" t="s">
         <v>683</v>
@@ -9573,7 +9558,7 @@
         <v>688</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D119" t="s">
         <v>689</v>
@@ -9583,25 +9568,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H119" t="n">
-        <v>10252916</v>
+        <v>10344357</v>
       </c>
       <c r="I119" t="n">
-        <v>199.982</v>
+        <v>201.766</v>
       </c>
       <c r="J119" t="n">
-        <v>35302</v>
+        <v>26546</v>
       </c>
       <c r="K119" t="n">
-        <v>0.689</v>
+        <v>0.518</v>
       </c>
       <c r="L119" t="n">
-        <v>25730</v>
+        <v>25164</v>
       </c>
       <c r="M119" t="n">
-        <v>0.502</v>
+        <v>0.491</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9679,7 +9664,7 @@
         <v>698</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44357</v>
+        <v>44364</v>
       </c>
       <c r="D121" t="s">
         <v>699</v>
@@ -9689,27 +9674,27 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H121" t="n">
-        <v>44966367</v>
+        <v>45646076</v>
       </c>
       <c r="I121" t="n">
-        <v>961.749</v>
+        <v>976.287</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>92429</v>
+        <v>88116</v>
       </c>
       <c r="M121" t="n">
-        <v>1.977</v>
+        <v>1.885</v>
       </c>
       <c r="N121" t="n">
-        <v>0.056</v>
+        <v>0.039</v>
       </c>
       <c r="O121" t="n">
-        <v>17.8</v>
+        <v>25.9</v>
       </c>
       <c r="P121" t="s">
         <v>701</v>
@@ -9732,7 +9717,7 @@
         <v>705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="D122" t="s">
         <v>706</v>
@@ -9742,32 +9727,28 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H122" t="n">
-        <v>3893006</v>
+        <v>3969644</v>
       </c>
       <c r="I122" t="n">
-        <v>181.804</v>
+        <v>185.383</v>
       </c>
       <c r="J122" t="n">
-        <v>18682</v>
+        <v>17552</v>
       </c>
       <c r="K122" t="n">
-        <v>0.872</v>
+        <v>0.82</v>
       </c>
       <c r="L122" t="n">
-        <v>18302</v>
+        <v>18706</v>
       </c>
       <c r="M122" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="O122" t="n">
-        <v>8.1</v>
-      </c>
+        <v>0.874</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
         <v>707</v>
       </c>
@@ -9789,7 +9770,7 @@
         <v>710</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44360</v>
+        <v>44367</v>
       </c>
       <c r="D123" t="s">
         <v>711</v>
@@ -9799,27 +9780,27 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>22353</v>
+        <v>21588</v>
       </c>
       <c r="K123" t="n">
-        <v>2.213</v>
+        <v>2.138</v>
       </c>
       <c r="L123" t="n">
-        <v>22353</v>
+        <v>21588</v>
       </c>
       <c r="M123" t="n">
-        <v>2.213</v>
+        <v>2.138</v>
       </c>
       <c r="N123" t="n">
-        <v>0.034</v>
+        <v>0.008</v>
       </c>
       <c r="O123" t="n">
-        <v>29</v>
+        <v>128.1</v>
       </c>
       <c r="P123" t="s">
         <v>713</v>
@@ -9842,7 +9823,7 @@
         <v>717</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="D124" t="s">
         <v>441</v>
@@ -9852,31 +9833,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H124" t="n">
-        <v>7716235</v>
+        <v>7778208</v>
       </c>
       <c r="I124" t="n">
-        <v>891.574</v>
+        <v>898.735</v>
       </c>
       <c r="J124" t="n">
-        <v>15529</v>
+        <v>17253</v>
       </c>
       <c r="K124" t="n">
-        <v>1.794</v>
+        <v>1.994</v>
       </c>
       <c r="L124" t="n">
-        <v>19895</v>
+        <v>19097</v>
       </c>
       <c r="M124" t="n">
-        <v>2.299</v>
+        <v>2.207</v>
       </c>
       <c r="N124" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="O124" t="n">
-        <v>90.9</v>
+        <v>125</v>
       </c>
       <c r="P124" t="s">
         <v>442</v>
@@ -9899,7 +9880,7 @@
         <v>720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D125" t="s">
         <v>721</v>
@@ -9909,31 +9890,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H125" t="n">
-        <v>1107543</v>
+        <v>1213717</v>
       </c>
       <c r="I125" t="n">
-        <v>46.503</v>
+        <v>50.961</v>
       </c>
       <c r="J125" t="n">
-        <v>21335</v>
+        <v>24663</v>
       </c>
       <c r="K125" t="n">
-        <v>0.896</v>
+        <v>1.036</v>
       </c>
       <c r="L125" t="n">
-        <v>26919</v>
+        <v>27340</v>
       </c>
       <c r="M125" t="n">
-        <v>1.13</v>
+        <v>1.148</v>
       </c>
       <c r="N125" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O125" t="n">
-        <v>193.5</v>
+        <v>237.7</v>
       </c>
       <c r="P125" t="s">
         <v>722</v>
@@ -10009,7 +9990,7 @@
         <v>730</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D127" t="s">
         <v>731</v>
@@ -10022,10 +10003,10 @@
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>92122</v>
+        <v>125244</v>
       </c>
       <c r="I127" t="n">
-        <v>69.872</v>
+        <v>94.994</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -10054,7 +10035,7 @@
         <v>734</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
@@ -10064,31 +10045,31 @@
         <v>736</v>
       </c>
       <c r="G128" t="n">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H128" t="n">
-        <v>349222</v>
+        <v>356186</v>
       </c>
       <c r="I128" t="n">
-        <v>42.183</v>
+        <v>43.024</v>
       </c>
       <c r="J128" t="n">
-        <v>697</v>
+        <v>970</v>
       </c>
       <c r="K128" t="n">
-        <v>0.084</v>
+        <v>0.117</v>
       </c>
       <c r="L128" t="n">
-        <v>877</v>
+        <v>995</v>
       </c>
       <c r="M128" t="n">
-        <v>0.106</v>
+        <v>0.12</v>
       </c>
       <c r="N128" t="n">
-        <v>0.017</v>
+        <v>0.01</v>
       </c>
       <c r="O128" t="n">
-        <v>57.9</v>
+        <v>104</v>
       </c>
       <c r="P128" t="s">
         <v>735</v>
@@ -10111,7 +10092,7 @@
         <v>741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44364</v>
+        <v>44370</v>
       </c>
       <c r="D129" t="s">
         <v>742</v>
@@ -10121,31 +10102,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H129" t="n">
-        <v>215149</v>
+        <v>223080</v>
       </c>
       <c r="I129" t="n">
-        <v>153.734</v>
+        <v>159.401</v>
       </c>
       <c r="J129" t="n">
-        <v>1225</v>
+        <v>4512</v>
       </c>
       <c r="K129" t="n">
-        <v>0.875</v>
+        <v>3.224</v>
       </c>
       <c r="L129" t="n">
-        <v>1379</v>
+        <v>1308</v>
       </c>
       <c r="M129" t="n">
-        <v>0.985</v>
+        <v>0.935</v>
       </c>
       <c r="N129" t="n">
-        <v>0.223</v>
+        <v>0.175</v>
       </c>
       <c r="O129" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10168,7 +10149,7 @@
         <v>746</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D130" t="s">
         <v>747</v>
@@ -10178,25 +10159,25 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H130" t="n">
-        <v>1619741</v>
+        <v>1648646</v>
       </c>
       <c r="I130" t="n">
-        <v>137.05</v>
+        <v>139.496</v>
       </c>
       <c r="J130" t="n">
-        <v>8378</v>
+        <v>11418</v>
       </c>
       <c r="K130" t="n">
-        <v>0.709</v>
+        <v>0.966</v>
       </c>
       <c r="L130" t="n">
-        <v>7341</v>
+        <v>8344</v>
       </c>
       <c r="M130" t="n">
-        <v>0.621</v>
+        <v>0.706</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
@@ -10221,7 +10202,7 @@
         <v>753</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D131" t="s">
         <v>754</v>
@@ -10231,31 +10212,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H131" t="n">
-        <v>58773835</v>
+        <v>59444650</v>
       </c>
       <c r="I131" t="n">
-        <v>696.876</v>
+        <v>704.829</v>
       </c>
       <c r="J131" t="n">
-        <v>221052</v>
+        <v>223385</v>
       </c>
       <c r="K131" t="n">
-        <v>2.621</v>
+        <v>2.649</v>
       </c>
       <c r="L131" t="n">
-        <v>221435</v>
+        <v>220684</v>
       </c>
       <c r="M131" t="n">
-        <v>2.626</v>
+        <v>2.617</v>
       </c>
       <c r="N131" t="n">
         <v>0.025</v>
       </c>
       <c r="O131" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="P131" t="s">
         <v>755</v>
@@ -10278,7 +10259,7 @@
         <v>759</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44362</v>
+        <v>44369</v>
       </c>
       <c r="D132" t="s">
         <v>760</v>
@@ -10288,31 +10269,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H132" t="n">
-        <v>1228618</v>
+        <v>1287020</v>
       </c>
       <c r="I132" t="n">
-        <v>26.86</v>
+        <v>28.137</v>
       </c>
       <c r="J132" t="n">
-        <v>10816</v>
+        <v>9079</v>
       </c>
       <c r="K132" t="n">
-        <v>0.236</v>
+        <v>0.198</v>
       </c>
       <c r="L132" t="n">
-        <v>8591</v>
+        <v>8343</v>
       </c>
       <c r="M132" t="n">
-        <v>0.188</v>
+        <v>0.182</v>
       </c>
       <c r="N132" t="n">
-        <v>0.164</v>
+        <v>0.152</v>
       </c>
       <c r="O132" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="P132" t="s">
         <v>761</v>
@@ -10335,7 +10316,7 @@
         <v>765</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D133" t="s">
         <v>766</v>
@@ -10345,25 +10326,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H133" t="n">
-        <v>10690896</v>
+        <v>10759153</v>
       </c>
       <c r="I133" t="n">
-        <v>244.454</v>
+        <v>246.015</v>
       </c>
       <c r="J133" t="n">
-        <v>11881</v>
+        <v>19481</v>
       </c>
       <c r="K133" t="n">
-        <v>0.272</v>
+        <v>0.445</v>
       </c>
       <c r="L133" t="n">
-        <v>20342</v>
+        <v>18487</v>
       </c>
       <c r="M133" t="n">
-        <v>0.465</v>
+        <v>0.423</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10388,7 +10369,7 @@
         <v>771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="D134" t="s">
         <v>772</v>
@@ -10398,28 +10379,32 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H134" t="n">
-        <v>55553623</v>
+        <v>56085301</v>
       </c>
       <c r="I134" t="n">
-        <v>5616.924</v>
+        <v>5670.681</v>
       </c>
       <c r="J134" t="n">
-        <v>274675</v>
+        <v>282345</v>
       </c>
       <c r="K134" t="n">
-        <v>27.772</v>
+        <v>28.547</v>
       </c>
       <c r="L134" t="n">
-        <v>252239</v>
+        <v>260832</v>
       </c>
       <c r="M134" t="n">
-        <v>25.503</v>
-      </c>
-      <c r="N134"/>
-      <c r="O134"/>
+        <v>26.372</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O134" t="n">
+        <v>128.8</v>
+      </c>
       <c r="P134" t="s">
         <v>773</v>
       </c>
@@ -10441,7 +10426,7 @@
         <v>776</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D135" t="s">
         <v>777</v>
@@ -10453,31 +10438,31 @@
         <v>779</v>
       </c>
       <c r="G135" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H135" t="n">
-        <v>198576291</v>
+        <v>201822459</v>
       </c>
       <c r="I135" t="n">
-        <v>2925.143</v>
+        <v>2972.961</v>
       </c>
       <c r="J135" t="n">
-        <v>1149112</v>
+        <v>1150834</v>
       </c>
       <c r="K135" t="n">
-        <v>16.927</v>
+        <v>16.952</v>
       </c>
       <c r="L135" t="n">
-        <v>985798</v>
+        <v>1011931</v>
       </c>
       <c r="M135" t="n">
-        <v>14.521</v>
+        <v>14.906</v>
       </c>
       <c r="N135" t="n">
-        <v>0.009</v>
+        <v>0.011</v>
       </c>
       <c r="O135" t="n">
-        <v>107.3</v>
+        <v>90.6</v>
       </c>
       <c r="P135" t="s">
         <v>778</v>
@@ -10500,7 +10485,7 @@
         <v>783</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="D136" t="s">
         <v>784</v>
@@ -10510,31 +10495,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H136" t="n">
-        <v>461862544</v>
+        <v>463986720</v>
       </c>
       <c r="I136" t="n">
-        <v>1395.344</v>
+        <v>1401.761</v>
       </c>
       <c r="J136" t="n">
-        <v>379999</v>
+        <v>233813</v>
       </c>
       <c r="K136" t="n">
-        <v>1.148</v>
+        <v>0.706</v>
       </c>
       <c r="L136" t="n">
-        <v>496530</v>
+        <v>468219</v>
       </c>
       <c r="M136" t="n">
-        <v>1.5</v>
+        <v>1.415</v>
       </c>
       <c r="N136" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="O136" t="n">
-        <v>45.5</v>
+        <v>41.7</v>
       </c>
       <c r="P136" t="s">
         <v>785</v>
@@ -10557,7 +10542,7 @@
         <v>790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="D137" t="s">
         <v>791</v>
@@ -10567,27 +10552,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H137" t="n">
-        <v>2664363</v>
+        <v>2710714</v>
       </c>
       <c r="I137" t="n">
-        <v>767.004</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>780.347</v>
+      </c>
+      <c r="J137" t="n">
+        <v>16916</v>
+      </c>
+      <c r="K137" t="n">
+        <v>4.87</v>
+      </c>
       <c r="L137" t="n">
-        <v>17559</v>
+        <v>16257</v>
       </c>
       <c r="M137" t="n">
-        <v>5.055</v>
+        <v>4.68</v>
       </c>
       <c r="N137" t="n">
-        <v>0.133</v>
+        <v>0.121</v>
       </c>
       <c r="O137" t="n">
-        <v>7.5</v>
+        <v>8.3</v>
       </c>
       <c r="P137" t="s">
         <v>190</v>
@@ -10667,7 +10656,7 @@
         <v>801</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="D139" t="s">
         <v>802</v>
@@ -10677,31 +10666,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H139" t="n">
-        <v>1777727</v>
+        <v>1814441</v>
       </c>
       <c r="I139" t="n">
-        <v>96.7</v>
+        <v>98.697</v>
       </c>
       <c r="J139" t="n">
-        <v>6369</v>
+        <v>12880</v>
       </c>
       <c r="K139" t="n">
-        <v>0.346</v>
+        <v>0.701</v>
       </c>
       <c r="L139" t="n">
-        <v>11410</v>
+        <v>10808</v>
       </c>
       <c r="M139" t="n">
-        <v>0.621</v>
+        <v>0.588</v>
       </c>
       <c r="N139" t="n">
-        <v>0.219</v>
+        <v>0.243</v>
       </c>
       <c r="O139" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="P139" t="s">
         <v>804</v>
@@ -10724,7 +10713,7 @@
         <v>807</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="D140" t="s">
         <v>808</v>
@@ -10734,31 +10723,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H140" t="n">
-        <v>591453</v>
+        <v>619296</v>
       </c>
       <c r="I140" t="n">
-        <v>39.794</v>
+        <v>41.667</v>
       </c>
       <c r="J140" t="n">
-        <v>3538</v>
+        <v>4888</v>
       </c>
       <c r="K140" t="n">
-        <v>0.238</v>
+        <v>0.329</v>
       </c>
       <c r="L140" t="n">
-        <v>2459</v>
+        <v>3978</v>
       </c>
       <c r="M140" t="n">
-        <v>0.165</v>
+        <v>0.268</v>
       </c>
       <c r="N140" t="n">
-        <v>0.083</v>
+        <v>0.121</v>
       </c>
       <c r="O140" t="n">
-        <v>12</v>
+        <v>8.2</v>
       </c>
       <c r="P140" t="s">
         <v>809</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-24-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-27-june-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-802-new-covid-19-cases-805-recoveries_i_0000131443.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-441-new-cases-196-recoveries_i_0000131639.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-24-de-junho-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-28-de-junho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -714,7 +714,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-24062021-51fp</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-28062021-4s29</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.454.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.464.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1164,7 +1164,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/366192</t>
+    <t xml:space="preserve">http://irangov.ir/detail/366367</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1287,7 +1287,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-june-23-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-june-26-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210624-hspb40jj/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210628-ybdl6hmv/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1UiEPgY9bdSHgNK4eURHKIjDwsN3syPhZ?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/10L7McDSNPwCqgwD6reRULoEci3o7zK5k?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_25_iunie_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/29-06_BULETIN_DE_PRESĂ_-_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2149,7 +2149,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18180</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18204</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2680,7 +2680,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-208</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-211</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -3267,7 +3267,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3312,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3322,31 +3322,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H5" t="n">
-        <v>10832061</v>
+        <v>10968998</v>
       </c>
       <c r="I5" t="n">
-        <v>239.67</v>
+        <v>242.7</v>
       </c>
       <c r="J5" t="n">
-        <v>25684</v>
+        <v>36835</v>
       </c>
       <c r="K5" t="n">
-        <v>0.568</v>
+        <v>0.815</v>
       </c>
       <c r="L5" t="n">
-        <v>31716</v>
+        <v>27879</v>
       </c>
       <c r="M5" t="n">
-        <v>0.702</v>
+        <v>0.617</v>
       </c>
       <c r="N5" t="n">
-        <v>0.233</v>
+        <v>0.22</v>
       </c>
       <c r="O5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3426,7 +3426,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3436,31 +3436,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H7" t="n">
-        <v>20029252</v>
+        <v>20303632</v>
       </c>
       <c r="I7" t="n">
-        <v>785.465</v>
-      </c>
-      <c r="J7" t="n">
-        <v>95014</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.726</v>
-      </c>
+        <v>796.225</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>73793</v>
+        <v>83726</v>
       </c>
       <c r="M7" t="n">
-        <v>2.894</v>
+        <v>3.283</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4491.6</v>
+        <v>3387.8</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3483,7 +3479,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3493,31 +3489,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H8" t="n">
-        <v>52553372</v>
+        <v>54026448</v>
       </c>
       <c r="I8" t="n">
-        <v>5835.114</v>
+        <v>5998.673</v>
       </c>
       <c r="J8" t="n">
-        <v>389863</v>
+        <v>312902</v>
       </c>
       <c r="K8" t="n">
-        <v>43.287</v>
+        <v>34.742</v>
       </c>
       <c r="L8" t="n">
-        <v>483645</v>
+        <v>420512</v>
       </c>
       <c r="M8" t="n">
-        <v>53.7</v>
+        <v>46.69</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4016</v>
+        <v>4297.2</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3540,7 +3536,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3550,31 +3546,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>3706051</v>
+        <v>3733194</v>
       </c>
       <c r="I9" t="n">
-        <v>365.518</v>
+        <v>368.195</v>
       </c>
       <c r="J9" t="n">
-        <v>7879</v>
+        <v>4482</v>
       </c>
       <c r="K9" t="n">
-        <v>0.777</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
-        <v>7568</v>
+        <v>7460</v>
       </c>
       <c r="M9" t="n">
-        <v>0.746</v>
+        <v>0.736</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O9" t="n">
-        <v>157.2</v>
+        <v>147.9</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3597,7 +3593,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3607,25 +3603,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H10" t="n">
-        <v>4964087</v>
+        <v>5015001</v>
       </c>
       <c r="I10" t="n">
-        <v>2917.335</v>
+        <v>2947.256</v>
       </c>
       <c r="J10" t="n">
-        <v>12860</v>
+        <v>12121</v>
       </c>
       <c r="K10" t="n">
-        <v>7.558</v>
+        <v>7.123</v>
       </c>
       <c r="L10" t="n">
-        <v>13060</v>
+        <v>12935</v>
       </c>
       <c r="M10" t="n">
-        <v>7.675</v>
+        <v>7.602</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3650,7 +3646,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3660,31 +3656,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H11" t="n">
-        <v>6422028</v>
+        <v>6538928</v>
       </c>
       <c r="I11" t="n">
-        <v>38.995</v>
+        <v>39.705</v>
       </c>
       <c r="J11" t="n">
-        <v>28256</v>
+        <v>35059</v>
       </c>
       <c r="K11" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="L11" t="n">
+        <v>28349</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.172</v>
       </c>
-      <c r="L11" t="n">
-        <v>23668</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.144</v>
-      </c>
       <c r="N11" t="n">
-        <v>0.192</v>
+        <v>0.204</v>
       </c>
       <c r="O11" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3707,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3717,27 +3713,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H12" t="n">
-        <v>6686521</v>
+        <v>6764743</v>
       </c>
       <c r="I12" t="n">
-        <v>707.619</v>
+        <v>715.897</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>15614</v>
+        <v>15589</v>
       </c>
       <c r="M12" t="n">
-        <v>1.652</v>
+        <v>1.65</v>
       </c>
       <c r="N12" t="n">
         <v>0.042</v>
       </c>
       <c r="O12" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3760,7 +3756,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3770,31 +3766,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H13" t="n">
-        <v>14968450</v>
+        <v>15134628</v>
       </c>
       <c r="I13" t="n">
-        <v>1291.54</v>
+        <v>1305.878</v>
       </c>
       <c r="J13" t="n">
-        <v>44777</v>
+        <v>23787</v>
       </c>
       <c r="K13" t="n">
-        <v>3.864</v>
+        <v>2.052</v>
       </c>
       <c r="L13" t="n">
-        <v>38515</v>
+        <v>41739</v>
       </c>
       <c r="M13" t="n">
-        <v>3.323</v>
+        <v>3.601</v>
       </c>
       <c r="N13" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="O13" t="n">
-        <v>83.3</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -4029,7 +4025,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4039,31 +4035,27 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H18" t="n">
-        <v>1021848</v>
+        <v>1027418</v>
       </c>
       <c r="I18" t="n">
-        <v>311.462</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1540</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.469</v>
-      </c>
+        <v>313.159</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>1566</v>
+        <v>1504</v>
       </c>
       <c r="M18" t="n">
-        <v>0.477</v>
+        <v>0.458</v>
       </c>
       <c r="N18" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="O18" t="n">
-        <v>75.6</v>
+        <v>80.4</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4131,7 +4123,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4141,25 +4133,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H20" t="n">
-        <v>3117849</v>
+        <v>3162240</v>
       </c>
       <c r="I20" t="n">
-        <v>448.712</v>
+        <v>455.1</v>
       </c>
       <c r="J20" t="n">
-        <v>9646</v>
+        <v>20034</v>
       </c>
       <c r="K20" t="n">
-        <v>1.388</v>
+        <v>2.883</v>
       </c>
       <c r="L20" t="n">
-        <v>11227</v>
+        <v>11367</v>
       </c>
       <c r="M20" t="n">
-        <v>1.616</v>
+        <v>1.636</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4184,7 +4176,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -4194,25 +4186,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H21" t="n">
-        <v>1328165</v>
+        <v>1351976</v>
       </c>
       <c r="I21" t="n">
-        <v>79.441</v>
+        <v>80.865</v>
       </c>
       <c r="J21" t="n">
-        <v>6966</v>
+        <v>6534</v>
       </c>
       <c r="K21" t="n">
-        <v>0.417</v>
+        <v>0.391</v>
       </c>
       <c r="L21" t="n">
-        <v>7201</v>
+        <v>6107</v>
       </c>
       <c r="M21" t="n">
-        <v>0.431</v>
+        <v>0.365</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4294,7 +4286,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4304,31 +4296,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H23" t="n">
-        <v>36415725</v>
+        <v>36643986</v>
       </c>
       <c r="I23" t="n">
-        <v>964.855</v>
+        <v>970.903</v>
       </c>
       <c r="J23" t="n">
-        <v>70980</v>
+        <v>110856</v>
       </c>
       <c r="K23" t="n">
-        <v>1.881</v>
+        <v>2.937</v>
       </c>
       <c r="L23" t="n">
-        <v>63025</v>
+        <v>57192</v>
       </c>
       <c r="M23" t="n">
-        <v>1.67</v>
+        <v>1.515</v>
       </c>
       <c r="N23" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O23" t="n">
-        <v>82.3</v>
+        <v>89.8</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4351,7 +4343,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4361,15 +4353,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>820</v>
+        <v>698</v>
       </c>
       <c r="K24" t="n">
-        <v>1.475</v>
+        <v>1.255</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4396,7 +4388,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4406,25 +4398,25 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H25" t="n">
-        <v>16284119</v>
+        <v>16553859</v>
       </c>
       <c r="I25" t="n">
-        <v>851.849</v>
+        <v>865.959</v>
       </c>
       <c r="J25" t="n">
-        <v>35435</v>
+        <v>66030</v>
       </c>
       <c r="K25" t="n">
-        <v>1.854</v>
+        <v>3.454</v>
       </c>
       <c r="L25" t="n">
-        <v>54709</v>
+        <v>52551</v>
       </c>
       <c r="M25" t="n">
-        <v>2.862</v>
+        <v>2.749</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4494,7 +4486,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4504,31 +4496,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H27" t="n">
-        <v>19238762</v>
+        <v>19646098</v>
       </c>
       <c r="I27" t="n">
-        <v>378.099</v>
+        <v>386.104</v>
       </c>
       <c r="J27" t="n">
-        <v>119377</v>
+        <v>76223</v>
       </c>
       <c r="K27" t="n">
-        <v>2.346</v>
+        <v>1.498</v>
       </c>
       <c r="L27" t="n">
-        <v>104057</v>
+        <v>109325</v>
       </c>
       <c r="M27" t="n">
-        <v>2.045</v>
+        <v>2.149</v>
       </c>
       <c r="N27" t="n">
-        <v>0.331</v>
+        <v>0.319</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4551,7 +4543,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4561,31 +4553,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H28" t="n">
-        <v>1178133</v>
+        <v>1214603</v>
       </c>
       <c r="I28" t="n">
-        <v>231.273</v>
+        <v>238.433</v>
       </c>
       <c r="J28" t="n">
-        <v>8157</v>
+        <v>8902</v>
       </c>
       <c r="K28" t="n">
-        <v>1.601</v>
+        <v>1.748</v>
       </c>
       <c r="L28" t="n">
-        <v>7301</v>
+        <v>7710</v>
       </c>
       <c r="M28" t="n">
-        <v>1.433</v>
+        <v>1.514</v>
       </c>
       <c r="N28" t="n">
-        <v>0.161</v>
+        <v>0.154</v>
       </c>
       <c r="O28" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4665,7 +4657,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4675,25 +4667,25 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H30" t="n">
-        <v>2128519</v>
+        <v>2143600</v>
       </c>
       <c r="I30" t="n">
-        <v>518.485</v>
+        <v>522.158</v>
       </c>
       <c r="J30" t="n">
-        <v>4009</v>
+        <v>5506</v>
       </c>
       <c r="K30" t="n">
-        <v>0.977</v>
+        <v>1.341</v>
       </c>
       <c r="L30" t="n">
-        <v>3813</v>
+        <v>3733</v>
       </c>
       <c r="M30" t="n">
-        <v>0.929</v>
+        <v>0.909</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4718,7 +4710,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4730,31 +4722,31 @@
         <v>191</v>
       </c>
       <c r="G31" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H31" t="n">
-        <v>4916136</v>
+        <v>5047554</v>
       </c>
       <c r="I31" t="n">
-        <v>434.034</v>
+        <v>445.637</v>
       </c>
       <c r="J31" t="n">
-        <v>33471</v>
+        <v>30449</v>
       </c>
       <c r="K31" t="n">
-        <v>2.955</v>
+        <v>2.688</v>
       </c>
       <c r="L31" t="n">
-        <v>31303</v>
+        <v>31782</v>
       </c>
       <c r="M31" t="n">
-        <v>2.764</v>
+        <v>2.806</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="O31" t="n">
-        <v>20.1</v>
+        <v>15.3</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4777,7 +4769,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D32" t="s">
         <v>196</v>
@@ -4787,31 +4779,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H32" t="n">
-        <v>7973985</v>
+        <v>8134787</v>
       </c>
       <c r="I32" t="n">
-        <v>9103.772</v>
+        <v>9287.357</v>
       </c>
       <c r="J32" t="n">
-        <v>34427</v>
+        <v>37546</v>
       </c>
       <c r="K32" t="n">
-        <v>39.305</v>
+        <v>42.866</v>
       </c>
       <c r="L32" t="n">
-        <v>34356</v>
+        <v>38045</v>
       </c>
       <c r="M32" t="n">
-        <v>39.224</v>
+        <v>43.435</v>
       </c>
       <c r="N32" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="O32" t="n">
-        <v>329.4</v>
+        <v>191.7</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4834,7 +4826,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4844,21 +4836,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>129023</v>
+        <v>144846</v>
       </c>
       <c r="K33" t="n">
-        <v>12.048</v>
+        <v>13.526</v>
       </c>
       <c r="L33" t="n">
-        <v>121853</v>
+        <v>117009</v>
       </c>
       <c r="M33" t="n">
-        <v>11.379</v>
+        <v>10.926</v>
       </c>
       <c r="N33" t="n">
         <v>0.001</v>
@@ -4940,7 +4932,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44369</v>
+        <v>44374</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4950,31 +4942,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H35" t="n">
-        <v>34727595</v>
+        <v>35094342</v>
       </c>
       <c r="I35" t="n">
-        <v>5995.576</v>
+        <v>6058.894</v>
       </c>
       <c r="J35" t="n">
-        <v>70772</v>
+        <v>34473</v>
       </c>
       <c r="K35" t="n">
-        <v>12.218</v>
+        <v>5.952</v>
       </c>
       <c r="L35" t="n">
-        <v>79854</v>
+        <v>73582</v>
       </c>
       <c r="M35" t="n">
-        <v>13.786</v>
+        <v>12.704</v>
       </c>
       <c r="N35" t="n">
         <v>0.003</v>
       </c>
       <c r="O35" t="n">
-        <v>341.7</v>
+        <v>396.8</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4997,7 +4989,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44366</v>
+        <v>44372</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -5007,27 +4999,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H36" t="n">
-        <v>1638427</v>
+        <v>1690555</v>
       </c>
       <c r="I36" t="n">
-        <v>151.036</v>
+        <v>155.842</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>2224</v>
+        <v>6637</v>
       </c>
       <c r="M36" t="n">
-        <v>0.205</v>
+        <v>0.612</v>
       </c>
       <c r="N36" t="n">
-        <v>0.512</v>
+        <v>0.152</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5166,7 +5158,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5179,10 +5171,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>156103</v>
+        <v>157464</v>
       </c>
       <c r="I39" t="n">
-        <v>111.265</v>
+        <v>112.235</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -5211,7 +5203,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5221,31 +5213,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H40" t="n">
-        <v>1517538</v>
+        <v>1529503</v>
       </c>
       <c r="I40" t="n">
-        <v>1143.983</v>
+        <v>1153.003</v>
       </c>
       <c r="J40" t="n">
-        <v>1968</v>
+        <v>3780</v>
       </c>
       <c r="K40" t="n">
-        <v>1.484</v>
+        <v>2.85</v>
       </c>
       <c r="L40" t="n">
-        <v>2784</v>
+        <v>2696</v>
       </c>
       <c r="M40" t="n">
-        <v>2.099</v>
+        <v>2.032</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="O40" t="n">
-        <v>96</v>
+        <v>114.4</v>
       </c>
       <c r="P40" t="s">
         <v>243</v>
@@ -5268,7 +5260,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D41" t="s">
         <v>247</v>
@@ -5278,31 +5270,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H41" t="n">
-        <v>2839867</v>
+        <v>2857048</v>
       </c>
       <c r="I41" t="n">
-        <v>24.702</v>
+        <v>24.852</v>
       </c>
       <c r="J41" t="n">
-        <v>4525</v>
+        <v>3144</v>
       </c>
       <c r="K41" t="n">
-        <v>0.039</v>
+        <v>0.027</v>
       </c>
       <c r="L41" t="n">
-        <v>4501</v>
+        <v>4125</v>
       </c>
       <c r="M41" t="n">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="N41" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="O41" t="n">
-        <v>38.1</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
         <v>248</v>
@@ -5382,7 +5374,7 @@
         <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44369</v>
+        <v>44374</v>
       </c>
       <c r="D43" t="s">
         <v>257</v>
@@ -5392,31 +5384,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H43" t="n">
-        <v>5364579</v>
+        <v>5406751</v>
       </c>
       <c r="I43" t="n">
-        <v>968.21</v>
+        <v>975.821</v>
       </c>
       <c r="J43" t="n">
-        <v>12081</v>
+        <v>5566</v>
       </c>
       <c r="K43" t="n">
-        <v>2.18</v>
+        <v>1.005</v>
       </c>
       <c r="L43" t="n">
-        <v>11902</v>
+        <v>8782</v>
       </c>
       <c r="M43" t="n">
-        <v>2.148</v>
+        <v>1.585</v>
       </c>
       <c r="N43" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="O43" t="n">
-        <v>147.2</v>
+        <v>82</v>
       </c>
       <c r="P43" t="s">
         <v>259</v>
@@ -5439,7 +5431,7 @@
         <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="D44" t="s">
         <v>263</v>
@@ -5449,27 +5441,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>313314</v>
+        <v>341010</v>
       </c>
       <c r="K44" t="n">
-        <v>4.637</v>
+        <v>5.047</v>
       </c>
       <c r="L44" t="n">
-        <v>257756</v>
+        <v>240937</v>
       </c>
       <c r="M44" t="n">
-        <v>3.815</v>
+        <v>3.566</v>
       </c>
       <c r="N44" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="O44" t="n">
-        <v>111.1</v>
+        <v>125</v>
       </c>
       <c r="P44" t="s">
         <v>264</v>
@@ -5492,7 +5484,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5505,10 +5497,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>867881</v>
+        <v>873543</v>
       </c>
       <c r="I45" t="n">
-        <v>389.931</v>
+        <v>392.475</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -5818,7 +5810,7 @@
         <v>304</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="D51" t="s">
         <v>305</v>
@@ -5828,31 +5820,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H51" t="n">
-        <v>1558097</v>
+        <v>1576507</v>
       </c>
       <c r="I51" t="n">
-        <v>86.969</v>
+        <v>87.996</v>
       </c>
       <c r="J51" t="n">
-        <v>7740</v>
+        <v>3545</v>
       </c>
       <c r="K51" t="n">
-        <v>0.432</v>
+        <v>0.198</v>
       </c>
       <c r="L51" t="n">
-        <v>5626</v>
+        <v>6130</v>
       </c>
       <c r="M51" t="n">
-        <v>0.314</v>
+        <v>0.342</v>
       </c>
       <c r="N51" t="n">
-        <v>0.242</v>
+        <v>0.254</v>
       </c>
       <c r="O51" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="P51" t="s">
         <v>307</v>
@@ -5928,7 +5920,7 @@
         <v>318</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="D53" t="s">
         <v>319</v>
@@ -5940,28 +5932,32 @@
         <v>321</v>
       </c>
       <c r="G53" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H53" t="n">
-        <v>5643579</v>
+        <v>5665706</v>
       </c>
       <c r="I53" t="n">
-        <v>584.2</v>
+        <v>586.491</v>
       </c>
       <c r="J53" t="n">
-        <v>11167</v>
+        <v>22127</v>
       </c>
       <c r="K53" t="n">
-        <v>1.156</v>
+        <v>2.29</v>
       </c>
       <c r="L53" t="n">
-        <v>8699</v>
+        <v>8293</v>
       </c>
       <c r="M53" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>0.858</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O53" t="n">
+        <v>140.9</v>
+      </c>
       <c r="P53" t="s">
         <v>320</v>
       </c>
@@ -6036,7 +6032,7 @@
         <v>330</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D55" t="s">
         <v>331</v>
@@ -6048,25 +6044,25 @@
         <v>333</v>
       </c>
       <c r="G55" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H55" t="n">
-        <v>399568448</v>
+        <v>408139287</v>
       </c>
       <c r="I55" t="n">
-        <v>289.541</v>
+        <v>295.752</v>
       </c>
       <c r="J55" t="n">
-        <v>1735781</v>
+        <v>1768008</v>
       </c>
       <c r="K55" t="n">
-        <v>1.258</v>
+        <v>1.281</v>
       </c>
       <c r="L55" t="n">
-        <v>1771536</v>
+        <v>2009592</v>
       </c>
       <c r="M55" t="n">
-        <v>1.284</v>
+        <v>1.456</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6091,7 +6087,7 @@
         <v>336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="D56" t="s">
         <v>337</v>
@@ -6101,31 +6097,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H56" t="n">
-        <v>12678525</v>
+        <v>13122594</v>
       </c>
       <c r="I56" t="n">
-        <v>46.353</v>
+        <v>47.976</v>
       </c>
       <c r="J56" t="n">
-        <v>74391</v>
+        <v>80308</v>
       </c>
       <c r="K56" t="n">
-        <v>0.272</v>
+        <v>0.294</v>
       </c>
       <c r="L56" t="n">
-        <v>70922</v>
+        <v>84172</v>
       </c>
       <c r="M56" t="n">
-        <v>0.259</v>
+        <v>0.308</v>
       </c>
       <c r="N56" t="n">
-        <v>0.193</v>
+        <v>0.223</v>
       </c>
       <c r="O56" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="P56" t="s">
         <v>338</v>
@@ -6148,7 +6144,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6158,24 +6154,28 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H57" t="n">
-        <v>23067205</v>
+        <v>23421222</v>
       </c>
       <c r="I57" t="n">
-        <v>274.633</v>
+        <v>278.847</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>124680</v>
+        <v>121084</v>
       </c>
       <c r="M57" t="n">
-        <v>1.484</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>1.442</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="O57" t="n">
+        <v>11.4</v>
+      </c>
       <c r="P57" t="s">
         <v>344</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6321,28 +6321,32 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H60" t="n">
-        <v>17580708</v>
+        <v>17759584</v>
       </c>
       <c r="I60" t="n">
-        <v>2031.151</v>
+        <v>2051.817</v>
       </c>
       <c r="J60" t="n">
-        <v>20901</v>
+        <v>67926</v>
       </c>
       <c r="K60" t="n">
-        <v>2.415</v>
+        <v>7.848</v>
       </c>
       <c r="L60" t="n">
-        <v>36466</v>
+        <v>47142</v>
       </c>
       <c r="M60" t="n">
-        <v>4.213</v>
-      </c>
-      <c r="N60"/>
-      <c r="O60"/>
+        <v>5.446</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O60" t="n">
+        <v>273.6</v>
+      </c>
       <c r="P60" t="s">
         <v>36</v>
       </c>
@@ -6364,7 +6368,7 @@
         <v>367</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="D61" t="s">
         <v>368</v>
@@ -6376,31 +6380,31 @@
         <v>370</v>
       </c>
       <c r="G61" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H61" t="n">
-        <v>29259826</v>
+        <v>29428012</v>
       </c>
       <c r="I61" t="n">
-        <v>483.939</v>
+        <v>486.721</v>
       </c>
       <c r="J61" t="n">
-        <v>49813</v>
+        <v>22236</v>
       </c>
       <c r="K61" t="n">
-        <v>0.824</v>
+        <v>0.368</v>
       </c>
       <c r="L61" t="n">
-        <v>44895</v>
+        <v>38082</v>
       </c>
       <c r="M61" t="n">
-        <v>0.743</v>
+        <v>0.63</v>
       </c>
       <c r="N61" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="O61" t="n">
-        <v>44.9</v>
+        <v>53.4</v>
       </c>
       <c r="P61" t="s">
         <v>371</v>
@@ -6423,7 +6427,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6435,31 +6439,31 @@
         <v>370</v>
       </c>
       <c r="G62" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H62" t="n">
-        <v>70577077</v>
+        <v>71207555</v>
       </c>
       <c r="I62" t="n">
-        <v>1167.3</v>
+        <v>1177.727</v>
       </c>
       <c r="J62" t="n">
-        <v>188191</v>
+        <v>75861</v>
       </c>
       <c r="K62" t="n">
-        <v>3.113</v>
+        <v>1.255</v>
       </c>
       <c r="L62" t="n">
-        <v>182485</v>
+        <v>172797</v>
       </c>
       <c r="M62" t="n">
-        <v>3.018</v>
+        <v>2.858</v>
       </c>
       <c r="N62" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O62" t="n">
-        <v>214.9</v>
+        <v>242.1</v>
       </c>
       <c r="P62" t="s">
         <v>371</v>
@@ -6482,7 +6486,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6492,31 +6496,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H63" t="n">
-        <v>429551</v>
+        <v>435150</v>
       </c>
       <c r="I63" t="n">
-        <v>145.062</v>
+        <v>146.952</v>
       </c>
       <c r="J63" t="n">
-        <v>2612</v>
+        <v>2059</v>
       </c>
       <c r="K63" t="n">
-        <v>0.882</v>
+        <v>0.695</v>
       </c>
       <c r="L63" t="n">
-        <v>2306</v>
+        <v>2007</v>
       </c>
       <c r="M63" t="n">
-        <v>0.779</v>
+        <v>0.678</v>
       </c>
       <c r="N63" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="O63" t="n">
-        <v>44.1</v>
+        <v>39.4</v>
       </c>
       <c r="P63" t="s">
         <v>379</v>
@@ -6539,7 +6543,7 @@
         <v>383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D64" t="s">
         <v>384</v>
@@ -6549,31 +6553,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H64" t="n">
-        <v>15302980</v>
+        <v>15519537</v>
       </c>
       <c r="I64" t="n">
-        <v>120.995</v>
+        <v>122.707</v>
       </c>
       <c r="J64" t="n">
-        <v>60420</v>
+        <v>62615</v>
       </c>
       <c r="K64" t="n">
-        <v>0.478</v>
+        <v>0.495</v>
       </c>
       <c r="L64" t="n">
-        <v>53952</v>
+        <v>55991</v>
       </c>
       <c r="M64" t="n">
-        <v>0.427</v>
+        <v>0.443</v>
       </c>
       <c r="N64" t="n">
         <v>0.027</v>
       </c>
       <c r="O64" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="P64" t="s">
         <v>385</v>
@@ -6877,7 +6881,7 @@
         <v>417</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D70" t="s">
         <v>418</v>
@@ -6887,22 +6891,18 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70" t="n">
-        <v>289377</v>
+        <v>294810</v>
       </c>
       <c r="I70" t="n">
-        <v>39.774</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1159</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.159</v>
-      </c>
+        <v>40.521</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70" t="n">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="M70" t="n">
         <v>0.184</v>
@@ -6930,7 +6930,7 @@
         <v>423</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D71" t="s">
         <v>424</v>
@@ -6942,25 +6942,25 @@
         <v>426</v>
       </c>
       <c r="G71" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H71" t="n">
-        <v>2817641</v>
+        <v>2846329</v>
       </c>
       <c r="I71" t="n">
-        <v>1493.817</v>
+        <v>1509.027</v>
       </c>
       <c r="J71" t="n">
-        <v>2361</v>
+        <v>11409</v>
       </c>
       <c r="K71" t="n">
-        <v>1.252</v>
+        <v>6.049</v>
       </c>
       <c r="L71" t="n">
-        <v>5047</v>
+        <v>5589</v>
       </c>
       <c r="M71" t="n">
-        <v>2.676</v>
+        <v>2.963</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
@@ -7034,7 +7034,7 @@
         <v>434</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="D73" t="s">
         <v>435</v>
@@ -7044,15 +7044,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>4506</v>
+        <v>3181</v>
       </c>
       <c r="K73" t="n">
-        <v>0.656</v>
+        <v>0.463</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7079,7 +7079,7 @@
         <v>440</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="D74" t="s">
         <v>441</v>
@@ -7089,31 +7089,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H74" t="n">
-        <v>50320</v>
+        <v>50998</v>
       </c>
       <c r="I74" t="n">
-        <v>1319.454</v>
+        <v>1337.232</v>
       </c>
       <c r="J74" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K74" t="n">
-        <v>1.468</v>
+        <v>1.967</v>
       </c>
       <c r="L74" t="n">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="M74" t="n">
-        <v>3.147</v>
+        <v>4.012</v>
       </c>
       <c r="N74" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="O74" t="n">
-        <v>83.3</v>
+        <v>142.9</v>
       </c>
       <c r="P74" t="s">
         <v>442</v>
@@ -7136,7 +7136,7 @@
         <v>446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="D75" t="s">
         <v>447</v>
@@ -7146,31 +7146,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H75" t="n">
-        <v>3825057</v>
+        <v>3847038</v>
       </c>
       <c r="I75" t="n">
-        <v>1405.087</v>
+        <v>1413.162</v>
       </c>
       <c r="J75" t="n">
-        <v>10384</v>
+        <v>10836</v>
       </c>
       <c r="K75" t="n">
-        <v>3.814</v>
+        <v>3.98</v>
       </c>
       <c r="L75" t="n">
-        <v>10529</v>
+        <v>9940</v>
       </c>
       <c r="M75" t="n">
-        <v>3.868</v>
+        <v>3.651</v>
       </c>
       <c r="N75" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O75" t="n">
-        <v>125</v>
+        <v>142.9</v>
       </c>
       <c r="P75" t="s">
         <v>448</v>
@@ -7193,7 +7193,7 @@
         <v>451</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="D76" t="s">
         <v>452</v>
@@ -7203,31 +7203,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H76" t="n">
-        <v>3050927</v>
+        <v>3073509</v>
       </c>
       <c r="I76" t="n">
-        <v>4873.872</v>
+        <v>4909.947</v>
       </c>
       <c r="J76" t="n">
-        <v>8855</v>
+        <v>4965</v>
       </c>
       <c r="K76" t="n">
-        <v>14.146</v>
+        <v>7.932</v>
       </c>
       <c r="L76" t="n">
-        <v>6871</v>
+        <v>5607</v>
       </c>
       <c r="M76" t="n">
-        <v>10.976</v>
+        <v>8.957</v>
       </c>
       <c r="N76" t="n">
         <v>0.002</v>
       </c>
       <c r="O76" t="n">
-        <v>593.8</v>
+        <v>467.3</v>
       </c>
       <c r="P76" t="s">
         <v>453</v>
@@ -7307,7 +7307,7 @@
         <v>462</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="D78" t="s">
         <v>463</v>
@@ -7317,13 +7317,13 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H78" t="n">
-        <v>260001</v>
+        <v>264810</v>
       </c>
       <c r="I78" t="n">
-        <v>13.591</v>
+        <v>13.843</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -7572,7 +7572,7 @@
         <v>492</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D83" t="s">
         <v>493</v>
@@ -7582,31 +7582,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H83" t="n">
-        <v>6963371</v>
+        <v>7021918</v>
       </c>
       <c r="I83" t="n">
-        <v>54.008</v>
+        <v>54.462</v>
       </c>
       <c r="J83" t="n">
-        <v>9027</v>
+        <v>1875</v>
       </c>
       <c r="K83" t="n">
-        <v>0.07</v>
+        <v>0.015</v>
       </c>
       <c r="L83" t="n">
-        <v>11776</v>
+        <v>13189</v>
       </c>
       <c r="M83" t="n">
-        <v>0.091</v>
+        <v>0.102</v>
       </c>
       <c r="N83" t="n">
-        <v>0.245</v>
+        <v>0.256</v>
       </c>
       <c r="O83" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="P83" t="s">
         <v>495</v>
@@ -7629,7 +7629,7 @@
         <v>498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D84" t="s">
         <v>499</v>
@@ -7639,21 +7639,21 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
-        <v>1227308</v>
+        <v>1250619</v>
       </c>
       <c r="I84" t="n">
-        <v>304.244</v>
+        <v>310.022</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>4930</v>
+        <v>5384</v>
       </c>
       <c r="M84" t="n">
-        <v>1.222</v>
+        <v>1.335</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -8073,7 +8073,7 @@
         <v>546</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D92" t="s">
         <v>547</v>
@@ -8083,25 +8083,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H92" t="n">
-        <v>2253275</v>
+        <v>2278772</v>
       </c>
       <c r="I92" t="n">
-        <v>467.268</v>
+        <v>472.555</v>
       </c>
       <c r="J92" t="n">
-        <v>10753</v>
+        <v>7247</v>
       </c>
       <c r="K92" t="n">
-        <v>2.23</v>
+        <v>1.503</v>
       </c>
       <c r="L92" t="n">
-        <v>5273</v>
+        <v>7026</v>
       </c>
       <c r="M92" t="n">
-        <v>1.093</v>
+        <v>1.457</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8126,7 +8126,7 @@
         <v>552</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="D93" t="s">
         <v>553</v>
@@ -8136,27 +8136,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H93" t="n">
-        <v>2266591</v>
+        <v>2300266</v>
       </c>
       <c r="I93" t="n">
-        <v>10.995</v>
+        <v>11.159</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>5026</v>
+        <v>4811</v>
       </c>
       <c r="M93" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O93" t="n">
-        <v>164.4</v>
+        <v>140.3</v>
       </c>
       <c r="P93" t="s">
         <v>554</v>
@@ -8179,7 +8179,7 @@
         <v>557</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="D94" t="s">
         <v>558</v>
@@ -8189,27 +8189,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H94" t="n">
-        <v>858615</v>
+        <v>872283</v>
       </c>
       <c r="I94" t="n">
-        <v>412.126</v>
+        <v>418.686</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>2986</v>
+        <v>2731</v>
       </c>
       <c r="M94" t="n">
-        <v>1.433</v>
+        <v>1.311</v>
       </c>
       <c r="N94" t="n">
         <v>0.003</v>
       </c>
       <c r="O94" t="n">
-        <v>337.1</v>
+        <v>390.1</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8232,7 +8232,7 @@
         <v>562</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="D95" t="s">
         <v>563</v>
@@ -8242,31 +8242,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H95" t="n">
-        <v>6040262</v>
+        <v>6098034</v>
       </c>
       <c r="I95" t="n">
-        <v>1114.184</v>
+        <v>1124.841</v>
       </c>
       <c r="J95" t="n">
-        <v>15784</v>
+        <v>7224</v>
       </c>
       <c r="K95" t="n">
-        <v>2.912</v>
+        <v>1.333</v>
       </c>
       <c r="L95" t="n">
-        <v>15092</v>
+        <v>14524</v>
       </c>
       <c r="M95" t="n">
-        <v>2.784</v>
+        <v>2.679</v>
       </c>
       <c r="N95" t="n">
         <v>0.012</v>
       </c>
       <c r="O95" t="n">
-        <v>83.4</v>
+        <v>80.3</v>
       </c>
       <c r="P95" t="s">
         <v>564</v>
@@ -8334,7 +8334,7 @@
         <v>573</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D97" t="s">
         <v>574</v>
@@ -8344,25 +8344,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H97" t="n">
-        <v>14325008</v>
+        <v>14502023</v>
       </c>
       <c r="I97" t="n">
-        <v>64.851</v>
+        <v>65.652</v>
       </c>
       <c r="J97" t="n">
-        <v>45924</v>
+        <v>41133</v>
       </c>
       <c r="K97" t="n">
-        <v>0.208</v>
+        <v>0.186</v>
       </c>
       <c r="L97" t="n">
-        <v>42667</v>
+        <v>44940</v>
       </c>
       <c r="M97" t="n">
-        <v>0.193</v>
+        <v>0.203</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8605,7 +8605,7 @@
         <v>601</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44361</v>
+        <v>44371</v>
       </c>
       <c r="D102" t="s">
         <v>602</v>
@@ -8615,31 +8615,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H102" t="n">
-        <v>4246577</v>
+        <v>4385478</v>
       </c>
       <c r="I102" t="n">
-        <v>128.794</v>
+        <v>133.007</v>
       </c>
       <c r="J102" t="n">
-        <v>1610</v>
+        <v>6945</v>
       </c>
       <c r="K102" t="n">
-        <v>0.049</v>
+        <v>0.211</v>
       </c>
       <c r="L102" t="n">
-        <v>8054</v>
+        <v>9263</v>
       </c>
       <c r="M102" t="n">
-        <v>0.244</v>
+        <v>0.281</v>
       </c>
       <c r="N102" t="n">
-        <v>0.078</v>
+        <v>0.075</v>
       </c>
       <c r="O102" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="P102" t="s">
         <v>167</v>
@@ -8662,7 +8662,7 @@
         <v>605</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D103" t="s">
         <v>606</v>
@@ -8672,31 +8672,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H103" t="n">
-        <v>13737116</v>
+        <v>13922477</v>
       </c>
       <c r="I103" t="n">
-        <v>125.36</v>
+        <v>127.052</v>
       </c>
       <c r="J103" t="n">
-        <v>50843</v>
+        <v>29501</v>
       </c>
       <c r="K103" t="n">
-        <v>0.464</v>
+        <v>0.269</v>
       </c>
       <c r="L103" t="n">
-        <v>44610</v>
+        <v>44283</v>
       </c>
       <c r="M103" t="n">
-        <v>0.407</v>
+        <v>0.404</v>
       </c>
       <c r="N103" t="n">
         <v>0.126</v>
       </c>
       <c r="O103" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="P103" t="s">
         <v>313</v>
@@ -8833,7 +8833,7 @@
         <v>618</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="D106" t="s">
         <v>619</v>
@@ -8843,31 +8843,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H106" t="n">
-        <v>12926064</v>
+        <v>13116190</v>
       </c>
       <c r="I106" t="n">
-        <v>1267.67</v>
+        <v>1286.316</v>
       </c>
       <c r="J106" t="n">
-        <v>60718</v>
+        <v>48745</v>
       </c>
       <c r="K106" t="n">
-        <v>5.955</v>
+        <v>4.78</v>
       </c>
       <c r="L106" t="n">
-        <v>54651</v>
+        <v>54958</v>
       </c>
       <c r="M106" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="N106" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="O106" t="n">
-        <v>48.3</v>
+        <v>43</v>
       </c>
       <c r="P106" t="s">
         <v>620</v>
@@ -8890,7 +8890,7 @@
         <v>623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="D107" t="s">
         <v>624</v>
@@ -8900,31 +8900,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H107" t="n">
-        <v>2131383</v>
+        <v>2155430</v>
       </c>
       <c r="I107" t="n">
-        <v>739.791</v>
+        <v>748.138</v>
       </c>
       <c r="J107" t="n">
-        <v>4751</v>
+        <v>5246</v>
       </c>
       <c r="K107" t="n">
-        <v>1.649</v>
+        <v>1.821</v>
       </c>
       <c r="L107" t="n">
-        <v>5289</v>
+        <v>4809</v>
       </c>
       <c r="M107" t="n">
-        <v>1.836</v>
+        <v>1.669</v>
       </c>
       <c r="N107" t="n">
-        <v>0.029</v>
+        <v>0.026</v>
       </c>
       <c r="O107" t="n">
-        <v>34.4</v>
+        <v>38.3</v>
       </c>
       <c r="P107" t="s">
         <v>626</v>
@@ -8947,7 +8947,7 @@
         <v>629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D108" t="s">
         <v>630</v>
@@ -8957,25 +8957,25 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H108" t="n">
-        <v>8286995</v>
+        <v>8331498</v>
       </c>
       <c r="I108" t="n">
-        <v>430.769</v>
+        <v>433.082</v>
       </c>
       <c r="J108" t="n">
-        <v>17701</v>
+        <v>15292</v>
       </c>
       <c r="K108" t="n">
-        <v>0.92</v>
+        <v>0.795</v>
       </c>
       <c r="L108" t="n">
-        <v>14038</v>
+        <v>14115</v>
       </c>
       <c r="M108" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -9000,7 +9000,7 @@
         <v>636</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="D109" t="s">
         <v>637</v>
@@ -9010,31 +9010,31 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H109" t="n">
-        <v>147444161</v>
+        <v>148983476</v>
       </c>
       <c r="I109" t="n">
-        <v>1010.345</v>
+        <v>1020.893</v>
       </c>
       <c r="J109" t="n">
-        <v>505299</v>
+        <v>527202</v>
       </c>
       <c r="K109" t="n">
-        <v>3.463</v>
+        <v>3.613</v>
       </c>
       <c r="L109" t="n">
-        <v>431690</v>
+        <v>461776</v>
       </c>
       <c r="M109" t="n">
-        <v>2.958</v>
+        <v>3.164</v>
       </c>
       <c r="N109" t="n">
         <v>0.041</v>
       </c>
       <c r="O109" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="P109" t="s">
         <v>638</v>
@@ -9057,7 +9057,7 @@
         <v>642</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44371</v>
+        <v>44376</v>
       </c>
       <c r="D110" t="s">
         <v>643</v>
@@ -9067,32 +9067,28 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H110" t="n">
-        <v>1573227</v>
+        <v>1621312</v>
       </c>
       <c r="I110" t="n">
-        <v>121.464</v>
+        <v>125.176</v>
       </c>
       <c r="J110" t="n">
-        <v>8741</v>
+        <v>6883</v>
       </c>
       <c r="K110" t="n">
-        <v>0.675</v>
+        <v>0.531</v>
       </c>
       <c r="L110" t="n">
-        <v>7293</v>
+        <v>9207</v>
       </c>
       <c r="M110" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="O110" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0.711</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
         <v>644</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>648</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D111" t="s">
         <v>649</v>
@@ -9127,10 +9123,10 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>20546</v>
+        <v>21126</v>
       </c>
       <c r="I111" t="n">
-        <v>386.261</v>
+        <v>397.165</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -9159,7 +9155,7 @@
         <v>653</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D112" t="s">
         <v>654</v>
@@ -9169,31 +9165,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H112" t="n">
-        <v>21310136</v>
+        <v>21688368</v>
       </c>
       <c r="I112" t="n">
-        <v>612.116</v>
+        <v>622.981</v>
       </c>
       <c r="J112" t="n">
-        <v>91021</v>
+        <v>86824</v>
       </c>
       <c r="K112" t="n">
-        <v>2.615</v>
+        <v>2.494</v>
       </c>
       <c r="L112" t="n">
-        <v>85363</v>
+        <v>93068</v>
       </c>
       <c r="M112" t="n">
-        <v>2.452</v>
+        <v>2.673</v>
       </c>
       <c r="N112" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O112" t="n">
-        <v>68.5</v>
+        <v>72.1</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9273,7 +9269,7 @@
         <v>662</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="D114" t="s">
         <v>663</v>
@@ -9285,31 +9281,31 @@
         <v>664</v>
       </c>
       <c r="G114" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H114" t="n">
-        <v>4361392</v>
+        <v>4397216</v>
       </c>
       <c r="I114" t="n">
-        <v>640.948</v>
+        <v>646.213</v>
       </c>
       <c r="J114" t="n">
-        <v>8368</v>
+        <v>7530</v>
       </c>
       <c r="K114" t="n">
-        <v>1.23</v>
+        <v>1.107</v>
       </c>
       <c r="L114" t="n">
-        <v>8429</v>
+        <v>7634</v>
       </c>
       <c r="M114" t="n">
-        <v>1.239</v>
+        <v>1.122</v>
       </c>
       <c r="N114" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="O114" t="n">
-        <v>83.2</v>
+        <v>98.2</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9332,7 +9328,7 @@
         <v>668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="D115" t="s">
         <v>669</v>
@@ -9342,27 +9338,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H115" t="n">
-        <v>13287834</v>
+        <v>13607805</v>
       </c>
       <c r="I115" t="n">
-        <v>2271.291</v>
+        <v>2325.984</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>68383</v>
+        <v>45710</v>
       </c>
       <c r="M115" t="n">
-        <v>11.689</v>
+        <v>7.813</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>3710.6</v>
+        <v>2601.4</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9385,7 +9381,7 @@
         <v>672</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="D116" t="s">
         <v>673</v>
@@ -9395,25 +9391,25 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H116" t="n">
-        <v>39644079</v>
+        <v>39860968</v>
       </c>
       <c r="I116" t="n">
-        <v>7261.295</v>
+        <v>7301.021</v>
       </c>
       <c r="J116" t="n">
-        <v>30044</v>
+        <v>40060</v>
       </c>
       <c r="K116" t="n">
-        <v>5.503</v>
+        <v>7.337</v>
       </c>
       <c r="L116" t="n">
-        <v>45289</v>
+        <v>40038</v>
       </c>
       <c r="M116" t="n">
-        <v>8.295</v>
+        <v>7.333</v>
       </c>
       <c r="N116" t="n">
         <v>0.002</v>
@@ -9442,7 +9438,7 @@
         <v>676</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D117" t="s">
         <v>677</v>
@@ -9452,31 +9448,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H117" t="n">
-        <v>1341183</v>
+        <v>1345286</v>
       </c>
       <c r="I117" t="n">
-        <v>645.131</v>
+        <v>647.104</v>
       </c>
       <c r="J117" t="n">
-        <v>2161</v>
+        <v>1643</v>
       </c>
       <c r="K117" t="n">
-        <v>1.039</v>
+        <v>0.79</v>
       </c>
       <c r="L117" t="n">
-        <v>1806</v>
+        <v>1495</v>
       </c>
       <c r="M117" t="n">
-        <v>0.869</v>
+        <v>0.719</v>
       </c>
       <c r="N117" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="O117" t="n">
-        <v>37</v>
+        <v>47.6</v>
       </c>
       <c r="P117" t="s">
         <v>678</v>
@@ -9499,7 +9495,7 @@
         <v>681</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44371</v>
+        <v>44373</v>
       </c>
       <c r="D118" t="s">
         <v>682</v>
@@ -9511,31 +9507,31 @@
         <v>684</v>
       </c>
       <c r="G118" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H118" t="n">
-        <v>12769052</v>
+        <v>12912828</v>
       </c>
       <c r="I118" t="n">
-        <v>215.298</v>
+        <v>217.722</v>
       </c>
       <c r="J118" t="n">
-        <v>65631</v>
+        <v>70067</v>
       </c>
       <c r="K118" t="n">
-        <v>1.107</v>
+        <v>1.181</v>
       </c>
       <c r="L118" t="n">
-        <v>55014</v>
+        <v>59848</v>
       </c>
       <c r="M118" t="n">
-        <v>0.928</v>
+        <v>1.009</v>
       </c>
       <c r="N118" t="n">
-        <v>0.236</v>
+        <v>0.248</v>
       </c>
       <c r="O118" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P118" t="s">
         <v>683</v>
@@ -9558,7 +9554,7 @@
         <v>688</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D119" t="s">
         <v>689</v>
@@ -9568,25 +9564,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H119" t="n">
-        <v>10344357</v>
+        <v>10438883</v>
       </c>
       <c r="I119" t="n">
-        <v>201.766</v>
+        <v>203.609</v>
       </c>
       <c r="J119" t="n">
-        <v>26546</v>
+        <v>32797</v>
       </c>
       <c r="K119" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L119" t="n">
+        <v>26567</v>
+      </c>
+      <c r="M119" t="n">
         <v>0.518</v>
-      </c>
-      <c r="L119" t="n">
-        <v>25164</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.491</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9717,7 +9713,7 @@
         <v>705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="D122" t="s">
         <v>706</v>
@@ -9727,28 +9723,32 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H122" t="n">
-        <v>3969644</v>
+        <v>4020104</v>
       </c>
       <c r="I122" t="n">
-        <v>185.383</v>
+        <v>187.739</v>
       </c>
       <c r="J122" t="n">
-        <v>17552</v>
+        <v>18008</v>
       </c>
       <c r="K122" t="n">
-        <v>0.82</v>
+        <v>0.841</v>
       </c>
       <c r="L122" t="n">
-        <v>18706</v>
+        <v>18145</v>
       </c>
       <c r="M122" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122"/>
+        <v>0.847</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O122" t="n">
+        <v>9.3</v>
+      </c>
       <c r="P122" t="s">
         <v>707</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>717</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="D124" t="s">
         <v>441</v>
@@ -9833,31 +9833,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H124" t="n">
-        <v>7778208</v>
+        <v>7847446</v>
       </c>
       <c r="I124" t="n">
-        <v>898.735</v>
+        <v>906.735</v>
       </c>
       <c r="J124" t="n">
-        <v>17253</v>
+        <v>15946</v>
       </c>
       <c r="K124" t="n">
-        <v>1.994</v>
+        <v>1.842</v>
       </c>
       <c r="L124" t="n">
-        <v>19097</v>
+        <v>18568</v>
       </c>
       <c r="M124" t="n">
-        <v>2.207</v>
+        <v>2.145</v>
       </c>
       <c r="N124" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O124" t="n">
-        <v>125</v>
+        <v>142.9</v>
       </c>
       <c r="P124" t="s">
         <v>442</v>
@@ -9880,7 +9880,7 @@
         <v>720</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D125" t="s">
         <v>721</v>
@@ -9890,31 +9890,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H125" t="n">
-        <v>1213717</v>
+        <v>1311961</v>
       </c>
       <c r="I125" t="n">
-        <v>50.961</v>
+        <v>55.086</v>
       </c>
       <c r="J125" t="n">
-        <v>24663</v>
+        <v>24309</v>
       </c>
       <c r="K125" t="n">
-        <v>1.036</v>
+        <v>1.021</v>
       </c>
       <c r="L125" t="n">
-        <v>27340</v>
+        <v>27133</v>
       </c>
       <c r="M125" t="n">
-        <v>1.148</v>
+        <v>1.139</v>
       </c>
       <c r="N125" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O125" t="n">
-        <v>237.7</v>
+        <v>309.3</v>
       </c>
       <c r="P125" t="s">
         <v>722</v>
@@ -9990,7 +9990,7 @@
         <v>730</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D127" t="s">
         <v>731</v>
@@ -10003,10 +10003,10 @@
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>125244</v>
+        <v>129581</v>
       </c>
       <c r="I127" t="n">
-        <v>94.994</v>
+        <v>98.283</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -10149,7 +10149,7 @@
         <v>746</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="D130" t="s">
         <v>747</v>
@@ -10159,28 +10159,28 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H130" t="n">
-        <v>1648646</v>
+        <v>1681458</v>
       </c>
       <c r="I130" t="n">
-        <v>139.496</v>
-      </c>
-      <c r="J130" t="n">
-        <v>11418</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.966</v>
-      </c>
+        <v>142.272</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
       <c r="L130" t="n">
-        <v>8344</v>
+        <v>10014</v>
       </c>
       <c r="M130" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="N130"/>
-      <c r="O130"/>
+        <v>0.847</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="O130" t="n">
+        <v>3</v>
+      </c>
       <c r="P130" t="s">
         <v>749</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>753</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D131" t="s">
         <v>754</v>
@@ -10212,31 +10212,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H131" t="n">
-        <v>59444650</v>
+        <v>60328966</v>
       </c>
       <c r="I131" t="n">
-        <v>704.829</v>
+        <v>715.315</v>
       </c>
       <c r="J131" t="n">
-        <v>223385</v>
+        <v>223525</v>
       </c>
       <c r="K131" t="n">
-        <v>2.649</v>
+        <v>2.65</v>
       </c>
       <c r="L131" t="n">
-        <v>220684</v>
+        <v>222162</v>
       </c>
       <c r="M131" t="n">
-        <v>2.617</v>
+        <v>2.634</v>
       </c>
       <c r="N131" t="n">
         <v>0.025</v>
       </c>
       <c r="O131" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="P131" t="s">
         <v>755</v>
@@ -10316,7 +10316,7 @@
         <v>765</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D133" t="s">
         <v>766</v>
@@ -10326,25 +10326,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H133" t="n">
-        <v>10759153</v>
+        <v>10817822</v>
       </c>
       <c r="I133" t="n">
-        <v>246.015</v>
+        <v>247.356</v>
       </c>
       <c r="J133" t="n">
-        <v>19481</v>
+        <v>10930</v>
       </c>
       <c r="K133" t="n">
-        <v>0.445</v>
+        <v>0.25</v>
       </c>
       <c r="L133" t="n">
-        <v>18487</v>
+        <v>18132</v>
       </c>
       <c r="M133" t="n">
-        <v>0.423</v>
+        <v>0.415</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10369,7 +10369,7 @@
         <v>771</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D134" t="s">
         <v>772</v>
@@ -10379,31 +10379,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H134" t="n">
-        <v>56085301</v>
+        <v>57152316</v>
       </c>
       <c r="I134" t="n">
-        <v>5670.681</v>
+        <v>5778.565</v>
       </c>
       <c r="J134" t="n">
-        <v>282345</v>
+        <v>232544</v>
       </c>
       <c r="K134" t="n">
-        <v>28.547</v>
+        <v>23.512</v>
       </c>
       <c r="L134" t="n">
-        <v>260832</v>
+        <v>267624</v>
       </c>
       <c r="M134" t="n">
-        <v>26.372</v>
+        <v>27.059</v>
       </c>
       <c r="N134" t="n">
         <v>0.008</v>
       </c>
       <c r="O134" t="n">
-        <v>128.8</v>
+        <v>125</v>
       </c>
       <c r="P134" t="s">
         <v>773</v>
@@ -10426,7 +10426,7 @@
         <v>776</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D135" t="s">
         <v>777</v>
@@ -10438,31 +10438,31 @@
         <v>779</v>
       </c>
       <c r="G135" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H135" t="n">
-        <v>201822459</v>
+        <v>205848490</v>
       </c>
       <c r="I135" t="n">
-        <v>2972.961</v>
+        <v>3032.267</v>
       </c>
       <c r="J135" t="n">
-        <v>1150834</v>
+        <v>1216682</v>
       </c>
       <c r="K135" t="n">
-        <v>16.952</v>
+        <v>17.922</v>
       </c>
       <c r="L135" t="n">
-        <v>1011931</v>
+        <v>1038886</v>
       </c>
       <c r="M135" t="n">
-        <v>14.906</v>
+        <v>15.303</v>
       </c>
       <c r="N135" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="O135" t="n">
-        <v>90.6</v>
+        <v>70.9</v>
       </c>
       <c r="P135" t="s">
         <v>778</v>
@@ -10485,7 +10485,7 @@
         <v>783</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="D136" t="s">
         <v>784</v>
@@ -10495,31 +10495,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H136" t="n">
-        <v>463986720</v>
+        <v>466195371</v>
       </c>
       <c r="I136" t="n">
-        <v>1401.761</v>
+        <v>1408.434</v>
       </c>
       <c r="J136" t="n">
-        <v>233813</v>
+        <v>349631</v>
       </c>
       <c r="K136" t="n">
-        <v>0.706</v>
+        <v>1.056</v>
       </c>
       <c r="L136" t="n">
-        <v>468219</v>
+        <v>464495</v>
       </c>
       <c r="M136" t="n">
-        <v>1.415</v>
+        <v>1.403</v>
       </c>
       <c r="N136" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="O136" t="n">
-        <v>41.7</v>
+        <v>40</v>
       </c>
       <c r="P136" t="s">
         <v>785</v>
@@ -10542,7 +10542,7 @@
         <v>790</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="D137" t="s">
         <v>791</v>
@@ -10552,31 +10552,27 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H137" t="n">
-        <v>2710714</v>
+        <v>2766700</v>
       </c>
       <c r="I137" t="n">
-        <v>780.347</v>
-      </c>
-      <c r="J137" t="n">
-        <v>16916</v>
-      </c>
-      <c r="K137" t="n">
-        <v>4.87</v>
-      </c>
+        <v>796.464</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137" t="n">
-        <v>16257</v>
+        <v>14620</v>
       </c>
       <c r="M137" t="n">
-        <v>4.68</v>
+        <v>4.209</v>
       </c>
       <c r="N137" t="n">
-        <v>0.121</v>
+        <v>0.107</v>
       </c>
       <c r="O137" t="n">
-        <v>8.3</v>
+        <v>9.3</v>
       </c>
       <c r="P137" t="s">
         <v>190</v>
@@ -10656,7 +10652,7 @@
         <v>801</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="D139" t="s">
         <v>802</v>
@@ -10666,31 +10662,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H139" t="n">
-        <v>1814441</v>
+        <v>1852869</v>
       </c>
       <c r="I139" t="n">
-        <v>98.697</v>
+        <v>100.787</v>
       </c>
       <c r="J139" t="n">
-        <v>12880</v>
+        <v>5762</v>
       </c>
       <c r="K139" t="n">
-        <v>0.701</v>
+        <v>0.313</v>
       </c>
       <c r="L139" t="n">
-        <v>10808</v>
+        <v>10735</v>
       </c>
       <c r="M139" t="n">
-        <v>0.588</v>
+        <v>0.584</v>
       </c>
       <c r="N139" t="n">
-        <v>0.243</v>
+        <v>0.253</v>
       </c>
       <c r="O139" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="P139" t="s">
         <v>804</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4065</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4090</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/06/coronavirus-covid-19-at-a-glance-27-june-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/07/coronavirus-covid-19-at-a-glance-1-july-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-441-new-cases-196-recoveries_i_0000131639.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-reports-1023-new-covid-19-cases-1187-recoveries_i_0000131811.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5728-reporte-465-de-covid-19-2-270-pacientes-recuperados-11-383-pruebas-negativas-y-2-316-046-dosis-de-vacunas-aplicadas-hasta-la-fecha</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5750-reporte-472-de-covid-19-2-075-pacientes-recuperados-10-830-pruebas-negativas-y-2-590-835-dosis-de-la-vacuna-aplicadas-hasta-la-fecha</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-28-de-junho-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-01-de-julho-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/photos/a.270240923141609/1934778833354468/</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1940396256126059</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=478a23d1f8</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=01e443957a</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -714,7 +714,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-28062021-4s29</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-02072021-1tre</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.464.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/06/Boletin-COVID-19-no.467.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-23062021.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2021/06/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-30062021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/1719</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/1801</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1009,7 +1009,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/06/covid-gr-daily-report-20210624.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/07/covid-gr-daily-report-20210701.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1164,7 +1164,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/366367</t>
+    <t xml:space="preserve">http://irangov.ir/detail/366595</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1407769831517085697</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1410615800168284165</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1287,7 +1287,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-june-26-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-june-30-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1396,7 +1396,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1407760420820197380</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1410644427304062978</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Liechtenstein - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210628-ybdl6hmv/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210702-gpfrkolg/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4259170380814180/4259157074148844/</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=b-S8Ec5hOCk&amp;ab_channel=TVMMalagasy</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/06/situasi-terkini-covid-19-di-malaysia-24062021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/07/situasi-terkini-covid-19-di-malaysia-01072021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1602,7 +1602,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1408107680397336585</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1410644237222252545</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1623,7 +1623,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/365055095213040/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/369701994748350/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1699,7 +1699,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-22-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1238/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-06-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-30-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1248/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1714,7 +1714,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1408090405288173568</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1410627459561803786</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1024:boletim-diario-covid-19-n-464</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1030:boletim-diario-covid-19-n-430</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(24-6-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FJune_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(30-6-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.768035670536105/768035557202783</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.771611023511903/771610836845255</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1bSJX0d2H76W5u8qPIJnAgL6GLIjH5Y6z</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1G6JOsDjTl4frrzUY4JrNQhHLrJOCVUTA</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-06/COVID-19_WebSite_rapport_wekelijks_20210622_1136_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-06/COVID-19_WebSite_rapport_wekelijks_20210629_1206_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3920118901447292</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3938797992912716</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1974,7 +1974,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1407846706042085376</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1410375190182256647</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2008,7 +2008,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1408211396916125698</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1410395412117270529</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1407983081311535109</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1410519796043685890</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/29-06_BULETIN_DE_PRESĂ_-_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_2_IULIE.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2149,7 +2149,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18204</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18240</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_17_06_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_24_06_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-764/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-769/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1408076873696006145</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1410541337263411200</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2680,7 +2680,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-211</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-216</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2740,7 +2740,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1408157426562572293</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1410331136073547784</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3088,7 +3088,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3214,7 +3214,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44368</v>
+        <v>44375</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3224,27 +3224,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>195713</v>
+        <v>196782</v>
       </c>
       <c r="I3" t="n">
-        <v>2533.01</v>
+        <v>2546.845</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
-        <v>1.786</v>
+        <v>1.98</v>
       </c>
       <c r="N3" t="n">
-        <v>0.039</v>
+        <v>0.017</v>
       </c>
       <c r="O3" t="n">
-        <v>25.4</v>
+        <v>59.5</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3267,7 +3267,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3312,7 +3312,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3322,28 +3322,28 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H5" t="n">
-        <v>10968998</v>
+        <v>11092895</v>
       </c>
       <c r="I5" t="n">
-        <v>242.7</v>
+        <v>245.441</v>
       </c>
       <c r="J5" t="n">
-        <v>36835</v>
+        <v>30403</v>
       </c>
       <c r="K5" t="n">
-        <v>0.815</v>
+        <v>0.673</v>
       </c>
       <c r="L5" t="n">
-        <v>27879</v>
+        <v>29370</v>
       </c>
       <c r="M5" t="n">
-        <v>0.617</v>
+        <v>0.65</v>
       </c>
       <c r="N5" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="O5" t="n">
         <v>4.5</v>
@@ -3369,7 +3369,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3379,31 +3379,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H6" t="n">
-        <v>1163742</v>
+        <v>1188922</v>
       </c>
       <c r="I6" t="n">
-        <v>392.727</v>
+        <v>401.224</v>
       </c>
       <c r="J6" t="n">
-        <v>3452</v>
+        <v>3920</v>
       </c>
       <c r="K6" t="n">
-        <v>1.165</v>
+        <v>1.323</v>
       </c>
       <c r="L6" t="n">
-        <v>3575</v>
+        <v>3597</v>
       </c>
       <c r="M6" t="n">
-        <v>1.206</v>
+        <v>1.214</v>
       </c>
       <c r="N6" t="n">
-        <v>0.021</v>
+        <v>0.027</v>
       </c>
       <c r="O6" t="n">
-        <v>47</v>
+        <v>36.6</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3426,7 +3426,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44374</v>
+        <v>44378</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3436,27 +3436,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H7" t="n">
-        <v>20303632</v>
+        <v>20840689</v>
       </c>
       <c r="I7" t="n">
-        <v>796.225</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>817.286</v>
+      </c>
+      <c r="J7" t="n">
+        <v>155772</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.109</v>
+      </c>
       <c r="L7" t="n">
-        <v>83726</v>
+        <v>115920</v>
       </c>
       <c r="M7" t="n">
-        <v>3.283</v>
+        <v>4.546</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3387.8</v>
+        <v>3120.9</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3479,7 +3483,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44374</v>
+        <v>44378</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3489,31 +3493,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H8" t="n">
-        <v>54026448</v>
+        <v>55451224</v>
       </c>
       <c r="I8" t="n">
-        <v>5998.673</v>
+        <v>6156.869</v>
       </c>
       <c r="J8" t="n">
-        <v>312902</v>
+        <v>354947</v>
       </c>
       <c r="K8" t="n">
-        <v>34.742</v>
+        <v>39.411</v>
       </c>
       <c r="L8" t="n">
-        <v>420512</v>
+        <v>372421</v>
       </c>
       <c r="M8" t="n">
-        <v>46.69</v>
+        <v>41.351</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4297.2</v>
+        <v>4722.7</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3536,7 +3540,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3546,32 +3550,28 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H9" t="n">
-        <v>3733194</v>
+        <v>3767982</v>
       </c>
       <c r="I9" t="n">
-        <v>368.195</v>
+        <v>371.626</v>
       </c>
       <c r="J9" t="n">
-        <v>4482</v>
+        <v>9851</v>
       </c>
       <c r="K9" t="n">
-        <v>0.442</v>
+        <v>0.972</v>
       </c>
       <c r="L9" t="n">
-        <v>7460</v>
+        <v>7743</v>
       </c>
       <c r="M9" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O9" t="n">
-        <v>147.9</v>
-      </c>
+        <v>0.764</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
       <c r="P9" t="s">
         <v>65</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3603,25 +3603,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H10" t="n">
-        <v>5015001</v>
+        <v>5052499</v>
       </c>
       <c r="I10" t="n">
-        <v>2947.256</v>
+        <v>2969.293</v>
       </c>
       <c r="J10" t="n">
-        <v>12121</v>
+        <v>13802</v>
       </c>
       <c r="K10" t="n">
-        <v>7.123</v>
+        <v>8.111</v>
       </c>
       <c r="L10" t="n">
-        <v>12935</v>
+        <v>12630</v>
       </c>
       <c r="M10" t="n">
-        <v>7.602</v>
+        <v>7.423</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3646,7 +3646,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3656,31 +3656,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H11" t="n">
-        <v>6538928</v>
+        <v>6638070</v>
       </c>
       <c r="I11" t="n">
-        <v>39.705</v>
+        <v>40.307</v>
       </c>
       <c r="J11" t="n">
-        <v>35059</v>
+        <v>32055</v>
       </c>
       <c r="K11" t="n">
-        <v>0.213</v>
+        <v>0.195</v>
       </c>
       <c r="L11" t="n">
-        <v>28349</v>
+        <v>30558</v>
       </c>
       <c r="M11" t="n">
-        <v>0.172</v>
+        <v>0.186</v>
       </c>
       <c r="N11" t="n">
-        <v>0.204</v>
+        <v>0.227</v>
       </c>
       <c r="O11" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3703,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3713,27 +3713,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H12" t="n">
-        <v>6764743</v>
+        <v>6813944</v>
       </c>
       <c r="I12" t="n">
-        <v>715.897</v>
+        <v>721.104</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>15589</v>
+        <v>15968</v>
       </c>
       <c r="M12" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="N12" t="n">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="O12" t="n">
-        <v>23.6</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3756,7 +3756,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3766,25 +3766,25 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H13" t="n">
-        <v>15134628</v>
+        <v>15343120</v>
       </c>
       <c r="I13" t="n">
-        <v>1305.878</v>
+        <v>1323.868</v>
       </c>
       <c r="J13" t="n">
-        <v>23787</v>
+        <v>73121</v>
       </c>
       <c r="K13" t="n">
-        <v>2.052</v>
+        <v>6.309</v>
       </c>
       <c r="L13" t="n">
-        <v>41739</v>
+        <v>51027</v>
       </c>
       <c r="M13" t="n">
-        <v>3.601</v>
+        <v>4.403</v>
       </c>
       <c r="N13" t="n">
         <v>0.01</v>
@@ -3813,7 +3813,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44371</v>
+        <v>44377</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3823,31 +3823,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>148799</v>
+        <v>153748</v>
       </c>
       <c r="I14" t="n">
-        <v>374.223</v>
-      </c>
-      <c r="J14" t="n">
-        <v>931</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.341</v>
-      </c>
+        <v>386.67</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
       <c r="L14" t="n">
-        <v>666</v>
+        <v>840</v>
       </c>
       <c r="M14" t="n">
-        <v>1.675</v>
+        <v>2.113</v>
       </c>
       <c r="N14" t="n">
-        <v>0.024</v>
+        <v>0.029</v>
       </c>
       <c r="O14" t="n">
-        <v>42.4</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3968,7 +3964,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3978,31 +3974,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="H17" t="n">
-        <v>1756722</v>
+        <v>1834320</v>
       </c>
       <c r="I17" t="n">
-        <v>150.494</v>
+        <v>157.142</v>
       </c>
       <c r="J17" t="n">
-        <v>13653</v>
+        <v>12831</v>
       </c>
       <c r="K17" t="n">
-        <v>1.17</v>
+        <v>1.099</v>
       </c>
       <c r="L17" t="n">
-        <v>10278</v>
+        <v>11085</v>
       </c>
       <c r="M17" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="N17" t="n">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="O17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4025,7 +4021,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4035,28 +4031,28 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H18" t="n">
-        <v>1027418</v>
+        <v>1033373</v>
       </c>
       <c r="I18" t="n">
-        <v>313.159</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>314.974</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1267</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.386</v>
+      </c>
       <c r="L18" t="n">
-        <v>1504</v>
+        <v>1438</v>
       </c>
       <c r="M18" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="O18" t="n">
-        <v>80.4</v>
-      </c>
+        <v>0.438</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>118</v>
       </c>
@@ -4123,7 +4119,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4133,25 +4129,25 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H20" t="n">
-        <v>3162240</v>
+        <v>3206721</v>
       </c>
       <c r="I20" t="n">
-        <v>455.1</v>
+        <v>461.502</v>
       </c>
       <c r="J20" t="n">
-        <v>20034</v>
+        <v>13923</v>
       </c>
       <c r="K20" t="n">
-        <v>2.883</v>
+        <v>2.004</v>
       </c>
       <c r="L20" t="n">
-        <v>11367</v>
+        <v>12696</v>
       </c>
       <c r="M20" t="n">
-        <v>1.636</v>
+        <v>1.827</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4176,7 +4172,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D21" t="s">
         <v>134</v>
@@ -4186,25 +4182,25 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21" t="n">
-        <v>1351976</v>
+        <v>1371584</v>
       </c>
       <c r="I21" t="n">
-        <v>80.865</v>
+        <v>82.038</v>
       </c>
       <c r="J21" t="n">
-        <v>6534</v>
+        <v>6754</v>
       </c>
       <c r="K21" t="n">
-        <v>0.391</v>
+        <v>0.404</v>
       </c>
       <c r="L21" t="n">
-        <v>6107</v>
+        <v>6203</v>
       </c>
       <c r="M21" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
@@ -4286,7 +4282,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4296,31 +4292,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H23" t="n">
-        <v>36643986</v>
+        <v>36768392</v>
       </c>
       <c r="I23" t="n">
-        <v>970.903</v>
+        <v>974.2</v>
       </c>
       <c r="J23" t="n">
-        <v>110856</v>
+        <v>62821</v>
       </c>
       <c r="K23" t="n">
-        <v>2.937</v>
+        <v>1.664</v>
       </c>
       <c r="L23" t="n">
-        <v>57192</v>
+        <v>60521</v>
       </c>
       <c r="M23" t="n">
-        <v>1.515</v>
+        <v>1.604</v>
       </c>
       <c r="N23" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O23" t="n">
-        <v>89.8</v>
+        <v>97.1</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4343,7 +4339,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4353,15 +4349,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>698</v>
+        <v>1109</v>
       </c>
       <c r="K24" t="n">
-        <v>1.255</v>
+        <v>1.995</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4388,7 +4384,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4398,25 +4394,25 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H25" t="n">
-        <v>16553859</v>
+        <v>16645209</v>
       </c>
       <c r="I25" t="n">
-        <v>865.959</v>
+        <v>870.738</v>
       </c>
       <c r="J25" t="n">
-        <v>66030</v>
+        <v>34044</v>
       </c>
       <c r="K25" t="n">
-        <v>3.454</v>
+        <v>1.781</v>
       </c>
       <c r="L25" t="n">
-        <v>52551</v>
+        <v>51584</v>
       </c>
       <c r="M25" t="n">
-        <v>2.749</v>
+        <v>2.698</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -4486,7 +4482,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4496,31 +4492,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H27" t="n">
-        <v>19646098</v>
+        <v>20010139</v>
       </c>
       <c r="I27" t="n">
-        <v>386.104</v>
+        <v>393.259</v>
       </c>
       <c r="J27" t="n">
-        <v>76223</v>
+        <v>123107</v>
       </c>
       <c r="K27" t="n">
-        <v>1.498</v>
+        <v>2.419</v>
       </c>
       <c r="L27" t="n">
-        <v>109325</v>
+        <v>110197</v>
       </c>
       <c r="M27" t="n">
-        <v>2.149</v>
+        <v>2.166</v>
       </c>
       <c r="N27" t="n">
-        <v>0.319</v>
+        <v>0.304</v>
       </c>
       <c r="O27" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4543,7 +4539,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4553,31 +4549,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H28" t="n">
-        <v>1214603</v>
+        <v>1232682</v>
       </c>
       <c r="I28" t="n">
-        <v>238.433</v>
+        <v>241.982</v>
       </c>
       <c r="J28" t="n">
-        <v>8902</v>
+        <v>9049</v>
       </c>
       <c r="K28" t="n">
-        <v>1.748</v>
+        <v>1.776</v>
       </c>
       <c r="L28" t="n">
-        <v>7710</v>
+        <v>7793</v>
       </c>
       <c r="M28" t="n">
-        <v>1.514</v>
+        <v>1.53</v>
       </c>
       <c r="N28" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="O28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4600,7 +4596,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4610,31 +4606,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H29" t="n">
-        <v>694178</v>
+        <v>709587</v>
       </c>
       <c r="I29" t="n">
-        <v>26.316</v>
+        <v>26.9</v>
       </c>
       <c r="J29" t="n">
-        <v>2025</v>
+        <v>2487</v>
       </c>
       <c r="K29" t="n">
-        <v>0.077</v>
+        <v>0.094</v>
       </c>
       <c r="L29" t="n">
-        <v>2196</v>
+        <v>2201</v>
       </c>
       <c r="M29" t="n">
         <v>0.083</v>
       </c>
       <c r="N29" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="O29" t="n">
-        <v>123</v>
+        <v>62.4</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4657,7 +4653,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4667,25 +4663,25 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H30" t="n">
-        <v>2143600</v>
+        <v>2157376</v>
       </c>
       <c r="I30" t="n">
-        <v>522.158</v>
+        <v>525.514</v>
       </c>
       <c r="J30" t="n">
-        <v>5506</v>
+        <v>4362</v>
       </c>
       <c r="K30" t="n">
-        <v>1.341</v>
+        <v>1.063</v>
       </c>
       <c r="L30" t="n">
-        <v>3733</v>
+        <v>4122</v>
       </c>
       <c r="M30" t="n">
-        <v>0.909</v>
+        <v>1.004</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4710,7 +4706,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4722,31 +4718,31 @@
         <v>191</v>
       </c>
       <c r="G31" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H31" t="n">
-        <v>5047554</v>
+        <v>5113084</v>
       </c>
       <c r="I31" t="n">
-        <v>445.637</v>
+        <v>451.422</v>
       </c>
       <c r="J31" t="n">
-        <v>30449</v>
+        <v>34585</v>
       </c>
       <c r="K31" t="n">
-        <v>2.688</v>
+        <v>3.053</v>
       </c>
       <c r="L31" t="n">
-        <v>31782</v>
+        <v>32917</v>
       </c>
       <c r="M31" t="n">
-        <v>2.806</v>
+        <v>2.906</v>
       </c>
       <c r="N31" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>13.4</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4769,7 +4765,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="D32" t="s">
         <v>196</v>
@@ -4779,31 +4775,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H32" t="n">
-        <v>8134787</v>
+        <v>8220767</v>
       </c>
       <c r="I32" t="n">
-        <v>9287.357</v>
+        <v>9257.568</v>
       </c>
       <c r="J32" t="n">
-        <v>37546</v>
+        <v>36239</v>
       </c>
       <c r="K32" t="n">
-        <v>42.866</v>
+        <v>40.809</v>
       </c>
       <c r="L32" t="n">
-        <v>38045</v>
+        <v>40173</v>
       </c>
       <c r="M32" t="n">
-        <v>43.435</v>
+        <v>45.24</v>
       </c>
       <c r="N32" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="O32" t="n">
-        <v>191.7</v>
+        <v>151.1</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4826,7 +4822,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4836,21 +4832,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>144846</v>
+        <v>109244</v>
       </c>
       <c r="K33" t="n">
-        <v>13.526</v>
+        <v>10.201</v>
       </c>
       <c r="L33" t="n">
-        <v>117009</v>
+        <v>110421</v>
       </c>
       <c r="M33" t="n">
-        <v>10.926</v>
+        <v>10.311</v>
       </c>
       <c r="N33" t="n">
         <v>0.001</v>
@@ -4879,7 +4875,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4889,27 +4885,27 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="n">
-        <v>1126</v>
+        <v>558</v>
       </c>
       <c r="K34" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="L34" t="n">
-        <v>1417</v>
+        <v>1611</v>
       </c>
       <c r="M34" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="N34" t="n">
-        <v>0.235</v>
+        <v>0.202</v>
       </c>
       <c r="O34" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4932,7 +4928,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44374</v>
+        <v>44378</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4942,31 +4938,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H35" t="n">
-        <v>35094342</v>
+        <v>35413931</v>
       </c>
       <c r="I35" t="n">
-        <v>6058.894</v>
+        <v>6114.069</v>
       </c>
       <c r="J35" t="n">
-        <v>34473</v>
+        <v>46520</v>
       </c>
       <c r="K35" t="n">
-        <v>5.952</v>
+        <v>8.031</v>
       </c>
       <c r="L35" t="n">
-        <v>73582</v>
+        <v>70463</v>
       </c>
       <c r="M35" t="n">
-        <v>12.704</v>
+        <v>12.165</v>
       </c>
       <c r="N35" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="O35" t="n">
-        <v>396.8</v>
+        <v>272.8</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4989,7 +4985,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4999,27 +4995,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H36" t="n">
-        <v>1690555</v>
+        <v>1706766</v>
       </c>
       <c r="I36" t="n">
-        <v>155.842</v>
+        <v>157.336</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>6637</v>
+        <v>6039</v>
       </c>
       <c r="M36" t="n">
-        <v>0.612</v>
+        <v>0.557</v>
       </c>
       <c r="N36" t="n">
-        <v>0.152</v>
+        <v>0.142</v>
       </c>
       <c r="O36" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5042,7 +5038,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44370</v>
+        <v>44377</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5054,31 +5050,31 @@
         <v>224</v>
       </c>
       <c r="G37" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="H37" t="n">
-        <v>1458030</v>
+        <v>1491453</v>
       </c>
       <c r="I37" t="n">
-        <v>82.64</v>
+        <v>84.535</v>
       </c>
       <c r="J37" t="n">
-        <v>8097</v>
+        <v>4550</v>
       </c>
       <c r="K37" t="n">
-        <v>0.459</v>
+        <v>0.258</v>
       </c>
       <c r="L37" t="n">
-        <v>4552</v>
+        <v>4775</v>
       </c>
       <c r="M37" t="n">
-        <v>0.258</v>
+        <v>0.271</v>
       </c>
       <c r="N37" t="n">
-        <v>0.249</v>
+        <v>0.281</v>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P37" t="s">
         <v>225</v>
@@ -5158,7 +5154,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5171,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>157464</v>
+        <v>159462</v>
       </c>
       <c r="I39" t="n">
-        <v>112.235</v>
+        <v>113.659</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -5203,7 +5199,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5213,31 +5209,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H40" t="n">
-        <v>1529503</v>
+        <v>1538442</v>
       </c>
       <c r="I40" t="n">
-        <v>1153.003</v>
+        <v>1159.741</v>
       </c>
       <c r="J40" t="n">
-        <v>3780</v>
+        <v>2982</v>
       </c>
       <c r="K40" t="n">
-        <v>2.85</v>
+        <v>2.248</v>
       </c>
       <c r="L40" t="n">
-        <v>2696</v>
+        <v>2988</v>
       </c>
       <c r="M40" t="n">
-        <v>2.032</v>
+        <v>2.252</v>
       </c>
       <c r="N40" t="n">
         <v>0.009</v>
       </c>
       <c r="O40" t="n">
-        <v>114.4</v>
+        <v>111.9</v>
       </c>
       <c r="P40" t="s">
         <v>243</v>
@@ -5260,7 +5256,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D41" t="s">
         <v>247</v>
@@ -5270,31 +5266,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H41" t="n">
-        <v>2857048</v>
+        <v>2871470</v>
       </c>
       <c r="I41" t="n">
-        <v>24.852</v>
+        <v>24.977</v>
       </c>
       <c r="J41" t="n">
-        <v>3144</v>
+        <v>4898</v>
       </c>
       <c r="K41" t="n">
-        <v>0.027</v>
+        <v>0.043</v>
       </c>
       <c r="L41" t="n">
-        <v>4125</v>
+        <v>4515</v>
       </c>
       <c r="M41" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="N41" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="O41" t="n">
-        <v>44</v>
+        <v>48.7</v>
       </c>
       <c r="P41" t="s">
         <v>248</v>
@@ -5374,7 +5370,7 @@
         <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="D43" t="s">
         <v>257</v>
@@ -5384,31 +5380,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H43" t="n">
-        <v>5406751</v>
+        <v>5451204</v>
       </c>
       <c r="I43" t="n">
-        <v>975.821</v>
+        <v>983.844</v>
       </c>
       <c r="J43" t="n">
-        <v>5566</v>
+        <v>8422</v>
       </c>
       <c r="K43" t="n">
-        <v>1.005</v>
+        <v>1.52</v>
       </c>
       <c r="L43" t="n">
-        <v>8782</v>
+        <v>9690</v>
       </c>
       <c r="M43" t="n">
-        <v>1.585</v>
+        <v>1.749</v>
       </c>
       <c r="N43" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="O43" t="n">
-        <v>82</v>
+        <v>59.2</v>
       </c>
       <c r="P43" t="s">
         <v>259</v>
@@ -5431,7 +5427,7 @@
         <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="D44" t="s">
         <v>263</v>
@@ -5441,21 +5437,21 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>341010</v>
+        <v>318899</v>
       </c>
       <c r="K44" t="n">
-        <v>5.047</v>
+        <v>4.72</v>
       </c>
       <c r="L44" t="n">
-        <v>240937</v>
+        <v>244570</v>
       </c>
       <c r="M44" t="n">
-        <v>3.566</v>
+        <v>3.62</v>
       </c>
       <c r="N44" t="n">
         <v>0.008</v>
@@ -5484,7 +5480,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5586,7 +5582,7 @@
         <v>279</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="D47" t="s">
         <v>280</v>
@@ -5596,13 +5592,13 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H47" t="n">
-        <v>5652000</v>
+        <v>5847000</v>
       </c>
       <c r="I47" t="n">
-        <v>1416.834</v>
+        <v>1465.717</v>
       </c>
       <c r="J47" t="n">
         <v>31000</v>
@@ -5611,16 +5607,16 @@
         <v>7.771</v>
       </c>
       <c r="L47" t="n">
-        <v>26571</v>
+        <v>27857</v>
       </c>
       <c r="M47" t="n">
-        <v>6.661</v>
+        <v>6.983</v>
       </c>
       <c r="N47" t="n">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="O47" t="n">
-        <v>40.8</v>
+        <v>35</v>
       </c>
       <c r="P47" t="s">
         <v>281</v>
@@ -5643,7 +5639,7 @@
         <v>285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44367</v>
+        <v>44374</v>
       </c>
       <c r="D48" t="s">
         <v>286</v>
@@ -5653,27 +5649,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H48" t="n">
-        <v>63743675</v>
+        <v>64481528</v>
       </c>
       <c r="I48" t="n">
-        <v>760.81</v>
+        <v>769.617</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>101166</v>
+        <v>100789</v>
       </c>
       <c r="M48" t="n">
-        <v>1.207</v>
+        <v>1.203</v>
       </c>
       <c r="N48" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="O48" t="n">
-        <v>71.4</v>
+        <v>100</v>
       </c>
       <c r="P48" t="s">
         <v>287</v>
@@ -5696,7 +5692,7 @@
         <v>291</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44367</v>
+        <v>44373</v>
       </c>
       <c r="D49" t="s">
         <v>292</v>
@@ -5706,31 +5702,27 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H49" t="n">
-        <v>1252073</v>
+        <v>1276266</v>
       </c>
       <c r="I49" t="n">
-        <v>40.295</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3521</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.113</v>
-      </c>
+        <v>41.073</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49" t="n">
-        <v>3617</v>
+        <v>3959</v>
       </c>
       <c r="M49" t="n">
-        <v>0.116</v>
+        <v>0.127</v>
       </c>
       <c r="N49" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="O49" t="n">
-        <v>60.3</v>
+        <v>80.1</v>
       </c>
       <c r="P49" t="s">
         <v>294</v>
@@ -5753,7 +5745,7 @@
         <v>297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44371</v>
+        <v>44378</v>
       </c>
       <c r="D50" t="s">
         <v>298</v>
@@ -5763,31 +5755,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="H50" t="n">
-        <v>10430875</v>
+        <v>10674006</v>
       </c>
       <c r="I50" t="n">
-        <v>1000.75</v>
+        <v>1024.076</v>
       </c>
       <c r="J50" t="n">
-        <v>38292</v>
+        <v>41387</v>
       </c>
       <c r="K50" t="n">
-        <v>3.674</v>
+        <v>3.971</v>
       </c>
       <c r="L50" t="n">
-        <v>31893</v>
+        <v>34733</v>
       </c>
       <c r="M50" t="n">
-        <v>3.06</v>
+        <v>3.332</v>
       </c>
       <c r="N50" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="O50" t="n">
-        <v>84.1</v>
+        <v>74.2</v>
       </c>
       <c r="P50" t="s">
         <v>300</v>
@@ -5810,7 +5802,7 @@
         <v>304</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44373</v>
+        <v>44377</v>
       </c>
       <c r="D51" t="s">
         <v>305</v>
@@ -5820,31 +5812,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H51" t="n">
-        <v>1576507</v>
+        <v>1590968</v>
       </c>
       <c r="I51" t="n">
-        <v>87.996</v>
+        <v>88.804</v>
       </c>
       <c r="J51" t="n">
-        <v>3545</v>
+        <v>9146</v>
       </c>
       <c r="K51" t="n">
-        <v>0.198</v>
+        <v>0.511</v>
       </c>
       <c r="L51" t="n">
-        <v>6130</v>
+        <v>5905</v>
       </c>
       <c r="M51" t="n">
-        <v>0.342</v>
+        <v>0.33</v>
       </c>
       <c r="N51" t="n">
-        <v>0.254</v>
+        <v>0.214</v>
       </c>
       <c r="O51" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="P51" t="s">
         <v>307</v>
@@ -5867,7 +5859,7 @@
         <v>311</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44369</v>
+        <v>44377</v>
       </c>
       <c r="D52" t="s">
         <v>312</v>
@@ -5880,18 +5872,18 @@
         <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>19443410</v>
+        <v>20066916</v>
       </c>
       <c r="I52" t="n">
-        <v>2593.496</v>
+        <v>2676.664</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>67130</v>
+        <v>70012</v>
       </c>
       <c r="M52" t="n">
-        <v>8.954</v>
+        <v>9.339</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5920,7 +5912,7 @@
         <v>318</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="D53" t="s">
         <v>319</v>
@@ -5932,32 +5924,28 @@
         <v>321</v>
       </c>
       <c r="G53" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H53" t="n">
-        <v>5665706</v>
+        <v>5695084</v>
       </c>
       <c r="I53" t="n">
-        <v>586.491</v>
+        <v>589.532</v>
       </c>
       <c r="J53" t="n">
-        <v>22127</v>
+        <v>7391</v>
       </c>
       <c r="K53" t="n">
-        <v>2.29</v>
+        <v>0.765</v>
       </c>
       <c r="L53" t="n">
-        <v>8293</v>
+        <v>7358</v>
       </c>
       <c r="M53" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O53" t="n">
-        <v>140.9</v>
-      </c>
+        <v>0.762</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>320</v>
       </c>
@@ -6032,7 +6020,7 @@
         <v>330</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="D55" t="s">
         <v>331</v>
@@ -6044,25 +6032,25 @@
         <v>333</v>
       </c>
       <c r="G55" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H55" t="n">
-        <v>408139287</v>
+        <v>414251520</v>
       </c>
       <c r="I55" t="n">
-        <v>295.752</v>
+        <v>300.181</v>
       </c>
       <c r="J55" t="n">
-        <v>1768008</v>
+        <v>2230026</v>
       </c>
       <c r="K55" t="n">
-        <v>1.281</v>
+        <v>1.616</v>
       </c>
       <c r="L55" t="n">
-        <v>2009592</v>
+        <v>2097582</v>
       </c>
       <c r="M55" t="n">
-        <v>1.456</v>
+        <v>1.52</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6087,7 +6075,7 @@
         <v>336</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="D56" t="s">
         <v>337</v>
@@ -6097,32 +6085,28 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H56" t="n">
-        <v>13122594</v>
+        <v>13527509</v>
       </c>
       <c r="I56" t="n">
-        <v>47.976</v>
+        <v>49.456</v>
       </c>
       <c r="J56" t="n">
-        <v>80308</v>
+        <v>102765</v>
       </c>
       <c r="K56" t="n">
-        <v>0.294</v>
+        <v>0.376</v>
       </c>
       <c r="L56" t="n">
-        <v>84172</v>
+        <v>94719</v>
       </c>
       <c r="M56" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="O56" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0.346</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
       <c r="P56" t="s">
         <v>338</v>
       </c>
@@ -6144,7 +6128,7 @@
         <v>342</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -6154,28 +6138,24 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H57" t="n">
-        <v>23421222</v>
+        <v>23806452</v>
       </c>
       <c r="I57" t="n">
-        <v>278.847</v>
+        <v>283.434</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>121084</v>
+        <v>105607</v>
       </c>
       <c r="M57" t="n">
-        <v>1.442</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="O57" t="n">
-        <v>11.4</v>
-      </c>
+        <v>1.257</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
         <v>344</v>
       </c>
@@ -6197,7 +6177,7 @@
         <v>348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44370</v>
+        <v>44378</v>
       </c>
       <c r="D58" t="s">
         <v>349</v>
@@ -6207,31 +6187,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H58" t="n">
-        <v>11414059</v>
+        <v>11771294</v>
       </c>
       <c r="I58" t="n">
-        <v>283.773</v>
+        <v>292.654</v>
       </c>
       <c r="J58" t="n">
-        <v>49330</v>
+        <v>48523</v>
       </c>
       <c r="K58" t="n">
-        <v>1.226</v>
+        <v>1.206</v>
       </c>
       <c r="L58" t="n">
-        <v>43499</v>
+        <v>45180</v>
       </c>
       <c r="M58" t="n">
-        <v>1.081</v>
+        <v>1.123</v>
       </c>
       <c r="N58" t="n">
-        <v>0.117</v>
+        <v>0.134</v>
       </c>
       <c r="O58" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="P58" t="s">
         <v>351</v>
@@ -6311,7 +6291,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6321,31 +6301,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H60" t="n">
-        <v>17759584</v>
+        <v>17951167</v>
       </c>
       <c r="I60" t="n">
-        <v>2051.817</v>
+        <v>2073.951</v>
       </c>
       <c r="J60" t="n">
-        <v>67926</v>
+        <v>63067</v>
       </c>
       <c r="K60" t="n">
-        <v>7.848</v>
+        <v>7.286</v>
       </c>
       <c r="L60" t="n">
-        <v>47142</v>
+        <v>55752</v>
       </c>
       <c r="M60" t="n">
-        <v>5.446</v>
+        <v>6.441</v>
       </c>
       <c r="N60" t="n">
         <v>0.004</v>
       </c>
       <c r="O60" t="n">
-        <v>273.6</v>
+        <v>240.5</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6368,7 +6348,7 @@
         <v>367</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D61" t="s">
         <v>368</v>
@@ -6380,31 +6360,31 @@
         <v>370</v>
       </c>
       <c r="G61" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H61" t="n">
-        <v>29428012</v>
+        <v>29563394</v>
       </c>
       <c r="I61" t="n">
-        <v>486.721</v>
+        <v>488.96</v>
       </c>
       <c r="J61" t="n">
-        <v>22236</v>
+        <v>46220</v>
       </c>
       <c r="K61" t="n">
-        <v>0.368</v>
+        <v>0.764</v>
       </c>
       <c r="L61" t="n">
-        <v>38082</v>
+        <v>41734</v>
       </c>
       <c r="M61" t="n">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="N61" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="O61" t="n">
-        <v>53.4</v>
+        <v>57.4</v>
       </c>
       <c r="P61" t="s">
         <v>371</v>
@@ -6427,7 +6407,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="D62" t="s">
         <v>368</v>
@@ -6439,31 +6419,31 @@
         <v>370</v>
       </c>
       <c r="G62" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H62" t="n">
-        <v>71207555</v>
+        <v>71771680</v>
       </c>
       <c r="I62" t="n">
-        <v>1177.727</v>
+        <v>1187.058</v>
       </c>
       <c r="J62" t="n">
-        <v>75861</v>
+        <v>188474</v>
       </c>
       <c r="K62" t="n">
-        <v>1.255</v>
+        <v>3.117</v>
       </c>
       <c r="L62" t="n">
-        <v>172797</v>
+        <v>170658</v>
       </c>
       <c r="M62" t="n">
-        <v>2.858</v>
+        <v>2.823</v>
       </c>
       <c r="N62" t="n">
         <v>0.004</v>
       </c>
       <c r="O62" t="n">
-        <v>242.1</v>
+        <v>234.8</v>
       </c>
       <c r="P62" t="s">
         <v>371</v>
@@ -6486,7 +6466,7 @@
         <v>377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44373</v>
+        <v>44377</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
@@ -6496,31 +6476,27 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H63" t="n">
-        <v>435150</v>
+        <v>442078</v>
       </c>
       <c r="I63" t="n">
-        <v>146.952</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2059</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.695</v>
-      </c>
+        <v>149.292</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63"/>
       <c r="L63" t="n">
-        <v>2007</v>
+        <v>1790</v>
       </c>
       <c r="M63" t="n">
-        <v>0.678</v>
+        <v>0.604</v>
       </c>
       <c r="N63" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="O63" t="n">
-        <v>39.4</v>
+        <v>38.1</v>
       </c>
       <c r="P63" t="s">
         <v>379</v>
@